--- a/homework.xlsx
+++ b/homework.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="598" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0F42267D-9EDA-4803-83A4-339FA19CE339}"/>
   <bookViews>
-    <workbookView xWindow="-10185" yWindow="9450" windowWidth="17445" windowHeight="16200" activeTab="1" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -2056,6 +2056,12 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2072,12 +2078,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2098,8 +2098,8 @@
     <xf numFmtId="170" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2107,8 +2107,8 @@
     <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2117,7 +2117,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="148">
+  <dxfs count="92">
     <dxf>
       <font>
         <b/>
@@ -2222,275 +2222,6 @@
       <font>
         <color rgb="FF00CC00"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3149,203 +2880,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF00FF00"/>
@@ -3358,30 +2892,6 @@
           <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3739,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView topLeftCell="I47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10735,46 +10245,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="G146:L146"/>
+    <mergeCell ref="M146:R146"/>
+    <mergeCell ref="S146:X146"/>
+    <mergeCell ref="Y146:AD146"/>
     <mergeCell ref="A124:F124"/>
     <mergeCell ref="G124:L124"/>
     <mergeCell ref="M124:R124"/>
     <mergeCell ref="S124:X124"/>
     <mergeCell ref="Y124:AD124"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="G146:L146"/>
-    <mergeCell ref="M146:R146"/>
-    <mergeCell ref="S146:X146"/>
-    <mergeCell ref="Y146:AD146"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10784,7 +10294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED89D17-A91E-4178-9F5B-04D57FA79EE7}">
   <dimension ref="A1:AK276"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" ySplit="12" topLeftCell="H205" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
@@ -10945,13 +10455,13 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
       <c r="F2" s="131"/>
       <c r="G2" s="19" t="s">
         <v>72</v>
@@ -11048,14 +10558,14 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="165"/>
       <c r="G3" s="25" t="s">
         <v>104</v>
       </c>
@@ -11103,10 +10613,10 @@
         <f>IF(ISBLANK(F2),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F2), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E4" s="164" t="s">
+      <c r="E4" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="165"/>
+      <c r="F4" s="167"/>
       <c r="G4" s="14" t="s">
         <v>107</v>
       </c>
@@ -12002,13 +11512,13 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="167"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
       <c r="F14" s="131" t="s">
         <v>121</v>
       </c>
@@ -12107,14 +11617,14 @@
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="163"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="165"/>
       <c r="G15" s="25" t="s">
         <v>104</v>
       </c>
@@ -12198,10 +11708,10 @@
         <f>IF(ISBLANK(F14),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F14), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E16" s="164" t="s">
+      <c r="E16" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="165"/>
+      <c r="F16" s="167"/>
       <c r="G16" s="14" t="s">
         <v>107</v>
       </c>
@@ -13240,13 +12750,13 @@
       </c>
     </row>
     <row r="26" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="166" t="s">
+      <c r="A26" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="167"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
       <c r="F26" s="131" t="s">
         <v>122</v>
       </c>
@@ -13345,14 +12855,14 @@
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" s="160" t="s">
+      <c r="A27" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="161"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="163"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="165"/>
       <c r="G27" s="25" t="s">
         <v>104</v>
       </c>
@@ -13428,10 +12938,10 @@
         <f>IF(ISBLANK(F26),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F26), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E28" s="164" t="s">
+      <c r="E28" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="165"/>
+      <c r="F28" s="167"/>
       <c r="G28" s="14" t="s">
         <v>107</v>
       </c>
@@ -14439,13 +13949,13 @@
       </c>
     </row>
     <row r="38" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="166" t="s">
+      <c r="A38" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
       <c r="F38" s="131" t="s">
         <v>123</v>
       </c>
@@ -14544,14 +14054,14 @@
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A39" s="160" t="s">
+      <c r="A39" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="161"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="162"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="163"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="165"/>
       <c r="G39" s="25" t="s">
         <v>104</v>
       </c>
@@ -14623,10 +14133,10 @@
         <f>IF(ISBLANK(F38),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F38), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E40" s="164" t="s">
+      <c r="E40" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="165"/>
+      <c r="F40" s="167"/>
       <c r="G40" s="14" t="s">
         <v>107</v>
       </c>
@@ -15618,13 +15128,13 @@
       </c>
     </row>
     <row r="50" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="166" t="s">
+      <c r="A50" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="167"/>
+      <c r="B50" s="161"/>
+      <c r="C50" s="161"/>
+      <c r="D50" s="161"/>
+      <c r="E50" s="161"/>
       <c r="F50" s="131" t="s">
         <v>124</v>
       </c>
@@ -15723,14 +15233,14 @@
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A51" s="160" t="s">
+      <c r="A51" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="161"/>
-      <c r="C51" s="161"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="161"/>
-      <c r="F51" s="163"/>
+      <c r="B51" s="163"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="164"/>
+      <c r="E51" s="163"/>
+      <c r="F51" s="165"/>
       <c r="G51" s="25" t="s">
         <v>104</v>
       </c>
@@ -15800,10 +15310,10 @@
         <f>IF(ISBLANK(F50),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F50), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E52" s="164" t="s">
+      <c r="E52" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F52" s="165"/>
+      <c r="F52" s="167"/>
       <c r="G52" s="14" t="s">
         <v>107</v>
       </c>
@@ -16787,13 +16297,13 @@
       </c>
     </row>
     <row r="62" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="166" t="s">
+      <c r="A62" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
-      <c r="E62" s="167"/>
+      <c r="B62" s="161"/>
+      <c r="C62" s="161"/>
+      <c r="D62" s="161"/>
+      <c r="E62" s="161"/>
       <c r="F62" s="131" t="s">
         <v>125</v>
       </c>
@@ -16892,14 +16402,14 @@
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A63" s="160" t="s">
+      <c r="A63" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="161"/>
-      <c r="C63" s="161"/>
-      <c r="D63" s="162"/>
-      <c r="E63" s="161"/>
-      <c r="F63" s="163"/>
+      <c r="B63" s="163"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="164"/>
+      <c r="E63" s="163"/>
+      <c r="F63" s="165"/>
       <c r="G63" s="25" t="s">
         <v>104</v>
       </c>
@@ -16967,10 +16477,10 @@
         <f>IF(ISBLANK(F62),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F62), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E64" s="164" t="s">
+      <c r="E64" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F64" s="165"/>
+      <c r="F64" s="167"/>
       <c r="G64" s="14" t="s">
         <v>107</v>
       </c>
@@ -17946,13 +17456,13 @@
       </c>
     </row>
     <row r="74" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="166" t="s">
+      <c r="A74" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="167"/>
-      <c r="C74" s="167"/>
-      <c r="D74" s="167"/>
-      <c r="E74" s="167"/>
+      <c r="B74" s="161"/>
+      <c r="C74" s="161"/>
+      <c r="D74" s="161"/>
+      <c r="E74" s="161"/>
       <c r="F74" s="131" t="s">
         <v>126</v>
       </c>
@@ -18051,14 +17561,14 @@
       </c>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A75" s="160" t="s">
+      <c r="A75" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="161"/>
-      <c r="C75" s="161"/>
-      <c r="D75" s="162"/>
-      <c r="E75" s="161"/>
-      <c r="F75" s="163"/>
+      <c r="B75" s="163"/>
+      <c r="C75" s="163"/>
+      <c r="D75" s="164"/>
+      <c r="E75" s="163"/>
+      <c r="F75" s="165"/>
       <c r="G75" s="25" t="s">
         <v>104</v>
       </c>
@@ -18126,10 +17636,10 @@
         <f>IF(ISBLANK(F74),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F74), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E76" s="164" t="s">
+      <c r="E76" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F76" s="165"/>
+      <c r="F76" s="167"/>
       <c r="G76" s="14" t="s">
         <v>107</v>
       </c>
@@ -19105,13 +18615,13 @@
       </c>
     </row>
     <row r="86" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="166" t="s">
+      <c r="A86" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B86" s="167"/>
-      <c r="C86" s="167"/>
-      <c r="D86" s="167"/>
-      <c r="E86" s="167"/>
+      <c r="B86" s="161"/>
+      <c r="C86" s="161"/>
+      <c r="D86" s="161"/>
+      <c r="E86" s="161"/>
       <c r="F86" s="131" t="s">
         <v>127</v>
       </c>
@@ -19210,14 +18720,14 @@
       </c>
     </row>
     <row r="87" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A87" s="160" t="s">
+      <c r="A87" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B87" s="161"/>
-      <c r="C87" s="161"/>
-      <c r="D87" s="162"/>
-      <c r="E87" s="161"/>
-      <c r="F87" s="163"/>
+      <c r="B87" s="163"/>
+      <c r="C87" s="163"/>
+      <c r="D87" s="164"/>
+      <c r="E87" s="163"/>
+      <c r="F87" s="165"/>
       <c r="G87" s="25" t="s">
         <v>104</v>
       </c>
@@ -19285,10 +18795,10 @@
         <f>IF(ISBLANK(F86),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F86), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E88" s="164" t="s">
+      <c r="E88" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F88" s="165"/>
+      <c r="F88" s="167"/>
       <c r="G88" s="14" t="s">
         <v>107</v>
       </c>
@@ -20264,13 +19774,13 @@
       </c>
     </row>
     <row r="98" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="166" t="s">
+      <c r="A98" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B98" s="167"/>
-      <c r="C98" s="167"/>
-      <c r="D98" s="167"/>
-      <c r="E98" s="167"/>
+      <c r="B98" s="161"/>
+      <c r="C98" s="161"/>
+      <c r="D98" s="161"/>
+      <c r="E98" s="161"/>
       <c r="F98" s="131" t="s">
         <v>128</v>
       </c>
@@ -20369,14 +19879,14 @@
       </c>
     </row>
     <row r="99" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A99" s="160" t="s">
+      <c r="A99" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B99" s="161"/>
-      <c r="C99" s="161"/>
-      <c r="D99" s="162"/>
-      <c r="E99" s="161"/>
-      <c r="F99" s="163"/>
+      <c r="B99" s="163"/>
+      <c r="C99" s="163"/>
+      <c r="D99" s="164"/>
+      <c r="E99" s="163"/>
+      <c r="F99" s="165"/>
       <c r="G99" s="25" t="s">
         <v>104</v>
       </c>
@@ -20444,10 +19954,10 @@
         <f>IF(ISBLANK(F98),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F98), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E100" s="164" t="s">
+      <c r="E100" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F100" s="165"/>
+      <c r="F100" s="167"/>
       <c r="G100" s="14" t="s">
         <v>107</v>
       </c>
@@ -21423,13 +20933,13 @@
       </c>
     </row>
     <row r="110" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="166" t="s">
+      <c r="A110" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B110" s="167"/>
-      <c r="C110" s="167"/>
-      <c r="D110" s="167"/>
-      <c r="E110" s="167"/>
+      <c r="B110" s="161"/>
+      <c r="C110" s="161"/>
+      <c r="D110" s="161"/>
+      <c r="E110" s="161"/>
       <c r="F110" s="131" t="s">
         <v>129</v>
       </c>
@@ -21528,14 +21038,14 @@
       </c>
     </row>
     <row r="111" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A111" s="160" t="s">
+      <c r="A111" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B111" s="161"/>
-      <c r="C111" s="161"/>
-      <c r="D111" s="162"/>
-      <c r="E111" s="161"/>
-      <c r="F111" s="163"/>
+      <c r="B111" s="163"/>
+      <c r="C111" s="163"/>
+      <c r="D111" s="164"/>
+      <c r="E111" s="163"/>
+      <c r="F111" s="165"/>
       <c r="G111" s="25" t="s">
         <v>104</v>
       </c>
@@ -21603,10 +21113,10 @@
         <f>IF(ISBLANK(F110),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F110), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E112" s="164" t="s">
+      <c r="E112" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F112" s="165"/>
+      <c r="F112" s="167"/>
       <c r="G112" s="14" t="s">
         <v>107</v>
       </c>
@@ -22582,13 +22092,13 @@
       </c>
     </row>
     <row r="122" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="166" t="s">
+      <c r="A122" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B122" s="167"/>
-      <c r="C122" s="167"/>
-      <c r="D122" s="167"/>
-      <c r="E122" s="167"/>
+      <c r="B122" s="161"/>
+      <c r="C122" s="161"/>
+      <c r="D122" s="161"/>
+      <c r="E122" s="161"/>
       <c r="F122" s="131" t="s">
         <v>130</v>
       </c>
@@ -22687,14 +22197,14 @@
       </c>
     </row>
     <row r="123" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A123" s="160" t="s">
+      <c r="A123" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B123" s="161"/>
-      <c r="C123" s="161"/>
-      <c r="D123" s="162"/>
-      <c r="E123" s="161"/>
-      <c r="F123" s="163"/>
+      <c r="B123" s="163"/>
+      <c r="C123" s="163"/>
+      <c r="D123" s="164"/>
+      <c r="E123" s="163"/>
+      <c r="F123" s="165"/>
       <c r="G123" s="25" t="s">
         <v>104</v>
       </c>
@@ -22760,10 +22270,10 @@
         <f>IF(ISBLANK(F122),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F122), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E124" s="164" t="s">
+      <c r="E124" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F124" s="165"/>
+      <c r="F124" s="167"/>
       <c r="G124" s="14" t="s">
         <v>107</v>
       </c>
@@ -23731,13 +23241,13 @@
       </c>
     </row>
     <row r="134" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="166" t="s">
+      <c r="A134" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B134" s="167"/>
-      <c r="C134" s="167"/>
-      <c r="D134" s="167"/>
-      <c r="E134" s="167"/>
+      <c r="B134" s="161"/>
+      <c r="C134" s="161"/>
+      <c r="D134" s="161"/>
+      <c r="E134" s="161"/>
       <c r="F134" s="131" t="s">
         <v>131</v>
       </c>
@@ -23836,14 +23346,14 @@
       </c>
     </row>
     <row r="135" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A135" s="160" t="s">
+      <c r="A135" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B135" s="161"/>
-      <c r="C135" s="161"/>
-      <c r="D135" s="162"/>
-      <c r="E135" s="161"/>
-      <c r="F135" s="163"/>
+      <c r="B135" s="163"/>
+      <c r="C135" s="163"/>
+      <c r="D135" s="164"/>
+      <c r="E135" s="163"/>
+      <c r="F135" s="165"/>
       <c r="G135" s="25" t="s">
         <v>104</v>
       </c>
@@ -23909,10 +23419,10 @@
         <f>IF(ISBLANK(F134),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F134), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E136" s="164" t="s">
+      <c r="E136" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F136" s="165"/>
+      <c r="F136" s="167"/>
       <c r="G136" s="14" t="s">
         <v>107</v>
       </c>
@@ -24880,13 +24390,13 @@
       </c>
     </row>
     <row r="146" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="166" t="s">
+      <c r="A146" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B146" s="167"/>
-      <c r="C146" s="167"/>
-      <c r="D146" s="167"/>
-      <c r="E146" s="167"/>
+      <c r="B146" s="161"/>
+      <c r="C146" s="161"/>
+      <c r="D146" s="161"/>
+      <c r="E146" s="161"/>
       <c r="F146" s="131" t="s">
         <v>132</v>
       </c>
@@ -24985,14 +24495,14 @@
       </c>
     </row>
     <row r="147" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A147" s="160" t="s">
+      <c r="A147" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B147" s="161"/>
-      <c r="C147" s="161"/>
-      <c r="D147" s="162"/>
-      <c r="E147" s="161"/>
-      <c r="F147" s="163"/>
+      <c r="B147" s="163"/>
+      <c r="C147" s="163"/>
+      <c r="D147" s="164"/>
+      <c r="E147" s="163"/>
+      <c r="F147" s="165"/>
       <c r="G147" s="25" t="s">
         <v>104</v>
       </c>
@@ -25058,10 +24568,10 @@
         <f>IF(ISBLANK(F146),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F146), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E148" s="164" t="s">
+      <c r="E148" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F148" s="165"/>
+      <c r="F148" s="167"/>
       <c r="G148" s="14" t="s">
         <v>107</v>
       </c>
@@ -26029,13 +25539,13 @@
       </c>
     </row>
     <row r="158" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="166" t="s">
+      <c r="A158" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B158" s="167"/>
-      <c r="C158" s="167"/>
-      <c r="D158" s="167"/>
-      <c r="E158" s="167"/>
+      <c r="B158" s="161"/>
+      <c r="C158" s="161"/>
+      <c r="D158" s="161"/>
+      <c r="E158" s="161"/>
       <c r="F158" s="131" t="s">
         <v>133</v>
       </c>
@@ -26134,14 +25644,14 @@
       </c>
     </row>
     <row r="159" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A159" s="160" t="s">
+      <c r="A159" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B159" s="161"/>
-      <c r="C159" s="161"/>
-      <c r="D159" s="162"/>
-      <c r="E159" s="161"/>
-      <c r="F159" s="163"/>
+      <c r="B159" s="163"/>
+      <c r="C159" s="163"/>
+      <c r="D159" s="164"/>
+      <c r="E159" s="163"/>
+      <c r="F159" s="165"/>
       <c r="G159" s="25" t="s">
         <v>104</v>
       </c>
@@ -26207,10 +25717,10 @@
         <f>IF(ISBLANK(F158),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F158), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E160" s="164" t="s">
+      <c r="E160" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F160" s="165"/>
+      <c r="F160" s="167"/>
       <c r="G160" s="14" t="s">
         <v>107</v>
       </c>
@@ -27178,13 +26688,13 @@
       </c>
     </row>
     <row r="170" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="166" t="s">
+      <c r="A170" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B170" s="167"/>
-      <c r="C170" s="167"/>
-      <c r="D170" s="167"/>
-      <c r="E170" s="167"/>
+      <c r="B170" s="161"/>
+      <c r="C170" s="161"/>
+      <c r="D170" s="161"/>
+      <c r="E170" s="161"/>
       <c r="F170" s="131" t="s">
         <v>134</v>
       </c>
@@ -27283,14 +26793,14 @@
       </c>
     </row>
     <row r="171" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A171" s="160" t="s">
+      <c r="A171" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B171" s="161"/>
-      <c r="C171" s="161"/>
-      <c r="D171" s="162"/>
-      <c r="E171" s="161"/>
-      <c r="F171" s="163"/>
+      <c r="B171" s="163"/>
+      <c r="C171" s="163"/>
+      <c r="D171" s="164"/>
+      <c r="E171" s="163"/>
+      <c r="F171" s="165"/>
       <c r="G171" s="25" t="s">
         <v>104</v>
       </c>
@@ -27354,10 +26864,10 @@
         <f>IF(ISBLANK(F170),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F170), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E172" s="164" t="s">
+      <c r="E172" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F172" s="165"/>
+      <c r="F172" s="167"/>
       <c r="G172" s="14" t="s">
         <v>107</v>
       </c>
@@ -28317,13 +27827,13 @@
       </c>
     </row>
     <row r="182" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="166" t="s">
+      <c r="A182" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B182" s="167"/>
-      <c r="C182" s="167"/>
-      <c r="D182" s="167"/>
-      <c r="E182" s="167"/>
+      <c r="B182" s="161"/>
+      <c r="C182" s="161"/>
+      <c r="D182" s="161"/>
+      <c r="E182" s="161"/>
       <c r="F182" s="131" t="s">
         <v>135</v>
       </c>
@@ -28422,14 +27932,14 @@
       </c>
     </row>
     <row r="183" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A183" s="160" t="s">
+      <c r="A183" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B183" s="161"/>
-      <c r="C183" s="161"/>
-      <c r="D183" s="162"/>
-      <c r="E183" s="161"/>
-      <c r="F183" s="163"/>
+      <c r="B183" s="163"/>
+      <c r="C183" s="163"/>
+      <c r="D183" s="164"/>
+      <c r="E183" s="163"/>
+      <c r="F183" s="165"/>
       <c r="G183" s="25" t="s">
         <v>104</v>
       </c>
@@ -28491,10 +28001,10 @@
         <f>IF(ISBLANK(F182),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F182), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E184" s="164" t="s">
+      <c r="E184" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F184" s="165"/>
+      <c r="F184" s="167"/>
       <c r="G184" s="14" t="s">
         <v>107</v>
       </c>
@@ -29446,13 +28956,13 @@
       </c>
     </row>
     <row r="194" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="166" t="s">
+      <c r="A194" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B194" s="167"/>
-      <c r="C194" s="167"/>
-      <c r="D194" s="167"/>
-      <c r="E194" s="167"/>
+      <c r="B194" s="161"/>
+      <c r="C194" s="161"/>
+      <c r="D194" s="161"/>
+      <c r="E194" s="161"/>
       <c r="F194" s="131" t="s">
         <v>136</v>
       </c>
@@ -29551,14 +29061,14 @@
       </c>
     </row>
     <row r="195" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A195" s="160" t="s">
+      <c r="A195" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B195" s="161"/>
-      <c r="C195" s="161"/>
-      <c r="D195" s="162"/>
-      <c r="E195" s="161"/>
-      <c r="F195" s="163"/>
+      <c r="B195" s="163"/>
+      <c r="C195" s="163"/>
+      <c r="D195" s="164"/>
+      <c r="E195" s="163"/>
+      <c r="F195" s="165"/>
       <c r="G195" s="25" t="s">
         <v>104</v>
       </c>
@@ -29618,10 +29128,10 @@
         <f>IF(ISBLANK(F194),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F194), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E196" s="164" t="s">
+      <c r="E196" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F196" s="165"/>
+      <c r="F196" s="167"/>
       <c r="G196" s="14" t="s">
         <v>107</v>
       </c>
@@ -30565,13 +30075,13 @@
       </c>
     </row>
     <row r="206" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="166" t="s">
+      <c r="A206" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B206" s="167"/>
-      <c r="C206" s="167"/>
-      <c r="D206" s="167"/>
-      <c r="E206" s="167"/>
+      <c r="B206" s="161"/>
+      <c r="C206" s="161"/>
+      <c r="D206" s="161"/>
+      <c r="E206" s="161"/>
       <c r="F206" s="131" t="s">
         <v>137</v>
       </c>
@@ -30670,14 +30180,14 @@
       </c>
     </row>
     <row r="207" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A207" s="160" t="s">
+      <c r="A207" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B207" s="161"/>
-      <c r="C207" s="161"/>
-      <c r="D207" s="162"/>
-      <c r="E207" s="161"/>
-      <c r="F207" s="163"/>
+      <c r="B207" s="163"/>
+      <c r="C207" s="163"/>
+      <c r="D207" s="164"/>
+      <c r="E207" s="163"/>
+      <c r="F207" s="165"/>
       <c r="G207" s="25" t="s">
         <v>104</v>
       </c>
@@ -30737,10 +30247,10 @@
         <f>IF(ISBLANK(F206),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F206), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E208" s="164" t="s">
+      <c r="E208" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F208" s="165"/>
+      <c r="F208" s="167"/>
       <c r="G208" s="14" t="s">
         <v>107</v>
       </c>
@@ -31684,13 +31194,13 @@
       </c>
     </row>
     <row r="218" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="166" t="s">
+      <c r="A218" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B218" s="167"/>
-      <c r="C218" s="167"/>
-      <c r="D218" s="167"/>
-      <c r="E218" s="167"/>
+      <c r="B218" s="161"/>
+      <c r="C218" s="161"/>
+      <c r="D218" s="161"/>
+      <c r="E218" s="161"/>
       <c r="F218" s="131" t="s">
         <v>172</v>
       </c>
@@ -31789,14 +31299,14 @@
       </c>
     </row>
     <row r="219" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A219" s="160" t="s">
+      <c r="A219" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B219" s="161"/>
-      <c r="C219" s="161"/>
-      <c r="D219" s="162"/>
-      <c r="E219" s="161"/>
-      <c r="F219" s="163"/>
+      <c r="B219" s="163"/>
+      <c r="C219" s="163"/>
+      <c r="D219" s="164"/>
+      <c r="E219" s="163"/>
+      <c r="F219" s="165"/>
       <c r="G219" s="25" t="s">
         <v>104</v>
       </c>
@@ -31854,10 +31364,10 @@
         <f>IF(ISBLANK(F218),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F218), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E220" s="164" t="s">
+      <c r="E220" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F220" s="165"/>
+      <c r="F220" s="167"/>
       <c r="G220" s="14" t="s">
         <v>107</v>
       </c>
@@ -32793,13 +32303,13 @@
       </c>
     </row>
     <row r="230" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="166" t="s">
+      <c r="A230" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B230" s="167"/>
-      <c r="C230" s="167"/>
-      <c r="D230" s="167"/>
-      <c r="E230" s="167"/>
+      <c r="B230" s="161"/>
+      <c r="C230" s="161"/>
+      <c r="D230" s="161"/>
+      <c r="E230" s="161"/>
       <c r="F230" s="131" t="s">
         <v>173</v>
       </c>
@@ -32898,14 +32408,14 @@
       </c>
     </row>
     <row r="231" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A231" s="160" t="s">
+      <c r="A231" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B231" s="161"/>
-      <c r="C231" s="161"/>
-      <c r="D231" s="162"/>
-      <c r="E231" s="161"/>
-      <c r="F231" s="163"/>
+      <c r="B231" s="163"/>
+      <c r="C231" s="163"/>
+      <c r="D231" s="164"/>
+      <c r="E231" s="163"/>
+      <c r="F231" s="165"/>
       <c r="G231" s="25" t="s">
         <v>104</v>
       </c>
@@ -32961,10 +32471,10 @@
         <f>IF(ISBLANK(F230),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F230), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E232" s="164" t="s">
+      <c r="E232" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F232" s="165"/>
+      <c r="F232" s="167"/>
       <c r="G232" s="14" t="s">
         <v>107</v>
       </c>
@@ -33892,13 +33402,13 @@
       </c>
     </row>
     <row r="242" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="166" t="s">
+      <c r="A242" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B242" s="167"/>
-      <c r="C242" s="167"/>
-      <c r="D242" s="167"/>
-      <c r="E242" s="167"/>
+      <c r="B242" s="161"/>
+      <c r="C242" s="161"/>
+      <c r="D242" s="161"/>
+      <c r="E242" s="161"/>
       <c r="F242" s="131" t="s">
         <v>174</v>
       </c>
@@ -33997,14 +33507,14 @@
       </c>
     </row>
     <row r="243" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A243" s="160" t="s">
+      <c r="A243" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B243" s="161"/>
-      <c r="C243" s="161"/>
-      <c r="D243" s="162"/>
-      <c r="E243" s="161"/>
-      <c r="F243" s="163"/>
+      <c r="B243" s="163"/>
+      <c r="C243" s="163"/>
+      <c r="D243" s="164"/>
+      <c r="E243" s="163"/>
+      <c r="F243" s="165"/>
       <c r="G243" s="25" t="s">
         <v>104</v>
       </c>
@@ -34060,10 +33570,10 @@
         <f>IF(ISBLANK(F242),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F242), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E244" s="164" t="s">
+      <c r="E244" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F244" s="165"/>
+      <c r="F244" s="167"/>
       <c r="G244" s="14" t="s">
         <v>107</v>
       </c>
@@ -34991,13 +34501,13 @@
       </c>
     </row>
     <row r="254" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="166" t="s">
+      <c r="A254" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B254" s="167"/>
-      <c r="C254" s="167"/>
-      <c r="D254" s="167"/>
-      <c r="E254" s="167"/>
+      <c r="B254" s="161"/>
+      <c r="C254" s="161"/>
+      <c r="D254" s="161"/>
+      <c r="E254" s="161"/>
       <c r="F254" s="131"/>
       <c r="G254" s="19" t="s">
         <v>72</v>
@@ -35094,14 +34604,14 @@
       </c>
     </row>
     <row r="255" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A255" s="160" t="s">
+      <c r="A255" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B255" s="161"/>
-      <c r="C255" s="161"/>
-      <c r="D255" s="162"/>
-      <c r="E255" s="161"/>
-      <c r="F255" s="163"/>
+      <c r="B255" s="163"/>
+      <c r="C255" s="163"/>
+      <c r="D255" s="164"/>
+      <c r="E255" s="163"/>
+      <c r="F255" s="165"/>
       <c r="G255" s="25" t="s">
         <v>104</v>
       </c>
@@ -35149,10 +34659,10 @@
         <f>IF(ISBLANK(F254),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F254), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E256" s="164" t="s">
+      <c r="E256" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F256" s="165"/>
+      <c r="F256" s="167"/>
       <c r="G256" s="14" t="s">
         <v>107</v>
       </c>
@@ -36048,13 +35558,13 @@
       </c>
     </row>
     <row r="266" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="166" t="s">
+      <c r="A266" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="B266" s="167"/>
-      <c r="C266" s="167"/>
-      <c r="D266" s="167"/>
-      <c r="E266" s="167"/>
+      <c r="B266" s="161"/>
+      <c r="C266" s="161"/>
+      <c r="D266" s="161"/>
+      <c r="E266" s="161"/>
       <c r="F266" s="131"/>
       <c r="G266" s="19" t="s">
         <v>72</v>
@@ -36151,14 +35661,14 @@
       </c>
     </row>
     <row r="267" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A267" s="160" t="s">
+      <c r="A267" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B267" s="161"/>
-      <c r="C267" s="161"/>
-      <c r="D267" s="162"/>
-      <c r="E267" s="161"/>
-      <c r="F267" s="163"/>
+      <c r="B267" s="163"/>
+      <c r="C267" s="163"/>
+      <c r="D267" s="164"/>
+      <c r="E267" s="163"/>
+      <c r="F267" s="165"/>
       <c r="G267" s="25" t="s">
         <v>104</v>
       </c>
@@ -36206,10 +35716,10 @@
         <f>IF(ISBLANK(F266),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F266), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E268" s="164" t="s">
+      <c r="E268" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="F268" s="165"/>
+      <c r="F268" s="167"/>
       <c r="G268" s="14" t="s">
         <v>107</v>
       </c>
@@ -36964,114 +36474,12 @@
     </row>
   </sheetData>
   <mergeCells count="138">
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="E263:F263"/>
-    <mergeCell ref="A264:AK264"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A267:F267"/>
-    <mergeCell ref="E268:F268"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="E275:F275"/>
-    <mergeCell ref="A276:AK276"/>
-    <mergeCell ref="A242:E242"/>
-    <mergeCell ref="A243:F243"/>
-    <mergeCell ref="E244:F244"/>
-    <mergeCell ref="A246:B246"/>
-    <mergeCell ref="E251:F251"/>
-    <mergeCell ref="A252:AK252"/>
-    <mergeCell ref="A254:E254"/>
-    <mergeCell ref="A255:F255"/>
-    <mergeCell ref="E256:F256"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A231:F231"/>
-    <mergeCell ref="E232:F232"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="E239:F239"/>
-    <mergeCell ref="A240:AK240"/>
-    <mergeCell ref="A218:E218"/>
-    <mergeCell ref="A219:F219"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="E227:F227"/>
-    <mergeCell ref="A228:AK228"/>
-    <mergeCell ref="A206:E206"/>
-    <mergeCell ref="A207:F207"/>
-    <mergeCell ref="E208:F208"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="A216:AK216"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A195:F195"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="A204:AK204"/>
-    <mergeCell ref="A182:E182"/>
-    <mergeCell ref="A183:F183"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="E191:F191"/>
-    <mergeCell ref="A192:AK192"/>
-    <mergeCell ref="A170:E170"/>
-    <mergeCell ref="A171:F171"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="A180:AK180"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A159:F159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="A168:AK168"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:F147"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="A156:AK156"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="A144:AK144"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="A132:AK132"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="A120:AK120"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="A108:AK108"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="A96:AK96"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="A84:AK84"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="A72:AK72"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="E52:F52"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="E59:F59"/>
     <mergeCell ref="A60:AK60"/>
@@ -37096,411 +36504,513 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="A24:AK24"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="A72:AK72"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="A96:AK96"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="A84:AK84"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="A120:AK120"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="A108:AK108"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="A144:AK144"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="A132:AK132"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A159:F159"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="A168:AK168"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:F147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="A156:AK156"/>
+    <mergeCell ref="A182:E182"/>
+    <mergeCell ref="A183:F183"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="E191:F191"/>
+    <mergeCell ref="A192:AK192"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="A171:F171"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="A180:AK180"/>
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="A207:F207"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="A216:AK216"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A195:F195"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="A204:AK204"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A231:F231"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="E239:F239"/>
+    <mergeCell ref="A240:AK240"/>
+    <mergeCell ref="A218:E218"/>
+    <mergeCell ref="A219:F219"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="A228:AK228"/>
+    <mergeCell ref="A242:E242"/>
+    <mergeCell ref="A243:F243"/>
+    <mergeCell ref="E244:F244"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="E251:F251"/>
+    <mergeCell ref="A252:AK252"/>
+    <mergeCell ref="A254:E254"/>
+    <mergeCell ref="A255:F255"/>
+    <mergeCell ref="E256:F256"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="A264:AK264"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A267:F267"/>
+    <mergeCell ref="E268:F268"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="E275:F275"/>
+    <mergeCell ref="A276:AK276"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H22:AK22">
-    <cfRule type="cellIs" dxfId="145" priority="154" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="154" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:AK22">
-    <cfRule type="cellIs" dxfId="144" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="153" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:AK10">
-    <cfRule type="cellIs" dxfId="143" priority="152" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="152" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:AK10">
-    <cfRule type="cellIs" dxfId="142" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="151" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:AK58">
-    <cfRule type="cellIs" dxfId="141" priority="150" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="150" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:AK58">
-    <cfRule type="cellIs" dxfId="140" priority="149" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="149" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="139" priority="148" operator="notEqual">
+    <cfRule type="cellIs" dxfId="85" priority="148" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="138" priority="147" operator="notEqual">
+    <cfRule type="cellIs" dxfId="84" priority="147" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="136" priority="145" operator="notEqual">
+    <cfRule type="cellIs" dxfId="83" priority="145" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:AK46">
-    <cfRule type="cellIs" dxfId="135" priority="144" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="144" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:AK46">
-    <cfRule type="cellIs" dxfId="134" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="143" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="133" priority="142" operator="notEqual">
+    <cfRule type="cellIs" dxfId="80" priority="142" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:AK34">
-    <cfRule type="cellIs" dxfId="129" priority="138" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="138" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:AK34">
-    <cfRule type="cellIs" dxfId="128" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="137" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="127" priority="136" operator="notEqual">
+    <cfRule type="cellIs" dxfId="77" priority="136" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70:AK70">
-    <cfRule type="cellIs" dxfId="108" priority="114" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="114" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70:AK70">
-    <cfRule type="cellIs" dxfId="107" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="113" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="106" priority="112" operator="notEqual">
+    <cfRule type="cellIs" dxfId="74" priority="112" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82:AK82">
-    <cfRule type="cellIs" dxfId="99" priority="102" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="102" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82:AK82">
-    <cfRule type="cellIs" dxfId="98" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="101" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="cellIs" dxfId="97" priority="100" operator="notEqual">
+    <cfRule type="cellIs" dxfId="71" priority="100" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94:AK94">
-    <cfRule type="cellIs" dxfId="96" priority="99" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="99" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94:AK94">
-    <cfRule type="cellIs" dxfId="95" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="98" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="cellIs" dxfId="94" priority="97" operator="notEqual">
+    <cfRule type="cellIs" dxfId="68" priority="97" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106:AK106">
-    <cfRule type="cellIs" dxfId="93" priority="96" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="96" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106:AK106">
-    <cfRule type="cellIs" dxfId="92" priority="95" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="95" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="cellIs" dxfId="91" priority="94" operator="notEqual">
+    <cfRule type="cellIs" dxfId="65" priority="94" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118:AK118">
-    <cfRule type="cellIs" dxfId="87" priority="90" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="90" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118:AK118">
-    <cfRule type="cellIs" dxfId="86" priority="89" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="89" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G110">
-    <cfRule type="cellIs" dxfId="85" priority="88" operator="notEqual">
+    <cfRule type="cellIs" dxfId="62" priority="88" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130:AK130">
-    <cfRule type="cellIs" dxfId="84" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="87" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130:AK130">
-    <cfRule type="cellIs" dxfId="83" priority="86" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="86" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122">
-    <cfRule type="cellIs" dxfId="82" priority="85" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="85" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142:AK142">
-    <cfRule type="cellIs" dxfId="81" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="84" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142:AK142">
-    <cfRule type="cellIs" dxfId="80" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="83" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G134">
-    <cfRule type="cellIs" dxfId="79" priority="82" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="82" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H154:AK154">
-    <cfRule type="cellIs" dxfId="78" priority="81" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="81" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H154:AK154">
-    <cfRule type="cellIs" dxfId="77" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="80" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146">
-    <cfRule type="cellIs" dxfId="76" priority="79" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="79" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H166:AK166">
-    <cfRule type="cellIs" dxfId="75" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="78" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H166:AK166">
-    <cfRule type="cellIs" dxfId="74" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="77" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G158">
-    <cfRule type="cellIs" dxfId="73" priority="76" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="76" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H178:AK178">
-    <cfRule type="cellIs" dxfId="66" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="69" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H178:AK178">
-    <cfRule type="cellIs" dxfId="65" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="68" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G170">
-    <cfRule type="cellIs" dxfId="64" priority="67" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="67" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H190:AK190">
-    <cfRule type="cellIs" dxfId="63" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H190:AK190">
-    <cfRule type="cellIs" dxfId="62" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="65" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182">
-    <cfRule type="cellIs" dxfId="61" priority="64" operator="notEqual">
+    <cfRule type="cellIs" dxfId="44" priority="64" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H202:AK202">
-    <cfRule type="cellIs" dxfId="60" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="63" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H202:AK202">
-    <cfRule type="cellIs" dxfId="59" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="62" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G194">
-    <cfRule type="cellIs" dxfId="58" priority="61" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="61" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H214:AK214">
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="60" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H214:AK214">
-    <cfRule type="cellIs" dxfId="56" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="59" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G206">
-    <cfRule type="cellIs" dxfId="55" priority="58" operator="notEqual">
+    <cfRule type="cellIs" dxfId="38" priority="58" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H226:AK226">
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="57" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H226:AK226">
-    <cfRule type="cellIs" dxfId="53" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="56" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G218">
-    <cfRule type="cellIs" dxfId="52" priority="55" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="55" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H238:AK238">
-    <cfRule type="cellIs" dxfId="51" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H238:AK238">
-    <cfRule type="cellIs" dxfId="50" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G230">
-    <cfRule type="cellIs" dxfId="49" priority="52" operator="notEqual">
+    <cfRule type="cellIs" dxfId="32" priority="52" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:AK18">
-    <cfRule type="cellIs" dxfId="48" priority="51" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="51" operator="lessThanOrEqual">
       <formula>H20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:AK6">
-    <cfRule type="cellIs" dxfId="46" priority="49" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="49" operator="lessThanOrEqual">
       <formula>H8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:AK30">
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="48" operator="lessThanOrEqual">
       <formula>H32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:AK42">
-    <cfRule type="cellIs" dxfId="43" priority="46" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="46" operator="lessThanOrEqual">
       <formula>H44</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:AK54">
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="40" operator="lessThanOrEqual">
       <formula>H56</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66:AK66">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="37" operator="lessThanOrEqual">
       <formula>H68</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:AK78">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="25" priority="33" operator="lessThanOrEqual">
       <formula>H80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90:AK90">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="lessThanOrEqual">
       <formula>H92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102:AK102">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="lessThanOrEqual">
       <formula>H104</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:AK114">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="lessThanOrEqual">
       <formula>H116</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126:AK126">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="lessThanOrEqual">
       <formula>H128</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H138:AK138">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="27" operator="lessThanOrEqual">
       <formula>H140</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H150:AK150">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="lessThanOrEqual">
       <formula>H152</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H162:AK162">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="lessThanOrEqual">
       <formula>H164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H174:AK174">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="lessThanOrEqual">
       <formula>H176</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H186:AK186">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="lessThanOrEqual">
       <formula>H188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H198:AK198">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="lessThanOrEqual">
       <formula>H200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H210:AK210">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="lessThanOrEqual">
       <formula>H212</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H222:AK222">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="lessThanOrEqual">
       <formula>H224</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H234:AK234">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="lessThanOrEqual">
       <formula>H236</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37574,7 +37084,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38062,7 +37572,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38075,10 +37585,10 @@
       <c r="A1" s="145" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="174">
+      <c r="B1" s="177">
         <v>0.51</v>
       </c>
-      <c r="C1" s="174"/>
+      <c r="C1" s="177"/>
       <c r="D1" s="134"/>
       <c r="E1" s="143"/>
       <c r="F1" s="134"/>
@@ -38087,10 +37597,10 @@
       <c r="A2" s="146" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="174">
+      <c r="B2" s="177">
         <v>0.54</v>
       </c>
-      <c r="C2" s="174"/>
+      <c r="C2" s="177"/>
       <c r="D2" s="138"/>
       <c r="E2" s="143"/>
       <c r="F2" s="134"/>
@@ -38099,10 +37609,10 @@
       <c r="A3" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="174">
+      <c r="B3" s="177">
         <v>0.51</v>
       </c>
-      <c r="C3" s="174"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="138"/>
       <c r="E3" s="143"/>
       <c r="F3" s="134"/>
@@ -38111,10 +37621,10 @@
       <c r="A4" s="145" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="174">
+      <c r="B4" s="177">
         <v>0.54</v>
       </c>
-      <c r="C4" s="174"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="134"/>
       <c r="E4" s="143"/>
       <c r="F4" s="134"/>
@@ -38156,7 +37666,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="134"/>
-      <c r="E8" s="177">
+      <c r="E8" s="174">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -38169,7 +37679,7 @@
       <c r="B9" s="175"/>
       <c r="C9" s="175"/>
       <c r="D9" s="134"/>
-      <c r="E9" s="177"/>
+      <c r="E9" s="174"/>
       <c r="F9" s="133"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38209,7 +37719,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="134"/>
-      <c r="E13" s="177">
+      <c r="E13" s="174">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -38222,7 +37732,7 @@
       <c r="B14" s="175"/>
       <c r="C14" s="175"/>
       <c r="D14" s="134"/>
-      <c r="E14" s="177"/>
+      <c r="E14" s="174"/>
       <c r="F14" s="133"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38262,7 +37772,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="134"/>
-      <c r="E18" s="177">
+      <c r="E18" s="174">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -38275,7 +37785,7 @@
       <c r="B19" s="175"/>
       <c r="C19" s="175"/>
       <c r="D19" s="134"/>
-      <c r="E19" s="177"/>
+      <c r="E19" s="174"/>
       <c r="F19" s="133"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -38320,6 +37830,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -38327,12 +37843,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimke\OneDrive\Documents\investment and trading\stocks and equity\sandbox\WealthAndFreedom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="610" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D6096F50-2CC1-4949-8DF4-F7A982276AB4}"/>
+  <xr:revisionPtr revIDLastSave="612" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8896F9C4-0255-4BB8-B0CC-86A91653FDCF}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="16200" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="179">
   <si>
     <t>Pillar</t>
   </si>
@@ -567,6 +567,12 @@
   </si>
   <si>
     <t>PARAMON</t>
+  </si>
+  <si>
+    <t>OCNCASH</t>
+  </si>
+  <si>
+    <t>PERMAJU</t>
   </si>
 </sst>
 </file>
@@ -2055,27 +2061,6 @@
     <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2100,6 +2085,27 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2118,8 +2124,8 @@
     <xf numFmtId="170" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2127,8 +2133,8 @@
     <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3269,8 +3275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" topLeftCell="G77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82:M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7303,7 +7309,9 @@
       <c r="J82" s="96"/>
       <c r="K82" s="96"/>
       <c r="L82" s="97"/>
-      <c r="M82" s="94"/>
+      <c r="M82" s="94" t="s">
+        <v>177</v>
+      </c>
       <c r="N82" s="95"/>
       <c r="O82" s="96"/>
       <c r="P82" s="96"/>
@@ -7337,7 +7345,9 @@
       <c r="J83" s="96"/>
       <c r="K83" s="96"/>
       <c r="L83" s="97"/>
-      <c r="M83" s="94"/>
+      <c r="M83" s="94" t="s">
+        <v>178</v>
+      </c>
       <c r="N83" s="95"/>
       <c r="O83" s="96"/>
       <c r="P83" s="96"/>
@@ -10271,46 +10281,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:L124"/>
+    <mergeCell ref="M124:R124"/>
+    <mergeCell ref="S124:X124"/>
+    <mergeCell ref="Y124:AD124"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="G146:L146"/>
+    <mergeCell ref="M146:R146"/>
+    <mergeCell ref="S146:X146"/>
+    <mergeCell ref="Y146:AD146"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="S1:X1"/>
     <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="G146:L146"/>
-    <mergeCell ref="M146:R146"/>
-    <mergeCell ref="S146:X146"/>
-    <mergeCell ref="Y146:AD146"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:L124"/>
-    <mergeCell ref="M124:R124"/>
-    <mergeCell ref="S124:X124"/>
-    <mergeCell ref="Y124:AD124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10481,13 +10491,13 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
       <c r="F2" s="99"/>
       <c r="G2" s="19" t="s">
         <v>72</v>
@@ -10584,14 +10594,14 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="166"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="159"/>
       <c r="G3" s="25" t="s">
         <v>104</v>
       </c>
@@ -10639,10 +10649,10 @@
         <f>IF(ISBLANK(F2),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F2), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="168"/>
+      <c r="F4" s="161"/>
       <c r="G4" s="14" t="s">
         <v>107</v>
       </c>
@@ -10719,8 +10729,8 @@
       <c r="AK5" s="10"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="154"/>
-      <c r="B6" s="155"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="58"/>
       <c r="D6" s="60" t="s">
         <v>109</v>
@@ -11228,10 +11238,10 @@
       <c r="D11" s="31">
         <v>0</v>
       </c>
-      <c r="E11" s="156" t="s">
+      <c r="E11" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="157"/>
+      <c r="F11" s="165"/>
       <c r="G11" s="65" t="s">
         <v>120</v>
       </c>
@@ -11538,13 +11548,13 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="161" t="s">
+      <c r="A14" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="162"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="155"/>
       <c r="F14" s="99" t="s">
         <v>121</v>
       </c>
@@ -11643,14 +11653,14 @@
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="163" t="s">
+      <c r="A15" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="166"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="159"/>
       <c r="G15" s="25" t="s">
         <v>104</v>
       </c>
@@ -11734,10 +11744,10 @@
         <f>IF(ISBLANK(F14),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F14), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E16" s="167" t="s">
+      <c r="E16" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="168"/>
+      <c r="F16" s="161"/>
       <c r="G16" s="14" t="s">
         <v>107</v>
       </c>
@@ -11886,8 +11896,8 @@
       <c r="AK17" s="10"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="154"/>
-      <c r="B18" s="155"/>
+      <c r="A18" s="162"/>
+      <c r="B18" s="163"/>
       <c r="C18" s="58"/>
       <c r="D18" s="60" t="s">
         <v>109</v>
@@ -12466,10 +12476,10 @@
       <c r="D23" s="31">
         <v>0</v>
       </c>
-      <c r="E23" s="156" t="s">
+      <c r="E23" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="157"/>
+      <c r="F23" s="165"/>
       <c r="G23" s="65" t="s">
         <v>120</v>
       </c>
@@ -12595,43 +12605,43 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="158"/>
-      <c r="B24" s="159"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="159"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="159"/>
-      <c r="M24" s="159"/>
-      <c r="N24" s="159"/>
-      <c r="O24" s="159"/>
-      <c r="P24" s="159"/>
-      <c r="Q24" s="159"/>
-      <c r="R24" s="159"/>
-      <c r="S24" s="159"/>
-      <c r="T24" s="159"/>
-      <c r="U24" s="159"/>
-      <c r="V24" s="159"/>
-      <c r="W24" s="159"/>
-      <c r="X24" s="159"/>
-      <c r="Y24" s="159"/>
-      <c r="Z24" s="159"/>
-      <c r="AA24" s="159"/>
-      <c r="AB24" s="159"/>
-      <c r="AC24" s="159"/>
-      <c r="AD24" s="159"/>
-      <c r="AE24" s="159"/>
-      <c r="AF24" s="159"/>
-      <c r="AG24" s="159"/>
-      <c r="AH24" s="159"/>
-      <c r="AI24" s="159"/>
-      <c r="AJ24" s="159"/>
-      <c r="AK24" s="160"/>
+      <c r="A24" s="166"/>
+      <c r="B24" s="167"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="167"/>
+      <c r="K24" s="167"/>
+      <c r="L24" s="167"/>
+      <c r="M24" s="167"/>
+      <c r="N24" s="167"/>
+      <c r="O24" s="167"/>
+      <c r="P24" s="167"/>
+      <c r="Q24" s="167"/>
+      <c r="R24" s="167"/>
+      <c r="S24" s="167"/>
+      <c r="T24" s="167"/>
+      <c r="U24" s="167"/>
+      <c r="V24" s="167"/>
+      <c r="W24" s="167"/>
+      <c r="X24" s="167"/>
+      <c r="Y24" s="167"/>
+      <c r="Z24" s="167"/>
+      <c r="AA24" s="167"/>
+      <c r="AB24" s="167"/>
+      <c r="AC24" s="167"/>
+      <c r="AD24" s="167"/>
+      <c r="AE24" s="167"/>
+      <c r="AF24" s="167"/>
+      <c r="AG24" s="167"/>
+      <c r="AH24" s="167"/>
+      <c r="AI24" s="167"/>
+      <c r="AJ24" s="167"/>
+      <c r="AK24" s="168"/>
     </row>
     <row r="25" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
@@ -12776,13 +12786,13 @@
       </c>
     </row>
     <row r="26" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="161" t="s">
+      <c r="A26" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="162"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
       <c r="F26" s="99" t="s">
         <v>122</v>
       </c>
@@ -12881,14 +12891,14 @@
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" s="163" t="s">
+      <c r="A27" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="164"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="166"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="159"/>
       <c r="G27" s="25" t="s">
         <v>104</v>
       </c>
@@ -12964,10 +12974,10 @@
         <f>IF(ISBLANK(F26),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F26), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E28" s="167" t="s">
+      <c r="E28" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="168"/>
+      <c r="F28" s="161"/>
       <c r="G28" s="14" t="s">
         <v>107</v>
       </c>
@@ -13100,8 +13110,8 @@
       <c r="AK29" s="10"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A30" s="154"/>
-      <c r="B30" s="155"/>
+      <c r="A30" s="162"/>
+      <c r="B30" s="163"/>
       <c r="C30" s="58"/>
       <c r="D30" s="60" t="s">
         <v>109</v>
@@ -13665,10 +13675,10 @@
       <c r="D35" s="31">
         <v>0</v>
       </c>
-      <c r="E35" s="156" t="s">
+      <c r="E35" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="157"/>
+      <c r="F35" s="165"/>
       <c r="G35" s="65" t="s">
         <v>120</v>
       </c>
@@ -13794,43 +13804,43 @@
       </c>
     </row>
     <row r="36" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="158"/>
-      <c r="B36" s="159"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="159"/>
-      <c r="J36" s="159"/>
-      <c r="K36" s="159"/>
-      <c r="L36" s="159"/>
-      <c r="M36" s="159"/>
-      <c r="N36" s="159"/>
-      <c r="O36" s="159"/>
-      <c r="P36" s="159"/>
-      <c r="Q36" s="159"/>
-      <c r="R36" s="159"/>
-      <c r="S36" s="159"/>
-      <c r="T36" s="159"/>
-      <c r="U36" s="159"/>
-      <c r="V36" s="159"/>
-      <c r="W36" s="159"/>
-      <c r="X36" s="159"/>
-      <c r="Y36" s="159"/>
-      <c r="Z36" s="159"/>
-      <c r="AA36" s="159"/>
-      <c r="AB36" s="159"/>
-      <c r="AC36" s="159"/>
-      <c r="AD36" s="159"/>
-      <c r="AE36" s="159"/>
-      <c r="AF36" s="159"/>
-      <c r="AG36" s="159"/>
-      <c r="AH36" s="159"/>
-      <c r="AI36" s="159"/>
-      <c r="AJ36" s="159"/>
-      <c r="AK36" s="160"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="167"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="167"/>
+      <c r="K36" s="167"/>
+      <c r="L36" s="167"/>
+      <c r="M36" s="167"/>
+      <c r="N36" s="167"/>
+      <c r="O36" s="167"/>
+      <c r="P36" s="167"/>
+      <c r="Q36" s="167"/>
+      <c r="R36" s="167"/>
+      <c r="S36" s="167"/>
+      <c r="T36" s="167"/>
+      <c r="U36" s="167"/>
+      <c r="V36" s="167"/>
+      <c r="W36" s="167"/>
+      <c r="X36" s="167"/>
+      <c r="Y36" s="167"/>
+      <c r="Z36" s="167"/>
+      <c r="AA36" s="167"/>
+      <c r="AB36" s="167"/>
+      <c r="AC36" s="167"/>
+      <c r="AD36" s="167"/>
+      <c r="AE36" s="167"/>
+      <c r="AF36" s="167"/>
+      <c r="AG36" s="167"/>
+      <c r="AH36" s="167"/>
+      <c r="AI36" s="167"/>
+      <c r="AJ36" s="167"/>
+      <c r="AK36" s="168"/>
     </row>
     <row r="37" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
@@ -13975,13 +13985,13 @@
       </c>
     </row>
     <row r="38" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="161" t="s">
+      <c r="A38" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="162"/>
-      <c r="C38" s="162"/>
-      <c r="D38" s="162"/>
-      <c r="E38" s="162"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
       <c r="F38" s="99" t="s">
         <v>123</v>
       </c>
@@ -14080,14 +14090,14 @@
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A39" s="163" t="s">
+      <c r="A39" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="164"/>
-      <c r="C39" s="164"/>
-      <c r="D39" s="165"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="166"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="159"/>
       <c r="G39" s="25" t="s">
         <v>104</v>
       </c>
@@ -14159,10 +14169,10 @@
         <f>IF(ISBLANK(F38),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F38), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E40" s="167" t="s">
+      <c r="E40" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="168"/>
+      <c r="F40" s="161"/>
       <c r="G40" s="14" t="s">
         <v>107</v>
       </c>
@@ -14287,8 +14297,8 @@
       <c r="AK41" s="10"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A42" s="154"/>
-      <c r="B42" s="155"/>
+      <c r="A42" s="162"/>
+      <c r="B42" s="163"/>
       <c r="C42" s="58"/>
       <c r="D42" s="60" t="s">
         <v>109</v>
@@ -14844,10 +14854,10 @@
       <c r="D47" s="31">
         <v>0</v>
       </c>
-      <c r="E47" s="156" t="s">
+      <c r="E47" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F47" s="157"/>
+      <c r="F47" s="165"/>
       <c r="G47" s="65" t="s">
         <v>120</v>
       </c>
@@ -14973,43 +14983,43 @@
       </c>
     </row>
     <row r="48" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="158"/>
-      <c r="B48" s="159"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="159"/>
-      <c r="F48" s="159"/>
-      <c r="G48" s="159"/>
-      <c r="H48" s="159"/>
-      <c r="I48" s="159"/>
-      <c r="J48" s="159"/>
-      <c r="K48" s="159"/>
-      <c r="L48" s="159"/>
-      <c r="M48" s="159"/>
-      <c r="N48" s="159"/>
-      <c r="O48" s="159"/>
-      <c r="P48" s="159"/>
-      <c r="Q48" s="159"/>
-      <c r="R48" s="159"/>
-      <c r="S48" s="159"/>
-      <c r="T48" s="159"/>
-      <c r="U48" s="159"/>
-      <c r="V48" s="159"/>
-      <c r="W48" s="159"/>
-      <c r="X48" s="159"/>
-      <c r="Y48" s="159"/>
-      <c r="Z48" s="159"/>
-      <c r="AA48" s="159"/>
-      <c r="AB48" s="159"/>
-      <c r="AC48" s="159"/>
-      <c r="AD48" s="159"/>
-      <c r="AE48" s="159"/>
-      <c r="AF48" s="159"/>
-      <c r="AG48" s="159"/>
-      <c r="AH48" s="159"/>
-      <c r="AI48" s="159"/>
-      <c r="AJ48" s="159"/>
-      <c r="AK48" s="160"/>
+      <c r="A48" s="166"/>
+      <c r="B48" s="167"/>
+      <c r="C48" s="167"/>
+      <c r="D48" s="167"/>
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="167"/>
+      <c r="H48" s="167"/>
+      <c r="I48" s="167"/>
+      <c r="J48" s="167"/>
+      <c r="K48" s="167"/>
+      <c r="L48" s="167"/>
+      <c r="M48" s="167"/>
+      <c r="N48" s="167"/>
+      <c r="O48" s="167"/>
+      <c r="P48" s="167"/>
+      <c r="Q48" s="167"/>
+      <c r="R48" s="167"/>
+      <c r="S48" s="167"/>
+      <c r="T48" s="167"/>
+      <c r="U48" s="167"/>
+      <c r="V48" s="167"/>
+      <c r="W48" s="167"/>
+      <c r="X48" s="167"/>
+      <c r="Y48" s="167"/>
+      <c r="Z48" s="167"/>
+      <c r="AA48" s="167"/>
+      <c r="AB48" s="167"/>
+      <c r="AC48" s="167"/>
+      <c r="AD48" s="167"/>
+      <c r="AE48" s="167"/>
+      <c r="AF48" s="167"/>
+      <c r="AG48" s="167"/>
+      <c r="AH48" s="167"/>
+      <c r="AI48" s="167"/>
+      <c r="AJ48" s="167"/>
+      <c r="AK48" s="168"/>
     </row>
     <row r="49" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
@@ -15154,13 +15164,13 @@
       </c>
     </row>
     <row r="50" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="161" t="s">
+      <c r="A50" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="162"/>
-      <c r="C50" s="162"/>
-      <c r="D50" s="162"/>
-      <c r="E50" s="162"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="155"/>
+      <c r="D50" s="155"/>
+      <c r="E50" s="155"/>
       <c r="F50" s="99" t="s">
         <v>124</v>
       </c>
@@ -15259,14 +15269,14 @@
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A51" s="163" t="s">
+      <c r="A51" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="164"/>
-      <c r="C51" s="164"/>
-      <c r="D51" s="165"/>
-      <c r="E51" s="164"/>
-      <c r="F51" s="166"/>
+      <c r="B51" s="157"/>
+      <c r="C51" s="157"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="157"/>
+      <c r="F51" s="159"/>
       <c r="G51" s="25" t="s">
         <v>104</v>
       </c>
@@ -15336,10 +15346,10 @@
         <f>IF(ISBLANK(F50),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F50), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E52" s="167" t="s">
+      <c r="E52" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F52" s="168"/>
+      <c r="F52" s="161"/>
       <c r="G52" s="14" t="s">
         <v>107</v>
       </c>
@@ -15460,8 +15470,8 @@
       <c r="AK53" s="10"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A54" s="154"/>
-      <c r="B54" s="155"/>
+      <c r="A54" s="162"/>
+      <c r="B54" s="163"/>
       <c r="C54" s="58"/>
       <c r="D54" s="60" t="s">
         <v>109</v>
@@ -16013,10 +16023,10 @@
       <c r="D59" s="31">
         <v>0</v>
       </c>
-      <c r="E59" s="156" t="s">
+      <c r="E59" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F59" s="157"/>
+      <c r="F59" s="165"/>
       <c r="G59" s="65" t="s">
         <v>120</v>
       </c>
@@ -16142,43 +16152,43 @@
       </c>
     </row>
     <row r="60" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="158"/>
-      <c r="B60" s="159"/>
-      <c r="C60" s="159"/>
-      <c r="D60" s="159"/>
-      <c r="E60" s="159"/>
-      <c r="F60" s="159"/>
-      <c r="G60" s="159"/>
-      <c r="H60" s="159"/>
-      <c r="I60" s="159"/>
-      <c r="J60" s="159"/>
-      <c r="K60" s="159"/>
-      <c r="L60" s="159"/>
-      <c r="M60" s="159"/>
-      <c r="N60" s="159"/>
-      <c r="O60" s="159"/>
-      <c r="P60" s="159"/>
-      <c r="Q60" s="159"/>
-      <c r="R60" s="159"/>
-      <c r="S60" s="159"/>
-      <c r="T60" s="159"/>
-      <c r="U60" s="159"/>
-      <c r="V60" s="159"/>
-      <c r="W60" s="159"/>
-      <c r="X60" s="159"/>
-      <c r="Y60" s="159"/>
-      <c r="Z60" s="159"/>
-      <c r="AA60" s="159"/>
-      <c r="AB60" s="159"/>
-      <c r="AC60" s="159"/>
-      <c r="AD60" s="159"/>
-      <c r="AE60" s="159"/>
-      <c r="AF60" s="159"/>
-      <c r="AG60" s="159"/>
-      <c r="AH60" s="159"/>
-      <c r="AI60" s="159"/>
-      <c r="AJ60" s="159"/>
-      <c r="AK60" s="160"/>
+      <c r="A60" s="166"/>
+      <c r="B60" s="167"/>
+      <c r="C60" s="167"/>
+      <c r="D60" s="167"/>
+      <c r="E60" s="167"/>
+      <c r="F60" s="167"/>
+      <c r="G60" s="167"/>
+      <c r="H60" s="167"/>
+      <c r="I60" s="167"/>
+      <c r="J60" s="167"/>
+      <c r="K60" s="167"/>
+      <c r="L60" s="167"/>
+      <c r="M60" s="167"/>
+      <c r="N60" s="167"/>
+      <c r="O60" s="167"/>
+      <c r="P60" s="167"/>
+      <c r="Q60" s="167"/>
+      <c r="R60" s="167"/>
+      <c r="S60" s="167"/>
+      <c r="T60" s="167"/>
+      <c r="U60" s="167"/>
+      <c r="V60" s="167"/>
+      <c r="W60" s="167"/>
+      <c r="X60" s="167"/>
+      <c r="Y60" s="167"/>
+      <c r="Z60" s="167"/>
+      <c r="AA60" s="167"/>
+      <c r="AB60" s="167"/>
+      <c r="AC60" s="167"/>
+      <c r="AD60" s="167"/>
+      <c r="AE60" s="167"/>
+      <c r="AF60" s="167"/>
+      <c r="AG60" s="167"/>
+      <c r="AH60" s="167"/>
+      <c r="AI60" s="167"/>
+      <c r="AJ60" s="167"/>
+      <c r="AK60" s="168"/>
     </row>
     <row r="61" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
@@ -16323,13 +16333,13 @@
       </c>
     </row>
     <row r="62" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="161" t="s">
+      <c r="A62" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="162"/>
-      <c r="C62" s="162"/>
-      <c r="D62" s="162"/>
-      <c r="E62" s="162"/>
+      <c r="B62" s="155"/>
+      <c r="C62" s="155"/>
+      <c r="D62" s="155"/>
+      <c r="E62" s="155"/>
       <c r="F62" s="99" t="s">
         <v>125</v>
       </c>
@@ -16428,14 +16438,14 @@
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A63" s="163" t="s">
+      <c r="A63" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="164"/>
-      <c r="C63" s="164"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="164"/>
-      <c r="F63" s="166"/>
+      <c r="B63" s="157"/>
+      <c r="C63" s="157"/>
+      <c r="D63" s="158"/>
+      <c r="E63" s="157"/>
+      <c r="F63" s="159"/>
       <c r="G63" s="25" t="s">
         <v>104</v>
       </c>
@@ -16503,10 +16513,10 @@
         <f>IF(ISBLANK(F62),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F62), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E64" s="167" t="s">
+      <c r="E64" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F64" s="168"/>
+      <c r="F64" s="161"/>
       <c r="G64" s="14" t="s">
         <v>107</v>
       </c>
@@ -16623,8 +16633,8 @@
       <c r="AK65" s="10"/>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A66" s="154"/>
-      <c r="B66" s="155"/>
+      <c r="A66" s="162"/>
+      <c r="B66" s="163"/>
       <c r="C66" s="58"/>
       <c r="D66" s="60" t="s">
         <v>109</v>
@@ -17172,10 +17182,10 @@
       <c r="D71" s="31">
         <v>0</v>
       </c>
-      <c r="E71" s="156" t="s">
+      <c r="E71" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F71" s="157"/>
+      <c r="F71" s="165"/>
       <c r="G71" s="65" t="s">
         <v>120</v>
       </c>
@@ -17301,43 +17311,43 @@
       </c>
     </row>
     <row r="72" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="158"/>
-      <c r="B72" s="159"/>
-      <c r="C72" s="159"/>
-      <c r="D72" s="159"/>
-      <c r="E72" s="159"/>
-      <c r="F72" s="159"/>
-      <c r="G72" s="159"/>
-      <c r="H72" s="159"/>
-      <c r="I72" s="159"/>
-      <c r="J72" s="159"/>
-      <c r="K72" s="159"/>
-      <c r="L72" s="159"/>
-      <c r="M72" s="159"/>
-      <c r="N72" s="159"/>
-      <c r="O72" s="159"/>
-      <c r="P72" s="159"/>
-      <c r="Q72" s="159"/>
-      <c r="R72" s="159"/>
-      <c r="S72" s="159"/>
-      <c r="T72" s="159"/>
-      <c r="U72" s="159"/>
-      <c r="V72" s="159"/>
-      <c r="W72" s="159"/>
-      <c r="X72" s="159"/>
-      <c r="Y72" s="159"/>
-      <c r="Z72" s="159"/>
-      <c r="AA72" s="159"/>
-      <c r="AB72" s="159"/>
-      <c r="AC72" s="159"/>
-      <c r="AD72" s="159"/>
-      <c r="AE72" s="159"/>
-      <c r="AF72" s="159"/>
-      <c r="AG72" s="159"/>
-      <c r="AH72" s="159"/>
-      <c r="AI72" s="159"/>
-      <c r="AJ72" s="159"/>
-      <c r="AK72" s="160"/>
+      <c r="A72" s="166"/>
+      <c r="B72" s="167"/>
+      <c r="C72" s="167"/>
+      <c r="D72" s="167"/>
+      <c r="E72" s="167"/>
+      <c r="F72" s="167"/>
+      <c r="G72" s="167"/>
+      <c r="H72" s="167"/>
+      <c r="I72" s="167"/>
+      <c r="J72" s="167"/>
+      <c r="K72" s="167"/>
+      <c r="L72" s="167"/>
+      <c r="M72" s="167"/>
+      <c r="N72" s="167"/>
+      <c r="O72" s="167"/>
+      <c r="P72" s="167"/>
+      <c r="Q72" s="167"/>
+      <c r="R72" s="167"/>
+      <c r="S72" s="167"/>
+      <c r="T72" s="167"/>
+      <c r="U72" s="167"/>
+      <c r="V72" s="167"/>
+      <c r="W72" s="167"/>
+      <c r="X72" s="167"/>
+      <c r="Y72" s="167"/>
+      <c r="Z72" s="167"/>
+      <c r="AA72" s="167"/>
+      <c r="AB72" s="167"/>
+      <c r="AC72" s="167"/>
+      <c r="AD72" s="167"/>
+      <c r="AE72" s="167"/>
+      <c r="AF72" s="167"/>
+      <c r="AG72" s="167"/>
+      <c r="AH72" s="167"/>
+      <c r="AI72" s="167"/>
+      <c r="AJ72" s="167"/>
+      <c r="AK72" s="168"/>
     </row>
     <row r="73" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="47" t="s">
@@ -17482,13 +17492,13 @@
       </c>
     </row>
     <row r="74" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="161" t="s">
+      <c r="A74" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="162"/>
-      <c r="C74" s="162"/>
-      <c r="D74" s="162"/>
-      <c r="E74" s="162"/>
+      <c r="B74" s="155"/>
+      <c r="C74" s="155"/>
+      <c r="D74" s="155"/>
+      <c r="E74" s="155"/>
       <c r="F74" s="99" t="s">
         <v>126</v>
       </c>
@@ -17587,14 +17597,14 @@
       </c>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A75" s="163" t="s">
+      <c r="A75" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="164"/>
-      <c r="C75" s="164"/>
-      <c r="D75" s="165"/>
-      <c r="E75" s="164"/>
-      <c r="F75" s="166"/>
+      <c r="B75" s="157"/>
+      <c r="C75" s="157"/>
+      <c r="D75" s="158"/>
+      <c r="E75" s="157"/>
+      <c r="F75" s="159"/>
       <c r="G75" s="25" t="s">
         <v>104</v>
       </c>
@@ -17662,10 +17672,10 @@
         <f>IF(ISBLANK(F74),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F74), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E76" s="167" t="s">
+      <c r="E76" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F76" s="168"/>
+      <c r="F76" s="161"/>
       <c r="G76" s="14" t="s">
         <v>107</v>
       </c>
@@ -17782,8 +17792,8 @@
       <c r="AK77" s="10"/>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A78" s="154"/>
-      <c r="B78" s="155"/>
+      <c r="A78" s="162"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="58"/>
       <c r="D78" s="60" t="s">
         <v>109</v>
@@ -18331,10 +18341,10 @@
       <c r="D83" s="31">
         <v>0</v>
       </c>
-      <c r="E83" s="156" t="s">
+      <c r="E83" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F83" s="157"/>
+      <c r="F83" s="165"/>
       <c r="G83" s="65" t="s">
         <v>120</v>
       </c>
@@ -18460,43 +18470,43 @@
       </c>
     </row>
     <row r="84" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="158"/>
-      <c r="B84" s="159"/>
-      <c r="C84" s="159"/>
-      <c r="D84" s="159"/>
-      <c r="E84" s="159"/>
-      <c r="F84" s="159"/>
-      <c r="G84" s="159"/>
-      <c r="H84" s="159"/>
-      <c r="I84" s="159"/>
-      <c r="J84" s="159"/>
-      <c r="K84" s="159"/>
-      <c r="L84" s="159"/>
-      <c r="M84" s="159"/>
-      <c r="N84" s="159"/>
-      <c r="O84" s="159"/>
-      <c r="P84" s="159"/>
-      <c r="Q84" s="159"/>
-      <c r="R84" s="159"/>
-      <c r="S84" s="159"/>
-      <c r="T84" s="159"/>
-      <c r="U84" s="159"/>
-      <c r="V84" s="159"/>
-      <c r="W84" s="159"/>
-      <c r="X84" s="159"/>
-      <c r="Y84" s="159"/>
-      <c r="Z84" s="159"/>
-      <c r="AA84" s="159"/>
-      <c r="AB84" s="159"/>
-      <c r="AC84" s="159"/>
-      <c r="AD84" s="159"/>
-      <c r="AE84" s="159"/>
-      <c r="AF84" s="159"/>
-      <c r="AG84" s="159"/>
-      <c r="AH84" s="159"/>
-      <c r="AI84" s="159"/>
-      <c r="AJ84" s="159"/>
-      <c r="AK84" s="160"/>
+      <c r="A84" s="166"/>
+      <c r="B84" s="167"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
+      <c r="F84" s="167"/>
+      <c r="G84" s="167"/>
+      <c r="H84" s="167"/>
+      <c r="I84" s="167"/>
+      <c r="J84" s="167"/>
+      <c r="K84" s="167"/>
+      <c r="L84" s="167"/>
+      <c r="M84" s="167"/>
+      <c r="N84" s="167"/>
+      <c r="O84" s="167"/>
+      <c r="P84" s="167"/>
+      <c r="Q84" s="167"/>
+      <c r="R84" s="167"/>
+      <c r="S84" s="167"/>
+      <c r="T84" s="167"/>
+      <c r="U84" s="167"/>
+      <c r="V84" s="167"/>
+      <c r="W84" s="167"/>
+      <c r="X84" s="167"/>
+      <c r="Y84" s="167"/>
+      <c r="Z84" s="167"/>
+      <c r="AA84" s="167"/>
+      <c r="AB84" s="167"/>
+      <c r="AC84" s="167"/>
+      <c r="AD84" s="167"/>
+      <c r="AE84" s="167"/>
+      <c r="AF84" s="167"/>
+      <c r="AG84" s="167"/>
+      <c r="AH84" s="167"/>
+      <c r="AI84" s="167"/>
+      <c r="AJ84" s="167"/>
+      <c r="AK84" s="168"/>
     </row>
     <row r="85" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="47" t="s">
@@ -18641,13 +18651,13 @@
       </c>
     </row>
     <row r="86" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="161" t="s">
+      <c r="A86" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B86" s="162"/>
-      <c r="C86" s="162"/>
-      <c r="D86" s="162"/>
-      <c r="E86" s="162"/>
+      <c r="B86" s="155"/>
+      <c r="C86" s="155"/>
+      <c r="D86" s="155"/>
+      <c r="E86" s="155"/>
       <c r="F86" s="99" t="s">
         <v>127</v>
       </c>
@@ -18746,14 +18756,14 @@
       </c>
     </row>
     <row r="87" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A87" s="163" t="s">
+      <c r="A87" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B87" s="164"/>
-      <c r="C87" s="164"/>
-      <c r="D87" s="165"/>
-      <c r="E87" s="164"/>
-      <c r="F87" s="166"/>
+      <c r="B87" s="157"/>
+      <c r="C87" s="157"/>
+      <c r="D87" s="158"/>
+      <c r="E87" s="157"/>
+      <c r="F87" s="159"/>
       <c r="G87" s="25" t="s">
         <v>104</v>
       </c>
@@ -18821,10 +18831,10 @@
         <f>IF(ISBLANK(F86),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F86), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E88" s="167" t="s">
+      <c r="E88" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F88" s="168"/>
+      <c r="F88" s="161"/>
       <c r="G88" s="14" t="s">
         <v>107</v>
       </c>
@@ -18941,8 +18951,8 @@
       <c r="AK89" s="10"/>
     </row>
     <row r="90" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A90" s="154"/>
-      <c r="B90" s="155"/>
+      <c r="A90" s="162"/>
+      <c r="B90" s="163"/>
       <c r="C90" s="58"/>
       <c r="D90" s="60" t="s">
         <v>109</v>
@@ -19490,10 +19500,10 @@
       <c r="D95" s="31">
         <v>0</v>
       </c>
-      <c r="E95" s="156" t="s">
+      <c r="E95" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F95" s="157"/>
+      <c r="F95" s="165"/>
       <c r="G95" s="65" t="s">
         <v>120</v>
       </c>
@@ -19619,43 +19629,43 @@
       </c>
     </row>
     <row r="96" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="158"/>
-      <c r="B96" s="159"/>
-      <c r="C96" s="159"/>
-      <c r="D96" s="159"/>
-      <c r="E96" s="159"/>
-      <c r="F96" s="159"/>
-      <c r="G96" s="159"/>
-      <c r="H96" s="159"/>
-      <c r="I96" s="159"/>
-      <c r="J96" s="159"/>
-      <c r="K96" s="159"/>
-      <c r="L96" s="159"/>
-      <c r="M96" s="159"/>
-      <c r="N96" s="159"/>
-      <c r="O96" s="159"/>
-      <c r="P96" s="159"/>
-      <c r="Q96" s="159"/>
-      <c r="R96" s="159"/>
-      <c r="S96" s="159"/>
-      <c r="T96" s="159"/>
-      <c r="U96" s="159"/>
-      <c r="V96" s="159"/>
-      <c r="W96" s="159"/>
-      <c r="X96" s="159"/>
-      <c r="Y96" s="159"/>
-      <c r="Z96" s="159"/>
-      <c r="AA96" s="159"/>
-      <c r="AB96" s="159"/>
-      <c r="AC96" s="159"/>
-      <c r="AD96" s="159"/>
-      <c r="AE96" s="159"/>
-      <c r="AF96" s="159"/>
-      <c r="AG96" s="159"/>
-      <c r="AH96" s="159"/>
-      <c r="AI96" s="159"/>
-      <c r="AJ96" s="159"/>
-      <c r="AK96" s="160"/>
+      <c r="A96" s="166"/>
+      <c r="B96" s="167"/>
+      <c r="C96" s="167"/>
+      <c r="D96" s="167"/>
+      <c r="E96" s="167"/>
+      <c r="F96" s="167"/>
+      <c r="G96" s="167"/>
+      <c r="H96" s="167"/>
+      <c r="I96" s="167"/>
+      <c r="J96" s="167"/>
+      <c r="K96" s="167"/>
+      <c r="L96" s="167"/>
+      <c r="M96" s="167"/>
+      <c r="N96" s="167"/>
+      <c r="O96" s="167"/>
+      <c r="P96" s="167"/>
+      <c r="Q96" s="167"/>
+      <c r="R96" s="167"/>
+      <c r="S96" s="167"/>
+      <c r="T96" s="167"/>
+      <c r="U96" s="167"/>
+      <c r="V96" s="167"/>
+      <c r="W96" s="167"/>
+      <c r="X96" s="167"/>
+      <c r="Y96" s="167"/>
+      <c r="Z96" s="167"/>
+      <c r="AA96" s="167"/>
+      <c r="AB96" s="167"/>
+      <c r="AC96" s="167"/>
+      <c r="AD96" s="167"/>
+      <c r="AE96" s="167"/>
+      <c r="AF96" s="167"/>
+      <c r="AG96" s="167"/>
+      <c r="AH96" s="167"/>
+      <c r="AI96" s="167"/>
+      <c r="AJ96" s="167"/>
+      <c r="AK96" s="168"/>
     </row>
     <row r="97" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="47" t="s">
@@ -19800,13 +19810,13 @@
       </c>
     </row>
     <row r="98" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="161" t="s">
+      <c r="A98" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B98" s="162"/>
-      <c r="C98" s="162"/>
-      <c r="D98" s="162"/>
-      <c r="E98" s="162"/>
+      <c r="B98" s="155"/>
+      <c r="C98" s="155"/>
+      <c r="D98" s="155"/>
+      <c r="E98" s="155"/>
       <c r="F98" s="99" t="s">
         <v>128</v>
       </c>
@@ -19905,14 +19915,14 @@
       </c>
     </row>
     <row r="99" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A99" s="163" t="s">
+      <c r="A99" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B99" s="164"/>
-      <c r="C99" s="164"/>
-      <c r="D99" s="165"/>
-      <c r="E99" s="164"/>
-      <c r="F99" s="166"/>
+      <c r="B99" s="157"/>
+      <c r="C99" s="157"/>
+      <c r="D99" s="158"/>
+      <c r="E99" s="157"/>
+      <c r="F99" s="159"/>
       <c r="G99" s="25" t="s">
         <v>104</v>
       </c>
@@ -19980,10 +19990,10 @@
         <f>IF(ISBLANK(F98),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F98), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E100" s="167" t="s">
+      <c r="E100" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F100" s="168"/>
+      <c r="F100" s="161"/>
       <c r="G100" s="14" t="s">
         <v>107</v>
       </c>
@@ -20100,8 +20110,8 @@
       <c r="AK101" s="10"/>
     </row>
     <row r="102" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A102" s="154"/>
-      <c r="B102" s="155"/>
+      <c r="A102" s="162"/>
+      <c r="B102" s="163"/>
       <c r="C102" s="58"/>
       <c r="D102" s="60" t="s">
         <v>109</v>
@@ -20649,10 +20659,10 @@
       <c r="D107" s="31">
         <v>0</v>
       </c>
-      <c r="E107" s="156" t="s">
+      <c r="E107" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F107" s="157"/>
+      <c r="F107" s="165"/>
       <c r="G107" s="65" t="s">
         <v>120</v>
       </c>
@@ -20778,43 +20788,43 @@
       </c>
     </row>
     <row r="108" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="158"/>
-      <c r="B108" s="159"/>
-      <c r="C108" s="159"/>
-      <c r="D108" s="159"/>
-      <c r="E108" s="159"/>
-      <c r="F108" s="159"/>
-      <c r="G108" s="159"/>
-      <c r="H108" s="159"/>
-      <c r="I108" s="159"/>
-      <c r="J108" s="159"/>
-      <c r="K108" s="159"/>
-      <c r="L108" s="159"/>
-      <c r="M108" s="159"/>
-      <c r="N108" s="159"/>
-      <c r="O108" s="159"/>
-      <c r="P108" s="159"/>
-      <c r="Q108" s="159"/>
-      <c r="R108" s="159"/>
-      <c r="S108" s="159"/>
-      <c r="T108" s="159"/>
-      <c r="U108" s="159"/>
-      <c r="V108" s="159"/>
-      <c r="W108" s="159"/>
-      <c r="X108" s="159"/>
-      <c r="Y108" s="159"/>
-      <c r="Z108" s="159"/>
-      <c r="AA108" s="159"/>
-      <c r="AB108" s="159"/>
-      <c r="AC108" s="159"/>
-      <c r="AD108" s="159"/>
-      <c r="AE108" s="159"/>
-      <c r="AF108" s="159"/>
-      <c r="AG108" s="159"/>
-      <c r="AH108" s="159"/>
-      <c r="AI108" s="159"/>
-      <c r="AJ108" s="159"/>
-      <c r="AK108" s="160"/>
+      <c r="A108" s="166"/>
+      <c r="B108" s="167"/>
+      <c r="C108" s="167"/>
+      <c r="D108" s="167"/>
+      <c r="E108" s="167"/>
+      <c r="F108" s="167"/>
+      <c r="G108" s="167"/>
+      <c r="H108" s="167"/>
+      <c r="I108" s="167"/>
+      <c r="J108" s="167"/>
+      <c r="K108" s="167"/>
+      <c r="L108" s="167"/>
+      <c r="M108" s="167"/>
+      <c r="N108" s="167"/>
+      <c r="O108" s="167"/>
+      <c r="P108" s="167"/>
+      <c r="Q108" s="167"/>
+      <c r="R108" s="167"/>
+      <c r="S108" s="167"/>
+      <c r="T108" s="167"/>
+      <c r="U108" s="167"/>
+      <c r="V108" s="167"/>
+      <c r="W108" s="167"/>
+      <c r="X108" s="167"/>
+      <c r="Y108" s="167"/>
+      <c r="Z108" s="167"/>
+      <c r="AA108" s="167"/>
+      <c r="AB108" s="167"/>
+      <c r="AC108" s="167"/>
+      <c r="AD108" s="167"/>
+      <c r="AE108" s="167"/>
+      <c r="AF108" s="167"/>
+      <c r="AG108" s="167"/>
+      <c r="AH108" s="167"/>
+      <c r="AI108" s="167"/>
+      <c r="AJ108" s="167"/>
+      <c r="AK108" s="168"/>
     </row>
     <row r="109" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="47" t="s">
@@ -20959,13 +20969,13 @@
       </c>
     </row>
     <row r="110" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="161" t="s">
+      <c r="A110" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B110" s="162"/>
-      <c r="C110" s="162"/>
-      <c r="D110" s="162"/>
-      <c r="E110" s="162"/>
+      <c r="B110" s="155"/>
+      <c r="C110" s="155"/>
+      <c r="D110" s="155"/>
+      <c r="E110" s="155"/>
       <c r="F110" s="99" t="s">
         <v>129</v>
       </c>
@@ -21064,14 +21074,14 @@
       </c>
     </row>
     <row r="111" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A111" s="163" t="s">
+      <c r="A111" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B111" s="164"/>
-      <c r="C111" s="164"/>
-      <c r="D111" s="165"/>
-      <c r="E111" s="164"/>
-      <c r="F111" s="166"/>
+      <c r="B111" s="157"/>
+      <c r="C111" s="157"/>
+      <c r="D111" s="158"/>
+      <c r="E111" s="157"/>
+      <c r="F111" s="159"/>
       <c r="G111" s="25" t="s">
         <v>104</v>
       </c>
@@ -21139,10 +21149,10 @@
         <f>IF(ISBLANK(F110),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F110), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E112" s="167" t="s">
+      <c r="E112" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F112" s="168"/>
+      <c r="F112" s="161"/>
       <c r="G112" s="14" t="s">
         <v>107</v>
       </c>
@@ -21259,8 +21269,8 @@
       <c r="AK113" s="10"/>
     </row>
     <row r="114" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A114" s="154"/>
-      <c r="B114" s="155"/>
+      <c r="A114" s="162"/>
+      <c r="B114" s="163"/>
       <c r="C114" s="58"/>
       <c r="D114" s="60" t="s">
         <v>109</v>
@@ -21808,10 +21818,10 @@
       <c r="D119" s="31">
         <v>0</v>
       </c>
-      <c r="E119" s="156" t="s">
+      <c r="E119" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F119" s="157"/>
+      <c r="F119" s="165"/>
       <c r="G119" s="65" t="s">
         <v>120</v>
       </c>
@@ -21937,43 +21947,43 @@
       </c>
     </row>
     <row r="120" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="158"/>
-      <c r="B120" s="159"/>
-      <c r="C120" s="159"/>
-      <c r="D120" s="159"/>
-      <c r="E120" s="159"/>
-      <c r="F120" s="159"/>
-      <c r="G120" s="159"/>
-      <c r="H120" s="159"/>
-      <c r="I120" s="159"/>
-      <c r="J120" s="159"/>
-      <c r="K120" s="159"/>
-      <c r="L120" s="159"/>
-      <c r="M120" s="159"/>
-      <c r="N120" s="159"/>
-      <c r="O120" s="159"/>
-      <c r="P120" s="159"/>
-      <c r="Q120" s="159"/>
-      <c r="R120" s="159"/>
-      <c r="S120" s="159"/>
-      <c r="T120" s="159"/>
-      <c r="U120" s="159"/>
-      <c r="V120" s="159"/>
-      <c r="W120" s="159"/>
-      <c r="X120" s="159"/>
-      <c r="Y120" s="159"/>
-      <c r="Z120" s="159"/>
-      <c r="AA120" s="159"/>
-      <c r="AB120" s="159"/>
-      <c r="AC120" s="159"/>
-      <c r="AD120" s="159"/>
-      <c r="AE120" s="159"/>
-      <c r="AF120" s="159"/>
-      <c r="AG120" s="159"/>
-      <c r="AH120" s="159"/>
-      <c r="AI120" s="159"/>
-      <c r="AJ120" s="159"/>
-      <c r="AK120" s="160"/>
+      <c r="A120" s="166"/>
+      <c r="B120" s="167"/>
+      <c r="C120" s="167"/>
+      <c r="D120" s="167"/>
+      <c r="E120" s="167"/>
+      <c r="F120" s="167"/>
+      <c r="G120" s="167"/>
+      <c r="H120" s="167"/>
+      <c r="I120" s="167"/>
+      <c r="J120" s="167"/>
+      <c r="K120" s="167"/>
+      <c r="L120" s="167"/>
+      <c r="M120" s="167"/>
+      <c r="N120" s="167"/>
+      <c r="O120" s="167"/>
+      <c r="P120" s="167"/>
+      <c r="Q120" s="167"/>
+      <c r="R120" s="167"/>
+      <c r="S120" s="167"/>
+      <c r="T120" s="167"/>
+      <c r="U120" s="167"/>
+      <c r="V120" s="167"/>
+      <c r="W120" s="167"/>
+      <c r="X120" s="167"/>
+      <c r="Y120" s="167"/>
+      <c r="Z120" s="167"/>
+      <c r="AA120" s="167"/>
+      <c r="AB120" s="167"/>
+      <c r="AC120" s="167"/>
+      <c r="AD120" s="167"/>
+      <c r="AE120" s="167"/>
+      <c r="AF120" s="167"/>
+      <c r="AG120" s="167"/>
+      <c r="AH120" s="167"/>
+      <c r="AI120" s="167"/>
+      <c r="AJ120" s="167"/>
+      <c r="AK120" s="168"/>
     </row>
     <row r="121" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="47" t="s">
@@ -22118,13 +22128,13 @@
       </c>
     </row>
     <row r="122" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="161" t="s">
+      <c r="A122" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B122" s="162"/>
-      <c r="C122" s="162"/>
-      <c r="D122" s="162"/>
-      <c r="E122" s="162"/>
+      <c r="B122" s="155"/>
+      <c r="C122" s="155"/>
+      <c r="D122" s="155"/>
+      <c r="E122" s="155"/>
       <c r="F122" s="99" t="s">
         <v>130</v>
       </c>
@@ -22223,14 +22233,14 @@
       </c>
     </row>
     <row r="123" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A123" s="163" t="s">
+      <c r="A123" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B123" s="164"/>
-      <c r="C123" s="164"/>
-      <c r="D123" s="165"/>
-      <c r="E123" s="164"/>
-      <c r="F123" s="166"/>
+      <c r="B123" s="157"/>
+      <c r="C123" s="157"/>
+      <c r="D123" s="158"/>
+      <c r="E123" s="157"/>
+      <c r="F123" s="159"/>
       <c r="G123" s="25" t="s">
         <v>104</v>
       </c>
@@ -22296,10 +22306,10 @@
         <f>IF(ISBLANK(F122),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F122), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E124" s="167" t="s">
+      <c r="E124" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F124" s="168"/>
+      <c r="F124" s="161"/>
       <c r="G124" s="14" t="s">
         <v>107</v>
       </c>
@@ -22412,8 +22422,8 @@
       <c r="AK125" s="10"/>
     </row>
     <row r="126" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A126" s="154"/>
-      <c r="B126" s="155"/>
+      <c r="A126" s="162"/>
+      <c r="B126" s="163"/>
       <c r="C126" s="58"/>
       <c r="D126" s="60" t="s">
         <v>109</v>
@@ -22957,10 +22967,10 @@
       <c r="D131" s="31">
         <v>0</v>
       </c>
-      <c r="E131" s="156" t="s">
+      <c r="E131" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F131" s="157"/>
+      <c r="F131" s="165"/>
       <c r="G131" s="65" t="s">
         <v>120</v>
       </c>
@@ -23086,43 +23096,43 @@
       </c>
     </row>
     <row r="132" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="158"/>
-      <c r="B132" s="159"/>
-      <c r="C132" s="159"/>
-      <c r="D132" s="159"/>
-      <c r="E132" s="159"/>
-      <c r="F132" s="159"/>
-      <c r="G132" s="159"/>
-      <c r="H132" s="159"/>
-      <c r="I132" s="159"/>
-      <c r="J132" s="159"/>
-      <c r="K132" s="159"/>
-      <c r="L132" s="159"/>
-      <c r="M132" s="159"/>
-      <c r="N132" s="159"/>
-      <c r="O132" s="159"/>
-      <c r="P132" s="159"/>
-      <c r="Q132" s="159"/>
-      <c r="R132" s="159"/>
-      <c r="S132" s="159"/>
-      <c r="T132" s="159"/>
-      <c r="U132" s="159"/>
-      <c r="V132" s="159"/>
-      <c r="W132" s="159"/>
-      <c r="X132" s="159"/>
-      <c r="Y132" s="159"/>
-      <c r="Z132" s="159"/>
-      <c r="AA132" s="159"/>
-      <c r="AB132" s="159"/>
-      <c r="AC132" s="159"/>
-      <c r="AD132" s="159"/>
-      <c r="AE132" s="159"/>
-      <c r="AF132" s="159"/>
-      <c r="AG132" s="159"/>
-      <c r="AH132" s="159"/>
-      <c r="AI132" s="159"/>
-      <c r="AJ132" s="159"/>
-      <c r="AK132" s="160"/>
+      <c r="A132" s="166"/>
+      <c r="B132" s="167"/>
+      <c r="C132" s="167"/>
+      <c r="D132" s="167"/>
+      <c r="E132" s="167"/>
+      <c r="F132" s="167"/>
+      <c r="G132" s="167"/>
+      <c r="H132" s="167"/>
+      <c r="I132" s="167"/>
+      <c r="J132" s="167"/>
+      <c r="K132" s="167"/>
+      <c r="L132" s="167"/>
+      <c r="M132" s="167"/>
+      <c r="N132" s="167"/>
+      <c r="O132" s="167"/>
+      <c r="P132" s="167"/>
+      <c r="Q132" s="167"/>
+      <c r="R132" s="167"/>
+      <c r="S132" s="167"/>
+      <c r="T132" s="167"/>
+      <c r="U132" s="167"/>
+      <c r="V132" s="167"/>
+      <c r="W132" s="167"/>
+      <c r="X132" s="167"/>
+      <c r="Y132" s="167"/>
+      <c r="Z132" s="167"/>
+      <c r="AA132" s="167"/>
+      <c r="AB132" s="167"/>
+      <c r="AC132" s="167"/>
+      <c r="AD132" s="167"/>
+      <c r="AE132" s="167"/>
+      <c r="AF132" s="167"/>
+      <c r="AG132" s="167"/>
+      <c r="AH132" s="167"/>
+      <c r="AI132" s="167"/>
+      <c r="AJ132" s="167"/>
+      <c r="AK132" s="168"/>
     </row>
     <row r="133" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="47" t="s">
@@ -23267,13 +23277,13 @@
       </c>
     </row>
     <row r="134" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="161" t="s">
+      <c r="A134" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B134" s="162"/>
-      <c r="C134" s="162"/>
-      <c r="D134" s="162"/>
-      <c r="E134" s="162"/>
+      <c r="B134" s="155"/>
+      <c r="C134" s="155"/>
+      <c r="D134" s="155"/>
+      <c r="E134" s="155"/>
       <c r="F134" s="99" t="s">
         <v>131</v>
       </c>
@@ -23372,14 +23382,14 @@
       </c>
     </row>
     <row r="135" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A135" s="163" t="s">
+      <c r="A135" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B135" s="164"/>
-      <c r="C135" s="164"/>
-      <c r="D135" s="165"/>
-      <c r="E135" s="164"/>
-      <c r="F135" s="166"/>
+      <c r="B135" s="157"/>
+      <c r="C135" s="157"/>
+      <c r="D135" s="158"/>
+      <c r="E135" s="157"/>
+      <c r="F135" s="159"/>
       <c r="G135" s="25" t="s">
         <v>104</v>
       </c>
@@ -23445,10 +23455,10 @@
         <f>IF(ISBLANK(F134),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F134), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E136" s="167" t="s">
+      <c r="E136" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F136" s="168"/>
+      <c r="F136" s="161"/>
       <c r="G136" s="14" t="s">
         <v>107</v>
       </c>
@@ -23561,8 +23571,8 @@
       <c r="AK137" s="10"/>
     </row>
     <row r="138" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A138" s="154"/>
-      <c r="B138" s="155"/>
+      <c r="A138" s="162"/>
+      <c r="B138" s="163"/>
       <c r="C138" s="58"/>
       <c r="D138" s="60" t="s">
         <v>109</v>
@@ -24106,10 +24116,10 @@
       <c r="D143" s="31">
         <v>0</v>
       </c>
-      <c r="E143" s="156" t="s">
+      <c r="E143" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F143" s="157"/>
+      <c r="F143" s="165"/>
       <c r="G143" s="65" t="s">
         <v>120</v>
       </c>
@@ -24235,43 +24245,43 @@
       </c>
     </row>
     <row r="144" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="158"/>
-      <c r="B144" s="159"/>
-      <c r="C144" s="159"/>
-      <c r="D144" s="159"/>
-      <c r="E144" s="159"/>
-      <c r="F144" s="159"/>
-      <c r="G144" s="159"/>
-      <c r="H144" s="159"/>
-      <c r="I144" s="159"/>
-      <c r="J144" s="159"/>
-      <c r="K144" s="159"/>
-      <c r="L144" s="159"/>
-      <c r="M144" s="159"/>
-      <c r="N144" s="159"/>
-      <c r="O144" s="159"/>
-      <c r="P144" s="159"/>
-      <c r="Q144" s="159"/>
-      <c r="R144" s="159"/>
-      <c r="S144" s="159"/>
-      <c r="T144" s="159"/>
-      <c r="U144" s="159"/>
-      <c r="V144" s="159"/>
-      <c r="W144" s="159"/>
-      <c r="X144" s="159"/>
-      <c r="Y144" s="159"/>
-      <c r="Z144" s="159"/>
-      <c r="AA144" s="159"/>
-      <c r="AB144" s="159"/>
-      <c r="AC144" s="159"/>
-      <c r="AD144" s="159"/>
-      <c r="AE144" s="159"/>
-      <c r="AF144" s="159"/>
-      <c r="AG144" s="159"/>
-      <c r="AH144" s="159"/>
-      <c r="AI144" s="159"/>
-      <c r="AJ144" s="159"/>
-      <c r="AK144" s="160"/>
+      <c r="A144" s="166"/>
+      <c r="B144" s="167"/>
+      <c r="C144" s="167"/>
+      <c r="D144" s="167"/>
+      <c r="E144" s="167"/>
+      <c r="F144" s="167"/>
+      <c r="G144" s="167"/>
+      <c r="H144" s="167"/>
+      <c r="I144" s="167"/>
+      <c r="J144" s="167"/>
+      <c r="K144" s="167"/>
+      <c r="L144" s="167"/>
+      <c r="M144" s="167"/>
+      <c r="N144" s="167"/>
+      <c r="O144" s="167"/>
+      <c r="P144" s="167"/>
+      <c r="Q144" s="167"/>
+      <c r="R144" s="167"/>
+      <c r="S144" s="167"/>
+      <c r="T144" s="167"/>
+      <c r="U144" s="167"/>
+      <c r="V144" s="167"/>
+      <c r="W144" s="167"/>
+      <c r="X144" s="167"/>
+      <c r="Y144" s="167"/>
+      <c r="Z144" s="167"/>
+      <c r="AA144" s="167"/>
+      <c r="AB144" s="167"/>
+      <c r="AC144" s="167"/>
+      <c r="AD144" s="167"/>
+      <c r="AE144" s="167"/>
+      <c r="AF144" s="167"/>
+      <c r="AG144" s="167"/>
+      <c r="AH144" s="167"/>
+      <c r="AI144" s="167"/>
+      <c r="AJ144" s="167"/>
+      <c r="AK144" s="168"/>
     </row>
     <row r="145" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="47" t="s">
@@ -24416,13 +24426,13 @@
       </c>
     </row>
     <row r="146" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="161" t="s">
+      <c r="A146" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B146" s="162"/>
-      <c r="C146" s="162"/>
-      <c r="D146" s="162"/>
-      <c r="E146" s="162"/>
+      <c r="B146" s="155"/>
+      <c r="C146" s="155"/>
+      <c r="D146" s="155"/>
+      <c r="E146" s="155"/>
       <c r="F146" s="99" t="s">
         <v>132</v>
       </c>
@@ -24521,14 +24531,14 @@
       </c>
     </row>
     <row r="147" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A147" s="163" t="s">
+      <c r="A147" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B147" s="164"/>
-      <c r="C147" s="164"/>
-      <c r="D147" s="165"/>
-      <c r="E147" s="164"/>
-      <c r="F147" s="166"/>
+      <c r="B147" s="157"/>
+      <c r="C147" s="157"/>
+      <c r="D147" s="158"/>
+      <c r="E147" s="157"/>
+      <c r="F147" s="159"/>
       <c r="G147" s="25" t="s">
         <v>104</v>
       </c>
@@ -24594,10 +24604,10 @@
         <f>IF(ISBLANK(F146),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F146), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E148" s="167" t="s">
+      <c r="E148" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F148" s="168"/>
+      <c r="F148" s="161"/>
       <c r="G148" s="14" t="s">
         <v>107</v>
       </c>
@@ -24710,8 +24720,8 @@
       <c r="AK149" s="10"/>
     </row>
     <row r="150" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A150" s="154"/>
-      <c r="B150" s="155"/>
+      <c r="A150" s="162"/>
+      <c r="B150" s="163"/>
       <c r="C150" s="58"/>
       <c r="D150" s="60" t="s">
         <v>109</v>
@@ -25255,10 +25265,10 @@
       <c r="D155" s="31">
         <v>0</v>
       </c>
-      <c r="E155" s="156" t="s">
+      <c r="E155" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F155" s="157"/>
+      <c r="F155" s="165"/>
       <c r="G155" s="65" t="s">
         <v>120</v>
       </c>
@@ -25384,43 +25394,43 @@
       </c>
     </row>
     <row r="156" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="158"/>
-      <c r="B156" s="159"/>
-      <c r="C156" s="159"/>
-      <c r="D156" s="159"/>
-      <c r="E156" s="159"/>
-      <c r="F156" s="159"/>
-      <c r="G156" s="159"/>
-      <c r="H156" s="159"/>
-      <c r="I156" s="159"/>
-      <c r="J156" s="159"/>
-      <c r="K156" s="159"/>
-      <c r="L156" s="159"/>
-      <c r="M156" s="159"/>
-      <c r="N156" s="159"/>
-      <c r="O156" s="159"/>
-      <c r="P156" s="159"/>
-      <c r="Q156" s="159"/>
-      <c r="R156" s="159"/>
-      <c r="S156" s="159"/>
-      <c r="T156" s="159"/>
-      <c r="U156" s="159"/>
-      <c r="V156" s="159"/>
-      <c r="W156" s="159"/>
-      <c r="X156" s="159"/>
-      <c r="Y156" s="159"/>
-      <c r="Z156" s="159"/>
-      <c r="AA156" s="159"/>
-      <c r="AB156" s="159"/>
-      <c r="AC156" s="159"/>
-      <c r="AD156" s="159"/>
-      <c r="AE156" s="159"/>
-      <c r="AF156" s="159"/>
-      <c r="AG156" s="159"/>
-      <c r="AH156" s="159"/>
-      <c r="AI156" s="159"/>
-      <c r="AJ156" s="159"/>
-      <c r="AK156" s="160"/>
+      <c r="A156" s="166"/>
+      <c r="B156" s="167"/>
+      <c r="C156" s="167"/>
+      <c r="D156" s="167"/>
+      <c r="E156" s="167"/>
+      <c r="F156" s="167"/>
+      <c r="G156" s="167"/>
+      <c r="H156" s="167"/>
+      <c r="I156" s="167"/>
+      <c r="J156" s="167"/>
+      <c r="K156" s="167"/>
+      <c r="L156" s="167"/>
+      <c r="M156" s="167"/>
+      <c r="N156" s="167"/>
+      <c r="O156" s="167"/>
+      <c r="P156" s="167"/>
+      <c r="Q156" s="167"/>
+      <c r="R156" s="167"/>
+      <c r="S156" s="167"/>
+      <c r="T156" s="167"/>
+      <c r="U156" s="167"/>
+      <c r="V156" s="167"/>
+      <c r="W156" s="167"/>
+      <c r="X156" s="167"/>
+      <c r="Y156" s="167"/>
+      <c r="Z156" s="167"/>
+      <c r="AA156" s="167"/>
+      <c r="AB156" s="167"/>
+      <c r="AC156" s="167"/>
+      <c r="AD156" s="167"/>
+      <c r="AE156" s="167"/>
+      <c r="AF156" s="167"/>
+      <c r="AG156" s="167"/>
+      <c r="AH156" s="167"/>
+      <c r="AI156" s="167"/>
+      <c r="AJ156" s="167"/>
+      <c r="AK156" s="168"/>
     </row>
     <row r="157" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="47" t="s">
@@ -25565,13 +25575,13 @@
       </c>
     </row>
     <row r="158" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="161" t="s">
+      <c r="A158" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B158" s="162"/>
-      <c r="C158" s="162"/>
-      <c r="D158" s="162"/>
-      <c r="E158" s="162"/>
+      <c r="B158" s="155"/>
+      <c r="C158" s="155"/>
+      <c r="D158" s="155"/>
+      <c r="E158" s="155"/>
       <c r="F158" s="99" t="s">
         <v>133</v>
       </c>
@@ -25670,14 +25680,14 @@
       </c>
     </row>
     <row r="159" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A159" s="163" t="s">
+      <c r="A159" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B159" s="164"/>
-      <c r="C159" s="164"/>
-      <c r="D159" s="165"/>
-      <c r="E159" s="164"/>
-      <c r="F159" s="166"/>
+      <c r="B159" s="157"/>
+      <c r="C159" s="157"/>
+      <c r="D159" s="158"/>
+      <c r="E159" s="157"/>
+      <c r="F159" s="159"/>
       <c r="G159" s="25" t="s">
         <v>104</v>
       </c>
@@ -25743,10 +25753,10 @@
         <f>IF(ISBLANK(F158),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F158), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E160" s="167" t="s">
+      <c r="E160" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F160" s="168"/>
+      <c r="F160" s="161"/>
       <c r="G160" s="14" t="s">
         <v>107</v>
       </c>
@@ -25859,8 +25869,8 @@
       <c r="AK161" s="10"/>
     </row>
     <row r="162" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A162" s="154"/>
-      <c r="B162" s="155"/>
+      <c r="A162" s="162"/>
+      <c r="B162" s="163"/>
       <c r="C162" s="58"/>
       <c r="D162" s="60" t="s">
         <v>109</v>
@@ -26404,10 +26414,10 @@
       <c r="D167" s="31">
         <v>0</v>
       </c>
-      <c r="E167" s="156" t="s">
+      <c r="E167" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F167" s="157"/>
+      <c r="F167" s="165"/>
       <c r="G167" s="65" t="s">
         <v>120</v>
       </c>
@@ -26533,43 +26543,43 @@
       </c>
     </row>
     <row r="168" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="158"/>
-      <c r="B168" s="159"/>
-      <c r="C168" s="159"/>
-      <c r="D168" s="159"/>
-      <c r="E168" s="159"/>
-      <c r="F168" s="159"/>
-      <c r="G168" s="159"/>
-      <c r="H168" s="159"/>
-      <c r="I168" s="159"/>
-      <c r="J168" s="159"/>
-      <c r="K168" s="159"/>
-      <c r="L168" s="159"/>
-      <c r="M168" s="159"/>
-      <c r="N168" s="159"/>
-      <c r="O168" s="159"/>
-      <c r="P168" s="159"/>
-      <c r="Q168" s="159"/>
-      <c r="R168" s="159"/>
-      <c r="S168" s="159"/>
-      <c r="T168" s="159"/>
-      <c r="U168" s="159"/>
-      <c r="V168" s="159"/>
-      <c r="W168" s="159"/>
-      <c r="X168" s="159"/>
-      <c r="Y168" s="159"/>
-      <c r="Z168" s="159"/>
-      <c r="AA168" s="159"/>
-      <c r="AB168" s="159"/>
-      <c r="AC168" s="159"/>
-      <c r="AD168" s="159"/>
-      <c r="AE168" s="159"/>
-      <c r="AF168" s="159"/>
-      <c r="AG168" s="159"/>
-      <c r="AH168" s="159"/>
-      <c r="AI168" s="159"/>
-      <c r="AJ168" s="159"/>
-      <c r="AK168" s="160"/>
+      <c r="A168" s="166"/>
+      <c r="B168" s="167"/>
+      <c r="C168" s="167"/>
+      <c r="D168" s="167"/>
+      <c r="E168" s="167"/>
+      <c r="F168" s="167"/>
+      <c r="G168" s="167"/>
+      <c r="H168" s="167"/>
+      <c r="I168" s="167"/>
+      <c r="J168" s="167"/>
+      <c r="K168" s="167"/>
+      <c r="L168" s="167"/>
+      <c r="M168" s="167"/>
+      <c r="N168" s="167"/>
+      <c r="O168" s="167"/>
+      <c r="P168" s="167"/>
+      <c r="Q168" s="167"/>
+      <c r="R168" s="167"/>
+      <c r="S168" s="167"/>
+      <c r="T168" s="167"/>
+      <c r="U168" s="167"/>
+      <c r="V168" s="167"/>
+      <c r="W168" s="167"/>
+      <c r="X168" s="167"/>
+      <c r="Y168" s="167"/>
+      <c r="Z168" s="167"/>
+      <c r="AA168" s="167"/>
+      <c r="AB168" s="167"/>
+      <c r="AC168" s="167"/>
+      <c r="AD168" s="167"/>
+      <c r="AE168" s="167"/>
+      <c r="AF168" s="167"/>
+      <c r="AG168" s="167"/>
+      <c r="AH168" s="167"/>
+      <c r="AI168" s="167"/>
+      <c r="AJ168" s="167"/>
+      <c r="AK168" s="168"/>
     </row>
     <row r="169" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="47" t="s">
@@ -26714,13 +26724,13 @@
       </c>
     </row>
     <row r="170" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="161" t="s">
+      <c r="A170" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B170" s="162"/>
-      <c r="C170" s="162"/>
-      <c r="D170" s="162"/>
-      <c r="E170" s="162"/>
+      <c r="B170" s="155"/>
+      <c r="C170" s="155"/>
+      <c r="D170" s="155"/>
+      <c r="E170" s="155"/>
       <c r="F170" s="99" t="s">
         <v>134</v>
       </c>
@@ -26819,14 +26829,14 @@
       </c>
     </row>
     <row r="171" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A171" s="163" t="s">
+      <c r="A171" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B171" s="164"/>
-      <c r="C171" s="164"/>
-      <c r="D171" s="165"/>
-      <c r="E171" s="164"/>
-      <c r="F171" s="166"/>
+      <c r="B171" s="157"/>
+      <c r="C171" s="157"/>
+      <c r="D171" s="158"/>
+      <c r="E171" s="157"/>
+      <c r="F171" s="159"/>
       <c r="G171" s="25" t="s">
         <v>104</v>
       </c>
@@ -26890,10 +26900,10 @@
         <f>IF(ISBLANK(F170),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F170), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E172" s="167" t="s">
+      <c r="E172" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F172" s="168"/>
+      <c r="F172" s="161"/>
       <c r="G172" s="14" t="s">
         <v>107</v>
       </c>
@@ -27002,8 +27012,8 @@
       <c r="AK173" s="10"/>
     </row>
     <row r="174" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A174" s="154"/>
-      <c r="B174" s="155"/>
+      <c r="A174" s="162"/>
+      <c r="B174" s="163"/>
       <c r="C174" s="58"/>
       <c r="D174" s="60" t="s">
         <v>109</v>
@@ -27543,10 +27553,10 @@
       <c r="D179" s="31">
         <v>0</v>
       </c>
-      <c r="E179" s="156" t="s">
+      <c r="E179" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F179" s="157"/>
+      <c r="F179" s="165"/>
       <c r="G179" s="65" t="s">
         <v>120</v>
       </c>
@@ -27672,43 +27682,43 @@
       </c>
     </row>
     <row r="180" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="158"/>
-      <c r="B180" s="159"/>
-      <c r="C180" s="159"/>
-      <c r="D180" s="159"/>
-      <c r="E180" s="159"/>
-      <c r="F180" s="159"/>
-      <c r="G180" s="159"/>
-      <c r="H180" s="159"/>
-      <c r="I180" s="159"/>
-      <c r="J180" s="159"/>
-      <c r="K180" s="159"/>
-      <c r="L180" s="159"/>
-      <c r="M180" s="159"/>
-      <c r="N180" s="159"/>
-      <c r="O180" s="159"/>
-      <c r="P180" s="159"/>
-      <c r="Q180" s="159"/>
-      <c r="R180" s="159"/>
-      <c r="S180" s="159"/>
-      <c r="T180" s="159"/>
-      <c r="U180" s="159"/>
-      <c r="V180" s="159"/>
-      <c r="W180" s="159"/>
-      <c r="X180" s="159"/>
-      <c r="Y180" s="159"/>
-      <c r="Z180" s="159"/>
-      <c r="AA180" s="159"/>
-      <c r="AB180" s="159"/>
-      <c r="AC180" s="159"/>
-      <c r="AD180" s="159"/>
-      <c r="AE180" s="159"/>
-      <c r="AF180" s="159"/>
-      <c r="AG180" s="159"/>
-      <c r="AH180" s="159"/>
-      <c r="AI180" s="159"/>
-      <c r="AJ180" s="159"/>
-      <c r="AK180" s="160"/>
+      <c r="A180" s="166"/>
+      <c r="B180" s="167"/>
+      <c r="C180" s="167"/>
+      <c r="D180" s="167"/>
+      <c r="E180" s="167"/>
+      <c r="F180" s="167"/>
+      <c r="G180" s="167"/>
+      <c r="H180" s="167"/>
+      <c r="I180" s="167"/>
+      <c r="J180" s="167"/>
+      <c r="K180" s="167"/>
+      <c r="L180" s="167"/>
+      <c r="M180" s="167"/>
+      <c r="N180" s="167"/>
+      <c r="O180" s="167"/>
+      <c r="P180" s="167"/>
+      <c r="Q180" s="167"/>
+      <c r="R180" s="167"/>
+      <c r="S180" s="167"/>
+      <c r="T180" s="167"/>
+      <c r="U180" s="167"/>
+      <c r="V180" s="167"/>
+      <c r="W180" s="167"/>
+      <c r="X180" s="167"/>
+      <c r="Y180" s="167"/>
+      <c r="Z180" s="167"/>
+      <c r="AA180" s="167"/>
+      <c r="AB180" s="167"/>
+      <c r="AC180" s="167"/>
+      <c r="AD180" s="167"/>
+      <c r="AE180" s="167"/>
+      <c r="AF180" s="167"/>
+      <c r="AG180" s="167"/>
+      <c r="AH180" s="167"/>
+      <c r="AI180" s="167"/>
+      <c r="AJ180" s="167"/>
+      <c r="AK180" s="168"/>
     </row>
     <row r="181" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="47" t="s">
@@ -27853,13 +27863,13 @@
       </c>
     </row>
     <row r="182" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="161" t="s">
+      <c r="A182" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B182" s="162"/>
-      <c r="C182" s="162"/>
-      <c r="D182" s="162"/>
-      <c r="E182" s="162"/>
+      <c r="B182" s="155"/>
+      <c r="C182" s="155"/>
+      <c r="D182" s="155"/>
+      <c r="E182" s="155"/>
       <c r="F182" s="99" t="s">
         <v>135</v>
       </c>
@@ -27958,14 +27968,14 @@
       </c>
     </row>
     <row r="183" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A183" s="163" t="s">
+      <c r="A183" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B183" s="164"/>
-      <c r="C183" s="164"/>
-      <c r="D183" s="165"/>
-      <c r="E183" s="164"/>
-      <c r="F183" s="166"/>
+      <c r="B183" s="157"/>
+      <c r="C183" s="157"/>
+      <c r="D183" s="158"/>
+      <c r="E183" s="157"/>
+      <c r="F183" s="159"/>
       <c r="G183" s="25" t="s">
         <v>104</v>
       </c>
@@ -28027,10 +28037,10 @@
         <f>IF(ISBLANK(F182),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F182), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E184" s="167" t="s">
+      <c r="E184" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F184" s="168"/>
+      <c r="F184" s="161"/>
       <c r="G184" s="14" t="s">
         <v>107</v>
       </c>
@@ -28135,8 +28145,8 @@
       <c r="AK185" s="10"/>
     </row>
     <row r="186" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A186" s="154"/>
-      <c r="B186" s="155"/>
+      <c r="A186" s="162"/>
+      <c r="B186" s="163"/>
       <c r="C186" s="58"/>
       <c r="D186" s="60" t="s">
         <v>109</v>
@@ -28672,10 +28682,10 @@
       <c r="D191" s="31">
         <v>0</v>
       </c>
-      <c r="E191" s="156" t="s">
+      <c r="E191" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F191" s="157"/>
+      <c r="F191" s="165"/>
       <c r="G191" s="65" t="s">
         <v>120</v>
       </c>
@@ -28801,43 +28811,43 @@
       </c>
     </row>
     <row r="192" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="158"/>
-      <c r="B192" s="159"/>
-      <c r="C192" s="159"/>
-      <c r="D192" s="159"/>
-      <c r="E192" s="159"/>
-      <c r="F192" s="159"/>
-      <c r="G192" s="159"/>
-      <c r="H192" s="159"/>
-      <c r="I192" s="159"/>
-      <c r="J192" s="159"/>
-      <c r="K192" s="159"/>
-      <c r="L192" s="159"/>
-      <c r="M192" s="159"/>
-      <c r="N192" s="159"/>
-      <c r="O192" s="159"/>
-      <c r="P192" s="159"/>
-      <c r="Q192" s="159"/>
-      <c r="R192" s="159"/>
-      <c r="S192" s="159"/>
-      <c r="T192" s="159"/>
-      <c r="U192" s="159"/>
-      <c r="V192" s="159"/>
-      <c r="W192" s="159"/>
-      <c r="X192" s="159"/>
-      <c r="Y192" s="159"/>
-      <c r="Z192" s="159"/>
-      <c r="AA192" s="159"/>
-      <c r="AB192" s="159"/>
-      <c r="AC192" s="159"/>
-      <c r="AD192" s="159"/>
-      <c r="AE192" s="159"/>
-      <c r="AF192" s="159"/>
-      <c r="AG192" s="159"/>
-      <c r="AH192" s="159"/>
-      <c r="AI192" s="159"/>
-      <c r="AJ192" s="159"/>
-      <c r="AK192" s="160"/>
+      <c r="A192" s="166"/>
+      <c r="B192" s="167"/>
+      <c r="C192" s="167"/>
+      <c r="D192" s="167"/>
+      <c r="E192" s="167"/>
+      <c r="F192" s="167"/>
+      <c r="G192" s="167"/>
+      <c r="H192" s="167"/>
+      <c r="I192" s="167"/>
+      <c r="J192" s="167"/>
+      <c r="K192" s="167"/>
+      <c r="L192" s="167"/>
+      <c r="M192" s="167"/>
+      <c r="N192" s="167"/>
+      <c r="O192" s="167"/>
+      <c r="P192" s="167"/>
+      <c r="Q192" s="167"/>
+      <c r="R192" s="167"/>
+      <c r="S192" s="167"/>
+      <c r="T192" s="167"/>
+      <c r="U192" s="167"/>
+      <c r="V192" s="167"/>
+      <c r="W192" s="167"/>
+      <c r="X192" s="167"/>
+      <c r="Y192" s="167"/>
+      <c r="Z192" s="167"/>
+      <c r="AA192" s="167"/>
+      <c r="AB192" s="167"/>
+      <c r="AC192" s="167"/>
+      <c r="AD192" s="167"/>
+      <c r="AE192" s="167"/>
+      <c r="AF192" s="167"/>
+      <c r="AG192" s="167"/>
+      <c r="AH192" s="167"/>
+      <c r="AI192" s="167"/>
+      <c r="AJ192" s="167"/>
+      <c r="AK192" s="168"/>
     </row>
     <row r="193" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="47" t="s">
@@ -28982,13 +28992,13 @@
       </c>
     </row>
     <row r="194" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="161" t="s">
+      <c r="A194" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B194" s="162"/>
-      <c r="C194" s="162"/>
-      <c r="D194" s="162"/>
-      <c r="E194" s="162"/>
+      <c r="B194" s="155"/>
+      <c r="C194" s="155"/>
+      <c r="D194" s="155"/>
+      <c r="E194" s="155"/>
       <c r="F194" s="99" t="s">
         <v>136</v>
       </c>
@@ -29087,14 +29097,14 @@
       </c>
     </row>
     <row r="195" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A195" s="163" t="s">
+      <c r="A195" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B195" s="164"/>
-      <c r="C195" s="164"/>
-      <c r="D195" s="165"/>
-      <c r="E195" s="164"/>
-      <c r="F195" s="166"/>
+      <c r="B195" s="157"/>
+      <c r="C195" s="157"/>
+      <c r="D195" s="158"/>
+      <c r="E195" s="157"/>
+      <c r="F195" s="159"/>
       <c r="G195" s="25" t="s">
         <v>104</v>
       </c>
@@ -29154,10 +29164,10 @@
         <f>IF(ISBLANK(F194),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F194), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E196" s="167" t="s">
+      <c r="E196" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F196" s="168"/>
+      <c r="F196" s="161"/>
       <c r="G196" s="14" t="s">
         <v>107</v>
       </c>
@@ -29258,8 +29268,8 @@
       <c r="AK197" s="10"/>
     </row>
     <row r="198" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A198" s="154"/>
-      <c r="B198" s="155"/>
+      <c r="A198" s="162"/>
+      <c r="B198" s="163"/>
       <c r="C198" s="58"/>
       <c r="D198" s="60" t="s">
         <v>109</v>
@@ -29791,10 +29801,10 @@
       <c r="D203" s="31">
         <v>0</v>
       </c>
-      <c r="E203" s="156" t="s">
+      <c r="E203" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F203" s="157"/>
+      <c r="F203" s="165"/>
       <c r="G203" s="65" t="s">
         <v>120</v>
       </c>
@@ -29920,43 +29930,43 @@
       </c>
     </row>
     <row r="204" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="158"/>
-      <c r="B204" s="159"/>
-      <c r="C204" s="159"/>
-      <c r="D204" s="159"/>
-      <c r="E204" s="159"/>
-      <c r="F204" s="159"/>
-      <c r="G204" s="159"/>
-      <c r="H204" s="159"/>
-      <c r="I204" s="159"/>
-      <c r="J204" s="159"/>
-      <c r="K204" s="159"/>
-      <c r="L204" s="159"/>
-      <c r="M204" s="159"/>
-      <c r="N204" s="159"/>
-      <c r="O204" s="159"/>
-      <c r="P204" s="159"/>
-      <c r="Q204" s="159"/>
-      <c r="R204" s="159"/>
-      <c r="S204" s="159"/>
-      <c r="T204" s="159"/>
-      <c r="U204" s="159"/>
-      <c r="V204" s="159"/>
-      <c r="W204" s="159"/>
-      <c r="X204" s="159"/>
-      <c r="Y204" s="159"/>
-      <c r="Z204" s="159"/>
-      <c r="AA204" s="159"/>
-      <c r="AB204" s="159"/>
-      <c r="AC204" s="159"/>
-      <c r="AD204" s="159"/>
-      <c r="AE204" s="159"/>
-      <c r="AF204" s="159"/>
-      <c r="AG204" s="159"/>
-      <c r="AH204" s="159"/>
-      <c r="AI204" s="159"/>
-      <c r="AJ204" s="159"/>
-      <c r="AK204" s="160"/>
+      <c r="A204" s="166"/>
+      <c r="B204" s="167"/>
+      <c r="C204" s="167"/>
+      <c r="D204" s="167"/>
+      <c r="E204" s="167"/>
+      <c r="F204" s="167"/>
+      <c r="G204" s="167"/>
+      <c r="H204" s="167"/>
+      <c r="I204" s="167"/>
+      <c r="J204" s="167"/>
+      <c r="K204" s="167"/>
+      <c r="L204" s="167"/>
+      <c r="M204" s="167"/>
+      <c r="N204" s="167"/>
+      <c r="O204" s="167"/>
+      <c r="P204" s="167"/>
+      <c r="Q204" s="167"/>
+      <c r="R204" s="167"/>
+      <c r="S204" s="167"/>
+      <c r="T204" s="167"/>
+      <c r="U204" s="167"/>
+      <c r="V204" s="167"/>
+      <c r="W204" s="167"/>
+      <c r="X204" s="167"/>
+      <c r="Y204" s="167"/>
+      <c r="Z204" s="167"/>
+      <c r="AA204" s="167"/>
+      <c r="AB204" s="167"/>
+      <c r="AC204" s="167"/>
+      <c r="AD204" s="167"/>
+      <c r="AE204" s="167"/>
+      <c r="AF204" s="167"/>
+      <c r="AG204" s="167"/>
+      <c r="AH204" s="167"/>
+      <c r="AI204" s="167"/>
+      <c r="AJ204" s="167"/>
+      <c r="AK204" s="168"/>
     </row>
     <row r="205" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="47" t="s">
@@ -30101,13 +30111,13 @@
       </c>
     </row>
     <row r="206" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="161" t="s">
+      <c r="A206" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B206" s="162"/>
-      <c r="C206" s="162"/>
-      <c r="D206" s="162"/>
-      <c r="E206" s="162"/>
+      <c r="B206" s="155"/>
+      <c r="C206" s="155"/>
+      <c r="D206" s="155"/>
+      <c r="E206" s="155"/>
       <c r="F206" s="99" t="s">
         <v>137</v>
       </c>
@@ -30206,14 +30216,14 @@
       </c>
     </row>
     <row r="207" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A207" s="163" t="s">
+      <c r="A207" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B207" s="164"/>
-      <c r="C207" s="164"/>
-      <c r="D207" s="165"/>
-      <c r="E207" s="164"/>
-      <c r="F207" s="166"/>
+      <c r="B207" s="157"/>
+      <c r="C207" s="157"/>
+      <c r="D207" s="158"/>
+      <c r="E207" s="157"/>
+      <c r="F207" s="159"/>
       <c r="G207" s="25" t="s">
         <v>104</v>
       </c>
@@ -30273,10 +30283,10 @@
         <f>IF(ISBLANK(F206),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F206), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E208" s="167" t="s">
+      <c r="E208" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F208" s="168"/>
+      <c r="F208" s="161"/>
       <c r="G208" s="14" t="s">
         <v>107</v>
       </c>
@@ -30377,8 +30387,8 @@
       <c r="AK209" s="10"/>
     </row>
     <row r="210" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A210" s="154"/>
-      <c r="B210" s="155"/>
+      <c r="A210" s="162"/>
+      <c r="B210" s="163"/>
       <c r="C210" s="58"/>
       <c r="D210" s="60" t="s">
         <v>109</v>
@@ -30910,10 +30920,10 @@
       <c r="D215" s="31">
         <v>0</v>
       </c>
-      <c r="E215" s="156" t="s">
+      <c r="E215" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F215" s="157"/>
+      <c r="F215" s="165"/>
       <c r="G215" s="65" t="s">
         <v>120</v>
       </c>
@@ -31039,43 +31049,43 @@
       </c>
     </row>
     <row r="216" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="158"/>
-      <c r="B216" s="159"/>
-      <c r="C216" s="159"/>
-      <c r="D216" s="159"/>
-      <c r="E216" s="159"/>
-      <c r="F216" s="159"/>
-      <c r="G216" s="159"/>
-      <c r="H216" s="159"/>
-      <c r="I216" s="159"/>
-      <c r="J216" s="159"/>
-      <c r="K216" s="159"/>
-      <c r="L216" s="159"/>
-      <c r="M216" s="159"/>
-      <c r="N216" s="159"/>
-      <c r="O216" s="159"/>
-      <c r="P216" s="159"/>
-      <c r="Q216" s="159"/>
-      <c r="R216" s="159"/>
-      <c r="S216" s="159"/>
-      <c r="T216" s="159"/>
-      <c r="U216" s="159"/>
-      <c r="V216" s="159"/>
-      <c r="W216" s="159"/>
-      <c r="X216" s="159"/>
-      <c r="Y216" s="159"/>
-      <c r="Z216" s="159"/>
-      <c r="AA216" s="159"/>
-      <c r="AB216" s="159"/>
-      <c r="AC216" s="159"/>
-      <c r="AD216" s="159"/>
-      <c r="AE216" s="159"/>
-      <c r="AF216" s="159"/>
-      <c r="AG216" s="159"/>
-      <c r="AH216" s="159"/>
-      <c r="AI216" s="159"/>
-      <c r="AJ216" s="159"/>
-      <c r="AK216" s="160"/>
+      <c r="A216" s="166"/>
+      <c r="B216" s="167"/>
+      <c r="C216" s="167"/>
+      <c r="D216" s="167"/>
+      <c r="E216" s="167"/>
+      <c r="F216" s="167"/>
+      <c r="G216" s="167"/>
+      <c r="H216" s="167"/>
+      <c r="I216" s="167"/>
+      <c r="J216" s="167"/>
+      <c r="K216" s="167"/>
+      <c r="L216" s="167"/>
+      <c r="M216" s="167"/>
+      <c r="N216" s="167"/>
+      <c r="O216" s="167"/>
+      <c r="P216" s="167"/>
+      <c r="Q216" s="167"/>
+      <c r="R216" s="167"/>
+      <c r="S216" s="167"/>
+      <c r="T216" s="167"/>
+      <c r="U216" s="167"/>
+      <c r="V216" s="167"/>
+      <c r="W216" s="167"/>
+      <c r="X216" s="167"/>
+      <c r="Y216" s="167"/>
+      <c r="Z216" s="167"/>
+      <c r="AA216" s="167"/>
+      <c r="AB216" s="167"/>
+      <c r="AC216" s="167"/>
+      <c r="AD216" s="167"/>
+      <c r="AE216" s="167"/>
+      <c r="AF216" s="167"/>
+      <c r="AG216" s="167"/>
+      <c r="AH216" s="167"/>
+      <c r="AI216" s="167"/>
+      <c r="AJ216" s="167"/>
+      <c r="AK216" s="168"/>
     </row>
     <row r="217" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="47" t="s">
@@ -31220,13 +31230,13 @@
       </c>
     </row>
     <row r="218" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="161" t="s">
+      <c r="A218" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B218" s="162"/>
-      <c r="C218" s="162"/>
-      <c r="D218" s="162"/>
-      <c r="E218" s="162"/>
+      <c r="B218" s="155"/>
+      <c r="C218" s="155"/>
+      <c r="D218" s="155"/>
+      <c r="E218" s="155"/>
       <c r="F218" s="99" t="s">
         <v>172</v>
       </c>
@@ -31325,14 +31335,14 @@
       </c>
     </row>
     <row r="219" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A219" s="163" t="s">
+      <c r="A219" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B219" s="164"/>
-      <c r="C219" s="164"/>
-      <c r="D219" s="165"/>
-      <c r="E219" s="164"/>
-      <c r="F219" s="166"/>
+      <c r="B219" s="157"/>
+      <c r="C219" s="157"/>
+      <c r="D219" s="158"/>
+      <c r="E219" s="157"/>
+      <c r="F219" s="159"/>
       <c r="G219" s="25" t="s">
         <v>104</v>
       </c>
@@ -31390,10 +31400,10 @@
         <f>IF(ISBLANK(F218),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F218), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E220" s="167" t="s">
+      <c r="E220" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F220" s="168"/>
+      <c r="F220" s="161"/>
       <c r="G220" s="14" t="s">
         <v>107</v>
       </c>
@@ -31490,8 +31500,8 @@
       <c r="AK221" s="10"/>
     </row>
     <row r="222" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A222" s="154"/>
-      <c r="B222" s="155"/>
+      <c r="A222" s="162"/>
+      <c r="B222" s="163"/>
       <c r="C222" s="58"/>
       <c r="D222" s="60" t="s">
         <v>109</v>
@@ -32019,10 +32029,10 @@
       <c r="D227" s="31">
         <v>0</v>
       </c>
-      <c r="E227" s="156" t="s">
+      <c r="E227" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F227" s="157"/>
+      <c r="F227" s="165"/>
       <c r="G227" s="65" t="s">
         <v>120</v>
       </c>
@@ -32148,43 +32158,43 @@
       </c>
     </row>
     <row r="228" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="158"/>
-      <c r="B228" s="159"/>
-      <c r="C228" s="159"/>
-      <c r="D228" s="159"/>
-      <c r="E228" s="159"/>
-      <c r="F228" s="159"/>
-      <c r="G228" s="159"/>
-      <c r="H228" s="159"/>
-      <c r="I228" s="159"/>
-      <c r="J228" s="159"/>
-      <c r="K228" s="159"/>
-      <c r="L228" s="159"/>
-      <c r="M228" s="159"/>
-      <c r="N228" s="159"/>
-      <c r="O228" s="159"/>
-      <c r="P228" s="159"/>
-      <c r="Q228" s="159"/>
-      <c r="R228" s="159"/>
-      <c r="S228" s="159"/>
-      <c r="T228" s="159"/>
-      <c r="U228" s="159"/>
-      <c r="V228" s="159"/>
-      <c r="W228" s="159"/>
-      <c r="X228" s="159"/>
-      <c r="Y228" s="159"/>
-      <c r="Z228" s="159"/>
-      <c r="AA228" s="159"/>
-      <c r="AB228" s="159"/>
-      <c r="AC228" s="159"/>
-      <c r="AD228" s="159"/>
-      <c r="AE228" s="159"/>
-      <c r="AF228" s="159"/>
-      <c r="AG228" s="159"/>
-      <c r="AH228" s="159"/>
-      <c r="AI228" s="159"/>
-      <c r="AJ228" s="159"/>
-      <c r="AK228" s="160"/>
+      <c r="A228" s="166"/>
+      <c r="B228" s="167"/>
+      <c r="C228" s="167"/>
+      <c r="D228" s="167"/>
+      <c r="E228" s="167"/>
+      <c r="F228" s="167"/>
+      <c r="G228" s="167"/>
+      <c r="H228" s="167"/>
+      <c r="I228" s="167"/>
+      <c r="J228" s="167"/>
+      <c r="K228" s="167"/>
+      <c r="L228" s="167"/>
+      <c r="M228" s="167"/>
+      <c r="N228" s="167"/>
+      <c r="O228" s="167"/>
+      <c r="P228" s="167"/>
+      <c r="Q228" s="167"/>
+      <c r="R228" s="167"/>
+      <c r="S228" s="167"/>
+      <c r="T228" s="167"/>
+      <c r="U228" s="167"/>
+      <c r="V228" s="167"/>
+      <c r="W228" s="167"/>
+      <c r="X228" s="167"/>
+      <c r="Y228" s="167"/>
+      <c r="Z228" s="167"/>
+      <c r="AA228" s="167"/>
+      <c r="AB228" s="167"/>
+      <c r="AC228" s="167"/>
+      <c r="AD228" s="167"/>
+      <c r="AE228" s="167"/>
+      <c r="AF228" s="167"/>
+      <c r="AG228" s="167"/>
+      <c r="AH228" s="167"/>
+      <c r="AI228" s="167"/>
+      <c r="AJ228" s="167"/>
+      <c r="AK228" s="168"/>
     </row>
     <row r="229" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="47" t="s">
@@ -32329,13 +32339,13 @@
       </c>
     </row>
     <row r="230" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="161" t="s">
+      <c r="A230" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B230" s="162"/>
-      <c r="C230" s="162"/>
-      <c r="D230" s="162"/>
-      <c r="E230" s="162"/>
+      <c r="B230" s="155"/>
+      <c r="C230" s="155"/>
+      <c r="D230" s="155"/>
+      <c r="E230" s="155"/>
       <c r="F230" s="99" t="s">
         <v>173</v>
       </c>
@@ -32434,14 +32444,14 @@
       </c>
     </row>
     <row r="231" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A231" s="163" t="s">
+      <c r="A231" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B231" s="164"/>
-      <c r="C231" s="164"/>
-      <c r="D231" s="165"/>
-      <c r="E231" s="164"/>
-      <c r="F231" s="166"/>
+      <c r="B231" s="157"/>
+      <c r="C231" s="157"/>
+      <c r="D231" s="158"/>
+      <c r="E231" s="157"/>
+      <c r="F231" s="159"/>
       <c r="G231" s="25" t="s">
         <v>104</v>
       </c>
@@ -32497,10 +32507,10 @@
         <f>IF(ISBLANK(F230),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F230), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E232" s="167" t="s">
+      <c r="E232" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F232" s="168"/>
+      <c r="F232" s="161"/>
       <c r="G232" s="14" t="s">
         <v>107</v>
       </c>
@@ -32593,8 +32603,8 @@
       <c r="AK233" s="10"/>
     </row>
     <row r="234" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A234" s="154"/>
-      <c r="B234" s="155"/>
+      <c r="A234" s="162"/>
+      <c r="B234" s="163"/>
       <c r="C234" s="58"/>
       <c r="D234" s="60" t="s">
         <v>109</v>
@@ -33118,10 +33128,10 @@
       <c r="D239" s="31">
         <v>0</v>
       </c>
-      <c r="E239" s="156" t="s">
+      <c r="E239" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F239" s="157"/>
+      <c r="F239" s="165"/>
       <c r="G239" s="65" t="s">
         <v>120</v>
       </c>
@@ -33247,43 +33257,43 @@
       </c>
     </row>
     <row r="240" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="158"/>
-      <c r="B240" s="159"/>
-      <c r="C240" s="159"/>
-      <c r="D240" s="159"/>
-      <c r="E240" s="159"/>
-      <c r="F240" s="159"/>
-      <c r="G240" s="159"/>
-      <c r="H240" s="159"/>
-      <c r="I240" s="159"/>
-      <c r="J240" s="159"/>
-      <c r="K240" s="159"/>
-      <c r="L240" s="159"/>
-      <c r="M240" s="159"/>
-      <c r="N240" s="159"/>
-      <c r="O240" s="159"/>
-      <c r="P240" s="159"/>
-      <c r="Q240" s="159"/>
-      <c r="R240" s="159"/>
-      <c r="S240" s="159"/>
-      <c r="T240" s="159"/>
-      <c r="U240" s="159"/>
-      <c r="V240" s="159"/>
-      <c r="W240" s="159"/>
-      <c r="X240" s="159"/>
-      <c r="Y240" s="159"/>
-      <c r="Z240" s="159"/>
-      <c r="AA240" s="159"/>
-      <c r="AB240" s="159"/>
-      <c r="AC240" s="159"/>
-      <c r="AD240" s="159"/>
-      <c r="AE240" s="159"/>
-      <c r="AF240" s="159"/>
-      <c r="AG240" s="159"/>
-      <c r="AH240" s="159"/>
-      <c r="AI240" s="159"/>
-      <c r="AJ240" s="159"/>
-      <c r="AK240" s="160"/>
+      <c r="A240" s="166"/>
+      <c r="B240" s="167"/>
+      <c r="C240" s="167"/>
+      <c r="D240" s="167"/>
+      <c r="E240" s="167"/>
+      <c r="F240" s="167"/>
+      <c r="G240" s="167"/>
+      <c r="H240" s="167"/>
+      <c r="I240" s="167"/>
+      <c r="J240" s="167"/>
+      <c r="K240" s="167"/>
+      <c r="L240" s="167"/>
+      <c r="M240" s="167"/>
+      <c r="N240" s="167"/>
+      <c r="O240" s="167"/>
+      <c r="P240" s="167"/>
+      <c r="Q240" s="167"/>
+      <c r="R240" s="167"/>
+      <c r="S240" s="167"/>
+      <c r="T240" s="167"/>
+      <c r="U240" s="167"/>
+      <c r="V240" s="167"/>
+      <c r="W240" s="167"/>
+      <c r="X240" s="167"/>
+      <c r="Y240" s="167"/>
+      <c r="Z240" s="167"/>
+      <c r="AA240" s="167"/>
+      <c r="AB240" s="167"/>
+      <c r="AC240" s="167"/>
+      <c r="AD240" s="167"/>
+      <c r="AE240" s="167"/>
+      <c r="AF240" s="167"/>
+      <c r="AG240" s="167"/>
+      <c r="AH240" s="167"/>
+      <c r="AI240" s="167"/>
+      <c r="AJ240" s="167"/>
+      <c r="AK240" s="168"/>
     </row>
     <row r="241" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="47" t="s">
@@ -33428,13 +33438,13 @@
       </c>
     </row>
     <row r="242" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="161" t="s">
+      <c r="A242" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B242" s="162"/>
-      <c r="C242" s="162"/>
-      <c r="D242" s="162"/>
-      <c r="E242" s="162"/>
+      <c r="B242" s="155"/>
+      <c r="C242" s="155"/>
+      <c r="D242" s="155"/>
+      <c r="E242" s="155"/>
       <c r="F242" s="99" t="s">
         <v>174</v>
       </c>
@@ -33533,14 +33543,14 @@
       </c>
     </row>
     <row r="243" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A243" s="163" t="s">
+      <c r="A243" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B243" s="164"/>
-      <c r="C243" s="164"/>
-      <c r="D243" s="165"/>
-      <c r="E243" s="164"/>
-      <c r="F243" s="166"/>
+      <c r="B243" s="157"/>
+      <c r="C243" s="157"/>
+      <c r="D243" s="158"/>
+      <c r="E243" s="157"/>
+      <c r="F243" s="159"/>
       <c r="G243" s="25" t="s">
         <v>104</v>
       </c>
@@ -33596,10 +33606,10 @@
         <f>IF(ISBLANK(F242),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F242), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E244" s="167" t="s">
+      <c r="E244" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F244" s="168"/>
+      <c r="F244" s="161"/>
       <c r="G244" s="14" t="s">
         <v>107</v>
       </c>
@@ -33692,8 +33702,8 @@
       <c r="AK245" s="10"/>
     </row>
     <row r="246" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A246" s="154"/>
-      <c r="B246" s="155"/>
+      <c r="A246" s="162"/>
+      <c r="B246" s="163"/>
       <c r="C246" s="58"/>
       <c r="D246" s="60" t="s">
         <v>109</v>
@@ -34217,10 +34227,10 @@
       <c r="D251" s="31">
         <v>0</v>
       </c>
-      <c r="E251" s="156" t="s">
+      <c r="E251" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F251" s="157"/>
+      <c r="F251" s="165"/>
       <c r="G251" s="65" t="s">
         <v>120</v>
       </c>
@@ -34346,43 +34356,43 @@
       </c>
     </row>
     <row r="252" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="158"/>
-      <c r="B252" s="159"/>
-      <c r="C252" s="159"/>
-      <c r="D252" s="159"/>
-      <c r="E252" s="159"/>
-      <c r="F252" s="159"/>
-      <c r="G252" s="159"/>
-      <c r="H252" s="159"/>
-      <c r="I252" s="159"/>
-      <c r="J252" s="159"/>
-      <c r="K252" s="159"/>
-      <c r="L252" s="159"/>
-      <c r="M252" s="159"/>
-      <c r="N252" s="159"/>
-      <c r="O252" s="159"/>
-      <c r="P252" s="159"/>
-      <c r="Q252" s="159"/>
-      <c r="R252" s="159"/>
-      <c r="S252" s="159"/>
-      <c r="T252" s="159"/>
-      <c r="U252" s="159"/>
-      <c r="V252" s="159"/>
-      <c r="W252" s="159"/>
-      <c r="X252" s="159"/>
-      <c r="Y252" s="159"/>
-      <c r="Z252" s="159"/>
-      <c r="AA252" s="159"/>
-      <c r="AB252" s="159"/>
-      <c r="AC252" s="159"/>
-      <c r="AD252" s="159"/>
-      <c r="AE252" s="159"/>
-      <c r="AF252" s="159"/>
-      <c r="AG252" s="159"/>
-      <c r="AH252" s="159"/>
-      <c r="AI252" s="159"/>
-      <c r="AJ252" s="159"/>
-      <c r="AK252" s="160"/>
+      <c r="A252" s="166"/>
+      <c r="B252" s="167"/>
+      <c r="C252" s="167"/>
+      <c r="D252" s="167"/>
+      <c r="E252" s="167"/>
+      <c r="F252" s="167"/>
+      <c r="G252" s="167"/>
+      <c r="H252" s="167"/>
+      <c r="I252" s="167"/>
+      <c r="J252" s="167"/>
+      <c r="K252" s="167"/>
+      <c r="L252" s="167"/>
+      <c r="M252" s="167"/>
+      <c r="N252" s="167"/>
+      <c r="O252" s="167"/>
+      <c r="P252" s="167"/>
+      <c r="Q252" s="167"/>
+      <c r="R252" s="167"/>
+      <c r="S252" s="167"/>
+      <c r="T252" s="167"/>
+      <c r="U252" s="167"/>
+      <c r="V252" s="167"/>
+      <c r="W252" s="167"/>
+      <c r="X252" s="167"/>
+      <c r="Y252" s="167"/>
+      <c r="Z252" s="167"/>
+      <c r="AA252" s="167"/>
+      <c r="AB252" s="167"/>
+      <c r="AC252" s="167"/>
+      <c r="AD252" s="167"/>
+      <c r="AE252" s="167"/>
+      <c r="AF252" s="167"/>
+      <c r="AG252" s="167"/>
+      <c r="AH252" s="167"/>
+      <c r="AI252" s="167"/>
+      <c r="AJ252" s="167"/>
+      <c r="AK252" s="168"/>
     </row>
     <row r="253" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="47" t="s">
@@ -34527,13 +34537,13 @@
       </c>
     </row>
     <row r="254" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="161" t="s">
+      <c r="A254" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B254" s="162"/>
-      <c r="C254" s="162"/>
-      <c r="D254" s="162"/>
-      <c r="E254" s="162"/>
+      <c r="B254" s="155"/>
+      <c r="C254" s="155"/>
+      <c r="D254" s="155"/>
+      <c r="E254" s="155"/>
       <c r="F254" s="99"/>
       <c r="G254" s="19" t="s">
         <v>72</v>
@@ -34630,14 +34640,14 @@
       </c>
     </row>
     <row r="255" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A255" s="163" t="s">
+      <c r="A255" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B255" s="164"/>
-      <c r="C255" s="164"/>
-      <c r="D255" s="165"/>
-      <c r="E255" s="164"/>
-      <c r="F255" s="166"/>
+      <c r="B255" s="157"/>
+      <c r="C255" s="157"/>
+      <c r="D255" s="158"/>
+      <c r="E255" s="157"/>
+      <c r="F255" s="159"/>
       <c r="G255" s="25" t="s">
         <v>104</v>
       </c>
@@ -34685,10 +34695,10 @@
         <f>IF(ISBLANK(F254),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F254), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E256" s="167" t="s">
+      <c r="E256" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F256" s="168"/>
+      <c r="F256" s="161"/>
       <c r="G256" s="14" t="s">
         <v>107</v>
       </c>
@@ -34765,8 +34775,8 @@
       <c r="AK257" s="10"/>
     </row>
     <row r="258" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A258" s="154"/>
-      <c r="B258" s="155"/>
+      <c r="A258" s="162"/>
+      <c r="B258" s="163"/>
       <c r="C258" s="58"/>
       <c r="D258" s="60" t="s">
         <v>109</v>
@@ -35274,10 +35284,10 @@
       <c r="D263" s="31">
         <v>0</v>
       </c>
-      <c r="E263" s="156" t="s">
+      <c r="E263" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F263" s="157"/>
+      <c r="F263" s="165"/>
       <c r="G263" s="65" t="s">
         <v>120</v>
       </c>
@@ -35403,43 +35413,43 @@
       </c>
     </row>
     <row r="264" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="158"/>
-      <c r="B264" s="159"/>
-      <c r="C264" s="159"/>
-      <c r="D264" s="159"/>
-      <c r="E264" s="159"/>
-      <c r="F264" s="159"/>
-      <c r="G264" s="159"/>
-      <c r="H264" s="159"/>
-      <c r="I264" s="159"/>
-      <c r="J264" s="159"/>
-      <c r="K264" s="159"/>
-      <c r="L264" s="159"/>
-      <c r="M264" s="159"/>
-      <c r="N264" s="159"/>
-      <c r="O264" s="159"/>
-      <c r="P264" s="159"/>
-      <c r="Q264" s="159"/>
-      <c r="R264" s="159"/>
-      <c r="S264" s="159"/>
-      <c r="T264" s="159"/>
-      <c r="U264" s="159"/>
-      <c r="V264" s="159"/>
-      <c r="W264" s="159"/>
-      <c r="X264" s="159"/>
-      <c r="Y264" s="159"/>
-      <c r="Z264" s="159"/>
-      <c r="AA264" s="159"/>
-      <c r="AB264" s="159"/>
-      <c r="AC264" s="159"/>
-      <c r="AD264" s="159"/>
-      <c r="AE264" s="159"/>
-      <c r="AF264" s="159"/>
-      <c r="AG264" s="159"/>
-      <c r="AH264" s="159"/>
-      <c r="AI264" s="159"/>
-      <c r="AJ264" s="159"/>
-      <c r="AK264" s="160"/>
+      <c r="A264" s="166"/>
+      <c r="B264" s="167"/>
+      <c r="C264" s="167"/>
+      <c r="D264" s="167"/>
+      <c r="E264" s="167"/>
+      <c r="F264" s="167"/>
+      <c r="G264" s="167"/>
+      <c r="H264" s="167"/>
+      <c r="I264" s="167"/>
+      <c r="J264" s="167"/>
+      <c r="K264" s="167"/>
+      <c r="L264" s="167"/>
+      <c r="M264" s="167"/>
+      <c r="N264" s="167"/>
+      <c r="O264" s="167"/>
+      <c r="P264" s="167"/>
+      <c r="Q264" s="167"/>
+      <c r="R264" s="167"/>
+      <c r="S264" s="167"/>
+      <c r="T264" s="167"/>
+      <c r="U264" s="167"/>
+      <c r="V264" s="167"/>
+      <c r="W264" s="167"/>
+      <c r="X264" s="167"/>
+      <c r="Y264" s="167"/>
+      <c r="Z264" s="167"/>
+      <c r="AA264" s="167"/>
+      <c r="AB264" s="167"/>
+      <c r="AC264" s="167"/>
+      <c r="AD264" s="167"/>
+      <c r="AE264" s="167"/>
+      <c r="AF264" s="167"/>
+      <c r="AG264" s="167"/>
+      <c r="AH264" s="167"/>
+      <c r="AI264" s="167"/>
+      <c r="AJ264" s="167"/>
+      <c r="AK264" s="168"/>
     </row>
     <row r="265" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="47" t="s">
@@ -35584,13 +35594,13 @@
       </c>
     </row>
     <row r="266" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="161" t="s">
+      <c r="A266" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B266" s="162"/>
-      <c r="C266" s="162"/>
-      <c r="D266" s="162"/>
-      <c r="E266" s="162"/>
+      <c r="B266" s="155"/>
+      <c r="C266" s="155"/>
+      <c r="D266" s="155"/>
+      <c r="E266" s="155"/>
       <c r="F266" s="99"/>
       <c r="G266" s="19" t="s">
         <v>72</v>
@@ -35687,14 +35697,14 @@
       </c>
     </row>
     <row r="267" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A267" s="163" t="s">
+      <c r="A267" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B267" s="164"/>
-      <c r="C267" s="164"/>
-      <c r="D267" s="165"/>
-      <c r="E267" s="164"/>
-      <c r="F267" s="166"/>
+      <c r="B267" s="157"/>
+      <c r="C267" s="157"/>
+      <c r="D267" s="158"/>
+      <c r="E267" s="157"/>
+      <c r="F267" s="159"/>
       <c r="G267" s="25" t="s">
         <v>104</v>
       </c>
@@ -35742,10 +35752,10 @@
         <f>IF(ISBLANK(F266),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F266), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E268" s="167" t="s">
+      <c r="E268" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F268" s="168"/>
+      <c r="F268" s="161"/>
       <c r="G268" s="14" t="s">
         <v>107</v>
       </c>
@@ -35822,8 +35832,8 @@
       <c r="AK269" s="10"/>
     </row>
     <row r="270" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A270" s="154"/>
-      <c r="B270" s="155"/>
+      <c r="A270" s="162"/>
+      <c r="B270" s="163"/>
       <c r="C270" s="58"/>
       <c r="D270" s="60" t="s">
         <v>109</v>
@@ -36331,10 +36341,10 @@
       <c r="D275" s="31">
         <v>0</v>
       </c>
-      <c r="E275" s="156" t="s">
+      <c r="E275" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="F275" s="157"/>
+      <c r="F275" s="165"/>
       <c r="G275" s="65" t="s">
         <v>120</v>
       </c>
@@ -36460,46 +36470,160 @@
       </c>
     </row>
     <row r="276" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="158"/>
-      <c r="B276" s="159"/>
-      <c r="C276" s="159"/>
-      <c r="D276" s="159"/>
-      <c r="E276" s="159"/>
-      <c r="F276" s="159"/>
-      <c r="G276" s="159"/>
-      <c r="H276" s="159"/>
-      <c r="I276" s="159"/>
-      <c r="J276" s="159"/>
-      <c r="K276" s="159"/>
-      <c r="L276" s="159"/>
-      <c r="M276" s="159"/>
-      <c r="N276" s="159"/>
-      <c r="O276" s="159"/>
-      <c r="P276" s="159"/>
-      <c r="Q276" s="159"/>
-      <c r="R276" s="159"/>
-      <c r="S276" s="159"/>
-      <c r="T276" s="159"/>
-      <c r="U276" s="159"/>
-      <c r="V276" s="159"/>
-      <c r="W276" s="159"/>
-      <c r="X276" s="159"/>
-      <c r="Y276" s="159"/>
-      <c r="Z276" s="159"/>
-      <c r="AA276" s="159"/>
-      <c r="AB276" s="159"/>
-      <c r="AC276" s="159"/>
-      <c r="AD276" s="159"/>
-      <c r="AE276" s="159"/>
-      <c r="AF276" s="159"/>
-      <c r="AG276" s="159"/>
-      <c r="AH276" s="159"/>
-      <c r="AI276" s="159"/>
-      <c r="AJ276" s="159"/>
-      <c r="AK276" s="160"/>
+      <c r="A276" s="166"/>
+      <c r="B276" s="167"/>
+      <c r="C276" s="167"/>
+      <c r="D276" s="167"/>
+      <c r="E276" s="167"/>
+      <c r="F276" s="167"/>
+      <c r="G276" s="167"/>
+      <c r="H276" s="167"/>
+      <c r="I276" s="167"/>
+      <c r="J276" s="167"/>
+      <c r="K276" s="167"/>
+      <c r="L276" s="167"/>
+      <c r="M276" s="167"/>
+      <c r="N276" s="167"/>
+      <c r="O276" s="167"/>
+      <c r="P276" s="167"/>
+      <c r="Q276" s="167"/>
+      <c r="R276" s="167"/>
+      <c r="S276" s="167"/>
+      <c r="T276" s="167"/>
+      <c r="U276" s="167"/>
+      <c r="V276" s="167"/>
+      <c r="W276" s="167"/>
+      <c r="X276" s="167"/>
+      <c r="Y276" s="167"/>
+      <c r="Z276" s="167"/>
+      <c r="AA276" s="167"/>
+      <c r="AB276" s="167"/>
+      <c r="AC276" s="167"/>
+      <c r="AD276" s="167"/>
+      <c r="AE276" s="167"/>
+      <c r="AF276" s="167"/>
+      <c r="AG276" s="167"/>
+      <c r="AH276" s="167"/>
+      <c r="AI276" s="167"/>
+      <c r="AJ276" s="167"/>
+      <c r="AK276" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="138">
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="A264:AK264"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A267:F267"/>
+    <mergeCell ref="E268:F268"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="E275:F275"/>
+    <mergeCell ref="A276:AK276"/>
+    <mergeCell ref="A242:E242"/>
+    <mergeCell ref="A243:F243"/>
+    <mergeCell ref="E244:F244"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="E251:F251"/>
+    <mergeCell ref="A252:AK252"/>
+    <mergeCell ref="A254:E254"/>
+    <mergeCell ref="A255:F255"/>
+    <mergeCell ref="E256:F256"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A231:F231"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="E239:F239"/>
+    <mergeCell ref="A240:AK240"/>
+    <mergeCell ref="A218:E218"/>
+    <mergeCell ref="A219:F219"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="A228:AK228"/>
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="A207:F207"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="A216:AK216"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A195:F195"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="A204:AK204"/>
+    <mergeCell ref="A182:E182"/>
+    <mergeCell ref="A183:F183"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="E191:F191"/>
+    <mergeCell ref="A192:AK192"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="A171:F171"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="A180:AK180"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A159:F159"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="A168:AK168"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:F147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="A156:AK156"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="A144:AK144"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="A132:AK132"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="A84:AK84"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="A120:AK120"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="A108:AK108"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:AK24"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="A72:AK72"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="A96:AK96"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="E76:F76"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A51:F51"/>
     <mergeCell ref="E52:F52"/>
@@ -36524,120 +36648,6 @@
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:AK24"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="A72:AK72"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="A96:AK96"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="A84:AK84"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="A120:AK120"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="A108:AK108"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="A144:AK144"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="A132:AK132"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A159:F159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="A168:AK168"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:F147"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="A156:AK156"/>
-    <mergeCell ref="A182:E182"/>
-    <mergeCell ref="A183:F183"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="E191:F191"/>
-    <mergeCell ref="A192:AK192"/>
-    <mergeCell ref="A170:E170"/>
-    <mergeCell ref="A171:F171"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="A180:AK180"/>
-    <mergeCell ref="A206:E206"/>
-    <mergeCell ref="A207:F207"/>
-    <mergeCell ref="E208:F208"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="A216:AK216"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A195:F195"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="A204:AK204"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A231:F231"/>
-    <mergeCell ref="E232:F232"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="E239:F239"/>
-    <mergeCell ref="A240:AK240"/>
-    <mergeCell ref="A218:E218"/>
-    <mergeCell ref="A219:F219"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="E227:F227"/>
-    <mergeCell ref="A228:AK228"/>
-    <mergeCell ref="A242:E242"/>
-    <mergeCell ref="A243:F243"/>
-    <mergeCell ref="E244:F244"/>
-    <mergeCell ref="A246:B246"/>
-    <mergeCell ref="E251:F251"/>
-    <mergeCell ref="A252:AK252"/>
-    <mergeCell ref="A254:E254"/>
-    <mergeCell ref="A255:F255"/>
-    <mergeCell ref="E256:F256"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="E263:F263"/>
-    <mergeCell ref="A264:AK264"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A267:F267"/>
-    <mergeCell ref="E268:F268"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="E275:F275"/>
-    <mergeCell ref="A276:AK276"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H22:AK22">
@@ -37915,10 +37925,10 @@
       <c r="A1" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="178">
+      <c r="B1" s="175">
         <v>0.51</v>
       </c>
-      <c r="C1" s="178"/>
+      <c r="C1" s="175"/>
       <c r="D1" s="102"/>
       <c r="E1" s="111"/>
       <c r="F1" s="102"/>
@@ -37927,10 +37937,10 @@
       <c r="A2" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="178">
+      <c r="B2" s="175">
         <v>0.54</v>
       </c>
-      <c r="C2" s="178"/>
+      <c r="C2" s="175"/>
       <c r="D2" s="106"/>
       <c r="E2" s="111"/>
       <c r="F2" s="102"/>
@@ -37939,10 +37949,10 @@
       <c r="A3" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="178">
+      <c r="B3" s="175">
         <v>0.51</v>
       </c>
-      <c r="C3" s="178"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="106"/>
       <c r="E3" s="111"/>
       <c r="F3" s="102"/>
@@ -37951,10 +37961,10 @@
       <c r="A4" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="178">
+      <c r="B4" s="175">
         <v>0.54</v>
       </c>
-      <c r="C4" s="178"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="102"/>
       <c r="E4" s="111"/>
       <c r="F4" s="102"/>
@@ -37996,7 +38006,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="102"/>
-      <c r="E8" s="175">
+      <c r="E8" s="178">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -38009,7 +38019,7 @@
       <c r="B9" s="176"/>
       <c r="C9" s="176"/>
       <c r="D9" s="102"/>
-      <c r="E9" s="175"/>
+      <c r="E9" s="178"/>
       <c r="F9" s="101"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38049,7 +38059,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="102"/>
-      <c r="E13" s="175">
+      <c r="E13" s="178">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -38062,7 +38072,7 @@
       <c r="B14" s="176"/>
       <c r="C14" s="176"/>
       <c r="D14" s="102"/>
-      <c r="E14" s="175"/>
+      <c r="E14" s="178"/>
       <c r="F14" s="101"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38102,7 +38112,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="102"/>
-      <c r="E18" s="175">
+      <c r="E18" s="178">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -38115,7 +38125,7 @@
       <c r="B19" s="176"/>
       <c r="C19" s="176"/>
       <c r="D19" s="102"/>
-      <c r="E19" s="175"/>
+      <c r="E19" s="178"/>
       <c r="F19" s="101"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -38160,12 +38170,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -38173,6 +38177,12 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimke\OneDrive\Documents\investment and trading\stocks and equity\sandbox\WealthAndFreedom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="776" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{59F62282-9752-400E-A5B5-0EB34BF140C0}"/>
+  <xr:revisionPtr revIDLastSave="778" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E86AA84A-AE06-484B-952B-CAA295A93946}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="16200" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="166">
   <si>
     <t>Pillar</t>
   </si>
@@ -531,6 +531,9 @@
   </si>
   <si>
     <t>1724</t>
+  </si>
+  <si>
+    <t>IJM</t>
   </si>
 </sst>
 </file>
@@ -2010,28 +2013,10 @@
     <xf numFmtId="168" fontId="2" fillId="17" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2058,6 +2043,27 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2076,8 +2082,8 @@
     <xf numFmtId="170" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2085,11 +2091,8 @@
     <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2098,52 +2101,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="241">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <color auto="1"/>
@@ -2544,1767 +2502,6 @@
         <color rgb="FF00CC00"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4632,7 +2829,7 @@
   <dimension ref="A1:AD167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V87" sqref="V87"/>
+      <selection activeCell="S84" sqref="S84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4643,50 +2840,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="151">
+      <c r="A1" s="152">
         <v>43864</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152">
         <f>A1+1</f>
         <v>43865</v>
       </c>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151">
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152">
         <f t="shared" ref="M1" si="0">G1+1</f>
         <v>43866</v>
       </c>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151">
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="152">
         <f t="shared" ref="S1" si="1">M1+1</f>
         <v>43867</v>
       </c>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151">
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="152">
         <f t="shared" ref="Y1" si="2">S1+1</f>
         <v>43868</v>
       </c>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="151"/>
+      <c r="Z1" s="152"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="152"/>
+      <c r="AD1" s="152"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
@@ -5215,51 +3412,51 @@
       <c r="AD14" s="95"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="151">
+      <c r="A15" s="152">
         <f>A1+7</f>
         <v>43871</v>
       </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151">
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152">
         <f>A15+1</f>
         <v>43872</v>
       </c>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151">
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="152">
         <f t="shared" ref="M15" si="3">G15+1</f>
         <v>43873</v>
       </c>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="151"/>
-      <c r="R15" s="151"/>
-      <c r="S15" s="151">
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="152"/>
+      <c r="S15" s="152">
         <f t="shared" ref="S15" si="4">M15+1</f>
         <v>43874</v>
       </c>
-      <c r="T15" s="151"/>
-      <c r="U15" s="151"/>
-      <c r="V15" s="151"/>
-      <c r="W15" s="151"/>
-      <c r="X15" s="151"/>
-      <c r="Y15" s="151">
+      <c r="T15" s="152"/>
+      <c r="U15" s="152"/>
+      <c r="V15" s="152"/>
+      <c r="W15" s="152"/>
+      <c r="X15" s="152"/>
+      <c r="Y15" s="152">
         <f t="shared" ref="Y15" si="5">S15+1</f>
         <v>43875</v>
       </c>
-      <c r="Z15" s="151"/>
-      <c r="AA15" s="151"/>
-      <c r="AB15" s="151"/>
-      <c r="AC15" s="151"/>
-      <c r="AD15" s="151"/>
+      <c r="Z15" s="152"/>
+      <c r="AA15" s="152"/>
+      <c r="AB15" s="152"/>
+      <c r="AC15" s="152"/>
+      <c r="AD15" s="152"/>
     </row>
     <row r="16" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="89" t="s">
@@ -5996,51 +4193,51 @@
       <c r="AD29" s="95"/>
     </row>
     <row r="30" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="151">
+      <c r="A30" s="152">
         <f>A15+7</f>
         <v>43878</v>
       </c>
-      <c r="B30" s="151"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151">
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152">
         <f>A30+1</f>
         <v>43879</v>
       </c>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151">
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="152">
         <f t="shared" ref="M30" si="6">G30+1</f>
         <v>43880</v>
       </c>
-      <c r="N30" s="151"/>
-      <c r="O30" s="151"/>
-      <c r="P30" s="151"/>
-      <c r="Q30" s="151"/>
-      <c r="R30" s="151"/>
-      <c r="S30" s="151">
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="152"/>
+      <c r="S30" s="152">
         <f t="shared" ref="S30" si="7">M30+1</f>
         <v>43881</v>
       </c>
-      <c r="T30" s="151"/>
-      <c r="U30" s="151"/>
-      <c r="V30" s="151"/>
-      <c r="W30" s="151"/>
-      <c r="X30" s="151"/>
-      <c r="Y30" s="151">
+      <c r="T30" s="152"/>
+      <c r="U30" s="152"/>
+      <c r="V30" s="152"/>
+      <c r="W30" s="152"/>
+      <c r="X30" s="152"/>
+      <c r="Y30" s="152">
         <f t="shared" ref="Y30" si="8">S30+1</f>
         <v>43882</v>
       </c>
-      <c r="Z30" s="151"/>
-      <c r="AA30" s="151"/>
-      <c r="AB30" s="151"/>
-      <c r="AC30" s="151"/>
-      <c r="AD30" s="151"/>
+      <c r="Z30" s="152"/>
+      <c r="AA30" s="152"/>
+      <c r="AB30" s="152"/>
+      <c r="AC30" s="152"/>
+      <c r="AD30" s="152"/>
     </row>
     <row r="31" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="89" t="s">
@@ -7363,51 +5560,51 @@
       <c r="AD52" s="95"/>
     </row>
     <row r="53" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="151">
+      <c r="A53" s="152">
         <f>A30+7</f>
         <v>43885</v>
       </c>
-      <c r="B53" s="151"/>
-      <c r="C53" s="151"/>
-      <c r="D53" s="151"/>
-      <c r="E53" s="151"/>
-      <c r="F53" s="151"/>
-      <c r="G53" s="151">
+      <c r="B53" s="152"/>
+      <c r="C53" s="152"/>
+      <c r="D53" s="152"/>
+      <c r="E53" s="152"/>
+      <c r="F53" s="152"/>
+      <c r="G53" s="152">
         <f>A53+1</f>
         <v>43886</v>
       </c>
-      <c r="H53" s="151"/>
-      <c r="I53" s="151"/>
-      <c r="J53" s="151"/>
-      <c r="K53" s="151"/>
-      <c r="L53" s="151"/>
-      <c r="M53" s="151">
+      <c r="H53" s="152"/>
+      <c r="I53" s="152"/>
+      <c r="J53" s="152"/>
+      <c r="K53" s="152"/>
+      <c r="L53" s="152"/>
+      <c r="M53" s="152">
         <f t="shared" ref="M53" si="9">G53+1</f>
         <v>43887</v>
       </c>
-      <c r="N53" s="151"/>
-      <c r="O53" s="151"/>
-      <c r="P53" s="151"/>
-      <c r="Q53" s="151"/>
-      <c r="R53" s="151"/>
-      <c r="S53" s="151">
+      <c r="N53" s="152"/>
+      <c r="O53" s="152"/>
+      <c r="P53" s="152"/>
+      <c r="Q53" s="152"/>
+      <c r="R53" s="152"/>
+      <c r="S53" s="152">
         <f t="shared" ref="S53" si="10">M53+1</f>
         <v>43888</v>
       </c>
-      <c r="T53" s="151"/>
-      <c r="U53" s="151"/>
-      <c r="V53" s="151"/>
-      <c r="W53" s="151"/>
-      <c r="X53" s="151"/>
-      <c r="Y53" s="151">
+      <c r="T53" s="152"/>
+      <c r="U53" s="152"/>
+      <c r="V53" s="152"/>
+      <c r="W53" s="152"/>
+      <c r="X53" s="152"/>
+      <c r="Y53" s="152">
         <f t="shared" ref="Y53" si="11">S53+1</f>
         <v>43889</v>
       </c>
-      <c r="Z53" s="151"/>
-      <c r="AA53" s="151"/>
-      <c r="AB53" s="151"/>
-      <c r="AC53" s="151"/>
-      <c r="AD53" s="151"/>
+      <c r="Z53" s="152"/>
+      <c r="AA53" s="152"/>
+      <c r="AB53" s="152"/>
+      <c r="AC53" s="152"/>
+      <c r="AD53" s="152"/>
     </row>
     <row r="54" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="89" t="s">
@@ -8510,51 +6707,51 @@
       <c r="AD79" s="95"/>
     </row>
     <row r="80" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="151">
+      <c r="A80" s="152">
         <f>A53+7</f>
         <v>43892</v>
       </c>
-      <c r="B80" s="151"/>
-      <c r="C80" s="151"/>
-      <c r="D80" s="151"/>
-      <c r="E80" s="151"/>
-      <c r="F80" s="151"/>
-      <c r="G80" s="151">
+      <c r="B80" s="152"/>
+      <c r="C80" s="152"/>
+      <c r="D80" s="152"/>
+      <c r="E80" s="152"/>
+      <c r="F80" s="152"/>
+      <c r="G80" s="152">
         <f>A80+1</f>
         <v>43893</v>
       </c>
-      <c r="H80" s="151"/>
-      <c r="I80" s="151"/>
-      <c r="J80" s="151"/>
-      <c r="K80" s="151"/>
-      <c r="L80" s="151"/>
-      <c r="M80" s="151">
+      <c r="H80" s="152"/>
+      <c r="I80" s="152"/>
+      <c r="J80" s="152"/>
+      <c r="K80" s="152"/>
+      <c r="L80" s="152"/>
+      <c r="M80" s="152">
         <f t="shared" ref="M80" si="12">G80+1</f>
         <v>43894</v>
       </c>
-      <c r="N80" s="151"/>
-      <c r="O80" s="151"/>
-      <c r="P80" s="151"/>
-      <c r="Q80" s="151"/>
-      <c r="R80" s="151"/>
-      <c r="S80" s="151">
+      <c r="N80" s="152"/>
+      <c r="O80" s="152"/>
+      <c r="P80" s="152"/>
+      <c r="Q80" s="152"/>
+      <c r="R80" s="152"/>
+      <c r="S80" s="152">
         <f t="shared" ref="S80" si="13">M80+1</f>
         <v>43895</v>
       </c>
-      <c r="T80" s="151"/>
-      <c r="U80" s="151"/>
-      <c r="V80" s="151"/>
-      <c r="W80" s="151"/>
-      <c r="X80" s="151"/>
-      <c r="Y80" s="151">
+      <c r="T80" s="152"/>
+      <c r="U80" s="152"/>
+      <c r="V80" s="152"/>
+      <c r="W80" s="152"/>
+      <c r="X80" s="152"/>
+      <c r="Y80" s="152">
         <f t="shared" ref="Y80" si="14">S80+1</f>
         <v>43896</v>
       </c>
-      <c r="Z80" s="151"/>
-      <c r="AA80" s="151"/>
-      <c r="AB80" s="151"/>
-      <c r="AC80" s="151"/>
-      <c r="AD80" s="151"/>
+      <c r="Z80" s="152"/>
+      <c r="AA80" s="152"/>
+      <c r="AB80" s="152"/>
+      <c r="AC80" s="152"/>
+      <c r="AD80" s="152"/>
     </row>
     <row r="81" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="89" t="s">
@@ -8673,7 +6870,9 @@
       <c r="P82" s="94"/>
       <c r="Q82" s="94"/>
       <c r="R82" s="95"/>
-      <c r="S82" s="92"/>
+      <c r="S82" s="92" t="s">
+        <v>162</v>
+      </c>
       <c r="T82" s="93" t="s">
         <v>15</v>
       </c>
@@ -8719,7 +6918,9 @@
       <c r="P83" s="94"/>
       <c r="Q83" s="94"/>
       <c r="R83" s="95"/>
-      <c r="S83" s="92"/>
+      <c r="S83" s="92" t="s">
+        <v>165</v>
+      </c>
       <c r="T83" s="93" t="s">
         <v>49</v>
       </c>
@@ -9339,51 +7540,51 @@
       <c r="AD101" s="95"/>
     </row>
     <row r="102" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="151">
+      <c r="A102" s="152">
         <f>A80+7</f>
         <v>43899</v>
       </c>
-      <c r="B102" s="151"/>
-      <c r="C102" s="151"/>
-      <c r="D102" s="151"/>
-      <c r="E102" s="151"/>
-      <c r="F102" s="151"/>
-      <c r="G102" s="151">
+      <c r="B102" s="152"/>
+      <c r="C102" s="152"/>
+      <c r="D102" s="152"/>
+      <c r="E102" s="152"/>
+      <c r="F102" s="152"/>
+      <c r="G102" s="152">
         <f>A102+1</f>
         <v>43900</v>
       </c>
-      <c r="H102" s="151"/>
-      <c r="I102" s="151"/>
-      <c r="J102" s="151"/>
-      <c r="K102" s="151"/>
-      <c r="L102" s="151"/>
-      <c r="M102" s="151">
+      <c r="H102" s="152"/>
+      <c r="I102" s="152"/>
+      <c r="J102" s="152"/>
+      <c r="K102" s="152"/>
+      <c r="L102" s="152"/>
+      <c r="M102" s="152">
         <f t="shared" ref="M102" si="15">G102+1</f>
         <v>43901</v>
       </c>
-      <c r="N102" s="151"/>
-      <c r="O102" s="151"/>
-      <c r="P102" s="151"/>
-      <c r="Q102" s="151"/>
-      <c r="R102" s="151"/>
-      <c r="S102" s="151">
+      <c r="N102" s="152"/>
+      <c r="O102" s="152"/>
+      <c r="P102" s="152"/>
+      <c r="Q102" s="152"/>
+      <c r="R102" s="152"/>
+      <c r="S102" s="152">
         <f t="shared" ref="S102" si="16">M102+1</f>
         <v>43902</v>
       </c>
-      <c r="T102" s="151"/>
-      <c r="U102" s="151"/>
-      <c r="V102" s="151"/>
-      <c r="W102" s="151"/>
-      <c r="X102" s="151"/>
-      <c r="Y102" s="151">
+      <c r="T102" s="152"/>
+      <c r="U102" s="152"/>
+      <c r="V102" s="152"/>
+      <c r="W102" s="152"/>
+      <c r="X102" s="152"/>
+      <c r="Y102" s="152">
         <f t="shared" ref="Y102" si="17">S102+1</f>
         <v>43903</v>
       </c>
-      <c r="Z102" s="151"/>
-      <c r="AA102" s="151"/>
-      <c r="AB102" s="151"/>
-      <c r="AC102" s="151"/>
-      <c r="AD102" s="151"/>
+      <c r="Z102" s="152"/>
+      <c r="AA102" s="152"/>
+      <c r="AB102" s="152"/>
+      <c r="AC102" s="152"/>
+      <c r="AD102" s="152"/>
     </row>
     <row r="103" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="89" t="s">
@@ -10118,51 +8319,51 @@
       <c r="AD123" s="95"/>
     </row>
     <row r="124" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="151">
+      <c r="A124" s="152">
         <f>A102+7</f>
         <v>43906</v>
       </c>
-      <c r="B124" s="151"/>
-      <c r="C124" s="151"/>
-      <c r="D124" s="151"/>
-      <c r="E124" s="151"/>
-      <c r="F124" s="151"/>
-      <c r="G124" s="151">
+      <c r="B124" s="152"/>
+      <c r="C124" s="152"/>
+      <c r="D124" s="152"/>
+      <c r="E124" s="152"/>
+      <c r="F124" s="152"/>
+      <c r="G124" s="152">
         <f>A124+1</f>
         <v>43907</v>
       </c>
-      <c r="H124" s="151"/>
-      <c r="I124" s="151"/>
-      <c r="J124" s="151"/>
-      <c r="K124" s="151"/>
-      <c r="L124" s="151"/>
-      <c r="M124" s="151">
+      <c r="H124" s="152"/>
+      <c r="I124" s="152"/>
+      <c r="J124" s="152"/>
+      <c r="K124" s="152"/>
+      <c r="L124" s="152"/>
+      <c r="M124" s="152">
         <f t="shared" ref="M124" si="18">G124+1</f>
         <v>43908</v>
       </c>
-      <c r="N124" s="151"/>
-      <c r="O124" s="151"/>
-      <c r="P124" s="151"/>
-      <c r="Q124" s="151"/>
-      <c r="R124" s="151"/>
-      <c r="S124" s="151">
+      <c r="N124" s="152"/>
+      <c r="O124" s="152"/>
+      <c r="P124" s="152"/>
+      <c r="Q124" s="152"/>
+      <c r="R124" s="152"/>
+      <c r="S124" s="152">
         <f t="shared" ref="S124" si="19">M124+1</f>
         <v>43909</v>
       </c>
-      <c r="T124" s="151"/>
-      <c r="U124" s="151"/>
-      <c r="V124" s="151"/>
-      <c r="W124" s="151"/>
-      <c r="X124" s="151"/>
-      <c r="Y124" s="151">
+      <c r="T124" s="152"/>
+      <c r="U124" s="152"/>
+      <c r="V124" s="152"/>
+      <c r="W124" s="152"/>
+      <c r="X124" s="152"/>
+      <c r="Y124" s="152">
         <f t="shared" ref="Y124" si="20">S124+1</f>
         <v>43910</v>
       </c>
-      <c r="Z124" s="151"/>
-      <c r="AA124" s="151"/>
-      <c r="AB124" s="151"/>
-      <c r="AC124" s="151"/>
-      <c r="AD124" s="151"/>
+      <c r="Z124" s="152"/>
+      <c r="AA124" s="152"/>
+      <c r="AB124" s="152"/>
+      <c r="AC124" s="152"/>
+      <c r="AD124" s="152"/>
     </row>
     <row r="125" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="89" t="s">
@@ -10897,51 +9098,51 @@
       <c r="AD145" s="95"/>
     </row>
     <row r="146" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="151">
+      <c r="A146" s="152">
         <f>A124+7</f>
         <v>43913</v>
       </c>
-      <c r="B146" s="151"/>
-      <c r="C146" s="151"/>
-      <c r="D146" s="151"/>
-      <c r="E146" s="151"/>
-      <c r="F146" s="151"/>
-      <c r="G146" s="151">
+      <c r="B146" s="152"/>
+      <c r="C146" s="152"/>
+      <c r="D146" s="152"/>
+      <c r="E146" s="152"/>
+      <c r="F146" s="152"/>
+      <c r="G146" s="152">
         <f>A146+1</f>
         <v>43914</v>
       </c>
-      <c r="H146" s="151"/>
-      <c r="I146" s="151"/>
-      <c r="J146" s="151"/>
-      <c r="K146" s="151"/>
-      <c r="L146" s="151"/>
-      <c r="M146" s="151">
+      <c r="H146" s="152"/>
+      <c r="I146" s="152"/>
+      <c r="J146" s="152"/>
+      <c r="K146" s="152"/>
+      <c r="L146" s="152"/>
+      <c r="M146" s="152">
         <f t="shared" ref="M146" si="21">G146+1</f>
         <v>43915</v>
       </c>
-      <c r="N146" s="151"/>
-      <c r="O146" s="151"/>
-      <c r="P146" s="151"/>
-      <c r="Q146" s="151"/>
-      <c r="R146" s="151"/>
-      <c r="S146" s="151">
+      <c r="N146" s="152"/>
+      <c r="O146" s="152"/>
+      <c r="P146" s="152"/>
+      <c r="Q146" s="152"/>
+      <c r="R146" s="152"/>
+      <c r="S146" s="152">
         <f t="shared" ref="S146" si="22">M146+1</f>
         <v>43916</v>
       </c>
-      <c r="T146" s="151"/>
-      <c r="U146" s="151"/>
-      <c r="V146" s="151"/>
-      <c r="W146" s="151"/>
-      <c r="X146" s="151"/>
-      <c r="Y146" s="151">
+      <c r="T146" s="152"/>
+      <c r="U146" s="152"/>
+      <c r="V146" s="152"/>
+      <c r="W146" s="152"/>
+      <c r="X146" s="152"/>
+      <c r="Y146" s="152">
         <f t="shared" ref="Y146" si="23">S146+1</f>
         <v>43917</v>
       </c>
-      <c r="Z146" s="151"/>
-      <c r="AA146" s="151"/>
-      <c r="AB146" s="151"/>
-      <c r="AC146" s="151"/>
-      <c r="AD146" s="151"/>
+      <c r="Z146" s="152"/>
+      <c r="AA146" s="152"/>
+      <c r="AB146" s="152"/>
+      <c r="AC146" s="152"/>
+      <c r="AD146" s="152"/>
     </row>
     <row r="147" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="89" t="s">
@@ -11677,46 +9878,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:L124"/>
+    <mergeCell ref="M124:R124"/>
+    <mergeCell ref="S124:X124"/>
+    <mergeCell ref="Y124:AD124"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="G146:L146"/>
+    <mergeCell ref="M146:R146"/>
+    <mergeCell ref="S146:X146"/>
+    <mergeCell ref="Y146:AD146"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="S1:X1"/>
     <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="G146:L146"/>
-    <mergeCell ref="M146:R146"/>
-    <mergeCell ref="S146:X146"/>
-    <mergeCell ref="Y146:AD146"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:L124"/>
-    <mergeCell ref="M124:R124"/>
-    <mergeCell ref="S124:X124"/>
-    <mergeCell ref="Y124:AD124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11887,13 +10088,13 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
       <c r="F2" s="97"/>
       <c r="G2" s="19" t="s">
         <v>72</v>
@@ -11990,14 +10191,14 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="164"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="158"/>
       <c r="G3" s="25" t="s">
         <v>104</v>
       </c>
@@ -12045,10 +10246,10 @@
         <f>IF(ISBLANK(F2),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F2), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E4" s="165" t="s">
+      <c r="E4" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="166"/>
+      <c r="F4" s="160"/>
       <c r="G4" s="14" t="s">
         <v>107</v>
       </c>
@@ -12125,8 +10326,8 @@
       <c r="AK5" s="10"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="152"/>
-      <c r="B6" s="153"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="58"/>
       <c r="D6" s="60" t="s">
         <v>109</v>
@@ -12364,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="66">
-        <f t="shared" ref="I9:AK9" si="2">IF(I8*105%&gt;=1, FLOOR(I8*105%,0.01), FLOOR(I8*105%,0.005))</f>
+        <f t="shared" ref="I9" si="2">IF(I8*105%&gt;=1, FLOOR(I8*105%,0.01), FLOOR(I8*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="J9" s="66">
@@ -12634,10 +10835,10 @@
       <c r="D11" s="31">
         <v>0</v>
       </c>
-      <c r="E11" s="154" t="s">
+      <c r="E11" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="155"/>
+      <c r="F11" s="164"/>
       <c r="G11" s="65" t="s">
         <v>120</v>
       </c>
@@ -12763,43 +10964,43 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="167"/>
-      <c r="B12" s="168"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="168"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="168"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="168"/>
-      <c r="M12" s="168"/>
-      <c r="N12" s="168"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="168"/>
-      <c r="Q12" s="168"/>
-      <c r="R12" s="168"/>
-      <c r="S12" s="168"/>
-      <c r="T12" s="168"/>
-      <c r="U12" s="168"/>
-      <c r="V12" s="168"/>
-      <c r="W12" s="168"/>
-      <c r="X12" s="168"/>
-      <c r="Y12" s="168"/>
-      <c r="Z12" s="168"/>
-      <c r="AA12" s="168"/>
-      <c r="AB12" s="168"/>
-      <c r="AC12" s="168"/>
-      <c r="AD12" s="168"/>
-      <c r="AE12" s="168"/>
-      <c r="AF12" s="168"/>
-      <c r="AG12" s="168"/>
-      <c r="AH12" s="168"/>
-      <c r="AI12" s="168"/>
-      <c r="AJ12" s="168"/>
-      <c r="AK12" s="169"/>
+      <c r="A12" s="168"/>
+      <c r="B12" s="169"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="169"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="169"/>
+      <c r="T12" s="169"/>
+      <c r="U12" s="169"/>
+      <c r="V12" s="169"/>
+      <c r="W12" s="169"/>
+      <c r="X12" s="169"/>
+      <c r="Y12" s="169"/>
+      <c r="Z12" s="169"/>
+      <c r="AA12" s="169"/>
+      <c r="AB12" s="169"/>
+      <c r="AC12" s="169"/>
+      <c r="AD12" s="169"/>
+      <c r="AE12" s="169"/>
+      <c r="AF12" s="169"/>
+      <c r="AG12" s="169"/>
+      <c r="AH12" s="169"/>
+      <c r="AI12" s="169"/>
+      <c r="AJ12" s="169"/>
+      <c r="AK12" s="170"/>
     </row>
     <row r="13" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
@@ -12944,13 +11145,13 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="159" t="s">
+      <c r="A14" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="160"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
       <c r="F14" s="97" t="s">
         <v>121</v>
       </c>
@@ -13049,14 +11250,14 @@
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="161" t="s">
+      <c r="A15" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="162"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="164"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="158"/>
       <c r="G15" s="25" t="s">
         <v>104</v>
       </c>
@@ -13142,10 +11343,10 @@
         <f>IF(ISBLANK(F14),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F14), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E16" s="165" t="s">
+      <c r="E16" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="166"/>
+      <c r="F16" s="160"/>
       <c r="G16" s="14" t="s">
         <v>107</v>
       </c>
@@ -13298,8 +11499,8 @@
       <c r="AK17" s="10"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="152"/>
-      <c r="B18" s="153"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="162"/>
       <c r="C18" s="58"/>
       <c r="D18" s="60" t="s">
         <v>109</v>
@@ -13889,10 +12090,10 @@
       <c r="D23" s="31">
         <v>23000</v>
       </c>
-      <c r="E23" s="154" t="s">
+      <c r="E23" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="155"/>
+      <c r="F23" s="164"/>
       <c r="G23" s="65" t="s">
         <v>120</v>
       </c>
@@ -14018,43 +12219,43 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="156"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="157"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="157"/>
-      <c r="O24" s="157"/>
-      <c r="P24" s="157"/>
-      <c r="Q24" s="157"/>
-      <c r="R24" s="157"/>
-      <c r="S24" s="157"/>
-      <c r="T24" s="157"/>
-      <c r="U24" s="157"/>
-      <c r="V24" s="157"/>
-      <c r="W24" s="157"/>
-      <c r="X24" s="157"/>
-      <c r="Y24" s="157"/>
-      <c r="Z24" s="157"/>
-      <c r="AA24" s="157"/>
-      <c r="AB24" s="157"/>
-      <c r="AC24" s="157"/>
-      <c r="AD24" s="157"/>
-      <c r="AE24" s="157"/>
-      <c r="AF24" s="157"/>
-      <c r="AG24" s="157"/>
-      <c r="AH24" s="157"/>
-      <c r="AI24" s="157"/>
-      <c r="AJ24" s="157"/>
-      <c r="AK24" s="158"/>
+      <c r="A24" s="165"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="166"/>
+      <c r="L24" s="166"/>
+      <c r="M24" s="166"/>
+      <c r="N24" s="166"/>
+      <c r="O24" s="166"/>
+      <c r="P24" s="166"/>
+      <c r="Q24" s="166"/>
+      <c r="R24" s="166"/>
+      <c r="S24" s="166"/>
+      <c r="T24" s="166"/>
+      <c r="U24" s="166"/>
+      <c r="V24" s="166"/>
+      <c r="W24" s="166"/>
+      <c r="X24" s="166"/>
+      <c r="Y24" s="166"/>
+      <c r="Z24" s="166"/>
+      <c r="AA24" s="166"/>
+      <c r="AB24" s="166"/>
+      <c r="AC24" s="166"/>
+      <c r="AD24" s="166"/>
+      <c r="AE24" s="166"/>
+      <c r="AF24" s="166"/>
+      <c r="AG24" s="166"/>
+      <c r="AH24" s="166"/>
+      <c r="AI24" s="166"/>
+      <c r="AJ24" s="166"/>
+      <c r="AK24" s="167"/>
     </row>
     <row r="25" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
@@ -14199,13 +12400,13 @@
       </c>
     </row>
     <row r="26" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="159" t="s">
+      <c r="A26" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="160"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
       <c r="F26" s="97" t="s">
         <v>122</v>
       </c>
@@ -14304,14 +12505,14 @@
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="162"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="164"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="158"/>
       <c r="G27" s="25" t="s">
         <v>104</v>
       </c>
@@ -14393,10 +12594,10 @@
         <f>IF(ISBLANK(F26),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F26), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E28" s="165" t="s">
+      <c r="E28" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="166"/>
+      <c r="F28" s="160"/>
       <c r="G28" s="14" t="s">
         <v>107</v>
       </c>
@@ -14541,8 +12742,8 @@
       <c r="AK29" s="10"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A30" s="152"/>
-      <c r="B30" s="153"/>
+      <c r="A30" s="161"/>
+      <c r="B30" s="162"/>
       <c r="C30" s="58"/>
       <c r="D30" s="60" t="s">
         <v>109</v>
@@ -15124,10 +13325,10 @@
       <c r="D35" s="31">
         <v>25000</v>
       </c>
-      <c r="E35" s="154" t="s">
+      <c r="E35" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="155"/>
+      <c r="F35" s="164"/>
       <c r="G35" s="65" t="s">
         <v>120</v>
       </c>
@@ -15253,43 +13454,43 @@
       </c>
     </row>
     <row r="36" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="156"/>
-      <c r="B36" s="157"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="157"/>
-      <c r="K36" s="157"/>
-      <c r="L36" s="157"/>
-      <c r="M36" s="157"/>
-      <c r="N36" s="157"/>
-      <c r="O36" s="157"/>
-      <c r="P36" s="157"/>
-      <c r="Q36" s="157"/>
-      <c r="R36" s="157"/>
-      <c r="S36" s="157"/>
-      <c r="T36" s="157"/>
-      <c r="U36" s="157"/>
-      <c r="V36" s="157"/>
-      <c r="W36" s="157"/>
-      <c r="X36" s="157"/>
-      <c r="Y36" s="157"/>
-      <c r="Z36" s="157"/>
-      <c r="AA36" s="157"/>
-      <c r="AB36" s="157"/>
-      <c r="AC36" s="157"/>
-      <c r="AD36" s="157"/>
-      <c r="AE36" s="157"/>
-      <c r="AF36" s="157"/>
-      <c r="AG36" s="157"/>
-      <c r="AH36" s="157"/>
-      <c r="AI36" s="157"/>
-      <c r="AJ36" s="157"/>
-      <c r="AK36" s="158"/>
+      <c r="A36" s="165"/>
+      <c r="B36" s="166"/>
+      <c r="C36" s="166"/>
+      <c r="D36" s="166"/>
+      <c r="E36" s="166"/>
+      <c r="F36" s="166"/>
+      <c r="G36" s="166"/>
+      <c r="H36" s="166"/>
+      <c r="I36" s="166"/>
+      <c r="J36" s="166"/>
+      <c r="K36" s="166"/>
+      <c r="L36" s="166"/>
+      <c r="M36" s="166"/>
+      <c r="N36" s="166"/>
+      <c r="O36" s="166"/>
+      <c r="P36" s="166"/>
+      <c r="Q36" s="166"/>
+      <c r="R36" s="166"/>
+      <c r="S36" s="166"/>
+      <c r="T36" s="166"/>
+      <c r="U36" s="166"/>
+      <c r="V36" s="166"/>
+      <c r="W36" s="166"/>
+      <c r="X36" s="166"/>
+      <c r="Y36" s="166"/>
+      <c r="Z36" s="166"/>
+      <c r="AA36" s="166"/>
+      <c r="AB36" s="166"/>
+      <c r="AC36" s="166"/>
+      <c r="AD36" s="166"/>
+      <c r="AE36" s="166"/>
+      <c r="AF36" s="166"/>
+      <c r="AG36" s="166"/>
+      <c r="AH36" s="166"/>
+      <c r="AI36" s="166"/>
+      <c r="AJ36" s="166"/>
+      <c r="AK36" s="167"/>
     </row>
     <row r="37" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
@@ -15434,13 +13635,13 @@
       </c>
     </row>
     <row r="38" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="159" t="s">
+      <c r="A38" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="160"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
       <c r="F38" s="97" t="s">
         <v>123</v>
       </c>
@@ -15459,7 +13660,7 @@
       <c r="K38" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="L38" s="177" t="s">
+      <c r="L38" s="151" t="s">
         <v>77</v>
       </c>
       <c r="M38" s="20" t="s">
@@ -15539,14 +13740,14 @@
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A39" s="161" t="s">
+      <c r="A39" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="162"/>
-      <c r="C39" s="162"/>
-      <c r="D39" s="163"/>
-      <c r="E39" s="162"/>
-      <c r="F39" s="164"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="156"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="158"/>
       <c r="G39" s="25" t="s">
         <v>104</v>
       </c>
@@ -15622,10 +13823,10 @@
         <f>IF(ISBLANK(F38),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F38), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E40" s="165" t="s">
+      <c r="E40" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="166"/>
+      <c r="F40" s="160"/>
       <c r="G40" s="14" t="s">
         <v>107</v>
       </c>
@@ -15758,8 +13959,8 @@
       <c r="AK41" s="10"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A42" s="152"/>
-      <c r="B42" s="153"/>
+      <c r="A42" s="161"/>
+      <c r="B42" s="162"/>
       <c r="C42" s="58"/>
       <c r="D42" s="60" t="s">
         <v>109</v>
@@ -16329,10 +14530,10 @@
       <c r="D47" s="31">
         <v>133000</v>
       </c>
-      <c r="E47" s="154" t="s">
+      <c r="E47" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="F47" s="155"/>
+      <c r="F47" s="164"/>
       <c r="G47" s="65" t="s">
         <v>120</v>
       </c>
@@ -16458,43 +14659,43 @@
       </c>
     </row>
     <row r="48" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="156"/>
-      <c r="B48" s="157"/>
-      <c r="C48" s="157"/>
-      <c r="D48" s="157"/>
-      <c r="E48" s="157"/>
-      <c r="F48" s="157"/>
-      <c r="G48" s="157"/>
-      <c r="H48" s="157"/>
-      <c r="I48" s="157"/>
-      <c r="J48" s="157"/>
-      <c r="K48" s="157"/>
-      <c r="L48" s="157"/>
-      <c r="M48" s="157"/>
-      <c r="N48" s="157"/>
-      <c r="O48" s="157"/>
-      <c r="P48" s="157"/>
-      <c r="Q48" s="157"/>
-      <c r="R48" s="157"/>
-      <c r="S48" s="157"/>
-      <c r="T48" s="157"/>
-      <c r="U48" s="157"/>
-      <c r="V48" s="157"/>
-      <c r="W48" s="157"/>
-      <c r="X48" s="157"/>
-      <c r="Y48" s="157"/>
-      <c r="Z48" s="157"/>
-      <c r="AA48" s="157"/>
-      <c r="AB48" s="157"/>
-      <c r="AC48" s="157"/>
-      <c r="AD48" s="157"/>
-      <c r="AE48" s="157"/>
-      <c r="AF48" s="157"/>
-      <c r="AG48" s="157"/>
-      <c r="AH48" s="157"/>
-      <c r="AI48" s="157"/>
-      <c r="AJ48" s="157"/>
-      <c r="AK48" s="158"/>
+      <c r="A48" s="165"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="166"/>
+      <c r="E48" s="166"/>
+      <c r="F48" s="166"/>
+      <c r="G48" s="166"/>
+      <c r="H48" s="166"/>
+      <c r="I48" s="166"/>
+      <c r="J48" s="166"/>
+      <c r="K48" s="166"/>
+      <c r="L48" s="166"/>
+      <c r="M48" s="166"/>
+      <c r="N48" s="166"/>
+      <c r="O48" s="166"/>
+      <c r="P48" s="166"/>
+      <c r="Q48" s="166"/>
+      <c r="R48" s="166"/>
+      <c r="S48" s="166"/>
+      <c r="T48" s="166"/>
+      <c r="U48" s="166"/>
+      <c r="V48" s="166"/>
+      <c r="W48" s="166"/>
+      <c r="X48" s="166"/>
+      <c r="Y48" s="166"/>
+      <c r="Z48" s="166"/>
+      <c r="AA48" s="166"/>
+      <c r="AB48" s="166"/>
+      <c r="AC48" s="166"/>
+      <c r="AD48" s="166"/>
+      <c r="AE48" s="166"/>
+      <c r="AF48" s="166"/>
+      <c r="AG48" s="166"/>
+      <c r="AH48" s="166"/>
+      <c r="AI48" s="166"/>
+      <c r="AJ48" s="166"/>
+      <c r="AK48" s="167"/>
     </row>
     <row r="49" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
@@ -16639,13 +14840,13 @@
       </c>
     </row>
     <row r="50" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="159" t="s">
+      <c r="A50" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="160"/>
-      <c r="C50" s="160"/>
-      <c r="D50" s="160"/>
-      <c r="E50" s="160"/>
+      <c r="B50" s="154"/>
+      <c r="C50" s="154"/>
+      <c r="D50" s="154"/>
+      <c r="E50" s="154"/>
       <c r="F50" s="97" t="s">
         <v>124</v>
       </c>
@@ -16744,14 +14945,14 @@
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A51" s="161" t="s">
+      <c r="A51" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="162"/>
-      <c r="C51" s="162"/>
-      <c r="D51" s="163"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="164"/>
+      <c r="B51" s="156"/>
+      <c r="C51" s="156"/>
+      <c r="D51" s="157"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="158"/>
       <c r="G51" s="25" t="s">
         <v>104</v>
       </c>
@@ -16821,10 +15022,10 @@
         <f>IF(ISBLANK(F50),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F50), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E52" s="165" t="s">
+      <c r="E52" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="F52" s="166"/>
+      <c r="F52" s="160"/>
       <c r="G52" s="14" t="s">
         <v>107</v>
       </c>
@@ -16945,8 +15146,8 @@
       <c r="AK53" s="10"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A54" s="152"/>
-      <c r="B54" s="153"/>
+      <c r="A54" s="161"/>
+      <c r="B54" s="162"/>
       <c r="C54" s="58"/>
       <c r="D54" s="60" t="s">
         <v>109</v>
@@ -17363,123 +15564,123 @@
         <v>118</v>
       </c>
       <c r="H58" s="68">
-        <f>(H54-H51)/H51</f>
+        <f t="shared" ref="H58:R58" si="163">(H54-H51)/H51</f>
         <v>6.7632850241545958E-2</v>
       </c>
       <c r="I58" s="69">
-        <f>(I54-I51)/I51</f>
+        <f t="shared" si="163"/>
         <v>4.5248868778280583E-2</v>
       </c>
       <c r="J58" s="69">
-        <f>(J54-J51)/J51</f>
+        <f t="shared" si="163"/>
         <v>0.13983050847457631</v>
       </c>
       <c r="K58" s="69">
-        <f>(K54-K51)/K51</f>
+        <f t="shared" si="163"/>
         <v>6.7999999999999977E-2</v>
       </c>
       <c r="L58" s="69">
-        <f>(L54-L51)/L51</f>
+        <f t="shared" si="163"/>
         <v>0.13793103448275876</v>
       </c>
       <c r="M58" s="69">
-        <f>(M54-M51)/M51</f>
+        <f t="shared" si="163"/>
         <v>-3.3783783783783066E-3</v>
       </c>
       <c r="N58" s="69">
-        <f>(N54-N51)/N51</f>
+        <f t="shared" si="163"/>
         <v>-4.4368600682593969E-2</v>
       </c>
       <c r="O58" s="69">
-        <f>(O54-O51)/O51</f>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="P58" s="69">
-        <f>(P54-P51)/P51</f>
+        <f t="shared" si="163"/>
         <v>4.4776119402984947E-2</v>
       </c>
       <c r="Q58" s="69">
-        <f>(Q54-Q51)/Q51</f>
+        <f t="shared" si="163"/>
         <v>-5.13698630136986E-2</v>
       </c>
       <c r="R58" s="69">
-        <f>(R54-R51)/R51</f>
+        <f t="shared" si="163"/>
         <v>2.5641025641025581E-2</v>
       </c>
       <c r="S58" s="69" t="e">
-        <f t="shared" ref="S58:AK58" si="163">(S54-S51)/S51</f>
+        <f t="shared" ref="S58:AK58" si="164">(S54-S51)/S51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T58" s="69" t="e">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U58" s="69" t="e">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V58" s="69" t="e">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W58" s="69" t="e">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X58" s="69" t="e">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y58" s="69" t="e">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z58" s="69" t="e">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA58" s="69" t="e">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB58" s="69" t="e">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC58" s="69" t="e">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD58" s="69" t="e">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE58" s="69" t="e">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF58" s="69" t="e">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG58" s="69" t="e">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH58" s="69" t="e">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI58" s="69" t="e">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ58" s="69" t="e">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK58" s="70" t="e">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -17498,172 +15699,172 @@
       <c r="D59" s="31">
         <v>0</v>
       </c>
-      <c r="E59" s="154" t="s">
+      <c r="E59" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="F59" s="155"/>
+      <c r="F59" s="164"/>
       <c r="G59" s="65" t="s">
         <v>120</v>
       </c>
       <c r="H59" s="71">
-        <f>(H54-H51)/(H52-H53)</f>
+        <f t="shared" ref="H59:R59" si="165">(H54-H51)/(H52-H53)</f>
         <v>0.82352941176470695</v>
       </c>
       <c r="I59" s="72">
-        <f>(I54-I51)/(I52-I53)</f>
+        <f t="shared" si="165"/>
         <v>0.66666666666666763</v>
       </c>
       <c r="J59" s="72">
-        <f>(J54-J51)/(J52-J53)</f>
+        <f t="shared" si="165"/>
         <v>0.73333333333333317</v>
       </c>
       <c r="K59" s="72">
-        <f>(K54-K51)/(K52-K53)</f>
+        <f t="shared" si="165"/>
         <v>0.48571428571428538</v>
       </c>
       <c r="L59" s="72">
-        <f>(L54-L51)/(L52-L53)</f>
+        <f t="shared" si="165"/>
         <v>0.97297297297297358</v>
       </c>
       <c r="M59" s="72">
-        <f>(M54-M51)/(M52-M53)</f>
+        <f t="shared" si="165"/>
         <v>-5.5555555555554456E-2</v>
       </c>
       <c r="N59" s="72">
-        <f>(N54-N51)/(N52-N53)</f>
+        <f t="shared" si="165"/>
         <v>-0.68421052631579149</v>
       </c>
       <c r="O59" s="72">
-        <f>(O54-O51)/(O52-O53)</f>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="P59" s="72">
-        <f>(P54-P51)/(P52-P53)</f>
+        <f t="shared" si="165"/>
         <v>0.54545454545454453</v>
       </c>
       <c r="Q59" s="72">
-        <f>(Q54-Q51)/(Q52-Q53)</f>
+        <f t="shared" si="165"/>
         <v>-0.71428571428571397</v>
       </c>
       <c r="R59" s="72">
-        <f>(R54-R51)/(R52-R53)</f>
+        <f t="shared" si="165"/>
         <v>0.38888888888888767</v>
       </c>
       <c r="S59" s="72" t="e">
-        <f t="shared" ref="S59:AK59" si="164">(S54-S51)/(S52-S53)</f>
+        <f t="shared" ref="S59:AK59" si="166">(S54-S51)/(S52-S53)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T59" s="72" t="e">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U59" s="72" t="e">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V59" s="72" t="e">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W59" s="72" t="e">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X59" s="72" t="e">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y59" s="72" t="e">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z59" s="72" t="e">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA59" s="72" t="e">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB59" s="72" t="e">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC59" s="72" t="e">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD59" s="72" t="e">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE59" s="72" t="e">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF59" s="72" t="e">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG59" s="72" t="e">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH59" s="72" t="e">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI59" s="72" t="e">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ59" s="72" t="e">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK59" s="73" t="e">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="60" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="156"/>
-      <c r="B60" s="157"/>
-      <c r="C60" s="157"/>
-      <c r="D60" s="157"/>
-      <c r="E60" s="157"/>
-      <c r="F60" s="157"/>
-      <c r="G60" s="157"/>
-      <c r="H60" s="157"/>
-      <c r="I60" s="157"/>
-      <c r="J60" s="157"/>
-      <c r="K60" s="157"/>
-      <c r="L60" s="157"/>
-      <c r="M60" s="157"/>
-      <c r="N60" s="157"/>
-      <c r="O60" s="157"/>
-      <c r="P60" s="157"/>
-      <c r="Q60" s="157"/>
-      <c r="R60" s="157"/>
-      <c r="S60" s="157"/>
-      <c r="T60" s="157"/>
-      <c r="U60" s="157"/>
-      <c r="V60" s="157"/>
-      <c r="W60" s="157"/>
-      <c r="X60" s="157"/>
-      <c r="Y60" s="157"/>
-      <c r="Z60" s="157"/>
-      <c r="AA60" s="157"/>
-      <c r="AB60" s="157"/>
-      <c r="AC60" s="157"/>
-      <c r="AD60" s="157"/>
-      <c r="AE60" s="157"/>
-      <c r="AF60" s="157"/>
-      <c r="AG60" s="157"/>
-      <c r="AH60" s="157"/>
-      <c r="AI60" s="157"/>
-      <c r="AJ60" s="157"/>
-      <c r="AK60" s="158"/>
+      <c r="A60" s="165"/>
+      <c r="B60" s="166"/>
+      <c r="C60" s="166"/>
+      <c r="D60" s="166"/>
+      <c r="E60" s="166"/>
+      <c r="F60" s="166"/>
+      <c r="G60" s="166"/>
+      <c r="H60" s="166"/>
+      <c r="I60" s="166"/>
+      <c r="J60" s="166"/>
+      <c r="K60" s="166"/>
+      <c r="L60" s="166"/>
+      <c r="M60" s="166"/>
+      <c r="N60" s="166"/>
+      <c r="O60" s="166"/>
+      <c r="P60" s="166"/>
+      <c r="Q60" s="166"/>
+      <c r="R60" s="166"/>
+      <c r="S60" s="166"/>
+      <c r="T60" s="166"/>
+      <c r="U60" s="166"/>
+      <c r="V60" s="166"/>
+      <c r="W60" s="166"/>
+      <c r="X60" s="166"/>
+      <c r="Y60" s="166"/>
+      <c r="Z60" s="166"/>
+      <c r="AA60" s="166"/>
+      <c r="AB60" s="166"/>
+      <c r="AC60" s="166"/>
+      <c r="AD60" s="166"/>
+      <c r="AE60" s="166"/>
+      <c r="AF60" s="166"/>
+      <c r="AG60" s="166"/>
+      <c r="AH60" s="166"/>
+      <c r="AI60" s="166"/>
+      <c r="AJ60" s="166"/>
+      <c r="AK60" s="167"/>
     </row>
     <row r="61" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
@@ -17695,126 +15896,126 @@
         <v>43887</v>
       </c>
       <c r="J61" s="18">
-        <f t="shared" ref="J61" si="165">IF(WEEKDAY(I61)&gt;=6,I61+3,I61+1)</f>
+        <f t="shared" ref="J61" si="167">IF(WEEKDAY(I61)&gt;=6,I61+3,I61+1)</f>
         <v>43888</v>
       </c>
       <c r="K61" s="18">
-        <f t="shared" ref="K61" si="166">IF(WEEKDAY(J61)&gt;=6,J61+3,J61+1)</f>
+        <f t="shared" ref="K61" si="168">IF(WEEKDAY(J61)&gt;=6,J61+3,J61+1)</f>
         <v>43889</v>
       </c>
       <c r="L61" s="18">
-        <f t="shared" ref="L61" si="167">IF(WEEKDAY(K61)&gt;=6,K61+3,K61+1)</f>
+        <f t="shared" ref="L61" si="169">IF(WEEKDAY(K61)&gt;=6,K61+3,K61+1)</f>
         <v>43892</v>
       </c>
       <c r="M61" s="18">
-        <f t="shared" ref="M61" si="168">IF(WEEKDAY(L61)&gt;=6,L61+3,L61+1)</f>
+        <f t="shared" ref="M61" si="170">IF(WEEKDAY(L61)&gt;=6,L61+3,L61+1)</f>
         <v>43893</v>
       </c>
       <c r="N61" s="18">
-        <f t="shared" ref="N61" si="169">IF(WEEKDAY(M61)&gt;=6,M61+3,M61+1)</f>
+        <f t="shared" ref="N61" si="171">IF(WEEKDAY(M61)&gt;=6,M61+3,M61+1)</f>
         <v>43894</v>
       </c>
       <c r="O61" s="18">
-        <f t="shared" ref="O61" si="170">IF(WEEKDAY(N61)&gt;=6,N61+3,N61+1)</f>
+        <f t="shared" ref="O61" si="172">IF(WEEKDAY(N61)&gt;=6,N61+3,N61+1)</f>
         <v>43895</v>
       </c>
       <c r="P61" s="18">
-        <f t="shared" ref="P61" si="171">IF(WEEKDAY(O61)&gt;=6,O61+3,O61+1)</f>
+        <f t="shared" ref="P61" si="173">IF(WEEKDAY(O61)&gt;=6,O61+3,O61+1)</f>
         <v>43896</v>
       </c>
       <c r="Q61" s="18">
-        <f t="shared" ref="Q61" si="172">IF(WEEKDAY(P61)&gt;=6,P61+3,P61+1)</f>
+        <f t="shared" ref="Q61" si="174">IF(WEEKDAY(P61)&gt;=6,P61+3,P61+1)</f>
         <v>43899</v>
       </c>
       <c r="R61" s="18">
-        <f t="shared" ref="R61" si="173">IF(WEEKDAY(Q61)&gt;=6,Q61+3,Q61+1)</f>
+        <f t="shared" ref="R61" si="175">IF(WEEKDAY(Q61)&gt;=6,Q61+3,Q61+1)</f>
         <v>43900</v>
       </c>
       <c r="S61" s="18">
-        <f t="shared" ref="S61" si="174">IF(WEEKDAY(R61)&gt;=6,R61+3,R61+1)</f>
+        <f t="shared" ref="S61" si="176">IF(WEEKDAY(R61)&gt;=6,R61+3,R61+1)</f>
         <v>43901</v>
       </c>
       <c r="T61" s="18">
-        <f t="shared" ref="T61" si="175">IF(WEEKDAY(S61)&gt;=6,S61+3,S61+1)</f>
+        <f t="shared" ref="T61" si="177">IF(WEEKDAY(S61)&gt;=6,S61+3,S61+1)</f>
         <v>43902</v>
       </c>
       <c r="U61" s="18">
-        <f t="shared" ref="U61" si="176">IF(WEEKDAY(T61)&gt;=6,T61+3,T61+1)</f>
+        <f t="shared" ref="U61" si="178">IF(WEEKDAY(T61)&gt;=6,T61+3,T61+1)</f>
         <v>43903</v>
       </c>
       <c r="V61" s="18">
-        <f t="shared" ref="V61" si="177">IF(WEEKDAY(U61)&gt;=6,U61+3,U61+1)</f>
+        <f t="shared" ref="V61" si="179">IF(WEEKDAY(U61)&gt;=6,U61+3,U61+1)</f>
         <v>43906</v>
       </c>
       <c r="W61" s="18">
-        <f t="shared" ref="W61" si="178">IF(WEEKDAY(V61)&gt;=6,V61+3,V61+1)</f>
+        <f t="shared" ref="W61" si="180">IF(WEEKDAY(V61)&gt;=6,V61+3,V61+1)</f>
         <v>43907</v>
       </c>
       <c r="X61" s="18">
-        <f t="shared" ref="X61" si="179">IF(WEEKDAY(W61)&gt;=6,W61+3,W61+1)</f>
+        <f t="shared" ref="X61" si="181">IF(WEEKDAY(W61)&gt;=6,W61+3,W61+1)</f>
         <v>43908</v>
       </c>
       <c r="Y61" s="18">
-        <f t="shared" ref="Y61" si="180">IF(WEEKDAY(X61)&gt;=6,X61+3,X61+1)</f>
+        <f t="shared" ref="Y61" si="182">IF(WEEKDAY(X61)&gt;=6,X61+3,X61+1)</f>
         <v>43909</v>
       </c>
       <c r="Z61" s="18">
-        <f t="shared" ref="Z61" si="181">IF(WEEKDAY(Y61)&gt;=6,Y61+3,Y61+1)</f>
+        <f t="shared" ref="Z61" si="183">IF(WEEKDAY(Y61)&gt;=6,Y61+3,Y61+1)</f>
         <v>43910</v>
       </c>
       <c r="AA61" s="18">
-        <f t="shared" ref="AA61" si="182">IF(WEEKDAY(Z61)&gt;=6,Z61+3,Z61+1)</f>
+        <f t="shared" ref="AA61" si="184">IF(WEEKDAY(Z61)&gt;=6,Z61+3,Z61+1)</f>
         <v>43913</v>
       </c>
       <c r="AB61" s="18">
-        <f t="shared" ref="AB61" si="183">IF(WEEKDAY(AA61)&gt;=6,AA61+3,AA61+1)</f>
+        <f t="shared" ref="AB61" si="185">IF(WEEKDAY(AA61)&gt;=6,AA61+3,AA61+1)</f>
         <v>43914</v>
       </c>
       <c r="AC61" s="18">
-        <f t="shared" ref="AC61" si="184">IF(WEEKDAY(AB61)&gt;=6,AB61+3,AB61+1)</f>
+        <f t="shared" ref="AC61" si="186">IF(WEEKDAY(AB61)&gt;=6,AB61+3,AB61+1)</f>
         <v>43915</v>
       </c>
       <c r="AD61" s="18">
-        <f t="shared" ref="AD61" si="185">IF(WEEKDAY(AC61)&gt;=6,AC61+3,AC61+1)</f>
+        <f t="shared" ref="AD61" si="187">IF(WEEKDAY(AC61)&gt;=6,AC61+3,AC61+1)</f>
         <v>43916</v>
       </c>
       <c r="AE61" s="18">
-        <f t="shared" ref="AE61" si="186">IF(WEEKDAY(AD61)&gt;=6,AD61+3,AD61+1)</f>
+        <f t="shared" ref="AE61" si="188">IF(WEEKDAY(AD61)&gt;=6,AD61+3,AD61+1)</f>
         <v>43917</v>
       </c>
       <c r="AF61" s="18">
-        <f t="shared" ref="AF61" si="187">IF(WEEKDAY(AE61)&gt;=6,AE61+3,AE61+1)</f>
+        <f t="shared" ref="AF61" si="189">IF(WEEKDAY(AE61)&gt;=6,AE61+3,AE61+1)</f>
         <v>43920</v>
       </c>
       <c r="AG61" s="18">
-        <f t="shared" ref="AG61" si="188">IF(WEEKDAY(AF61)&gt;=6,AF61+3,AF61+1)</f>
+        <f t="shared" ref="AG61" si="190">IF(WEEKDAY(AF61)&gt;=6,AF61+3,AF61+1)</f>
         <v>43921</v>
       </c>
       <c r="AH61" s="18">
-        <f t="shared" ref="AH61" si="189">IF(WEEKDAY(AG61)&gt;=6,AG61+3,AG61+1)</f>
+        <f t="shared" ref="AH61" si="191">IF(WEEKDAY(AG61)&gt;=6,AG61+3,AG61+1)</f>
         <v>43922</v>
       </c>
       <c r="AI61" s="18">
-        <f t="shared" ref="AI61" si="190">IF(WEEKDAY(AH61)&gt;=6,AH61+3,AH61+1)</f>
+        <f t="shared" ref="AI61" si="192">IF(WEEKDAY(AH61)&gt;=6,AH61+3,AH61+1)</f>
         <v>43923</v>
       </c>
       <c r="AJ61" s="18">
-        <f t="shared" ref="AJ61" si="191">IF(WEEKDAY(AI61)&gt;=6,AI61+3,AI61+1)</f>
+        <f t="shared" ref="AJ61" si="193">IF(WEEKDAY(AI61)&gt;=6,AI61+3,AI61+1)</f>
         <v>43924</v>
       </c>
       <c r="AK61" s="18">
-        <f t="shared" ref="AK61" si="192">IF(WEEKDAY(AJ61)&gt;=6,AJ61+3,AJ61+1)</f>
+        <f t="shared" ref="AK61" si="194">IF(WEEKDAY(AJ61)&gt;=6,AJ61+3,AJ61+1)</f>
         <v>43927</v>
       </c>
     </row>
     <row r="62" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="159" t="s">
+      <c r="A62" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="160"/>
-      <c r="C62" s="160"/>
-      <c r="D62" s="160"/>
-      <c r="E62" s="160"/>
+      <c r="B62" s="154"/>
+      <c r="C62" s="154"/>
+      <c r="D62" s="154"/>
+      <c r="E62" s="154"/>
       <c r="F62" s="97" t="s">
         <v>163</v>
       </c>
@@ -17913,14 +16114,14 @@
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A63" s="161" t="s">
+      <c r="A63" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="162"/>
-      <c r="C63" s="162"/>
-      <c r="D63" s="163"/>
-      <c r="E63" s="162"/>
-      <c r="F63" s="164"/>
+      <c r="B63" s="156"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="157"/>
+      <c r="E63" s="156"/>
+      <c r="F63" s="158"/>
       <c r="G63" s="25" t="s">
         <v>104</v>
       </c>
@@ -17982,10 +16183,10 @@
         <f>IF(ISBLANK(F62),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F62), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E64" s="165" t="s">
+      <c r="E64" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="F64" s="166"/>
+      <c r="F64" s="160"/>
       <c r="G64" s="14" t="s">
         <v>107</v>
       </c>
@@ -18090,8 +16291,8 @@
       <c r="AK65" s="10"/>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A66" s="152"/>
-      <c r="B66" s="153"/>
+      <c r="A66" s="161"/>
+      <c r="B66" s="162"/>
       <c r="C66" s="58"/>
       <c r="D66" s="60" t="s">
         <v>109</v>
@@ -18229,115 +16430,115 @@
         <v>0.34500000000000003</v>
       </c>
       <c r="J68" s="23">
-        <f t="shared" ref="J68:J69" si="193">I68</f>
+        <f t="shared" ref="J68" si="195">I68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="K68" s="23">
-        <f t="shared" ref="K68:K69" si="194">J68</f>
+        <f t="shared" ref="K68" si="196">J68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="L68" s="23">
-        <f t="shared" ref="L68:L69" si="195">K68</f>
+        <f t="shared" ref="L68" si="197">K68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="M68" s="23">
-        <f t="shared" ref="M68:M69" si="196">L68</f>
+        <f t="shared" ref="M68" si="198">L68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="N68" s="23">
-        <f t="shared" ref="N68:N69" si="197">M68</f>
+        <f t="shared" ref="N68" si="199">M68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="O68" s="23">
-        <f t="shared" ref="O68:O69" si="198">N68</f>
+        <f t="shared" ref="O68" si="200">N68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="P68" s="23">
-        <f t="shared" ref="P68:P69" si="199">O68</f>
+        <f t="shared" ref="P68" si="201">O68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="Q68" s="23">
-        <f t="shared" ref="Q68:Q69" si="200">P68</f>
+        <f t="shared" ref="Q68" si="202">P68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="R68" s="23">
-        <f t="shared" ref="R68:R69" si="201">Q68</f>
+        <f t="shared" ref="R68" si="203">Q68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="S68" s="23">
-        <f t="shared" ref="S68:S69" si="202">R68</f>
+        <f t="shared" ref="S68" si="204">R68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="T68" s="23">
-        <f t="shared" ref="T68:T69" si="203">S68</f>
+        <f t="shared" ref="T68" si="205">S68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="U68" s="23">
-        <f t="shared" ref="U68:U69" si="204">T68</f>
+        <f t="shared" ref="U68" si="206">T68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="V68" s="23">
-        <f t="shared" ref="V68:V69" si="205">U68</f>
+        <f t="shared" ref="V68" si="207">U68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="W68" s="23">
-        <f t="shared" ref="W68:W69" si="206">V68</f>
+        <f t="shared" ref="W68" si="208">V68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="X68" s="23">
-        <f t="shared" ref="X68:X69" si="207">W68</f>
+        <f t="shared" ref="X68" si="209">W68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="Y68" s="23">
-        <f t="shared" ref="Y68:Y69" si="208">X68</f>
+        <f t="shared" ref="Y68" si="210">X68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="Z68" s="23">
-        <f t="shared" ref="Z68:Z69" si="209">Y68</f>
+        <f t="shared" ref="Z68" si="211">Y68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="AA68" s="23">
-        <f t="shared" ref="AA68:AA69" si="210">Z68</f>
+        <f t="shared" ref="AA68" si="212">Z68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="AB68" s="23">
-        <f t="shared" ref="AB68:AB69" si="211">AA68</f>
+        <f t="shared" ref="AB68" si="213">AA68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="AC68" s="23">
-        <f t="shared" ref="AC68:AC69" si="212">AB68</f>
+        <f t="shared" ref="AC68" si="214">AB68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="AD68" s="23">
-        <f t="shared" ref="AD68:AD69" si="213">AC68</f>
+        <f t="shared" ref="AD68" si="215">AC68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="AE68" s="23">
-        <f t="shared" ref="AE68:AE69" si="214">AD68</f>
+        <f t="shared" ref="AE68" si="216">AD68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="AF68" s="23">
-        <f t="shared" ref="AF68:AF69" si="215">AE68</f>
+        <f t="shared" ref="AF68" si="217">AE68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="AG68" s="23">
-        <f t="shared" ref="AG68:AG69" si="216">AF68</f>
+        <f t="shared" ref="AG68" si="218">AF68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="AH68" s="23">
-        <f t="shared" ref="AH68:AH69" si="217">AG68</f>
+        <f t="shared" ref="AH68" si="219">AG68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="AI68" s="23">
-        <f t="shared" ref="AI68:AI69" si="218">AH68</f>
+        <f t="shared" ref="AI68" si="220">AH68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="AJ68" s="23">
-        <f t="shared" ref="AJ68:AJ69" si="219">AI68</f>
+        <f t="shared" ref="AJ68" si="221">AI68</f>
         <v>0.34500000000000003</v>
       </c>
       <c r="AK68" s="24">
-        <f t="shared" ref="AK68:AK69" si="220">AJ68</f>
+        <f t="shared" ref="AK68" si="222">AJ68</f>
         <v>0.34500000000000003</v>
       </c>
     </row>
@@ -18363,119 +16564,119 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="I69" s="66">
-        <f t="shared" ref="I69" si="221">IF(I68*105%&gt;=1, FLOOR(I68*105%,0.01), FLOOR(I68*105%,0.005))</f>
+        <f t="shared" ref="I69" si="223">IF(I68*105%&gt;=1, FLOOR(I68*105%,0.01), FLOOR(I68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="J69" s="66">
-        <f t="shared" ref="J69" si="222">IF(J68*105%&gt;=1, FLOOR(J68*105%,0.01), FLOOR(J68*105%,0.005))</f>
+        <f t="shared" ref="J69" si="224">IF(J68*105%&gt;=1, FLOOR(J68*105%,0.01), FLOOR(J68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="K69" s="66">
-        <f t="shared" ref="K69" si="223">IF(K68*105%&gt;=1, FLOOR(K68*105%,0.01), FLOOR(K68*105%,0.005))</f>
+        <f t="shared" ref="K69" si="225">IF(K68*105%&gt;=1, FLOOR(K68*105%,0.01), FLOOR(K68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="L69" s="66">
-        <f t="shared" ref="L69" si="224">IF(L68*105%&gt;=1, FLOOR(L68*105%,0.01), FLOOR(L68*105%,0.005))</f>
+        <f t="shared" ref="L69" si="226">IF(L68*105%&gt;=1, FLOOR(L68*105%,0.01), FLOOR(L68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="M69" s="66">
-        <f t="shared" ref="M69" si="225">IF(M68*105%&gt;=1, FLOOR(M68*105%,0.01), FLOOR(M68*105%,0.005))</f>
+        <f t="shared" ref="M69" si="227">IF(M68*105%&gt;=1, FLOOR(M68*105%,0.01), FLOOR(M68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="N69" s="66">
-        <f t="shared" ref="N69" si="226">IF(N68*105%&gt;=1, FLOOR(N68*105%,0.01), FLOOR(N68*105%,0.005))</f>
+        <f t="shared" ref="N69" si="228">IF(N68*105%&gt;=1, FLOOR(N68*105%,0.01), FLOOR(N68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="O69" s="66">
-        <f t="shared" ref="O69" si="227">IF(O68*105%&gt;=1, FLOOR(O68*105%,0.01), FLOOR(O68*105%,0.005))</f>
+        <f t="shared" ref="O69" si="229">IF(O68*105%&gt;=1, FLOOR(O68*105%,0.01), FLOOR(O68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="P69" s="66">
-        <f t="shared" ref="P69" si="228">IF(P68*105%&gt;=1, FLOOR(P68*105%,0.01), FLOOR(P68*105%,0.005))</f>
+        <f t="shared" ref="P69" si="230">IF(P68*105%&gt;=1, FLOOR(P68*105%,0.01), FLOOR(P68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="Q69" s="66">
-        <f t="shared" ref="Q69" si="229">IF(Q68*105%&gt;=1, FLOOR(Q68*105%,0.01), FLOOR(Q68*105%,0.005))</f>
+        <f t="shared" ref="Q69" si="231">IF(Q68*105%&gt;=1, FLOOR(Q68*105%,0.01), FLOOR(Q68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="R69" s="66">
-        <f t="shared" ref="R69" si="230">IF(R68*105%&gt;=1, FLOOR(R68*105%,0.01), FLOOR(R68*105%,0.005))</f>
+        <f t="shared" ref="R69" si="232">IF(R68*105%&gt;=1, FLOOR(R68*105%,0.01), FLOOR(R68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="S69" s="66">
-        <f t="shared" ref="S69" si="231">IF(S68*105%&gt;=1, FLOOR(S68*105%,0.01), FLOOR(S68*105%,0.005))</f>
+        <f t="shared" ref="S69" si="233">IF(S68*105%&gt;=1, FLOOR(S68*105%,0.01), FLOOR(S68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="T69" s="66">
-        <f t="shared" ref="T69" si="232">IF(T68*105%&gt;=1, FLOOR(T68*105%,0.01), FLOOR(T68*105%,0.005))</f>
+        <f t="shared" ref="T69" si="234">IF(T68*105%&gt;=1, FLOOR(T68*105%,0.01), FLOOR(T68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="U69" s="66">
-        <f t="shared" ref="U69" si="233">IF(U68*105%&gt;=1, FLOOR(U68*105%,0.01), FLOOR(U68*105%,0.005))</f>
+        <f t="shared" ref="U69" si="235">IF(U68*105%&gt;=1, FLOOR(U68*105%,0.01), FLOOR(U68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="V69" s="66">
-        <f t="shared" ref="V69" si="234">IF(V68*105%&gt;=1, FLOOR(V68*105%,0.01), FLOOR(V68*105%,0.005))</f>
+        <f t="shared" ref="V69" si="236">IF(V68*105%&gt;=1, FLOOR(V68*105%,0.01), FLOOR(V68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="W69" s="66">
-        <f t="shared" ref="W69" si="235">IF(W68*105%&gt;=1, FLOOR(W68*105%,0.01), FLOOR(W68*105%,0.005))</f>
+        <f t="shared" ref="W69" si="237">IF(W68*105%&gt;=1, FLOOR(W68*105%,0.01), FLOOR(W68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="X69" s="66">
-        <f t="shared" ref="X69" si="236">IF(X68*105%&gt;=1, FLOOR(X68*105%,0.01), FLOOR(X68*105%,0.005))</f>
+        <f t="shared" ref="X69" si="238">IF(X68*105%&gt;=1, FLOOR(X68*105%,0.01), FLOOR(X68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="Y69" s="66">
-        <f t="shared" ref="Y69" si="237">IF(Y68*105%&gt;=1, FLOOR(Y68*105%,0.01), FLOOR(Y68*105%,0.005))</f>
+        <f t="shared" ref="Y69" si="239">IF(Y68*105%&gt;=1, FLOOR(Y68*105%,0.01), FLOOR(Y68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="Z69" s="66">
-        <f t="shared" ref="Z69" si="238">IF(Z68*105%&gt;=1, FLOOR(Z68*105%,0.01), FLOOR(Z68*105%,0.005))</f>
+        <f t="shared" ref="Z69" si="240">IF(Z68*105%&gt;=1, FLOOR(Z68*105%,0.01), FLOOR(Z68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="AA69" s="66">
-        <f t="shared" ref="AA69" si="239">IF(AA68*105%&gt;=1, FLOOR(AA68*105%,0.01), FLOOR(AA68*105%,0.005))</f>
+        <f t="shared" ref="AA69" si="241">IF(AA68*105%&gt;=1, FLOOR(AA68*105%,0.01), FLOOR(AA68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="AB69" s="66">
-        <f t="shared" ref="AB69" si="240">IF(AB68*105%&gt;=1, FLOOR(AB68*105%,0.01), FLOOR(AB68*105%,0.005))</f>
+        <f t="shared" ref="AB69" si="242">IF(AB68*105%&gt;=1, FLOOR(AB68*105%,0.01), FLOOR(AB68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="AC69" s="66">
-        <f t="shared" ref="AC69" si="241">IF(AC68*105%&gt;=1, FLOOR(AC68*105%,0.01), FLOOR(AC68*105%,0.005))</f>
+        <f t="shared" ref="AC69" si="243">IF(AC68*105%&gt;=1, FLOOR(AC68*105%,0.01), FLOOR(AC68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="AD69" s="66">
-        <f t="shared" ref="AD69" si="242">IF(AD68*105%&gt;=1, FLOOR(AD68*105%,0.01), FLOOR(AD68*105%,0.005))</f>
+        <f t="shared" ref="AD69" si="244">IF(AD68*105%&gt;=1, FLOOR(AD68*105%,0.01), FLOOR(AD68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="AE69" s="66">
-        <f t="shared" ref="AE69" si="243">IF(AE68*105%&gt;=1, FLOOR(AE68*105%,0.01), FLOOR(AE68*105%,0.005))</f>
+        <f t="shared" ref="AE69" si="245">IF(AE68*105%&gt;=1, FLOOR(AE68*105%,0.01), FLOOR(AE68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="AF69" s="66">
-        <f t="shared" ref="AF69" si="244">IF(AF68*105%&gt;=1, FLOOR(AF68*105%,0.01), FLOOR(AF68*105%,0.005))</f>
+        <f t="shared" ref="AF69" si="246">IF(AF68*105%&gt;=1, FLOOR(AF68*105%,0.01), FLOOR(AF68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="AG69" s="66">
-        <f t="shared" ref="AG69" si="245">IF(AG68*105%&gt;=1, FLOOR(AG68*105%,0.01), FLOOR(AG68*105%,0.005))</f>
+        <f t="shared" ref="AG69" si="247">IF(AG68*105%&gt;=1, FLOOR(AG68*105%,0.01), FLOOR(AG68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="AH69" s="66">
-        <f t="shared" ref="AH69" si="246">IF(AH68*105%&gt;=1, FLOOR(AH68*105%,0.01), FLOOR(AH68*105%,0.005))</f>
+        <f t="shared" ref="AH69" si="248">IF(AH68*105%&gt;=1, FLOOR(AH68*105%,0.01), FLOOR(AH68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="AI69" s="66">
-        <f t="shared" ref="AI69" si="247">IF(AI68*105%&gt;=1, FLOOR(AI68*105%,0.01), FLOOR(AI68*105%,0.005))</f>
+        <f t="shared" ref="AI69" si="249">IF(AI68*105%&gt;=1, FLOOR(AI68*105%,0.01), FLOOR(AI68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="AJ69" s="66">
-        <f t="shared" ref="AJ69" si="248">IF(AJ68*105%&gt;=1, FLOOR(AJ68*105%,0.01), FLOOR(AJ68*105%,0.005))</f>
+        <f t="shared" ref="AJ69" si="250">IF(AJ68*105%&gt;=1, FLOOR(AJ68*105%,0.01), FLOOR(AJ68*105%,0.005))</f>
         <v>0.36</v>
       </c>
       <c r="AK69" s="66">
-        <f t="shared" ref="AK69" si="249">IF(AK68*105%&gt;=1, FLOOR(AK68*105%,0.01), FLOOR(AK68*105%,0.005))</f>
+        <f t="shared" ref="AK69" si="251">IF(AK68*105%&gt;=1, FLOOR(AK68*105%,0.01), FLOOR(AK68*105%,0.005))</f>
         <v>0.36</v>
       </c>
     </row>
@@ -18502,119 +16703,119 @@
         <v>8.1967213114754175E-2</v>
       </c>
       <c r="I70" s="69">
-        <f t="shared" ref="I70:AK70" si="250">(I66-I63)/I63</f>
+        <f t="shared" ref="I70:AK70" si="252">(I66-I63)/I63</f>
         <v>9.0909090909090814E-2</v>
       </c>
       <c r="J70" s="69">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>-4.0540540540540577E-2</v>
       </c>
       <c r="K70" s="69">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>-5.797101449275352E-2</v>
       </c>
       <c r="L70" s="69">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0.10937499999999992</v>
       </c>
       <c r="M70" s="69">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>-8.1081081081081002E-2</v>
       </c>
       <c r="N70" s="69">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>0.10447761194029843</v>
       </c>
       <c r="O70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ70" s="69" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK70" s="70" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="252"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -18633,10 +16834,10 @@
       <c r="D71" s="31">
         <v>226000</v>
       </c>
-      <c r="E71" s="154" t="s">
+      <c r="E71" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="F71" s="155"/>
+      <c r="F71" s="164"/>
       <c r="G71" s="65" t="s">
         <v>120</v>
       </c>
@@ -18645,160 +16846,160 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="I71" s="72">
-        <f t="shared" ref="I71:AK71" si="251">(I66-I63)/(I64-I65)</f>
+        <f t="shared" ref="I71:AK71" si="253">(I66-I63)/(I64-I65)</f>
         <v>0.46153846153846106</v>
       </c>
       <c r="J71" s="72">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>-0.33333333333333376</v>
       </c>
       <c r="K71" s="72">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>-0.44444444444444375</v>
       </c>
       <c r="L71" s="72">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0.87499999999999978</v>
       </c>
       <c r="M71" s="72">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>-0.85714285714285687</v>
       </c>
       <c r="N71" s="72">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>0.69999999999999962</v>
       </c>
       <c r="O71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ71" s="72" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK71" s="73" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="253"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="72" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="156"/>
-      <c r="B72" s="157"/>
-      <c r="C72" s="157"/>
-      <c r="D72" s="157"/>
-      <c r="E72" s="157"/>
-      <c r="F72" s="157"/>
-      <c r="G72" s="157"/>
-      <c r="H72" s="157"/>
-      <c r="I72" s="157"/>
-      <c r="J72" s="157"/>
-      <c r="K72" s="157"/>
-      <c r="L72" s="157"/>
-      <c r="M72" s="157"/>
-      <c r="N72" s="157"/>
-      <c r="O72" s="157"/>
-      <c r="P72" s="157"/>
-      <c r="Q72" s="157"/>
-      <c r="R72" s="157"/>
-      <c r="S72" s="157"/>
-      <c r="T72" s="157"/>
-      <c r="U72" s="157"/>
-      <c r="V72" s="157"/>
-      <c r="W72" s="157"/>
-      <c r="X72" s="157"/>
-      <c r="Y72" s="157"/>
-      <c r="Z72" s="157"/>
-      <c r="AA72" s="157"/>
-      <c r="AB72" s="157"/>
-      <c r="AC72" s="157"/>
-      <c r="AD72" s="157"/>
-      <c r="AE72" s="157"/>
-      <c r="AF72" s="157"/>
-      <c r="AG72" s="157"/>
-      <c r="AH72" s="157"/>
-      <c r="AI72" s="157"/>
-      <c r="AJ72" s="157"/>
-      <c r="AK72" s="158"/>
+      <c r="A72" s="165"/>
+      <c r="B72" s="166"/>
+      <c r="C72" s="166"/>
+      <c r="D72" s="166"/>
+      <c r="E72" s="166"/>
+      <c r="F72" s="166"/>
+      <c r="G72" s="166"/>
+      <c r="H72" s="166"/>
+      <c r="I72" s="166"/>
+      <c r="J72" s="166"/>
+      <c r="K72" s="166"/>
+      <c r="L72" s="166"/>
+      <c r="M72" s="166"/>
+      <c r="N72" s="166"/>
+      <c r="O72" s="166"/>
+      <c r="P72" s="166"/>
+      <c r="Q72" s="166"/>
+      <c r="R72" s="166"/>
+      <c r="S72" s="166"/>
+      <c r="T72" s="166"/>
+      <c r="U72" s="166"/>
+      <c r="V72" s="166"/>
+      <c r="W72" s="166"/>
+      <c r="X72" s="166"/>
+      <c r="Y72" s="166"/>
+      <c r="Z72" s="166"/>
+      <c r="AA72" s="166"/>
+      <c r="AB72" s="166"/>
+      <c r="AC72" s="166"/>
+      <c r="AD72" s="166"/>
+      <c r="AE72" s="166"/>
+      <c r="AF72" s="166"/>
+      <c r="AG72" s="166"/>
+      <c r="AH72" s="166"/>
+      <c r="AI72" s="166"/>
+      <c r="AJ72" s="166"/>
+      <c r="AK72" s="167"/>
     </row>
     <row r="73" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="47" t="s">
@@ -18830,126 +17031,126 @@
         <v>43893</v>
       </c>
       <c r="J73" s="18">
-        <f t="shared" ref="J73" si="252">IF(WEEKDAY(I73)&gt;=6,I73+3,I73+1)</f>
+        <f t="shared" ref="J73" si="254">IF(WEEKDAY(I73)&gt;=6,I73+3,I73+1)</f>
         <v>43894</v>
       </c>
       <c r="K73" s="18">
-        <f t="shared" ref="K73" si="253">IF(WEEKDAY(J73)&gt;=6,J73+3,J73+1)</f>
+        <f t="shared" ref="K73" si="255">IF(WEEKDAY(J73)&gt;=6,J73+3,J73+1)</f>
         <v>43895</v>
       </c>
       <c r="L73" s="18">
-        <f t="shared" ref="L73" si="254">IF(WEEKDAY(K73)&gt;=6,K73+3,K73+1)</f>
+        <f t="shared" ref="L73" si="256">IF(WEEKDAY(K73)&gt;=6,K73+3,K73+1)</f>
         <v>43896</v>
       </c>
       <c r="M73" s="18">
-        <f t="shared" ref="M73" si="255">IF(WEEKDAY(L73)&gt;=6,L73+3,L73+1)</f>
+        <f t="shared" ref="M73" si="257">IF(WEEKDAY(L73)&gt;=6,L73+3,L73+1)</f>
         <v>43899</v>
       </c>
       <c r="N73" s="18">
-        <f t="shared" ref="N73" si="256">IF(WEEKDAY(M73)&gt;=6,M73+3,M73+1)</f>
+        <f t="shared" ref="N73" si="258">IF(WEEKDAY(M73)&gt;=6,M73+3,M73+1)</f>
         <v>43900</v>
       </c>
       <c r="O73" s="18">
-        <f t="shared" ref="O73" si="257">IF(WEEKDAY(N73)&gt;=6,N73+3,N73+1)</f>
+        <f t="shared" ref="O73" si="259">IF(WEEKDAY(N73)&gt;=6,N73+3,N73+1)</f>
         <v>43901</v>
       </c>
       <c r="P73" s="18">
-        <f t="shared" ref="P73" si="258">IF(WEEKDAY(O73)&gt;=6,O73+3,O73+1)</f>
+        <f t="shared" ref="P73" si="260">IF(WEEKDAY(O73)&gt;=6,O73+3,O73+1)</f>
         <v>43902</v>
       </c>
       <c r="Q73" s="18">
-        <f t="shared" ref="Q73" si="259">IF(WEEKDAY(P73)&gt;=6,P73+3,P73+1)</f>
+        <f t="shared" ref="Q73" si="261">IF(WEEKDAY(P73)&gt;=6,P73+3,P73+1)</f>
         <v>43903</v>
       </c>
       <c r="R73" s="18">
-        <f t="shared" ref="R73" si="260">IF(WEEKDAY(Q73)&gt;=6,Q73+3,Q73+1)</f>
+        <f t="shared" ref="R73" si="262">IF(WEEKDAY(Q73)&gt;=6,Q73+3,Q73+1)</f>
         <v>43906</v>
       </c>
       <c r="S73" s="18">
-        <f t="shared" ref="S73" si="261">IF(WEEKDAY(R73)&gt;=6,R73+3,R73+1)</f>
+        <f t="shared" ref="S73" si="263">IF(WEEKDAY(R73)&gt;=6,R73+3,R73+1)</f>
         <v>43907</v>
       </c>
       <c r="T73" s="18">
-        <f t="shared" ref="T73" si="262">IF(WEEKDAY(S73)&gt;=6,S73+3,S73+1)</f>
+        <f t="shared" ref="T73" si="264">IF(WEEKDAY(S73)&gt;=6,S73+3,S73+1)</f>
         <v>43908</v>
       </c>
       <c r="U73" s="18">
-        <f t="shared" ref="U73" si="263">IF(WEEKDAY(T73)&gt;=6,T73+3,T73+1)</f>
+        <f t="shared" ref="U73" si="265">IF(WEEKDAY(T73)&gt;=6,T73+3,T73+1)</f>
         <v>43909</v>
       </c>
       <c r="V73" s="18">
-        <f t="shared" ref="V73" si="264">IF(WEEKDAY(U73)&gt;=6,U73+3,U73+1)</f>
+        <f t="shared" ref="V73" si="266">IF(WEEKDAY(U73)&gt;=6,U73+3,U73+1)</f>
         <v>43910</v>
       </c>
       <c r="W73" s="18">
-        <f t="shared" ref="W73" si="265">IF(WEEKDAY(V73)&gt;=6,V73+3,V73+1)</f>
+        <f t="shared" ref="W73" si="267">IF(WEEKDAY(V73)&gt;=6,V73+3,V73+1)</f>
         <v>43913</v>
       </c>
       <c r="X73" s="18">
-        <f t="shared" ref="X73" si="266">IF(WEEKDAY(W73)&gt;=6,W73+3,W73+1)</f>
+        <f t="shared" ref="X73" si="268">IF(WEEKDAY(W73)&gt;=6,W73+3,W73+1)</f>
         <v>43914</v>
       </c>
       <c r="Y73" s="18">
-        <f t="shared" ref="Y73" si="267">IF(WEEKDAY(X73)&gt;=6,X73+3,X73+1)</f>
+        <f t="shared" ref="Y73" si="269">IF(WEEKDAY(X73)&gt;=6,X73+3,X73+1)</f>
         <v>43915</v>
       </c>
       <c r="Z73" s="18">
-        <f t="shared" ref="Z73" si="268">IF(WEEKDAY(Y73)&gt;=6,Y73+3,Y73+1)</f>
+        <f t="shared" ref="Z73" si="270">IF(WEEKDAY(Y73)&gt;=6,Y73+3,Y73+1)</f>
         <v>43916</v>
       </c>
       <c r="AA73" s="18">
-        <f t="shared" ref="AA73" si="269">IF(WEEKDAY(Z73)&gt;=6,Z73+3,Z73+1)</f>
+        <f t="shared" ref="AA73" si="271">IF(WEEKDAY(Z73)&gt;=6,Z73+3,Z73+1)</f>
         <v>43917</v>
       </c>
       <c r="AB73" s="18">
-        <f t="shared" ref="AB73" si="270">IF(WEEKDAY(AA73)&gt;=6,AA73+3,AA73+1)</f>
+        <f t="shared" ref="AB73" si="272">IF(WEEKDAY(AA73)&gt;=6,AA73+3,AA73+1)</f>
         <v>43920</v>
       </c>
       <c r="AC73" s="18">
-        <f t="shared" ref="AC73" si="271">IF(WEEKDAY(AB73)&gt;=6,AB73+3,AB73+1)</f>
+        <f t="shared" ref="AC73" si="273">IF(WEEKDAY(AB73)&gt;=6,AB73+3,AB73+1)</f>
         <v>43921</v>
       </c>
       <c r="AD73" s="18">
-        <f t="shared" ref="AD73" si="272">IF(WEEKDAY(AC73)&gt;=6,AC73+3,AC73+1)</f>
+        <f t="shared" ref="AD73" si="274">IF(WEEKDAY(AC73)&gt;=6,AC73+3,AC73+1)</f>
         <v>43922</v>
       </c>
       <c r="AE73" s="18">
-        <f t="shared" ref="AE73" si="273">IF(WEEKDAY(AD73)&gt;=6,AD73+3,AD73+1)</f>
+        <f t="shared" ref="AE73" si="275">IF(WEEKDAY(AD73)&gt;=6,AD73+3,AD73+1)</f>
         <v>43923</v>
       </c>
       <c r="AF73" s="18">
-        <f t="shared" ref="AF73" si="274">IF(WEEKDAY(AE73)&gt;=6,AE73+3,AE73+1)</f>
+        <f t="shared" ref="AF73" si="276">IF(WEEKDAY(AE73)&gt;=6,AE73+3,AE73+1)</f>
         <v>43924</v>
       </c>
       <c r="AG73" s="18">
-        <f t="shared" ref="AG73" si="275">IF(WEEKDAY(AF73)&gt;=6,AF73+3,AF73+1)</f>
+        <f t="shared" ref="AG73" si="277">IF(WEEKDAY(AF73)&gt;=6,AF73+3,AF73+1)</f>
         <v>43927</v>
       </c>
       <c r="AH73" s="18">
-        <f t="shared" ref="AH73" si="276">IF(WEEKDAY(AG73)&gt;=6,AG73+3,AG73+1)</f>
+        <f t="shared" ref="AH73" si="278">IF(WEEKDAY(AG73)&gt;=6,AG73+3,AG73+1)</f>
         <v>43928</v>
       </c>
       <c r="AI73" s="18">
-        <f t="shared" ref="AI73" si="277">IF(WEEKDAY(AH73)&gt;=6,AH73+3,AH73+1)</f>
+        <f t="shared" ref="AI73" si="279">IF(WEEKDAY(AH73)&gt;=6,AH73+3,AH73+1)</f>
         <v>43929</v>
       </c>
       <c r="AJ73" s="18">
-        <f t="shared" ref="AJ73" si="278">IF(WEEKDAY(AI73)&gt;=6,AI73+3,AI73+1)</f>
+        <f t="shared" ref="AJ73" si="280">IF(WEEKDAY(AI73)&gt;=6,AI73+3,AI73+1)</f>
         <v>43930</v>
       </c>
       <c r="AK73" s="18">
-        <f t="shared" ref="AK73" si="279">IF(WEEKDAY(AJ73)&gt;=6,AJ73+3,AJ73+1)</f>
+        <f t="shared" ref="AK73" si="281">IF(WEEKDAY(AJ73)&gt;=6,AJ73+3,AJ73+1)</f>
         <v>43931</v>
       </c>
     </row>
     <row r="74" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="159" t="s">
+      <c r="A74" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="160"/>
-      <c r="C74" s="160"/>
-      <c r="D74" s="160"/>
-      <c r="E74" s="160"/>
+      <c r="B74" s="154"/>
+      <c r="C74" s="154"/>
+      <c r="D74" s="154"/>
+      <c r="E74" s="154"/>
       <c r="F74" s="97" t="s">
         <v>164</v>
       </c>
@@ -19048,14 +17249,14 @@
       </c>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A75" s="161" t="s">
+      <c r="A75" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="162"/>
-      <c r="C75" s="162"/>
-      <c r="D75" s="163"/>
-      <c r="E75" s="162"/>
-      <c r="F75" s="164"/>
+      <c r="B75" s="156"/>
+      <c r="C75" s="156"/>
+      <c r="D75" s="157"/>
+      <c r="E75" s="156"/>
+      <c r="F75" s="158"/>
       <c r="G75" s="25" t="s">
         <v>104</v>
       </c>
@@ -19109,10 +17310,10 @@
         <f>IF(ISBLANK(F74),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F74), "KLSE"))</f>
         <v>KLSE</v>
       </c>
-      <c r="E76" s="165" t="s">
+      <c r="E76" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="F76" s="166"/>
+      <c r="F76" s="160"/>
       <c r="G76" s="14" t="s">
         <v>107</v>
       </c>
@@ -19201,8 +17402,8 @@
       <c r="AK77" s="10"/>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A78" s="152"/>
-      <c r="B78" s="153"/>
+      <c r="A78" s="161"/>
+      <c r="B78" s="162"/>
       <c r="C78" s="58"/>
       <c r="D78" s="60" t="s">
         <v>109</v>
@@ -19320,115 +17521,115 @@
         <v>1.37</v>
       </c>
       <c r="J80" s="23">
-        <f t="shared" ref="J80:J81" si="280">I80</f>
+        <f t="shared" ref="J80" si="282">I80</f>
         <v>1.37</v>
       </c>
       <c r="K80" s="23">
-        <f t="shared" ref="K80:K81" si="281">J80</f>
+        <f t="shared" ref="K80" si="283">J80</f>
         <v>1.37</v>
       </c>
       <c r="L80" s="23">
-        <f t="shared" ref="L80:L81" si="282">K80</f>
+        <f t="shared" ref="L80" si="284">K80</f>
         <v>1.37</v>
       </c>
       <c r="M80" s="23">
-        <f t="shared" ref="M80:M81" si="283">L80</f>
+        <f t="shared" ref="M80" si="285">L80</f>
         <v>1.37</v>
       </c>
       <c r="N80" s="23">
-        <f t="shared" ref="N80:N81" si="284">M80</f>
+        <f t="shared" ref="N80" si="286">M80</f>
         <v>1.37</v>
       </c>
       <c r="O80" s="23">
-        <f t="shared" ref="O80:O81" si="285">N80</f>
+        <f t="shared" ref="O80" si="287">N80</f>
         <v>1.37</v>
       </c>
       <c r="P80" s="23">
-        <f t="shared" ref="P80:P81" si="286">O80</f>
+        <f t="shared" ref="P80" si="288">O80</f>
         <v>1.37</v>
       </c>
       <c r="Q80" s="23">
-        <f t="shared" ref="Q80:Q81" si="287">P80</f>
+        <f t="shared" ref="Q80" si="289">P80</f>
         <v>1.37</v>
       </c>
       <c r="R80" s="23">
-        <f t="shared" ref="R80:R81" si="288">Q80</f>
+        <f t="shared" ref="R80" si="290">Q80</f>
         <v>1.37</v>
       </c>
       <c r="S80" s="23">
-        <f t="shared" ref="S80:S81" si="289">R80</f>
+        <f t="shared" ref="S80" si="291">R80</f>
         <v>1.37</v>
       </c>
       <c r="T80" s="23">
-        <f t="shared" ref="T80:T81" si="290">S80</f>
+        <f t="shared" ref="T80" si="292">S80</f>
         <v>1.37</v>
       </c>
       <c r="U80" s="23">
-        <f t="shared" ref="U80:U81" si="291">T80</f>
+        <f t="shared" ref="U80" si="293">T80</f>
         <v>1.37</v>
       </c>
       <c r="V80" s="23">
-        <f t="shared" ref="V80:V81" si="292">U80</f>
+        <f t="shared" ref="V80" si="294">U80</f>
         <v>1.37</v>
       </c>
       <c r="W80" s="23">
-        <f t="shared" ref="W80:W81" si="293">V80</f>
+        <f t="shared" ref="W80" si="295">V80</f>
         <v>1.37</v>
       </c>
       <c r="X80" s="23">
-        <f t="shared" ref="X80:X81" si="294">W80</f>
+        <f t="shared" ref="X80" si="296">W80</f>
         <v>1.37</v>
       </c>
       <c r="Y80" s="23">
-        <f t="shared" ref="Y80:Y81" si="295">X80</f>
+        <f t="shared" ref="Y80" si="297">X80</f>
         <v>1.37</v>
       </c>
       <c r="Z80" s="23">
-        <f t="shared" ref="Z80:Z81" si="296">Y80</f>
+        <f t="shared" ref="Z80" si="298">Y80</f>
         <v>1.37</v>
       </c>
       <c r="AA80" s="23">
-        <f t="shared" ref="AA80:AA81" si="297">Z80</f>
+        <f t="shared" ref="AA80" si="299">Z80</f>
         <v>1.37</v>
       </c>
       <c r="AB80" s="23">
-        <f t="shared" ref="AB80:AB81" si="298">AA80</f>
+        <f t="shared" ref="AB80" si="300">AA80</f>
         <v>1.37</v>
       </c>
       <c r="AC80" s="23">
-        <f t="shared" ref="AC80:AC81" si="299">AB80</f>
+        <f t="shared" ref="AC80" si="301">AB80</f>
         <v>1.37</v>
       </c>
       <c r="AD80" s="23">
-        <f t="shared" ref="AD80:AD81" si="300">AC80</f>
+        <f t="shared" ref="AD80" si="302">AC80</f>
         <v>1.37</v>
       </c>
       <c r="AE80" s="23">
-        <f t="shared" ref="AE80:AE81" si="301">AD80</f>
+        <f t="shared" ref="AE80" si="303">AD80</f>
         <v>1.37</v>
       </c>
       <c r="AF80" s="23">
-        <f t="shared" ref="AF80:AF81" si="302">AE80</f>
+        <f t="shared" ref="AF80" si="304">AE80</f>
         <v>1.37</v>
       </c>
       <c r="AG80" s="23">
-        <f t="shared" ref="AG80:AG81" si="303">AF80</f>
+        <f t="shared" ref="AG80" si="305">AF80</f>
         <v>1.37</v>
       </c>
       <c r="AH80" s="23">
-        <f t="shared" ref="AH80:AH81" si="304">AG80</f>
+        <f t="shared" ref="AH80" si="306">AG80</f>
         <v>1.37</v>
       </c>
       <c r="AI80" s="23">
-        <f t="shared" ref="AI80:AI81" si="305">AH80</f>
+        <f t="shared" ref="AI80" si="307">AH80</f>
         <v>1.37</v>
       </c>
       <c r="AJ80" s="23">
-        <f t="shared" ref="AJ80:AJ81" si="306">AI80</f>
+        <f t="shared" ref="AJ80" si="308">AI80</f>
         <v>1.37</v>
       </c>
       <c r="AK80" s="24">
-        <f t="shared" ref="AK80:AK81" si="307">AJ80</f>
+        <f t="shared" ref="AK80" si="309">AJ80</f>
         <v>1.37</v>
       </c>
     </row>
@@ -19452,119 +17653,119 @@
         <v>1.43</v>
       </c>
       <c r="I81" s="66">
-        <f t="shared" ref="I81" si="308">IF(I80*105%&gt;=1, FLOOR(I80*105%,0.01), FLOOR(I80*105%,0.005))</f>
+        <f t="shared" ref="I81" si="310">IF(I80*105%&gt;=1, FLOOR(I80*105%,0.01), FLOOR(I80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="J81" s="66">
-        <f t="shared" ref="J81" si="309">IF(J80*105%&gt;=1, FLOOR(J80*105%,0.01), FLOOR(J80*105%,0.005))</f>
+        <f t="shared" ref="J81" si="311">IF(J80*105%&gt;=1, FLOOR(J80*105%,0.01), FLOOR(J80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="K81" s="66">
-        <f t="shared" ref="K81" si="310">IF(K80*105%&gt;=1, FLOOR(K80*105%,0.01), FLOOR(K80*105%,0.005))</f>
+        <f t="shared" ref="K81" si="312">IF(K80*105%&gt;=1, FLOOR(K80*105%,0.01), FLOOR(K80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="L81" s="66">
-        <f t="shared" ref="L81" si="311">IF(L80*105%&gt;=1, FLOOR(L80*105%,0.01), FLOOR(L80*105%,0.005))</f>
+        <f t="shared" ref="L81" si="313">IF(L80*105%&gt;=1, FLOOR(L80*105%,0.01), FLOOR(L80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="M81" s="66">
-        <f t="shared" ref="M81" si="312">IF(M80*105%&gt;=1, FLOOR(M80*105%,0.01), FLOOR(M80*105%,0.005))</f>
+        <f t="shared" ref="M81" si="314">IF(M80*105%&gt;=1, FLOOR(M80*105%,0.01), FLOOR(M80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="N81" s="66">
-        <f t="shared" ref="N81" si="313">IF(N80*105%&gt;=1, FLOOR(N80*105%,0.01), FLOOR(N80*105%,0.005))</f>
+        <f t="shared" ref="N81" si="315">IF(N80*105%&gt;=1, FLOOR(N80*105%,0.01), FLOOR(N80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="O81" s="66">
-        <f t="shared" ref="O81" si="314">IF(O80*105%&gt;=1, FLOOR(O80*105%,0.01), FLOOR(O80*105%,0.005))</f>
+        <f t="shared" ref="O81" si="316">IF(O80*105%&gt;=1, FLOOR(O80*105%,0.01), FLOOR(O80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="P81" s="66">
-        <f t="shared" ref="P81" si="315">IF(P80*105%&gt;=1, FLOOR(P80*105%,0.01), FLOOR(P80*105%,0.005))</f>
+        <f t="shared" ref="P81" si="317">IF(P80*105%&gt;=1, FLOOR(P80*105%,0.01), FLOOR(P80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="Q81" s="66">
-        <f t="shared" ref="Q81" si="316">IF(Q80*105%&gt;=1, FLOOR(Q80*105%,0.01), FLOOR(Q80*105%,0.005))</f>
+        <f t="shared" ref="Q81" si="318">IF(Q80*105%&gt;=1, FLOOR(Q80*105%,0.01), FLOOR(Q80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="R81" s="66">
-        <f t="shared" ref="R81" si="317">IF(R80*105%&gt;=1, FLOOR(R80*105%,0.01), FLOOR(R80*105%,0.005))</f>
+        <f t="shared" ref="R81" si="319">IF(R80*105%&gt;=1, FLOOR(R80*105%,0.01), FLOOR(R80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="S81" s="66">
-        <f t="shared" ref="S81" si="318">IF(S80*105%&gt;=1, FLOOR(S80*105%,0.01), FLOOR(S80*105%,0.005))</f>
+        <f t="shared" ref="S81" si="320">IF(S80*105%&gt;=1, FLOOR(S80*105%,0.01), FLOOR(S80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="T81" s="66">
-        <f t="shared" ref="T81" si="319">IF(T80*105%&gt;=1, FLOOR(T80*105%,0.01), FLOOR(T80*105%,0.005))</f>
+        <f t="shared" ref="T81" si="321">IF(T80*105%&gt;=1, FLOOR(T80*105%,0.01), FLOOR(T80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="U81" s="66">
-        <f t="shared" ref="U81" si="320">IF(U80*105%&gt;=1, FLOOR(U80*105%,0.01), FLOOR(U80*105%,0.005))</f>
+        <f t="shared" ref="U81" si="322">IF(U80*105%&gt;=1, FLOOR(U80*105%,0.01), FLOOR(U80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="V81" s="66">
-        <f t="shared" ref="V81" si="321">IF(V80*105%&gt;=1, FLOOR(V80*105%,0.01), FLOOR(V80*105%,0.005))</f>
+        <f t="shared" ref="V81" si="323">IF(V80*105%&gt;=1, FLOOR(V80*105%,0.01), FLOOR(V80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="W81" s="66">
-        <f t="shared" ref="W81" si="322">IF(W80*105%&gt;=1, FLOOR(W80*105%,0.01), FLOOR(W80*105%,0.005))</f>
+        <f t="shared" ref="W81" si="324">IF(W80*105%&gt;=1, FLOOR(W80*105%,0.01), FLOOR(W80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="X81" s="66">
-        <f t="shared" ref="X81" si="323">IF(X80*105%&gt;=1, FLOOR(X80*105%,0.01), FLOOR(X80*105%,0.005))</f>
+        <f t="shared" ref="X81" si="325">IF(X80*105%&gt;=1, FLOOR(X80*105%,0.01), FLOOR(X80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="Y81" s="66">
-        <f t="shared" ref="Y81" si="324">IF(Y80*105%&gt;=1, FLOOR(Y80*105%,0.01), FLOOR(Y80*105%,0.005))</f>
+        <f t="shared" ref="Y81" si="326">IF(Y80*105%&gt;=1, FLOOR(Y80*105%,0.01), FLOOR(Y80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="Z81" s="66">
-        <f t="shared" ref="Z81" si="325">IF(Z80*105%&gt;=1, FLOOR(Z80*105%,0.01), FLOOR(Z80*105%,0.005))</f>
+        <f t="shared" ref="Z81" si="327">IF(Z80*105%&gt;=1, FLOOR(Z80*105%,0.01), FLOOR(Z80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="AA81" s="66">
-        <f t="shared" ref="AA81" si="326">IF(AA80*105%&gt;=1, FLOOR(AA80*105%,0.01), FLOOR(AA80*105%,0.005))</f>
+        <f t="shared" ref="AA81" si="328">IF(AA80*105%&gt;=1, FLOOR(AA80*105%,0.01), FLOOR(AA80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="AB81" s="66">
-        <f t="shared" ref="AB81" si="327">IF(AB80*105%&gt;=1, FLOOR(AB80*105%,0.01), FLOOR(AB80*105%,0.005))</f>
+        <f t="shared" ref="AB81" si="329">IF(AB80*105%&gt;=1, FLOOR(AB80*105%,0.01), FLOOR(AB80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="AC81" s="66">
-        <f t="shared" ref="AC81" si="328">IF(AC80*105%&gt;=1, FLOOR(AC80*105%,0.01), FLOOR(AC80*105%,0.005))</f>
+        <f t="shared" ref="AC81" si="330">IF(AC80*105%&gt;=1, FLOOR(AC80*105%,0.01), FLOOR(AC80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="AD81" s="66">
-        <f t="shared" ref="AD81" si="329">IF(AD80*105%&gt;=1, FLOOR(AD80*105%,0.01), FLOOR(AD80*105%,0.005))</f>
+        <f t="shared" ref="AD81" si="331">IF(AD80*105%&gt;=1, FLOOR(AD80*105%,0.01), FLOOR(AD80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="AE81" s="66">
-        <f t="shared" ref="AE81" si="330">IF(AE80*105%&gt;=1, FLOOR(AE80*105%,0.01), FLOOR(AE80*105%,0.005))</f>
+        <f t="shared" ref="AE81" si="332">IF(AE80*105%&gt;=1, FLOOR(AE80*105%,0.01), FLOOR(AE80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="AF81" s="66">
-        <f t="shared" ref="AF81" si="331">IF(AF80*105%&gt;=1, FLOOR(AF80*105%,0.01), FLOOR(AF80*105%,0.005))</f>
+        <f t="shared" ref="AF81" si="333">IF(AF80*105%&gt;=1, FLOOR(AF80*105%,0.01), FLOOR(AF80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="AG81" s="66">
-        <f t="shared" ref="AG81" si="332">IF(AG80*105%&gt;=1, FLOOR(AG80*105%,0.01), FLOOR(AG80*105%,0.005))</f>
+        <f t="shared" ref="AG81" si="334">IF(AG80*105%&gt;=1, FLOOR(AG80*105%,0.01), FLOOR(AG80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="AH81" s="66">
-        <f t="shared" ref="AH81" si="333">IF(AH80*105%&gt;=1, FLOOR(AH80*105%,0.01), FLOOR(AH80*105%,0.005))</f>
+        <f t="shared" ref="AH81" si="335">IF(AH80*105%&gt;=1, FLOOR(AH80*105%,0.01), FLOOR(AH80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="AI81" s="66">
-        <f t="shared" ref="AI81" si="334">IF(AI80*105%&gt;=1, FLOOR(AI80*105%,0.01), FLOOR(AI80*105%,0.005))</f>
+        <f t="shared" ref="AI81" si="336">IF(AI80*105%&gt;=1, FLOOR(AI80*105%,0.01), FLOOR(AI80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="AJ81" s="66">
-        <f t="shared" ref="AJ81" si="335">IF(AJ80*105%&gt;=1, FLOOR(AJ80*105%,0.01), FLOOR(AJ80*105%,0.005))</f>
+        <f t="shared" ref="AJ81" si="337">IF(AJ80*105%&gt;=1, FLOOR(AJ80*105%,0.01), FLOOR(AJ80*105%,0.005))</f>
         <v>1.43</v>
       </c>
       <c r="AK81" s="66">
-        <f t="shared" ref="AK81" si="336">IF(AK80*105%&gt;=1, FLOOR(AK80*105%,0.01), FLOOR(AK80*105%,0.005))</f>
+        <f t="shared" ref="AK81" si="338">IF(AK80*105%&gt;=1, FLOOR(AK80*105%,0.01), FLOOR(AK80*105%,0.005))</f>
         <v>1.43</v>
       </c>
     </row>
@@ -19591,119 +17792,119 @@
         <v>5.26315789473683E-2</v>
       </c>
       <c r="I82" s="69">
-        <f t="shared" ref="I82:AK82" si="337">(I78-I75)/I75</f>
+        <f t="shared" ref="I82:AK82" si="339">(I78-I75)/I75</f>
         <v>-4.2253521126760445E-2</v>
       </c>
       <c r="J82" s="69">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>7.3529411764705942E-3</v>
       </c>
       <c r="K82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ82" s="69" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK82" s="70" t="e">
-        <f t="shared" si="337"/>
+        <f t="shared" si="339"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -19722,10 +17923,10 @@
       <c r="D83" s="31">
         <v>0</v>
       </c>
-      <c r="E83" s="154" t="s">
+      <c r="E83" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="F83" s="155"/>
+      <c r="F83" s="164"/>
       <c r="G83" s="65" t="s">
         <v>120</v>
       </c>
@@ -19734,160 +17935,160 @@
         <v>0.87499999999999967</v>
       </c>
       <c r="I83" s="72">
-        <f t="shared" ref="I83:AK83" si="338">(I78-I75)/(I76-I77)</f>
+        <f t="shared" ref="I83:AK83" si="340">(I78-I75)/(I76-I77)</f>
         <v>-0.85714285714285665</v>
       </c>
       <c r="J83" s="72">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>0.50000000000000555</v>
       </c>
       <c r="K83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ83" s="72" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK83" s="73" t="e">
-        <f t="shared" si="338"/>
+        <f t="shared" si="340"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="84" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="156"/>
-      <c r="B84" s="157"/>
-      <c r="C84" s="157"/>
-      <c r="D84" s="157"/>
-      <c r="E84" s="157"/>
-      <c r="F84" s="157"/>
-      <c r="G84" s="157"/>
-      <c r="H84" s="157"/>
-      <c r="I84" s="157"/>
-      <c r="J84" s="157"/>
-      <c r="K84" s="157"/>
-      <c r="L84" s="157"/>
-      <c r="M84" s="157"/>
-      <c r="N84" s="157"/>
-      <c r="O84" s="157"/>
-      <c r="P84" s="157"/>
-      <c r="Q84" s="157"/>
-      <c r="R84" s="157"/>
-      <c r="S84" s="157"/>
-      <c r="T84" s="157"/>
-      <c r="U84" s="157"/>
-      <c r="V84" s="157"/>
-      <c r="W84" s="157"/>
-      <c r="X84" s="157"/>
-      <c r="Y84" s="157"/>
-      <c r="Z84" s="157"/>
-      <c r="AA84" s="157"/>
-      <c r="AB84" s="157"/>
-      <c r="AC84" s="157"/>
-      <c r="AD84" s="157"/>
-      <c r="AE84" s="157"/>
-      <c r="AF84" s="157"/>
-      <c r="AG84" s="157"/>
-      <c r="AH84" s="157"/>
-      <c r="AI84" s="157"/>
-      <c r="AJ84" s="157"/>
-      <c r="AK84" s="158"/>
+      <c r="A84" s="165"/>
+      <c r="B84" s="166"/>
+      <c r="C84" s="166"/>
+      <c r="D84" s="166"/>
+      <c r="E84" s="166"/>
+      <c r="F84" s="166"/>
+      <c r="G84" s="166"/>
+      <c r="H84" s="166"/>
+      <c r="I84" s="166"/>
+      <c r="J84" s="166"/>
+      <c r="K84" s="166"/>
+      <c r="L84" s="166"/>
+      <c r="M84" s="166"/>
+      <c r="N84" s="166"/>
+      <c r="O84" s="166"/>
+      <c r="P84" s="166"/>
+      <c r="Q84" s="166"/>
+      <c r="R84" s="166"/>
+      <c r="S84" s="166"/>
+      <c r="T84" s="166"/>
+      <c r="U84" s="166"/>
+      <c r="V84" s="166"/>
+      <c r="W84" s="166"/>
+      <c r="X84" s="166"/>
+      <c r="Y84" s="166"/>
+      <c r="Z84" s="166"/>
+      <c r="AA84" s="166"/>
+      <c r="AB84" s="166"/>
+      <c r="AC84" s="166"/>
+      <c r="AD84" s="166"/>
+      <c r="AE84" s="166"/>
+      <c r="AF84" s="166"/>
+      <c r="AG84" s="166"/>
+      <c r="AH84" s="166"/>
+      <c r="AI84" s="166"/>
+      <c r="AJ84" s="166"/>
+      <c r="AK84" s="167"/>
     </row>
     <row r="85" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="47" t="s">
@@ -19919,126 +18120,126 @@
         <v>#VALUE!</v>
       </c>
       <c r="J85" s="18" t="e">
-        <f t="shared" ref="J85" si="339">IF(WEEKDAY(I85)&gt;=6,I85+3,I85+1)</f>
+        <f t="shared" ref="J85" si="341">IF(WEEKDAY(I85)&gt;=6,I85+3,I85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="K85" s="18" t="e">
-        <f t="shared" ref="K85" si="340">IF(WEEKDAY(J85)&gt;=6,J85+3,J85+1)</f>
+        <f t="shared" ref="K85" si="342">IF(WEEKDAY(J85)&gt;=6,J85+3,J85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L85" s="18" t="e">
-        <f t="shared" ref="L85" si="341">IF(WEEKDAY(K85)&gt;=6,K85+3,K85+1)</f>
+        <f t="shared" ref="L85" si="343">IF(WEEKDAY(K85)&gt;=6,K85+3,K85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="M85" s="18" t="e">
-        <f t="shared" ref="M85" si="342">IF(WEEKDAY(L85)&gt;=6,L85+3,L85+1)</f>
+        <f t="shared" ref="M85" si="344">IF(WEEKDAY(L85)&gt;=6,L85+3,L85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N85" s="18" t="e">
-        <f t="shared" ref="N85" si="343">IF(WEEKDAY(M85)&gt;=6,M85+3,M85+1)</f>
+        <f t="shared" ref="N85" si="345">IF(WEEKDAY(M85)&gt;=6,M85+3,M85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="O85" s="18" t="e">
-        <f t="shared" ref="O85" si="344">IF(WEEKDAY(N85)&gt;=6,N85+3,N85+1)</f>
+        <f t="shared" ref="O85" si="346">IF(WEEKDAY(N85)&gt;=6,N85+3,N85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P85" s="18" t="e">
-        <f t="shared" ref="P85" si="345">IF(WEEKDAY(O85)&gt;=6,O85+3,O85+1)</f>
+        <f t="shared" ref="P85" si="347">IF(WEEKDAY(O85)&gt;=6,O85+3,O85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q85" s="18" t="e">
-        <f t="shared" ref="Q85" si="346">IF(WEEKDAY(P85)&gt;=6,P85+3,P85+1)</f>
+        <f t="shared" ref="Q85" si="348">IF(WEEKDAY(P85)&gt;=6,P85+3,P85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="R85" s="18" t="e">
-        <f t="shared" ref="R85" si="347">IF(WEEKDAY(Q85)&gt;=6,Q85+3,Q85+1)</f>
+        <f t="shared" ref="R85" si="349">IF(WEEKDAY(Q85)&gt;=6,Q85+3,Q85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="S85" s="18" t="e">
-        <f t="shared" ref="S85" si="348">IF(WEEKDAY(R85)&gt;=6,R85+3,R85+1)</f>
+        <f t="shared" ref="S85" si="350">IF(WEEKDAY(R85)&gt;=6,R85+3,R85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="T85" s="18" t="e">
-        <f t="shared" ref="T85" si="349">IF(WEEKDAY(S85)&gt;=6,S85+3,S85+1)</f>
+        <f t="shared" ref="T85" si="351">IF(WEEKDAY(S85)&gt;=6,S85+3,S85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="U85" s="18" t="e">
-        <f t="shared" ref="U85" si="350">IF(WEEKDAY(T85)&gt;=6,T85+3,T85+1)</f>
+        <f t="shared" ref="U85" si="352">IF(WEEKDAY(T85)&gt;=6,T85+3,T85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="V85" s="18" t="e">
-        <f t="shared" ref="V85" si="351">IF(WEEKDAY(U85)&gt;=6,U85+3,U85+1)</f>
+        <f t="shared" ref="V85" si="353">IF(WEEKDAY(U85)&gt;=6,U85+3,U85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="W85" s="18" t="e">
-        <f t="shared" ref="W85" si="352">IF(WEEKDAY(V85)&gt;=6,V85+3,V85+1)</f>
+        <f t="shared" ref="W85" si="354">IF(WEEKDAY(V85)&gt;=6,V85+3,V85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="X85" s="18" t="e">
-        <f t="shared" ref="X85" si="353">IF(WEEKDAY(W85)&gt;=6,W85+3,W85+1)</f>
+        <f t="shared" ref="X85" si="355">IF(WEEKDAY(W85)&gt;=6,W85+3,W85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y85" s="18" t="e">
-        <f t="shared" ref="Y85" si="354">IF(WEEKDAY(X85)&gt;=6,X85+3,X85+1)</f>
+        <f t="shared" ref="Y85" si="356">IF(WEEKDAY(X85)&gt;=6,X85+3,X85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z85" s="18" t="e">
-        <f t="shared" ref="Z85" si="355">IF(WEEKDAY(Y85)&gt;=6,Y85+3,Y85+1)</f>
+        <f t="shared" ref="Z85" si="357">IF(WEEKDAY(Y85)&gt;=6,Y85+3,Y85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AA85" s="18" t="e">
-        <f t="shared" ref="AA85" si="356">IF(WEEKDAY(Z85)&gt;=6,Z85+3,Z85+1)</f>
+        <f t="shared" ref="AA85" si="358">IF(WEEKDAY(Z85)&gt;=6,Z85+3,Z85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AB85" s="18" t="e">
-        <f t="shared" ref="AB85" si="357">IF(WEEKDAY(AA85)&gt;=6,AA85+3,AA85+1)</f>
+        <f t="shared" ref="AB85" si="359">IF(WEEKDAY(AA85)&gt;=6,AA85+3,AA85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AC85" s="18" t="e">
-        <f t="shared" ref="AC85" si="358">IF(WEEKDAY(AB85)&gt;=6,AB85+3,AB85+1)</f>
+        <f t="shared" ref="AC85" si="360">IF(WEEKDAY(AB85)&gt;=6,AB85+3,AB85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AD85" s="18" t="e">
-        <f t="shared" ref="AD85" si="359">IF(WEEKDAY(AC85)&gt;=6,AC85+3,AC85+1)</f>
+        <f t="shared" ref="AD85" si="361">IF(WEEKDAY(AC85)&gt;=6,AC85+3,AC85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AE85" s="18" t="e">
-        <f t="shared" ref="AE85" si="360">IF(WEEKDAY(AD85)&gt;=6,AD85+3,AD85+1)</f>
+        <f t="shared" ref="AE85" si="362">IF(WEEKDAY(AD85)&gt;=6,AD85+3,AD85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AF85" s="18" t="e">
-        <f t="shared" ref="AF85" si="361">IF(WEEKDAY(AE85)&gt;=6,AE85+3,AE85+1)</f>
+        <f t="shared" ref="AF85" si="363">IF(WEEKDAY(AE85)&gt;=6,AE85+3,AE85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG85" s="18" t="e">
-        <f t="shared" ref="AG85" si="362">IF(WEEKDAY(AF85)&gt;=6,AF85+3,AF85+1)</f>
+        <f t="shared" ref="AG85" si="364">IF(WEEKDAY(AF85)&gt;=6,AF85+3,AF85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AH85" s="18" t="e">
-        <f t="shared" ref="AH85" si="363">IF(WEEKDAY(AG85)&gt;=6,AG85+3,AG85+1)</f>
+        <f t="shared" ref="AH85" si="365">IF(WEEKDAY(AG85)&gt;=6,AG85+3,AG85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI85" s="18" t="e">
-        <f t="shared" ref="AI85" si="364">IF(WEEKDAY(AH85)&gt;=6,AH85+3,AH85+1)</f>
+        <f t="shared" ref="AI85" si="366">IF(WEEKDAY(AH85)&gt;=6,AH85+3,AH85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AJ85" s="18" t="e">
-        <f t="shared" ref="AJ85" si="365">IF(WEEKDAY(AI85)&gt;=6,AI85+3,AI85+1)</f>
+        <f t="shared" ref="AJ85" si="367">IF(WEEKDAY(AI85)&gt;=6,AI85+3,AI85+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK85" s="18" t="e">
-        <f t="shared" ref="AK85" si="366">IF(WEEKDAY(AJ85)&gt;=6,AJ85+3,AJ85+1)</f>
+        <f t="shared" ref="AK85" si="368">IF(WEEKDAY(AJ85)&gt;=6,AJ85+3,AJ85+1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="86" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="159" t="s">
+      <c r="A86" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B86" s="160"/>
-      <c r="C86" s="160"/>
-      <c r="D86" s="160"/>
-      <c r="E86" s="160"/>
+      <c r="B86" s="154"/>
+      <c r="C86" s="154"/>
+      <c r="D86" s="154"/>
+      <c r="E86" s="154"/>
       <c r="F86" s="97"/>
       <c r="G86" s="19" t="s">
         <v>72</v>
@@ -20135,14 +18336,14 @@
       </c>
     </row>
     <row r="87" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A87" s="161" t="s">
+      <c r="A87" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="B87" s="162"/>
-      <c r="C87" s="162"/>
-      <c r="D87" s="163"/>
-      <c r="E87" s="162"/>
-      <c r="F87" s="164"/>
+      <c r="B87" s="156"/>
+      <c r="C87" s="156"/>
+      <c r="D87" s="157"/>
+      <c r="E87" s="156"/>
+      <c r="F87" s="158"/>
       <c r="G87" s="25" t="s">
         <v>104</v>
       </c>
@@ -20190,10 +18391,10 @@
         <f>IF(ISBLANK(F86),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F86), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E88" s="165" t="s">
+      <c r="E88" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="F88" s="166"/>
+      <c r="F88" s="160"/>
       <c r="G88" s="14" t="s">
         <v>107</v>
       </c>
@@ -20270,8 +18471,8 @@
       <c r="AK89" s="10"/>
     </row>
     <row r="90" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A90" s="152"/>
-      <c r="B90" s="153"/>
+      <c r="A90" s="161"/>
+      <c r="B90" s="162"/>
       <c r="C90" s="58"/>
       <c r="D90" s="60" t="s">
         <v>109</v>
@@ -20377,115 +18578,115 @@
         <v>0</v>
       </c>
       <c r="J92" s="23">
-        <f t="shared" ref="J92:J93" si="367">I92</f>
+        <f t="shared" ref="J92" si="369">I92</f>
         <v>0</v>
       </c>
       <c r="K92" s="23">
-        <f t="shared" ref="K92:K93" si="368">J92</f>
+        <f t="shared" ref="K92" si="370">J92</f>
         <v>0</v>
       </c>
       <c r="L92" s="23">
-        <f t="shared" ref="L92:L93" si="369">K92</f>
+        <f t="shared" ref="L92" si="371">K92</f>
         <v>0</v>
       </c>
       <c r="M92" s="23">
-        <f t="shared" ref="M92:M93" si="370">L92</f>
+        <f t="shared" ref="M92" si="372">L92</f>
         <v>0</v>
       </c>
       <c r="N92" s="23">
-        <f t="shared" ref="N92:N93" si="371">M92</f>
+        <f t="shared" ref="N92" si="373">M92</f>
         <v>0</v>
       </c>
       <c r="O92" s="23">
-        <f t="shared" ref="O92:O93" si="372">N92</f>
+        <f t="shared" ref="O92" si="374">N92</f>
         <v>0</v>
       </c>
       <c r="P92" s="23">
-        <f t="shared" ref="P92:P93" si="373">O92</f>
+        <f t="shared" ref="P92" si="375">O92</f>
         <v>0</v>
       </c>
       <c r="Q92" s="23">
-        <f t="shared" ref="Q92:Q93" si="374">P92</f>
+        <f t="shared" ref="Q92" si="376">P92</f>
         <v>0</v>
       </c>
       <c r="R92" s="23">
-        <f t="shared" ref="R92:R93" si="375">Q92</f>
+        <f t="shared" ref="R92" si="377">Q92</f>
         <v>0</v>
       </c>
       <c r="S92" s="23">
-        <f t="shared" ref="S92:S93" si="376">R92</f>
+        <f t="shared" ref="S92" si="378">R92</f>
         <v>0</v>
       </c>
       <c r="T92" s="23">
-        <f t="shared" ref="T92:T93" si="377">S92</f>
+        <f t="shared" ref="T92" si="379">S92</f>
         <v>0</v>
       </c>
       <c r="U92" s="23">
-        <f t="shared" ref="U92:U93" si="378">T92</f>
+        <f t="shared" ref="U92" si="380">T92</f>
         <v>0</v>
       </c>
       <c r="V92" s="23">
-        <f t="shared" ref="V92:V93" si="379">U92</f>
+        <f t="shared" ref="V92" si="381">U92</f>
         <v>0</v>
       </c>
       <c r="W92" s="23">
-        <f t="shared" ref="W92:W93" si="380">V92</f>
+        <f t="shared" ref="W92" si="382">V92</f>
         <v>0</v>
       </c>
       <c r="X92" s="23">
-        <f t="shared" ref="X92:X93" si="381">W92</f>
+        <f t="shared" ref="X92" si="383">W92</f>
         <v>0</v>
       </c>
       <c r="Y92" s="23">
-        <f t="shared" ref="Y92:Y93" si="382">X92</f>
+        <f t="shared" ref="Y92" si="384">X92</f>
         <v>0</v>
       </c>
       <c r="Z92" s="23">
-        <f t="shared" ref="Z92:Z93" si="383">Y92</f>
+        <f t="shared" ref="Z92" si="385">Y92</f>
         <v>0</v>
       </c>
       <c r="AA92" s="23">
-        <f t="shared" ref="AA92:AA93" si="384">Z92</f>
+        <f t="shared" ref="AA92" si="386">Z92</f>
         <v>0</v>
       </c>
       <c r="AB92" s="23">
-        <f t="shared" ref="AB92:AB93" si="385">AA92</f>
+        <f t="shared" ref="AB92" si="387">AA92</f>
         <v>0</v>
       </c>
       <c r="AC92" s="23">
-        <f t="shared" ref="AC92:AC93" si="386">AB92</f>
+        <f t="shared" ref="AC92" si="388">AB92</f>
         <v>0</v>
       </c>
       <c r="AD92" s="23">
-        <f t="shared" ref="AD92:AD93" si="387">AC92</f>
+        <f t="shared" ref="AD92" si="389">AC92</f>
         <v>0</v>
       </c>
       <c r="AE92" s="23">
-        <f t="shared" ref="AE92:AE93" si="388">AD92</f>
+        <f t="shared" ref="AE92" si="390">AD92</f>
         <v>0</v>
       </c>
       <c r="AF92" s="23">
-        <f t="shared" ref="AF92:AF93" si="389">AE92</f>
+        <f t="shared" ref="AF92" si="391">AE92</f>
         <v>0</v>
       </c>
       <c r="AG92" s="23">
-        <f t="shared" ref="AG92:AG93" si="390">AF92</f>
+        <f t="shared" ref="AG92" si="392">AF92</f>
         <v>0</v>
       </c>
       <c r="AH92" s="23">
-        <f t="shared" ref="AH92:AH93" si="391">AG92</f>
+        <f t="shared" ref="AH92" si="393">AG92</f>
         <v>0</v>
       </c>
       <c r="AI92" s="23">
-        <f t="shared" ref="AI92:AI93" si="392">AH92</f>
+        <f t="shared" ref="AI92" si="394">AH92</f>
         <v>0</v>
       </c>
       <c r="AJ92" s="23">
-        <f t="shared" ref="AJ92:AJ93" si="393">AI92</f>
+        <f t="shared" ref="AJ92" si="395">AI92</f>
         <v>0</v>
       </c>
       <c r="AK92" s="24">
-        <f t="shared" ref="AK92:AK93" si="394">AJ92</f>
+        <f t="shared" ref="AK92" si="396">AJ92</f>
         <v>0</v>
       </c>
     </row>
@@ -20509,119 +18710,119 @@
         <v>0</v>
       </c>
       <c r="I93" s="66">
-        <f t="shared" ref="I93" si="395">IF(I92*105%&gt;=1, FLOOR(I92*105%,0.01), FLOOR(I92*105%,0.005))</f>
+        <f t="shared" ref="I93" si="397">IF(I92*105%&gt;=1, FLOOR(I92*105%,0.01), FLOOR(I92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="J93" s="66">
-        <f t="shared" ref="J93" si="396">IF(J92*105%&gt;=1, FLOOR(J92*105%,0.01), FLOOR(J92*105%,0.005))</f>
+        <f t="shared" ref="J93" si="398">IF(J92*105%&gt;=1, FLOOR(J92*105%,0.01), FLOOR(J92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="K93" s="66">
-        <f t="shared" ref="K93" si="397">IF(K92*105%&gt;=1, FLOOR(K92*105%,0.01), FLOOR(K92*105%,0.005))</f>
+        <f t="shared" ref="K93" si="399">IF(K92*105%&gt;=1, FLOOR(K92*105%,0.01), FLOOR(K92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="L93" s="66">
-        <f t="shared" ref="L93" si="398">IF(L92*105%&gt;=1, FLOOR(L92*105%,0.01), FLOOR(L92*105%,0.005))</f>
+        <f t="shared" ref="L93" si="400">IF(L92*105%&gt;=1, FLOOR(L92*105%,0.01), FLOOR(L92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="M93" s="66">
-        <f t="shared" ref="M93" si="399">IF(M92*105%&gt;=1, FLOOR(M92*105%,0.01), FLOOR(M92*105%,0.005))</f>
+        <f t="shared" ref="M93" si="401">IF(M92*105%&gt;=1, FLOOR(M92*105%,0.01), FLOOR(M92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="N93" s="66">
-        <f t="shared" ref="N93" si="400">IF(N92*105%&gt;=1, FLOOR(N92*105%,0.01), FLOOR(N92*105%,0.005))</f>
+        <f t="shared" ref="N93" si="402">IF(N92*105%&gt;=1, FLOOR(N92*105%,0.01), FLOOR(N92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="O93" s="66">
-        <f t="shared" ref="O93" si="401">IF(O92*105%&gt;=1, FLOOR(O92*105%,0.01), FLOOR(O92*105%,0.005))</f>
+        <f t="shared" ref="O93" si="403">IF(O92*105%&gt;=1, FLOOR(O92*105%,0.01), FLOOR(O92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="P93" s="66">
-        <f t="shared" ref="P93" si="402">IF(P92*105%&gt;=1, FLOOR(P92*105%,0.01), FLOOR(P92*105%,0.005))</f>
+        <f t="shared" ref="P93" si="404">IF(P92*105%&gt;=1, FLOOR(P92*105%,0.01), FLOOR(P92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="Q93" s="66">
-        <f t="shared" ref="Q93" si="403">IF(Q92*105%&gt;=1, FLOOR(Q92*105%,0.01), FLOOR(Q92*105%,0.005))</f>
+        <f t="shared" ref="Q93" si="405">IF(Q92*105%&gt;=1, FLOOR(Q92*105%,0.01), FLOOR(Q92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="R93" s="66">
-        <f t="shared" ref="R93" si="404">IF(R92*105%&gt;=1, FLOOR(R92*105%,0.01), FLOOR(R92*105%,0.005))</f>
+        <f t="shared" ref="R93" si="406">IF(R92*105%&gt;=1, FLOOR(R92*105%,0.01), FLOOR(R92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="S93" s="66">
-        <f t="shared" ref="S93" si="405">IF(S92*105%&gt;=1, FLOOR(S92*105%,0.01), FLOOR(S92*105%,0.005))</f>
+        <f t="shared" ref="S93" si="407">IF(S92*105%&gt;=1, FLOOR(S92*105%,0.01), FLOOR(S92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="T93" s="66">
-        <f t="shared" ref="T93" si="406">IF(T92*105%&gt;=1, FLOOR(T92*105%,0.01), FLOOR(T92*105%,0.005))</f>
+        <f t="shared" ref="T93" si="408">IF(T92*105%&gt;=1, FLOOR(T92*105%,0.01), FLOOR(T92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="U93" s="66">
-        <f t="shared" ref="U93" si="407">IF(U92*105%&gt;=1, FLOOR(U92*105%,0.01), FLOOR(U92*105%,0.005))</f>
+        <f t="shared" ref="U93" si="409">IF(U92*105%&gt;=1, FLOOR(U92*105%,0.01), FLOOR(U92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="V93" s="66">
-        <f t="shared" ref="V93" si="408">IF(V92*105%&gt;=1, FLOOR(V92*105%,0.01), FLOOR(V92*105%,0.005))</f>
+        <f t="shared" ref="V93" si="410">IF(V92*105%&gt;=1, FLOOR(V92*105%,0.01), FLOOR(V92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="W93" s="66">
-        <f t="shared" ref="W93" si="409">IF(W92*105%&gt;=1, FLOOR(W92*105%,0.01), FLOOR(W92*105%,0.005))</f>
+        <f t="shared" ref="W93" si="411">IF(W92*105%&gt;=1, FLOOR(W92*105%,0.01), FLOOR(W92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="X93" s="66">
-        <f t="shared" ref="X93" si="410">IF(X92*105%&gt;=1, FLOOR(X92*105%,0.01), FLOOR(X92*105%,0.005))</f>
+        <f t="shared" ref="X93" si="412">IF(X92*105%&gt;=1, FLOOR(X92*105%,0.01), FLOOR(X92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="Y93" s="66">
-        <f t="shared" ref="Y93" si="411">IF(Y92*105%&gt;=1, FLOOR(Y92*105%,0.01), FLOOR(Y92*105%,0.005))</f>
+        <f t="shared" ref="Y93" si="413">IF(Y92*105%&gt;=1, FLOOR(Y92*105%,0.01), FLOOR(Y92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="Z93" s="66">
-        <f t="shared" ref="Z93" si="412">IF(Z92*105%&gt;=1, FLOOR(Z92*105%,0.01), FLOOR(Z92*105%,0.005))</f>
+        <f t="shared" ref="Z93" si="414">IF(Z92*105%&gt;=1, FLOOR(Z92*105%,0.01), FLOOR(Z92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="AA93" s="66">
-        <f t="shared" ref="AA93" si="413">IF(AA92*105%&gt;=1, FLOOR(AA92*105%,0.01), FLOOR(AA92*105%,0.005))</f>
+        <f t="shared" ref="AA93" si="415">IF(AA92*105%&gt;=1, FLOOR(AA92*105%,0.01), FLOOR(AA92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="AB93" s="66">
-        <f t="shared" ref="AB93" si="414">IF(AB92*105%&gt;=1, FLOOR(AB92*105%,0.01), FLOOR(AB92*105%,0.005))</f>
+        <f t="shared" ref="AB93" si="416">IF(AB92*105%&gt;=1, FLOOR(AB92*105%,0.01), FLOOR(AB92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="AC93" s="66">
-        <f t="shared" ref="AC93" si="415">IF(AC92*105%&gt;=1, FLOOR(AC92*105%,0.01), FLOOR(AC92*105%,0.005))</f>
+        <f t="shared" ref="AC93" si="417">IF(AC92*105%&gt;=1, FLOOR(AC92*105%,0.01), FLOOR(AC92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="AD93" s="66">
-        <f t="shared" ref="AD93" si="416">IF(AD92*105%&gt;=1, FLOOR(AD92*105%,0.01), FLOOR(AD92*105%,0.005))</f>
+        <f t="shared" ref="AD93" si="418">IF(AD92*105%&gt;=1, FLOOR(AD92*105%,0.01), FLOOR(AD92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="AE93" s="66">
-        <f t="shared" ref="AE93" si="417">IF(AE92*105%&gt;=1, FLOOR(AE92*105%,0.01), FLOOR(AE92*105%,0.005))</f>
+        <f t="shared" ref="AE93" si="419">IF(AE92*105%&gt;=1, FLOOR(AE92*105%,0.01), FLOOR(AE92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="AF93" s="66">
-        <f t="shared" ref="AF93" si="418">IF(AF92*105%&gt;=1, FLOOR(AF92*105%,0.01), FLOOR(AF92*105%,0.005))</f>
+        <f t="shared" ref="AF93" si="420">IF(AF92*105%&gt;=1, FLOOR(AF92*105%,0.01), FLOOR(AF92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="AG93" s="66">
-        <f t="shared" ref="AG93" si="419">IF(AG92*105%&gt;=1, FLOOR(AG92*105%,0.01), FLOOR(AG92*105%,0.005))</f>
+        <f t="shared" ref="AG93" si="421">IF(AG92*105%&gt;=1, FLOOR(AG92*105%,0.01), FLOOR(AG92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="AH93" s="66">
-        <f t="shared" ref="AH93" si="420">IF(AH92*105%&gt;=1, FLOOR(AH92*105%,0.01), FLOOR(AH92*105%,0.005))</f>
+        <f t="shared" ref="AH93" si="422">IF(AH92*105%&gt;=1, FLOOR(AH92*105%,0.01), FLOOR(AH92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="AI93" s="66">
-        <f t="shared" ref="AI93" si="421">IF(AI92*105%&gt;=1, FLOOR(AI92*105%,0.01), FLOOR(AI92*105%,0.005))</f>
+        <f t="shared" ref="AI93" si="423">IF(AI92*105%&gt;=1, FLOOR(AI92*105%,0.01), FLOOR(AI92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="AJ93" s="66">
-        <f t="shared" ref="AJ93" si="422">IF(AJ92*105%&gt;=1, FLOOR(AJ92*105%,0.01), FLOOR(AJ92*105%,0.005))</f>
+        <f t="shared" ref="AJ93" si="424">IF(AJ92*105%&gt;=1, FLOOR(AJ92*105%,0.01), FLOOR(AJ92*105%,0.005))</f>
         <v>0</v>
       </c>
       <c r="AK93" s="66">
-        <f t="shared" ref="AK93" si="423">IF(AK92*105%&gt;=1, FLOOR(AK92*105%,0.01), FLOOR(AK92*105%,0.005))</f>
+        <f t="shared" ref="AK93" si="425">IF(AK92*105%&gt;=1, FLOOR(AK92*105%,0.01), FLOOR(AK92*105%,0.005))</f>
         <v>0</v>
       </c>
     </row>
@@ -20648,119 +18849,119 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I94" s="69" t="e">
-        <f t="shared" ref="I94:AK94" si="424">(I90-I87)/I87</f>
+        <f t="shared" ref="I94:AK94" si="426">(I90-I87)/I87</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ94" s="69" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK94" s="70" t="e">
-        <f t="shared" si="424"/>
+        <f t="shared" si="426"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -20779,10 +18980,10 @@
       <c r="D95" s="31">
         <v>0</v>
       </c>
-      <c r="E95" s="154" t="s">
+      <c r="E95" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="F95" s="155"/>
+      <c r="F95" s="164"/>
       <c r="G95" s="65" t="s">
         <v>120</v>
       </c>
@@ -20791,168 +18992,190 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I95" s="72" t="e">
-        <f t="shared" ref="I95:AK95" si="425">(I90-I87)/(I88-I89)</f>
+        <f t="shared" ref="I95:AK95" si="427">(I90-I87)/(I88-I89)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ95" s="72" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK95" s="73" t="e">
-        <f t="shared" si="425"/>
+        <f t="shared" si="427"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="156"/>
-      <c r="B96" s="157"/>
-      <c r="C96" s="157"/>
-      <c r="D96" s="157"/>
-      <c r="E96" s="157"/>
-      <c r="F96" s="157"/>
-      <c r="G96" s="157"/>
-      <c r="H96" s="157"/>
-      <c r="I96" s="157"/>
-      <c r="J96" s="157"/>
-      <c r="K96" s="157"/>
-      <c r="L96" s="157"/>
-      <c r="M96" s="157"/>
-      <c r="N96" s="157"/>
-      <c r="O96" s="157"/>
-      <c r="P96" s="157"/>
-      <c r="Q96" s="157"/>
-      <c r="R96" s="157"/>
-      <c r="S96" s="157"/>
-      <c r="T96" s="157"/>
-      <c r="U96" s="157"/>
-      <c r="V96" s="157"/>
-      <c r="W96" s="157"/>
-      <c r="X96" s="157"/>
-      <c r="Y96" s="157"/>
-      <c r="Z96" s="157"/>
-      <c r="AA96" s="157"/>
-      <c r="AB96" s="157"/>
-      <c r="AC96" s="157"/>
-      <c r="AD96" s="157"/>
-      <c r="AE96" s="157"/>
-      <c r="AF96" s="157"/>
-      <c r="AG96" s="157"/>
-      <c r="AH96" s="157"/>
-      <c r="AI96" s="157"/>
-      <c r="AJ96" s="157"/>
-      <c r="AK96" s="158"/>
+      <c r="A96" s="165"/>
+      <c r="B96" s="166"/>
+      <c r="C96" s="166"/>
+      <c r="D96" s="166"/>
+      <c r="E96" s="166"/>
+      <c r="F96" s="166"/>
+      <c r="G96" s="166"/>
+      <c r="H96" s="166"/>
+      <c r="I96" s="166"/>
+      <c r="J96" s="166"/>
+      <c r="K96" s="166"/>
+      <c r="L96" s="166"/>
+      <c r="M96" s="166"/>
+      <c r="N96" s="166"/>
+      <c r="O96" s="166"/>
+      <c r="P96" s="166"/>
+      <c r="Q96" s="166"/>
+      <c r="R96" s="166"/>
+      <c r="S96" s="166"/>
+      <c r="T96" s="166"/>
+      <c r="U96" s="166"/>
+      <c r="V96" s="166"/>
+      <c r="W96" s="166"/>
+      <c r="X96" s="166"/>
+      <c r="Y96" s="166"/>
+      <c r="Z96" s="166"/>
+      <c r="AA96" s="166"/>
+      <c r="AB96" s="166"/>
+      <c r="AC96" s="166"/>
+      <c r="AD96" s="166"/>
+      <c r="AE96" s="166"/>
+      <c r="AF96" s="166"/>
+      <c r="AG96" s="166"/>
+      <c r="AH96" s="166"/>
+      <c r="AI96" s="166"/>
+      <c r="AJ96" s="166"/>
+      <c r="AK96" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="A84:AK84"/>
+    <mergeCell ref="A72:AK72"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:AK24"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A12:AK12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="A96:AK96"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="A27:F27"/>
@@ -20960,21 +19183,6 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="A36:AK36"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A12:AK12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:AK24"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="E40:F40"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="A48:AK48"/>
@@ -20984,182 +19192,175 @@
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="E59:F59"/>
     <mergeCell ref="A60:AK60"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="A72:AK72"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="A84:AK84"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="E95:F95"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H34:AK34">
-    <cfRule type="cellIs" dxfId="75" priority="163" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="163" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:AK34">
-    <cfRule type="cellIs" dxfId="74" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="162" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:AK10">
-    <cfRule type="cellIs" dxfId="73" priority="165" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="165" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:AK10">
-    <cfRule type="cellIs" dxfId="72" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="164" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="71" priority="161" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="161" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="70" priority="158" operator="notEqual">
+    <cfRule type="cellIs" dxfId="34" priority="158" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:AK22">
-    <cfRule type="cellIs" dxfId="69" priority="151" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="151" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:AK22">
-    <cfRule type="cellIs" dxfId="68" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="150" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="67" priority="149" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="149" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:AK46">
-    <cfRule type="cellIs" dxfId="66" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="94" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:AK46">
-    <cfRule type="cellIs" dxfId="65" priority="93" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="93" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="64" priority="92" operator="notEqual">
+    <cfRule type="cellIs" dxfId="28" priority="92" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:AK58">
-    <cfRule type="cellIs" dxfId="63" priority="73" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="73" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:AK58">
-    <cfRule type="cellIs" dxfId="62" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="72" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="61" priority="71" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="71" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:AK6">
-    <cfRule type="cellIs" dxfId="60" priority="62" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="62" operator="lessThanOrEqual">
       <formula>H8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:AK18">
-    <cfRule type="cellIs" dxfId="59" priority="61" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="23" priority="61" operator="lessThanOrEqual">
       <formula>H20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:AK30">
-    <cfRule type="cellIs" dxfId="58" priority="53" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="53" operator="lessThanOrEqual">
       <formula>H32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:AK42">
-    <cfRule type="cellIs" dxfId="57" priority="39" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="21" priority="39" operator="lessThanOrEqual">
       <formula>H44</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:AK54">
-    <cfRule type="cellIs" dxfId="56" priority="32" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="32" operator="lessThanOrEqual">
       <formula>H56</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70:AK70">
-    <cfRule type="cellIs" dxfId="55" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70:AK70">
-    <cfRule type="cellIs" dxfId="54" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="53" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66:AK66">
-    <cfRule type="cellIs" dxfId="52" priority="18" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThanOrEqual">
       <formula>H68</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82:AK82">
-    <cfRule type="cellIs" dxfId="51" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82:AK82">
-    <cfRule type="cellIs" dxfId="50" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="cellIs" dxfId="49" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:AK78">
-    <cfRule type="cellIs" dxfId="48" priority="14" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThanOrEqual">
       <formula>H80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94:AK94">
-    <cfRule type="cellIs" dxfId="47" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94:AK94">
-    <cfRule type="cellIs" dxfId="46" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="cellIs" dxfId="45" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90:AK90">
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThanOrEqual">
       <formula>H92</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:AK9">
-    <cfRule type="cellIs" dxfId="43" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="notEqual">
       <formula>H9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21228,20 +19429,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="170">
+      <c r="A1" s="171">
         <v>43862</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="172"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="173"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="117" t="s">
@@ -21681,20 +19882,20 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="170">
+      <c r="A16" s="171">
         <v>43891</v>
       </c>
-      <c r="B16" s="171"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="172"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="173"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="117" t="s">
@@ -22013,10 +20214,10 @@
       <c r="A1" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="176">
+      <c r="B1" s="174">
         <v>0.51</v>
       </c>
-      <c r="C1" s="176"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="100"/>
       <c r="E1" s="109"/>
       <c r="F1" s="100"/>
@@ -22025,10 +20226,10 @@
       <c r="A2" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="176">
+      <c r="B2" s="174">
         <v>0.54</v>
       </c>
-      <c r="C2" s="176"/>
+      <c r="C2" s="174"/>
       <c r="D2" s="104"/>
       <c r="E2" s="109"/>
       <c r="F2" s="100"/>
@@ -22037,10 +20238,10 @@
       <c r="A3" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="176">
+      <c r="B3" s="174">
         <v>0.51</v>
       </c>
-      <c r="C3" s="176"/>
+      <c r="C3" s="174"/>
       <c r="D3" s="104"/>
       <c r="E3" s="109"/>
       <c r="F3" s="100"/>
@@ -22049,10 +20250,10 @@
       <c r="A4" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="176">
+      <c r="B4" s="174">
         <v>0.54</v>
       </c>
-      <c r="C4" s="176"/>
+      <c r="C4" s="174"/>
       <c r="D4" s="100"/>
       <c r="E4" s="109"/>
       <c r="F4" s="100"/>
@@ -22087,14 +20288,14 @@
       <c r="A8" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="175" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="175">
+      <c r="C8" s="176">
         <v>1</v>
       </c>
       <c r="D8" s="100"/>
-      <c r="E8" s="173">
+      <c r="E8" s="177">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -22104,10 +20305,10 @@
       <c r="A9" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
       <c r="D9" s="100"/>
-      <c r="E9" s="173"/>
+      <c r="E9" s="177"/>
       <c r="F9" s="99"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -22140,14 +20341,14 @@
       <c r="A13" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="175" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="175">
+      <c r="C13" s="176">
         <v>1</v>
       </c>
       <c r="D13" s="100"/>
-      <c r="E13" s="173">
+      <c r="E13" s="177">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -22157,10 +20358,10 @@
       <c r="A14" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="174"/>
-      <c r="C14" s="174"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="175"/>
       <c r="D14" s="100"/>
-      <c r="E14" s="173"/>
+      <c r="E14" s="177"/>
       <c r="F14" s="99"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -22193,14 +20394,14 @@
       <c r="A18" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="B18" s="174" t="s">
+      <c r="B18" s="175" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="175">
+      <c r="C18" s="176">
         <v>1</v>
       </c>
       <c r="D18" s="100"/>
-      <c r="E18" s="173">
+      <c r="E18" s="177">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -22210,10 +20411,10 @@
       <c r="A19" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="174"/>
-      <c r="C19" s="174"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="175"/>
       <c r="D19" s="100"/>
-      <c r="E19" s="173"/>
+      <c r="E19" s="177"/>
       <c r="F19" s="99"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -22258,12 +20459,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -22271,6 +20466,12 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimke\OneDrive\Documents\investment and trading\stocks and equity\sandbox\WealthAndFreedom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="790" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B575676F-D1AC-455E-A6BD-EC738DF47681}"/>
+  <xr:revisionPtr revIDLastSave="791" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5D12780-E3FD-4C3E-A3C1-52CC23DF7C24}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="163">
   <si>
     <t>Pillar</t>
   </si>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>CHINHIN</t>
+  </si>
+  <si>
+    <t>KRETAM</t>
   </si>
 </sst>
 </file>
@@ -1998,6 +2001,36 @@
     <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2013,36 +2046,6 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2061,17 +2064,17 @@
     <xf numFmtId="170" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2080,97 +2083,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF00"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color auto="1"/>
@@ -2260,216 +2173,6 @@
           <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF7030A0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC00"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2807,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView topLeftCell="E89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+    <sheetView tabSelected="1" topLeftCell="E89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S104" sqref="S104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7678,7 +7381,9 @@
       <c r="P104" s="92"/>
       <c r="Q104" s="92"/>
       <c r="R104" s="93"/>
-      <c r="S104" s="90"/>
+      <c r="S104" s="90" t="s">
+        <v>162</v>
+      </c>
       <c r="T104" s="91"/>
       <c r="U104" s="92"/>
       <c r="V104" s="92"/>
@@ -9879,46 +9584,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:L124"/>
+    <mergeCell ref="M124:R124"/>
+    <mergeCell ref="S124:X124"/>
+    <mergeCell ref="Y124:AD124"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="G146:L146"/>
+    <mergeCell ref="M146:R146"/>
+    <mergeCell ref="S146:X146"/>
+    <mergeCell ref="Y146:AD146"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="S1:X1"/>
     <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="G146:L146"/>
-    <mergeCell ref="M146:R146"/>
-    <mergeCell ref="S146:X146"/>
-    <mergeCell ref="Y146:AD146"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:L124"/>
-    <mergeCell ref="M124:R124"/>
-    <mergeCell ref="S124:X124"/>
-    <mergeCell ref="Y124:AD124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9928,7 +9633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED89D17-A91E-4178-9F5B-04D57FA79EE7}">
   <dimension ref="A1:AK24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" ySplit="12" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
@@ -10089,13 +9794,13 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="150" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
       <c r="F2" s="95"/>
       <c r="G2" s="18" t="s">
         <v>72</v>
@@ -10192,14 +9897,14 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="160"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="155"/>
       <c r="G3" s="24" t="s">
         <v>104</v>
       </c>
@@ -10247,10 +9952,10 @@
         <f>IF(ISBLANK(F2),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F2), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E4" s="161" t="s">
+      <c r="E4" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="162"/>
+      <c r="F4" s="157"/>
       <c r="G4" s="13" t="s">
         <v>107</v>
       </c>
@@ -10327,8 +10032,8 @@
       <c r="AK5" s="9"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="164"/>
+      <c r="A6" s="158"/>
+      <c r="B6" s="159"/>
       <c r="C6" s="56"/>
       <c r="D6" s="58" t="s">
         <v>109</v>
@@ -10836,10 +10541,10 @@
       <c r="D11" s="30">
         <v>0</v>
       </c>
-      <c r="E11" s="150" t="s">
+      <c r="E11" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="151"/>
+      <c r="F11" s="161"/>
       <c r="G11" s="63" t="s">
         <v>120</v>
       </c>
@@ -11146,13 +10851,13 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="155" t="s">
+      <c r="A14" s="150" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="156"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
       <c r="F14" s="95"/>
       <c r="G14" s="18" t="s">
         <v>72</v>
@@ -11249,14 +10954,14 @@
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="157" t="s">
+      <c r="A15" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="158"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="160"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="155"/>
       <c r="G15" s="24" t="s">
         <v>104</v>
       </c>
@@ -11304,10 +11009,10 @@
         <f>IF(ISBLANK(F14),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F14), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E16" s="161" t="s">
+      <c r="E16" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="162"/>
+      <c r="F16" s="157"/>
       <c r="G16" s="13" t="s">
         <v>107</v>
       </c>
@@ -11384,8 +11089,8 @@
       <c r="AK17" s="9"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="163"/>
-      <c r="B18" s="164"/>
+      <c r="A18" s="158"/>
+      <c r="B18" s="159"/>
       <c r="C18" s="56"/>
       <c r="D18" s="58" t="s">
         <v>109</v>
@@ -11893,10 +11598,10 @@
       <c r="D23" s="30">
         <v>0</v>
       </c>
-      <c r="E23" s="150" t="s">
+      <c r="E23" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="151"/>
+      <c r="F23" s="161"/>
       <c r="G23" s="63" t="s">
         <v>120</v>
       </c>
@@ -12022,51 +11727,46 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="152"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="153"/>
-      <c r="R24" s="153"/>
-      <c r="S24" s="153"/>
-      <c r="T24" s="153"/>
-      <c r="U24" s="153"/>
-      <c r="V24" s="153"/>
-      <c r="W24" s="153"/>
-      <c r="X24" s="153"/>
-      <c r="Y24" s="153"/>
-      <c r="Z24" s="153"/>
-      <c r="AA24" s="153"/>
-      <c r="AB24" s="153"/>
-      <c r="AC24" s="153"/>
-      <c r="AD24" s="153"/>
-      <c r="AE24" s="153"/>
-      <c r="AF24" s="153"/>
-      <c r="AG24" s="153"/>
-      <c r="AH24" s="153"/>
-      <c r="AI24" s="153"/>
-      <c r="AJ24" s="153"/>
-      <c r="AK24" s="154"/>
+      <c r="A24" s="162"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="163"/>
+      <c r="P24" s="163"/>
+      <c r="Q24" s="163"/>
+      <c r="R24" s="163"/>
+      <c r="S24" s="163"/>
+      <c r="T24" s="163"/>
+      <c r="U24" s="163"/>
+      <c r="V24" s="163"/>
+      <c r="W24" s="163"/>
+      <c r="X24" s="163"/>
+      <c r="Y24" s="163"/>
+      <c r="Z24" s="163"/>
+      <c r="AA24" s="163"/>
+      <c r="AB24" s="163"/>
+      <c r="AC24" s="163"/>
+      <c r="AD24" s="163"/>
+      <c r="AE24" s="163"/>
+      <c r="AF24" s="163"/>
+      <c r="AG24" s="163"/>
+      <c r="AH24" s="163"/>
+      <c r="AI24" s="163"/>
+      <c r="AJ24" s="163"/>
+      <c r="AK24" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E23:F23"/>
     <mergeCell ref="A24:AK24"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:F3"/>
@@ -12074,50 +11774,55 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="A12:AK12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H10:AK10">
-    <cfRule type="cellIs" dxfId="37" priority="165" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="165" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:AK10">
-    <cfRule type="cellIs" dxfId="36" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="164" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="35" priority="161" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="161" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:AK6">
-    <cfRule type="cellIs" dxfId="24" priority="62" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="62" operator="lessThanOrEqual">
       <formula>H8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:AK22">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:AK22">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="notEqual">
       <formula>"&lt;name&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:AK18">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="lessThanOrEqual">
       <formula>H20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:AK9">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="notEqual">
       <formula>H9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12941,10 +12646,10 @@
       <c r="A1" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="174">
+      <c r="B1" s="171">
         <v>0.51</v>
       </c>
-      <c r="C1" s="174"/>
+      <c r="C1" s="171"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -12953,10 +12658,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="174">
+      <c r="B2" s="171">
         <v>0.54</v>
       </c>
-      <c r="C2" s="174"/>
+      <c r="C2" s="171"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -12965,10 +12670,10 @@
       <c r="A3" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="174">
+      <c r="B3" s="171">
         <v>0.51</v>
       </c>
-      <c r="C3" s="174"/>
+      <c r="C3" s="171"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -12977,10 +12682,10 @@
       <c r="A4" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="174">
+      <c r="B4" s="171">
         <v>0.54</v>
       </c>
-      <c r="C4" s="174"/>
+      <c r="C4" s="171"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -13022,7 +12727,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="171">
+      <c r="E8" s="174">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -13035,7 +12740,7 @@
       <c r="B9" s="172"/>
       <c r="C9" s="172"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="171"/>
+      <c r="E9" s="174"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -13075,7 +12780,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="171">
+      <c r="E13" s="174">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -13088,7 +12793,7 @@
       <c r="B14" s="172"/>
       <c r="C14" s="172"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="171"/>
+      <c r="E14" s="174"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -13128,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="171">
+      <c r="E18" s="174">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -13141,7 +12846,7 @@
       <c r="B19" s="172"/>
       <c r="C19" s="172"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="171"/>
+      <c r="E19" s="174"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -13186,12 +12891,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -13199,6 +12898,12 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimke\OneDrive\Documents\investment and trading\stocks and equity\sandbox\WealthAndFreedom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="791" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5D12780-E3FD-4C3E-A3C1-52CC23DF7C24}"/>
+  <xr:revisionPtr revIDLastSave="796" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B96A9620-9E42-478A-9FA0-CFC4D9410C89}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="930" yWindow="3360" windowWidth="27870" windowHeight="12840" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="166">
   <si>
     <t>Pillar</t>
   </si>
@@ -525,6 +525,15 @@
   </si>
   <si>
     <t>KRETAM</t>
+  </si>
+  <si>
+    <t>EWINT</t>
+  </si>
+  <si>
+    <t>KAREX</t>
+  </si>
+  <si>
+    <t>MALAKOF</t>
   </si>
 </sst>
 </file>
@@ -2001,6 +2010,15 @@
     <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2037,15 +2055,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2064,17 +2073,17 @@
     <xf numFmtId="170" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2510,8 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S104" sqref="S104"/>
+    <sheetView tabSelected="1" topLeftCell="K89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W98" sqref="W98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7389,7 +7398,9 @@
       <c r="V104" s="92"/>
       <c r="W104" s="92"/>
       <c r="X104" s="93"/>
-      <c r="Y104" s="90"/>
+      <c r="Y104" s="90" t="s">
+        <v>163</v>
+      </c>
       <c r="Z104" s="91"/>
       <c r="AA104" s="92"/>
       <c r="AB104" s="92"/>
@@ -7423,7 +7434,9 @@
       <c r="V105" s="92"/>
       <c r="W105" s="92"/>
       <c r="X105" s="93"/>
-      <c r="Y105" s="90"/>
+      <c r="Y105" s="90" t="s">
+        <v>164</v>
+      </c>
       <c r="Z105" s="91"/>
       <c r="AA105" s="92"/>
       <c r="AB105" s="92"/>
@@ -7457,7 +7470,9 @@
       <c r="V106" s="92"/>
       <c r="W106" s="92"/>
       <c r="X106" s="93"/>
-      <c r="Y106" s="90"/>
+      <c r="Y106" s="90" t="s">
+        <v>34</v>
+      </c>
       <c r="Z106" s="91"/>
       <c r="AA106" s="92"/>
       <c r="AB106" s="92"/>
@@ -7491,7 +7506,9 @@
       <c r="V107" s="92"/>
       <c r="W107" s="92"/>
       <c r="X107" s="93"/>
-      <c r="Y107" s="90"/>
+      <c r="Y107" s="90" t="s">
+        <v>165</v>
+      </c>
       <c r="Z107" s="91"/>
       <c r="AA107" s="92"/>
       <c r="AB107" s="92"/>
@@ -7525,7 +7542,9 @@
       <c r="V108" s="92"/>
       <c r="W108" s="92"/>
       <c r="X108" s="93"/>
-      <c r="Y108" s="90"/>
+      <c r="Y108" s="90" t="s">
+        <v>62</v>
+      </c>
       <c r="Z108" s="91"/>
       <c r="AA108" s="92"/>
       <c r="AB108" s="92"/>
@@ -9584,46 +9603,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="G146:L146"/>
+    <mergeCell ref="M146:R146"/>
+    <mergeCell ref="S146:X146"/>
+    <mergeCell ref="Y146:AD146"/>
     <mergeCell ref="A124:F124"/>
     <mergeCell ref="G124:L124"/>
     <mergeCell ref="M124:R124"/>
     <mergeCell ref="S124:X124"/>
     <mergeCell ref="Y124:AD124"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="G146:L146"/>
-    <mergeCell ref="M146:R146"/>
-    <mergeCell ref="S146:X146"/>
-    <mergeCell ref="Y146:AD146"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9794,13 +9813,13 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
       <c r="F2" s="95"/>
       <c r="G2" s="18" t="s">
         <v>72</v>
@@ -9897,14 +9916,14 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="155"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="158"/>
       <c r="G3" s="24" t="s">
         <v>104</v>
       </c>
@@ -9952,10 +9971,10 @@
         <f>IF(ISBLANK(F2),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F2), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E4" s="156" t="s">
+      <c r="E4" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="157"/>
+      <c r="F4" s="160"/>
       <c r="G4" s="13" t="s">
         <v>107</v>
       </c>
@@ -10032,8 +10051,8 @@
       <c r="AK5" s="9"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="158"/>
-      <c r="B6" s="159"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="56"/>
       <c r="D6" s="58" t="s">
         <v>109</v>
@@ -10541,10 +10560,10 @@
       <c r="D11" s="30">
         <v>0</v>
       </c>
-      <c r="E11" s="160" t="s">
+      <c r="E11" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="161"/>
+      <c r="F11" s="164"/>
       <c r="G11" s="63" t="s">
         <v>120</v>
       </c>
@@ -10851,13 +10870,13 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="150" t="s">
+      <c r="A14" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
       <c r="F14" s="95"/>
       <c r="G14" s="18" t="s">
         <v>72</v>
@@ -10954,14 +10973,14 @@
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="152" t="s">
+      <c r="A15" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="153"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="155"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="158"/>
       <c r="G15" s="24" t="s">
         <v>104</v>
       </c>
@@ -11009,10 +11028,10 @@
         <f>IF(ISBLANK(F14),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F14), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E16" s="156" t="s">
+      <c r="E16" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="157"/>
+      <c r="F16" s="160"/>
       <c r="G16" s="13" t="s">
         <v>107</v>
       </c>
@@ -11089,8 +11108,8 @@
       <c r="AK17" s="9"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="158"/>
-      <c r="B18" s="159"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="162"/>
       <c r="C18" s="56"/>
       <c r="D18" s="58" t="s">
         <v>109</v>
@@ -11598,10 +11617,10 @@
       <c r="D23" s="30">
         <v>0</v>
       </c>
-      <c r="E23" s="160" t="s">
+      <c r="E23" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="161"/>
+      <c r="F23" s="164"/>
       <c r="G23" s="63" t="s">
         <v>120</v>
       </c>
@@ -11727,43 +11746,43 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="162"/>
-      <c r="B24" s="163"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="163"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="163"/>
-      <c r="S24" s="163"/>
-      <c r="T24" s="163"/>
-      <c r="U24" s="163"/>
-      <c r="V24" s="163"/>
-      <c r="W24" s="163"/>
-      <c r="X24" s="163"/>
-      <c r="Y24" s="163"/>
-      <c r="Z24" s="163"/>
-      <c r="AA24" s="163"/>
-      <c r="AB24" s="163"/>
-      <c r="AC24" s="163"/>
-      <c r="AD24" s="163"/>
-      <c r="AE24" s="163"/>
-      <c r="AF24" s="163"/>
-      <c r="AG24" s="163"/>
-      <c r="AH24" s="163"/>
-      <c r="AI24" s="163"/>
-      <c r="AJ24" s="163"/>
-      <c r="AK24" s="164"/>
+      <c r="A24" s="150"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="151"/>
+      <c r="R24" s="151"/>
+      <c r="S24" s="151"/>
+      <c r="T24" s="151"/>
+      <c r="U24" s="151"/>
+      <c r="V24" s="151"/>
+      <c r="W24" s="151"/>
+      <c r="X24" s="151"/>
+      <c r="Y24" s="151"/>
+      <c r="Z24" s="151"/>
+      <c r="AA24" s="151"/>
+      <c r="AB24" s="151"/>
+      <c r="AC24" s="151"/>
+      <c r="AD24" s="151"/>
+      <c r="AE24" s="151"/>
+      <c r="AF24" s="151"/>
+      <c r="AG24" s="151"/>
+      <c r="AH24" s="151"/>
+      <c r="AI24" s="151"/>
+      <c r="AJ24" s="151"/>
+      <c r="AK24" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -12646,10 +12665,10 @@
       <c r="A1" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="171">
+      <c r="B1" s="174">
         <v>0.51</v>
       </c>
-      <c r="C1" s="171"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -12658,10 +12677,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="171">
+      <c r="B2" s="174">
         <v>0.54</v>
       </c>
-      <c r="C2" s="171"/>
+      <c r="C2" s="174"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -12670,10 +12689,10 @@
       <c r="A3" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="171">
+      <c r="B3" s="174">
         <v>0.51</v>
       </c>
-      <c r="C3" s="171"/>
+      <c r="C3" s="174"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -12682,10 +12701,10 @@
       <c r="A4" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="171">
+      <c r="B4" s="174">
         <v>0.54</v>
       </c>
-      <c r="C4" s="171"/>
+      <c r="C4" s="174"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -12727,7 +12746,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="174">
+      <c r="E8" s="171">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -12740,7 +12759,7 @@
       <c r="B9" s="172"/>
       <c r="C9" s="172"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="174"/>
+      <c r="E9" s="171"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -12780,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="174">
+      <c r="E13" s="171">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -12793,7 +12812,7 @@
       <c r="B14" s="172"/>
       <c r="C14" s="172"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="174"/>
+      <c r="E14" s="171"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -12833,7 +12852,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="174">
+      <c r="E18" s="171">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -12846,7 +12865,7 @@
       <c r="B19" s="172"/>
       <c r="C19" s="172"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="174"/>
+      <c r="E19" s="171"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12891,6 +12910,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -12898,12 +12923,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="796" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B96A9620-9E42-478A-9FA0-CFC4D9410C89}"/>
+  <xr:revisionPtr revIDLastSave="813" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3748680D-59E7-4AFC-A36A-0DC4539711CC}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="3360" windowWidth="27870" windowHeight="12840" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="168">
   <si>
     <t>Pillar</t>
   </si>
@@ -534,6 +534,12 @@
   </si>
   <si>
     <t>MALAKOF</t>
+  </si>
+  <si>
+    <t>SIMEPLT</t>
+  </si>
+  <si>
+    <t>DAYANG (5141)</t>
   </si>
 </sst>
 </file>
@@ -2073,17 +2079,17 @@
     <xf numFmtId="170" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2519,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W98" sqref="W98"/>
+    <sheetView topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8183,7 +8189,9 @@
       </c>
     </row>
     <row r="126" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="90"/>
+      <c r="A126" s="90" t="s">
+        <v>166</v>
+      </c>
       <c r="B126" s="91"/>
       <c r="C126" s="92"/>
       <c r="D126" s="92"/>
@@ -9603,46 +9611,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:L124"/>
+    <mergeCell ref="M124:R124"/>
+    <mergeCell ref="S124:X124"/>
+    <mergeCell ref="Y124:AD124"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="G146:L146"/>
+    <mergeCell ref="M146:R146"/>
+    <mergeCell ref="S146:X146"/>
+    <mergeCell ref="Y146:AD146"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="S1:X1"/>
     <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="G146:L146"/>
-    <mergeCell ref="M146:R146"/>
-    <mergeCell ref="S146:X146"/>
-    <mergeCell ref="Y146:AD146"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:L124"/>
-    <mergeCell ref="M124:R124"/>
-    <mergeCell ref="S124:X124"/>
-    <mergeCell ref="Y124:AD124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9656,7 +9664,7 @@
       <pane xSplit="7" ySplit="12" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11859,8 +11867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1730B555-17C4-4D71-B0CF-5EA2C5243D66}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12387,23 +12395,34 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="131"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="134"/>
+      <c r="A18" s="139">
+        <v>43906</v>
+      </c>
+      <c r="B18" s="132" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="133">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="D18" s="134">
+        <v>25000</v>
+      </c>
       <c r="E18" s="135"/>
-      <c r="F18" s="136"/>
+      <c r="F18" s="136">
+        <f>C18*D18</f>
+        <v>23650</v>
+      </c>
       <c r="G18" s="137"/>
       <c r="H18" s="133"/>
       <c r="I18" s="134"/>
       <c r="J18" s="138"/>
-      <c r="K18" s="112" t="e">
+      <c r="K18" s="112">
         <f>L18/F18</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="L18" s="80">
         <f>SUM(H18*I18)-F18-E18-J18</f>
-        <v>0</v>
+        <v>-23650</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -12412,17 +12431,20 @@
       <c r="C19" s="128"/>
       <c r="D19" s="74"/>
       <c r="E19" s="75"/>
-      <c r="F19" s="76"/>
+      <c r="F19" s="76">
+        <f t="shared" ref="F19:F28" si="6">C19*D19</f>
+        <v>0</v>
+      </c>
       <c r="G19" s="127"/>
       <c r="H19" s="128"/>
       <c r="I19" s="74"/>
       <c r="J19" s="140"/>
       <c r="K19" s="113" t="e">
-        <f t="shared" ref="K19:K21" si="6">L19/F19</f>
+        <f t="shared" ref="K19:K21" si="7">L19/F19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L19" s="77">
-        <f t="shared" ref="L19:L21" si="7">SUM(H19*I19)-F19-E19-J19</f>
+        <f t="shared" ref="L19:L21" si="8">SUM(H19*I19)-F19-E19-J19</f>
         <v>0</v>
       </c>
     </row>
@@ -12432,17 +12454,20 @@
       <c r="C20" s="128"/>
       <c r="D20" s="74"/>
       <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
+      <c r="F20" s="76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G20" s="127"/>
       <c r="H20" s="128"/>
       <c r="I20" s="74"/>
       <c r="J20" s="140"/>
       <c r="K20" s="113" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L20" s="77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12452,17 +12477,20 @@
       <c r="C21" s="128"/>
       <c r="D21" s="74"/>
       <c r="E21" s="75"/>
-      <c r="F21" s="76"/>
+      <c r="F21" s="76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G21" s="127"/>
       <c r="H21" s="128"/>
       <c r="I21" s="74"/>
       <c r="J21" s="140"/>
       <c r="K21" s="113" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L21" s="77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12472,7 +12500,10 @@
       <c r="C22" s="128"/>
       <c r="D22" s="74"/>
       <c r="E22" s="75"/>
-      <c r="F22" s="76"/>
+      <c r="F22" s="76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G22" s="127"/>
       <c r="H22" s="128"/>
       <c r="I22" s="74"/>
@@ -12482,7 +12513,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L22" s="77">
-        <f t="shared" ref="L22" si="8">SUM(H22*I22)-F22-E22-J22</f>
+        <f t="shared" ref="L22" si="9">SUM(H22*I22)-F22-E22-J22</f>
         <v>0</v>
       </c>
     </row>
@@ -12492,17 +12523,20 @@
       <c r="C23" s="128"/>
       <c r="D23" s="74"/>
       <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
+      <c r="F23" s="76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G23" s="127"/>
       <c r="H23" s="128"/>
       <c r="I23" s="74"/>
       <c r="J23" s="140"/>
       <c r="K23" s="113" t="e">
-        <f t="shared" ref="K23:K28" si="9">L23/F23</f>
+        <f t="shared" ref="K23:K28" si="10">L23/F23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L23" s="77">
-        <f t="shared" ref="L23:L28" si="10">SUM(H23*I23)-F23-E23-J23</f>
+        <f t="shared" ref="L23:L28" si="11">SUM(H23*I23)-F23-E23-J23</f>
         <v>0</v>
       </c>
     </row>
@@ -12512,17 +12546,20 @@
       <c r="C24" s="128"/>
       <c r="D24" s="74"/>
       <c r="E24" s="75"/>
-      <c r="F24" s="76"/>
+      <c r="F24" s="76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G24" s="127"/>
       <c r="H24" s="128"/>
       <c r="I24" s="74"/>
       <c r="J24" s="140"/>
       <c r="K24" s="113" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L24" s="77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12532,17 +12569,20 @@
       <c r="C25" s="128"/>
       <c r="D25" s="74"/>
       <c r="E25" s="75"/>
-      <c r="F25" s="76"/>
+      <c r="F25" s="76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G25" s="73"/>
       <c r="H25" s="128"/>
       <c r="I25" s="74"/>
       <c r="J25" s="140"/>
       <c r="K25" s="113" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L25" s="77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12552,17 +12592,20 @@
       <c r="C26" s="128"/>
       <c r="D26" s="74"/>
       <c r="E26" s="75"/>
-      <c r="F26" s="76"/>
+      <c r="F26" s="76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G26" s="73"/>
       <c r="H26" s="128"/>
       <c r="I26" s="74"/>
       <c r="J26" s="140"/>
       <c r="K26" s="113" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12572,17 +12615,20 @@
       <c r="C27" s="128"/>
       <c r="D27" s="74"/>
       <c r="E27" s="75"/>
-      <c r="F27" s="76"/>
+      <c r="F27" s="76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G27" s="73"/>
       <c r="H27" s="128"/>
       <c r="I27" s="74"/>
       <c r="J27" s="140"/>
       <c r="K27" s="113" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L27" s="77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12592,17 +12638,20 @@
       <c r="C28" s="143"/>
       <c r="D28" s="144"/>
       <c r="E28" s="145"/>
-      <c r="F28" s="146"/>
+      <c r="F28" s="146">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G28" s="147"/>
       <c r="H28" s="143"/>
       <c r="I28" s="144"/>
       <c r="J28" s="148"/>
       <c r="K28" s="114" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12634,7 +12683,7 @@
       </c>
       <c r="L29" s="82">
         <f>SUM(L18:L28)</f>
-        <v>0</v>
+        <v>-23650</v>
       </c>
     </row>
   </sheetData>
@@ -12665,10 +12714,10 @@
       <c r="A1" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="174">
+      <c r="B1" s="171">
         <v>0.51</v>
       </c>
-      <c r="C1" s="174"/>
+      <c r="C1" s="171"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -12677,10 +12726,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="174">
+      <c r="B2" s="171">
         <v>0.54</v>
       </c>
-      <c r="C2" s="174"/>
+      <c r="C2" s="171"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -12689,10 +12738,10 @@
       <c r="A3" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="174">
+      <c r="B3" s="171">
         <v>0.51</v>
       </c>
-      <c r="C3" s="174"/>
+      <c r="C3" s="171"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -12701,10 +12750,10 @@
       <c r="A4" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="174">
+      <c r="B4" s="171">
         <v>0.54</v>
       </c>
-      <c r="C4" s="174"/>
+      <c r="C4" s="171"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -12746,7 +12795,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="171">
+      <c r="E8" s="174">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -12759,7 +12808,7 @@
       <c r="B9" s="172"/>
       <c r="C9" s="172"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="171"/>
+      <c r="E9" s="174"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -12799,7 +12848,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="171">
+      <c r="E13" s="174">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -12812,7 +12861,7 @@
       <c r="B14" s="172"/>
       <c r="C14" s="172"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="171"/>
+      <c r="E14" s="174"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -12852,7 +12901,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="171">
+      <c r="E18" s="174">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -12865,7 +12914,7 @@
       <c r="B19" s="172"/>
       <c r="C19" s="172"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="171"/>
+      <c r="E19" s="174"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12910,12 +12959,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -12923,6 +12966,12 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="813" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3748680D-59E7-4AFC-A36A-0DC4539711CC}"/>
+  <xr:revisionPtr revIDLastSave="957" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F96EF1CA-39E9-4C1B-90D3-DCD0D95F58A0}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="22005" yWindow="-360" windowWidth="27870" windowHeight="12840" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
     <sheet name="MONITOR" sheetId="1" r:id="rId2"/>
     <sheet name="TRADE" sheetId="2" r:id="rId3"/>
-    <sheet name="joey_calculator" sheetId="4" r:id="rId4"/>
+    <sheet name="BROKERAGE_CALCULATOR" sheetId="6" r:id="rId4"/>
+    <sheet name="joey_calculator" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="192">
   <si>
     <t>Pillar</t>
   </si>
@@ -540,6 +541,78 @@
   </si>
   <si>
     <t>DAYANG (5141)</t>
+  </si>
+  <si>
+    <t>Buy / Sell Price</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Stamping</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>M+ Platform</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>Clearing Fees</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total B&amp;S Brokerage</t>
+  </si>
+  <si>
+    <t>Price Change</t>
+  </si>
+  <si>
+    <t>Number of units</t>
+  </si>
+  <si>
+    <t>(Next) Number of lot</t>
+  </si>
+  <si>
+    <t>DSONIC</t>
+  </si>
+  <si>
+    <t>MFCB</t>
+  </si>
+  <si>
+    <t>BJTOTO</t>
+  </si>
+  <si>
+    <t>PENTA</t>
+  </si>
+  <si>
+    <t>GAMUDA</t>
+  </si>
+  <si>
+    <t>GENM</t>
+  </si>
+  <si>
+    <t>DRBHCOM</t>
+  </si>
+  <si>
+    <t>WPRTS</t>
+  </si>
+  <si>
+    <t>DPHARMA</t>
+  </si>
+  <si>
+    <t>SUPERMX</t>
+  </si>
+  <si>
+    <t>SIME</t>
+  </si>
+  <si>
+    <t>AMBANK</t>
   </si>
 </sst>
 </file>
@@ -729,7 +802,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,8 +953,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="53">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1557,6 +1636,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1564,7 +1708,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2079,16 +2223,79 @@
     <xf numFmtId="170" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="2" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="26" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="13" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2523,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
-  <dimension ref="A1:AD167"/>
+  <dimension ref="A1:AD177"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J107" sqref="J107"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8197,7 +8404,9 @@
       <c r="D126" s="92"/>
       <c r="E126" s="92"/>
       <c r="F126" s="93"/>
-      <c r="G126" s="90"/>
+      <c r="G126" s="90" t="s">
+        <v>180</v>
+      </c>
       <c r="H126" s="91"/>
       <c r="I126" s="92"/>
       <c r="J126" s="92"/>
@@ -8229,7 +8438,9 @@
       <c r="D127" s="92"/>
       <c r="E127" s="92"/>
       <c r="F127" s="93"/>
-      <c r="G127" s="90"/>
+      <c r="G127" s="90" t="s">
+        <v>43</v>
+      </c>
       <c r="H127" s="91"/>
       <c r="I127" s="92"/>
       <c r="J127" s="92"/>
@@ -8261,7 +8472,9 @@
       <c r="D128" s="92"/>
       <c r="E128" s="92"/>
       <c r="F128" s="93"/>
-      <c r="G128" s="90"/>
+      <c r="G128" s="90" t="s">
+        <v>181</v>
+      </c>
       <c r="H128" s="91"/>
       <c r="I128" s="92"/>
       <c r="J128" s="92"/>
@@ -8293,7 +8506,9 @@
       <c r="D129" s="92"/>
       <c r="E129" s="92"/>
       <c r="F129" s="93"/>
-      <c r="G129" s="90"/>
+      <c r="G129" s="90" t="s">
+        <v>19</v>
+      </c>
       <c r="H129" s="91"/>
       <c r="I129" s="92"/>
       <c r="J129" s="92"/>
@@ -8325,7 +8540,9 @@
       <c r="D130" s="92"/>
       <c r="E130" s="92"/>
       <c r="F130" s="93"/>
-      <c r="G130" s="90"/>
+      <c r="G130" s="90" t="s">
+        <v>33</v>
+      </c>
       <c r="H130" s="91"/>
       <c r="I130" s="92"/>
       <c r="J130" s="92"/>
@@ -8357,7 +8574,9 @@
       <c r="D131" s="92"/>
       <c r="E131" s="92"/>
       <c r="F131" s="93"/>
-      <c r="G131" s="90"/>
+      <c r="G131" s="90" t="s">
+        <v>182</v>
+      </c>
       <c r="H131" s="91"/>
       <c r="I131" s="92"/>
       <c r="J131" s="92"/>
@@ -8389,7 +8608,9 @@
       <c r="D132" s="92"/>
       <c r="E132" s="92"/>
       <c r="F132" s="93"/>
-      <c r="G132" s="90"/>
+      <c r="G132" s="90" t="s">
+        <v>183</v>
+      </c>
       <c r="H132" s="91"/>
       <c r="I132" s="92"/>
       <c r="J132" s="92"/>
@@ -8421,7 +8642,9 @@
       <c r="D133" s="92"/>
       <c r="E133" s="92"/>
       <c r="F133" s="93"/>
-      <c r="G133" s="90"/>
+      <c r="G133" s="90" t="s">
+        <v>46</v>
+      </c>
       <c r="H133" s="91"/>
       <c r="I133" s="92"/>
       <c r="J133" s="92"/>
@@ -8453,7 +8676,9 @@
       <c r="D134" s="92"/>
       <c r="E134" s="92"/>
       <c r="F134" s="93"/>
-      <c r="G134" s="90"/>
+      <c r="G134" s="90" t="s">
+        <v>184</v>
+      </c>
       <c r="H134" s="91"/>
       <c r="I134" s="92"/>
       <c r="J134" s="92"/>
@@ -8485,7 +8710,9 @@
       <c r="D135" s="92"/>
       <c r="E135" s="92"/>
       <c r="F135" s="93"/>
-      <c r="G135" s="90"/>
+      <c r="G135" s="90" t="s">
+        <v>185</v>
+      </c>
       <c r="H135" s="91"/>
       <c r="I135" s="92"/>
       <c r="J135" s="92"/>
@@ -8517,7 +8744,9 @@
       <c r="D136" s="92"/>
       <c r="E136" s="92"/>
       <c r="F136" s="93"/>
-      <c r="G136" s="90"/>
+      <c r="G136" s="90" t="s">
+        <v>186</v>
+      </c>
       <c r="H136" s="91"/>
       <c r="I136" s="92"/>
       <c r="J136" s="92"/>
@@ -8549,7 +8778,9 @@
       <c r="D137" s="92"/>
       <c r="E137" s="92"/>
       <c r="F137" s="93"/>
-      <c r="G137" s="90"/>
+      <c r="G137" s="90" t="s">
+        <v>187</v>
+      </c>
       <c r="H137" s="91"/>
       <c r="I137" s="92"/>
       <c r="J137" s="92"/>
@@ -8581,7 +8812,9 @@
       <c r="D138" s="92"/>
       <c r="E138" s="92"/>
       <c r="F138" s="93"/>
-      <c r="G138" s="90"/>
+      <c r="G138" s="90" t="s">
+        <v>188</v>
+      </c>
       <c r="H138" s="91"/>
       <c r="I138" s="92"/>
       <c r="J138" s="92"/>
@@ -8613,7 +8846,9 @@
       <c r="D139" s="92"/>
       <c r="E139" s="92"/>
       <c r="F139" s="93"/>
-      <c r="G139" s="90"/>
+      <c r="G139" s="90" t="s">
+        <v>35</v>
+      </c>
       <c r="H139" s="91"/>
       <c r="I139" s="92"/>
       <c r="J139" s="92"/>
@@ -8645,7 +8880,9 @@
       <c r="D140" s="92"/>
       <c r="E140" s="92"/>
       <c r="F140" s="93"/>
-      <c r="G140" s="90"/>
+      <c r="G140" s="90" t="s">
+        <v>189</v>
+      </c>
       <c r="H140" s="91"/>
       <c r="I140" s="92"/>
       <c r="J140" s="92"/>
@@ -8677,7 +8914,9 @@
       <c r="D141" s="92"/>
       <c r="E141" s="92"/>
       <c r="F141" s="93"/>
-      <c r="G141" s="90"/>
+      <c r="G141" s="90" t="s">
+        <v>190</v>
+      </c>
       <c r="H141" s="91"/>
       <c r="I141" s="92"/>
       <c r="J141" s="92"/>
@@ -8709,7 +8948,9 @@
       <c r="D142" s="92"/>
       <c r="E142" s="92"/>
       <c r="F142" s="93"/>
-      <c r="G142" s="90"/>
+      <c r="G142" s="90" t="s">
+        <v>191</v>
+      </c>
       <c r="H142" s="91"/>
       <c r="I142" s="92"/>
       <c r="J142" s="92"/>
@@ -8741,7 +8982,9 @@
       <c r="D143" s="92"/>
       <c r="E143" s="92"/>
       <c r="F143" s="93"/>
-      <c r="G143" s="90"/>
+      <c r="G143" s="90" t="s">
+        <v>26</v>
+      </c>
       <c r="H143" s="91"/>
       <c r="I143" s="92"/>
       <c r="J143" s="92"/>
@@ -8773,7 +9016,9 @@
       <c r="D144" s="92"/>
       <c r="E144" s="92"/>
       <c r="F144" s="93"/>
-      <c r="G144" s="90"/>
+      <c r="G144" s="90" t="s">
+        <v>25</v>
+      </c>
       <c r="H144" s="91"/>
       <c r="I144" s="92"/>
       <c r="J144" s="92"/>
@@ -8805,7 +9050,9 @@
       <c r="D145" s="92"/>
       <c r="E145" s="92"/>
       <c r="F145" s="93"/>
-      <c r="G145" s="90"/>
+      <c r="G145" s="90" t="s">
+        <v>60</v>
+      </c>
       <c r="H145" s="91"/>
       <c r="I145" s="92"/>
       <c r="J145" s="92"/>
@@ -8831,143 +9078,72 @@
       <c r="AD145" s="93"/>
     </row>
     <row r="146" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="149">
-        <f>A124+7</f>
-        <v>43913</v>
-      </c>
-      <c r="B146" s="149"/>
-      <c r="C146" s="149"/>
-      <c r="D146" s="149"/>
-      <c r="E146" s="149"/>
-      <c r="F146" s="149"/>
-      <c r="G146" s="149">
-        <f>A146+1</f>
-        <v>43914</v>
-      </c>
-      <c r="H146" s="149"/>
-      <c r="I146" s="149"/>
-      <c r="J146" s="149"/>
-      <c r="K146" s="149"/>
-      <c r="L146" s="149"/>
-      <c r="M146" s="149">
-        <f t="shared" ref="M146" si="21">G146+1</f>
-        <v>43915</v>
-      </c>
-      <c r="N146" s="149"/>
-      <c r="O146" s="149"/>
-      <c r="P146" s="149"/>
-      <c r="Q146" s="149"/>
-      <c r="R146" s="149"/>
-      <c r="S146" s="149">
-        <f t="shared" ref="S146" si="22">M146+1</f>
-        <v>43916</v>
-      </c>
-      <c r="T146" s="149"/>
-      <c r="U146" s="149"/>
-      <c r="V146" s="149"/>
-      <c r="W146" s="149"/>
-      <c r="X146" s="149"/>
-      <c r="Y146" s="149">
-        <f t="shared" ref="Y146" si="23">S146+1</f>
-        <v>43917</v>
-      </c>
-      <c r="Z146" s="149"/>
-      <c r="AA146" s="149"/>
-      <c r="AB146" s="149"/>
-      <c r="AC146" s="149"/>
-      <c r="AD146" s="149"/>
+      <c r="A146" s="90"/>
+      <c r="B146" s="91"/>
+      <c r="C146" s="92"/>
+      <c r="D146" s="92"/>
+      <c r="E146" s="92"/>
+      <c r="F146" s="93"/>
+      <c r="G146" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="H146" s="91"/>
+      <c r="I146" s="92"/>
+      <c r="J146" s="92"/>
+      <c r="K146" s="92"/>
+      <c r="L146" s="93"/>
+      <c r="M146" s="90"/>
+      <c r="N146" s="91"/>
+      <c r="O146" s="92"/>
+      <c r="P146" s="92"/>
+      <c r="Q146" s="92"/>
+      <c r="R146" s="93"/>
+      <c r="S146" s="90"/>
+      <c r="T146" s="91"/>
+      <c r="U146" s="92"/>
+      <c r="V146" s="92"/>
+      <c r="W146" s="92"/>
+      <c r="X146" s="93"/>
+      <c r="Y146" s="90"/>
+      <c r="Z146" s="91"/>
+      <c r="AA146" s="92"/>
+      <c r="AB146" s="92"/>
+      <c r="AC146" s="92"/>
+      <c r="AD146" s="93"/>
     </row>
     <row r="147" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B147" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C147" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="D147" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="E147" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="F147" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="G147" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="H147" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="I147" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="J147" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="K147" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="L147" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="M147" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="N147" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="O147" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="P147" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q147" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="R147" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="S147" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="T147" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="U147" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="V147" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="W147" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="X147" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y147" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z147" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA147" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB147" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC147" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD147" s="88" t="s">
-        <v>5</v>
-      </c>
+      <c r="A147" s="90"/>
+      <c r="B147" s="91"/>
+      <c r="C147" s="92"/>
+      <c r="D147" s="92"/>
+      <c r="E147" s="92"/>
+      <c r="F147" s="93"/>
+      <c r="G147" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="H147" s="91"/>
+      <c r="I147" s="92"/>
+      <c r="J147" s="92"/>
+      <c r="K147" s="92"/>
+      <c r="L147" s="93"/>
+      <c r="M147" s="90"/>
+      <c r="N147" s="91"/>
+      <c r="O147" s="92"/>
+      <c r="P147" s="92"/>
+      <c r="Q147" s="92"/>
+      <c r="R147" s="93"/>
+      <c r="S147" s="90"/>
+      <c r="T147" s="91"/>
+      <c r="U147" s="92"/>
+      <c r="V147" s="92"/>
+      <c r="W147" s="92"/>
+      <c r="X147" s="93"/>
+      <c r="Y147" s="90"/>
+      <c r="Z147" s="91"/>
+      <c r="AA147" s="92"/>
+      <c r="AB147" s="92"/>
+      <c r="AC147" s="92"/>
+      <c r="AD147" s="93"/>
     </row>
     <row r="148" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="90"/>
@@ -8976,7 +9152,9 @@
       <c r="D148" s="92"/>
       <c r="E148" s="92"/>
       <c r="F148" s="93"/>
-      <c r="G148" s="90"/>
+      <c r="G148" s="90" t="s">
+        <v>44</v>
+      </c>
       <c r="H148" s="91"/>
       <c r="I148" s="92"/>
       <c r="J148" s="92"/>
@@ -9008,7 +9186,9 @@
       <c r="D149" s="92"/>
       <c r="E149" s="92"/>
       <c r="F149" s="93"/>
-      <c r="G149" s="90"/>
+      <c r="G149" s="90" t="s">
+        <v>160</v>
+      </c>
       <c r="H149" s="91"/>
       <c r="I149" s="92"/>
       <c r="J149" s="92"/>
@@ -9040,7 +9220,9 @@
       <c r="D150" s="92"/>
       <c r="E150" s="92"/>
       <c r="F150" s="93"/>
-      <c r="G150" s="90"/>
+      <c r="G150" s="90" t="s">
+        <v>57</v>
+      </c>
       <c r="H150" s="91"/>
       <c r="I150" s="92"/>
       <c r="J150" s="92"/>
@@ -9072,7 +9254,9 @@
       <c r="D151" s="92"/>
       <c r="E151" s="92"/>
       <c r="F151" s="93"/>
-      <c r="G151" s="90"/>
+      <c r="G151" s="90" t="s">
+        <v>161</v>
+      </c>
       <c r="H151" s="91"/>
       <c r="I151" s="92"/>
       <c r="J151" s="92"/>
@@ -9104,7 +9288,9 @@
       <c r="D152" s="92"/>
       <c r="E152" s="92"/>
       <c r="F152" s="93"/>
-      <c r="G152" s="90"/>
+      <c r="G152" s="90" t="s">
+        <v>164</v>
+      </c>
       <c r="H152" s="91"/>
       <c r="I152" s="92"/>
       <c r="J152" s="92"/>
@@ -9136,7 +9322,9 @@
       <c r="D153" s="92"/>
       <c r="E153" s="92"/>
       <c r="F153" s="93"/>
-      <c r="G153" s="90"/>
+      <c r="G153" s="90" t="s">
+        <v>34</v>
+      </c>
       <c r="H153" s="91"/>
       <c r="I153" s="92"/>
       <c r="J153" s="92"/>
@@ -9168,7 +9356,9 @@
       <c r="D154" s="92"/>
       <c r="E154" s="92"/>
       <c r="F154" s="93"/>
-      <c r="G154" s="90"/>
+      <c r="G154" s="90" t="s">
+        <v>165</v>
+      </c>
       <c r="H154" s="91"/>
       <c r="I154" s="92"/>
       <c r="J154" s="92"/>
@@ -9226,68 +9416,143 @@
       <c r="AD155" s="93"/>
     </row>
     <row r="156" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="90"/>
-      <c r="B156" s="91"/>
-      <c r="C156" s="92"/>
-      <c r="D156" s="92"/>
-      <c r="E156" s="92"/>
-      <c r="F156" s="93"/>
-      <c r="G156" s="90"/>
-      <c r="H156" s="91"/>
-      <c r="I156" s="92"/>
-      <c r="J156" s="92"/>
-      <c r="K156" s="92"/>
-      <c r="L156" s="93"/>
-      <c r="M156" s="90"/>
-      <c r="N156" s="91"/>
-      <c r="O156" s="92"/>
-      <c r="P156" s="92"/>
-      <c r="Q156" s="92"/>
-      <c r="R156" s="93"/>
-      <c r="S156" s="90"/>
-      <c r="T156" s="91"/>
-      <c r="U156" s="92"/>
-      <c r="V156" s="92"/>
-      <c r="W156" s="92"/>
-      <c r="X156" s="93"/>
-      <c r="Y156" s="90"/>
-      <c r="Z156" s="91"/>
-      <c r="AA156" s="92"/>
-      <c r="AB156" s="92"/>
-      <c r="AC156" s="92"/>
-      <c r="AD156" s="93"/>
+      <c r="A156" s="149">
+        <f>A124+7</f>
+        <v>43913</v>
+      </c>
+      <c r="B156" s="149"/>
+      <c r="C156" s="149"/>
+      <c r="D156" s="149"/>
+      <c r="E156" s="149"/>
+      <c r="F156" s="149"/>
+      <c r="G156" s="149">
+        <f>A156+1</f>
+        <v>43914</v>
+      </c>
+      <c r="H156" s="149"/>
+      <c r="I156" s="149"/>
+      <c r="J156" s="149"/>
+      <c r="K156" s="149"/>
+      <c r="L156" s="149"/>
+      <c r="M156" s="149">
+        <f t="shared" ref="M156" si="21">G156+1</f>
+        <v>43915</v>
+      </c>
+      <c r="N156" s="149"/>
+      <c r="O156" s="149"/>
+      <c r="P156" s="149"/>
+      <c r="Q156" s="149"/>
+      <c r="R156" s="149"/>
+      <c r="S156" s="149">
+        <f t="shared" ref="S156" si="22">M156+1</f>
+        <v>43916</v>
+      </c>
+      <c r="T156" s="149"/>
+      <c r="U156" s="149"/>
+      <c r="V156" s="149"/>
+      <c r="W156" s="149"/>
+      <c r="X156" s="149"/>
+      <c r="Y156" s="149">
+        <f t="shared" ref="Y156" si="23">S156+1</f>
+        <v>43917</v>
+      </c>
+      <c r="Z156" s="149"/>
+      <c r="AA156" s="149"/>
+      <c r="AB156" s="149"/>
+      <c r="AC156" s="149"/>
+      <c r="AD156" s="149"/>
     </row>
     <row r="157" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="90"/>
-      <c r="B157" s="91"/>
-      <c r="C157" s="92"/>
-      <c r="D157" s="92"/>
-      <c r="E157" s="92"/>
-      <c r="F157" s="93"/>
-      <c r="G157" s="90"/>
-      <c r="H157" s="91"/>
-      <c r="I157" s="92"/>
-      <c r="J157" s="92"/>
-      <c r="K157" s="92"/>
-      <c r="L157" s="93"/>
-      <c r="M157" s="90"/>
-      <c r="N157" s="91"/>
-      <c r="O157" s="92"/>
-      <c r="P157" s="92"/>
-      <c r="Q157" s="92"/>
-      <c r="R157" s="93"/>
-      <c r="S157" s="90"/>
-      <c r="T157" s="91"/>
-      <c r="U157" s="92"/>
-      <c r="V157" s="92"/>
-      <c r="W157" s="92"/>
-      <c r="X157" s="93"/>
-      <c r="Y157" s="90"/>
-      <c r="Z157" s="91"/>
-      <c r="AA157" s="92"/>
-      <c r="AB157" s="92"/>
-      <c r="AC157" s="92"/>
-      <c r="AD157" s="93"/>
+      <c r="A157" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G157" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="H157" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="I157" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="J157" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="K157" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="L157" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="M157" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="N157" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="O157" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="P157" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q157" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="R157" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="S157" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="T157" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="U157" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="V157" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="W157" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="X157" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y157" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z157" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA157" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB157" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC157" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD157" s="88" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="158" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="90"/>
@@ -9609,48 +9874,368 @@
       <c r="AC167" s="92"/>
       <c r="AD167" s="93"/>
     </row>
+    <row r="168" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="90"/>
+      <c r="B168" s="91"/>
+      <c r="C168" s="92"/>
+      <c r="D168" s="92"/>
+      <c r="E168" s="92"/>
+      <c r="F168" s="93"/>
+      <c r="G168" s="90"/>
+      <c r="H168" s="91"/>
+      <c r="I168" s="92"/>
+      <c r="J168" s="92"/>
+      <c r="K168" s="92"/>
+      <c r="L168" s="93"/>
+      <c r="M168" s="90"/>
+      <c r="N168" s="91"/>
+      <c r="O168" s="92"/>
+      <c r="P168" s="92"/>
+      <c r="Q168" s="92"/>
+      <c r="R168" s="93"/>
+      <c r="S168" s="90"/>
+      <c r="T168" s="91"/>
+      <c r="U168" s="92"/>
+      <c r="V168" s="92"/>
+      <c r="W168" s="92"/>
+      <c r="X168" s="93"/>
+      <c r="Y168" s="90"/>
+      <c r="Z168" s="91"/>
+      <c r="AA168" s="92"/>
+      <c r="AB168" s="92"/>
+      <c r="AC168" s="92"/>
+      <c r="AD168" s="93"/>
+    </row>
+    <row r="169" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="90"/>
+      <c r="B169" s="91"/>
+      <c r="C169" s="92"/>
+      <c r="D169" s="92"/>
+      <c r="E169" s="92"/>
+      <c r="F169" s="93"/>
+      <c r="G169" s="90"/>
+      <c r="H169" s="91"/>
+      <c r="I169" s="92"/>
+      <c r="J169" s="92"/>
+      <c r="K169" s="92"/>
+      <c r="L169" s="93"/>
+      <c r="M169" s="90"/>
+      <c r="N169" s="91"/>
+      <c r="O169" s="92"/>
+      <c r="P169" s="92"/>
+      <c r="Q169" s="92"/>
+      <c r="R169" s="93"/>
+      <c r="S169" s="90"/>
+      <c r="T169" s="91"/>
+      <c r="U169" s="92"/>
+      <c r="V169" s="92"/>
+      <c r="W169" s="92"/>
+      <c r="X169" s="93"/>
+      <c r="Y169" s="90"/>
+      <c r="Z169" s="91"/>
+      <c r="AA169" s="92"/>
+      <c r="AB169" s="92"/>
+      <c r="AC169" s="92"/>
+      <c r="AD169" s="93"/>
+    </row>
+    <row r="170" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="90"/>
+      <c r="B170" s="91"/>
+      <c r="C170" s="92"/>
+      <c r="D170" s="92"/>
+      <c r="E170" s="92"/>
+      <c r="F170" s="93"/>
+      <c r="G170" s="90"/>
+      <c r="H170" s="91"/>
+      <c r="I170" s="92"/>
+      <c r="J170" s="92"/>
+      <c r="K170" s="92"/>
+      <c r="L170" s="93"/>
+      <c r="M170" s="90"/>
+      <c r="N170" s="91"/>
+      <c r="O170" s="92"/>
+      <c r="P170" s="92"/>
+      <c r="Q170" s="92"/>
+      <c r="R170" s="93"/>
+      <c r="S170" s="90"/>
+      <c r="T170" s="91"/>
+      <c r="U170" s="92"/>
+      <c r="V170" s="92"/>
+      <c r="W170" s="92"/>
+      <c r="X170" s="93"/>
+      <c r="Y170" s="90"/>
+      <c r="Z170" s="91"/>
+      <c r="AA170" s="92"/>
+      <c r="AB170" s="92"/>
+      <c r="AC170" s="92"/>
+      <c r="AD170" s="93"/>
+    </row>
+    <row r="171" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="90"/>
+      <c r="B171" s="91"/>
+      <c r="C171" s="92"/>
+      <c r="D171" s="92"/>
+      <c r="E171" s="92"/>
+      <c r="F171" s="93"/>
+      <c r="G171" s="90"/>
+      <c r="H171" s="91"/>
+      <c r="I171" s="92"/>
+      <c r="J171" s="92"/>
+      <c r="K171" s="92"/>
+      <c r="L171" s="93"/>
+      <c r="M171" s="90"/>
+      <c r="N171" s="91"/>
+      <c r="O171" s="92"/>
+      <c r="P171" s="92"/>
+      <c r="Q171" s="92"/>
+      <c r="R171" s="93"/>
+      <c r="S171" s="90"/>
+      <c r="T171" s="91"/>
+      <c r="U171" s="92"/>
+      <c r="V171" s="92"/>
+      <c r="W171" s="92"/>
+      <c r="X171" s="93"/>
+      <c r="Y171" s="90"/>
+      <c r="Z171" s="91"/>
+      <c r="AA171" s="92"/>
+      <c r="AB171" s="92"/>
+      <c r="AC171" s="92"/>
+      <c r="AD171" s="93"/>
+    </row>
+    <row r="172" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="90"/>
+      <c r="B172" s="91"/>
+      <c r="C172" s="92"/>
+      <c r="D172" s="92"/>
+      <c r="E172" s="92"/>
+      <c r="F172" s="93"/>
+      <c r="G172" s="90"/>
+      <c r="H172" s="91"/>
+      <c r="I172" s="92"/>
+      <c r="J172" s="92"/>
+      <c r="K172" s="92"/>
+      <c r="L172" s="93"/>
+      <c r="M172" s="90"/>
+      <c r="N172" s="91"/>
+      <c r="O172" s="92"/>
+      <c r="P172" s="92"/>
+      <c r="Q172" s="92"/>
+      <c r="R172" s="93"/>
+      <c r="S172" s="90"/>
+      <c r="T172" s="91"/>
+      <c r="U172" s="92"/>
+      <c r="V172" s="92"/>
+      <c r="W172" s="92"/>
+      <c r="X172" s="93"/>
+      <c r="Y172" s="90"/>
+      <c r="Z172" s="91"/>
+      <c r="AA172" s="92"/>
+      <c r="AB172" s="92"/>
+      <c r="AC172" s="92"/>
+      <c r="AD172" s="93"/>
+    </row>
+    <row r="173" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="90"/>
+      <c r="B173" s="91"/>
+      <c r="C173" s="92"/>
+      <c r="D173" s="92"/>
+      <c r="E173" s="92"/>
+      <c r="F173" s="93"/>
+      <c r="G173" s="90"/>
+      <c r="H173" s="91"/>
+      <c r="I173" s="92"/>
+      <c r="J173" s="92"/>
+      <c r="K173" s="92"/>
+      <c r="L173" s="93"/>
+      <c r="M173" s="90"/>
+      <c r="N173" s="91"/>
+      <c r="O173" s="92"/>
+      <c r="P173" s="92"/>
+      <c r="Q173" s="92"/>
+      <c r="R173" s="93"/>
+      <c r="S173" s="90"/>
+      <c r="T173" s="91"/>
+      <c r="U173" s="92"/>
+      <c r="V173" s="92"/>
+      <c r="W173" s="92"/>
+      <c r="X173" s="93"/>
+      <c r="Y173" s="90"/>
+      <c r="Z173" s="91"/>
+      <c r="AA173" s="92"/>
+      <c r="AB173" s="92"/>
+      <c r="AC173" s="92"/>
+      <c r="AD173" s="93"/>
+    </row>
+    <row r="174" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="90"/>
+      <c r="B174" s="91"/>
+      <c r="C174" s="92"/>
+      <c r="D174" s="92"/>
+      <c r="E174" s="92"/>
+      <c r="F174" s="93"/>
+      <c r="G174" s="90"/>
+      <c r="H174" s="91"/>
+      <c r="I174" s="92"/>
+      <c r="J174" s="92"/>
+      <c r="K174" s="92"/>
+      <c r="L174" s="93"/>
+      <c r="M174" s="90"/>
+      <c r="N174" s="91"/>
+      <c r="O174" s="92"/>
+      <c r="P174" s="92"/>
+      <c r="Q174" s="92"/>
+      <c r="R174" s="93"/>
+      <c r="S174" s="90"/>
+      <c r="T174" s="91"/>
+      <c r="U174" s="92"/>
+      <c r="V174" s="92"/>
+      <c r="W174" s="92"/>
+      <c r="X174" s="93"/>
+      <c r="Y174" s="90"/>
+      <c r="Z174" s="91"/>
+      <c r="AA174" s="92"/>
+      <c r="AB174" s="92"/>
+      <c r="AC174" s="92"/>
+      <c r="AD174" s="93"/>
+    </row>
+    <row r="175" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="90"/>
+      <c r="B175" s="91"/>
+      <c r="C175" s="92"/>
+      <c r="D175" s="92"/>
+      <c r="E175" s="92"/>
+      <c r="F175" s="93"/>
+      <c r="G175" s="90"/>
+      <c r="H175" s="91"/>
+      <c r="I175" s="92"/>
+      <c r="J175" s="92"/>
+      <c r="K175" s="92"/>
+      <c r="L175" s="93"/>
+      <c r="M175" s="90"/>
+      <c r="N175" s="91"/>
+      <c r="O175" s="92"/>
+      <c r="P175" s="92"/>
+      <c r="Q175" s="92"/>
+      <c r="R175" s="93"/>
+      <c r="S175" s="90"/>
+      <c r="T175" s="91"/>
+      <c r="U175" s="92"/>
+      <c r="V175" s="92"/>
+      <c r="W175" s="92"/>
+      <c r="X175" s="93"/>
+      <c r="Y175" s="90"/>
+      <c r="Z175" s="91"/>
+      <c r="AA175" s="92"/>
+      <c r="AB175" s="92"/>
+      <c r="AC175" s="92"/>
+      <c r="AD175" s="93"/>
+    </row>
+    <row r="176" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="90"/>
+      <c r="B176" s="91"/>
+      <c r="C176" s="92"/>
+      <c r="D176" s="92"/>
+      <c r="E176" s="92"/>
+      <c r="F176" s="93"/>
+      <c r="G176" s="90"/>
+      <c r="H176" s="91"/>
+      <c r="I176" s="92"/>
+      <c r="J176" s="92"/>
+      <c r="K176" s="92"/>
+      <c r="L176" s="93"/>
+      <c r="M176" s="90"/>
+      <c r="N176" s="91"/>
+      <c r="O176" s="92"/>
+      <c r="P176" s="92"/>
+      <c r="Q176" s="92"/>
+      <c r="R176" s="93"/>
+      <c r="S176" s="90"/>
+      <c r="T176" s="91"/>
+      <c r="U176" s="92"/>
+      <c r="V176" s="92"/>
+      <c r="W176" s="92"/>
+      <c r="X176" s="93"/>
+      <c r="Y176" s="90"/>
+      <c r="Z176" s="91"/>
+      <c r="AA176" s="92"/>
+      <c r="AB176" s="92"/>
+      <c r="AC176" s="92"/>
+      <c r="AD176" s="93"/>
+    </row>
+    <row r="177" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="90"/>
+      <c r="B177" s="91"/>
+      <c r="C177" s="92"/>
+      <c r="D177" s="92"/>
+      <c r="E177" s="92"/>
+      <c r="F177" s="93"/>
+      <c r="G177" s="90"/>
+      <c r="H177" s="91"/>
+      <c r="I177" s="92"/>
+      <c r="J177" s="92"/>
+      <c r="K177" s="92"/>
+      <c r="L177" s="93"/>
+      <c r="M177" s="90"/>
+      <c r="N177" s="91"/>
+      <c r="O177" s="92"/>
+      <c r="P177" s="92"/>
+      <c r="Q177" s="92"/>
+      <c r="R177" s="93"/>
+      <c r="S177" s="90"/>
+      <c r="T177" s="91"/>
+      <c r="U177" s="92"/>
+      <c r="V177" s="92"/>
+      <c r="W177" s="92"/>
+      <c r="X177" s="93"/>
+      <c r="Y177" s="90"/>
+      <c r="Z177" s="91"/>
+      <c r="AA177" s="92"/>
+      <c r="AB177" s="92"/>
+      <c r="AC177" s="92"/>
+      <c r="AD177" s="93"/>
+    </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A156:F156"/>
+    <mergeCell ref="G156:L156"/>
+    <mergeCell ref="M156:R156"/>
+    <mergeCell ref="S156:X156"/>
+    <mergeCell ref="Y156:AD156"/>
     <mergeCell ref="A124:F124"/>
     <mergeCell ref="G124:L124"/>
     <mergeCell ref="M124:R124"/>
     <mergeCell ref="S124:X124"/>
     <mergeCell ref="Y124:AD124"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="G146:L146"/>
-    <mergeCell ref="M146:R146"/>
-    <mergeCell ref="S146:X146"/>
-    <mergeCell ref="Y146:AD146"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9664,7 +10249,7 @@
       <pane xSplit="7" ySplit="12" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11867,8 +12452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1730B555-17C4-4D71-B0CF-5EA2C5243D66}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12375,7 +12960,7 @@
       <c r="F17" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="118" t="s">
+      <c r="G17" s="115" t="s">
         <v>127</v>
       </c>
       <c r="H17" s="118" t="s">
@@ -12395,7 +12980,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="139">
+      <c r="A18" s="131">
         <v>43906</v>
       </c>
       <c r="B18" s="132" t="s">
@@ -12407,50 +12992,72 @@
       <c r="D18" s="134">
         <v>25000</v>
       </c>
-      <c r="E18" s="135"/>
+      <c r="E18" s="135">
+        <v>51.16</v>
+      </c>
       <c r="F18" s="136">
         <f>C18*D18</f>
         <v>23650</v>
       </c>
-      <c r="G18" s="137"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="138"/>
+      <c r="G18" s="137">
+        <v>43907</v>
+      </c>
+      <c r="H18" s="133">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="I18" s="134">
+        <v>25000</v>
+      </c>
+      <c r="J18" s="138">
+        <v>51.3</v>
+      </c>
       <c r="K18" s="112">
         <f>L18/F18</f>
-        <v>-1</v>
+        <v>9.5306553911205102E-4</v>
       </c>
       <c r="L18" s="80">
         <f>SUM(H18*I18)-F18-E18-J18</f>
-        <v>-23650</v>
+        <v>22.540000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="139"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="75"/>
+      <c r="A19" s="139">
+        <v>43907</v>
+      </c>
+      <c r="B19" s="129" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="128">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D19" s="74">
+        <v>15000</v>
+      </c>
+      <c r="E19" s="75">
+        <v>29.93</v>
+      </c>
       <c r="F19" s="76">
         <f t="shared" ref="F19:F28" si="6">C19*D19</f>
-        <v>0</v>
+        <v>13875</v>
       </c>
       <c r="G19" s="127"/>
       <c r="H19" s="128"/>
-      <c r="I19" s="74"/>
+      <c r="I19" s="74">
+        <v>15000</v>
+      </c>
       <c r="J19" s="140"/>
-      <c r="K19" s="113" t="e">
+      <c r="K19" s="113">
         <f t="shared" ref="K19:K21" si="7">L19/F19</f>
-        <v>#DIV/0!</v>
+        <v>-1.0021571171171171</v>
       </c>
       <c r="L19" s="77">
         <f t="shared" ref="L19:L21" si="8">SUM(H19*I19)-F19-E19-J19</f>
-        <v>0</v>
+        <v>-13904.93</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="139"/>
-      <c r="B20" s="129"/>
+      <c r="B20" s="130"/>
       <c r="C20" s="128"/>
       <c r="D20" s="74"/>
       <c r="E20" s="75"/>
@@ -12666,7 +13273,7 @@
       </c>
       <c r="E29" s="125">
         <f>SUM(E18:E28)</f>
-        <v>0</v>
+        <v>81.09</v>
       </c>
       <c r="F29" s="126"/>
       <c r="G29" s="123"/>
@@ -12676,14 +13283,14 @@
       </c>
       <c r="J29" s="125">
         <f>SUM(J18:J28)</f>
-        <v>0</v>
+        <v>51.3</v>
       </c>
       <c r="K29" s="79" t="s">
         <v>141</v>
       </c>
       <c r="L29" s="82">
         <f>SUM(L18:L28)</f>
-        <v>-23650</v>
+        <v>-13882.39</v>
       </c>
     </row>
   </sheetData>
@@ -12697,11 +13304,189 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384E7627-BB21-45CF-9FAC-166A22C4E1D1}">
+  <dimension ref="B1:D16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="72" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16" style="72" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="72"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="175" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="176">
+        <v>0.95</v>
+      </c>
+      <c r="D2" s="176">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="177" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="178">
+        <v>15000</v>
+      </c>
+      <c r="D3" s="178">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="179" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="180" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="180" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="181" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="182">
+        <f>C2*C3</f>
+        <v>14250</v>
+      </c>
+      <c r="D6" s="182">
+        <f>D2*D3</f>
+        <v>14250</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="183" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="184">
+        <f>IF(C6&gt;10000, C6*8%/100, 8)</f>
+        <v>11.4</v>
+      </c>
+      <c r="D7" s="184">
+        <f>IF(D6&gt;10000, D6*8%/100, 8)</f>
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="183" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="184">
+        <f>C7*6%</f>
+        <v>0.68399999999999994</v>
+      </c>
+      <c r="D8" s="184">
+        <f>D7*6%</f>
+        <v>0.68399999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="183" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="185">
+        <f>IF(C4=TRUE,CEILING(C6,1000)/1000,0)</f>
+        <v>15</v>
+      </c>
+      <c r="D9" s="185">
+        <f>IF(D4=TRUE,CEILING(D6,1000)/1000,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="183" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="184">
+        <f>C6*0.03%</f>
+        <v>4.2749999999999995</v>
+      </c>
+      <c r="D10" s="184">
+        <f>D6*0.03%</f>
+        <v>4.2749999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="186" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="187">
+        <f>ROUNDUP(SUM(C7:C10),2)</f>
+        <v>31.360000000000003</v>
+      </c>
+      <c r="D11" s="187">
+        <f>ROUNDUP(SUM(D7:D10),2)</f>
+        <v>31.360000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="188" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="189">
+        <f>C11+D11</f>
+        <v>62.720000000000006</v>
+      </c>
+      <c r="D13" s="190"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="191" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="192">
+        <f>D2-C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="191" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="193" t="e">
+        <f>C13/C14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="194" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="195" t="e">
+        <f>CEILING(C15,100)/100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:D4" xr:uid="{A16F5825-9836-4F2C-B595-EFF59296592E}">
+      <formula1>"TRUE, FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E54E0B-7896-4AAB-ACE2-0CEA53730F79}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12714,10 +13499,10 @@
       <c r="A1" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="171">
+      <c r="B1" s="174">
         <v>0.51</v>
       </c>
-      <c r="C1" s="171"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -12726,10 +13511,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="171">
+      <c r="B2" s="174">
         <v>0.54</v>
       </c>
-      <c r="C2" s="171"/>
+      <c r="C2" s="174"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -12738,10 +13523,10 @@
       <c r="A3" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="171">
+      <c r="B3" s="174">
         <v>0.51</v>
       </c>
-      <c r="C3" s="171"/>
+      <c r="C3" s="174"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -12750,10 +13535,10 @@
       <c r="A4" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="171">
+      <c r="B4" s="174">
         <v>0.54</v>
       </c>
-      <c r="C4" s="171"/>
+      <c r="C4" s="174"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -12795,7 +13580,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="174">
+      <c r="E8" s="171">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -12808,7 +13593,7 @@
       <c r="B9" s="172"/>
       <c r="C9" s="172"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="174"/>
+      <c r="E9" s="171"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -12848,7 +13633,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="174">
+      <c r="E13" s="171">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -12861,7 +13646,7 @@
       <c r="B14" s="172"/>
       <c r="C14" s="172"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="174"/>
+      <c r="E14" s="171"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -12901,7 +13686,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="174">
+      <c r="E18" s="171">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -12914,7 +13699,7 @@
       <c r="B19" s="172"/>
       <c r="C19" s="172"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="174"/>
+      <c r="E19" s="171"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12959,6 +13744,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -12966,12 +13757,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="957" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F96EF1CA-39E9-4C1B-90D3-DCD0D95F58A0}"/>
+  <xr:revisionPtr revIDLastSave="1070" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BCE7337D-43B5-4ACD-AD0E-7805EF6039EC}"/>
   <bookViews>
-    <workbookView xWindow="22005" yWindow="-360" windowWidth="27870" windowHeight="12840" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="-330" yWindow="4125" windowWidth="27870" windowHeight="12840" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="195">
   <si>
     <t>Pillar</t>
   </si>
@@ -613,6 +613,15 @@
   </si>
   <si>
     <t>AMBANK</t>
+  </si>
+  <si>
+    <t>PROFIT TEST</t>
+  </si>
+  <si>
+    <t>AXREIT</t>
+  </si>
+  <si>
+    <t>DIALOG</t>
   </si>
 </sst>
 </file>
@@ -802,7 +811,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -959,6 +968,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="58">
     <border>
@@ -1708,7 +1723,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2157,6 +2172,72 @@
     <xf numFmtId="168" fontId="2" fillId="17" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="2" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="26" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="13" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2223,8 +2304,14 @@
     <xf numFmtId="170" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2232,70 +2319,7 @@
     <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="2" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="26" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="13" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2732,62 +2756,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G155" sqref="G155"/>
+    <sheetView tabSelected="1" topLeftCell="G107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M128" sqref="M128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="72"/>
-    <col min="3" max="3" width="15.7109375" style="72" customWidth="1"/>
-    <col min="4" max="16384" width="15.7109375" style="72"/>
+    <col min="1" max="6" width="15.7109375" style="72" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="15.7109375" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="149">
+      <c r="A1" s="171">
         <v>43864</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149">
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171">
         <f>A1+1</f>
         <v>43865</v>
       </c>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149">
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171">
         <f t="shared" ref="M1" si="0">G1+1</f>
         <v>43866</v>
       </c>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149">
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171">
         <f t="shared" ref="S1" si="1">M1+1</f>
         <v>43867</v>
       </c>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149">
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171">
         <f t="shared" ref="Y1" si="2">S1+1</f>
         <v>43868</v>
       </c>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="171"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="87" t="s">
@@ -3316,51 +3339,51 @@
       <c r="AD14" s="93"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="149">
+      <c r="A15" s="171">
         <f>A1+7</f>
         <v>43871</v>
       </c>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149">
+      <c r="B15" s="171"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171">
         <f>A15+1</f>
         <v>43872</v>
       </c>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="149"/>
-      <c r="M15" s="149">
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="171"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="171">
         <f t="shared" ref="M15" si="3">G15+1</f>
         <v>43873</v>
       </c>
-      <c r="N15" s="149"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="149"/>
-      <c r="S15" s="149">
+      <c r="N15" s="171"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="171"/>
+      <c r="Q15" s="171"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="171">
         <f t="shared" ref="S15" si="4">M15+1</f>
         <v>43874</v>
       </c>
-      <c r="T15" s="149"/>
-      <c r="U15" s="149"/>
-      <c r="V15" s="149"/>
-      <c r="W15" s="149"/>
-      <c r="X15" s="149"/>
-      <c r="Y15" s="149">
+      <c r="T15" s="171"/>
+      <c r="U15" s="171"/>
+      <c r="V15" s="171"/>
+      <c r="W15" s="171"/>
+      <c r="X15" s="171"/>
+      <c r="Y15" s="171">
         <f t="shared" ref="Y15" si="5">S15+1</f>
         <v>43875</v>
       </c>
-      <c r="Z15" s="149"/>
-      <c r="AA15" s="149"/>
-      <c r="AB15" s="149"/>
-      <c r="AC15" s="149"/>
-      <c r="AD15" s="149"/>
+      <c r="Z15" s="171"/>
+      <c r="AA15" s="171"/>
+      <c r="AB15" s="171"/>
+      <c r="AC15" s="171"/>
+      <c r="AD15" s="171"/>
     </row>
     <row r="16" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="87" t="s">
@@ -4097,51 +4120,51 @@
       <c r="AD29" s="93"/>
     </row>
     <row r="30" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="149">
+      <c r="A30" s="171">
         <f>A15+7</f>
         <v>43878</v>
       </c>
-      <c r="B30" s="149"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149">
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171">
         <f>A30+1</f>
         <v>43879</v>
       </c>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149">
+      <c r="H30" s="171"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="171"/>
+      <c r="K30" s="171"/>
+      <c r="L30" s="171"/>
+      <c r="M30" s="171">
         <f t="shared" ref="M30" si="6">G30+1</f>
         <v>43880</v>
       </c>
-      <c r="N30" s="149"/>
-      <c r="O30" s="149"/>
-      <c r="P30" s="149"/>
-      <c r="Q30" s="149"/>
-      <c r="R30" s="149"/>
-      <c r="S30" s="149">
+      <c r="N30" s="171"/>
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171">
         <f t="shared" ref="S30" si="7">M30+1</f>
         <v>43881</v>
       </c>
-      <c r="T30" s="149"/>
-      <c r="U30" s="149"/>
-      <c r="V30" s="149"/>
-      <c r="W30" s="149"/>
-      <c r="X30" s="149"/>
-      <c r="Y30" s="149">
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171">
         <f t="shared" ref="Y30" si="8">S30+1</f>
         <v>43882</v>
       </c>
-      <c r="Z30" s="149"/>
-      <c r="AA30" s="149"/>
-      <c r="AB30" s="149"/>
-      <c r="AC30" s="149"/>
-      <c r="AD30" s="149"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="171"/>
+      <c r="AC30" s="171"/>
+      <c r="AD30" s="171"/>
     </row>
     <row r="31" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="87" t="s">
@@ -5464,51 +5487,51 @@
       <c r="AD52" s="93"/>
     </row>
     <row r="53" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="149">
+      <c r="A53" s="171">
         <f>A30+7</f>
         <v>43885</v>
       </c>
-      <c r="B53" s="149"/>
-      <c r="C53" s="149"/>
-      <c r="D53" s="149"/>
-      <c r="E53" s="149"/>
-      <c r="F53" s="149"/>
-      <c r="G53" s="149">
+      <c r="B53" s="171"/>
+      <c r="C53" s="171"/>
+      <c r="D53" s="171"/>
+      <c r="E53" s="171"/>
+      <c r="F53" s="171"/>
+      <c r="G53" s="171">
         <f>A53+1</f>
         <v>43886</v>
       </c>
-      <c r="H53" s="149"/>
-      <c r="I53" s="149"/>
-      <c r="J53" s="149"/>
-      <c r="K53" s="149"/>
-      <c r="L53" s="149"/>
-      <c r="M53" s="149">
+      <c r="H53" s="171"/>
+      <c r="I53" s="171"/>
+      <c r="J53" s="171"/>
+      <c r="K53" s="171"/>
+      <c r="L53" s="171"/>
+      <c r="M53" s="171">
         <f t="shared" ref="M53" si="9">G53+1</f>
         <v>43887</v>
       </c>
-      <c r="N53" s="149"/>
-      <c r="O53" s="149"/>
-      <c r="P53" s="149"/>
-      <c r="Q53" s="149"/>
-      <c r="R53" s="149"/>
-      <c r="S53" s="149">
+      <c r="N53" s="171"/>
+      <c r="O53" s="171"/>
+      <c r="P53" s="171"/>
+      <c r="Q53" s="171"/>
+      <c r="R53" s="171"/>
+      <c r="S53" s="171">
         <f t="shared" ref="S53" si="10">M53+1</f>
         <v>43888</v>
       </c>
-      <c r="T53" s="149"/>
-      <c r="U53" s="149"/>
-      <c r="V53" s="149"/>
-      <c r="W53" s="149"/>
-      <c r="X53" s="149"/>
-      <c r="Y53" s="149">
+      <c r="T53" s="171"/>
+      <c r="U53" s="171"/>
+      <c r="V53" s="171"/>
+      <c r="W53" s="171"/>
+      <c r="X53" s="171"/>
+      <c r="Y53" s="171">
         <f t="shared" ref="Y53" si="11">S53+1</f>
         <v>43889</v>
       </c>
-      <c r="Z53" s="149"/>
-      <c r="AA53" s="149"/>
-      <c r="AB53" s="149"/>
-      <c r="AC53" s="149"/>
-      <c r="AD53" s="149"/>
+      <c r="Z53" s="171"/>
+      <c r="AA53" s="171"/>
+      <c r="AB53" s="171"/>
+      <c r="AC53" s="171"/>
+      <c r="AD53" s="171"/>
     </row>
     <row r="54" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="87" t="s">
@@ -6611,51 +6634,51 @@
       <c r="AD79" s="93"/>
     </row>
     <row r="80" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="149">
+      <c r="A80" s="171">
         <f>A53+7</f>
         <v>43892</v>
       </c>
-      <c r="B80" s="149"/>
-      <c r="C80" s="149"/>
-      <c r="D80" s="149"/>
-      <c r="E80" s="149"/>
-      <c r="F80" s="149"/>
-      <c r="G80" s="149">
+      <c r="B80" s="171"/>
+      <c r="C80" s="171"/>
+      <c r="D80" s="171"/>
+      <c r="E80" s="171"/>
+      <c r="F80" s="171"/>
+      <c r="G80" s="171">
         <f>A80+1</f>
         <v>43893</v>
       </c>
-      <c r="H80" s="149"/>
-      <c r="I80" s="149"/>
-      <c r="J80" s="149"/>
-      <c r="K80" s="149"/>
-      <c r="L80" s="149"/>
-      <c r="M80" s="149">
+      <c r="H80" s="171"/>
+      <c r="I80" s="171"/>
+      <c r="J80" s="171"/>
+      <c r="K80" s="171"/>
+      <c r="L80" s="171"/>
+      <c r="M80" s="171">
         <f t="shared" ref="M80" si="12">G80+1</f>
         <v>43894</v>
       </c>
-      <c r="N80" s="149"/>
-      <c r="O80" s="149"/>
-      <c r="P80" s="149"/>
-      <c r="Q80" s="149"/>
-      <c r="R80" s="149"/>
-      <c r="S80" s="149">
+      <c r="N80" s="171"/>
+      <c r="O80" s="171"/>
+      <c r="P80" s="171"/>
+      <c r="Q80" s="171"/>
+      <c r="R80" s="171"/>
+      <c r="S80" s="171">
         <f t="shared" ref="S80" si="13">M80+1</f>
         <v>43895</v>
       </c>
-      <c r="T80" s="149"/>
-      <c r="U80" s="149"/>
-      <c r="V80" s="149"/>
-      <c r="W80" s="149"/>
-      <c r="X80" s="149"/>
-      <c r="Y80" s="149">
+      <c r="T80" s="171"/>
+      <c r="U80" s="171"/>
+      <c r="V80" s="171"/>
+      <c r="W80" s="171"/>
+      <c r="X80" s="171"/>
+      <c r="Y80" s="171">
         <f t="shared" ref="Y80" si="14">S80+1</f>
         <v>43896</v>
       </c>
-      <c r="Z80" s="149"/>
-      <c r="AA80" s="149"/>
-      <c r="AB80" s="149"/>
-      <c r="AC80" s="149"/>
-      <c r="AD80" s="149"/>
+      <c r="Z80" s="171"/>
+      <c r="AA80" s="171"/>
+      <c r="AB80" s="171"/>
+      <c r="AC80" s="171"/>
+      <c r="AD80" s="171"/>
     </row>
     <row r="81" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="87" t="s">
@@ -7444,51 +7467,51 @@
       <c r="AD101" s="93"/>
     </row>
     <row r="102" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="149">
+      <c r="A102" s="171">
         <f>A80+7</f>
         <v>43899</v>
       </c>
-      <c r="B102" s="149"/>
-      <c r="C102" s="149"/>
-      <c r="D102" s="149"/>
-      <c r="E102" s="149"/>
-      <c r="F102" s="149"/>
-      <c r="G102" s="149">
+      <c r="B102" s="171"/>
+      <c r="C102" s="171"/>
+      <c r="D102" s="171"/>
+      <c r="E102" s="171"/>
+      <c r="F102" s="171"/>
+      <c r="G102" s="171">
         <f>A102+1</f>
         <v>43900</v>
       </c>
-      <c r="H102" s="149"/>
-      <c r="I102" s="149"/>
-      <c r="J102" s="149"/>
-      <c r="K102" s="149"/>
-      <c r="L102" s="149"/>
-      <c r="M102" s="149">
+      <c r="H102" s="171"/>
+      <c r="I102" s="171"/>
+      <c r="J102" s="171"/>
+      <c r="K102" s="171"/>
+      <c r="L102" s="171"/>
+      <c r="M102" s="171">
         <f t="shared" ref="M102" si="15">G102+1</f>
         <v>43901</v>
       </c>
-      <c r="N102" s="149"/>
-      <c r="O102" s="149"/>
-      <c r="P102" s="149"/>
-      <c r="Q102" s="149"/>
-      <c r="R102" s="149"/>
-      <c r="S102" s="149">
+      <c r="N102" s="171"/>
+      <c r="O102" s="171"/>
+      <c r="P102" s="171"/>
+      <c r="Q102" s="171"/>
+      <c r="R102" s="171"/>
+      <c r="S102" s="171">
         <f t="shared" ref="S102" si="16">M102+1</f>
         <v>43902</v>
       </c>
-      <c r="T102" s="149"/>
-      <c r="U102" s="149"/>
-      <c r="V102" s="149"/>
-      <c r="W102" s="149"/>
-      <c r="X102" s="149"/>
-      <c r="Y102" s="149">
+      <c r="T102" s="171"/>
+      <c r="U102" s="171"/>
+      <c r="V102" s="171"/>
+      <c r="W102" s="171"/>
+      <c r="X102" s="171"/>
+      <c r="Y102" s="171">
         <f t="shared" ref="Y102" si="17">S102+1</f>
         <v>43903</v>
       </c>
-      <c r="Z102" s="149"/>
-      <c r="AA102" s="149"/>
-      <c r="AB102" s="149"/>
-      <c r="AC102" s="149"/>
-      <c r="AD102" s="149"/>
+      <c r="Z102" s="171"/>
+      <c r="AA102" s="171"/>
+      <c r="AB102" s="171"/>
+      <c r="AC102" s="171"/>
+      <c r="AD102" s="171"/>
     </row>
     <row r="103" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="87" t="s">
@@ -8257,51 +8280,51 @@
       <c r="AD123" s="93"/>
     </row>
     <row r="124" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="149">
+      <c r="A124" s="171">
         <f>A102+7</f>
         <v>43906</v>
       </c>
-      <c r="B124" s="149"/>
-      <c r="C124" s="149"/>
-      <c r="D124" s="149"/>
-      <c r="E124" s="149"/>
-      <c r="F124" s="149"/>
-      <c r="G124" s="149">
+      <c r="B124" s="171"/>
+      <c r="C124" s="171"/>
+      <c r="D124" s="171"/>
+      <c r="E124" s="171"/>
+      <c r="F124" s="171"/>
+      <c r="G124" s="171">
         <f>A124+1</f>
         <v>43907</v>
       </c>
-      <c r="H124" s="149"/>
-      <c r="I124" s="149"/>
-      <c r="J124" s="149"/>
-      <c r="K124" s="149"/>
-      <c r="L124" s="149"/>
-      <c r="M124" s="149">
+      <c r="H124" s="171"/>
+      <c r="I124" s="171"/>
+      <c r="J124" s="171"/>
+      <c r="K124" s="171"/>
+      <c r="L124" s="171"/>
+      <c r="M124" s="171">
         <f t="shared" ref="M124" si="18">G124+1</f>
         <v>43908</v>
       </c>
-      <c r="N124" s="149"/>
-      <c r="O124" s="149"/>
-      <c r="P124" s="149"/>
-      <c r="Q124" s="149"/>
-      <c r="R124" s="149"/>
-      <c r="S124" s="149">
+      <c r="N124" s="171"/>
+      <c r="O124" s="171"/>
+      <c r="P124" s="171"/>
+      <c r="Q124" s="171"/>
+      <c r="R124" s="171"/>
+      <c r="S124" s="171">
         <f t="shared" ref="S124" si="19">M124+1</f>
         <v>43909</v>
       </c>
-      <c r="T124" s="149"/>
-      <c r="U124" s="149"/>
-      <c r="V124" s="149"/>
-      <c r="W124" s="149"/>
-      <c r="X124" s="149"/>
-      <c r="Y124" s="149">
+      <c r="T124" s="171"/>
+      <c r="U124" s="171"/>
+      <c r="V124" s="171"/>
+      <c r="W124" s="171"/>
+      <c r="X124" s="171"/>
+      <c r="Y124" s="171">
         <f t="shared" ref="Y124" si="20">S124+1</f>
         <v>43910</v>
       </c>
-      <c r="Z124" s="149"/>
-      <c r="AA124" s="149"/>
-      <c r="AB124" s="149"/>
-      <c r="AC124" s="149"/>
-      <c r="AD124" s="149"/>
+      <c r="Z124" s="171"/>
+      <c r="AA124" s="171"/>
+      <c r="AB124" s="171"/>
+      <c r="AC124" s="171"/>
+      <c r="AD124" s="171"/>
     </row>
     <row r="125" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="87" t="s">
@@ -8412,7 +8435,9 @@
       <c r="J126" s="92"/>
       <c r="K126" s="92"/>
       <c r="L126" s="93"/>
-      <c r="M126" s="90"/>
+      <c r="M126" s="90" t="s">
+        <v>193</v>
+      </c>
       <c r="N126" s="91"/>
       <c r="O126" s="92"/>
       <c r="P126" s="92"/>
@@ -8446,7 +8471,9 @@
       <c r="J127" s="92"/>
       <c r="K127" s="92"/>
       <c r="L127" s="93"/>
-      <c r="M127" s="90"/>
+      <c r="M127" s="90" t="s">
+        <v>194</v>
+      </c>
       <c r="N127" s="91"/>
       <c r="O127" s="92"/>
       <c r="P127" s="92"/>
@@ -9416,51 +9443,51 @@
       <c r="AD155" s="93"/>
     </row>
     <row r="156" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="149">
+      <c r="A156" s="171">
         <f>A124+7</f>
         <v>43913</v>
       </c>
-      <c r="B156" s="149"/>
-      <c r="C156" s="149"/>
-      <c r="D156" s="149"/>
-      <c r="E156" s="149"/>
-      <c r="F156" s="149"/>
-      <c r="G156" s="149">
+      <c r="B156" s="171"/>
+      <c r="C156" s="171"/>
+      <c r="D156" s="171"/>
+      <c r="E156" s="171"/>
+      <c r="F156" s="171"/>
+      <c r="G156" s="171">
         <f>A156+1</f>
         <v>43914</v>
       </c>
-      <c r="H156" s="149"/>
-      <c r="I156" s="149"/>
-      <c r="J156" s="149"/>
-      <c r="K156" s="149"/>
-      <c r="L156" s="149"/>
-      <c r="M156" s="149">
+      <c r="H156" s="171"/>
+      <c r="I156" s="171"/>
+      <c r="J156" s="171"/>
+      <c r="K156" s="171"/>
+      <c r="L156" s="171"/>
+      <c r="M156" s="171">
         <f t="shared" ref="M156" si="21">G156+1</f>
         <v>43915</v>
       </c>
-      <c r="N156" s="149"/>
-      <c r="O156" s="149"/>
-      <c r="P156" s="149"/>
-      <c r="Q156" s="149"/>
-      <c r="R156" s="149"/>
-      <c r="S156" s="149">
+      <c r="N156" s="171"/>
+      <c r="O156" s="171"/>
+      <c r="P156" s="171"/>
+      <c r="Q156" s="171"/>
+      <c r="R156" s="171"/>
+      <c r="S156" s="171">
         <f t="shared" ref="S156" si="22">M156+1</f>
         <v>43916</v>
       </c>
-      <c r="T156" s="149"/>
-      <c r="U156" s="149"/>
-      <c r="V156" s="149"/>
-      <c r="W156" s="149"/>
-      <c r="X156" s="149"/>
-      <c r="Y156" s="149">
+      <c r="T156" s="171"/>
+      <c r="U156" s="171"/>
+      <c r="V156" s="171"/>
+      <c r="W156" s="171"/>
+      <c r="X156" s="171"/>
+      <c r="Y156" s="171">
         <f t="shared" ref="Y156" si="23">S156+1</f>
         <v>43917</v>
       </c>
-      <c r="Z156" s="149"/>
-      <c r="AA156" s="149"/>
-      <c r="AB156" s="149"/>
-      <c r="AC156" s="149"/>
-      <c r="AD156" s="149"/>
+      <c r="Z156" s="171"/>
+      <c r="AA156" s="171"/>
+      <c r="AB156" s="171"/>
+      <c r="AC156" s="171"/>
+      <c r="AD156" s="171"/>
     </row>
     <row r="157" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="87" t="s">
@@ -10196,46 +10223,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:L124"/>
+    <mergeCell ref="M124:R124"/>
+    <mergeCell ref="S124:X124"/>
+    <mergeCell ref="Y124:AD124"/>
+    <mergeCell ref="A156:F156"/>
+    <mergeCell ref="G156:L156"/>
+    <mergeCell ref="M156:R156"/>
+    <mergeCell ref="S156:X156"/>
+    <mergeCell ref="Y156:AD156"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="S1:X1"/>
     <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A156:F156"/>
-    <mergeCell ref="G156:L156"/>
-    <mergeCell ref="M156:R156"/>
-    <mergeCell ref="S156:X156"/>
-    <mergeCell ref="Y156:AD156"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:L124"/>
-    <mergeCell ref="M124:R124"/>
-    <mergeCell ref="S124:X124"/>
-    <mergeCell ref="Y124:AD124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10406,13 +10433,13 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
       <c r="F2" s="95"/>
       <c r="G2" s="18" t="s">
         <v>72</v>
@@ -10509,14 +10536,14 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="177" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="158"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="180"/>
       <c r="G3" s="24" t="s">
         <v>104</v>
       </c>
@@ -10564,10 +10591,10 @@
         <f>IF(ISBLANK(F2),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F2), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E4" s="159" t="s">
+      <c r="E4" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="160"/>
+      <c r="F4" s="182"/>
       <c r="G4" s="13" t="s">
         <v>107</v>
       </c>
@@ -10644,8 +10671,8 @@
       <c r="AK5" s="9"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="161"/>
-      <c r="B6" s="162"/>
+      <c r="A6" s="183"/>
+      <c r="B6" s="184"/>
       <c r="C6" s="56"/>
       <c r="D6" s="58" t="s">
         <v>109</v>
@@ -11153,10 +11180,10 @@
       <c r="D11" s="30">
         <v>0</v>
       </c>
-      <c r="E11" s="163" t="s">
+      <c r="E11" s="185" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="164"/>
+      <c r="F11" s="186"/>
       <c r="G11" s="63" t="s">
         <v>120</v>
       </c>
@@ -11282,43 +11309,43 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="165"/>
-      <c r="B12" s="166"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="166"/>
-      <c r="K12" s="166"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="166"/>
-      <c r="N12" s="166"/>
-      <c r="O12" s="166"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="166"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="166"/>
-      <c r="T12" s="166"/>
-      <c r="U12" s="166"/>
-      <c r="V12" s="166"/>
-      <c r="W12" s="166"/>
-      <c r="X12" s="166"/>
-      <c r="Y12" s="166"/>
-      <c r="Z12" s="166"/>
-      <c r="AA12" s="166"/>
-      <c r="AB12" s="166"/>
-      <c r="AC12" s="166"/>
-      <c r="AD12" s="166"/>
-      <c r="AE12" s="166"/>
-      <c r="AF12" s="166"/>
-      <c r="AG12" s="166"/>
-      <c r="AH12" s="166"/>
-      <c r="AI12" s="166"/>
-      <c r="AJ12" s="166"/>
-      <c r="AK12" s="167"/>
+      <c r="A12" s="187"/>
+      <c r="B12" s="188"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="188"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="188"/>
+      <c r="N12" s="188"/>
+      <c r="O12" s="188"/>
+      <c r="P12" s="188"/>
+      <c r="Q12" s="188"/>
+      <c r="R12" s="188"/>
+      <c r="S12" s="188"/>
+      <c r="T12" s="188"/>
+      <c r="U12" s="188"/>
+      <c r="V12" s="188"/>
+      <c r="W12" s="188"/>
+      <c r="X12" s="188"/>
+      <c r="Y12" s="188"/>
+      <c r="Z12" s="188"/>
+      <c r="AA12" s="188"/>
+      <c r="AB12" s="188"/>
+      <c r="AC12" s="188"/>
+      <c r="AD12" s="188"/>
+      <c r="AE12" s="188"/>
+      <c r="AF12" s="188"/>
+      <c r="AG12" s="188"/>
+      <c r="AH12" s="188"/>
+      <c r="AI12" s="188"/>
+      <c r="AJ12" s="188"/>
+      <c r="AK12" s="189"/>
     </row>
     <row r="13" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
@@ -11463,13 +11490,13 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="154"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="176"/>
       <c r="F14" s="95"/>
       <c r="G14" s="18" t="s">
         <v>72</v>
@@ -11566,14 +11593,14 @@
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="155" t="s">
+      <c r="A15" s="177" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="156"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="158"/>
+      <c r="B15" s="178"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="180"/>
       <c r="G15" s="24" t="s">
         <v>104</v>
       </c>
@@ -11621,10 +11648,10 @@
         <f>IF(ISBLANK(F14),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F14), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E16" s="159" t="s">
+      <c r="E16" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="160"/>
+      <c r="F16" s="182"/>
       <c r="G16" s="13" t="s">
         <v>107</v>
       </c>
@@ -11701,8 +11728,8 @@
       <c r="AK17" s="9"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
-      <c r="B18" s="162"/>
+      <c r="A18" s="183"/>
+      <c r="B18" s="184"/>
       <c r="C18" s="56"/>
       <c r="D18" s="58" t="s">
         <v>109</v>
@@ -12210,10 +12237,10 @@
       <c r="D23" s="30">
         <v>0</v>
       </c>
-      <c r="E23" s="163" t="s">
+      <c r="E23" s="185" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="164"/>
+      <c r="F23" s="186"/>
       <c r="G23" s="63" t="s">
         <v>120</v>
       </c>
@@ -12339,43 +12366,43 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="150"/>
-      <c r="B24" s="151"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="151"/>
-      <c r="Q24" s="151"/>
-      <c r="R24" s="151"/>
-      <c r="S24" s="151"/>
-      <c r="T24" s="151"/>
-      <c r="U24" s="151"/>
-      <c r="V24" s="151"/>
-      <c r="W24" s="151"/>
-      <c r="X24" s="151"/>
-      <c r="Y24" s="151"/>
-      <c r="Z24" s="151"/>
-      <c r="AA24" s="151"/>
-      <c r="AB24" s="151"/>
-      <c r="AC24" s="151"/>
-      <c r="AD24" s="151"/>
-      <c r="AE24" s="151"/>
-      <c r="AF24" s="151"/>
-      <c r="AG24" s="151"/>
-      <c r="AH24" s="151"/>
-      <c r="AI24" s="151"/>
-      <c r="AJ24" s="151"/>
-      <c r="AK24" s="152"/>
+      <c r="A24" s="172"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="173"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="173"/>
+      <c r="M24" s="173"/>
+      <c r="N24" s="173"/>
+      <c r="O24" s="173"/>
+      <c r="P24" s="173"/>
+      <c r="Q24" s="173"/>
+      <c r="R24" s="173"/>
+      <c r="S24" s="173"/>
+      <c r="T24" s="173"/>
+      <c r="U24" s="173"/>
+      <c r="V24" s="173"/>
+      <c r="W24" s="173"/>
+      <c r="X24" s="173"/>
+      <c r="Y24" s="173"/>
+      <c r="Z24" s="173"/>
+      <c r="AA24" s="173"/>
+      <c r="AB24" s="173"/>
+      <c r="AC24" s="173"/>
+      <c r="AD24" s="173"/>
+      <c r="AE24" s="173"/>
+      <c r="AF24" s="173"/>
+      <c r="AG24" s="173"/>
+      <c r="AH24" s="173"/>
+      <c r="AI24" s="173"/>
+      <c r="AJ24" s="173"/>
+      <c r="AK24" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -12450,10 +12477,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1730B555-17C4-4D71-B0CF-5EA2C5243D66}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12469,26 +12496,29 @@
     <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="168">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="190">
         <v>43862</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="170"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="192"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="115" t="s">
         <v>121</v>
       </c>
@@ -12526,7 +12556,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="131">
         <v>43880</v>
       </c>
@@ -12567,7 +12597,7 @@
         <v>-178.47</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="139">
         <v>43881</v>
       </c>
@@ -12608,7 +12638,7 @@
         <v>-209.85</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="139">
         <v>43881</v>
       </c>
@@ -12649,7 +12679,7 @@
         <v>-228.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="139">
         <v>43881</v>
       </c>
@@ -12690,7 +12720,7 @@
         <v>-138.54</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="139">
         <v>43881</v>
       </c>
@@ -12731,7 +12761,7 @@
         <v>-318.70999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="139">
         <v>43882</v>
       </c>
@@ -12772,7 +12802,7 @@
         <v>-108.58</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="139">
         <v>43882</v>
       </c>
@@ -12813,7 +12843,7 @@
         <v>-219.10000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="139"/>
       <c r="B10" s="130"/>
       <c r="C10" s="128"/>
@@ -12833,7 +12863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="139"/>
       <c r="B11" s="130"/>
       <c r="C11" s="128"/>
@@ -12853,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="139"/>
       <c r="B12" s="130"/>
       <c r="C12" s="128"/>
@@ -12873,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="141"/>
       <c r="B13" s="142"/>
       <c r="C13" s="143"/>
@@ -12893,7 +12923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="121" t="s">
         <v>139</v>
       </c>
@@ -12924,24 +12954,28 @@
         <v>-1401.75</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="168">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="190">
         <v>43891</v>
       </c>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="170"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="191"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="192"/>
+      <c r="N16" s="193" t="s">
+        <v>192</v>
+      </c>
+      <c r="O16" s="194"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="115" t="s">
         <v>121</v>
       </c>
@@ -12978,8 +13012,15 @@
       <c r="L17" s="81" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N17" s="149" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" s="150">
+        <f>H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="131">
         <v>43906</v>
       </c>
@@ -12990,14 +13031,14 @@
         <v>0.94599999999999995</v>
       </c>
       <c r="D18" s="134">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="E18" s="135">
         <v>51.16</v>
       </c>
       <c r="F18" s="136">
         <f>C18*D18</f>
-        <v>23650</v>
+        <v>14190</v>
       </c>
       <c r="G18" s="137">
         <v>43907</v>
@@ -13006,81 +13047,116 @@
         <v>0.95099999999999996</v>
       </c>
       <c r="I18" s="134">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="J18" s="138">
-        <v>51.3</v>
+        <v>27.76</v>
       </c>
       <c r="K18" s="112">
         <f>L18/F18</f>
-        <v>9.5306553911205102E-4</v>
+        <v>-2.7625088090204355E-4</v>
       </c>
       <c r="L18" s="80">
         <f>SUM(H18*I18)-F18-E18-J18</f>
-        <v>22.540000000000006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-3.9199999999999982</v>
+      </c>
+      <c r="N18" s="151" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" s="170">
+        <f>I20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="139">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B19" s="129" t="s">
         <v>167</v>
       </c>
       <c r="C19" s="128">
-        <v>0.92500000000000004</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D19" s="74">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="E19" s="75">
-        <v>29.93</v>
+        <v>0</v>
       </c>
       <c r="F19" s="76">
         <f t="shared" ref="F19:F28" si="6">C19*D19</f>
-        <v>13875</v>
-      </c>
-      <c r="G19" s="127"/>
-      <c r="H19" s="128"/>
+        <v>9460</v>
+      </c>
+      <c r="G19" s="127">
+        <v>43907</v>
+      </c>
+      <c r="H19" s="128">
+        <v>0.95099999999999996</v>
+      </c>
       <c r="I19" s="74">
-        <v>15000</v>
-      </c>
-      <c r="J19" s="140"/>
+        <v>10000</v>
+      </c>
+      <c r="J19" s="140">
+        <v>21.34</v>
+      </c>
       <c r="K19" s="113">
         <f t="shared" ref="K19:K21" si="7">L19/F19</f>
-        <v>-1.0021571171171171</v>
+        <v>3.029598308668076E-3</v>
       </c>
       <c r="L19" s="77">
         <f t="shared" ref="L19:L21" si="8">SUM(H19*I19)-F19-E19-J19</f>
-        <v>-13904.93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="139"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
+        <v>28.66</v>
+      </c>
+      <c r="N19" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" s="154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="139">
+        <v>43907</v>
+      </c>
+      <c r="B20" s="129" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="128">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D20" s="74">
+        <v>15000</v>
+      </c>
+      <c r="E20" s="75">
+        <v>26.65</v>
+      </c>
       <c r="F20" s="76">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13875</v>
       </c>
       <c r="G20" s="127"/>
       <c r="H20" s="128"/>
       <c r="I20" s="74"/>
       <c r="J20" s="140"/>
-      <c r="K20" s="113" t="e">
+      <c r="K20" s="113">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-1.0019207207207208</v>
       </c>
       <c r="L20" s="77">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="139"/>
-      <c r="B21" s="129"/>
+        <v>-13901.65</v>
+      </c>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="139">
+        <v>43908</v>
+      </c>
+      <c r="B21" s="129" t="s">
+        <v>167</v>
+      </c>
       <c r="C21" s="128"/>
       <c r="D21" s="74"/>
       <c r="E21" s="75"/>
@@ -13100,8 +13176,15 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N21" s="155" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" s="156">
+        <f>O17*O18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="139"/>
       <c r="B22" s="129"/>
       <c r="C22" s="128"/>
@@ -13123,8 +13206,15 @@
         <f t="shared" ref="L22" si="9">SUM(H22*I22)-F22-E22-J22</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N22" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" s="158">
+        <f>IF(O21&gt;15000, O21*8%/100, 8)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="139"/>
       <c r="B23" s="129"/>
       <c r="C23" s="128"/>
@@ -13146,8 +13236,15 @@
         <f t="shared" ref="L23:L28" si="11">SUM(H23*I23)-F23-E23-J23</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N23" s="157" t="s">
+        <v>173</v>
+      </c>
+      <c r="O23" s="158">
+        <f>O22*6%</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="139"/>
       <c r="B24" s="129"/>
       <c r="C24" s="128"/>
@@ -13169,8 +13266,15 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N24" s="157" t="s">
+        <v>170</v>
+      </c>
+      <c r="O24" s="159">
+        <f>IF(O19=TRUE,CEILING(O21,1000)/1000,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="139"/>
       <c r="B25" s="130"/>
       <c r="C25" s="128"/>
@@ -13192,8 +13296,15 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N25" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="O25" s="158">
+        <f>O21*0.03%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="139"/>
       <c r="B26" s="130"/>
       <c r="C26" s="128"/>
@@ -13215,8 +13326,15 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N26" s="160" t="s">
+        <v>175</v>
+      </c>
+      <c r="O26" s="161">
+        <f>ROUNDUP(SUM(O22:O25),2)</f>
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="139"/>
       <c r="B27" s="130"/>
       <c r="C27" s="128"/>
@@ -13239,7 +13357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="141"/>
       <c r="B28" s="142"/>
       <c r="C28" s="143"/>
@@ -13262,7 +13380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="121" t="s">
         <v>139</v>
       </c>
@@ -13273,7 +13391,7 @@
       </c>
       <c r="E29" s="125">
         <f>SUM(E18:E28)</f>
-        <v>81.09</v>
+        <v>77.81</v>
       </c>
       <c r="F29" s="126"/>
       <c r="G29" s="123"/>
@@ -13283,21 +13401,27 @@
       </c>
       <c r="J29" s="125">
         <f>SUM(J18:J28)</f>
-        <v>51.3</v>
+        <v>49.1</v>
       </c>
       <c r="K29" s="79" t="s">
         <v>141</v>
       </c>
       <c r="L29" s="82">
         <f>SUM(L18:L28)</f>
-        <v>-13882.39</v>
+        <v>-13876.91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A16:L16"/>
+    <mergeCell ref="N16:O16"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O19" xr:uid="{2F3E514A-4D83-47A4-A1CF-9046BABFBA52}">
+      <formula1>"TRUE, FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13308,7 +13432,7 @@
   <dimension ref="B1:D16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B2" sqref="B2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13321,153 +13445,153 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="149" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="176">
+      <c r="C2" s="150">
         <v>0.95</v>
       </c>
-      <c r="D2" s="176">
-        <v>0.95</v>
+      <c r="D2" s="150">
+        <v>0.95099999999999996</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="178">
+      <c r="C3" s="152">
         <v>15000</v>
       </c>
-      <c r="D3" s="178">
-        <v>15000</v>
+      <c r="D3" s="152">
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="180" t="b">
+      <c r="C4" s="154" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="180" t="b">
+      <c r="D4" s="154" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="155" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="182">
+      <c r="C6" s="156">
         <f>C2*C3</f>
         <v>14250</v>
       </c>
-      <c r="D6" s="182">
+      <c r="D6" s="156">
         <f>D2*D3</f>
-        <v>14250</v>
+        <v>9510</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="157" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="184">
-        <f>IF(C6&gt;10000, C6*8%/100, 8)</f>
-        <v>11.4</v>
-      </c>
-      <c r="D7" s="184">
-        <f>IF(D6&gt;10000, D6*8%/100, 8)</f>
-        <v>11.4</v>
+      <c r="C7" s="158">
+        <f>IF(C6&gt;15000, C6*8%/100, 8)</f>
+        <v>8</v>
+      </c>
+      <c r="D7" s="158">
+        <f>IF(D6&gt;15000, D6*8%/100, 8)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="183" t="s">
+      <c r="B8" s="157" t="s">
         <v>173</v>
       </c>
-      <c r="C8" s="184">
+      <c r="C8" s="158">
         <f>C7*6%</f>
-        <v>0.68399999999999994</v>
-      </c>
-      <c r="D8" s="184">
+        <v>0.48</v>
+      </c>
+      <c r="D8" s="158">
         <f>D7*6%</f>
-        <v>0.68399999999999994</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="183" t="s">
+      <c r="B9" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="185">
+      <c r="C9" s="159">
         <f>IF(C4=TRUE,CEILING(C6,1000)/1000,0)</f>
         <v>15</v>
       </c>
-      <c r="D9" s="185">
+      <c r="D9" s="159">
         <f>IF(D4=TRUE,CEILING(D6,1000)/1000,0)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="183" t="s">
+      <c r="B10" s="157" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="184">
+      <c r="C10" s="158">
         <f>C6*0.03%</f>
         <v>4.2749999999999995</v>
       </c>
-      <c r="D10" s="184">
+      <c r="D10" s="158">
         <f>D6*0.03%</f>
-        <v>4.2749999999999995</v>
+        <v>2.8529999999999998</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="186" t="s">
+      <c r="B11" s="160" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="187">
+      <c r="C11" s="161">
         <f>ROUNDUP(SUM(C7:C10),2)</f>
-        <v>31.360000000000003</v>
-      </c>
-      <c r="D11" s="187">
+        <v>27.76</v>
+      </c>
+      <c r="D11" s="161">
         <f>ROUNDUP(SUM(D7:D10),2)</f>
-        <v>31.360000000000003</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="188" t="s">
+      <c r="B13" s="162" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="189">
+      <c r="C13" s="163">
         <f>C11+D11</f>
-        <v>62.720000000000006</v>
-      </c>
-      <c r="D13" s="190"/>
+        <v>49.1</v>
+      </c>
+      <c r="D13" s="164"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="165" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="192">
+      <c r="C14" s="166">
         <f>D2-C2</f>
-        <v>0</v>
+        <v>1.0000000000000009E-3</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="191" t="s">
+      <c r="B15" s="165" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="193" t="e">
+      <c r="C15" s="167">
         <f>C13/C14</f>
-        <v>#DIV/0!</v>
+        <v>49099.999999999956</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="194" t="s">
+      <c r="B16" s="168" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="195" t="e">
+      <c r="C16" s="169">
         <f>CEILING(C15,100)/100</f>
-        <v>#DIV/0!</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -13486,7 +13610,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13499,10 +13623,10 @@
       <c r="A1" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="174">
+      <c r="B1" s="195">
         <v>0.51</v>
       </c>
-      <c r="C1" s="174"/>
+      <c r="C1" s="195"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -13511,10 +13635,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="174">
+      <c r="B2" s="195">
         <v>0.54</v>
       </c>
-      <c r="C2" s="174"/>
+      <c r="C2" s="195"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -13523,10 +13647,10 @@
       <c r="A3" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="174">
+      <c r="B3" s="195">
         <v>0.51</v>
       </c>
-      <c r="C3" s="174"/>
+      <c r="C3" s="195"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -13535,10 +13659,10 @@
       <c r="A4" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="174">
+      <c r="B4" s="195">
         <v>0.54</v>
       </c>
-      <c r="C4" s="174"/>
+      <c r="C4" s="195"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -13573,14 +13697,14 @@
       <c r="A8" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="196" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="173">
+      <c r="C8" s="197">
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="171">
+      <c r="E8" s="198">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -13590,10 +13714,10 @@
       <c r="A9" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="196"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="171"/>
+      <c r="E9" s="198"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -13626,14 +13750,14 @@
       <c r="A13" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="172" t="s">
+      <c r="B13" s="196" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="173">
+      <c r="C13" s="197">
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="171">
+      <c r="E13" s="198">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -13643,10 +13767,10 @@
       <c r="A14" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="172"/>
-      <c r="C14" s="172"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="196"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="171"/>
+      <c r="E14" s="198"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -13679,14 +13803,14 @@
       <c r="A18" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="172" t="s">
+      <c r="B18" s="196" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="173">
+      <c r="C18" s="197">
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="171">
+      <c r="E18" s="198">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -13696,10 +13820,10 @@
       <c r="A19" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="196"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="171"/>
+      <c r="E19" s="198"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -13744,12 +13868,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -13757,6 +13875,12 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1070" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BCE7337D-43B5-4ACD-AD0E-7805EF6039EC}"/>
+  <xr:revisionPtr revIDLastSave="1109" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CD15B1E2-0E40-4DA0-8775-3D451280335E}"/>
   <bookViews>
-    <workbookView xWindow="-330" yWindow="4125" windowWidth="27870" windowHeight="12840" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="15240" yWindow="5445" windowWidth="28110" windowHeight="16440" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="196">
   <si>
     <t>Pillar</t>
   </si>
@@ -622,13 +622,16 @@
   </si>
   <si>
     <t>DIALOG</t>
+  </si>
+  <si>
+    <t>YTL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-14809]dddd\,\ d\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-14809]dmmmyy\(ddd\);@"/>
@@ -642,6 +645,7 @@
     <numFmt numFmtId="173" formatCode="0.0"/>
     <numFmt numFmtId="174" formatCode="0.000"/>
     <numFmt numFmtId="175" formatCode="_-[$RM-4409]* #,##0.000_-;\-[$RM-4409]* #,##0.000_-;_-[$RM-4409]* &quot;-&quot;???_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-[$RM-4409]* #,##0.00000_-;\-[$RM-4409]* #,##0.00000_-;_-[$RM-4409]* &quot;-&quot;?????_-;_-@_-"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -1723,7 +1727,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2236,6 +2240,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="17" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2754,10 +2761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
-  <dimension ref="A1:AD177"/>
+  <dimension ref="A1:AD179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M128" sqref="M128"/>
+    <sheetView tabSelected="1" topLeftCell="G125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2767,50 +2774,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="171">
+      <c r="A1" s="172">
         <v>43864</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171">
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172">
         <f>A1+1</f>
         <v>43865</v>
       </c>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171">
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172">
         <f t="shared" ref="M1" si="0">G1+1</f>
         <v>43866</v>
       </c>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171">
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172">
         <f t="shared" ref="S1" si="1">M1+1</f>
         <v>43867</v>
       </c>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171">
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172">
         <f t="shared" ref="Y1" si="2">S1+1</f>
         <v>43868</v>
       </c>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="171"/>
-      <c r="AD1" s="171"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="172"/>
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="172"/>
+      <c r="AD1" s="172"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="87" t="s">
@@ -3339,51 +3346,51 @@
       <c r="AD14" s="93"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="171">
+      <c r="A15" s="172">
         <f>A1+7</f>
         <v>43871</v>
       </c>
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171">
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172">
         <f>A15+1</f>
         <v>43872</v>
       </c>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="171">
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="172">
         <f t="shared" ref="M15" si="3">G15+1</f>
         <v>43873</v>
       </c>
-      <c r="N15" s="171"/>
-      <c r="O15" s="171"/>
-      <c r="P15" s="171"/>
-      <c r="Q15" s="171"/>
-      <c r="R15" s="171"/>
-      <c r="S15" s="171">
+      <c r="N15" s="172"/>
+      <c r="O15" s="172"/>
+      <c r="P15" s="172"/>
+      <c r="Q15" s="172"/>
+      <c r="R15" s="172"/>
+      <c r="S15" s="172">
         <f t="shared" ref="S15" si="4">M15+1</f>
         <v>43874</v>
       </c>
-      <c r="T15" s="171"/>
-      <c r="U15" s="171"/>
-      <c r="V15" s="171"/>
-      <c r="W15" s="171"/>
-      <c r="X15" s="171"/>
-      <c r="Y15" s="171">
+      <c r="T15" s="172"/>
+      <c r="U15" s="172"/>
+      <c r="V15" s="172"/>
+      <c r="W15" s="172"/>
+      <c r="X15" s="172"/>
+      <c r="Y15" s="172">
         <f t="shared" ref="Y15" si="5">S15+1</f>
         <v>43875</v>
       </c>
-      <c r="Z15" s="171"/>
-      <c r="AA15" s="171"/>
-      <c r="AB15" s="171"/>
-      <c r="AC15" s="171"/>
-      <c r="AD15" s="171"/>
+      <c r="Z15" s="172"/>
+      <c r="AA15" s="172"/>
+      <c r="AB15" s="172"/>
+      <c r="AC15" s="172"/>
+      <c r="AD15" s="172"/>
     </row>
     <row r="16" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="87" t="s">
@@ -4120,51 +4127,51 @@
       <c r="AD29" s="93"/>
     </row>
     <row r="30" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="171">
+      <c r="A30" s="172">
         <f>A15+7</f>
         <v>43878</v>
       </c>
-      <c r="B30" s="171"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171">
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172">
         <f>A30+1</f>
         <v>43879</v>
       </c>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="171"/>
-      <c r="L30" s="171"/>
-      <c r="M30" s="171">
+      <c r="H30" s="172"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="172"/>
+      <c r="L30" s="172"/>
+      <c r="M30" s="172">
         <f t="shared" ref="M30" si="6">G30+1</f>
         <v>43880</v>
       </c>
-      <c r="N30" s="171"/>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171">
+      <c r="N30" s="172"/>
+      <c r="O30" s="172"/>
+      <c r="P30" s="172"/>
+      <c r="Q30" s="172"/>
+      <c r="R30" s="172"/>
+      <c r="S30" s="172">
         <f t="shared" ref="S30" si="7">M30+1</f>
         <v>43881</v>
       </c>
-      <c r="T30" s="171"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="171"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="171"/>
-      <c r="Y30" s="171">
+      <c r="T30" s="172"/>
+      <c r="U30" s="172"/>
+      <c r="V30" s="172"/>
+      <c r="W30" s="172"/>
+      <c r="X30" s="172"/>
+      <c r="Y30" s="172">
         <f t="shared" ref="Y30" si="8">S30+1</f>
         <v>43882</v>
       </c>
-      <c r="Z30" s="171"/>
-      <c r="AA30" s="171"/>
-      <c r="AB30" s="171"/>
-      <c r="AC30" s="171"/>
-      <c r="AD30" s="171"/>
+      <c r="Z30" s="172"/>
+      <c r="AA30" s="172"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="172"/>
+      <c r="AD30" s="172"/>
     </row>
     <row r="31" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="87" t="s">
@@ -5487,51 +5494,51 @@
       <c r="AD52" s="93"/>
     </row>
     <row r="53" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="171">
+      <c r="A53" s="172">
         <f>A30+7</f>
         <v>43885</v>
       </c>
-      <c r="B53" s="171"/>
-      <c r="C53" s="171"/>
-      <c r="D53" s="171"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="171"/>
-      <c r="G53" s="171">
+      <c r="B53" s="172"/>
+      <c r="C53" s="172"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="172"/>
+      <c r="F53" s="172"/>
+      <c r="G53" s="172">
         <f>A53+1</f>
         <v>43886</v>
       </c>
-      <c r="H53" s="171"/>
-      <c r="I53" s="171"/>
-      <c r="J53" s="171"/>
-      <c r="K53" s="171"/>
-      <c r="L53" s="171"/>
-      <c r="M53" s="171">
+      <c r="H53" s="172"/>
+      <c r="I53" s="172"/>
+      <c r="J53" s="172"/>
+      <c r="K53" s="172"/>
+      <c r="L53" s="172"/>
+      <c r="M53" s="172">
         <f t="shared" ref="M53" si="9">G53+1</f>
         <v>43887</v>
       </c>
-      <c r="N53" s="171"/>
-      <c r="O53" s="171"/>
-      <c r="P53" s="171"/>
-      <c r="Q53" s="171"/>
-      <c r="R53" s="171"/>
-      <c r="S53" s="171">
+      <c r="N53" s="172"/>
+      <c r="O53" s="172"/>
+      <c r="P53" s="172"/>
+      <c r="Q53" s="172"/>
+      <c r="R53" s="172"/>
+      <c r="S53" s="172">
         <f t="shared" ref="S53" si="10">M53+1</f>
         <v>43888</v>
       </c>
-      <c r="T53" s="171"/>
-      <c r="U53" s="171"/>
-      <c r="V53" s="171"/>
-      <c r="W53" s="171"/>
-      <c r="X53" s="171"/>
-      <c r="Y53" s="171">
+      <c r="T53" s="172"/>
+      <c r="U53" s="172"/>
+      <c r="V53" s="172"/>
+      <c r="W53" s="172"/>
+      <c r="X53" s="172"/>
+      <c r="Y53" s="172">
         <f t="shared" ref="Y53" si="11">S53+1</f>
         <v>43889</v>
       </c>
-      <c r="Z53" s="171"/>
-      <c r="AA53" s="171"/>
-      <c r="AB53" s="171"/>
-      <c r="AC53" s="171"/>
-      <c r="AD53" s="171"/>
+      <c r="Z53" s="172"/>
+      <c r="AA53" s="172"/>
+      <c r="AB53" s="172"/>
+      <c r="AC53" s="172"/>
+      <c r="AD53" s="172"/>
     </row>
     <row r="54" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="87" t="s">
@@ -6634,51 +6641,51 @@
       <c r="AD79" s="93"/>
     </row>
     <row r="80" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="171">
+      <c r="A80" s="172">
         <f>A53+7</f>
         <v>43892</v>
       </c>
-      <c r="B80" s="171"/>
-      <c r="C80" s="171"/>
-      <c r="D80" s="171"/>
-      <c r="E80" s="171"/>
-      <c r="F80" s="171"/>
-      <c r="G80" s="171">
+      <c r="B80" s="172"/>
+      <c r="C80" s="172"/>
+      <c r="D80" s="172"/>
+      <c r="E80" s="172"/>
+      <c r="F80" s="172"/>
+      <c r="G80" s="172">
         <f>A80+1</f>
         <v>43893</v>
       </c>
-      <c r="H80" s="171"/>
-      <c r="I80" s="171"/>
-      <c r="J80" s="171"/>
-      <c r="K80" s="171"/>
-      <c r="L80" s="171"/>
-      <c r="M80" s="171">
+      <c r="H80" s="172"/>
+      <c r="I80" s="172"/>
+      <c r="J80" s="172"/>
+      <c r="K80" s="172"/>
+      <c r="L80" s="172"/>
+      <c r="M80" s="172">
         <f t="shared" ref="M80" si="12">G80+1</f>
         <v>43894</v>
       </c>
-      <c r="N80" s="171"/>
-      <c r="O80" s="171"/>
-      <c r="P80" s="171"/>
-      <c r="Q80" s="171"/>
-      <c r="R80" s="171"/>
-      <c r="S80" s="171">
+      <c r="N80" s="172"/>
+      <c r="O80" s="172"/>
+      <c r="P80" s="172"/>
+      <c r="Q80" s="172"/>
+      <c r="R80" s="172"/>
+      <c r="S80" s="172">
         <f t="shared" ref="S80" si="13">M80+1</f>
         <v>43895</v>
       </c>
-      <c r="T80" s="171"/>
-      <c r="U80" s="171"/>
-      <c r="V80" s="171"/>
-      <c r="W80" s="171"/>
-      <c r="X80" s="171"/>
-      <c r="Y80" s="171">
+      <c r="T80" s="172"/>
+      <c r="U80" s="172"/>
+      <c r="V80" s="172"/>
+      <c r="W80" s="172"/>
+      <c r="X80" s="172"/>
+      <c r="Y80" s="172">
         <f t="shared" ref="Y80" si="14">S80+1</f>
         <v>43896</v>
       </c>
-      <c r="Z80" s="171"/>
-      <c r="AA80" s="171"/>
-      <c r="AB80" s="171"/>
-      <c r="AC80" s="171"/>
-      <c r="AD80" s="171"/>
+      <c r="Z80" s="172"/>
+      <c r="AA80" s="172"/>
+      <c r="AB80" s="172"/>
+      <c r="AC80" s="172"/>
+      <c r="AD80" s="172"/>
     </row>
     <row r="81" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="87" t="s">
@@ -7467,51 +7474,51 @@
       <c r="AD101" s="93"/>
     </row>
     <row r="102" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="171">
+      <c r="A102" s="172">
         <f>A80+7</f>
         <v>43899</v>
       </c>
-      <c r="B102" s="171"/>
-      <c r="C102" s="171"/>
-      <c r="D102" s="171"/>
-      <c r="E102" s="171"/>
-      <c r="F102" s="171"/>
-      <c r="G102" s="171">
+      <c r="B102" s="172"/>
+      <c r="C102" s="172"/>
+      <c r="D102" s="172"/>
+      <c r="E102" s="172"/>
+      <c r="F102" s="172"/>
+      <c r="G102" s="172">
         <f>A102+1</f>
         <v>43900</v>
       </c>
-      <c r="H102" s="171"/>
-      <c r="I102" s="171"/>
-      <c r="J102" s="171"/>
-      <c r="K102" s="171"/>
-      <c r="L102" s="171"/>
-      <c r="M102" s="171">
+      <c r="H102" s="172"/>
+      <c r="I102" s="172"/>
+      <c r="J102" s="172"/>
+      <c r="K102" s="172"/>
+      <c r="L102" s="172"/>
+      <c r="M102" s="172">
         <f t="shared" ref="M102" si="15">G102+1</f>
         <v>43901</v>
       </c>
-      <c r="N102" s="171"/>
-      <c r="O102" s="171"/>
-      <c r="P102" s="171"/>
-      <c r="Q102" s="171"/>
-      <c r="R102" s="171"/>
-      <c r="S102" s="171">
+      <c r="N102" s="172"/>
+      <c r="O102" s="172"/>
+      <c r="P102" s="172"/>
+      <c r="Q102" s="172"/>
+      <c r="R102" s="172"/>
+      <c r="S102" s="172">
         <f t="shared" ref="S102" si="16">M102+1</f>
         <v>43902</v>
       </c>
-      <c r="T102" s="171"/>
-      <c r="U102" s="171"/>
-      <c r="V102" s="171"/>
-      <c r="W102" s="171"/>
-      <c r="X102" s="171"/>
-      <c r="Y102" s="171">
+      <c r="T102" s="172"/>
+      <c r="U102" s="172"/>
+      <c r="V102" s="172"/>
+      <c r="W102" s="172"/>
+      <c r="X102" s="172"/>
+      <c r="Y102" s="172">
         <f t="shared" ref="Y102" si="17">S102+1</f>
         <v>43903</v>
       </c>
-      <c r="Z102" s="171"/>
-      <c r="AA102" s="171"/>
-      <c r="AB102" s="171"/>
-      <c r="AC102" s="171"/>
-      <c r="AD102" s="171"/>
+      <c r="Z102" s="172"/>
+      <c r="AA102" s="172"/>
+      <c r="AB102" s="172"/>
+      <c r="AC102" s="172"/>
+      <c r="AD102" s="172"/>
     </row>
     <row r="103" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="87" t="s">
@@ -8280,51 +8287,51 @@
       <c r="AD123" s="93"/>
     </row>
     <row r="124" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="171">
+      <c r="A124" s="172">
         <f>A102+7</f>
         <v>43906</v>
       </c>
-      <c r="B124" s="171"/>
-      <c r="C124" s="171"/>
-      <c r="D124" s="171"/>
-      <c r="E124" s="171"/>
-      <c r="F124" s="171"/>
-      <c r="G124" s="171">
+      <c r="B124" s="172"/>
+      <c r="C124" s="172"/>
+      <c r="D124" s="172"/>
+      <c r="E124" s="172"/>
+      <c r="F124" s="172"/>
+      <c r="G124" s="172">
         <f>A124+1</f>
         <v>43907</v>
       </c>
-      <c r="H124" s="171"/>
-      <c r="I124" s="171"/>
-      <c r="J124" s="171"/>
-      <c r="K124" s="171"/>
-      <c r="L124" s="171"/>
-      <c r="M124" s="171">
+      <c r="H124" s="172"/>
+      <c r="I124" s="172"/>
+      <c r="J124" s="172"/>
+      <c r="K124" s="172"/>
+      <c r="L124" s="172"/>
+      <c r="M124" s="172">
         <f t="shared" ref="M124" si="18">G124+1</f>
         <v>43908</v>
       </c>
-      <c r="N124" s="171"/>
-      <c r="O124" s="171"/>
-      <c r="P124" s="171"/>
-      <c r="Q124" s="171"/>
-      <c r="R124" s="171"/>
-      <c r="S124" s="171">
+      <c r="N124" s="172"/>
+      <c r="O124" s="172"/>
+      <c r="P124" s="172"/>
+      <c r="Q124" s="172"/>
+      <c r="R124" s="172"/>
+      <c r="S124" s="172">
         <f t="shared" ref="S124" si="19">M124+1</f>
         <v>43909</v>
       </c>
-      <c r="T124" s="171"/>
-      <c r="U124" s="171"/>
-      <c r="V124" s="171"/>
-      <c r="W124" s="171"/>
-      <c r="X124" s="171"/>
-      <c r="Y124" s="171">
+      <c r="T124" s="172"/>
+      <c r="U124" s="172"/>
+      <c r="V124" s="172"/>
+      <c r="W124" s="172"/>
+      <c r="X124" s="172"/>
+      <c r="Y124" s="172">
         <f t="shared" ref="Y124" si="20">S124+1</f>
         <v>43910</v>
       </c>
-      <c r="Z124" s="171"/>
-      <c r="AA124" s="171"/>
-      <c r="AB124" s="171"/>
-      <c r="AC124" s="171"/>
-      <c r="AD124" s="171"/>
+      <c r="Z124" s="172"/>
+      <c r="AA124" s="172"/>
+      <c r="AB124" s="172"/>
+      <c r="AC124" s="172"/>
+      <c r="AD124" s="172"/>
     </row>
     <row r="125" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="87" t="s">
@@ -9417,7 +9424,9 @@
       <c r="D155" s="92"/>
       <c r="E155" s="92"/>
       <c r="F155" s="93"/>
-      <c r="G155" s="90"/>
+      <c r="G155" s="90" t="s">
+        <v>159</v>
+      </c>
       <c r="H155" s="91"/>
       <c r="I155" s="92"/>
       <c r="J155" s="92"/>
@@ -9443,207 +9452,209 @@
       <c r="AD155" s="93"/>
     </row>
     <row r="156" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="171">
+      <c r="A156" s="90"/>
+      <c r="B156" s="91"/>
+      <c r="C156" s="92"/>
+      <c r="D156" s="92"/>
+      <c r="E156" s="92"/>
+      <c r="F156" s="93"/>
+      <c r="G156" s="90" t="s">
+        <v>195</v>
+      </c>
+      <c r="H156" s="91"/>
+      <c r="I156" s="92"/>
+      <c r="J156" s="92"/>
+      <c r="K156" s="92"/>
+      <c r="L156" s="93"/>
+      <c r="M156" s="90"/>
+      <c r="N156" s="91"/>
+      <c r="O156" s="92"/>
+      <c r="P156" s="92"/>
+      <c r="Q156" s="92"/>
+      <c r="R156" s="93"/>
+      <c r="S156" s="90"/>
+      <c r="T156" s="91"/>
+      <c r="U156" s="92"/>
+      <c r="V156" s="92"/>
+      <c r="W156" s="92"/>
+      <c r="X156" s="93"/>
+      <c r="Y156" s="90"/>
+      <c r="Z156" s="91"/>
+      <c r="AA156" s="92"/>
+      <c r="AB156" s="92"/>
+      <c r="AC156" s="92"/>
+      <c r="AD156" s="93"/>
+    </row>
+    <row r="157" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="90"/>
+      <c r="B157" s="91"/>
+      <c r="C157" s="92"/>
+      <c r="D157" s="92"/>
+      <c r="E157" s="92"/>
+      <c r="F157" s="93"/>
+      <c r="G157" s="90"/>
+      <c r="H157" s="91"/>
+      <c r="I157" s="92"/>
+      <c r="J157" s="92"/>
+      <c r="K157" s="92"/>
+      <c r="L157" s="93"/>
+      <c r="M157" s="90"/>
+      <c r="N157" s="91"/>
+      <c r="O157" s="92"/>
+      <c r="P157" s="92"/>
+      <c r="Q157" s="92"/>
+      <c r="R157" s="93"/>
+      <c r="S157" s="90"/>
+      <c r="T157" s="91"/>
+      <c r="U157" s="92"/>
+      <c r="V157" s="92"/>
+      <c r="W157" s="92"/>
+      <c r="X157" s="93"/>
+      <c r="Y157" s="90"/>
+      <c r="Z157" s="91"/>
+      <c r="AA157" s="92"/>
+      <c r="AB157" s="92"/>
+      <c r="AC157" s="92"/>
+      <c r="AD157" s="93"/>
+    </row>
+    <row r="158" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="172">
         <f>A124+7</f>
         <v>43913</v>
       </c>
-      <c r="B156" s="171"/>
-      <c r="C156" s="171"/>
-      <c r="D156" s="171"/>
-      <c r="E156" s="171"/>
-      <c r="F156" s="171"/>
-      <c r="G156" s="171">
-        <f>A156+1</f>
+      <c r="B158" s="172"/>
+      <c r="C158" s="172"/>
+      <c r="D158" s="172"/>
+      <c r="E158" s="172"/>
+      <c r="F158" s="172"/>
+      <c r="G158" s="172">
+        <f>A158+1</f>
         <v>43914</v>
       </c>
-      <c r="H156" s="171"/>
-      <c r="I156" s="171"/>
-      <c r="J156" s="171"/>
-      <c r="K156" s="171"/>
-      <c r="L156" s="171"/>
-      <c r="M156" s="171">
-        <f t="shared" ref="M156" si="21">G156+1</f>
+      <c r="H158" s="172"/>
+      <c r="I158" s="172"/>
+      <c r="J158" s="172"/>
+      <c r="K158" s="172"/>
+      <c r="L158" s="172"/>
+      <c r="M158" s="172">
+        <f t="shared" ref="M158" si="21">G158+1</f>
         <v>43915</v>
       </c>
-      <c r="N156" s="171"/>
-      <c r="O156" s="171"/>
-      <c r="P156" s="171"/>
-      <c r="Q156" s="171"/>
-      <c r="R156" s="171"/>
-      <c r="S156" s="171">
-        <f t="shared" ref="S156" si="22">M156+1</f>
+      <c r="N158" s="172"/>
+      <c r="O158" s="172"/>
+      <c r="P158" s="172"/>
+      <c r="Q158" s="172"/>
+      <c r="R158" s="172"/>
+      <c r="S158" s="172">
+        <f t="shared" ref="S158" si="22">M158+1</f>
         <v>43916</v>
       </c>
-      <c r="T156" s="171"/>
-      <c r="U156" s="171"/>
-      <c r="V156" s="171"/>
-      <c r="W156" s="171"/>
-      <c r="X156" s="171"/>
-      <c r="Y156" s="171">
-        <f t="shared" ref="Y156" si="23">S156+1</f>
+      <c r="T158" s="172"/>
+      <c r="U158" s="172"/>
+      <c r="V158" s="172"/>
+      <c r="W158" s="172"/>
+      <c r="X158" s="172"/>
+      <c r="Y158" s="172">
+        <f t="shared" ref="Y158" si="23">S158+1</f>
         <v>43917</v>
       </c>
-      <c r="Z156" s="171"/>
-      <c r="AA156" s="171"/>
-      <c r="AB156" s="171"/>
-      <c r="AC156" s="171"/>
-      <c r="AD156" s="171"/>
-    </row>
-    <row r="157" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157" s="88" t="s">
+      <c r="Z158" s="172"/>
+      <c r="AA158" s="172"/>
+      <c r="AB158" s="172"/>
+      <c r="AC158" s="172"/>
+      <c r="AD158" s="172"/>
+    </row>
+    <row r="159" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C157" s="89" t="s">
+      <c r="C159" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D157" s="88" t="s">
+      <c r="D159" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E157" s="88" t="s">
+      <c r="E159" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F157" s="88" t="s">
+      <c r="F159" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="G157" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="H157" s="88" t="s">
+      <c r="G159" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="H159" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="I157" s="89" t="s">
+      <c r="I159" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="J157" s="88" t="s">
+      <c r="J159" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="K157" s="88" t="s">
+      <c r="K159" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="L157" s="88" t="s">
+      <c r="L159" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="M157" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="N157" s="88" t="s">
+      <c r="M159" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="N159" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="O157" s="89" t="s">
+      <c r="O159" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="P157" s="88" t="s">
+      <c r="P159" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q157" s="88" t="s">
+      <c r="Q159" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="R157" s="88" t="s">
+      <c r="R159" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="S157" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="T157" s="88" t="s">
+      <c r="S159" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="T159" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="U157" s="89" t="s">
+      <c r="U159" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="V157" s="88" t="s">
+      <c r="V159" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="W157" s="88" t="s">
+      <c r="W159" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="X157" s="88" t="s">
+      <c r="X159" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="Y157" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z157" s="88" t="s">
+      <c r="Y159" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z159" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="AA157" s="89" t="s">
+      <c r="AA159" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="AB157" s="88" t="s">
+      <c r="AB159" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="AC157" s="88" t="s">
+      <c r="AC159" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AD157" s="88" t="s">
+      <c r="AD159" s="88" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="90"/>
-      <c r="B158" s="91"/>
-      <c r="C158" s="92"/>
-      <c r="D158" s="92"/>
-      <c r="E158" s="92"/>
-      <c r="F158" s="93"/>
-      <c r="G158" s="90"/>
-      <c r="H158" s="91"/>
-      <c r="I158" s="92"/>
-      <c r="J158" s="92"/>
-      <c r="K158" s="92"/>
-      <c r="L158" s="93"/>
-      <c r="M158" s="90"/>
-      <c r="N158" s="91"/>
-      <c r="O158" s="92"/>
-      <c r="P158" s="92"/>
-      <c r="Q158" s="92"/>
-      <c r="R158" s="93"/>
-      <c r="S158" s="90"/>
-      <c r="T158" s="91"/>
-      <c r="U158" s="92"/>
-      <c r="V158" s="92"/>
-      <c r="W158" s="92"/>
-      <c r="X158" s="93"/>
-      <c r="Y158" s="90"/>
-      <c r="Z158" s="91"/>
-      <c r="AA158" s="92"/>
-      <c r="AB158" s="92"/>
-      <c r="AC158" s="92"/>
-      <c r="AD158" s="93"/>
-    </row>
-    <row r="159" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="90"/>
-      <c r="B159" s="91"/>
-      <c r="C159" s="92"/>
-      <c r="D159" s="92"/>
-      <c r="E159" s="92"/>
-      <c r="F159" s="93"/>
-      <c r="G159" s="90"/>
-      <c r="H159" s="91"/>
-      <c r="I159" s="92"/>
-      <c r="J159" s="92"/>
-      <c r="K159" s="92"/>
-      <c r="L159" s="93"/>
-      <c r="M159" s="90"/>
-      <c r="N159" s="91"/>
-      <c r="O159" s="92"/>
-      <c r="P159" s="92"/>
-      <c r="Q159" s="92"/>
-      <c r="R159" s="93"/>
-      <c r="S159" s="90"/>
-      <c r="T159" s="91"/>
-      <c r="U159" s="92"/>
-      <c r="V159" s="92"/>
-      <c r="W159" s="92"/>
-      <c r="X159" s="93"/>
-      <c r="Y159" s="90"/>
-      <c r="Z159" s="91"/>
-      <c r="AA159" s="92"/>
-      <c r="AB159" s="92"/>
-      <c r="AC159" s="92"/>
-      <c r="AD159" s="93"/>
     </row>
     <row r="160" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="90"/>
@@ -10221,6 +10232,70 @@
       <c r="AC177" s="92"/>
       <c r="AD177" s="93"/>
     </row>
+    <row r="178" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="90"/>
+      <c r="B178" s="91"/>
+      <c r="C178" s="92"/>
+      <c r="D178" s="92"/>
+      <c r="E178" s="92"/>
+      <c r="F178" s="93"/>
+      <c r="G178" s="90"/>
+      <c r="H178" s="91"/>
+      <c r="I178" s="92"/>
+      <c r="J178" s="92"/>
+      <c r="K178" s="92"/>
+      <c r="L178" s="93"/>
+      <c r="M178" s="90"/>
+      <c r="N178" s="91"/>
+      <c r="O178" s="92"/>
+      <c r="P178" s="92"/>
+      <c r="Q178" s="92"/>
+      <c r="R178" s="93"/>
+      <c r="S178" s="90"/>
+      <c r="T178" s="91"/>
+      <c r="U178" s="92"/>
+      <c r="V178" s="92"/>
+      <c r="W178" s="92"/>
+      <c r="X178" s="93"/>
+      <c r="Y178" s="90"/>
+      <c r="Z178" s="91"/>
+      <c r="AA178" s="92"/>
+      <c r="AB178" s="92"/>
+      <c r="AC178" s="92"/>
+      <c r="AD178" s="93"/>
+    </row>
+    <row r="179" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="90"/>
+      <c r="B179" s="91"/>
+      <c r="C179" s="92"/>
+      <c r="D179" s="92"/>
+      <c r="E179" s="92"/>
+      <c r="F179" s="93"/>
+      <c r="G179" s="90"/>
+      <c r="H179" s="91"/>
+      <c r="I179" s="92"/>
+      <c r="J179" s="92"/>
+      <c r="K179" s="92"/>
+      <c r="L179" s="93"/>
+      <c r="M179" s="90"/>
+      <c r="N179" s="91"/>
+      <c r="O179" s="92"/>
+      <c r="P179" s="92"/>
+      <c r="Q179" s="92"/>
+      <c r="R179" s="93"/>
+      <c r="S179" s="90"/>
+      <c r="T179" s="91"/>
+      <c r="U179" s="92"/>
+      <c r="V179" s="92"/>
+      <c r="W179" s="92"/>
+      <c r="X179" s="93"/>
+      <c r="Y179" s="90"/>
+      <c r="Z179" s="91"/>
+      <c r="AA179" s="92"/>
+      <c r="AB179" s="92"/>
+      <c r="AC179" s="92"/>
+      <c r="AD179" s="93"/>
+    </row>
   </sheetData>
   <mergeCells count="40">
     <mergeCell ref="A124:F124"/>
@@ -10228,11 +10303,11 @@
     <mergeCell ref="M124:R124"/>
     <mergeCell ref="S124:X124"/>
     <mergeCell ref="Y124:AD124"/>
-    <mergeCell ref="A156:F156"/>
-    <mergeCell ref="G156:L156"/>
-    <mergeCell ref="M156:R156"/>
-    <mergeCell ref="S156:X156"/>
-    <mergeCell ref="Y156:AD156"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="G158:L158"/>
+    <mergeCell ref="M158:R158"/>
+    <mergeCell ref="S158:X158"/>
+    <mergeCell ref="Y158:AD158"/>
     <mergeCell ref="A80:F80"/>
     <mergeCell ref="G80:L80"/>
     <mergeCell ref="M80:R80"/>
@@ -10276,7 +10351,7 @@
       <pane xSplit="7" ySplit="12" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10433,13 +10508,13 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
       <c r="F2" s="95"/>
       <c r="G2" s="18" t="s">
         <v>72</v>
@@ -10536,14 +10611,14 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="178" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="180"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="181"/>
       <c r="G3" s="24" t="s">
         <v>104</v>
       </c>
@@ -10591,10 +10666,10 @@
         <f>IF(ISBLANK(F2),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F2), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E4" s="181" t="s">
+      <c r="E4" s="182" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="182"/>
+      <c r="F4" s="183"/>
       <c r="G4" s="13" t="s">
         <v>107</v>
       </c>
@@ -10671,8 +10746,8 @@
       <c r="AK5" s="9"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="183"/>
-      <c r="B6" s="184"/>
+      <c r="A6" s="184"/>
+      <c r="B6" s="185"/>
       <c r="C6" s="56"/>
       <c r="D6" s="58" t="s">
         <v>109</v>
@@ -11180,10 +11255,10 @@
       <c r="D11" s="30">
         <v>0</v>
       </c>
-      <c r="E11" s="185" t="s">
+      <c r="E11" s="186" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="186"/>
+      <c r="F11" s="187"/>
       <c r="G11" s="63" t="s">
         <v>120</v>
       </c>
@@ -11309,43 +11384,43 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="187"/>
-      <c r="B12" s="188"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="188"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="188"/>
-      <c r="N12" s="188"/>
-      <c r="O12" s="188"/>
-      <c r="P12" s="188"/>
-      <c r="Q12" s="188"/>
-      <c r="R12" s="188"/>
-      <c r="S12" s="188"/>
-      <c r="T12" s="188"/>
-      <c r="U12" s="188"/>
-      <c r="V12" s="188"/>
-      <c r="W12" s="188"/>
-      <c r="X12" s="188"/>
-      <c r="Y12" s="188"/>
-      <c r="Z12" s="188"/>
-      <c r="AA12" s="188"/>
-      <c r="AB12" s="188"/>
-      <c r="AC12" s="188"/>
-      <c r="AD12" s="188"/>
-      <c r="AE12" s="188"/>
-      <c r="AF12" s="188"/>
-      <c r="AG12" s="188"/>
-      <c r="AH12" s="188"/>
-      <c r="AI12" s="188"/>
-      <c r="AJ12" s="188"/>
-      <c r="AK12" s="189"/>
+      <c r="A12" s="188"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="189"/>
+      <c r="R12" s="189"/>
+      <c r="S12" s="189"/>
+      <c r="T12" s="189"/>
+      <c r="U12" s="189"/>
+      <c r="V12" s="189"/>
+      <c r="W12" s="189"/>
+      <c r="X12" s="189"/>
+      <c r="Y12" s="189"/>
+      <c r="Z12" s="189"/>
+      <c r="AA12" s="189"/>
+      <c r="AB12" s="189"/>
+      <c r="AC12" s="189"/>
+      <c r="AD12" s="189"/>
+      <c r="AE12" s="189"/>
+      <c r="AF12" s="189"/>
+      <c r="AG12" s="189"/>
+      <c r="AH12" s="189"/>
+      <c r="AI12" s="189"/>
+      <c r="AJ12" s="189"/>
+      <c r="AK12" s="190"/>
     </row>
     <row r="13" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
@@ -11490,13 +11565,13 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="175" t="s">
+      <c r="A14" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="176"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
       <c r="F14" s="95"/>
       <c r="G14" s="18" t="s">
         <v>72</v>
@@ -11593,14 +11668,14 @@
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="178" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="180"/>
+      <c r="B15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="181"/>
       <c r="G15" s="24" t="s">
         <v>104</v>
       </c>
@@ -11648,10 +11723,10 @@
         <f>IF(ISBLANK(F14),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F14), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E16" s="181" t="s">
+      <c r="E16" s="182" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="182"/>
+      <c r="F16" s="183"/>
       <c r="G16" s="13" t="s">
         <v>107</v>
       </c>
@@ -11728,8 +11803,8 @@
       <c r="AK17" s="9"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="183"/>
-      <c r="B18" s="184"/>
+      <c r="A18" s="184"/>
+      <c r="B18" s="185"/>
       <c r="C18" s="56"/>
       <c r="D18" s="58" t="s">
         <v>109</v>
@@ -12237,10 +12312,10 @@
       <c r="D23" s="30">
         <v>0</v>
       </c>
-      <c r="E23" s="185" t="s">
+      <c r="E23" s="186" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="186"/>
+      <c r="F23" s="187"/>
       <c r="G23" s="63" t="s">
         <v>120</v>
       </c>
@@ -12366,43 +12441,43 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="172"/>
-      <c r="B24" s="173"/>
-      <c r="C24" s="173"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="173"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="173"/>
-      <c r="N24" s="173"/>
-      <c r="O24" s="173"/>
-      <c r="P24" s="173"/>
-      <c r="Q24" s="173"/>
-      <c r="R24" s="173"/>
-      <c r="S24" s="173"/>
-      <c r="T24" s="173"/>
-      <c r="U24" s="173"/>
-      <c r="V24" s="173"/>
-      <c r="W24" s="173"/>
-      <c r="X24" s="173"/>
-      <c r="Y24" s="173"/>
-      <c r="Z24" s="173"/>
-      <c r="AA24" s="173"/>
-      <c r="AB24" s="173"/>
-      <c r="AC24" s="173"/>
-      <c r="AD24" s="173"/>
-      <c r="AE24" s="173"/>
-      <c r="AF24" s="173"/>
-      <c r="AG24" s="173"/>
-      <c r="AH24" s="173"/>
-      <c r="AI24" s="173"/>
-      <c r="AJ24" s="173"/>
-      <c r="AK24" s="174"/>
+      <c r="A24" s="173"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="174"/>
+      <c r="L24" s="174"/>
+      <c r="M24" s="174"/>
+      <c r="N24" s="174"/>
+      <c r="O24" s="174"/>
+      <c r="P24" s="174"/>
+      <c r="Q24" s="174"/>
+      <c r="R24" s="174"/>
+      <c r="S24" s="174"/>
+      <c r="T24" s="174"/>
+      <c r="U24" s="174"/>
+      <c r="V24" s="174"/>
+      <c r="W24" s="174"/>
+      <c r="X24" s="174"/>
+      <c r="Y24" s="174"/>
+      <c r="Z24" s="174"/>
+      <c r="AA24" s="174"/>
+      <c r="AB24" s="174"/>
+      <c r="AC24" s="174"/>
+      <c r="AD24" s="174"/>
+      <c r="AE24" s="174"/>
+      <c r="AF24" s="174"/>
+      <c r="AG24" s="174"/>
+      <c r="AH24" s="174"/>
+      <c r="AI24" s="174"/>
+      <c r="AJ24" s="174"/>
+      <c r="AK24" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -12480,7 +12555,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12503,20 +12578,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="190">
+      <c r="A1" s="191">
         <v>43862</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="192"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="193"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="115" t="s">
@@ -12956,24 +13031,24 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="190">
+      <c r="A16" s="191">
         <v>43891</v>
       </c>
-      <c r="B16" s="191"/>
-      <c r="C16" s="191"/>
-      <c r="D16" s="191"/>
-      <c r="E16" s="191"/>
-      <c r="F16" s="191"/>
-      <c r="G16" s="191"/>
-      <c r="H16" s="191"/>
-      <c r="I16" s="191"/>
-      <c r="J16" s="191"/>
-      <c r="K16" s="191"/>
-      <c r="L16" s="192"/>
-      <c r="N16" s="193" t="s">
+      <c r="B16" s="192"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="192"/>
+      <c r="L16" s="193"/>
+      <c r="N16" s="194" t="s">
         <v>192</v>
       </c>
-      <c r="O16" s="194"/>
+      <c r="O16" s="195"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="115" t="s">
@@ -13017,7 +13092,7 @@
       </c>
       <c r="O17" s="150">
         <f>H20</f>
-        <v>0</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -13064,8 +13139,7 @@
         <v>169</v>
       </c>
       <c r="O18" s="170">
-        <f>I20</f>
-        <v>0</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13135,17 +13209,25 @@
         <f t="shared" si="6"/>
         <v>13875</v>
       </c>
-      <c r="G20" s="127"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="140"/>
+      <c r="G20" s="127">
+        <v>43909</v>
+      </c>
+      <c r="H20" s="128">
+        <v>0.746</v>
+      </c>
+      <c r="I20" s="74">
+        <v>15000</v>
+      </c>
+      <c r="J20" s="140">
+        <v>45.02</v>
+      </c>
       <c r="K20" s="113">
         <f t="shared" si="7"/>
-        <v>-1.0019207207207208</v>
+        <v>-0.19867891891891892</v>
       </c>
       <c r="L20" s="77">
         <f t="shared" si="8"/>
-        <v>-13901.65</v>
+        <v>-2756.67</v>
       </c>
       <c r="N20" s="72"/>
       <c r="O20" s="72"/>
@@ -13157,31 +13239,45 @@
       <c r="B21" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="75"/>
+      <c r="C21" s="171">
+        <v>0.90375000000000005</v>
+      </c>
+      <c r="D21" s="74">
+        <v>12000</v>
+      </c>
+      <c r="E21" s="75">
+        <v>23.46</v>
+      </c>
       <c r="F21" s="76">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="127"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="113" t="e">
+        <v>10845</v>
+      </c>
+      <c r="G21" s="127">
+        <v>43909</v>
+      </c>
+      <c r="H21" s="128">
+        <v>0.746</v>
+      </c>
+      <c r="I21" s="74">
+        <v>12000</v>
+      </c>
+      <c r="J21" s="140">
+        <v>0</v>
+      </c>
+      <c r="K21" s="113">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-0.1767136929460581</v>
       </c>
       <c r="L21" s="77">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-1916.46</v>
       </c>
       <c r="N21" s="155" t="s">
         <v>171</v>
       </c>
       <c r="O21" s="156">
         <f>O17*O18</f>
-        <v>0</v>
+        <v>20142</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -13210,8 +13306,8 @@
         <v>172</v>
       </c>
       <c r="O22" s="158">
-        <f>IF(O21&gt;15000, O21*8%/100, 8)</f>
-        <v>8</v>
+        <f>IF(O21&gt;10000, O21*8%/100, 8)</f>
+        <v>16.113600000000002</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -13241,7 +13337,7 @@
       </c>
       <c r="O23" s="158">
         <f>O22*6%</f>
-        <v>0.48</v>
+        <v>0.96681600000000012</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -13271,7 +13367,7 @@
       </c>
       <c r="O24" s="159">
         <f>IF(O19=TRUE,CEILING(O21,1000)/1000,0)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -13301,7 +13397,7 @@
       </c>
       <c r="O25" s="158">
         <f>O21*0.03%</f>
-        <v>0</v>
+        <v>6.0425999999999993</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13331,7 +13427,7 @@
       </c>
       <c r="O26" s="161">
         <f>ROUNDUP(SUM(O22:O25),2)</f>
-        <v>8.48</v>
+        <v>44.129999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -13391,7 +13487,7 @@
       </c>
       <c r="E29" s="125">
         <f>SUM(E18:E28)</f>
-        <v>77.81</v>
+        <v>101.27000000000001</v>
       </c>
       <c r="F29" s="126"/>
       <c r="G29" s="123"/>
@@ -13401,14 +13497,14 @@
       </c>
       <c r="J29" s="125">
         <f>SUM(J18:J28)</f>
-        <v>49.1</v>
+        <v>94.12</v>
       </c>
       <c r="K29" s="79" t="s">
         <v>141</v>
       </c>
       <c r="L29" s="82">
         <f>SUM(L18:L28)</f>
-        <v>-13876.91</v>
+        <v>-4648.3900000000003</v>
       </c>
     </row>
   </sheetData>
@@ -13432,7 +13528,7 @@
   <dimension ref="B1:D16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13496,11 +13592,11 @@
         <v>172</v>
       </c>
       <c r="C7" s="158">
-        <f>IF(C6&gt;15000, C6*8%/100, 8)</f>
-        <v>8</v>
+        <f>IF(C6&gt;10000, C6*8%/100, 8)</f>
+        <v>11.4</v>
       </c>
       <c r="D7" s="158">
-        <f>IF(D6&gt;15000, D6*8%/100, 8)</f>
+        <f>IF(D6&gt;10000, D6*8%/100, 8)</f>
         <v>8</v>
       </c>
     </row>
@@ -13510,7 +13606,7 @@
       </c>
       <c r="C8" s="158">
         <f>C7*6%</f>
-        <v>0.48</v>
+        <v>0.68399999999999994</v>
       </c>
       <c r="D8" s="158">
         <f>D7*6%</f>
@@ -13549,7 +13645,7 @@
       </c>
       <c r="C11" s="161">
         <f>ROUNDUP(SUM(C7:C10),2)</f>
-        <v>27.76</v>
+        <v>31.360000000000003</v>
       </c>
       <c r="D11" s="161">
         <f>ROUNDUP(SUM(D7:D10),2)</f>
@@ -13563,7 +13659,7 @@
       </c>
       <c r="C13" s="163">
         <f>C11+D11</f>
-        <v>49.1</v>
+        <v>52.7</v>
       </c>
       <c r="D13" s="164"/>
     </row>
@@ -13582,7 +13678,7 @@
       </c>
       <c r="C15" s="167">
         <f>C13/C14</f>
-        <v>49099.999999999956</v>
+        <v>52699.999999999956</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13591,7 +13687,7 @@
       </c>
       <c r="C16" s="169">
         <f>CEILING(C15,100)/100</f>
-        <v>491</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -13623,10 +13719,10 @@
       <c r="A1" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="195">
+      <c r="B1" s="196">
         <v>0.51</v>
       </c>
-      <c r="C1" s="195"/>
+      <c r="C1" s="196"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -13635,10 +13731,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="195">
+      <c r="B2" s="196">
         <v>0.54</v>
       </c>
-      <c r="C2" s="195"/>
+      <c r="C2" s="196"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -13647,10 +13743,10 @@
       <c r="A3" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="195">
+      <c r="B3" s="196">
         <v>0.51</v>
       </c>
-      <c r="C3" s="195"/>
+      <c r="C3" s="196"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -13659,10 +13755,10 @@
       <c r="A4" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="195">
+      <c r="B4" s="196">
         <v>0.54</v>
       </c>
-      <c r="C4" s="195"/>
+      <c r="C4" s="196"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -13697,14 +13793,14 @@
       <c r="A8" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="196" t="s">
+      <c r="B8" s="197" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="197">
+      <c r="C8" s="198">
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="198">
+      <c r="E8" s="199">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -13714,10 +13810,10 @@
       <c r="A9" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="197"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="198"/>
+      <c r="E9" s="199"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -13750,14 +13846,14 @@
       <c r="A13" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="196" t="s">
+      <c r="B13" s="197" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="197">
+      <c r="C13" s="198">
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="198">
+      <c r="E13" s="199">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -13767,10 +13863,10 @@
       <c r="A14" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="196"/>
-      <c r="C14" s="196"/>
+      <c r="B14" s="197"/>
+      <c r="C14" s="197"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="198"/>
+      <c r="E14" s="199"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -13803,14 +13899,14 @@
       <c r="A18" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="196" t="s">
+      <c r="B18" s="197" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="197">
+      <c r="C18" s="198">
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="198">
+      <c r="E18" s="199">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -13820,10 +13916,10 @@
       <c r="A19" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="196"/>
-      <c r="C19" s="196"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="197"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="198"/>
+      <c r="E19" s="199"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1109" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CD15B1E2-0E40-4DA0-8775-3D451280335E}"/>
+  <xr:revisionPtr revIDLastSave="1192" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC5BE5DF-A9B0-47A0-B2E6-A4CCA6736240}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="5445" windowWidth="28110" windowHeight="16440" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="6690" yWindow="15765" windowWidth="27870" windowHeight="13920" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="222">
   <si>
     <t>Pillar</t>
   </si>
@@ -625,6 +625,84 @@
   </si>
   <si>
     <t>YTL</t>
+  </si>
+  <si>
+    <t>ABMB</t>
+  </si>
+  <si>
+    <t>GENTING</t>
+  </si>
+  <si>
+    <t>MAXIS</t>
+  </si>
+  <si>
+    <t>DUFU</t>
+  </si>
+  <si>
+    <t>SUNREIT</t>
+  </si>
+  <si>
+    <t>UZMA</t>
+  </si>
+  <si>
+    <t>CIMB</t>
+  </si>
+  <si>
+    <t>MBSB</t>
+  </si>
+  <si>
+    <t>CYPARK</t>
+  </si>
+  <si>
+    <t>SUNWAY</t>
+  </si>
+  <si>
+    <t>PMETAL</t>
+  </si>
+  <si>
+    <t>SERBADK</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>TSH</t>
+  </si>
+  <si>
+    <t>MAYBANK</t>
+  </si>
+  <si>
+    <t>INSAS</t>
+  </si>
+  <si>
+    <t>MISC</t>
+  </si>
+  <si>
+    <t>RHBBANK</t>
+  </si>
+  <si>
+    <t>AIRPORT</t>
+  </si>
+  <si>
+    <t>PBBANK</t>
+  </si>
+  <si>
+    <t>AIRASIA</t>
+  </si>
+  <si>
+    <t>PCHEM</t>
+  </si>
+  <si>
+    <t>INARI</t>
+  </si>
+  <si>
+    <t>FGV</t>
+  </si>
+  <si>
+    <t>YTLPOWR</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1805,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2317,18 +2395,19 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2761,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
-  <dimension ref="A1:AD179"/>
+  <dimension ref="A1:AD200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView tabSelected="1" topLeftCell="S124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V129" sqref="V129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8456,7 +8535,9 @@
       <c r="V126" s="92"/>
       <c r="W126" s="92"/>
       <c r="X126" s="93"/>
-      <c r="Y126" s="90"/>
+      <c r="Y126" s="90" t="s">
+        <v>53</v>
+      </c>
       <c r="Z126" s="91"/>
       <c r="AA126" s="92"/>
       <c r="AB126" s="92"/>
@@ -8492,7 +8573,9 @@
       <c r="V127" s="92"/>
       <c r="W127" s="92"/>
       <c r="X127" s="93"/>
-      <c r="Y127" s="90"/>
+      <c r="Y127" s="90" t="s">
+        <v>196</v>
+      </c>
       <c r="Z127" s="91"/>
       <c r="AA127" s="92"/>
       <c r="AB127" s="92"/>
@@ -8526,7 +8609,9 @@
       <c r="V128" s="92"/>
       <c r="W128" s="92"/>
       <c r="X128" s="93"/>
-      <c r="Y128" s="90"/>
+      <c r="Y128" s="90" t="s">
+        <v>197</v>
+      </c>
       <c r="Z128" s="91"/>
       <c r="AA128" s="92"/>
       <c r="AB128" s="92"/>
@@ -8560,7 +8645,9 @@
       <c r="V129" s="92"/>
       <c r="W129" s="92"/>
       <c r="X129" s="93"/>
-      <c r="Y129" s="90"/>
+      <c r="Y129" s="90" t="s">
+        <v>23</v>
+      </c>
       <c r="Z129" s="91"/>
       <c r="AA129" s="92"/>
       <c r="AB129" s="92"/>
@@ -8594,7 +8681,9 @@
       <c r="V130" s="92"/>
       <c r="W130" s="92"/>
       <c r="X130" s="93"/>
-      <c r="Y130" s="90"/>
+      <c r="Y130" s="90" t="s">
+        <v>198</v>
+      </c>
       <c r="Z130" s="91"/>
       <c r="AA130" s="92"/>
       <c r="AB130" s="92"/>
@@ -8628,7 +8717,9 @@
       <c r="V131" s="92"/>
       <c r="W131" s="92"/>
       <c r="X131" s="93"/>
-      <c r="Y131" s="90"/>
+      <c r="Y131" s="90" t="s">
+        <v>180</v>
+      </c>
       <c r="Z131" s="91"/>
       <c r="AA131" s="92"/>
       <c r="AB131" s="92"/>
@@ -8662,7 +8753,9 @@
       <c r="V132" s="92"/>
       <c r="W132" s="92"/>
       <c r="X132" s="93"/>
-      <c r="Y132" s="90"/>
+      <c r="Y132" s="90" t="s">
+        <v>199</v>
+      </c>
       <c r="Z132" s="91"/>
       <c r="AA132" s="92"/>
       <c r="AB132" s="92"/>
@@ -8696,7 +8789,9 @@
       <c r="V133" s="92"/>
       <c r="W133" s="92"/>
       <c r="X133" s="93"/>
-      <c r="Y133" s="90"/>
+      <c r="Y133" s="90" t="s">
+        <v>200</v>
+      </c>
       <c r="Z133" s="91"/>
       <c r="AA133" s="92"/>
       <c r="AB133" s="92"/>
@@ -8730,7 +8825,9 @@
       <c r="V134" s="92"/>
       <c r="W134" s="92"/>
       <c r="X134" s="93"/>
-      <c r="Y134" s="90"/>
+      <c r="Y134" s="90" t="s">
+        <v>201</v>
+      </c>
       <c r="Z134" s="91"/>
       <c r="AA134" s="92"/>
       <c r="AB134" s="92"/>
@@ -8764,7 +8861,9 @@
       <c r="V135" s="92"/>
       <c r="W135" s="92"/>
       <c r="X135" s="93"/>
-      <c r="Y135" s="90"/>
+      <c r="Y135" s="90" t="s">
+        <v>16</v>
+      </c>
       <c r="Z135" s="91"/>
       <c r="AA135" s="92"/>
       <c r="AB135" s="92"/>
@@ -8798,7 +8897,9 @@
       <c r="V136" s="92"/>
       <c r="W136" s="92"/>
       <c r="X136" s="93"/>
-      <c r="Y136" s="90"/>
+      <c r="Y136" s="90" t="s">
+        <v>152</v>
+      </c>
       <c r="Z136" s="91"/>
       <c r="AA136" s="92"/>
       <c r="AB136" s="92"/>
@@ -8832,7 +8933,9 @@
       <c r="V137" s="92"/>
       <c r="W137" s="92"/>
       <c r="X137" s="93"/>
-      <c r="Y137" s="90"/>
+      <c r="Y137" s="90" t="s">
+        <v>202</v>
+      </c>
       <c r="Z137" s="91"/>
       <c r="AA137" s="92"/>
       <c r="AB137" s="92"/>
@@ -8866,7 +8969,9 @@
       <c r="V138" s="92"/>
       <c r="W138" s="92"/>
       <c r="X138" s="93"/>
-      <c r="Y138" s="90"/>
+      <c r="Y138" s="90" t="s">
+        <v>57</v>
+      </c>
       <c r="Z138" s="91"/>
       <c r="AA138" s="92"/>
       <c r="AB138" s="92"/>
@@ -8900,7 +9005,9 @@
       <c r="V139" s="92"/>
       <c r="W139" s="92"/>
       <c r="X139" s="93"/>
-      <c r="Y139" s="90"/>
+      <c r="Y139" s="90" t="s">
+        <v>203</v>
+      </c>
       <c r="Z139" s="91"/>
       <c r="AA139" s="92"/>
       <c r="AB139" s="92"/>
@@ -8934,7 +9041,9 @@
       <c r="V140" s="92"/>
       <c r="W140" s="92"/>
       <c r="X140" s="93"/>
-      <c r="Y140" s="90"/>
+      <c r="Y140" s="200" t="s">
+        <v>204</v>
+      </c>
       <c r="Z140" s="91"/>
       <c r="AA140" s="92"/>
       <c r="AB140" s="92"/>
@@ -8968,7 +9077,9 @@
       <c r="V141" s="92"/>
       <c r="W141" s="92"/>
       <c r="X141" s="93"/>
-      <c r="Y141" s="90"/>
+      <c r="Y141" s="90" t="s">
+        <v>182</v>
+      </c>
       <c r="Z141" s="91"/>
       <c r="AA141" s="92"/>
       <c r="AB141" s="92"/>
@@ -9002,7 +9113,9 @@
       <c r="V142" s="92"/>
       <c r="W142" s="92"/>
       <c r="X142" s="93"/>
-      <c r="Y142" s="90"/>
+      <c r="Y142" s="90" t="s">
+        <v>186</v>
+      </c>
       <c r="Z142" s="91"/>
       <c r="AA142" s="92"/>
       <c r="AB142" s="92"/>
@@ -9036,7 +9149,9 @@
       <c r="V143" s="92"/>
       <c r="W143" s="92"/>
       <c r="X143" s="93"/>
-      <c r="Y143" s="90"/>
+      <c r="Y143" s="90" t="s">
+        <v>160</v>
+      </c>
       <c r="Z143" s="91"/>
       <c r="AA143" s="92"/>
       <c r="AB143" s="92"/>
@@ -9070,7 +9185,9 @@
       <c r="V144" s="92"/>
       <c r="W144" s="92"/>
       <c r="X144" s="93"/>
-      <c r="Y144" s="90"/>
+      <c r="Y144" s="90" t="s">
+        <v>156</v>
+      </c>
       <c r="Z144" s="91"/>
       <c r="AA144" s="92"/>
       <c r="AB144" s="92"/>
@@ -9104,7 +9221,9 @@
       <c r="V145" s="92"/>
       <c r="W145" s="92"/>
       <c r="X145" s="93"/>
-      <c r="Y145" s="90"/>
+      <c r="Y145" s="90" t="s">
+        <v>205</v>
+      </c>
       <c r="Z145" s="91"/>
       <c r="AA145" s="92"/>
       <c r="AB145" s="92"/>
@@ -9138,7 +9257,9 @@
       <c r="V146" s="92"/>
       <c r="W146" s="92"/>
       <c r="X146" s="93"/>
-      <c r="Y146" s="90"/>
+      <c r="Y146" s="90" t="s">
+        <v>206</v>
+      </c>
       <c r="Z146" s="91"/>
       <c r="AA146" s="92"/>
       <c r="AB146" s="92"/>
@@ -9172,7 +9293,9 @@
       <c r="V147" s="92"/>
       <c r="W147" s="92"/>
       <c r="X147" s="93"/>
-      <c r="Y147" s="90"/>
+      <c r="Y147" s="90" t="s">
+        <v>207</v>
+      </c>
       <c r="Z147" s="91"/>
       <c r="AA147" s="92"/>
       <c r="AB147" s="92"/>
@@ -9206,7 +9329,9 @@
       <c r="V148" s="92"/>
       <c r="W148" s="92"/>
       <c r="X148" s="93"/>
-      <c r="Y148" s="90"/>
+      <c r="Y148" s="90" t="s">
+        <v>208</v>
+      </c>
       <c r="Z148" s="91"/>
       <c r="AA148" s="92"/>
       <c r="AB148" s="92"/>
@@ -9240,7 +9365,9 @@
       <c r="V149" s="92"/>
       <c r="W149" s="92"/>
       <c r="X149" s="93"/>
-      <c r="Y149" s="90"/>
+      <c r="Y149" s="90" t="s">
+        <v>166</v>
+      </c>
       <c r="Z149" s="91"/>
       <c r="AA149" s="92"/>
       <c r="AB149" s="92"/>
@@ -9274,7 +9401,9 @@
       <c r="V150" s="92"/>
       <c r="W150" s="92"/>
       <c r="X150" s="93"/>
-      <c r="Y150" s="90"/>
+      <c r="Y150" s="90" t="s">
+        <v>209</v>
+      </c>
       <c r="Z150" s="91"/>
       <c r="AA150" s="92"/>
       <c r="AB150" s="92"/>
@@ -9308,7 +9437,9 @@
       <c r="V151" s="92"/>
       <c r="W151" s="92"/>
       <c r="X151" s="93"/>
-      <c r="Y151" s="90"/>
+      <c r="Y151" s="200" t="s">
+        <v>36</v>
+      </c>
       <c r="Z151" s="91"/>
       <c r="AA151" s="92"/>
       <c r="AB151" s="92"/>
@@ -9342,7 +9473,9 @@
       <c r="V152" s="92"/>
       <c r="W152" s="92"/>
       <c r="X152" s="93"/>
-      <c r="Y152" s="90"/>
+      <c r="Y152" s="200" t="s">
+        <v>210</v>
+      </c>
       <c r="Z152" s="91"/>
       <c r="AA152" s="92"/>
       <c r="AB152" s="92"/>
@@ -9376,7 +9509,9 @@
       <c r="V153" s="92"/>
       <c r="W153" s="92"/>
       <c r="X153" s="93"/>
-      <c r="Y153" s="90"/>
+      <c r="Y153" s="90" t="s">
+        <v>50</v>
+      </c>
       <c r="Z153" s="91"/>
       <c r="AA153" s="92"/>
       <c r="AB153" s="92"/>
@@ -9410,7 +9545,9 @@
       <c r="V154" s="92"/>
       <c r="W154" s="92"/>
       <c r="X154" s="93"/>
-      <c r="Y154" s="90"/>
+      <c r="Y154" s="90" t="s">
+        <v>211</v>
+      </c>
       <c r="Z154" s="91"/>
       <c r="AA154" s="92"/>
       <c r="AB154" s="92"/>
@@ -9444,7 +9581,9 @@
       <c r="V155" s="92"/>
       <c r="W155" s="92"/>
       <c r="X155" s="93"/>
-      <c r="Y155" s="90"/>
+      <c r="Y155" s="90" t="s">
+        <v>212</v>
+      </c>
       <c r="Z155" s="91"/>
       <c r="AA155" s="92"/>
       <c r="AB155" s="92"/>
@@ -9478,7 +9617,9 @@
       <c r="V156" s="92"/>
       <c r="W156" s="92"/>
       <c r="X156" s="93"/>
-      <c r="Y156" s="90"/>
+      <c r="Y156" s="90" t="s">
+        <v>213</v>
+      </c>
       <c r="Z156" s="91"/>
       <c r="AA156" s="92"/>
       <c r="AB156" s="92"/>
@@ -9510,7 +9651,9 @@
       <c r="V157" s="92"/>
       <c r="W157" s="92"/>
       <c r="X157" s="93"/>
-      <c r="Y157" s="90"/>
+      <c r="Y157" s="90" t="s">
+        <v>191</v>
+      </c>
       <c r="Z157" s="91"/>
       <c r="AA157" s="92"/>
       <c r="AB157" s="92"/>
@@ -9518,143 +9661,72 @@
       <c r="AD157" s="93"/>
     </row>
     <row r="158" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="172">
-        <f>A124+7</f>
-        <v>43913</v>
-      </c>
-      <c r="B158" s="172"/>
-      <c r="C158" s="172"/>
-      <c r="D158" s="172"/>
-      <c r="E158" s="172"/>
-      <c r="F158" s="172"/>
-      <c r="G158" s="172">
-        <f>A158+1</f>
-        <v>43914</v>
-      </c>
-      <c r="H158" s="172"/>
-      <c r="I158" s="172"/>
-      <c r="J158" s="172"/>
-      <c r="K158" s="172"/>
-      <c r="L158" s="172"/>
-      <c r="M158" s="172">
-        <f t="shared" ref="M158" si="21">G158+1</f>
-        <v>43915</v>
-      </c>
-      <c r="N158" s="172"/>
-      <c r="O158" s="172"/>
-      <c r="P158" s="172"/>
-      <c r="Q158" s="172"/>
-      <c r="R158" s="172"/>
-      <c r="S158" s="172">
-        <f t="shared" ref="S158" si="22">M158+1</f>
-        <v>43916</v>
-      </c>
-      <c r="T158" s="172"/>
-      <c r="U158" s="172"/>
-      <c r="V158" s="172"/>
-      <c r="W158" s="172"/>
-      <c r="X158" s="172"/>
-      <c r="Y158" s="172">
-        <f t="shared" ref="Y158" si="23">S158+1</f>
-        <v>43917</v>
-      </c>
-      <c r="Z158" s="172"/>
-      <c r="AA158" s="172"/>
-      <c r="AB158" s="172"/>
-      <c r="AC158" s="172"/>
-      <c r="AD158" s="172"/>
+      <c r="A158" s="90"/>
+      <c r="B158" s="91"/>
+      <c r="C158" s="92"/>
+      <c r="D158" s="92"/>
+      <c r="E158" s="92"/>
+      <c r="F158" s="93"/>
+      <c r="G158" s="90"/>
+      <c r="H158" s="91"/>
+      <c r="I158" s="92"/>
+      <c r="J158" s="92"/>
+      <c r="K158" s="92"/>
+      <c r="L158" s="93"/>
+      <c r="M158" s="90"/>
+      <c r="N158" s="91"/>
+      <c r="O158" s="92"/>
+      <c r="P158" s="92"/>
+      <c r="Q158" s="92"/>
+      <c r="R158" s="93"/>
+      <c r="S158" s="90"/>
+      <c r="T158" s="91"/>
+      <c r="U158" s="92"/>
+      <c r="V158" s="92"/>
+      <c r="W158" s="92"/>
+      <c r="X158" s="93"/>
+      <c r="Y158" s="90" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z158" s="91"/>
+      <c r="AA158" s="92"/>
+      <c r="AB158" s="92"/>
+      <c r="AC158" s="92"/>
+      <c r="AD158" s="93"/>
     </row>
     <row r="159" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C159" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="D159" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="E159" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="F159" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="G159" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="H159" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="I159" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="J159" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="K159" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="L159" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="M159" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="N159" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="O159" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="P159" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q159" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="R159" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="S159" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="T159" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="U159" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="V159" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="W159" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="X159" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y159" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z159" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA159" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB159" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC159" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD159" s="88" t="s">
-        <v>5</v>
-      </c>
+      <c r="A159" s="90"/>
+      <c r="B159" s="91"/>
+      <c r="C159" s="92"/>
+      <c r="D159" s="92"/>
+      <c r="E159" s="92"/>
+      <c r="F159" s="93"/>
+      <c r="G159" s="90"/>
+      <c r="H159" s="91"/>
+      <c r="I159" s="92"/>
+      <c r="J159" s="92"/>
+      <c r="K159" s="92"/>
+      <c r="L159" s="93"/>
+      <c r="M159" s="90"/>
+      <c r="N159" s="91"/>
+      <c r="O159" s="92"/>
+      <c r="P159" s="92"/>
+      <c r="Q159" s="92"/>
+      <c r="R159" s="93"/>
+      <c r="S159" s="90"/>
+      <c r="T159" s="91"/>
+      <c r="U159" s="92"/>
+      <c r="V159" s="92"/>
+      <c r="W159" s="92"/>
+      <c r="X159" s="93"/>
+      <c r="Y159" s="90" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z159" s="91"/>
+      <c r="AA159" s="92"/>
+      <c r="AB159" s="92"/>
+      <c r="AC159" s="92"/>
+      <c r="AD159" s="93"/>
     </row>
     <row r="160" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="90"/>
@@ -9681,7 +9753,9 @@
       <c r="V160" s="92"/>
       <c r="W160" s="92"/>
       <c r="X160" s="93"/>
-      <c r="Y160" s="90"/>
+      <c r="Y160" s="90" t="s">
+        <v>216</v>
+      </c>
       <c r="Z160" s="91"/>
       <c r="AA160" s="92"/>
       <c r="AB160" s="92"/>
@@ -9713,7 +9787,9 @@
       <c r="V161" s="92"/>
       <c r="W161" s="92"/>
       <c r="X161" s="93"/>
-      <c r="Y161" s="90"/>
+      <c r="Y161" s="90" t="s">
+        <v>217</v>
+      </c>
       <c r="Z161" s="91"/>
       <c r="AA161" s="92"/>
       <c r="AB161" s="92"/>
@@ -9745,7 +9821,9 @@
       <c r="V162" s="92"/>
       <c r="W162" s="92"/>
       <c r="X162" s="93"/>
-      <c r="Y162" s="90"/>
+      <c r="Y162" s="90" t="s">
+        <v>6</v>
+      </c>
       <c r="Z162" s="91"/>
       <c r="AA162" s="92"/>
       <c r="AB162" s="92"/>
@@ -9777,7 +9855,9 @@
       <c r="V163" s="92"/>
       <c r="W163" s="92"/>
       <c r="X163" s="93"/>
-      <c r="Y163" s="90"/>
+      <c r="Y163" s="90" t="s">
+        <v>218</v>
+      </c>
       <c r="Z163" s="91"/>
       <c r="AA163" s="92"/>
       <c r="AB163" s="92"/>
@@ -9809,7 +9889,9 @@
       <c r="V164" s="92"/>
       <c r="W164" s="92"/>
       <c r="X164" s="93"/>
-      <c r="Y164" s="90"/>
+      <c r="Y164" s="90" t="s">
+        <v>52</v>
+      </c>
       <c r="Z164" s="91"/>
       <c r="AA164" s="92"/>
       <c r="AB164" s="92"/>
@@ -9841,7 +9923,9 @@
       <c r="V165" s="92"/>
       <c r="W165" s="92"/>
       <c r="X165" s="93"/>
-      <c r="Y165" s="90"/>
+      <c r="Y165" s="90" t="s">
+        <v>219</v>
+      </c>
       <c r="Z165" s="91"/>
       <c r="AA165" s="92"/>
       <c r="AB165" s="92"/>
@@ -9873,7 +9957,9 @@
       <c r="V166" s="92"/>
       <c r="W166" s="92"/>
       <c r="X166" s="93"/>
-      <c r="Y166" s="90"/>
+      <c r="Y166" s="90" t="s">
+        <v>12</v>
+      </c>
       <c r="Z166" s="91"/>
       <c r="AA166" s="92"/>
       <c r="AB166" s="92"/>
@@ -9905,7 +9991,9 @@
       <c r="V167" s="92"/>
       <c r="W167" s="92"/>
       <c r="X167" s="93"/>
-      <c r="Y167" s="90"/>
+      <c r="Y167" s="90" t="s">
+        <v>19</v>
+      </c>
       <c r="Z167" s="91"/>
       <c r="AA167" s="92"/>
       <c r="AB167" s="92"/>
@@ -9937,7 +10025,9 @@
       <c r="V168" s="92"/>
       <c r="W168" s="92"/>
       <c r="X168" s="93"/>
-      <c r="Y168" s="90"/>
+      <c r="Y168" s="90" t="s">
+        <v>220</v>
+      </c>
       <c r="Z168" s="91"/>
       <c r="AA168" s="92"/>
       <c r="AB168" s="92"/>
@@ -9969,7 +10059,9 @@
       <c r="V169" s="92"/>
       <c r="W169" s="92"/>
       <c r="X169" s="93"/>
-      <c r="Y169" s="90"/>
+      <c r="Y169" s="90" t="s">
+        <v>43</v>
+      </c>
       <c r="Z169" s="91"/>
       <c r="AA169" s="92"/>
       <c r="AB169" s="92"/>
@@ -10001,7 +10093,9 @@
       <c r="V170" s="92"/>
       <c r="W170" s="92"/>
       <c r="X170" s="93"/>
-      <c r="Y170" s="90"/>
+      <c r="Y170" s="90" t="s">
+        <v>39</v>
+      </c>
       <c r="Z170" s="91"/>
       <c r="AA170" s="92"/>
       <c r="AB170" s="92"/>
@@ -10033,7 +10127,9 @@
       <c r="V171" s="92"/>
       <c r="W171" s="92"/>
       <c r="X171" s="93"/>
-      <c r="Y171" s="90"/>
+      <c r="Y171" s="90" t="s">
+        <v>155</v>
+      </c>
       <c r="Z171" s="91"/>
       <c r="AA171" s="92"/>
       <c r="AB171" s="92"/>
@@ -10065,7 +10161,9 @@
       <c r="V172" s="92"/>
       <c r="W172" s="92"/>
       <c r="X172" s="93"/>
-      <c r="Y172" s="90"/>
+      <c r="Y172" s="90" t="s">
+        <v>221</v>
+      </c>
       <c r="Z172" s="91"/>
       <c r="AA172" s="92"/>
       <c r="AB172" s="92"/>
@@ -10097,7 +10195,9 @@
       <c r="V173" s="92"/>
       <c r="W173" s="92"/>
       <c r="X173" s="93"/>
-      <c r="Y173" s="90"/>
+      <c r="Y173" s="90" t="s">
+        <v>187</v>
+      </c>
       <c r="Z173" s="91"/>
       <c r="AA173" s="92"/>
       <c r="AB173" s="92"/>
@@ -10129,7 +10229,9 @@
       <c r="V174" s="92"/>
       <c r="W174" s="92"/>
       <c r="X174" s="93"/>
-      <c r="Y174" s="90"/>
+      <c r="Y174" s="90" t="s">
+        <v>25</v>
+      </c>
       <c r="Z174" s="91"/>
       <c r="AA174" s="92"/>
       <c r="AB174" s="92"/>
@@ -10161,7 +10263,9 @@
       <c r="V175" s="92"/>
       <c r="W175" s="92"/>
       <c r="X175" s="93"/>
-      <c r="Y175" s="90"/>
+      <c r="Y175" s="90" t="s">
+        <v>44</v>
+      </c>
       <c r="Z175" s="91"/>
       <c r="AA175" s="92"/>
       <c r="AB175" s="92"/>
@@ -10193,7 +10297,9 @@
       <c r="V176" s="92"/>
       <c r="W176" s="92"/>
       <c r="X176" s="93"/>
-      <c r="Y176" s="90"/>
+      <c r="Y176" s="90" t="s">
+        <v>21</v>
+      </c>
       <c r="Z176" s="91"/>
       <c r="AA176" s="92"/>
       <c r="AB176" s="92"/>
@@ -10225,7 +10331,9 @@
       <c r="V177" s="92"/>
       <c r="W177" s="92"/>
       <c r="X177" s="93"/>
-      <c r="Y177" s="90"/>
+      <c r="Y177" s="90" t="s">
+        <v>194</v>
+      </c>
       <c r="Z177" s="91"/>
       <c r="AA177" s="92"/>
       <c r="AB177" s="92"/>
@@ -10265,79 +10373,826 @@
       <c r="AD178" s="93"/>
     </row>
     <row r="179" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="90"/>
-      <c r="B179" s="91"/>
-      <c r="C179" s="92"/>
-      <c r="D179" s="92"/>
-      <c r="E179" s="92"/>
-      <c r="F179" s="93"/>
-      <c r="G179" s="90"/>
-      <c r="H179" s="91"/>
-      <c r="I179" s="92"/>
-      <c r="J179" s="92"/>
-      <c r="K179" s="92"/>
-      <c r="L179" s="93"/>
-      <c r="M179" s="90"/>
-      <c r="N179" s="91"/>
-      <c r="O179" s="92"/>
-      <c r="P179" s="92"/>
-      <c r="Q179" s="92"/>
-      <c r="R179" s="93"/>
-      <c r="S179" s="90"/>
-      <c r="T179" s="91"/>
-      <c r="U179" s="92"/>
-      <c r="V179" s="92"/>
-      <c r="W179" s="92"/>
-      <c r="X179" s="93"/>
-      <c r="Y179" s="90"/>
-      <c r="Z179" s="91"/>
-      <c r="AA179" s="92"/>
-      <c r="AB179" s="92"/>
-      <c r="AC179" s="92"/>
-      <c r="AD179" s="93"/>
+      <c r="A179" s="172">
+        <f>A124+7</f>
+        <v>43913</v>
+      </c>
+      <c r="B179" s="172"/>
+      <c r="C179" s="172"/>
+      <c r="D179" s="172"/>
+      <c r="E179" s="172"/>
+      <c r="F179" s="172"/>
+      <c r="G179" s="172">
+        <f>A179+1</f>
+        <v>43914</v>
+      </c>
+      <c r="H179" s="172"/>
+      <c r="I179" s="172"/>
+      <c r="J179" s="172"/>
+      <c r="K179" s="172"/>
+      <c r="L179" s="172"/>
+      <c r="M179" s="172">
+        <f t="shared" ref="M179" si="21">G179+1</f>
+        <v>43915</v>
+      </c>
+      <c r="N179" s="172"/>
+      <c r="O179" s="172"/>
+      <c r="P179" s="172"/>
+      <c r="Q179" s="172"/>
+      <c r="R179" s="172"/>
+      <c r="S179" s="172">
+        <f t="shared" ref="S179" si="22">M179+1</f>
+        <v>43916</v>
+      </c>
+      <c r="T179" s="172"/>
+      <c r="U179" s="172"/>
+      <c r="V179" s="172"/>
+      <c r="W179" s="172"/>
+      <c r="X179" s="172"/>
+      <c r="Y179" s="172">
+        <f t="shared" ref="Y179" si="23">S179+1</f>
+        <v>43917</v>
+      </c>
+      <c r="Z179" s="172"/>
+      <c r="AA179" s="172"/>
+      <c r="AB179" s="172"/>
+      <c r="AC179" s="172"/>
+      <c r="AD179" s="172"/>
+    </row>
+    <row r="180" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E180" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F180" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G180" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="H180" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="I180" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="J180" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="K180" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="L180" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="M180" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="N180" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="O180" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="P180" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q180" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="R180" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="S180" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="T180" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="U180" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="V180" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="W180" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="X180" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y180" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z180" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA180" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB180" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC180" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD180" s="88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="90"/>
+      <c r="B181" s="91"/>
+      <c r="C181" s="92"/>
+      <c r="D181" s="92"/>
+      <c r="E181" s="92"/>
+      <c r="F181" s="93"/>
+      <c r="G181" s="90"/>
+      <c r="H181" s="91"/>
+      <c r="I181" s="92"/>
+      <c r="J181" s="92"/>
+      <c r="K181" s="92"/>
+      <c r="L181" s="93"/>
+      <c r="M181" s="90"/>
+      <c r="N181" s="91"/>
+      <c r="O181" s="92"/>
+      <c r="P181" s="92"/>
+      <c r="Q181" s="92"/>
+      <c r="R181" s="93"/>
+      <c r="S181" s="90"/>
+      <c r="T181" s="91"/>
+      <c r="U181" s="92"/>
+      <c r="V181" s="92"/>
+      <c r="W181" s="92"/>
+      <c r="X181" s="93"/>
+      <c r="Y181" s="90"/>
+      <c r="Z181" s="91"/>
+      <c r="AA181" s="92"/>
+      <c r="AB181" s="92"/>
+      <c r="AC181" s="92"/>
+      <c r="AD181" s="93"/>
+    </row>
+    <row r="182" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="90"/>
+      <c r="B182" s="91"/>
+      <c r="C182" s="92"/>
+      <c r="D182" s="92"/>
+      <c r="E182" s="92"/>
+      <c r="F182" s="93"/>
+      <c r="G182" s="90"/>
+      <c r="H182" s="91"/>
+      <c r="I182" s="92"/>
+      <c r="J182" s="92"/>
+      <c r="K182" s="92"/>
+      <c r="L182" s="93"/>
+      <c r="M182" s="90"/>
+      <c r="N182" s="91"/>
+      <c r="O182" s="92"/>
+      <c r="P182" s="92"/>
+      <c r="Q182" s="92"/>
+      <c r="R182" s="93"/>
+      <c r="S182" s="90"/>
+      <c r="T182" s="91"/>
+      <c r="U182" s="92"/>
+      <c r="V182" s="92"/>
+      <c r="W182" s="92"/>
+      <c r="X182" s="93"/>
+      <c r="Y182" s="90"/>
+      <c r="Z182" s="91"/>
+      <c r="AA182" s="92"/>
+      <c r="AB182" s="92"/>
+      <c r="AC182" s="92"/>
+      <c r="AD182" s="93"/>
+    </row>
+    <row r="183" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="90"/>
+      <c r="B183" s="91"/>
+      <c r="C183" s="92"/>
+      <c r="D183" s="92"/>
+      <c r="E183" s="92"/>
+      <c r="F183" s="93"/>
+      <c r="G183" s="90"/>
+      <c r="H183" s="91"/>
+      <c r="I183" s="92"/>
+      <c r="J183" s="92"/>
+      <c r="K183" s="92"/>
+      <c r="L183" s="93"/>
+      <c r="M183" s="90"/>
+      <c r="N183" s="91"/>
+      <c r="O183" s="92"/>
+      <c r="P183" s="92"/>
+      <c r="Q183" s="92"/>
+      <c r="R183" s="93"/>
+      <c r="S183" s="90"/>
+      <c r="T183" s="91"/>
+      <c r="U183" s="92"/>
+      <c r="V183" s="92"/>
+      <c r="W183" s="92"/>
+      <c r="X183" s="93"/>
+      <c r="Y183" s="90"/>
+      <c r="Z183" s="91"/>
+      <c r="AA183" s="92"/>
+      <c r="AB183" s="92"/>
+      <c r="AC183" s="92"/>
+      <c r="AD183" s="93"/>
+    </row>
+    <row r="184" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="90"/>
+      <c r="B184" s="91"/>
+      <c r="C184" s="92"/>
+      <c r="D184" s="92"/>
+      <c r="E184" s="92"/>
+      <c r="F184" s="93"/>
+      <c r="G184" s="90"/>
+      <c r="H184" s="91"/>
+      <c r="I184" s="92"/>
+      <c r="J184" s="92"/>
+      <c r="K184" s="92"/>
+      <c r="L184" s="93"/>
+      <c r="M184" s="90"/>
+      <c r="N184" s="91"/>
+      <c r="O184" s="92"/>
+      <c r="P184" s="92"/>
+      <c r="Q184" s="92"/>
+      <c r="R184" s="93"/>
+      <c r="S184" s="90"/>
+      <c r="T184" s="91"/>
+      <c r="U184" s="92"/>
+      <c r="V184" s="92"/>
+      <c r="W184" s="92"/>
+      <c r="X184" s="93"/>
+      <c r="Y184" s="90"/>
+      <c r="Z184" s="91"/>
+      <c r="AA184" s="92"/>
+      <c r="AB184" s="92"/>
+      <c r="AC184" s="92"/>
+      <c r="AD184" s="93"/>
+    </row>
+    <row r="185" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="90"/>
+      <c r="B185" s="91"/>
+      <c r="C185" s="92"/>
+      <c r="D185" s="92"/>
+      <c r="E185" s="92"/>
+      <c r="F185" s="93"/>
+      <c r="G185" s="90"/>
+      <c r="H185" s="91"/>
+      <c r="I185" s="92"/>
+      <c r="J185" s="92"/>
+      <c r="K185" s="92"/>
+      <c r="L185" s="93"/>
+      <c r="M185" s="90"/>
+      <c r="N185" s="91"/>
+      <c r="O185" s="92"/>
+      <c r="P185" s="92"/>
+      <c r="Q185" s="92"/>
+      <c r="R185" s="93"/>
+      <c r="S185" s="90"/>
+      <c r="T185" s="91"/>
+      <c r="U185" s="92"/>
+      <c r="V185" s="92"/>
+      <c r="W185" s="92"/>
+      <c r="X185" s="93"/>
+      <c r="Y185" s="90"/>
+      <c r="Z185" s="91"/>
+      <c r="AA185" s="92"/>
+      <c r="AB185" s="92"/>
+      <c r="AC185" s="92"/>
+      <c r="AD185" s="93"/>
+    </row>
+    <row r="186" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="90"/>
+      <c r="B186" s="91"/>
+      <c r="C186" s="92"/>
+      <c r="D186" s="92"/>
+      <c r="E186" s="92"/>
+      <c r="F186" s="93"/>
+      <c r="G186" s="90"/>
+      <c r="H186" s="91"/>
+      <c r="I186" s="92"/>
+      <c r="J186" s="92"/>
+      <c r="K186" s="92"/>
+      <c r="L186" s="93"/>
+      <c r="M186" s="90"/>
+      <c r="N186" s="91"/>
+      <c r="O186" s="92"/>
+      <c r="P186" s="92"/>
+      <c r="Q186" s="92"/>
+      <c r="R186" s="93"/>
+      <c r="S186" s="90"/>
+      <c r="T186" s="91"/>
+      <c r="U186" s="92"/>
+      <c r="V186" s="92"/>
+      <c r="W186" s="92"/>
+      <c r="X186" s="93"/>
+      <c r="Y186" s="90"/>
+      <c r="Z186" s="91"/>
+      <c r="AA186" s="92"/>
+      <c r="AB186" s="92"/>
+      <c r="AC186" s="92"/>
+      <c r="AD186" s="93"/>
+    </row>
+    <row r="187" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="90"/>
+      <c r="B187" s="91"/>
+      <c r="C187" s="92"/>
+      <c r="D187" s="92"/>
+      <c r="E187" s="92"/>
+      <c r="F187" s="93"/>
+      <c r="G187" s="90"/>
+      <c r="H187" s="91"/>
+      <c r="I187" s="92"/>
+      <c r="J187" s="92"/>
+      <c r="K187" s="92"/>
+      <c r="L187" s="93"/>
+      <c r="M187" s="90"/>
+      <c r="N187" s="91"/>
+      <c r="O187" s="92"/>
+      <c r="P187" s="92"/>
+      <c r="Q187" s="92"/>
+      <c r="R187" s="93"/>
+      <c r="S187" s="90"/>
+      <c r="T187" s="91"/>
+      <c r="U187" s="92"/>
+      <c r="V187" s="92"/>
+      <c r="W187" s="92"/>
+      <c r="X187" s="93"/>
+      <c r="Y187" s="90"/>
+      <c r="Z187" s="91"/>
+      <c r="AA187" s="92"/>
+      <c r="AB187" s="92"/>
+      <c r="AC187" s="92"/>
+      <c r="AD187" s="93"/>
+    </row>
+    <row r="188" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="90"/>
+      <c r="B188" s="91"/>
+      <c r="C188" s="92"/>
+      <c r="D188" s="92"/>
+      <c r="E188" s="92"/>
+      <c r="F188" s="93"/>
+      <c r="G188" s="90"/>
+      <c r="H188" s="91"/>
+      <c r="I188" s="92"/>
+      <c r="J188" s="92"/>
+      <c r="K188" s="92"/>
+      <c r="L188" s="93"/>
+      <c r="M188" s="90"/>
+      <c r="N188" s="91"/>
+      <c r="O188" s="92"/>
+      <c r="P188" s="92"/>
+      <c r="Q188" s="92"/>
+      <c r="R188" s="93"/>
+      <c r="S188" s="90"/>
+      <c r="T188" s="91"/>
+      <c r="U188" s="92"/>
+      <c r="V188" s="92"/>
+      <c r="W188" s="92"/>
+      <c r="X188" s="93"/>
+      <c r="Y188" s="90"/>
+      <c r="Z188" s="91"/>
+      <c r="AA188" s="92"/>
+      <c r="AB188" s="92"/>
+      <c r="AC188" s="92"/>
+      <c r="AD188" s="93"/>
+    </row>
+    <row r="189" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="90"/>
+      <c r="B189" s="91"/>
+      <c r="C189" s="92"/>
+      <c r="D189" s="92"/>
+      <c r="E189" s="92"/>
+      <c r="F189" s="93"/>
+      <c r="G189" s="90"/>
+      <c r="H189" s="91"/>
+      <c r="I189" s="92"/>
+      <c r="J189" s="92"/>
+      <c r="K189" s="92"/>
+      <c r="L189" s="93"/>
+      <c r="M189" s="90"/>
+      <c r="N189" s="91"/>
+      <c r="O189" s="92"/>
+      <c r="P189" s="92"/>
+      <c r="Q189" s="92"/>
+      <c r="R189" s="93"/>
+      <c r="S189" s="90"/>
+      <c r="T189" s="91"/>
+      <c r="U189" s="92"/>
+      <c r="V189" s="92"/>
+      <c r="W189" s="92"/>
+      <c r="X189" s="93"/>
+      <c r="Y189" s="90"/>
+      <c r="Z189" s="91"/>
+      <c r="AA189" s="92"/>
+      <c r="AB189" s="92"/>
+      <c r="AC189" s="92"/>
+      <c r="AD189" s="93"/>
+    </row>
+    <row r="190" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="90"/>
+      <c r="B190" s="91"/>
+      <c r="C190" s="92"/>
+      <c r="D190" s="92"/>
+      <c r="E190" s="92"/>
+      <c r="F190" s="93"/>
+      <c r="G190" s="90"/>
+      <c r="H190" s="91"/>
+      <c r="I190" s="92"/>
+      <c r="J190" s="92"/>
+      <c r="K190" s="92"/>
+      <c r="L190" s="93"/>
+      <c r="M190" s="90"/>
+      <c r="N190" s="91"/>
+      <c r="O190" s="92"/>
+      <c r="P190" s="92"/>
+      <c r="Q190" s="92"/>
+      <c r="R190" s="93"/>
+      <c r="S190" s="90"/>
+      <c r="T190" s="91"/>
+      <c r="U190" s="92"/>
+      <c r="V190" s="92"/>
+      <c r="W190" s="92"/>
+      <c r="X190" s="93"/>
+      <c r="Y190" s="90"/>
+      <c r="Z190" s="91"/>
+      <c r="AA190" s="92"/>
+      <c r="AB190" s="92"/>
+      <c r="AC190" s="92"/>
+      <c r="AD190" s="93"/>
+    </row>
+    <row r="191" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="90"/>
+      <c r="B191" s="91"/>
+      <c r="C191" s="92"/>
+      <c r="D191" s="92"/>
+      <c r="E191" s="92"/>
+      <c r="F191" s="93"/>
+      <c r="G191" s="90"/>
+      <c r="H191" s="91"/>
+      <c r="I191" s="92"/>
+      <c r="J191" s="92"/>
+      <c r="K191" s="92"/>
+      <c r="L191" s="93"/>
+      <c r="M191" s="90"/>
+      <c r="N191" s="91"/>
+      <c r="O191" s="92"/>
+      <c r="P191" s="92"/>
+      <c r="Q191" s="92"/>
+      <c r="R191" s="93"/>
+      <c r="S191" s="90"/>
+      <c r="T191" s="91"/>
+      <c r="U191" s="92"/>
+      <c r="V191" s="92"/>
+      <c r="W191" s="92"/>
+      <c r="X191" s="93"/>
+      <c r="Y191" s="90"/>
+      <c r="Z191" s="91"/>
+      <c r="AA191" s="92"/>
+      <c r="AB191" s="92"/>
+      <c r="AC191" s="92"/>
+      <c r="AD191" s="93"/>
+    </row>
+    <row r="192" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="90"/>
+      <c r="B192" s="91"/>
+      <c r="C192" s="92"/>
+      <c r="D192" s="92"/>
+      <c r="E192" s="92"/>
+      <c r="F192" s="93"/>
+      <c r="G192" s="90"/>
+      <c r="H192" s="91"/>
+      <c r="I192" s="92"/>
+      <c r="J192" s="92"/>
+      <c r="K192" s="92"/>
+      <c r="L192" s="93"/>
+      <c r="M192" s="90"/>
+      <c r="N192" s="91"/>
+      <c r="O192" s="92"/>
+      <c r="P192" s="92"/>
+      <c r="Q192" s="92"/>
+      <c r="R192" s="93"/>
+      <c r="S192" s="90"/>
+      <c r="T192" s="91"/>
+      <c r="U192" s="92"/>
+      <c r="V192" s="92"/>
+      <c r="W192" s="92"/>
+      <c r="X192" s="93"/>
+      <c r="Y192" s="90"/>
+      <c r="Z192" s="91"/>
+      <c r="AA192" s="92"/>
+      <c r="AB192" s="92"/>
+      <c r="AC192" s="92"/>
+      <c r="AD192" s="93"/>
+    </row>
+    <row r="193" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="90"/>
+      <c r="B193" s="91"/>
+      <c r="C193" s="92"/>
+      <c r="D193" s="92"/>
+      <c r="E193" s="92"/>
+      <c r="F193" s="93"/>
+      <c r="G193" s="90"/>
+      <c r="H193" s="91"/>
+      <c r="I193" s="92"/>
+      <c r="J193" s="92"/>
+      <c r="K193" s="92"/>
+      <c r="L193" s="93"/>
+      <c r="M193" s="90"/>
+      <c r="N193" s="91"/>
+      <c r="O193" s="92"/>
+      <c r="P193" s="92"/>
+      <c r="Q193" s="92"/>
+      <c r="R193" s="93"/>
+      <c r="S193" s="90"/>
+      <c r="T193" s="91"/>
+      <c r="U193" s="92"/>
+      <c r="V193" s="92"/>
+      <c r="W193" s="92"/>
+      <c r="X193" s="93"/>
+      <c r="Y193" s="90"/>
+      <c r="Z193" s="91"/>
+      <c r="AA193" s="92"/>
+      <c r="AB193" s="92"/>
+      <c r="AC193" s="92"/>
+      <c r="AD193" s="93"/>
+    </row>
+    <row r="194" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="90"/>
+      <c r="B194" s="91"/>
+      <c r="C194" s="92"/>
+      <c r="D194" s="92"/>
+      <c r="E194" s="92"/>
+      <c r="F194" s="93"/>
+      <c r="G194" s="90"/>
+      <c r="H194" s="91"/>
+      <c r="I194" s="92"/>
+      <c r="J194" s="92"/>
+      <c r="K194" s="92"/>
+      <c r="L194" s="93"/>
+      <c r="M194" s="90"/>
+      <c r="N194" s="91"/>
+      <c r="O194" s="92"/>
+      <c r="P194" s="92"/>
+      <c r="Q194" s="92"/>
+      <c r="R194" s="93"/>
+      <c r="S194" s="90"/>
+      <c r="T194" s="91"/>
+      <c r="U194" s="92"/>
+      <c r="V194" s="92"/>
+      <c r="W194" s="92"/>
+      <c r="X194" s="93"/>
+      <c r="Y194" s="90"/>
+      <c r="Z194" s="91"/>
+      <c r="AA194" s="92"/>
+      <c r="AB194" s="92"/>
+      <c r="AC194" s="92"/>
+      <c r="AD194" s="93"/>
+    </row>
+    <row r="195" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="90"/>
+      <c r="B195" s="91"/>
+      <c r="C195" s="92"/>
+      <c r="D195" s="92"/>
+      <c r="E195" s="92"/>
+      <c r="F195" s="93"/>
+      <c r="G195" s="90"/>
+      <c r="H195" s="91"/>
+      <c r="I195" s="92"/>
+      <c r="J195" s="92"/>
+      <c r="K195" s="92"/>
+      <c r="L195" s="93"/>
+      <c r="M195" s="90"/>
+      <c r="N195" s="91"/>
+      <c r="O195" s="92"/>
+      <c r="P195" s="92"/>
+      <c r="Q195" s="92"/>
+      <c r="R195" s="93"/>
+      <c r="S195" s="90"/>
+      <c r="T195" s="91"/>
+      <c r="U195" s="92"/>
+      <c r="V195" s="92"/>
+      <c r="W195" s="92"/>
+      <c r="X195" s="93"/>
+      <c r="Y195" s="90"/>
+      <c r="Z195" s="91"/>
+      <c r="AA195" s="92"/>
+      <c r="AB195" s="92"/>
+      <c r="AC195" s="92"/>
+      <c r="AD195" s="93"/>
+    </row>
+    <row r="196" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="90"/>
+      <c r="B196" s="91"/>
+      <c r="C196" s="92"/>
+      <c r="D196" s="92"/>
+      <c r="E196" s="92"/>
+      <c r="F196" s="93"/>
+      <c r="G196" s="90"/>
+      <c r="H196" s="91"/>
+      <c r="I196" s="92"/>
+      <c r="J196" s="92"/>
+      <c r="K196" s="92"/>
+      <c r="L196" s="93"/>
+      <c r="M196" s="90"/>
+      <c r="N196" s="91"/>
+      <c r="O196" s="92"/>
+      <c r="P196" s="92"/>
+      <c r="Q196" s="92"/>
+      <c r="R196" s="93"/>
+      <c r="S196" s="90"/>
+      <c r="T196" s="91"/>
+      <c r="U196" s="92"/>
+      <c r="V196" s="92"/>
+      <c r="W196" s="92"/>
+      <c r="X196" s="93"/>
+      <c r="Y196" s="90"/>
+      <c r="Z196" s="91"/>
+      <c r="AA196" s="92"/>
+      <c r="AB196" s="92"/>
+      <c r="AC196" s="92"/>
+      <c r="AD196" s="93"/>
+    </row>
+    <row r="197" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="90"/>
+      <c r="B197" s="91"/>
+      <c r="C197" s="92"/>
+      <c r="D197" s="92"/>
+      <c r="E197" s="92"/>
+      <c r="F197" s="93"/>
+      <c r="G197" s="90"/>
+      <c r="H197" s="91"/>
+      <c r="I197" s="92"/>
+      <c r="J197" s="92"/>
+      <c r="K197" s="92"/>
+      <c r="L197" s="93"/>
+      <c r="M197" s="90"/>
+      <c r="N197" s="91"/>
+      <c r="O197" s="92"/>
+      <c r="P197" s="92"/>
+      <c r="Q197" s="92"/>
+      <c r="R197" s="93"/>
+      <c r="S197" s="90"/>
+      <c r="T197" s="91"/>
+      <c r="U197" s="92"/>
+      <c r="V197" s="92"/>
+      <c r="W197" s="92"/>
+      <c r="X197" s="93"/>
+      <c r="Y197" s="90"/>
+      <c r="Z197" s="91"/>
+      <c r="AA197" s="92"/>
+      <c r="AB197" s="92"/>
+      <c r="AC197" s="92"/>
+      <c r="AD197" s="93"/>
+    </row>
+    <row r="198" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="90"/>
+      <c r="B198" s="91"/>
+      <c r="C198" s="92"/>
+      <c r="D198" s="92"/>
+      <c r="E198" s="92"/>
+      <c r="F198" s="93"/>
+      <c r="G198" s="90"/>
+      <c r="H198" s="91"/>
+      <c r="I198" s="92"/>
+      <c r="J198" s="92"/>
+      <c r="K198" s="92"/>
+      <c r="L198" s="93"/>
+      <c r="M198" s="90"/>
+      <c r="N198" s="91"/>
+      <c r="O198" s="92"/>
+      <c r="P198" s="92"/>
+      <c r="Q198" s="92"/>
+      <c r="R198" s="93"/>
+      <c r="S198" s="90"/>
+      <c r="T198" s="91"/>
+      <c r="U198" s="92"/>
+      <c r="V198" s="92"/>
+      <c r="W198" s="92"/>
+      <c r="X198" s="93"/>
+      <c r="Y198" s="90"/>
+      <c r="Z198" s="91"/>
+      <c r="AA198" s="92"/>
+      <c r="AB198" s="92"/>
+      <c r="AC198" s="92"/>
+      <c r="AD198" s="93"/>
+    </row>
+    <row r="199" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="90"/>
+      <c r="B199" s="91"/>
+      <c r="C199" s="92"/>
+      <c r="D199" s="92"/>
+      <c r="E199" s="92"/>
+      <c r="F199" s="93"/>
+      <c r="G199" s="90"/>
+      <c r="H199" s="91"/>
+      <c r="I199" s="92"/>
+      <c r="J199" s="92"/>
+      <c r="K199" s="92"/>
+      <c r="L199" s="93"/>
+      <c r="M199" s="90"/>
+      <c r="N199" s="91"/>
+      <c r="O199" s="92"/>
+      <c r="P199" s="92"/>
+      <c r="Q199" s="92"/>
+      <c r="R199" s="93"/>
+      <c r="S199" s="90"/>
+      <c r="T199" s="91"/>
+      <c r="U199" s="92"/>
+      <c r="V199" s="92"/>
+      <c r="W199" s="92"/>
+      <c r="X199" s="93"/>
+      <c r="Y199" s="90"/>
+      <c r="Z199" s="91"/>
+      <c r="AA199" s="92"/>
+      <c r="AB199" s="92"/>
+      <c r="AC199" s="92"/>
+      <c r="AD199" s="93"/>
+    </row>
+    <row r="200" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="90"/>
+      <c r="B200" s="91"/>
+      <c r="C200" s="92"/>
+      <c r="D200" s="92"/>
+      <c r="E200" s="92"/>
+      <c r="F200" s="93"/>
+      <c r="G200" s="90"/>
+      <c r="H200" s="91"/>
+      <c r="I200" s="92"/>
+      <c r="J200" s="92"/>
+      <c r="K200" s="92"/>
+      <c r="L200" s="93"/>
+      <c r="M200" s="90"/>
+      <c r="N200" s="91"/>
+      <c r="O200" s="92"/>
+      <c r="P200" s="92"/>
+      <c r="Q200" s="92"/>
+      <c r="R200" s="93"/>
+      <c r="S200" s="90"/>
+      <c r="T200" s="91"/>
+      <c r="U200" s="92"/>
+      <c r="V200" s="92"/>
+      <c r="W200" s="92"/>
+      <c r="X200" s="93"/>
+      <c r="Y200" s="90"/>
+      <c r="Z200" s="91"/>
+      <c r="AA200" s="92"/>
+      <c r="AB200" s="92"/>
+      <c r="AC200" s="92"/>
+      <c r="AD200" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="G179:L179"/>
+    <mergeCell ref="M179:R179"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="Y179:AD179"/>
     <mergeCell ref="A124:F124"/>
     <mergeCell ref="G124:L124"/>
     <mergeCell ref="M124:R124"/>
     <mergeCell ref="S124:X124"/>
     <mergeCell ref="Y124:AD124"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="G158:L158"/>
-    <mergeCell ref="M158:R158"/>
-    <mergeCell ref="S158:X158"/>
-    <mergeCell ref="Y158:AD158"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12555,7 +13410,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13219,15 +14074,15 @@
         <v>15000</v>
       </c>
       <c r="J20" s="140">
-        <v>45.02</v>
+        <v>44.13</v>
       </c>
       <c r="K20" s="113">
         <f t="shared" si="7"/>
-        <v>-0.19867891891891892</v>
+        <v>-0.19861477477477479</v>
       </c>
       <c r="L20" s="77">
         <f t="shared" si="8"/>
-        <v>-2756.67</v>
+        <v>-2755.78</v>
       </c>
       <c r="N20" s="72"/>
       <c r="O20" s="72"/>
@@ -13305,7 +14160,7 @@
       <c r="N22" s="157" t="s">
         <v>172</v>
       </c>
-      <c r="O22" s="158">
+      <c r="O22" s="159">
         <f>IF(O21&gt;10000, O21*8%/100, 8)</f>
         <v>16.113600000000002</v>
       </c>
@@ -13335,7 +14190,7 @@
       <c r="N23" s="157" t="s">
         <v>173</v>
       </c>
-      <c r="O23" s="158">
+      <c r="O23" s="159">
         <f>O22*6%</f>
         <v>0.96681600000000012</v>
       </c>
@@ -13395,7 +14250,7 @@
       <c r="N25" s="157" t="s">
         <v>174</v>
       </c>
-      <c r="O25" s="158">
+      <c r="O25" s="159">
         <f>O21*0.03%</f>
         <v>6.0425999999999993</v>
       </c>
@@ -13497,14 +14352,14 @@
       </c>
       <c r="J29" s="125">
         <f>SUM(J18:J28)</f>
-        <v>94.12</v>
+        <v>93.23</v>
       </c>
       <c r="K29" s="79" t="s">
         <v>141</v>
       </c>
       <c r="L29" s="82">
         <f>SUM(L18:L28)</f>
-        <v>-4648.3900000000003</v>
+        <v>-4647.5</v>
       </c>
     </row>
   </sheetData>
@@ -13719,10 +14574,10 @@
       <c r="A1" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="196">
+      <c r="B1" s="199">
         <v>0.51</v>
       </c>
-      <c r="C1" s="196"/>
+      <c r="C1" s="199"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -13731,10 +14586,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="196">
+      <c r="B2" s="199">
         <v>0.54</v>
       </c>
-      <c r="C2" s="196"/>
+      <c r="C2" s="199"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -13743,10 +14598,10 @@
       <c r="A3" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="196">
+      <c r="B3" s="199">
         <v>0.51</v>
       </c>
-      <c r="C3" s="196"/>
+      <c r="C3" s="199"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -13755,10 +14610,10 @@
       <c r="A4" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="196">
+      <c r="B4" s="199">
         <v>0.54</v>
       </c>
-      <c r="C4" s="196"/>
+      <c r="C4" s="199"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -13800,7 +14655,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="199">
+      <c r="E8" s="196">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -13813,7 +14668,7 @@
       <c r="B9" s="197"/>
       <c r="C9" s="197"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="199"/>
+      <c r="E9" s="196"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -13853,7 +14708,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="199">
+      <c r="E13" s="196">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -13866,7 +14721,7 @@
       <c r="B14" s="197"/>
       <c r="C14" s="197"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="199"/>
+      <c r="E14" s="196"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -13906,7 +14761,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="199">
+      <c r="E18" s="196">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -13919,7 +14774,7 @@
       <c r="B19" s="197"/>
       <c r="C19" s="197"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="199"/>
+      <c r="E19" s="196"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -13964,6 +14819,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -13971,12 +14832,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1192" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC5BE5DF-A9B0-47A0-B2E6-A4CCA6736240}"/>
+  <xr:revisionPtr revIDLastSave="1257" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3EAD144B-D0E4-4944-986E-2DBC4754D04D}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="15765" windowWidth="27870" windowHeight="13920" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="226">
   <si>
     <t>Pillar</t>
   </si>
@@ -703,6 +703,18 @@
   </si>
   <si>
     <t>YTLPOWR</t>
+  </si>
+  <si>
+    <t>MI (5286)</t>
+  </si>
+  <si>
+    <t>FPGROUP (5277)</t>
+  </si>
+  <si>
+    <t>FOCUS</t>
+  </si>
+  <si>
+    <t>IOICORP</t>
   </si>
 </sst>
 </file>
@@ -2323,6 +2335,7 @@
     <xf numFmtId="176" fontId="2" fillId="17" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2395,19 +2408,18 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2842,61 +2854,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V129" sqref="V129"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="15.7109375" style="72" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="15.7109375" style="72"/>
+    <col min="1" max="1" width="12.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="72" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="72"/>
+    <col min="9" max="9" width="8.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="72" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="72" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="15.7109375" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="172">
+      <c r="A1" s="173">
         <v>43864</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172">
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173">
         <f>A1+1</f>
         <v>43865</v>
       </c>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172">
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173">
         <f t="shared" ref="M1" si="0">G1+1</f>
         <v>43866</v>
       </c>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172">
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173">
         <f t="shared" ref="S1" si="1">M1+1</f>
         <v>43867</v>
       </c>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172">
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173">
         <f t="shared" ref="Y1" si="2">S1+1</f>
         <v>43868</v>
       </c>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="87" t="s">
@@ -3425,51 +3466,51 @@
       <c r="AD14" s="93"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="172">
+      <c r="A15" s="173">
         <f>A1+7</f>
         <v>43871</v>
       </c>
-      <c r="B15" s="172"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172">
+      <c r="B15" s="173"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173">
         <f>A15+1</f>
         <v>43872</v>
       </c>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
-      <c r="L15" s="172"/>
-      <c r="M15" s="172">
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="173"/>
+      <c r="M15" s="173">
         <f t="shared" ref="M15" si="3">G15+1</f>
         <v>43873</v>
       </c>
-      <c r="N15" s="172"/>
-      <c r="O15" s="172"/>
-      <c r="P15" s="172"/>
-      <c r="Q15" s="172"/>
-      <c r="R15" s="172"/>
-      <c r="S15" s="172">
+      <c r="N15" s="173"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="173"/>
+      <c r="S15" s="173">
         <f t="shared" ref="S15" si="4">M15+1</f>
         <v>43874</v>
       </c>
-      <c r="T15" s="172"/>
-      <c r="U15" s="172"/>
-      <c r="V15" s="172"/>
-      <c r="W15" s="172"/>
-      <c r="X15" s="172"/>
-      <c r="Y15" s="172">
+      <c r="T15" s="173"/>
+      <c r="U15" s="173"/>
+      <c r="V15" s="173"/>
+      <c r="W15" s="173"/>
+      <c r="X15" s="173"/>
+      <c r="Y15" s="173">
         <f t="shared" ref="Y15" si="5">S15+1</f>
         <v>43875</v>
       </c>
-      <c r="Z15" s="172"/>
-      <c r="AA15" s="172"/>
-      <c r="AB15" s="172"/>
-      <c r="AC15" s="172"/>
-      <c r="AD15" s="172"/>
+      <c r="Z15" s="173"/>
+      <c r="AA15" s="173"/>
+      <c r="AB15" s="173"/>
+      <c r="AC15" s="173"/>
+      <c r="AD15" s="173"/>
     </row>
     <row r="16" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="87" t="s">
@@ -4206,51 +4247,51 @@
       <c r="AD29" s="93"/>
     </row>
     <row r="30" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="172">
+      <c r="A30" s="173">
         <f>A15+7</f>
         <v>43878</v>
       </c>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172">
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173">
         <f>A30+1</f>
         <v>43879</v>
       </c>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
-      <c r="K30" s="172"/>
-      <c r="L30" s="172"/>
-      <c r="M30" s="172">
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="173"/>
+      <c r="L30" s="173"/>
+      <c r="M30" s="173">
         <f t="shared" ref="M30" si="6">G30+1</f>
         <v>43880</v>
       </c>
-      <c r="N30" s="172"/>
-      <c r="O30" s="172"/>
-      <c r="P30" s="172"/>
-      <c r="Q30" s="172"/>
-      <c r="R30" s="172"/>
-      <c r="S30" s="172">
+      <c r="N30" s="173"/>
+      <c r="O30" s="173"/>
+      <c r="P30" s="173"/>
+      <c r="Q30" s="173"/>
+      <c r="R30" s="173"/>
+      <c r="S30" s="173">
         <f t="shared" ref="S30" si="7">M30+1</f>
         <v>43881</v>
       </c>
-      <c r="T30" s="172"/>
-      <c r="U30" s="172"/>
-      <c r="V30" s="172"/>
-      <c r="W30" s="172"/>
-      <c r="X30" s="172"/>
-      <c r="Y30" s="172">
+      <c r="T30" s="173"/>
+      <c r="U30" s="173"/>
+      <c r="V30" s="173"/>
+      <c r="W30" s="173"/>
+      <c r="X30" s="173"/>
+      <c r="Y30" s="173">
         <f t="shared" ref="Y30" si="8">S30+1</f>
         <v>43882</v>
       </c>
-      <c r="Z30" s="172"/>
-      <c r="AA30" s="172"/>
-      <c r="AB30" s="172"/>
-      <c r="AC30" s="172"/>
-      <c r="AD30" s="172"/>
+      <c r="Z30" s="173"/>
+      <c r="AA30" s="173"/>
+      <c r="AB30" s="173"/>
+      <c r="AC30" s="173"/>
+      <c r="AD30" s="173"/>
     </row>
     <row r="31" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="87" t="s">
@@ -5573,51 +5614,51 @@
       <c r="AD52" s="93"/>
     </row>
     <row r="53" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="172">
+      <c r="A53" s="173">
         <f>A30+7</f>
         <v>43885</v>
       </c>
-      <c r="B53" s="172"/>
-      <c r="C53" s="172"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="172"/>
-      <c r="F53" s="172"/>
-      <c r="G53" s="172">
+      <c r="B53" s="173"/>
+      <c r="C53" s="173"/>
+      <c r="D53" s="173"/>
+      <c r="E53" s="173"/>
+      <c r="F53" s="173"/>
+      <c r="G53" s="173">
         <f>A53+1</f>
         <v>43886</v>
       </c>
-      <c r="H53" s="172"/>
-      <c r="I53" s="172"/>
-      <c r="J53" s="172"/>
-      <c r="K53" s="172"/>
-      <c r="L53" s="172"/>
-      <c r="M53" s="172">
+      <c r="H53" s="173"/>
+      <c r="I53" s="173"/>
+      <c r="J53" s="173"/>
+      <c r="K53" s="173"/>
+      <c r="L53" s="173"/>
+      <c r="M53" s="173">
         <f t="shared" ref="M53" si="9">G53+1</f>
         <v>43887</v>
       </c>
-      <c r="N53" s="172"/>
-      <c r="O53" s="172"/>
-      <c r="P53" s="172"/>
-      <c r="Q53" s="172"/>
-      <c r="R53" s="172"/>
-      <c r="S53" s="172">
+      <c r="N53" s="173"/>
+      <c r="O53" s="173"/>
+      <c r="P53" s="173"/>
+      <c r="Q53" s="173"/>
+      <c r="R53" s="173"/>
+      <c r="S53" s="173">
         <f t="shared" ref="S53" si="10">M53+1</f>
         <v>43888</v>
       </c>
-      <c r="T53" s="172"/>
-      <c r="U53" s="172"/>
-      <c r="V53" s="172"/>
-      <c r="W53" s="172"/>
-      <c r="X53" s="172"/>
-      <c r="Y53" s="172">
+      <c r="T53" s="173"/>
+      <c r="U53" s="173"/>
+      <c r="V53" s="173"/>
+      <c r="W53" s="173"/>
+      <c r="X53" s="173"/>
+      <c r="Y53" s="173">
         <f t="shared" ref="Y53" si="11">S53+1</f>
         <v>43889</v>
       </c>
-      <c r="Z53" s="172"/>
-      <c r="AA53" s="172"/>
-      <c r="AB53" s="172"/>
-      <c r="AC53" s="172"/>
-      <c r="AD53" s="172"/>
+      <c r="Z53" s="173"/>
+      <c r="AA53" s="173"/>
+      <c r="AB53" s="173"/>
+      <c r="AC53" s="173"/>
+      <c r="AD53" s="173"/>
     </row>
     <row r="54" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="87" t="s">
@@ -6720,51 +6761,51 @@
       <c r="AD79" s="93"/>
     </row>
     <row r="80" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="172">
+      <c r="A80" s="173">
         <f>A53+7</f>
         <v>43892</v>
       </c>
-      <c r="B80" s="172"/>
-      <c r="C80" s="172"/>
-      <c r="D80" s="172"/>
-      <c r="E80" s="172"/>
-      <c r="F80" s="172"/>
-      <c r="G80" s="172">
+      <c r="B80" s="173"/>
+      <c r="C80" s="173"/>
+      <c r="D80" s="173"/>
+      <c r="E80" s="173"/>
+      <c r="F80" s="173"/>
+      <c r="G80" s="173">
         <f>A80+1</f>
         <v>43893</v>
       </c>
-      <c r="H80" s="172"/>
-      <c r="I80" s="172"/>
-      <c r="J80" s="172"/>
-      <c r="K80" s="172"/>
-      <c r="L80" s="172"/>
-      <c r="M80" s="172">
+      <c r="H80" s="173"/>
+      <c r="I80" s="173"/>
+      <c r="J80" s="173"/>
+      <c r="K80" s="173"/>
+      <c r="L80" s="173"/>
+      <c r="M80" s="173">
         <f t="shared" ref="M80" si="12">G80+1</f>
         <v>43894</v>
       </c>
-      <c r="N80" s="172"/>
-      <c r="O80" s="172"/>
-      <c r="P80" s="172"/>
-      <c r="Q80" s="172"/>
-      <c r="R80" s="172"/>
-      <c r="S80" s="172">
+      <c r="N80" s="173"/>
+      <c r="O80" s="173"/>
+      <c r="P80" s="173"/>
+      <c r="Q80" s="173"/>
+      <c r="R80" s="173"/>
+      <c r="S80" s="173">
         <f t="shared" ref="S80" si="13">M80+1</f>
         <v>43895</v>
       </c>
-      <c r="T80" s="172"/>
-      <c r="U80" s="172"/>
-      <c r="V80" s="172"/>
-      <c r="W80" s="172"/>
-      <c r="X80" s="172"/>
-      <c r="Y80" s="172">
+      <c r="T80" s="173"/>
+      <c r="U80" s="173"/>
+      <c r="V80" s="173"/>
+      <c r="W80" s="173"/>
+      <c r="X80" s="173"/>
+      <c r="Y80" s="173">
         <f t="shared" ref="Y80" si="14">S80+1</f>
         <v>43896</v>
       </c>
-      <c r="Z80" s="172"/>
-      <c r="AA80" s="172"/>
-      <c r="AB80" s="172"/>
-      <c r="AC80" s="172"/>
-      <c r="AD80" s="172"/>
+      <c r="Z80" s="173"/>
+      <c r="AA80" s="173"/>
+      <c r="AB80" s="173"/>
+      <c r="AC80" s="173"/>
+      <c r="AD80" s="173"/>
     </row>
     <row r="81" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="87" t="s">
@@ -7553,51 +7594,51 @@
       <c r="AD101" s="93"/>
     </row>
     <row r="102" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="172">
+      <c r="A102" s="173">
         <f>A80+7</f>
         <v>43899</v>
       </c>
-      <c r="B102" s="172"/>
-      <c r="C102" s="172"/>
-      <c r="D102" s="172"/>
-      <c r="E102" s="172"/>
-      <c r="F102" s="172"/>
-      <c r="G102" s="172">
+      <c r="B102" s="173"/>
+      <c r="C102" s="173"/>
+      <c r="D102" s="173"/>
+      <c r="E102" s="173"/>
+      <c r="F102" s="173"/>
+      <c r="G102" s="173">
         <f>A102+1</f>
         <v>43900</v>
       </c>
-      <c r="H102" s="172"/>
-      <c r="I102" s="172"/>
-      <c r="J102" s="172"/>
-      <c r="K102" s="172"/>
-      <c r="L102" s="172"/>
-      <c r="M102" s="172">
+      <c r="H102" s="173"/>
+      <c r="I102" s="173"/>
+      <c r="J102" s="173"/>
+      <c r="K102" s="173"/>
+      <c r="L102" s="173"/>
+      <c r="M102" s="173">
         <f t="shared" ref="M102" si="15">G102+1</f>
         <v>43901</v>
       </c>
-      <c r="N102" s="172"/>
-      <c r="O102" s="172"/>
-      <c r="P102" s="172"/>
-      <c r="Q102" s="172"/>
-      <c r="R102" s="172"/>
-      <c r="S102" s="172">
+      <c r="N102" s="173"/>
+      <c r="O102" s="173"/>
+      <c r="P102" s="173"/>
+      <c r="Q102" s="173"/>
+      <c r="R102" s="173"/>
+      <c r="S102" s="173">
         <f t="shared" ref="S102" si="16">M102+1</f>
         <v>43902</v>
       </c>
-      <c r="T102" s="172"/>
-      <c r="U102" s="172"/>
-      <c r="V102" s="172"/>
-      <c r="W102" s="172"/>
-      <c r="X102" s="172"/>
-      <c r="Y102" s="172">
+      <c r="T102" s="173"/>
+      <c r="U102" s="173"/>
+      <c r="V102" s="173"/>
+      <c r="W102" s="173"/>
+      <c r="X102" s="173"/>
+      <c r="Y102" s="173">
         <f t="shared" ref="Y102" si="17">S102+1</f>
         <v>43903</v>
       </c>
-      <c r="Z102" s="172"/>
-      <c r="AA102" s="172"/>
-      <c r="AB102" s="172"/>
-      <c r="AC102" s="172"/>
-      <c r="AD102" s="172"/>
+      <c r="Z102" s="173"/>
+      <c r="AA102" s="173"/>
+      <c r="AB102" s="173"/>
+      <c r="AC102" s="173"/>
+      <c r="AD102" s="173"/>
     </row>
     <row r="103" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="87" t="s">
@@ -8366,51 +8407,51 @@
       <c r="AD123" s="93"/>
     </row>
     <row r="124" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="172">
+      <c r="A124" s="173">
         <f>A102+7</f>
         <v>43906</v>
       </c>
-      <c r="B124" s="172"/>
-      <c r="C124" s="172"/>
-      <c r="D124" s="172"/>
-      <c r="E124" s="172"/>
-      <c r="F124" s="172"/>
-      <c r="G124" s="172">
+      <c r="B124" s="173"/>
+      <c r="C124" s="173"/>
+      <c r="D124" s="173"/>
+      <c r="E124" s="173"/>
+      <c r="F124" s="173"/>
+      <c r="G124" s="173">
         <f>A124+1</f>
         <v>43907</v>
       </c>
-      <c r="H124" s="172"/>
-      <c r="I124" s="172"/>
-      <c r="J124" s="172"/>
-      <c r="K124" s="172"/>
-      <c r="L124" s="172"/>
-      <c r="M124" s="172">
+      <c r="H124" s="173"/>
+      <c r="I124" s="173"/>
+      <c r="J124" s="173"/>
+      <c r="K124" s="173"/>
+      <c r="L124" s="173"/>
+      <c r="M124" s="173">
         <f t="shared" ref="M124" si="18">G124+1</f>
         <v>43908</v>
       </c>
-      <c r="N124" s="172"/>
-      <c r="O124" s="172"/>
-      <c r="P124" s="172"/>
-      <c r="Q124" s="172"/>
-      <c r="R124" s="172"/>
-      <c r="S124" s="172">
+      <c r="N124" s="173"/>
+      <c r="O124" s="173"/>
+      <c r="P124" s="173"/>
+      <c r="Q124" s="173"/>
+      <c r="R124" s="173"/>
+      <c r="S124" s="173">
         <f t="shared" ref="S124" si="19">M124+1</f>
         <v>43909</v>
       </c>
-      <c r="T124" s="172"/>
-      <c r="U124" s="172"/>
-      <c r="V124" s="172"/>
-      <c r="W124" s="172"/>
-      <c r="X124" s="172"/>
-      <c r="Y124" s="172">
+      <c r="T124" s="173"/>
+      <c r="U124" s="173"/>
+      <c r="V124" s="173"/>
+      <c r="W124" s="173"/>
+      <c r="X124" s="173"/>
+      <c r="Y124" s="173">
         <f t="shared" ref="Y124" si="20">S124+1</f>
         <v>43910</v>
       </c>
-      <c r="Z124" s="172"/>
-      <c r="AA124" s="172"/>
-      <c r="AB124" s="172"/>
-      <c r="AC124" s="172"/>
-      <c r="AD124" s="172"/>
+      <c r="Z124" s="173"/>
+      <c r="AA124" s="173"/>
+      <c r="AB124" s="173"/>
+      <c r="AC124" s="173"/>
+      <c r="AD124" s="173"/>
     </row>
     <row r="125" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="87" t="s">
@@ -9041,7 +9082,7 @@
       <c r="V140" s="92"/>
       <c r="W140" s="92"/>
       <c r="X140" s="93"/>
-      <c r="Y140" s="200" t="s">
+      <c r="Y140" s="172" t="s">
         <v>204</v>
       </c>
       <c r="Z140" s="91"/>
@@ -9437,7 +9478,7 @@
       <c r="V151" s="92"/>
       <c r="W151" s="92"/>
       <c r="X151" s="93"/>
-      <c r="Y151" s="200" t="s">
+      <c r="Y151" s="172" t="s">
         <v>36</v>
       </c>
       <c r="Z151" s="91"/>
@@ -9473,7 +9514,7 @@
       <c r="V152" s="92"/>
       <c r="W152" s="92"/>
       <c r="X152" s="93"/>
-      <c r="Y152" s="200" t="s">
+      <c r="Y152" s="172" t="s">
         <v>210</v>
       </c>
       <c r="Z152" s="91"/>
@@ -10373,51 +10414,51 @@
       <c r="AD178" s="93"/>
     </row>
     <row r="179" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="172">
+      <c r="A179" s="173">
         <f>A124+7</f>
         <v>43913</v>
       </c>
-      <c r="B179" s="172"/>
-      <c r="C179" s="172"/>
-      <c r="D179" s="172"/>
-      <c r="E179" s="172"/>
-      <c r="F179" s="172"/>
-      <c r="G179" s="172">
+      <c r="B179" s="173"/>
+      <c r="C179" s="173"/>
+      <c r="D179" s="173"/>
+      <c r="E179" s="173"/>
+      <c r="F179" s="173"/>
+      <c r="G179" s="173">
         <f>A179+1</f>
         <v>43914</v>
       </c>
-      <c r="H179" s="172"/>
-      <c r="I179" s="172"/>
-      <c r="J179" s="172"/>
-      <c r="K179" s="172"/>
-      <c r="L179" s="172"/>
-      <c r="M179" s="172">
+      <c r="H179" s="173"/>
+      <c r="I179" s="173"/>
+      <c r="J179" s="173"/>
+      <c r="K179" s="173"/>
+      <c r="L179" s="173"/>
+      <c r="M179" s="173">
         <f t="shared" ref="M179" si="21">G179+1</f>
         <v>43915</v>
       </c>
-      <c r="N179" s="172"/>
-      <c r="O179" s="172"/>
-      <c r="P179" s="172"/>
-      <c r="Q179" s="172"/>
-      <c r="R179" s="172"/>
-      <c r="S179" s="172">
+      <c r="N179" s="173"/>
+      <c r="O179" s="173"/>
+      <c r="P179" s="173"/>
+      <c r="Q179" s="173"/>
+      <c r="R179" s="173"/>
+      <c r="S179" s="173">
         <f t="shared" ref="S179" si="22">M179+1</f>
         <v>43916</v>
       </c>
-      <c r="T179" s="172"/>
-      <c r="U179" s="172"/>
-      <c r="V179" s="172"/>
-      <c r="W179" s="172"/>
-      <c r="X179" s="172"/>
-      <c r="Y179" s="172">
+      <c r="T179" s="173"/>
+      <c r="U179" s="173"/>
+      <c r="V179" s="173"/>
+      <c r="W179" s="173"/>
+      <c r="X179" s="173"/>
+      <c r="Y179" s="173">
         <f t="shared" ref="Y179" si="23">S179+1</f>
         <v>43917</v>
       </c>
-      <c r="Z179" s="172"/>
-      <c r="AA179" s="172"/>
-      <c r="AB179" s="172"/>
-      <c r="AC179" s="172"/>
-      <c r="AD179" s="172"/>
+      <c r="Z179" s="173"/>
+      <c r="AA179" s="173"/>
+      <c r="AB179" s="173"/>
+      <c r="AC179" s="173"/>
+      <c r="AD179" s="173"/>
     </row>
     <row r="180" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="87" t="s">
@@ -10512,7 +10553,9 @@
       </c>
     </row>
     <row r="181" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="90"/>
+      <c r="A181" s="90" t="s">
+        <v>224</v>
+      </c>
       <c r="B181" s="91"/>
       <c r="C181" s="92"/>
       <c r="D181" s="92"/>
@@ -10544,7 +10587,9 @@
       <c r="AD181" s="93"/>
     </row>
     <row r="182" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="90"/>
+      <c r="A182" s="90" t="s">
+        <v>225</v>
+      </c>
       <c r="B182" s="91"/>
       <c r="C182" s="92"/>
       <c r="D182" s="92"/>
@@ -11153,46 +11198,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:L124"/>
+    <mergeCell ref="M124:R124"/>
+    <mergeCell ref="S124:X124"/>
+    <mergeCell ref="Y124:AD124"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="G179:L179"/>
+    <mergeCell ref="M179:R179"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="Y179:AD179"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="S1:X1"/>
     <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="G179:L179"/>
-    <mergeCell ref="M179:R179"/>
-    <mergeCell ref="S179:X179"/>
-    <mergeCell ref="Y179:AD179"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:L124"/>
-    <mergeCell ref="M124:R124"/>
-    <mergeCell ref="S124:X124"/>
-    <mergeCell ref="Y124:AD124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11363,13 +11408,13 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
       <c r="F2" s="95"/>
       <c r="G2" s="18" t="s">
         <v>72</v>
@@ -11466,14 +11511,14 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="179" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="181"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="182"/>
       <c r="G3" s="24" t="s">
         <v>104</v>
       </c>
@@ -11521,10 +11566,10 @@
         <f>IF(ISBLANK(F2),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F2), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E4" s="182" t="s">
+      <c r="E4" s="183" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="183"/>
+      <c r="F4" s="184"/>
       <c r="G4" s="13" t="s">
         <v>107</v>
       </c>
@@ -11601,8 +11646,8 @@
       <c r="AK5" s="9"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="184"/>
-      <c r="B6" s="185"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="186"/>
       <c r="C6" s="56"/>
       <c r="D6" s="58" t="s">
         <v>109</v>
@@ -12110,10 +12155,10 @@
       <c r="D11" s="30">
         <v>0</v>
       </c>
-      <c r="E11" s="186" t="s">
+      <c r="E11" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="187"/>
+      <c r="F11" s="188"/>
       <c r="G11" s="63" t="s">
         <v>120</v>
       </c>
@@ -12239,43 +12284,43 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="188"/>
-      <c r="B12" s="189"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="189"/>
-      <c r="N12" s="189"/>
-      <c r="O12" s="189"/>
-      <c r="P12" s="189"/>
-      <c r="Q12" s="189"/>
-      <c r="R12" s="189"/>
-      <c r="S12" s="189"/>
-      <c r="T12" s="189"/>
-      <c r="U12" s="189"/>
-      <c r="V12" s="189"/>
-      <c r="W12" s="189"/>
-      <c r="X12" s="189"/>
-      <c r="Y12" s="189"/>
-      <c r="Z12" s="189"/>
-      <c r="AA12" s="189"/>
-      <c r="AB12" s="189"/>
-      <c r="AC12" s="189"/>
-      <c r="AD12" s="189"/>
-      <c r="AE12" s="189"/>
-      <c r="AF12" s="189"/>
-      <c r="AG12" s="189"/>
-      <c r="AH12" s="189"/>
-      <c r="AI12" s="189"/>
-      <c r="AJ12" s="189"/>
-      <c r="AK12" s="190"/>
+      <c r="A12" s="189"/>
+      <c r="B12" s="190"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="190"/>
+      <c r="Q12" s="190"/>
+      <c r="R12" s="190"/>
+      <c r="S12" s="190"/>
+      <c r="T12" s="190"/>
+      <c r="U12" s="190"/>
+      <c r="V12" s="190"/>
+      <c r="W12" s="190"/>
+      <c r="X12" s="190"/>
+      <c r="Y12" s="190"/>
+      <c r="Z12" s="190"/>
+      <c r="AA12" s="190"/>
+      <c r="AB12" s="190"/>
+      <c r="AC12" s="190"/>
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="190"/>
+      <c r="AF12" s="190"/>
+      <c r="AG12" s="190"/>
+      <c r="AH12" s="190"/>
+      <c r="AI12" s="190"/>
+      <c r="AJ12" s="190"/>
+      <c r="AK12" s="191"/>
     </row>
     <row r="13" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
@@ -12420,13 +12465,13 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="176" t="s">
+      <c r="A14" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="177"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="177"/>
+      <c r="B14" s="178"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
       <c r="F14" s="95"/>
       <c r="G14" s="18" t="s">
         <v>72</v>
@@ -12523,14 +12568,14 @@
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="178" t="s">
+      <c r="A15" s="179" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="181"/>
+      <c r="B15" s="180"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="182"/>
       <c r="G15" s="24" t="s">
         <v>104</v>
       </c>
@@ -12578,10 +12623,10 @@
         <f>IF(ISBLANK(F14),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F14), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E16" s="182" t="s">
+      <c r="E16" s="183" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="183"/>
+      <c r="F16" s="184"/>
       <c r="G16" s="13" t="s">
         <v>107</v>
       </c>
@@ -12658,8 +12703,8 @@
       <c r="AK17" s="9"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="184"/>
-      <c r="B18" s="185"/>
+      <c r="A18" s="185"/>
+      <c r="B18" s="186"/>
       <c r="C18" s="56"/>
       <c r="D18" s="58" t="s">
         <v>109</v>
@@ -13167,10 +13212,10 @@
       <c r="D23" s="30">
         <v>0</v>
       </c>
-      <c r="E23" s="186" t="s">
+      <c r="E23" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="187"/>
+      <c r="F23" s="188"/>
       <c r="G23" s="63" t="s">
         <v>120</v>
       </c>
@@ -13296,43 +13341,43 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="173"/>
-      <c r="B24" s="174"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="174"/>
-      <c r="L24" s="174"/>
-      <c r="M24" s="174"/>
-      <c r="N24" s="174"/>
-      <c r="O24" s="174"/>
-      <c r="P24" s="174"/>
-      <c r="Q24" s="174"/>
-      <c r="R24" s="174"/>
-      <c r="S24" s="174"/>
-      <c r="T24" s="174"/>
-      <c r="U24" s="174"/>
-      <c r="V24" s="174"/>
-      <c r="W24" s="174"/>
-      <c r="X24" s="174"/>
-      <c r="Y24" s="174"/>
-      <c r="Z24" s="174"/>
-      <c r="AA24" s="174"/>
-      <c r="AB24" s="174"/>
-      <c r="AC24" s="174"/>
-      <c r="AD24" s="174"/>
-      <c r="AE24" s="174"/>
-      <c r="AF24" s="174"/>
-      <c r="AG24" s="174"/>
-      <c r="AH24" s="174"/>
-      <c r="AI24" s="174"/>
-      <c r="AJ24" s="174"/>
-      <c r="AK24" s="175"/>
+      <c r="A24" s="174"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="175"/>
+      <c r="M24" s="175"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="175"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="175"/>
+      <c r="U24" s="175"/>
+      <c r="V24" s="175"/>
+      <c r="W24" s="175"/>
+      <c r="X24" s="175"/>
+      <c r="Y24" s="175"/>
+      <c r="Z24" s="175"/>
+      <c r="AA24" s="175"/>
+      <c r="AB24" s="175"/>
+      <c r="AC24" s="175"/>
+      <c r="AD24" s="175"/>
+      <c r="AE24" s="175"/>
+      <c r="AF24" s="175"/>
+      <c r="AG24" s="175"/>
+      <c r="AH24" s="175"/>
+      <c r="AI24" s="175"/>
+      <c r="AJ24" s="175"/>
+      <c r="AK24" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -13409,8 +13454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1730B555-17C4-4D71-B0CF-5EA2C5243D66}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13433,20 +13478,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="191">
+      <c r="A1" s="192">
         <v>43862</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="193"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="194"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="115" t="s">
@@ -13886,24 +13931,24 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="191">
+      <c r="A16" s="192">
         <v>43891</v>
       </c>
-      <c r="B16" s="192"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="192"/>
-      <c r="K16" s="192"/>
-      <c r="L16" s="193"/>
-      <c r="N16" s="194" t="s">
+      <c r="B16" s="193"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="193"/>
+      <c r="L16" s="194"/>
+      <c r="N16" s="195" t="s">
         <v>192</v>
       </c>
-      <c r="O16" s="195"/>
+      <c r="O16" s="196"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="115" t="s">
@@ -13946,8 +13991,7 @@
         <v>168</v>
       </c>
       <c r="O17" s="150">
-        <f>H20</f>
-        <v>0.746</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -13994,7 +14038,7 @@
         <v>169</v>
       </c>
       <c r="O18" s="170">
-        <v>27000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14041,7 +14085,7 @@
         <v>170</v>
       </c>
       <c r="O19" s="154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14132,67 +14176,87 @@
       </c>
       <c r="O21" s="156">
         <f>O17*O18</f>
-        <v>20142</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="139"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
+      <c r="A22" s="139">
+        <v>43913</v>
+      </c>
+      <c r="B22" s="129" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="128">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="74">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="75">
+        <v>9.83</v>
+      </c>
       <c r="F22" s="76">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="G22" s="127"/>
       <c r="H22" s="128"/>
       <c r="I22" s="74"/>
       <c r="J22" s="140"/>
-      <c r="K22" s="113" t="e">
+      <c r="K22" s="113">
         <f>L22/F22</f>
-        <v>#DIV/0!</v>
+        <v>-1.0021844444444443</v>
       </c>
       <c r="L22" s="77">
         <f t="shared" ref="L22" si="9">SUM(H22*I22)-F22-E22-J22</f>
-        <v>0</v>
+        <v>-4509.83</v>
       </c>
       <c r="N22" s="157" t="s">
         <v>172</v>
       </c>
       <c r="O22" s="159">
         <f>IF(O21&gt;10000, O21*8%/100, 8)</f>
-        <v>16.113600000000002</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="139"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="75"/>
+      <c r="A23" s="139">
+        <v>43913</v>
+      </c>
+      <c r="B23" s="129" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="128">
+        <v>0.435</v>
+      </c>
+      <c r="D23" s="74">
+        <v>11000</v>
+      </c>
+      <c r="E23" s="75">
+        <v>9.92</v>
+      </c>
       <c r="F23" s="76">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4785</v>
       </c>
       <c r="G23" s="127"/>
       <c r="H23" s="128"/>
       <c r="I23" s="74"/>
       <c r="J23" s="140"/>
-      <c r="K23" s="113" t="e">
+      <c r="K23" s="113">
         <f t="shared" ref="K23:K28" si="10">L23/F23</f>
-        <v>#DIV/0!</v>
+        <v>-1.0020731452455591</v>
       </c>
       <c r="L23" s="77">
         <f t="shared" ref="L23:L28" si="11">SUM(H23*I23)-F23-E23-J23</f>
-        <v>0</v>
+        <v>-4794.92</v>
       </c>
       <c r="N23" s="157" t="s">
         <v>173</v>
       </c>
       <c r="O23" s="159">
         <f>O22*6%</f>
-        <v>0.96681600000000012</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -14222,7 +14286,7 @@
       </c>
       <c r="O24" s="159">
         <f>IF(O19=TRUE,CEILING(O21,1000)/1000,0)</f>
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -14252,7 +14316,7 @@
       </c>
       <c r="O25" s="159">
         <f>O21*0.03%</f>
-        <v>6.0425999999999993</v>
+        <v>1.4354999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14282,7 +14346,7 @@
       </c>
       <c r="O26" s="161">
         <f>ROUNDUP(SUM(O22:O25),2)</f>
-        <v>44.129999999999995</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -14342,7 +14406,7 @@
       </c>
       <c r="E29" s="125">
         <f>SUM(E18:E28)</f>
-        <v>101.27000000000001</v>
+        <v>121.02000000000001</v>
       </c>
       <c r="F29" s="126"/>
       <c r="G29" s="123"/>
@@ -14359,7 +14423,7 @@
       </c>
       <c r="L29" s="82">
         <f>SUM(L18:L28)</f>
-        <v>-4647.5</v>
+        <v>-13952.25</v>
       </c>
     </row>
   </sheetData>
@@ -14561,7 +14625,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14574,10 +14638,10 @@
       <c r="A1" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="199">
+      <c r="B1" s="197">
         <v>0.51</v>
       </c>
-      <c r="C1" s="199"/>
+      <c r="C1" s="197"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -14586,10 +14650,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="199">
+      <c r="B2" s="197">
         <v>0.54</v>
       </c>
-      <c r="C2" s="199"/>
+      <c r="C2" s="197"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -14598,10 +14662,10 @@
       <c r="A3" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="199">
+      <c r="B3" s="197">
         <v>0.51</v>
       </c>
-      <c r="C3" s="199"/>
+      <c r="C3" s="197"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -14610,10 +14674,10 @@
       <c r="A4" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="199">
+      <c r="B4" s="197">
         <v>0.54</v>
       </c>
-      <c r="C4" s="199"/>
+      <c r="C4" s="197"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -14648,14 +14712,14 @@
       <c r="A8" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="197" t="s">
+      <c r="B8" s="198" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="198">
+      <c r="C8" s="199">
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="196">
+      <c r="E8" s="200">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -14665,10 +14729,10 @@
       <c r="A9" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="197"/>
-      <c r="C9" s="197"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="196"/>
+      <c r="E9" s="200"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -14701,14 +14765,14 @@
       <c r="A13" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="197" t="s">
+      <c r="B13" s="198" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="198">
+      <c r="C13" s="199">
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="196">
+      <c r="E13" s="200">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -14718,10 +14782,10 @@
       <c r="A14" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="197"/>
-      <c r="C14" s="197"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="198"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="196"/>
+      <c r="E14" s="200"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -14754,14 +14818,14 @@
       <c r="A18" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="197" t="s">
+      <c r="B18" s="198" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="198">
+      <c r="C18" s="199">
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="196">
+      <c r="E18" s="200">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -14771,10 +14835,10 @@
       <c r="A19" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="197"/>
-      <c r="C19" s="197"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="198"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="196"/>
+      <c r="E19" s="200"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -14819,12 +14883,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -14832,6 +14890,12 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1257" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3EAD144B-D0E4-4944-986E-2DBC4754D04D}"/>
+  <xr:revisionPtr revIDLastSave="1296" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9025929B-E67A-464B-9DC4-2FCF8B132AC3}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="9885" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="226">
   <si>
     <t>Pillar</t>
   </si>
@@ -2854,8 +2854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10561,7 +10561,9 @@
       <c r="D181" s="92"/>
       <c r="E181" s="92"/>
       <c r="F181" s="93"/>
-      <c r="G181" s="90"/>
+      <c r="G181" s="90" t="s">
+        <v>38</v>
+      </c>
       <c r="H181" s="91"/>
       <c r="I181" s="92"/>
       <c r="J181" s="92"/>
@@ -13454,8 +13456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1730B555-17C4-4D71-B0CF-5EA2C5243D66}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="B8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13991,7 +13993,8 @@
         <v>168</v>
       </c>
       <c r="O17" s="150">
-        <v>0.435</v>
+        <f>H22</f>
+        <v>1.62</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -14038,7 +14041,8 @@
         <v>169</v>
       </c>
       <c r="O18" s="170">
-        <v>11000</v>
+        <f>I22</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14176,7 +14180,7 @@
       </c>
       <c r="O21" s="156">
         <f>O17*O18</f>
-        <v>4785</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -14200,16 +14204,23 @@
         <v>4500</v>
       </c>
       <c r="G22" s="127"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="140"/>
+      <c r="H22" s="128">
+        <v>1.62</v>
+      </c>
+      <c r="I22" s="74">
+        <v>3000</v>
+      </c>
+      <c r="J22" s="140">
+        <f>O26</f>
+        <v>9.94</v>
+      </c>
       <c r="K22" s="113">
         <f>L22/F22</f>
-        <v>-1.0021844444444443</v>
+        <v>7.5606666666666669E-2</v>
       </c>
       <c r="L22" s="77">
-        <f t="shared" ref="L22" si="9">SUM(H22*I22)-F22-E22-J22</f>
-        <v>-4509.83</v>
+        <f>SUM(H22*I22)-F22-E22-J22</f>
+        <v>340.23</v>
       </c>
       <c r="N22" s="157" t="s">
         <v>172</v>
@@ -14239,17 +14250,25 @@
         <f t="shared" si="6"/>
         <v>4785</v>
       </c>
-      <c r="G23" s="127"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="140"/>
+      <c r="G23" s="139">
+        <v>43914</v>
+      </c>
+      <c r="H23" s="128">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="I23" s="74">
+        <v>11000</v>
+      </c>
+      <c r="J23" s="140">
+        <v>10.09</v>
+      </c>
       <c r="K23" s="113">
-        <f t="shared" ref="K23:K28" si="10">L23/F23</f>
-        <v>-1.0020731452455591</v>
+        <f t="shared" ref="K23:K28" si="9">L23/F23</f>
+        <v>0.11076071055381401</v>
       </c>
       <c r="L23" s="77">
-        <f t="shared" ref="L23:L28" si="11">SUM(H23*I23)-F23-E23-J23</f>
-        <v>-4794.92</v>
+        <f>SUM(H23*I23)-F23-E23-J23</f>
+        <v>529.99</v>
       </c>
       <c r="N23" s="157" t="s">
         <v>173</v>
@@ -14274,11 +14293,11 @@
       <c r="I24" s="74"/>
       <c r="J24" s="140"/>
       <c r="K24" s="113" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L24" s="77">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="L24:L28" si="10">SUM(H24*I24)-F24-E24-J24</f>
         <v>0</v>
       </c>
       <c r="N24" s="157" t="s">
@@ -14304,11 +14323,11 @@
       <c r="I25" s="74"/>
       <c r="J25" s="140"/>
       <c r="K25" s="113" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="77">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="77">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N25" s="157" t="s">
@@ -14316,7 +14335,7 @@
       </c>
       <c r="O25" s="159">
         <f>O21*0.03%</f>
-        <v>1.4354999999999998</v>
+        <v>1.458</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14334,11 +14353,11 @@
       <c r="I26" s="74"/>
       <c r="J26" s="140"/>
       <c r="K26" s="113" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="77">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="77">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N26" s="160" t="s">
@@ -14346,7 +14365,7 @@
       </c>
       <c r="O26" s="161">
         <f>ROUNDUP(SUM(O22:O25),2)</f>
-        <v>9.92</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -14364,11 +14383,11 @@
       <c r="I27" s="74"/>
       <c r="J27" s="140"/>
       <c r="K27" s="113" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="77">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" s="77">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14387,11 +14406,11 @@
       <c r="I28" s="144"/>
       <c r="J28" s="148"/>
       <c r="K28" s="114" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="78">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="78">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14416,14 +14435,14 @@
       </c>
       <c r="J29" s="125">
         <f>SUM(J18:J28)</f>
-        <v>93.23</v>
+        <v>113.26</v>
       </c>
       <c r="K29" s="79" t="s">
         <v>141</v>
       </c>
       <c r="L29" s="82">
         <f>SUM(L18:L28)</f>
-        <v>-13952.25</v>
+        <v>-3777.2800000000007</v>
       </c>
     </row>
   </sheetData>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1296" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9025929B-E67A-464B-9DC4-2FCF8B132AC3}"/>
+  <xr:revisionPtr revIDLastSave="1355" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{95363D09-5FD4-4176-BC1C-16D59BD7B826}"/>
   <bookViews>
-    <workbookView xWindow="9885" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="8040" yWindow="3420" windowWidth="28110" windowHeight="16440" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="229">
   <si>
     <t>Pillar</t>
   </si>
@@ -715,6 +715,15 @@
   </si>
   <si>
     <t>IOICORP</t>
+  </si>
+  <si>
+    <t>RUBEREX (7803)</t>
+  </si>
+  <si>
+    <t>GHLSYS</t>
+  </si>
+  <si>
+    <t>UMW</t>
   </si>
 </sst>
 </file>
@@ -2854,8 +2863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H182" sqref="H182"/>
+    <sheetView tabSelected="1" topLeftCell="F163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M185" sqref="M185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10569,7 +10578,9 @@
       <c r="J181" s="92"/>
       <c r="K181" s="92"/>
       <c r="L181" s="93"/>
-      <c r="M181" s="90"/>
+      <c r="M181" s="90" t="s">
+        <v>194</v>
+      </c>
       <c r="N181" s="91"/>
       <c r="O181" s="92"/>
       <c r="P181" s="92"/>
@@ -10603,7 +10614,9 @@
       <c r="J182" s="92"/>
       <c r="K182" s="92"/>
       <c r="L182" s="93"/>
-      <c r="M182" s="90"/>
+      <c r="M182" s="90" t="s">
+        <v>227</v>
+      </c>
       <c r="N182" s="91"/>
       <c r="O182" s="92"/>
       <c r="P182" s="92"/>
@@ -10635,7 +10648,9 @@
       <c r="J183" s="92"/>
       <c r="K183" s="92"/>
       <c r="L183" s="93"/>
-      <c r="M183" s="90"/>
+      <c r="M183" s="90" t="s">
+        <v>212</v>
+      </c>
       <c r="N183" s="91"/>
       <c r="O183" s="92"/>
       <c r="P183" s="92"/>
@@ -10667,7 +10682,9 @@
       <c r="J184" s="92"/>
       <c r="K184" s="92"/>
       <c r="L184" s="93"/>
-      <c r="M184" s="90"/>
+      <c r="M184" s="90" t="s">
+        <v>228</v>
+      </c>
       <c r="N184" s="91"/>
       <c r="O184" s="92"/>
       <c r="P184" s="92"/>
@@ -10699,7 +10716,9 @@
       <c r="J185" s="92"/>
       <c r="K185" s="92"/>
       <c r="L185" s="93"/>
-      <c r="M185" s="90"/>
+      <c r="M185" s="90" t="s">
+        <v>165</v>
+      </c>
       <c r="N185" s="91"/>
       <c r="O185" s="92"/>
       <c r="P185" s="92"/>
@@ -13456,8 +13475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1730B555-17C4-4D71-B0CF-5EA2C5243D66}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13993,8 +14012,8 @@
         <v>168</v>
       </c>
       <c r="O17" s="150">
-        <f>H22</f>
-        <v>1.62</v>
+        <f>H25</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -14041,8 +14060,8 @@
         <v>169</v>
       </c>
       <c r="O18" s="170">
-        <f>I22</f>
-        <v>3000</v>
+        <f>I25</f>
+        <v>7000</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14180,7 +14199,7 @@
       </c>
       <c r="O21" s="156">
         <f>O17*O18</f>
-        <v>4860</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -14203,24 +14222,25 @@
         <f t="shared" si="6"/>
         <v>4500</v>
       </c>
-      <c r="G22" s="127"/>
+      <c r="G22" s="139">
+        <v>43915</v>
+      </c>
       <c r="H22" s="128">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="I22" s="74">
         <v>3000</v>
       </c>
       <c r="J22" s="140">
-        <f>O26</f>
-        <v>9.94</v>
+        <v>10.02</v>
       </c>
       <c r="K22" s="113">
         <f>L22/F22</f>
-        <v>7.5606666666666669E-2</v>
+        <v>0.1355888888888889</v>
       </c>
       <c r="L22" s="77">
         <f>SUM(H22*I22)-F22-E22-J22</f>
-        <v>340.23</v>
+        <v>610.15</v>
       </c>
       <c r="N22" s="157" t="s">
         <v>172</v>
@@ -14279,26 +14299,44 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="139"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
+      <c r="A24" s="139">
+        <v>43915</v>
+      </c>
+      <c r="B24" s="129" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="128">
+        <v>1.64</v>
+      </c>
+      <c r="D24" s="74">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="75">
+        <v>9.9600000000000009</v>
+      </c>
       <c r="F24" s="76">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="127"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="113" t="e">
+        <v>4920</v>
+      </c>
+      <c r="G24" s="139">
+        <v>43915</v>
+      </c>
+      <c r="H24" s="128">
+        <v>1.66</v>
+      </c>
+      <c r="I24" s="74">
+        <v>3000</v>
+      </c>
+      <c r="J24" s="140">
+        <v>9.98</v>
+      </c>
+      <c r="K24" s="113">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>8.1422764227642285E-3</v>
       </c>
       <c r="L24" s="77">
         <f t="shared" ref="L24:L28" si="10">SUM(H24*I24)-F24-E24-J24</f>
-        <v>0</v>
+        <v>40.06</v>
       </c>
       <c r="N24" s="157" t="s">
         <v>170</v>
@@ -14309,33 +14347,48 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="139"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="75"/>
+      <c r="A25" s="139">
+        <v>43915</v>
+      </c>
+      <c r="B25" s="129" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="128">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="D25" s="74">
+        <v>7000</v>
+      </c>
+      <c r="E25" s="75">
+        <v>9.99</v>
+      </c>
       <c r="F25" s="76">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5005</v>
       </c>
       <c r="G25" s="73"/>
       <c r="H25" s="128"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="113" t="e">
+      <c r="I25" s="74">
+        <v>7000</v>
+      </c>
+      <c r="J25" s="140">
+        <f>O26</f>
+        <v>8.48</v>
+      </c>
+      <c r="K25" s="113">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>-1.0036903096903096</v>
       </c>
       <c r="L25" s="77">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-5023.4699999999993</v>
       </c>
       <c r="N25" s="157" t="s">
         <v>174</v>
       </c>
       <c r="O25" s="159">
         <f>O21*0.03%</f>
-        <v>1.458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14365,7 +14418,7 @@
       </c>
       <c r="O26" s="161">
         <f>ROUNDUP(SUM(O22:O25),2)</f>
-        <v>9.94</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -14425,7 +14478,7 @@
       </c>
       <c r="E29" s="125">
         <f>SUM(E18:E28)</f>
-        <v>121.02000000000001</v>
+        <v>140.97000000000003</v>
       </c>
       <c r="F29" s="126"/>
       <c r="G29" s="123"/>
@@ -14435,14 +14488,14 @@
       </c>
       <c r="J29" s="125">
         <f>SUM(J18:J28)</f>
-        <v>113.26</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="K29" s="79" t="s">
         <v>141</v>
       </c>
       <c r="L29" s="82">
         <f>SUM(L18:L28)</f>
-        <v>-3777.2800000000007</v>
+        <v>-8490.7699999999986</v>
       </c>
     </row>
   </sheetData>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1355" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{95363D09-5FD4-4176-BC1C-16D59BD7B826}"/>
+  <xr:revisionPtr revIDLastSave="1439" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4132231A-EF5C-414E-AFE1-B49EB120CEE5}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="3420" windowWidth="28110" windowHeight="16440" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="11835" yWindow="7815" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="233">
   <si>
     <t>Pillar</t>
   </si>
@@ -417,9 +417,6 @@
     <t>BROKERAGE(B)</t>
   </si>
   <si>
-    <t>INVEST FUND</t>
-  </si>
-  <si>
     <t>EXIT DATE</t>
   </si>
   <si>
@@ -724,6 +721,21 @@
   </si>
   <si>
     <t>UMW</t>
+  </si>
+  <si>
+    <t>DSONIC (5216)</t>
+  </si>
+  <si>
+    <t>SPSETIA</t>
+  </si>
+  <si>
+    <t>IHH</t>
+  </si>
+  <si>
+    <t>MMCCORP</t>
+  </si>
+  <si>
+    <t>INVESTED FUND</t>
   </si>
 </sst>
 </file>
@@ -2863,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M185" sqref="M185"/>
+    <sheetView topLeftCell="J163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P170" sqref="P170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5779,7 +5791,7 @@
         <v>93000</v>
       </c>
       <c r="G55" s="90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H55" s="91"/>
       <c r="I55" s="92"/>
@@ -5787,7 +5799,7 @@
       <c r="K55" s="92"/>
       <c r="L55" s="93"/>
       <c r="M55" s="90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N55" s="91"/>
       <c r="O55" s="92"/>
@@ -5869,7 +5881,7 @@
         <v>23000</v>
       </c>
       <c r="G57" s="90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H57" s="91"/>
       <c r="I57" s="92"/>
@@ -6910,7 +6922,7 @@
     </row>
     <row r="82" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="90" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B82" s="91"/>
       <c r="C82" s="92"/>
@@ -6926,7 +6938,7 @@
       <c r="K82" s="92"/>
       <c r="L82" s="93"/>
       <c r="M82" s="90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N82" s="91"/>
       <c r="O82" s="92"/>
@@ -6934,7 +6946,7 @@
       <c r="Q82" s="92"/>
       <c r="R82" s="93"/>
       <c r="S82" s="90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T82" s="91" t="s">
         <v>15</v>
@@ -6960,7 +6972,7 @@
     </row>
     <row r="83" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B83" s="91"/>
       <c r="C83" s="92"/>
@@ -6974,7 +6986,7 @@
       <c r="K83" s="92"/>
       <c r="L83" s="93"/>
       <c r="M83" s="90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N83" s="91"/>
       <c r="O83" s="92"/>
@@ -6982,7 +6994,7 @@
       <c r="Q83" s="92"/>
       <c r="R83" s="93"/>
       <c r="S83" s="90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T83" s="91" t="s">
         <v>49</v>
@@ -7069,7 +7081,7 @@
       <c r="R85" s="93"/>
       <c r="S85" s="90"/>
       <c r="T85" s="91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U85" s="92">
         <v>0.34</v>
@@ -7763,7 +7775,7 @@
       <c r="Q104" s="92"/>
       <c r="R104" s="93"/>
       <c r="S104" s="90" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T104" s="91"/>
       <c r="U104" s="92"/>
@@ -7771,7 +7783,7 @@
       <c r="W104" s="92"/>
       <c r="X104" s="93"/>
       <c r="Y104" s="90" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z104" s="91"/>
       <c r="AA104" s="92"/>
@@ -7807,7 +7819,7 @@
       <c r="W105" s="92"/>
       <c r="X105" s="93"/>
       <c r="Y105" s="90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z105" s="91"/>
       <c r="AA105" s="92"/>
@@ -7879,7 +7891,7 @@
       <c r="W107" s="92"/>
       <c r="X107" s="93"/>
       <c r="Y107" s="90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z107" s="91"/>
       <c r="AA107" s="92"/>
@@ -7932,7 +7944,7 @@
       <c r="F109" s="93"/>
       <c r="G109" s="90"/>
       <c r="H109" s="91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I109" s="92"/>
       <c r="J109" s="92"/>
@@ -8000,7 +8012,7 @@
       <c r="F111" s="93"/>
       <c r="G111" s="90"/>
       <c r="H111" s="91" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I111" s="92"/>
       <c r="J111" s="92"/>
@@ -8102,7 +8114,7 @@
       <c r="F114" s="93"/>
       <c r="G114" s="90"/>
       <c r="H114" s="91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I114" s="92"/>
       <c r="J114" s="92"/>
@@ -8556,7 +8568,7 @@
     </row>
     <row r="126" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B126" s="91"/>
       <c r="C126" s="92"/>
@@ -8564,7 +8576,7 @@
       <c r="E126" s="92"/>
       <c r="F126" s="93"/>
       <c r="G126" s="90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H126" s="91"/>
       <c r="I126" s="92"/>
@@ -8572,7 +8584,7 @@
       <c r="K126" s="92"/>
       <c r="L126" s="93"/>
       <c r="M126" s="90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N126" s="91"/>
       <c r="O126" s="92"/>
@@ -8610,7 +8622,7 @@
       <c r="K127" s="92"/>
       <c r="L127" s="93"/>
       <c r="M127" s="90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N127" s="91"/>
       <c r="O127" s="92"/>
@@ -8624,7 +8636,7 @@
       <c r="W127" s="92"/>
       <c r="X127" s="93"/>
       <c r="Y127" s="90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z127" s="91"/>
       <c r="AA127" s="92"/>
@@ -8640,7 +8652,7 @@
       <c r="E128" s="92"/>
       <c r="F128" s="93"/>
       <c r="G128" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H128" s="91"/>
       <c r="I128" s="92"/>
@@ -8660,7 +8672,7 @@
       <c r="W128" s="92"/>
       <c r="X128" s="93"/>
       <c r="Y128" s="90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Z128" s="91"/>
       <c r="AA128" s="92"/>
@@ -8732,7 +8744,7 @@
       <c r="W130" s="92"/>
       <c r="X130" s="93"/>
       <c r="Y130" s="90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Z130" s="91"/>
       <c r="AA130" s="92"/>
@@ -8748,7 +8760,7 @@
       <c r="E131" s="92"/>
       <c r="F131" s="93"/>
       <c r="G131" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H131" s="91"/>
       <c r="I131" s="92"/>
@@ -8768,7 +8780,7 @@
       <c r="W131" s="92"/>
       <c r="X131" s="93"/>
       <c r="Y131" s="90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z131" s="91"/>
       <c r="AA131" s="92"/>
@@ -8784,7 +8796,7 @@
       <c r="E132" s="92"/>
       <c r="F132" s="93"/>
       <c r="G132" s="90" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H132" s="91"/>
       <c r="I132" s="92"/>
@@ -8804,7 +8816,7 @@
       <c r="W132" s="92"/>
       <c r="X132" s="93"/>
       <c r="Y132" s="90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z132" s="91"/>
       <c r="AA132" s="92"/>
@@ -8840,7 +8852,7 @@
       <c r="W133" s="92"/>
       <c r="X133" s="93"/>
       <c r="Y133" s="90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z133" s="91"/>
       <c r="AA133" s="92"/>
@@ -8856,7 +8868,7 @@
       <c r="E134" s="92"/>
       <c r="F134" s="93"/>
       <c r="G134" s="90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H134" s="91"/>
       <c r="I134" s="92"/>
@@ -8876,7 +8888,7 @@
       <c r="W134" s="92"/>
       <c r="X134" s="93"/>
       <c r="Y134" s="90" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Z134" s="91"/>
       <c r="AA134" s="92"/>
@@ -8892,7 +8904,7 @@
       <c r="E135" s="92"/>
       <c r="F135" s="93"/>
       <c r="G135" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H135" s="91"/>
       <c r="I135" s="92"/>
@@ -8928,7 +8940,7 @@
       <c r="E136" s="92"/>
       <c r="F136" s="93"/>
       <c r="G136" s="90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H136" s="91"/>
       <c r="I136" s="92"/>
@@ -8948,7 +8960,7 @@
       <c r="W136" s="92"/>
       <c r="X136" s="93"/>
       <c r="Y136" s="90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z136" s="91"/>
       <c r="AA136" s="92"/>
@@ -8964,7 +8976,7 @@
       <c r="E137" s="92"/>
       <c r="F137" s="93"/>
       <c r="G137" s="90" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H137" s="91"/>
       <c r="I137" s="92"/>
@@ -8984,7 +8996,7 @@
       <c r="W137" s="92"/>
       <c r="X137" s="93"/>
       <c r="Y137" s="90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z137" s="91"/>
       <c r="AA137" s="92"/>
@@ -9000,7 +9012,7 @@
       <c r="E138" s="92"/>
       <c r="F138" s="93"/>
       <c r="G138" s="90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H138" s="91"/>
       <c r="I138" s="92"/>
@@ -9056,7 +9068,7 @@
       <c r="W139" s="92"/>
       <c r="X139" s="93"/>
       <c r="Y139" s="90" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z139" s="91"/>
       <c r="AA139" s="92"/>
@@ -9072,7 +9084,7 @@
       <c r="E140" s="92"/>
       <c r="F140" s="93"/>
       <c r="G140" s="90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H140" s="91"/>
       <c r="I140" s="92"/>
@@ -9092,7 +9104,7 @@
       <c r="W140" s="92"/>
       <c r="X140" s="93"/>
       <c r="Y140" s="172" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z140" s="91"/>
       <c r="AA140" s="92"/>
@@ -9108,7 +9120,7 @@
       <c r="E141" s="92"/>
       <c r="F141" s="93"/>
       <c r="G141" s="90" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H141" s="91"/>
       <c r="I141" s="92"/>
@@ -9128,7 +9140,7 @@
       <c r="W141" s="92"/>
       <c r="X141" s="93"/>
       <c r="Y141" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z141" s="91"/>
       <c r="AA141" s="92"/>
@@ -9144,7 +9156,7 @@
       <c r="E142" s="92"/>
       <c r="F142" s="93"/>
       <c r="G142" s="90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H142" s="91"/>
       <c r="I142" s="92"/>
@@ -9164,7 +9176,7 @@
       <c r="W142" s="92"/>
       <c r="X142" s="93"/>
       <c r="Y142" s="90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z142" s="91"/>
       <c r="AA142" s="92"/>
@@ -9200,7 +9212,7 @@
       <c r="W143" s="92"/>
       <c r="X143" s="93"/>
       <c r="Y143" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z143" s="91"/>
       <c r="AA143" s="92"/>
@@ -9236,7 +9248,7 @@
       <c r="W144" s="92"/>
       <c r="X144" s="93"/>
       <c r="Y144" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z144" s="91"/>
       <c r="AA144" s="92"/>
@@ -9272,7 +9284,7 @@
       <c r="W145" s="92"/>
       <c r="X145" s="93"/>
       <c r="Y145" s="90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Z145" s="91"/>
       <c r="AA145" s="92"/>
@@ -9308,7 +9320,7 @@
       <c r="W146" s="92"/>
       <c r="X146" s="93"/>
       <c r="Y146" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z146" s="91"/>
       <c r="AA146" s="92"/>
@@ -9324,7 +9336,7 @@
       <c r="E147" s="92"/>
       <c r="F147" s="93"/>
       <c r="G147" s="90" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H147" s="91"/>
       <c r="I147" s="92"/>
@@ -9344,7 +9356,7 @@
       <c r="W147" s="92"/>
       <c r="X147" s="93"/>
       <c r="Y147" s="90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z147" s="91"/>
       <c r="AA147" s="92"/>
@@ -9380,7 +9392,7 @@
       <c r="W148" s="92"/>
       <c r="X148" s="93"/>
       <c r="Y148" s="90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z148" s="91"/>
       <c r="AA148" s="92"/>
@@ -9396,7 +9408,7 @@
       <c r="E149" s="92"/>
       <c r="F149" s="93"/>
       <c r="G149" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H149" s="91"/>
       <c r="I149" s="92"/>
@@ -9416,7 +9428,7 @@
       <c r="W149" s="92"/>
       <c r="X149" s="93"/>
       <c r="Y149" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z149" s="91"/>
       <c r="AA149" s="92"/>
@@ -9452,7 +9464,7 @@
       <c r="W150" s="92"/>
       <c r="X150" s="93"/>
       <c r="Y150" s="90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z150" s="91"/>
       <c r="AA150" s="92"/>
@@ -9468,7 +9480,7 @@
       <c r="E151" s="92"/>
       <c r="F151" s="93"/>
       <c r="G151" s="90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H151" s="91"/>
       <c r="I151" s="92"/>
@@ -9504,7 +9516,7 @@
       <c r="E152" s="92"/>
       <c r="F152" s="93"/>
       <c r="G152" s="90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H152" s="91"/>
       <c r="I152" s="92"/>
@@ -9524,7 +9536,7 @@
       <c r="W152" s="92"/>
       <c r="X152" s="93"/>
       <c r="Y152" s="172" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z152" s="91"/>
       <c r="AA152" s="92"/>
@@ -9576,7 +9588,7 @@
       <c r="E154" s="92"/>
       <c r="F154" s="93"/>
       <c r="G154" s="90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H154" s="91"/>
       <c r="I154" s="92"/>
@@ -9596,7 +9608,7 @@
       <c r="W154" s="92"/>
       <c r="X154" s="93"/>
       <c r="Y154" s="90" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z154" s="91"/>
       <c r="AA154" s="92"/>
@@ -9612,7 +9624,7 @@
       <c r="E155" s="92"/>
       <c r="F155" s="93"/>
       <c r="G155" s="90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H155" s="91"/>
       <c r="I155" s="92"/>
@@ -9632,7 +9644,7 @@
       <c r="W155" s="92"/>
       <c r="X155" s="93"/>
       <c r="Y155" s="90" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z155" s="91"/>
       <c r="AA155" s="92"/>
@@ -9648,7 +9660,7 @@
       <c r="E156" s="92"/>
       <c r="F156" s="93"/>
       <c r="G156" s="90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H156" s="91"/>
       <c r="I156" s="92"/>
@@ -9668,7 +9680,7 @@
       <c r="W156" s="92"/>
       <c r="X156" s="93"/>
       <c r="Y156" s="90" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z156" s="91"/>
       <c r="AA156" s="92"/>
@@ -9702,7 +9714,7 @@
       <c r="W157" s="92"/>
       <c r="X157" s="93"/>
       <c r="Y157" s="90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z157" s="91"/>
       <c r="AA157" s="92"/>
@@ -9736,7 +9748,7 @@
       <c r="W158" s="92"/>
       <c r="X158" s="93"/>
       <c r="Y158" s="90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Z158" s="91"/>
       <c r="AA158" s="92"/>
@@ -9770,7 +9782,7 @@
       <c r="W159" s="92"/>
       <c r="X159" s="93"/>
       <c r="Y159" s="90" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Z159" s="91"/>
       <c r="AA159" s="92"/>
@@ -9804,7 +9816,7 @@
       <c r="W160" s="92"/>
       <c r="X160" s="93"/>
       <c r="Y160" s="90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z160" s="91"/>
       <c r="AA160" s="92"/>
@@ -9838,7 +9850,7 @@
       <c r="W161" s="92"/>
       <c r="X161" s="93"/>
       <c r="Y161" s="90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z161" s="91"/>
       <c r="AA161" s="92"/>
@@ -9906,7 +9918,7 @@
       <c r="W163" s="92"/>
       <c r="X163" s="93"/>
       <c r="Y163" s="90" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z163" s="91"/>
       <c r="AA163" s="92"/>
@@ -9974,7 +9986,7 @@
       <c r="W165" s="92"/>
       <c r="X165" s="93"/>
       <c r="Y165" s="90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Z165" s="91"/>
       <c r="AA165" s="92"/>
@@ -10076,7 +10088,7 @@
       <c r="W168" s="92"/>
       <c r="X168" s="93"/>
       <c r="Y168" s="90" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Z168" s="91"/>
       <c r="AA168" s="92"/>
@@ -10178,7 +10190,7 @@
       <c r="W171" s="92"/>
       <c r="X171" s="93"/>
       <c r="Y171" s="90" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z171" s="91"/>
       <c r="AA171" s="92"/>
@@ -10212,7 +10224,7 @@
       <c r="W172" s="92"/>
       <c r="X172" s="93"/>
       <c r="Y172" s="90" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z172" s="91"/>
       <c r="AA172" s="92"/>
@@ -10246,7 +10258,7 @@
       <c r="W173" s="92"/>
       <c r="X173" s="93"/>
       <c r="Y173" s="90" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z173" s="91"/>
       <c r="AA173" s="92"/>
@@ -10382,7 +10394,7 @@
       <c r="W177" s="92"/>
       <c r="X177" s="93"/>
       <c r="Y177" s="90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Z177" s="91"/>
       <c r="AA177" s="92"/>
@@ -10563,7 +10575,7 @@
     </row>
     <row r="181" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B181" s="91"/>
       <c r="C181" s="92"/>
@@ -10579,14 +10591,16 @@
       <c r="K181" s="92"/>
       <c r="L181" s="93"/>
       <c r="M181" s="90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N181" s="91"/>
       <c r="O181" s="92"/>
       <c r="P181" s="92"/>
       <c r="Q181" s="92"/>
       <c r="R181" s="93"/>
-      <c r="S181" s="90"/>
+      <c r="S181" s="90" t="s">
+        <v>229</v>
+      </c>
       <c r="T181" s="91"/>
       <c r="U181" s="92"/>
       <c r="V181" s="92"/>
@@ -10601,7 +10615,7 @@
     </row>
     <row r="182" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="90" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B182" s="91"/>
       <c r="C182" s="92"/>
@@ -10615,14 +10629,16 @@
       <c r="K182" s="92"/>
       <c r="L182" s="93"/>
       <c r="M182" s="90" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N182" s="91"/>
       <c r="O182" s="92"/>
       <c r="P182" s="92"/>
       <c r="Q182" s="92"/>
       <c r="R182" s="93"/>
-      <c r="S182" s="90"/>
+      <c r="S182" s="90" t="s">
+        <v>230</v>
+      </c>
       <c r="T182" s="91"/>
       <c r="U182" s="92"/>
       <c r="V182" s="92"/>
@@ -10649,14 +10665,16 @@
       <c r="K183" s="92"/>
       <c r="L183" s="93"/>
       <c r="M183" s="90" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N183" s="91"/>
       <c r="O183" s="92"/>
       <c r="P183" s="92"/>
       <c r="Q183" s="92"/>
       <c r="R183" s="93"/>
-      <c r="S183" s="90"/>
+      <c r="S183" s="90" t="s">
+        <v>231</v>
+      </c>
       <c r="T183" s="91"/>
       <c r="U183" s="92"/>
       <c r="V183" s="92"/>
@@ -10683,7 +10701,7 @@
       <c r="K184" s="92"/>
       <c r="L184" s="93"/>
       <c r="M184" s="90" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N184" s="91"/>
       <c r="O184" s="92"/>
@@ -10717,7 +10735,7 @@
       <c r="K185" s="92"/>
       <c r="L185" s="93"/>
       <c r="M185" s="90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N185" s="91"/>
       <c r="O185" s="92"/>
@@ -13475,8 +13493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1730B555-17C4-4D71-B0CF-5EA2C5243D66}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13531,25 +13549,25 @@
         <v>125</v>
       </c>
       <c r="F2" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="118" t="s">
+      <c r="H2" s="118" t="s">
         <v>127</v>
-      </c>
-      <c r="H2" s="118" t="s">
-        <v>128</v>
       </c>
       <c r="I2" s="118" t="s">
         <v>124</v>
       </c>
       <c r="J2" s="120" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="L2" s="81" t="s">
         <v>130</v>
-      </c>
-      <c r="L2" s="81" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -13557,7 +13575,7 @@
         <v>43880</v>
       </c>
       <c r="B3" s="132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="133">
         <v>0.64500000000000002</v>
@@ -13598,7 +13616,7 @@
         <v>43881</v>
       </c>
       <c r="B4" s="129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="128">
         <v>2.4500000000000002</v>
@@ -13639,7 +13657,7 @@
         <v>43881</v>
       </c>
       <c r="B5" s="129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="128">
         <v>0.76</v>
@@ -13680,7 +13698,7 @@
         <v>43881</v>
       </c>
       <c r="B6" s="129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="128">
         <v>0.89</v>
@@ -13721,7 +13739,7 @@
         <v>43881</v>
       </c>
       <c r="B7" s="129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="128">
         <v>1.52</v>
@@ -13762,7 +13780,7 @@
         <v>43882</v>
       </c>
       <c r="B8" s="129" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="128">
         <v>0.91</v>
@@ -13803,7 +13821,7 @@
         <v>43882</v>
       </c>
       <c r="B9" s="129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="128">
         <v>1.82</v>
@@ -13921,12 +13939,12 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="121" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="122"/>
       <c r="C14" s="123"/>
       <c r="D14" s="124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="125">
         <f>SUM(E3:E13)</f>
@@ -13936,14 +13954,14 @@
       <c r="G14" s="123"/>
       <c r="H14" s="123"/>
       <c r="I14" s="124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J14" s="125">
         <f>SUM(J3:J13)</f>
         <v>70.69</v>
       </c>
       <c r="K14" s="79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L14" s="82">
         <f>SUM(L3:L13)</f>
@@ -13967,7 +13985,7 @@
       <c r="K16" s="193"/>
       <c r="L16" s="194"/>
       <c r="N16" s="195" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O16" s="196"/>
     </row>
@@ -13988,32 +14006,32 @@
         <v>125</v>
       </c>
       <c r="F17" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="115" t="s">
+      <c r="H17" s="118" t="s">
         <v>127</v>
-      </c>
-      <c r="H17" s="118" t="s">
-        <v>128</v>
       </c>
       <c r="I17" s="118" t="s">
         <v>124</v>
       </c>
       <c r="J17" s="120" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="K17" s="83" t="s">
+      <c r="L17" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="L17" s="81" t="s">
-        <v>131</v>
-      </c>
       <c r="N17" s="149" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O17" s="150">
-        <f>H25</f>
-        <v>0</v>
+        <f>H26</f>
+        <v>0.76</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -14021,7 +14039,7 @@
         <v>43906</v>
       </c>
       <c r="B18" s="132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="133">
         <v>0.94599999999999995</v>
@@ -14057,11 +14075,11 @@
         <v>-3.9199999999999982</v>
       </c>
       <c r="N18" s="151" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O18" s="170">
-        <f>I25</f>
-        <v>7000</v>
+        <f>I26</f>
+        <v>6000</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14069,7 +14087,7 @@
         <v>43906</v>
       </c>
       <c r="B19" s="129" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="128">
         <v>0.94599999999999995</v>
@@ -14105,10 +14123,10 @@
         <v>28.66</v>
       </c>
       <c r="N19" s="153" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O19" s="154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14116,7 +14134,7 @@
         <v>43907</v>
       </c>
       <c r="B20" s="129" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="128">
         <v>0.92500000000000004</v>
@@ -14159,7 +14177,7 @@
         <v>43908</v>
       </c>
       <c r="B21" s="129" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C21" s="171">
         <v>0.90375000000000005</v>
@@ -14195,11 +14213,11 @@
         <v>-1916.46</v>
       </c>
       <c r="N21" s="155" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O21" s="156">
         <f>O17*O18</f>
-        <v>0</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -14207,7 +14225,7 @@
         <v>43913</v>
       </c>
       <c r="B22" s="129" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C22" s="128">
         <v>1.5</v>
@@ -14243,7 +14261,7 @@
         <v>610.15</v>
       </c>
       <c r="N22" s="157" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O22" s="159">
         <f>IF(O21&gt;10000, O21*8%/100, 8)</f>
@@ -14255,7 +14273,7 @@
         <v>43913</v>
       </c>
       <c r="B23" s="129" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C23" s="128">
         <v>0.435</v>
@@ -14291,7 +14309,7 @@
         <v>529.99</v>
       </c>
       <c r="N23" s="157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O23" s="159">
         <f>O22*6%</f>
@@ -14303,7 +14321,7 @@
         <v>43915</v>
       </c>
       <c r="B24" s="129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="128">
         <v>1.64</v>
@@ -14312,7 +14330,7 @@
         <v>3000</v>
       </c>
       <c r="E24" s="75">
-        <v>9.9600000000000009</v>
+        <v>14.96</v>
       </c>
       <c r="F24" s="76">
         <f t="shared" si="6"/>
@@ -14328,22 +14346,22 @@
         <v>3000</v>
       </c>
       <c r="J24" s="140">
-        <v>9.98</v>
+        <v>14.98</v>
       </c>
       <c r="K24" s="113">
         <f t="shared" si="9"/>
-        <v>8.1422764227642285E-3</v>
+        <v>6.109756097560975E-3</v>
       </c>
       <c r="L24" s="77">
         <f t="shared" ref="L24:L28" si="10">SUM(H24*I24)-F24-E24-J24</f>
-        <v>40.06</v>
+        <v>30.06</v>
       </c>
       <c r="N24" s="157" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O24" s="159">
         <f>IF(O19=TRUE,CEILING(O21,1000)/1000,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -14351,7 +14369,7 @@
         <v>43915</v>
       </c>
       <c r="B25" s="129" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C25" s="128">
         <v>0.71499999999999997</v>
@@ -14360,65 +14378,86 @@
         <v>7000</v>
       </c>
       <c r="E25" s="75">
-        <v>9.99</v>
+        <v>15.99</v>
       </c>
       <c r="F25" s="76">
         <f t="shared" si="6"/>
         <v>5005</v>
       </c>
-      <c r="G25" s="73"/>
-      <c r="H25" s="128"/>
+      <c r="G25" s="139">
+        <v>43916</v>
+      </c>
+      <c r="H25" s="128">
+        <v>0.72499999999999998</v>
+      </c>
       <c r="I25" s="74">
         <v>7000</v>
       </c>
       <c r="J25" s="140">
-        <f>O26</f>
-        <v>8.48</v>
+        <v>16.010000000000002</v>
       </c>
       <c r="K25" s="113">
         <f t="shared" si="9"/>
-        <v>-1.0036903096903096</v>
+        <v>7.5924075924075924E-3</v>
       </c>
       <c r="L25" s="77">
         <f t="shared" si="10"/>
-        <v>-5023.4699999999993</v>
+        <v>38</v>
       </c>
       <c r="N25" s="157" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O25" s="159">
         <f>O21*0.03%</f>
-        <v>0</v>
+        <v>1.3679999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="139"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
+      <c r="A26" s="139">
+        <v>43916</v>
+      </c>
+      <c r="B26" s="130" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="128">
+        <v>0.75</v>
+      </c>
+      <c r="D26" s="74">
+        <v>6000</v>
+      </c>
+      <c r="E26" s="75">
+        <v>14.83</v>
+      </c>
       <c r="F26" s="76">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="73"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="113" t="e">
+        <v>4500</v>
+      </c>
+      <c r="G26" s="139">
+        <v>43916</v>
+      </c>
+      <c r="H26" s="128">
+        <v>0.76</v>
+      </c>
+      <c r="I26" s="74">
+        <v>6000</v>
+      </c>
+      <c r="J26" s="140">
+        <v>14.85</v>
+      </c>
+      <c r="K26" s="113">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>6.7377777777777774E-3</v>
       </c>
       <c r="L26" s="77">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>30.32</v>
       </c>
       <c r="N26" s="160" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O26" s="161">
         <f>ROUNDUP(SUM(O22:O25),2)</f>
-        <v>8.48</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -14469,33 +14508,33 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="121" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="122"/>
       <c r="C29" s="123"/>
       <c r="D29" s="124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="125">
         <f>SUM(E18:E28)</f>
-        <v>140.97000000000003</v>
+        <v>166.80000000000004</v>
       </c>
       <c r="F29" s="126"/>
       <c r="G29" s="123"/>
       <c r="H29" s="123"/>
       <c r="I29" s="124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J29" s="125">
         <f>SUM(J18:J28)</f>
-        <v>131.80000000000001</v>
+        <v>159.17999999999998</v>
       </c>
       <c r="K29" s="79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L29" s="82">
         <f>SUM(L18:L28)</f>
-        <v>-8490.7699999999986</v>
+        <v>-3408.9799999999996</v>
       </c>
     </row>
   </sheetData>
@@ -14533,7 +14572,7 @@
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="149" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="150">
         <v>0.95</v>
@@ -14544,7 +14583,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="151" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="152">
         <v>15000</v>
@@ -14555,7 +14594,7 @@
     </row>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="153" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="154" t="b">
         <v>1</v>
@@ -14567,7 +14606,7 @@
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="155" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="156">
         <f>C2*C3</f>
@@ -14580,7 +14619,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="157" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="158">
         <f>IF(C6&gt;10000, C6*8%/100, 8)</f>
@@ -14593,7 +14632,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" s="158">
         <f>C7*6%</f>
@@ -14606,7 +14645,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="157" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="159">
         <f>IF(C4=TRUE,CEILING(C6,1000)/1000,0)</f>
@@ -14619,7 +14658,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="157" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="158">
         <f>C6*0.03%</f>
@@ -14632,7 +14671,7 @@
     </row>
     <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="160" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="161">
         <f>ROUNDUP(SUM(C7:C10),2)</f>
@@ -14646,7 +14685,7 @@
     <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="162" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="163">
         <f>C11+D11</f>
@@ -14656,7 +14695,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="165" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="166">
         <f>D2-C2</f>
@@ -14665,7 +14704,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="165" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" s="167">
         <f>C13/C14</f>
@@ -14674,7 +14713,7 @@
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="168" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="169">
         <f>CEILING(C15,100)/100</f>
@@ -14708,7 +14747,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="109" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="197">
         <v>0.51</v>
@@ -14732,7 +14771,7 @@
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="197">
         <v>0.51</v>
@@ -14744,7 +14783,7 @@
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="197">
         <v>0.54</v>
@@ -14764,7 +14803,7 @@
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="98"/>
       <c r="C6" s="98"/>
@@ -14782,10 +14821,10 @@
     </row>
     <row r="8" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="198" t="s">
         <v>146</v>
-      </c>
-      <c r="B8" s="198" t="s">
-        <v>147</v>
       </c>
       <c r="C8" s="199">
         <v>1</v>
@@ -14799,7 +14838,7 @@
     </row>
     <row r="9" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A9" s="99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="198"/>
       <c r="C9" s="198"/>
@@ -14817,7 +14856,7 @@
     </row>
     <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" s="98"/>
       <c r="C11" s="98"/>
@@ -14835,10 +14874,10 @@
     </row>
     <row r="13" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="198" t="s">
         <v>146</v>
-      </c>
-      <c r="B13" s="198" t="s">
-        <v>147</v>
       </c>
       <c r="C13" s="199">
         <v>1</v>
@@ -14852,7 +14891,7 @@
     </row>
     <row r="14" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A14" s="99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="198"/>
       <c r="C14" s="198"/>
@@ -14870,7 +14909,7 @@
     </row>
     <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" s="98"/>
       <c r="C16" s="98"/>
@@ -14888,10 +14927,10 @@
     </row>
     <row r="18" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A18" s="100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="198" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="199">
         <v>1</v>
@@ -14905,7 +14944,7 @@
     </row>
     <row r="19" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A19" s="99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" s="198"/>
       <c r="C19" s="198"/>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1439" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4132231A-EF5C-414E-AFE1-B49EB120CEE5}"/>
+  <xr:revisionPtr revIDLastSave="1443" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8915025A-528C-4CB7-83D1-8B39F90B8DB6}"/>
   <bookViews>
-    <workbookView xWindow="11835" yWindow="7815" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="2" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -2429,17 +2429,17 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2876,7 +2876,7 @@
   <dimension ref="A1:AD200"/>
   <sheetViews>
     <sheetView topLeftCell="J163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P170" sqref="P170"/>
+      <selection activeCell="N189" sqref="N189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11237,46 +11237,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="G179:L179"/>
+    <mergeCell ref="M179:R179"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="Y179:AD179"/>
     <mergeCell ref="A124:F124"/>
     <mergeCell ref="G124:L124"/>
     <mergeCell ref="M124:R124"/>
     <mergeCell ref="S124:X124"/>
     <mergeCell ref="Y124:AD124"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="G179:L179"/>
-    <mergeCell ref="M179:R179"/>
-    <mergeCell ref="S179:X179"/>
-    <mergeCell ref="Y179:AD179"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13493,8 +13493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1730B555-17C4-4D71-B0CF-5EA2C5243D66}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14030,8 +14030,7 @@
         <v>167</v>
       </c>
       <c r="O17" s="150">
-        <f>H26</f>
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -14126,7 +14125,7 @@
         <v>169</v>
       </c>
       <c r="O19" s="154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14217,7 +14216,7 @@
       </c>
       <c r="O21" s="156">
         <f>O17*O18</f>
-        <v>4560</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -14361,7 +14360,7 @@
       </c>
       <c r="O24" s="159">
         <f>IF(O19=TRUE,CEILING(O21,1000)/1000,0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -14409,7 +14408,7 @@
       </c>
       <c r="O25" s="159">
         <f>O21*0.03%</f>
-        <v>1.3679999999999999</v>
+        <v>1.3499999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14426,7 +14425,7 @@
         <v>6000</v>
       </c>
       <c r="E26" s="75">
-        <v>14.83</v>
+        <v>9.83</v>
       </c>
       <c r="F26" s="76">
         <f t="shared" si="6"/>
@@ -14442,22 +14441,22 @@
         <v>6000</v>
       </c>
       <c r="J26" s="140">
-        <v>14.85</v>
+        <v>9.85</v>
       </c>
       <c r="K26" s="113">
         <f t="shared" si="9"/>
-        <v>6.7377777777777774E-3</v>
+        <v>8.9599999999999992E-3</v>
       </c>
       <c r="L26" s="77">
         <f t="shared" si="10"/>
-        <v>30.32</v>
+        <v>40.32</v>
       </c>
       <c r="N26" s="160" t="s">
         <v>174</v>
       </c>
       <c r="O26" s="161">
         <f>ROUNDUP(SUM(O22:O25),2)</f>
-        <v>14.85</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -14517,7 +14516,7 @@
       </c>
       <c r="E29" s="125">
         <f>SUM(E18:E28)</f>
-        <v>166.80000000000004</v>
+        <v>161.80000000000004</v>
       </c>
       <c r="F29" s="126"/>
       <c r="G29" s="123"/>
@@ -14527,14 +14526,14 @@
       </c>
       <c r="J29" s="125">
         <f>SUM(J18:J28)</f>
-        <v>159.17999999999998</v>
+        <v>154.17999999999998</v>
       </c>
       <c r="K29" s="79" t="s">
         <v>140</v>
       </c>
       <c r="L29" s="82">
         <f>SUM(L18:L28)</f>
-        <v>-3408.9799999999996</v>
+        <v>-3398.9799999999996</v>
       </c>
     </row>
   </sheetData>
@@ -14749,10 +14748,10 @@
       <c r="A1" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="197">
+      <c r="B1" s="200">
         <v>0.51</v>
       </c>
-      <c r="C1" s="197"/>
+      <c r="C1" s="200"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -14761,10 +14760,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="197">
+      <c r="B2" s="200">
         <v>0.54</v>
       </c>
-      <c r="C2" s="197"/>
+      <c r="C2" s="200"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -14773,10 +14772,10 @@
       <c r="A3" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="197">
+      <c r="B3" s="200">
         <v>0.51</v>
       </c>
-      <c r="C3" s="197"/>
+      <c r="C3" s="200"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -14785,10 +14784,10 @@
       <c r="A4" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="197">
+      <c r="B4" s="200">
         <v>0.54</v>
       </c>
-      <c r="C4" s="197"/>
+      <c r="C4" s="200"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -14830,7 +14829,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="200">
+      <c r="E8" s="197">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -14843,7 +14842,7 @@
       <c r="B9" s="198"/>
       <c r="C9" s="198"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="200"/>
+      <c r="E9" s="197"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -14883,7 +14882,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="200">
+      <c r="E13" s="197">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -14896,7 +14895,7 @@
       <c r="B14" s="198"/>
       <c r="C14" s="198"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="200"/>
+      <c r="E14" s="197"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -14936,7 +14935,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="200">
+      <c r="E18" s="197">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -14949,7 +14948,7 @@
       <c r="B19" s="198"/>
       <c r="C19" s="198"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="200"/>
+      <c r="E19" s="197"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -14994,6 +14993,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -15001,12 +15006,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1557" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4928EF46-87F7-42C1-8EDF-0183BBE0262A}"/>
+  <xr:revisionPtr revIDLastSave="1558" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F1AD1BC5-C003-42B2-B8B2-4605AF6CD4DF}"/>
   <bookViews>
-    <workbookView xWindow="17670" yWindow="-135" windowWidth="28110" windowHeight="16440" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="930" yWindow="15" windowWidth="27840" windowHeight="16185" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="242">
   <si>
     <t>Pillar</t>
   </si>
@@ -2471,8 +2471,8 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2480,8 +2480,8 @@
     <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2917,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I194" sqref="I194"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M190" sqref="M190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10985,7 +10985,9 @@
       <c r="J189" s="92"/>
       <c r="K189" s="92"/>
       <c r="L189" s="93"/>
-      <c r="M189" s="90"/>
+      <c r="M189" s="90" t="s">
+        <v>194</v>
+      </c>
       <c r="N189" s="91"/>
       <c r="O189" s="92"/>
       <c r="P189" s="92"/>
@@ -25617,6 +25619,256 @@
     </row>
   </sheetData>
   <mergeCells count="260">
+    <mergeCell ref="A537:F537"/>
+    <mergeCell ref="G537:L537"/>
+    <mergeCell ref="M537:R537"/>
+    <mergeCell ref="S537:X537"/>
+    <mergeCell ref="Y537:AD537"/>
+    <mergeCell ref="A529:F529"/>
+    <mergeCell ref="G529:L529"/>
+    <mergeCell ref="M529:R529"/>
+    <mergeCell ref="S529:X529"/>
+    <mergeCell ref="Y529:AD529"/>
+    <mergeCell ref="A521:F521"/>
+    <mergeCell ref="G521:L521"/>
+    <mergeCell ref="M521:R521"/>
+    <mergeCell ref="S521:X521"/>
+    <mergeCell ref="Y521:AD521"/>
+    <mergeCell ref="A513:F513"/>
+    <mergeCell ref="G513:L513"/>
+    <mergeCell ref="M513:R513"/>
+    <mergeCell ref="S513:X513"/>
+    <mergeCell ref="Y513:AD513"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="G505:L505"/>
+    <mergeCell ref="M505:R505"/>
+    <mergeCell ref="S505:X505"/>
+    <mergeCell ref="Y505:AD505"/>
+    <mergeCell ref="A497:F497"/>
+    <mergeCell ref="G497:L497"/>
+    <mergeCell ref="M497:R497"/>
+    <mergeCell ref="S497:X497"/>
+    <mergeCell ref="Y497:AD497"/>
+    <mergeCell ref="A489:F489"/>
+    <mergeCell ref="G489:L489"/>
+    <mergeCell ref="M489:R489"/>
+    <mergeCell ref="S489:X489"/>
+    <mergeCell ref="Y489:AD489"/>
+    <mergeCell ref="A481:F481"/>
+    <mergeCell ref="G481:L481"/>
+    <mergeCell ref="M481:R481"/>
+    <mergeCell ref="S481:X481"/>
+    <mergeCell ref="Y481:AD481"/>
+    <mergeCell ref="A473:F473"/>
+    <mergeCell ref="G473:L473"/>
+    <mergeCell ref="M473:R473"/>
+    <mergeCell ref="S473:X473"/>
+    <mergeCell ref="Y473:AD473"/>
+    <mergeCell ref="A465:F465"/>
+    <mergeCell ref="G465:L465"/>
+    <mergeCell ref="M465:R465"/>
+    <mergeCell ref="S465:X465"/>
+    <mergeCell ref="Y465:AD465"/>
+    <mergeCell ref="A457:F457"/>
+    <mergeCell ref="G457:L457"/>
+    <mergeCell ref="M457:R457"/>
+    <mergeCell ref="S457:X457"/>
+    <mergeCell ref="Y457:AD457"/>
+    <mergeCell ref="A449:F449"/>
+    <mergeCell ref="G449:L449"/>
+    <mergeCell ref="M449:R449"/>
+    <mergeCell ref="S449:X449"/>
+    <mergeCell ref="Y449:AD449"/>
+    <mergeCell ref="A441:F441"/>
+    <mergeCell ref="G441:L441"/>
+    <mergeCell ref="M441:R441"/>
+    <mergeCell ref="S441:X441"/>
+    <mergeCell ref="Y441:AD441"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="G433:L433"/>
+    <mergeCell ref="M433:R433"/>
+    <mergeCell ref="S433:X433"/>
+    <mergeCell ref="Y433:AD433"/>
+    <mergeCell ref="A425:F425"/>
+    <mergeCell ref="G425:L425"/>
+    <mergeCell ref="M425:R425"/>
+    <mergeCell ref="S425:X425"/>
+    <mergeCell ref="Y425:AD425"/>
+    <mergeCell ref="A417:F417"/>
+    <mergeCell ref="G417:L417"/>
+    <mergeCell ref="M417:R417"/>
+    <mergeCell ref="S417:X417"/>
+    <mergeCell ref="Y417:AD417"/>
+    <mergeCell ref="A409:F409"/>
+    <mergeCell ref="G409:L409"/>
+    <mergeCell ref="M409:R409"/>
+    <mergeCell ref="S409:X409"/>
+    <mergeCell ref="Y409:AD409"/>
+    <mergeCell ref="A401:F401"/>
+    <mergeCell ref="G401:L401"/>
+    <mergeCell ref="M401:R401"/>
+    <mergeCell ref="S401:X401"/>
+    <mergeCell ref="Y401:AD401"/>
+    <mergeCell ref="A393:F393"/>
+    <mergeCell ref="G393:L393"/>
+    <mergeCell ref="M393:R393"/>
+    <mergeCell ref="S393:X393"/>
+    <mergeCell ref="Y393:AD393"/>
+    <mergeCell ref="A385:F385"/>
+    <mergeCell ref="G385:L385"/>
+    <mergeCell ref="M385:R385"/>
+    <mergeCell ref="S385:X385"/>
+    <mergeCell ref="Y385:AD385"/>
+    <mergeCell ref="A377:F377"/>
+    <mergeCell ref="G377:L377"/>
+    <mergeCell ref="M377:R377"/>
+    <mergeCell ref="S377:X377"/>
+    <mergeCell ref="Y377:AD377"/>
+    <mergeCell ref="A369:F369"/>
+    <mergeCell ref="G369:L369"/>
+    <mergeCell ref="M369:R369"/>
+    <mergeCell ref="S369:X369"/>
+    <mergeCell ref="Y369:AD369"/>
+    <mergeCell ref="A361:F361"/>
+    <mergeCell ref="G361:L361"/>
+    <mergeCell ref="M361:R361"/>
+    <mergeCell ref="S361:X361"/>
+    <mergeCell ref="Y361:AD361"/>
+    <mergeCell ref="A353:F353"/>
+    <mergeCell ref="G353:L353"/>
+    <mergeCell ref="M353:R353"/>
+    <mergeCell ref="S353:X353"/>
+    <mergeCell ref="Y353:AD353"/>
+    <mergeCell ref="A345:F345"/>
+    <mergeCell ref="G345:L345"/>
+    <mergeCell ref="M345:R345"/>
+    <mergeCell ref="S345:X345"/>
+    <mergeCell ref="Y345:AD345"/>
+    <mergeCell ref="A337:F337"/>
+    <mergeCell ref="G337:L337"/>
+    <mergeCell ref="M337:R337"/>
+    <mergeCell ref="S337:X337"/>
+    <mergeCell ref="Y337:AD337"/>
+    <mergeCell ref="A329:F329"/>
+    <mergeCell ref="G329:L329"/>
+    <mergeCell ref="M329:R329"/>
+    <mergeCell ref="S329:X329"/>
+    <mergeCell ref="Y329:AD329"/>
+    <mergeCell ref="A321:F321"/>
+    <mergeCell ref="G321:L321"/>
+    <mergeCell ref="M321:R321"/>
+    <mergeCell ref="S321:X321"/>
+    <mergeCell ref="Y321:AD321"/>
+    <mergeCell ref="A313:F313"/>
+    <mergeCell ref="G313:L313"/>
+    <mergeCell ref="M313:R313"/>
+    <mergeCell ref="S313:X313"/>
+    <mergeCell ref="Y313:AD313"/>
+    <mergeCell ref="A305:F305"/>
+    <mergeCell ref="G305:L305"/>
+    <mergeCell ref="M305:R305"/>
+    <mergeCell ref="S305:X305"/>
+    <mergeCell ref="Y305:AD305"/>
+    <mergeCell ref="A297:F297"/>
+    <mergeCell ref="G297:L297"/>
+    <mergeCell ref="M297:R297"/>
+    <mergeCell ref="S297:X297"/>
+    <mergeCell ref="Y297:AD297"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="G289:L289"/>
+    <mergeCell ref="M289:R289"/>
+    <mergeCell ref="S289:X289"/>
+    <mergeCell ref="Y289:AD289"/>
+    <mergeCell ref="A281:F281"/>
+    <mergeCell ref="G281:L281"/>
+    <mergeCell ref="M281:R281"/>
+    <mergeCell ref="S281:X281"/>
+    <mergeCell ref="Y281:AD281"/>
+    <mergeCell ref="A273:F273"/>
+    <mergeCell ref="G273:L273"/>
+    <mergeCell ref="M273:R273"/>
+    <mergeCell ref="S273:X273"/>
+    <mergeCell ref="Y273:AD273"/>
+    <mergeCell ref="A265:F265"/>
+    <mergeCell ref="G265:L265"/>
+    <mergeCell ref="M265:R265"/>
+    <mergeCell ref="S265:X265"/>
+    <mergeCell ref="Y265:AD265"/>
+    <mergeCell ref="A257:F257"/>
+    <mergeCell ref="G257:L257"/>
+    <mergeCell ref="M257:R257"/>
+    <mergeCell ref="S257:X257"/>
+    <mergeCell ref="Y257:AD257"/>
+    <mergeCell ref="A249:F249"/>
+    <mergeCell ref="G249:L249"/>
+    <mergeCell ref="M249:R249"/>
+    <mergeCell ref="S249:X249"/>
+    <mergeCell ref="Y249:AD249"/>
+    <mergeCell ref="A241:F241"/>
+    <mergeCell ref="G241:L241"/>
+    <mergeCell ref="M241:R241"/>
+    <mergeCell ref="S241:X241"/>
+    <mergeCell ref="Y241:AD241"/>
+    <mergeCell ref="A233:F233"/>
+    <mergeCell ref="G233:L233"/>
+    <mergeCell ref="M233:R233"/>
+    <mergeCell ref="S233:X233"/>
+    <mergeCell ref="Y233:AD233"/>
+    <mergeCell ref="A225:F225"/>
+    <mergeCell ref="G225:L225"/>
+    <mergeCell ref="M225:R225"/>
+    <mergeCell ref="S225:X225"/>
+    <mergeCell ref="Y225:AD225"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="G217:L217"/>
+    <mergeCell ref="M217:R217"/>
+    <mergeCell ref="S217:X217"/>
+    <mergeCell ref="Y217:AD217"/>
+    <mergeCell ref="A209:F209"/>
+    <mergeCell ref="G209:L209"/>
+    <mergeCell ref="M209:R209"/>
+    <mergeCell ref="S209:X209"/>
+    <mergeCell ref="Y209:AD209"/>
+    <mergeCell ref="A201:F201"/>
+    <mergeCell ref="G201:L201"/>
+    <mergeCell ref="M201:R201"/>
+    <mergeCell ref="S201:X201"/>
+    <mergeCell ref="Y201:AD201"/>
+    <mergeCell ref="A187:F187"/>
+    <mergeCell ref="G187:L187"/>
+    <mergeCell ref="M187:R187"/>
+    <mergeCell ref="S187:X187"/>
+    <mergeCell ref="Y187:AD187"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:L124"/>
+    <mergeCell ref="M124:R124"/>
+    <mergeCell ref="S124:X124"/>
+    <mergeCell ref="Y124:AD124"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="G179:L179"/>
+    <mergeCell ref="M179:R179"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="Y179:AD179"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="M15:R15"/>
@@ -25627,256 +25879,6 @@
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="S1:X1"/>
     <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:L124"/>
-    <mergeCell ref="M124:R124"/>
-    <mergeCell ref="S124:X124"/>
-    <mergeCell ref="Y124:AD124"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="G179:L179"/>
-    <mergeCell ref="M179:R179"/>
-    <mergeCell ref="S179:X179"/>
-    <mergeCell ref="Y179:AD179"/>
-    <mergeCell ref="A201:F201"/>
-    <mergeCell ref="G201:L201"/>
-    <mergeCell ref="M201:R201"/>
-    <mergeCell ref="S201:X201"/>
-    <mergeCell ref="Y201:AD201"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="G187:L187"/>
-    <mergeCell ref="M187:R187"/>
-    <mergeCell ref="S187:X187"/>
-    <mergeCell ref="Y187:AD187"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="G217:L217"/>
-    <mergeCell ref="M217:R217"/>
-    <mergeCell ref="S217:X217"/>
-    <mergeCell ref="Y217:AD217"/>
-    <mergeCell ref="A209:F209"/>
-    <mergeCell ref="G209:L209"/>
-    <mergeCell ref="M209:R209"/>
-    <mergeCell ref="S209:X209"/>
-    <mergeCell ref="Y209:AD209"/>
-    <mergeCell ref="A233:F233"/>
-    <mergeCell ref="G233:L233"/>
-    <mergeCell ref="M233:R233"/>
-    <mergeCell ref="S233:X233"/>
-    <mergeCell ref="Y233:AD233"/>
-    <mergeCell ref="A225:F225"/>
-    <mergeCell ref="G225:L225"/>
-    <mergeCell ref="M225:R225"/>
-    <mergeCell ref="S225:X225"/>
-    <mergeCell ref="Y225:AD225"/>
-    <mergeCell ref="A249:F249"/>
-    <mergeCell ref="G249:L249"/>
-    <mergeCell ref="M249:R249"/>
-    <mergeCell ref="S249:X249"/>
-    <mergeCell ref="Y249:AD249"/>
-    <mergeCell ref="A241:F241"/>
-    <mergeCell ref="G241:L241"/>
-    <mergeCell ref="M241:R241"/>
-    <mergeCell ref="S241:X241"/>
-    <mergeCell ref="Y241:AD241"/>
-    <mergeCell ref="A265:F265"/>
-    <mergeCell ref="G265:L265"/>
-    <mergeCell ref="M265:R265"/>
-    <mergeCell ref="S265:X265"/>
-    <mergeCell ref="Y265:AD265"/>
-    <mergeCell ref="A257:F257"/>
-    <mergeCell ref="G257:L257"/>
-    <mergeCell ref="M257:R257"/>
-    <mergeCell ref="S257:X257"/>
-    <mergeCell ref="Y257:AD257"/>
-    <mergeCell ref="A281:F281"/>
-    <mergeCell ref="G281:L281"/>
-    <mergeCell ref="M281:R281"/>
-    <mergeCell ref="S281:X281"/>
-    <mergeCell ref="Y281:AD281"/>
-    <mergeCell ref="A273:F273"/>
-    <mergeCell ref="G273:L273"/>
-    <mergeCell ref="M273:R273"/>
-    <mergeCell ref="S273:X273"/>
-    <mergeCell ref="Y273:AD273"/>
-    <mergeCell ref="A297:F297"/>
-    <mergeCell ref="G297:L297"/>
-    <mergeCell ref="M297:R297"/>
-    <mergeCell ref="S297:X297"/>
-    <mergeCell ref="Y297:AD297"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="G289:L289"/>
-    <mergeCell ref="M289:R289"/>
-    <mergeCell ref="S289:X289"/>
-    <mergeCell ref="Y289:AD289"/>
-    <mergeCell ref="A313:F313"/>
-    <mergeCell ref="G313:L313"/>
-    <mergeCell ref="M313:R313"/>
-    <mergeCell ref="S313:X313"/>
-    <mergeCell ref="Y313:AD313"/>
-    <mergeCell ref="A305:F305"/>
-    <mergeCell ref="G305:L305"/>
-    <mergeCell ref="M305:R305"/>
-    <mergeCell ref="S305:X305"/>
-    <mergeCell ref="Y305:AD305"/>
-    <mergeCell ref="A329:F329"/>
-    <mergeCell ref="G329:L329"/>
-    <mergeCell ref="M329:R329"/>
-    <mergeCell ref="S329:X329"/>
-    <mergeCell ref="Y329:AD329"/>
-    <mergeCell ref="A321:F321"/>
-    <mergeCell ref="G321:L321"/>
-    <mergeCell ref="M321:R321"/>
-    <mergeCell ref="S321:X321"/>
-    <mergeCell ref="Y321:AD321"/>
-    <mergeCell ref="A345:F345"/>
-    <mergeCell ref="G345:L345"/>
-    <mergeCell ref="M345:R345"/>
-    <mergeCell ref="S345:X345"/>
-    <mergeCell ref="Y345:AD345"/>
-    <mergeCell ref="A337:F337"/>
-    <mergeCell ref="G337:L337"/>
-    <mergeCell ref="M337:R337"/>
-    <mergeCell ref="S337:X337"/>
-    <mergeCell ref="Y337:AD337"/>
-    <mergeCell ref="A361:F361"/>
-    <mergeCell ref="G361:L361"/>
-    <mergeCell ref="M361:R361"/>
-    <mergeCell ref="S361:X361"/>
-    <mergeCell ref="Y361:AD361"/>
-    <mergeCell ref="A353:F353"/>
-    <mergeCell ref="G353:L353"/>
-    <mergeCell ref="M353:R353"/>
-    <mergeCell ref="S353:X353"/>
-    <mergeCell ref="Y353:AD353"/>
-    <mergeCell ref="A377:F377"/>
-    <mergeCell ref="G377:L377"/>
-    <mergeCell ref="M377:R377"/>
-    <mergeCell ref="S377:X377"/>
-    <mergeCell ref="Y377:AD377"/>
-    <mergeCell ref="A369:F369"/>
-    <mergeCell ref="G369:L369"/>
-    <mergeCell ref="M369:R369"/>
-    <mergeCell ref="S369:X369"/>
-    <mergeCell ref="Y369:AD369"/>
-    <mergeCell ref="A393:F393"/>
-    <mergeCell ref="G393:L393"/>
-    <mergeCell ref="M393:R393"/>
-    <mergeCell ref="S393:X393"/>
-    <mergeCell ref="Y393:AD393"/>
-    <mergeCell ref="A385:F385"/>
-    <mergeCell ref="G385:L385"/>
-    <mergeCell ref="M385:R385"/>
-    <mergeCell ref="S385:X385"/>
-    <mergeCell ref="Y385:AD385"/>
-    <mergeCell ref="A409:F409"/>
-    <mergeCell ref="G409:L409"/>
-    <mergeCell ref="M409:R409"/>
-    <mergeCell ref="S409:X409"/>
-    <mergeCell ref="Y409:AD409"/>
-    <mergeCell ref="A401:F401"/>
-    <mergeCell ref="G401:L401"/>
-    <mergeCell ref="M401:R401"/>
-    <mergeCell ref="S401:X401"/>
-    <mergeCell ref="Y401:AD401"/>
-    <mergeCell ref="A425:F425"/>
-    <mergeCell ref="G425:L425"/>
-    <mergeCell ref="M425:R425"/>
-    <mergeCell ref="S425:X425"/>
-    <mergeCell ref="Y425:AD425"/>
-    <mergeCell ref="A417:F417"/>
-    <mergeCell ref="G417:L417"/>
-    <mergeCell ref="M417:R417"/>
-    <mergeCell ref="S417:X417"/>
-    <mergeCell ref="Y417:AD417"/>
-    <mergeCell ref="A441:F441"/>
-    <mergeCell ref="G441:L441"/>
-    <mergeCell ref="M441:R441"/>
-    <mergeCell ref="S441:X441"/>
-    <mergeCell ref="Y441:AD441"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="G433:L433"/>
-    <mergeCell ref="M433:R433"/>
-    <mergeCell ref="S433:X433"/>
-    <mergeCell ref="Y433:AD433"/>
-    <mergeCell ref="A457:F457"/>
-    <mergeCell ref="G457:L457"/>
-    <mergeCell ref="M457:R457"/>
-    <mergeCell ref="S457:X457"/>
-    <mergeCell ref="Y457:AD457"/>
-    <mergeCell ref="A449:F449"/>
-    <mergeCell ref="G449:L449"/>
-    <mergeCell ref="M449:R449"/>
-    <mergeCell ref="S449:X449"/>
-    <mergeCell ref="Y449:AD449"/>
-    <mergeCell ref="A473:F473"/>
-    <mergeCell ref="G473:L473"/>
-    <mergeCell ref="M473:R473"/>
-    <mergeCell ref="S473:X473"/>
-    <mergeCell ref="Y473:AD473"/>
-    <mergeCell ref="A465:F465"/>
-    <mergeCell ref="G465:L465"/>
-    <mergeCell ref="M465:R465"/>
-    <mergeCell ref="S465:X465"/>
-    <mergeCell ref="Y465:AD465"/>
-    <mergeCell ref="A489:F489"/>
-    <mergeCell ref="G489:L489"/>
-    <mergeCell ref="M489:R489"/>
-    <mergeCell ref="S489:X489"/>
-    <mergeCell ref="Y489:AD489"/>
-    <mergeCell ref="A481:F481"/>
-    <mergeCell ref="G481:L481"/>
-    <mergeCell ref="M481:R481"/>
-    <mergeCell ref="S481:X481"/>
-    <mergeCell ref="Y481:AD481"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="G505:L505"/>
-    <mergeCell ref="M505:R505"/>
-    <mergeCell ref="S505:X505"/>
-    <mergeCell ref="Y505:AD505"/>
-    <mergeCell ref="A497:F497"/>
-    <mergeCell ref="G497:L497"/>
-    <mergeCell ref="M497:R497"/>
-    <mergeCell ref="S497:X497"/>
-    <mergeCell ref="Y497:AD497"/>
-    <mergeCell ref="A521:F521"/>
-    <mergeCell ref="G521:L521"/>
-    <mergeCell ref="M521:R521"/>
-    <mergeCell ref="S521:X521"/>
-    <mergeCell ref="Y521:AD521"/>
-    <mergeCell ref="A513:F513"/>
-    <mergeCell ref="G513:L513"/>
-    <mergeCell ref="M513:R513"/>
-    <mergeCell ref="S513:X513"/>
-    <mergeCell ref="Y513:AD513"/>
-    <mergeCell ref="A537:F537"/>
-    <mergeCell ref="G537:L537"/>
-    <mergeCell ref="M537:R537"/>
-    <mergeCell ref="S537:X537"/>
-    <mergeCell ref="Y537:AD537"/>
-    <mergeCell ref="A529:F529"/>
-    <mergeCell ref="G529:L529"/>
-    <mergeCell ref="M529:R529"/>
-    <mergeCell ref="S529:X529"/>
-    <mergeCell ref="Y529:AD529"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30203,10 +30205,10 @@
       <c r="A1" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="205">
+      <c r="B1" s="202">
         <v>0.51</v>
       </c>
-      <c r="C1" s="205"/>
+      <c r="C1" s="202"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -30215,10 +30217,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="205">
+      <c r="B2" s="202">
         <v>0.54</v>
       </c>
-      <c r="C2" s="205"/>
+      <c r="C2" s="202"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -30227,10 +30229,10 @@
       <c r="A3" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="205">
+      <c r="B3" s="202">
         <v>0.51</v>
       </c>
-      <c r="C3" s="205"/>
+      <c r="C3" s="202"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -30239,10 +30241,10 @@
       <c r="A4" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="205">
+      <c r="B4" s="202">
         <v>0.54</v>
       </c>
-      <c r="C4" s="205"/>
+      <c r="C4" s="202"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -30284,7 +30286,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="202">
+      <c r="E8" s="205">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -30297,7 +30299,7 @@
       <c r="B9" s="203"/>
       <c r="C9" s="203"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="202"/>
+      <c r="E9" s="205"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -30337,7 +30339,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="202">
+      <c r="E13" s="205">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -30350,7 +30352,7 @@
       <c r="B14" s="203"/>
       <c r="C14" s="203"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="202"/>
+      <c r="E14" s="205"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -30390,7 +30392,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="202">
+      <c r="E18" s="205">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -30403,7 +30405,7 @@
       <c r="B19" s="203"/>
       <c r="C19" s="203"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="202"/>
+      <c r="E19" s="205"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -30448,12 +30450,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -30461,6 +30457,12 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1614" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{387AFEB3-113E-4029-A763-E8A64DDB4BA2}"/>
+  <xr:revisionPtr revIDLastSave="1638" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E0F271E9-6422-4DAB-9BC5-DDCCB3619D18}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="930" yWindow="15" windowWidth="27840" windowHeight="16185" activeTab="2" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="248">
   <si>
     <t>Pillar</t>
   </si>
@@ -1889,7 +1889,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2423,8 +2423,24 @@
     <xf numFmtId="168" fontId="2" fillId="17" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="28" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="28" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2506,18 +2522,6 @@
     </xf>
     <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="28" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="28" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="28" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2953,7 +2957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A167" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S190" sqref="S190:S200"/>
     </sheetView>
   </sheetViews>
@@ -2993,50 +2997,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="178">
+      <c r="A1" s="181">
         <v>43864</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178">
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181">
         <f>A1+1</f>
         <v>43865</v>
       </c>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178">
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181">
         <f t="shared" ref="M1" si="0">G1+1</f>
         <v>43866</v>
       </c>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="178">
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181">
         <f t="shared" ref="S1" si="1">M1+1</f>
         <v>43867</v>
       </c>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178">
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181">
         <f t="shared" ref="Y1" si="2">S1+1</f>
         <v>43868</v>
       </c>
-      <c r="Z1" s="178"/>
-      <c r="AA1" s="178"/>
-      <c r="AB1" s="178"/>
-      <c r="AC1" s="178"/>
-      <c r="AD1" s="178"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="181"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="181"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="87" t="s">
@@ -3565,51 +3569,51 @@
       <c r="AD14" s="93"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="178">
+      <c r="A15" s="181">
         <f>A1+7</f>
         <v>43871</v>
       </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178">
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181">
         <f>A15+1</f>
         <v>43872</v>
       </c>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="178"/>
-      <c r="M15" s="178">
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="181"/>
+      <c r="M15" s="181">
         <f t="shared" ref="M15" si="3">G15+1</f>
         <v>43873</v>
       </c>
-      <c r="N15" s="178"/>
-      <c r="O15" s="178"/>
-      <c r="P15" s="178"/>
-      <c r="Q15" s="178"/>
-      <c r="R15" s="178"/>
-      <c r="S15" s="178">
+      <c r="N15" s="181"/>
+      <c r="O15" s="181"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="181"/>
+      <c r="R15" s="181"/>
+      <c r="S15" s="181">
         <f t="shared" ref="S15" si="4">M15+1</f>
         <v>43874</v>
       </c>
-      <c r="T15" s="178"/>
-      <c r="U15" s="178"/>
-      <c r="V15" s="178"/>
-      <c r="W15" s="178"/>
-      <c r="X15" s="178"/>
-      <c r="Y15" s="178">
+      <c r="T15" s="181"/>
+      <c r="U15" s="181"/>
+      <c r="V15" s="181"/>
+      <c r="W15" s="181"/>
+      <c r="X15" s="181"/>
+      <c r="Y15" s="181">
         <f t="shared" ref="Y15" si="5">S15+1</f>
         <v>43875</v>
       </c>
-      <c r="Z15" s="178"/>
-      <c r="AA15" s="178"/>
-      <c r="AB15" s="178"/>
-      <c r="AC15" s="178"/>
-      <c r="AD15" s="178"/>
+      <c r="Z15" s="181"/>
+      <c r="AA15" s="181"/>
+      <c r="AB15" s="181"/>
+      <c r="AC15" s="181"/>
+      <c r="AD15" s="181"/>
     </row>
     <row r="16" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="87" t="s">
@@ -4346,51 +4350,51 @@
       <c r="AD29" s="93"/>
     </row>
     <row r="30" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="178">
+      <c r="A30" s="181">
         <f>A15+7</f>
         <v>43878</v>
       </c>
-      <c r="B30" s="178"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178">
+      <c r="B30" s="181"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181">
         <f>A30+1</f>
         <v>43879</v>
       </c>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="178"/>
-      <c r="M30" s="178">
+      <c r="H30" s="181"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="181"/>
+      <c r="L30" s="181"/>
+      <c r="M30" s="181">
         <f t="shared" ref="M30" si="6">G30+1</f>
         <v>43880</v>
       </c>
-      <c r="N30" s="178"/>
-      <c r="O30" s="178"/>
-      <c r="P30" s="178"/>
-      <c r="Q30" s="178"/>
-      <c r="R30" s="178"/>
-      <c r="S30" s="178">
+      <c r="N30" s="181"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="181"/>
+      <c r="R30" s="181"/>
+      <c r="S30" s="181">
         <f t="shared" ref="S30" si="7">M30+1</f>
         <v>43881</v>
       </c>
-      <c r="T30" s="178"/>
-      <c r="U30" s="178"/>
-      <c r="V30" s="178"/>
-      <c r="W30" s="178"/>
-      <c r="X30" s="178"/>
-      <c r="Y30" s="178">
+      <c r="T30" s="181"/>
+      <c r="U30" s="181"/>
+      <c r="V30" s="181"/>
+      <c r="W30" s="181"/>
+      <c r="X30" s="181"/>
+      <c r="Y30" s="181">
         <f t="shared" ref="Y30" si="8">S30+1</f>
         <v>43882</v>
       </c>
-      <c r="Z30" s="178"/>
-      <c r="AA30" s="178"/>
-      <c r="AB30" s="178"/>
-      <c r="AC30" s="178"/>
-      <c r="AD30" s="178"/>
+      <c r="Z30" s="181"/>
+      <c r="AA30" s="181"/>
+      <c r="AB30" s="181"/>
+      <c r="AC30" s="181"/>
+      <c r="AD30" s="181"/>
     </row>
     <row r="31" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="87" t="s">
@@ -5713,51 +5717,51 @@
       <c r="AD52" s="93"/>
     </row>
     <row r="53" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="178">
+      <c r="A53" s="181">
         <f>A30+7</f>
         <v>43885</v>
       </c>
-      <c r="B53" s="178"/>
-      <c r="C53" s="178"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="178"/>
-      <c r="G53" s="178">
+      <c r="B53" s="181"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="181"/>
+      <c r="E53" s="181"/>
+      <c r="F53" s="181"/>
+      <c r="G53" s="181">
         <f>A53+1</f>
         <v>43886</v>
       </c>
-      <c r="H53" s="178"/>
-      <c r="I53" s="178"/>
-      <c r="J53" s="178"/>
-      <c r="K53" s="178"/>
-      <c r="L53" s="178"/>
-      <c r="M53" s="178">
+      <c r="H53" s="181"/>
+      <c r="I53" s="181"/>
+      <c r="J53" s="181"/>
+      <c r="K53" s="181"/>
+      <c r="L53" s="181"/>
+      <c r="M53" s="181">
         <f t="shared" ref="M53" si="9">G53+1</f>
         <v>43887</v>
       </c>
-      <c r="N53" s="178"/>
-      <c r="O53" s="178"/>
-      <c r="P53" s="178"/>
-      <c r="Q53" s="178"/>
-      <c r="R53" s="178"/>
-      <c r="S53" s="178">
+      <c r="N53" s="181"/>
+      <c r="O53" s="181"/>
+      <c r="P53" s="181"/>
+      <c r="Q53" s="181"/>
+      <c r="R53" s="181"/>
+      <c r="S53" s="181">
         <f t="shared" ref="S53" si="10">M53+1</f>
         <v>43888</v>
       </c>
-      <c r="T53" s="178"/>
-      <c r="U53" s="178"/>
-      <c r="V53" s="178"/>
-      <c r="W53" s="178"/>
-      <c r="X53" s="178"/>
-      <c r="Y53" s="178">
+      <c r="T53" s="181"/>
+      <c r="U53" s="181"/>
+      <c r="V53" s="181"/>
+      <c r="W53" s="181"/>
+      <c r="X53" s="181"/>
+      <c r="Y53" s="181">
         <f t="shared" ref="Y53" si="11">S53+1</f>
         <v>43889</v>
       </c>
-      <c r="Z53" s="178"/>
-      <c r="AA53" s="178"/>
-      <c r="AB53" s="178"/>
-      <c r="AC53" s="178"/>
-      <c r="AD53" s="178"/>
+      <c r="Z53" s="181"/>
+      <c r="AA53" s="181"/>
+      <c r="AB53" s="181"/>
+      <c r="AC53" s="181"/>
+      <c r="AD53" s="181"/>
     </row>
     <row r="54" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="87" t="s">
@@ -6860,51 +6864,51 @@
       <c r="AD79" s="93"/>
     </row>
     <row r="80" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="178">
+      <c r="A80" s="181">
         <f>A53+7</f>
         <v>43892</v>
       </c>
-      <c r="B80" s="178"/>
-      <c r="C80" s="178"/>
-      <c r="D80" s="178"/>
-      <c r="E80" s="178"/>
-      <c r="F80" s="178"/>
-      <c r="G80" s="178">
+      <c r="B80" s="181"/>
+      <c r="C80" s="181"/>
+      <c r="D80" s="181"/>
+      <c r="E80" s="181"/>
+      <c r="F80" s="181"/>
+      <c r="G80" s="181">
         <f>A80+1</f>
         <v>43893</v>
       </c>
-      <c r="H80" s="178"/>
-      <c r="I80" s="178"/>
-      <c r="J80" s="178"/>
-      <c r="K80" s="178"/>
-      <c r="L80" s="178"/>
-      <c r="M80" s="178">
+      <c r="H80" s="181"/>
+      <c r="I80" s="181"/>
+      <c r="J80" s="181"/>
+      <c r="K80" s="181"/>
+      <c r="L80" s="181"/>
+      <c r="M80" s="181">
         <f t="shared" ref="M80" si="12">G80+1</f>
         <v>43894</v>
       </c>
-      <c r="N80" s="178"/>
-      <c r="O80" s="178"/>
-      <c r="P80" s="178"/>
-      <c r="Q80" s="178"/>
-      <c r="R80" s="178"/>
-      <c r="S80" s="178">
+      <c r="N80" s="181"/>
+      <c r="O80" s="181"/>
+      <c r="P80" s="181"/>
+      <c r="Q80" s="181"/>
+      <c r="R80" s="181"/>
+      <c r="S80" s="181">
         <f t="shared" ref="S80" si="13">M80+1</f>
         <v>43895</v>
       </c>
-      <c r="T80" s="178"/>
-      <c r="U80" s="178"/>
-      <c r="V80" s="178"/>
-      <c r="W80" s="178"/>
-      <c r="X80" s="178"/>
-      <c r="Y80" s="178">
+      <c r="T80" s="181"/>
+      <c r="U80" s="181"/>
+      <c r="V80" s="181"/>
+      <c r="W80" s="181"/>
+      <c r="X80" s="181"/>
+      <c r="Y80" s="181">
         <f t="shared" ref="Y80" si="14">S80+1</f>
         <v>43896</v>
       </c>
-      <c r="Z80" s="178"/>
-      <c r="AA80" s="178"/>
-      <c r="AB80" s="178"/>
-      <c r="AC80" s="178"/>
-      <c r="AD80" s="178"/>
+      <c r="Z80" s="181"/>
+      <c r="AA80" s="181"/>
+      <c r="AB80" s="181"/>
+      <c r="AC80" s="181"/>
+      <c r="AD80" s="181"/>
     </row>
     <row r="81" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="87" t="s">
@@ -7693,51 +7697,51 @@
       <c r="AD101" s="93"/>
     </row>
     <row r="102" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="178">
+      <c r="A102" s="181">
         <f>A80+7</f>
         <v>43899</v>
       </c>
-      <c r="B102" s="178"/>
-      <c r="C102" s="178"/>
-      <c r="D102" s="178"/>
-      <c r="E102" s="178"/>
-      <c r="F102" s="178"/>
-      <c r="G102" s="178">
+      <c r="B102" s="181"/>
+      <c r="C102" s="181"/>
+      <c r="D102" s="181"/>
+      <c r="E102" s="181"/>
+      <c r="F102" s="181"/>
+      <c r="G102" s="181">
         <f>A102+1</f>
         <v>43900</v>
       </c>
-      <c r="H102" s="178"/>
-      <c r="I102" s="178"/>
-      <c r="J102" s="178"/>
-      <c r="K102" s="178"/>
-      <c r="L102" s="178"/>
-      <c r="M102" s="178">
+      <c r="H102" s="181"/>
+      <c r="I102" s="181"/>
+      <c r="J102" s="181"/>
+      <c r="K102" s="181"/>
+      <c r="L102" s="181"/>
+      <c r="M102" s="181">
         <f t="shared" ref="M102" si="15">G102+1</f>
         <v>43901</v>
       </c>
-      <c r="N102" s="178"/>
-      <c r="O102" s="178"/>
-      <c r="P102" s="178"/>
-      <c r="Q102" s="178"/>
-      <c r="R102" s="178"/>
-      <c r="S102" s="178">
+      <c r="N102" s="181"/>
+      <c r="O102" s="181"/>
+      <c r="P102" s="181"/>
+      <c r="Q102" s="181"/>
+      <c r="R102" s="181"/>
+      <c r="S102" s="181">
         <f t="shared" ref="S102" si="16">M102+1</f>
         <v>43902</v>
       </c>
-      <c r="T102" s="178"/>
-      <c r="U102" s="178"/>
-      <c r="V102" s="178"/>
-      <c r="W102" s="178"/>
-      <c r="X102" s="178"/>
-      <c r="Y102" s="178">
+      <c r="T102" s="181"/>
+      <c r="U102" s="181"/>
+      <c r="V102" s="181"/>
+      <c r="W102" s="181"/>
+      <c r="X102" s="181"/>
+      <c r="Y102" s="181">
         <f t="shared" ref="Y102" si="17">S102+1</f>
         <v>43903</v>
       </c>
-      <c r="Z102" s="178"/>
-      <c r="AA102" s="178"/>
-      <c r="AB102" s="178"/>
-      <c r="AC102" s="178"/>
-      <c r="AD102" s="178"/>
+      <c r="Z102" s="181"/>
+      <c r="AA102" s="181"/>
+      <c r="AB102" s="181"/>
+      <c r="AC102" s="181"/>
+      <c r="AD102" s="181"/>
     </row>
     <row r="103" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="87" t="s">
@@ -8506,51 +8510,51 @@
       <c r="AD123" s="93"/>
     </row>
     <row r="124" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="178">
+      <c r="A124" s="181">
         <f>A102+7</f>
         <v>43906</v>
       </c>
-      <c r="B124" s="178"/>
-      <c r="C124" s="178"/>
-      <c r="D124" s="178"/>
-      <c r="E124" s="178"/>
-      <c r="F124" s="178"/>
-      <c r="G124" s="178">
+      <c r="B124" s="181"/>
+      <c r="C124" s="181"/>
+      <c r="D124" s="181"/>
+      <c r="E124" s="181"/>
+      <c r="F124" s="181"/>
+      <c r="G124" s="181">
         <f>A124+1</f>
         <v>43907</v>
       </c>
-      <c r="H124" s="178"/>
-      <c r="I124" s="178"/>
-      <c r="J124" s="178"/>
-      <c r="K124" s="178"/>
-      <c r="L124" s="178"/>
-      <c r="M124" s="178">
+      <c r="H124" s="181"/>
+      <c r="I124" s="181"/>
+      <c r="J124" s="181"/>
+      <c r="K124" s="181"/>
+      <c r="L124" s="181"/>
+      <c r="M124" s="181">
         <f t="shared" ref="M124" si="18">G124+1</f>
         <v>43908</v>
       </c>
-      <c r="N124" s="178"/>
-      <c r="O124" s="178"/>
-      <c r="P124" s="178"/>
-      <c r="Q124" s="178"/>
-      <c r="R124" s="178"/>
-      <c r="S124" s="178">
+      <c r="N124" s="181"/>
+      <c r="O124" s="181"/>
+      <c r="P124" s="181"/>
+      <c r="Q124" s="181"/>
+      <c r="R124" s="181"/>
+      <c r="S124" s="181">
         <f t="shared" ref="S124" si="19">M124+1</f>
         <v>43909</v>
       </c>
-      <c r="T124" s="178"/>
-      <c r="U124" s="178"/>
-      <c r="V124" s="178"/>
-      <c r="W124" s="178"/>
-      <c r="X124" s="178"/>
-      <c r="Y124" s="178">
+      <c r="T124" s="181"/>
+      <c r="U124" s="181"/>
+      <c r="V124" s="181"/>
+      <c r="W124" s="181"/>
+      <c r="X124" s="181"/>
+      <c r="Y124" s="181">
         <f t="shared" ref="Y124" si="20">S124+1</f>
         <v>43910</v>
       </c>
-      <c r="Z124" s="178"/>
-      <c r="AA124" s="178"/>
-      <c r="AB124" s="178"/>
-      <c r="AC124" s="178"/>
-      <c r="AD124" s="178"/>
+      <c r="Z124" s="181"/>
+      <c r="AA124" s="181"/>
+      <c r="AB124" s="181"/>
+      <c r="AC124" s="181"/>
+      <c r="AD124" s="181"/>
     </row>
     <row r="125" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="87" t="s">
@@ -10513,51 +10517,51 @@
       <c r="AD178" s="93"/>
     </row>
     <row r="179" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="178">
+      <c r="A179" s="181">
         <f>A124+7</f>
         <v>43913</v>
       </c>
-      <c r="B179" s="178"/>
-      <c r="C179" s="178"/>
-      <c r="D179" s="178"/>
-      <c r="E179" s="178"/>
-      <c r="F179" s="178"/>
-      <c r="G179" s="178">
+      <c r="B179" s="181"/>
+      <c r="C179" s="181"/>
+      <c r="D179" s="181"/>
+      <c r="E179" s="181"/>
+      <c r="F179" s="181"/>
+      <c r="G179" s="181">
         <f>A179+1</f>
         <v>43914</v>
       </c>
-      <c r="H179" s="178"/>
-      <c r="I179" s="178"/>
-      <c r="J179" s="178"/>
-      <c r="K179" s="178"/>
-      <c r="L179" s="178"/>
-      <c r="M179" s="178">
+      <c r="H179" s="181"/>
+      <c r="I179" s="181"/>
+      <c r="J179" s="181"/>
+      <c r="K179" s="181"/>
+      <c r="L179" s="181"/>
+      <c r="M179" s="181">
         <f t="shared" ref="M179" si="21">G179+1</f>
         <v>43915</v>
       </c>
-      <c r="N179" s="178"/>
-      <c r="O179" s="178"/>
-      <c r="P179" s="178"/>
-      <c r="Q179" s="178"/>
-      <c r="R179" s="178"/>
-      <c r="S179" s="178">
+      <c r="N179" s="181"/>
+      <c r="O179" s="181"/>
+      <c r="P179" s="181"/>
+      <c r="Q179" s="181"/>
+      <c r="R179" s="181"/>
+      <c r="S179" s="181">
         <f t="shared" ref="S179" si="22">M179+1</f>
         <v>43916</v>
       </c>
-      <c r="T179" s="178"/>
-      <c r="U179" s="178"/>
-      <c r="V179" s="178"/>
-      <c r="W179" s="178"/>
-      <c r="X179" s="178"/>
-      <c r="Y179" s="178">
+      <c r="T179" s="181"/>
+      <c r="U179" s="181"/>
+      <c r="V179" s="181"/>
+      <c r="W179" s="181"/>
+      <c r="X179" s="181"/>
+      <c r="Y179" s="181">
         <f t="shared" ref="Y179" si="23">S179+1</f>
         <v>43917</v>
       </c>
-      <c r="Z179" s="178"/>
-      <c r="AA179" s="178"/>
-      <c r="AB179" s="178"/>
-      <c r="AC179" s="178"/>
-      <c r="AD179" s="178"/>
+      <c r="Z179" s="181"/>
+      <c r="AA179" s="181"/>
+      <c r="AB179" s="181"/>
+      <c r="AC179" s="181"/>
+      <c r="AD179" s="181"/>
     </row>
     <row r="180" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="87" t="s">
@@ -10866,85 +10870,85 @@
       <c r="AD186" s="93"/>
     </row>
     <row r="187" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="178">
+      <c r="A187" s="181">
         <f>A179+7</f>
         <v>43920</v>
       </c>
-      <c r="B187" s="178"/>
-      <c r="C187" s="178"/>
-      <c r="D187" s="178"/>
-      <c r="E187" s="178"/>
-      <c r="F187" s="178"/>
-      <c r="G187" s="178">
+      <c r="B187" s="181"/>
+      <c r="C187" s="181"/>
+      <c r="D187" s="181"/>
+      <c r="E187" s="181"/>
+      <c r="F187" s="181"/>
+      <c r="G187" s="181">
         <f>A187+1</f>
         <v>43921</v>
       </c>
-      <c r="H187" s="178"/>
-      <c r="I187" s="178"/>
-      <c r="J187" s="178"/>
-      <c r="K187" s="178"/>
-      <c r="L187" s="178"/>
-      <c r="M187" s="178">
+      <c r="H187" s="181"/>
+      <c r="I187" s="181"/>
+      <c r="J187" s="181"/>
+      <c r="K187" s="181"/>
+      <c r="L187" s="181"/>
+      <c r="M187" s="181">
         <f t="shared" ref="M187" si="24">G187+1</f>
         <v>43922</v>
       </c>
-      <c r="N187" s="178"/>
-      <c r="O187" s="178"/>
-      <c r="P187" s="178"/>
-      <c r="Q187" s="178"/>
-      <c r="R187" s="178"/>
-      <c r="S187" s="178">
+      <c r="N187" s="181"/>
+      <c r="O187" s="181"/>
+      <c r="P187" s="181"/>
+      <c r="Q187" s="181"/>
+      <c r="R187" s="181"/>
+      <c r="S187" s="181">
         <f t="shared" ref="S187" si="25">M187+1</f>
         <v>43923</v>
       </c>
-      <c r="T187" s="178"/>
-      <c r="U187" s="178"/>
-      <c r="V187" s="178"/>
-      <c r="W187" s="178"/>
-      <c r="X187" s="178"/>
-      <c r="Y187" s="178">
+      <c r="T187" s="181"/>
+      <c r="U187" s="181"/>
+      <c r="V187" s="181"/>
+      <c r="W187" s="181"/>
+      <c r="X187" s="181"/>
+      <c r="Y187" s="181">
         <f t="shared" ref="Y187" si="26">S187+1</f>
         <v>43924</v>
       </c>
-      <c r="Z187" s="178"/>
-      <c r="AA187" s="178"/>
-      <c r="AB187" s="178"/>
-      <c r="AC187" s="178"/>
-      <c r="AD187" s="178"/>
-    </row>
-    <row r="188" spans="1:30" s="206" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="207"/>
-      <c r="B188" s="208"/>
-      <c r="C188" s="208"/>
-      <c r="D188" s="208"/>
-      <c r="E188" s="208"/>
-      <c r="F188" s="209"/>
-      <c r="G188" s="207"/>
-      <c r="H188" s="208"/>
-      <c r="I188" s="208"/>
-      <c r="J188" s="208"/>
-      <c r="K188" s="208"/>
-      <c r="L188" s="209"/>
-      <c r="M188" s="207"/>
-      <c r="N188" s="208"/>
-      <c r="O188" s="208"/>
-      <c r="P188" s="208"/>
-      <c r="Q188" s="208"/>
-      <c r="R188" s="209"/>
-      <c r="S188" s="207" t="s">
+      <c r="Z187" s="181"/>
+      <c r="AA187" s="181"/>
+      <c r="AB187" s="181"/>
+      <c r="AC187" s="181"/>
+      <c r="AD187" s="181"/>
+    </row>
+    <row r="188" spans="1:30" s="178" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="182"/>
+      <c r="B188" s="183"/>
+      <c r="C188" s="183"/>
+      <c r="D188" s="183"/>
+      <c r="E188" s="183"/>
+      <c r="F188" s="184"/>
+      <c r="G188" s="182"/>
+      <c r="H188" s="183"/>
+      <c r="I188" s="183"/>
+      <c r="J188" s="183"/>
+      <c r="K188" s="183"/>
+      <c r="L188" s="184"/>
+      <c r="M188" s="182"/>
+      <c r="N188" s="183"/>
+      <c r="O188" s="183"/>
+      <c r="P188" s="183"/>
+      <c r="Q188" s="183"/>
+      <c r="R188" s="184"/>
+      <c r="S188" s="182" t="s">
         <v>244</v>
       </c>
-      <c r="T188" s="208"/>
-      <c r="U188" s="208"/>
-      <c r="V188" s="208"/>
-      <c r="W188" s="208"/>
-      <c r="X188" s="209"/>
-      <c r="Y188" s="207"/>
-      <c r="Z188" s="208"/>
-      <c r="AA188" s="208"/>
-      <c r="AB188" s="208"/>
-      <c r="AC188" s="208"/>
-      <c r="AD188" s="209"/>
+      <c r="T188" s="183"/>
+      <c r="U188" s="183"/>
+      <c r="V188" s="183"/>
+      <c r="W188" s="183"/>
+      <c r="X188" s="184"/>
+      <c r="Y188" s="182"/>
+      <c r="Z188" s="183"/>
+      <c r="AA188" s="183"/>
+      <c r="AB188" s="183"/>
+      <c r="AC188" s="183"/>
+      <c r="AD188" s="184"/>
     </row>
     <row r="189" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="87" t="s">
@@ -11477,83 +11481,83 @@
       <c r="AD201" s="93"/>
     </row>
     <row r="202" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="178">
+      <c r="A202" s="181">
         <f>A187+7</f>
         <v>43927</v>
       </c>
-      <c r="B202" s="178"/>
-      <c r="C202" s="178"/>
-      <c r="D202" s="178"/>
-      <c r="E202" s="178"/>
-      <c r="F202" s="178"/>
-      <c r="G202" s="178">
+      <c r="B202" s="181"/>
+      <c r="C202" s="181"/>
+      <c r="D202" s="181"/>
+      <c r="E202" s="181"/>
+      <c r="F202" s="181"/>
+      <c r="G202" s="181">
         <f>A202+1</f>
         <v>43928</v>
       </c>
-      <c r="H202" s="178"/>
-      <c r="I202" s="178"/>
-      <c r="J202" s="178"/>
-      <c r="K202" s="178"/>
-      <c r="L202" s="178"/>
-      <c r="M202" s="178">
+      <c r="H202" s="181"/>
+      <c r="I202" s="181"/>
+      <c r="J202" s="181"/>
+      <c r="K202" s="181"/>
+      <c r="L202" s="181"/>
+      <c r="M202" s="181">
         <f t="shared" ref="M202" si="27">G202+1</f>
         <v>43929</v>
       </c>
-      <c r="N202" s="178"/>
-      <c r="O202" s="178"/>
-      <c r="P202" s="178"/>
-      <c r="Q202" s="178"/>
-      <c r="R202" s="178"/>
-      <c r="S202" s="178">
+      <c r="N202" s="181"/>
+      <c r="O202" s="181"/>
+      <c r="P202" s="181"/>
+      <c r="Q202" s="181"/>
+      <c r="R202" s="181"/>
+      <c r="S202" s="181">
         <f t="shared" ref="S202" si="28">M202+1</f>
         <v>43930</v>
       </c>
-      <c r="T202" s="178"/>
-      <c r="U202" s="178"/>
-      <c r="V202" s="178"/>
-      <c r="W202" s="178"/>
-      <c r="X202" s="178"/>
-      <c r="Y202" s="178">
+      <c r="T202" s="181"/>
+      <c r="U202" s="181"/>
+      <c r="V202" s="181"/>
+      <c r="W202" s="181"/>
+      <c r="X202" s="181"/>
+      <c r="Y202" s="181">
         <f t="shared" ref="Y202" si="29">S202+1</f>
         <v>43931</v>
       </c>
-      <c r="Z202" s="178"/>
-      <c r="AA202" s="178"/>
-      <c r="AB202" s="178"/>
-      <c r="AC202" s="178"/>
-      <c r="AD202" s="178"/>
+      <c r="Z202" s="181"/>
+      <c r="AA202" s="181"/>
+      <c r="AB202" s="181"/>
+      <c r="AC202" s="181"/>
+      <c r="AD202" s="181"/>
     </row>
     <row r="203" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="207"/>
-      <c r="B203" s="208"/>
-      <c r="C203" s="208"/>
-      <c r="D203" s="208"/>
-      <c r="E203" s="208"/>
-      <c r="F203" s="209"/>
-      <c r="G203" s="207"/>
-      <c r="H203" s="208"/>
-      <c r="I203" s="208"/>
-      <c r="J203" s="208"/>
-      <c r="K203" s="208"/>
-      <c r="L203" s="209"/>
-      <c r="M203" s="207"/>
-      <c r="N203" s="208"/>
-      <c r="O203" s="208"/>
-      <c r="P203" s="208"/>
-      <c r="Q203" s="208"/>
-      <c r="R203" s="209"/>
-      <c r="S203" s="207"/>
-      <c r="T203" s="208"/>
-      <c r="U203" s="208"/>
-      <c r="V203" s="208"/>
-      <c r="W203" s="208"/>
-      <c r="X203" s="209"/>
-      <c r="Y203" s="207"/>
-      <c r="Z203" s="208"/>
-      <c r="AA203" s="208"/>
-      <c r="AB203" s="208"/>
-      <c r="AC203" s="208"/>
-      <c r="AD203" s="209"/>
+      <c r="A203" s="182"/>
+      <c r="B203" s="183"/>
+      <c r="C203" s="183"/>
+      <c r="D203" s="183"/>
+      <c r="E203" s="183"/>
+      <c r="F203" s="184"/>
+      <c r="G203" s="182"/>
+      <c r="H203" s="183"/>
+      <c r="I203" s="183"/>
+      <c r="J203" s="183"/>
+      <c r="K203" s="183"/>
+      <c r="L203" s="184"/>
+      <c r="M203" s="182"/>
+      <c r="N203" s="183"/>
+      <c r="O203" s="183"/>
+      <c r="P203" s="183"/>
+      <c r="Q203" s="183"/>
+      <c r="R203" s="184"/>
+      <c r="S203" s="182"/>
+      <c r="T203" s="183"/>
+      <c r="U203" s="183"/>
+      <c r="V203" s="183"/>
+      <c r="W203" s="183"/>
+      <c r="X203" s="184"/>
+      <c r="Y203" s="182"/>
+      <c r="Z203" s="183"/>
+      <c r="AA203" s="183"/>
+      <c r="AB203" s="183"/>
+      <c r="AC203" s="183"/>
+      <c r="AD203" s="184"/>
     </row>
     <row r="204" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="87" t="s">
@@ -12032,83 +12036,83 @@
       <c r="AD216" s="93"/>
     </row>
     <row r="217" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="178">
+      <c r="A217" s="181">
         <f>A202+7</f>
         <v>43934</v>
       </c>
-      <c r="B217" s="178"/>
-      <c r="C217" s="178"/>
-      <c r="D217" s="178"/>
-      <c r="E217" s="178"/>
-      <c r="F217" s="178"/>
-      <c r="G217" s="178">
+      <c r="B217" s="181"/>
+      <c r="C217" s="181"/>
+      <c r="D217" s="181"/>
+      <c r="E217" s="181"/>
+      <c r="F217" s="181"/>
+      <c r="G217" s="181">
         <f>A217+1</f>
         <v>43935</v>
       </c>
-      <c r="H217" s="178"/>
-      <c r="I217" s="178"/>
-      <c r="J217" s="178"/>
-      <c r="K217" s="178"/>
-      <c r="L217" s="178"/>
-      <c r="M217" s="178">
+      <c r="H217" s="181"/>
+      <c r="I217" s="181"/>
+      <c r="J217" s="181"/>
+      <c r="K217" s="181"/>
+      <c r="L217" s="181"/>
+      <c r="M217" s="181">
         <f t="shared" ref="M217" si="30">G217+1</f>
         <v>43936</v>
       </c>
-      <c r="N217" s="178"/>
-      <c r="O217" s="178"/>
-      <c r="P217" s="178"/>
-      <c r="Q217" s="178"/>
-      <c r="R217" s="178"/>
-      <c r="S217" s="178">
+      <c r="N217" s="181"/>
+      <c r="O217" s="181"/>
+      <c r="P217" s="181"/>
+      <c r="Q217" s="181"/>
+      <c r="R217" s="181"/>
+      <c r="S217" s="181">
         <f t="shared" ref="S217" si="31">M217+1</f>
         <v>43937</v>
       </c>
-      <c r="T217" s="178"/>
-      <c r="U217" s="178"/>
-      <c r="V217" s="178"/>
-      <c r="W217" s="178"/>
-      <c r="X217" s="178"/>
-      <c r="Y217" s="178">
+      <c r="T217" s="181"/>
+      <c r="U217" s="181"/>
+      <c r="V217" s="181"/>
+      <c r="W217" s="181"/>
+      <c r="X217" s="181"/>
+      <c r="Y217" s="181">
         <f t="shared" ref="Y217" si="32">S217+1</f>
         <v>43938</v>
       </c>
-      <c r="Z217" s="178"/>
-      <c r="AA217" s="178"/>
-      <c r="AB217" s="178"/>
-      <c r="AC217" s="178"/>
-      <c r="AD217" s="178"/>
+      <c r="Z217" s="181"/>
+      <c r="AA217" s="181"/>
+      <c r="AB217" s="181"/>
+      <c r="AC217" s="181"/>
+      <c r="AD217" s="181"/>
     </row>
     <row r="218" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="207"/>
-      <c r="B218" s="208"/>
-      <c r="C218" s="208"/>
-      <c r="D218" s="208"/>
-      <c r="E218" s="208"/>
-      <c r="F218" s="209"/>
-      <c r="G218" s="207"/>
-      <c r="H218" s="208"/>
-      <c r="I218" s="208"/>
-      <c r="J218" s="208"/>
-      <c r="K218" s="208"/>
-      <c r="L218" s="209"/>
-      <c r="M218" s="207"/>
-      <c r="N218" s="208"/>
-      <c r="O218" s="208"/>
-      <c r="P218" s="208"/>
-      <c r="Q218" s="208"/>
-      <c r="R218" s="209"/>
-      <c r="S218" s="207"/>
-      <c r="T218" s="208"/>
-      <c r="U218" s="208"/>
-      <c r="V218" s="208"/>
-      <c r="W218" s="208"/>
-      <c r="X218" s="209"/>
-      <c r="Y218" s="207"/>
-      <c r="Z218" s="208"/>
-      <c r="AA218" s="208"/>
-      <c r="AB218" s="208"/>
-      <c r="AC218" s="208"/>
-      <c r="AD218" s="209"/>
+      <c r="A218" s="182"/>
+      <c r="B218" s="183"/>
+      <c r="C218" s="183"/>
+      <c r="D218" s="183"/>
+      <c r="E218" s="183"/>
+      <c r="F218" s="184"/>
+      <c r="G218" s="182"/>
+      <c r="H218" s="183"/>
+      <c r="I218" s="183"/>
+      <c r="J218" s="183"/>
+      <c r="K218" s="183"/>
+      <c r="L218" s="184"/>
+      <c r="M218" s="182"/>
+      <c r="N218" s="183"/>
+      <c r="O218" s="183"/>
+      <c r="P218" s="183"/>
+      <c r="Q218" s="183"/>
+      <c r="R218" s="184"/>
+      <c r="S218" s="182"/>
+      <c r="T218" s="183"/>
+      <c r="U218" s="183"/>
+      <c r="V218" s="183"/>
+      <c r="W218" s="183"/>
+      <c r="X218" s="184"/>
+      <c r="Y218" s="182"/>
+      <c r="Z218" s="183"/>
+      <c r="AA218" s="183"/>
+      <c r="AB218" s="183"/>
+      <c r="AC218" s="183"/>
+      <c r="AD218" s="184"/>
     </row>
     <row r="219" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="87" t="s">
@@ -12587,83 +12591,83 @@
       <c r="AD231" s="93"/>
     </row>
     <row r="232" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="178">
+      <c r="A232" s="181">
         <f t="shared" ref="A232" si="33">A217+7</f>
         <v>43941</v>
       </c>
-      <c r="B232" s="178"/>
-      <c r="C232" s="178"/>
-      <c r="D232" s="178"/>
-      <c r="E232" s="178"/>
-      <c r="F232" s="178"/>
-      <c r="G232" s="178">
+      <c r="B232" s="181"/>
+      <c r="C232" s="181"/>
+      <c r="D232" s="181"/>
+      <c r="E232" s="181"/>
+      <c r="F232" s="181"/>
+      <c r="G232" s="181">
         <f t="shared" ref="G232" si="34">A232+1</f>
         <v>43942</v>
       </c>
-      <c r="H232" s="178"/>
-      <c r="I232" s="178"/>
-      <c r="J232" s="178"/>
-      <c r="K232" s="178"/>
-      <c r="L232" s="178"/>
-      <c r="M232" s="178">
+      <c r="H232" s="181"/>
+      <c r="I232" s="181"/>
+      <c r="J232" s="181"/>
+      <c r="K232" s="181"/>
+      <c r="L232" s="181"/>
+      <c r="M232" s="181">
         <f t="shared" ref="M232" si="35">G232+1</f>
         <v>43943</v>
       </c>
-      <c r="N232" s="178"/>
-      <c r="O232" s="178"/>
-      <c r="P232" s="178"/>
-      <c r="Q232" s="178"/>
-      <c r="R232" s="178"/>
-      <c r="S232" s="178">
+      <c r="N232" s="181"/>
+      <c r="O232" s="181"/>
+      <c r="P232" s="181"/>
+      <c r="Q232" s="181"/>
+      <c r="R232" s="181"/>
+      <c r="S232" s="181">
         <f t="shared" ref="S232" si="36">M232+1</f>
         <v>43944</v>
       </c>
-      <c r="T232" s="178"/>
-      <c r="U232" s="178"/>
-      <c r="V232" s="178"/>
-      <c r="W232" s="178"/>
-      <c r="X232" s="178"/>
-      <c r="Y232" s="178">
+      <c r="T232" s="181"/>
+      <c r="U232" s="181"/>
+      <c r="V232" s="181"/>
+      <c r="W232" s="181"/>
+      <c r="X232" s="181"/>
+      <c r="Y232" s="181">
         <f t="shared" ref="Y232" si="37">S232+1</f>
         <v>43945</v>
       </c>
-      <c r="Z232" s="178"/>
-      <c r="AA232" s="178"/>
-      <c r="AB232" s="178"/>
-      <c r="AC232" s="178"/>
-      <c r="AD232" s="178"/>
+      <c r="Z232" s="181"/>
+      <c r="AA232" s="181"/>
+      <c r="AB232" s="181"/>
+      <c r="AC232" s="181"/>
+      <c r="AD232" s="181"/>
     </row>
     <row r="233" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="207"/>
-      <c r="B233" s="208"/>
-      <c r="C233" s="208"/>
-      <c r="D233" s="208"/>
-      <c r="E233" s="208"/>
-      <c r="F233" s="209"/>
-      <c r="G233" s="207"/>
-      <c r="H233" s="208"/>
-      <c r="I233" s="208"/>
-      <c r="J233" s="208"/>
-      <c r="K233" s="208"/>
-      <c r="L233" s="209"/>
-      <c r="M233" s="207"/>
-      <c r="N233" s="208"/>
-      <c r="O233" s="208"/>
-      <c r="P233" s="208"/>
-      <c r="Q233" s="208"/>
-      <c r="R233" s="209"/>
-      <c r="S233" s="207"/>
-      <c r="T233" s="208"/>
-      <c r="U233" s="208"/>
-      <c r="V233" s="208"/>
-      <c r="W233" s="208"/>
-      <c r="X233" s="209"/>
-      <c r="Y233" s="207"/>
-      <c r="Z233" s="208"/>
-      <c r="AA233" s="208"/>
-      <c r="AB233" s="208"/>
-      <c r="AC233" s="208"/>
-      <c r="AD233" s="209"/>
+      <c r="A233" s="182"/>
+      <c r="B233" s="183"/>
+      <c r="C233" s="183"/>
+      <c r="D233" s="183"/>
+      <c r="E233" s="183"/>
+      <c r="F233" s="184"/>
+      <c r="G233" s="182"/>
+      <c r="H233" s="183"/>
+      <c r="I233" s="183"/>
+      <c r="J233" s="183"/>
+      <c r="K233" s="183"/>
+      <c r="L233" s="184"/>
+      <c r="M233" s="182"/>
+      <c r="N233" s="183"/>
+      <c r="O233" s="183"/>
+      <c r="P233" s="183"/>
+      <c r="Q233" s="183"/>
+      <c r="R233" s="184"/>
+      <c r="S233" s="182"/>
+      <c r="T233" s="183"/>
+      <c r="U233" s="183"/>
+      <c r="V233" s="183"/>
+      <c r="W233" s="183"/>
+      <c r="X233" s="184"/>
+      <c r="Y233" s="182"/>
+      <c r="Z233" s="183"/>
+      <c r="AA233" s="183"/>
+      <c r="AB233" s="183"/>
+      <c r="AC233" s="183"/>
+      <c r="AD233" s="184"/>
     </row>
     <row r="234" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="87" t="s">
@@ -13142,83 +13146,83 @@
       <c r="AD246" s="93"/>
     </row>
     <row r="247" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A247" s="178">
+      <c r="A247" s="181">
         <f t="shared" ref="A247" si="38">A232+7</f>
         <v>43948</v>
       </c>
-      <c r="B247" s="178"/>
-      <c r="C247" s="178"/>
-      <c r="D247" s="178"/>
-      <c r="E247" s="178"/>
-      <c r="F247" s="178"/>
-      <c r="G247" s="178">
+      <c r="B247" s="181"/>
+      <c r="C247" s="181"/>
+      <c r="D247" s="181"/>
+      <c r="E247" s="181"/>
+      <c r="F247" s="181"/>
+      <c r="G247" s="181">
         <f t="shared" ref="G247" si="39">A247+1</f>
         <v>43949</v>
       </c>
-      <c r="H247" s="178"/>
-      <c r="I247" s="178"/>
-      <c r="J247" s="178"/>
-      <c r="K247" s="178"/>
-      <c r="L247" s="178"/>
-      <c r="M247" s="178">
+      <c r="H247" s="181"/>
+      <c r="I247" s="181"/>
+      <c r="J247" s="181"/>
+      <c r="K247" s="181"/>
+      <c r="L247" s="181"/>
+      <c r="M247" s="181">
         <f t="shared" ref="M247" si="40">G247+1</f>
         <v>43950</v>
       </c>
-      <c r="N247" s="178"/>
-      <c r="O247" s="178"/>
-      <c r="P247" s="178"/>
-      <c r="Q247" s="178"/>
-      <c r="R247" s="178"/>
-      <c r="S247" s="178">
+      <c r="N247" s="181"/>
+      <c r="O247" s="181"/>
+      <c r="P247" s="181"/>
+      <c r="Q247" s="181"/>
+      <c r="R247" s="181"/>
+      <c r="S247" s="181">
         <f t="shared" ref="S247" si="41">M247+1</f>
         <v>43951</v>
       </c>
-      <c r="T247" s="178"/>
-      <c r="U247" s="178"/>
-      <c r="V247" s="178"/>
-      <c r="W247" s="178"/>
-      <c r="X247" s="178"/>
-      <c r="Y247" s="178">
+      <c r="T247" s="181"/>
+      <c r="U247" s="181"/>
+      <c r="V247" s="181"/>
+      <c r="W247" s="181"/>
+      <c r="X247" s="181"/>
+      <c r="Y247" s="181">
         <f t="shared" ref="Y247" si="42">S247+1</f>
         <v>43952</v>
       </c>
-      <c r="Z247" s="178"/>
-      <c r="AA247" s="178"/>
-      <c r="AB247" s="178"/>
-      <c r="AC247" s="178"/>
-      <c r="AD247" s="178"/>
+      <c r="Z247" s="181"/>
+      <c r="AA247" s="181"/>
+      <c r="AB247" s="181"/>
+      <c r="AC247" s="181"/>
+      <c r="AD247" s="181"/>
     </row>
     <row r="248" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="207"/>
-      <c r="B248" s="208"/>
-      <c r="C248" s="208"/>
-      <c r="D248" s="208"/>
-      <c r="E248" s="208"/>
-      <c r="F248" s="209"/>
-      <c r="G248" s="207"/>
-      <c r="H248" s="208"/>
-      <c r="I248" s="208"/>
-      <c r="J248" s="208"/>
-      <c r="K248" s="208"/>
-      <c r="L248" s="209"/>
-      <c r="M248" s="207"/>
-      <c r="N248" s="208"/>
-      <c r="O248" s="208"/>
-      <c r="P248" s="208"/>
-      <c r="Q248" s="208"/>
-      <c r="R248" s="209"/>
-      <c r="S248" s="207"/>
-      <c r="T248" s="208"/>
-      <c r="U248" s="208"/>
-      <c r="V248" s="208"/>
-      <c r="W248" s="208"/>
-      <c r="X248" s="209"/>
-      <c r="Y248" s="207"/>
-      <c r="Z248" s="208"/>
-      <c r="AA248" s="208"/>
-      <c r="AB248" s="208"/>
-      <c r="AC248" s="208"/>
-      <c r="AD248" s="209"/>
+      <c r="A248" s="182"/>
+      <c r="B248" s="183"/>
+      <c r="C248" s="183"/>
+      <c r="D248" s="183"/>
+      <c r="E248" s="183"/>
+      <c r="F248" s="184"/>
+      <c r="G248" s="182"/>
+      <c r="H248" s="183"/>
+      <c r="I248" s="183"/>
+      <c r="J248" s="183"/>
+      <c r="K248" s="183"/>
+      <c r="L248" s="184"/>
+      <c r="M248" s="182"/>
+      <c r="N248" s="183"/>
+      <c r="O248" s="183"/>
+      <c r="P248" s="183"/>
+      <c r="Q248" s="183"/>
+      <c r="R248" s="184"/>
+      <c r="S248" s="182"/>
+      <c r="T248" s="183"/>
+      <c r="U248" s="183"/>
+      <c r="V248" s="183"/>
+      <c r="W248" s="183"/>
+      <c r="X248" s="184"/>
+      <c r="Y248" s="182"/>
+      <c r="Z248" s="183"/>
+      <c r="AA248" s="183"/>
+      <c r="AB248" s="183"/>
+      <c r="AC248" s="183"/>
+      <c r="AD248" s="184"/>
     </row>
     <row r="249" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="87" t="s">
@@ -13697,83 +13701,83 @@
       <c r="AD261" s="93"/>
     </row>
     <row r="262" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A262" s="178">
+      <c r="A262" s="181">
         <f t="shared" ref="A262" si="43">A247+7</f>
         <v>43955</v>
       </c>
-      <c r="B262" s="178"/>
-      <c r="C262" s="178"/>
-      <c r="D262" s="178"/>
-      <c r="E262" s="178"/>
-      <c r="F262" s="178"/>
-      <c r="G262" s="178">
+      <c r="B262" s="181"/>
+      <c r="C262" s="181"/>
+      <c r="D262" s="181"/>
+      <c r="E262" s="181"/>
+      <c r="F262" s="181"/>
+      <c r="G262" s="181">
         <f t="shared" ref="G262" si="44">A262+1</f>
         <v>43956</v>
       </c>
-      <c r="H262" s="178"/>
-      <c r="I262" s="178"/>
-      <c r="J262" s="178"/>
-      <c r="K262" s="178"/>
-      <c r="L262" s="178"/>
-      <c r="M262" s="178">
+      <c r="H262" s="181"/>
+      <c r="I262" s="181"/>
+      <c r="J262" s="181"/>
+      <c r="K262" s="181"/>
+      <c r="L262" s="181"/>
+      <c r="M262" s="181">
         <f t="shared" ref="M262" si="45">G262+1</f>
         <v>43957</v>
       </c>
-      <c r="N262" s="178"/>
-      <c r="O262" s="178"/>
-      <c r="P262" s="178"/>
-      <c r="Q262" s="178"/>
-      <c r="R262" s="178"/>
-      <c r="S262" s="178">
+      <c r="N262" s="181"/>
+      <c r="O262" s="181"/>
+      <c r="P262" s="181"/>
+      <c r="Q262" s="181"/>
+      <c r="R262" s="181"/>
+      <c r="S262" s="181">
         <f t="shared" ref="S262" si="46">M262+1</f>
         <v>43958</v>
       </c>
-      <c r="T262" s="178"/>
-      <c r="U262" s="178"/>
-      <c r="V262" s="178"/>
-      <c r="W262" s="178"/>
-      <c r="X262" s="178"/>
-      <c r="Y262" s="178">
+      <c r="T262" s="181"/>
+      <c r="U262" s="181"/>
+      <c r="V262" s="181"/>
+      <c r="W262" s="181"/>
+      <c r="X262" s="181"/>
+      <c r="Y262" s="181">
         <f t="shared" ref="Y262" si="47">S262+1</f>
         <v>43959</v>
       </c>
-      <c r="Z262" s="178"/>
-      <c r="AA262" s="178"/>
-      <c r="AB262" s="178"/>
-      <c r="AC262" s="178"/>
-      <c r="AD262" s="178"/>
+      <c r="Z262" s="181"/>
+      <c r="AA262" s="181"/>
+      <c r="AB262" s="181"/>
+      <c r="AC262" s="181"/>
+      <c r="AD262" s="181"/>
     </row>
     <row r="263" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A263" s="207"/>
-      <c r="B263" s="208"/>
-      <c r="C263" s="208"/>
-      <c r="D263" s="208"/>
-      <c r="E263" s="208"/>
-      <c r="F263" s="209"/>
-      <c r="G263" s="207"/>
-      <c r="H263" s="208"/>
-      <c r="I263" s="208"/>
-      <c r="J263" s="208"/>
-      <c r="K263" s="208"/>
-      <c r="L263" s="209"/>
-      <c r="M263" s="207"/>
-      <c r="N263" s="208"/>
-      <c r="O263" s="208"/>
-      <c r="P263" s="208"/>
-      <c r="Q263" s="208"/>
-      <c r="R263" s="209"/>
-      <c r="S263" s="207"/>
-      <c r="T263" s="208"/>
-      <c r="U263" s="208"/>
-      <c r="V263" s="208"/>
-      <c r="W263" s="208"/>
-      <c r="X263" s="209"/>
-      <c r="Y263" s="207"/>
-      <c r="Z263" s="208"/>
-      <c r="AA263" s="208"/>
-      <c r="AB263" s="208"/>
-      <c r="AC263" s="208"/>
-      <c r="AD263" s="209"/>
+      <c r="A263" s="182"/>
+      <c r="B263" s="183"/>
+      <c r="C263" s="183"/>
+      <c r="D263" s="183"/>
+      <c r="E263" s="183"/>
+      <c r="F263" s="184"/>
+      <c r="G263" s="182"/>
+      <c r="H263" s="183"/>
+      <c r="I263" s="183"/>
+      <c r="J263" s="183"/>
+      <c r="K263" s="183"/>
+      <c r="L263" s="184"/>
+      <c r="M263" s="182"/>
+      <c r="N263" s="183"/>
+      <c r="O263" s="183"/>
+      <c r="P263" s="183"/>
+      <c r="Q263" s="183"/>
+      <c r="R263" s="184"/>
+      <c r="S263" s="182"/>
+      <c r="T263" s="183"/>
+      <c r="U263" s="183"/>
+      <c r="V263" s="183"/>
+      <c r="W263" s="183"/>
+      <c r="X263" s="184"/>
+      <c r="Y263" s="182"/>
+      <c r="Z263" s="183"/>
+      <c r="AA263" s="183"/>
+      <c r="AB263" s="183"/>
+      <c r="AC263" s="183"/>
+      <c r="AD263" s="184"/>
     </row>
     <row r="264" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="87" t="s">
@@ -14252,83 +14256,83 @@
       <c r="AD276" s="93"/>
     </row>
     <row r="277" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A277" s="178">
+      <c r="A277" s="181">
         <f t="shared" ref="A277" si="48">A262+7</f>
         <v>43962</v>
       </c>
-      <c r="B277" s="178"/>
-      <c r="C277" s="178"/>
-      <c r="D277" s="178"/>
-      <c r="E277" s="178"/>
-      <c r="F277" s="178"/>
-      <c r="G277" s="178">
+      <c r="B277" s="181"/>
+      <c r="C277" s="181"/>
+      <c r="D277" s="181"/>
+      <c r="E277" s="181"/>
+      <c r="F277" s="181"/>
+      <c r="G277" s="181">
         <f t="shared" ref="G277" si="49">A277+1</f>
         <v>43963</v>
       </c>
-      <c r="H277" s="178"/>
-      <c r="I277" s="178"/>
-      <c r="J277" s="178"/>
-      <c r="K277" s="178"/>
-      <c r="L277" s="178"/>
-      <c r="M277" s="178">
+      <c r="H277" s="181"/>
+      <c r="I277" s="181"/>
+      <c r="J277" s="181"/>
+      <c r="K277" s="181"/>
+      <c r="L277" s="181"/>
+      <c r="M277" s="181">
         <f t="shared" ref="M277" si="50">G277+1</f>
         <v>43964</v>
       </c>
-      <c r="N277" s="178"/>
-      <c r="O277" s="178"/>
-      <c r="P277" s="178"/>
-      <c r="Q277" s="178"/>
-      <c r="R277" s="178"/>
-      <c r="S277" s="178">
+      <c r="N277" s="181"/>
+      <c r="O277" s="181"/>
+      <c r="P277" s="181"/>
+      <c r="Q277" s="181"/>
+      <c r="R277" s="181"/>
+      <c r="S277" s="181">
         <f t="shared" ref="S277" si="51">M277+1</f>
         <v>43965</v>
       </c>
-      <c r="T277" s="178"/>
-      <c r="U277" s="178"/>
-      <c r="V277" s="178"/>
-      <c r="W277" s="178"/>
-      <c r="X277" s="178"/>
-      <c r="Y277" s="178">
+      <c r="T277" s="181"/>
+      <c r="U277" s="181"/>
+      <c r="V277" s="181"/>
+      <c r="W277" s="181"/>
+      <c r="X277" s="181"/>
+      <c r="Y277" s="181">
         <f t="shared" ref="Y277" si="52">S277+1</f>
         <v>43966</v>
       </c>
-      <c r="Z277" s="178"/>
-      <c r="AA277" s="178"/>
-      <c r="AB277" s="178"/>
-      <c r="AC277" s="178"/>
-      <c r="AD277" s="178"/>
+      <c r="Z277" s="181"/>
+      <c r="AA277" s="181"/>
+      <c r="AB277" s="181"/>
+      <c r="AC277" s="181"/>
+      <c r="AD277" s="181"/>
     </row>
     <row r="278" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A278" s="207"/>
-      <c r="B278" s="208"/>
-      <c r="C278" s="208"/>
-      <c r="D278" s="208"/>
-      <c r="E278" s="208"/>
-      <c r="F278" s="209"/>
-      <c r="G278" s="207"/>
-      <c r="H278" s="208"/>
-      <c r="I278" s="208"/>
-      <c r="J278" s="208"/>
-      <c r="K278" s="208"/>
-      <c r="L278" s="209"/>
-      <c r="M278" s="207"/>
-      <c r="N278" s="208"/>
-      <c r="O278" s="208"/>
-      <c r="P278" s="208"/>
-      <c r="Q278" s="208"/>
-      <c r="R278" s="209"/>
-      <c r="S278" s="207"/>
-      <c r="T278" s="208"/>
-      <c r="U278" s="208"/>
-      <c r="V278" s="208"/>
-      <c r="W278" s="208"/>
-      <c r="X278" s="209"/>
-      <c r="Y278" s="207"/>
-      <c r="Z278" s="208"/>
-      <c r="AA278" s="208"/>
-      <c r="AB278" s="208"/>
-      <c r="AC278" s="208"/>
-      <c r="AD278" s="209"/>
+      <c r="A278" s="182"/>
+      <c r="B278" s="183"/>
+      <c r="C278" s="183"/>
+      <c r="D278" s="183"/>
+      <c r="E278" s="183"/>
+      <c r="F278" s="184"/>
+      <c r="G278" s="182"/>
+      <c r="H278" s="183"/>
+      <c r="I278" s="183"/>
+      <c r="J278" s="183"/>
+      <c r="K278" s="183"/>
+      <c r="L278" s="184"/>
+      <c r="M278" s="182"/>
+      <c r="N278" s="183"/>
+      <c r="O278" s="183"/>
+      <c r="P278" s="183"/>
+      <c r="Q278" s="183"/>
+      <c r="R278" s="184"/>
+      <c r="S278" s="182"/>
+      <c r="T278" s="183"/>
+      <c r="U278" s="183"/>
+      <c r="V278" s="183"/>
+      <c r="W278" s="183"/>
+      <c r="X278" s="184"/>
+      <c r="Y278" s="182"/>
+      <c r="Z278" s="183"/>
+      <c r="AA278" s="183"/>
+      <c r="AB278" s="183"/>
+      <c r="AC278" s="183"/>
+      <c r="AD278" s="184"/>
     </row>
     <row r="279" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="87" t="s">
@@ -14807,83 +14811,83 @@
       <c r="AD291" s="93"/>
     </row>
     <row r="292" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A292" s="178">
+      <c r="A292" s="181">
         <f t="shared" ref="A292" si="53">A277+7</f>
         <v>43969</v>
       </c>
-      <c r="B292" s="178"/>
-      <c r="C292" s="178"/>
-      <c r="D292" s="178"/>
-      <c r="E292" s="178"/>
-      <c r="F292" s="178"/>
-      <c r="G292" s="178">
+      <c r="B292" s="181"/>
+      <c r="C292" s="181"/>
+      <c r="D292" s="181"/>
+      <c r="E292" s="181"/>
+      <c r="F292" s="181"/>
+      <c r="G292" s="181">
         <f t="shared" ref="G292" si="54">A292+1</f>
         <v>43970</v>
       </c>
-      <c r="H292" s="178"/>
-      <c r="I292" s="178"/>
-      <c r="J292" s="178"/>
-      <c r="K292" s="178"/>
-      <c r="L292" s="178"/>
-      <c r="M292" s="178">
+      <c r="H292" s="181"/>
+      <c r="I292" s="181"/>
+      <c r="J292" s="181"/>
+      <c r="K292" s="181"/>
+      <c r="L292" s="181"/>
+      <c r="M292" s="181">
         <f t="shared" ref="M292" si="55">G292+1</f>
         <v>43971</v>
       </c>
-      <c r="N292" s="178"/>
-      <c r="O292" s="178"/>
-      <c r="P292" s="178"/>
-      <c r="Q292" s="178"/>
-      <c r="R292" s="178"/>
-      <c r="S292" s="178">
+      <c r="N292" s="181"/>
+      <c r="O292" s="181"/>
+      <c r="P292" s="181"/>
+      <c r="Q292" s="181"/>
+      <c r="R292" s="181"/>
+      <c r="S292" s="181">
         <f t="shared" ref="S292" si="56">M292+1</f>
         <v>43972</v>
       </c>
-      <c r="T292" s="178"/>
-      <c r="U292" s="178"/>
-      <c r="V292" s="178"/>
-      <c r="W292" s="178"/>
-      <c r="X292" s="178"/>
-      <c r="Y292" s="178">
+      <c r="T292" s="181"/>
+      <c r="U292" s="181"/>
+      <c r="V292" s="181"/>
+      <c r="W292" s="181"/>
+      <c r="X292" s="181"/>
+      <c r="Y292" s="181">
         <f t="shared" ref="Y292" si="57">S292+1</f>
         <v>43973</v>
       </c>
-      <c r="Z292" s="178"/>
-      <c r="AA292" s="178"/>
-      <c r="AB292" s="178"/>
-      <c r="AC292" s="178"/>
-      <c r="AD292" s="178"/>
+      <c r="Z292" s="181"/>
+      <c r="AA292" s="181"/>
+      <c r="AB292" s="181"/>
+      <c r="AC292" s="181"/>
+      <c r="AD292" s="181"/>
     </row>
     <row r="293" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A293" s="207"/>
-      <c r="B293" s="208"/>
-      <c r="C293" s="208"/>
-      <c r="D293" s="208"/>
-      <c r="E293" s="208"/>
-      <c r="F293" s="209"/>
-      <c r="G293" s="207"/>
-      <c r="H293" s="208"/>
-      <c r="I293" s="208"/>
-      <c r="J293" s="208"/>
-      <c r="K293" s="208"/>
-      <c r="L293" s="209"/>
-      <c r="M293" s="207"/>
-      <c r="N293" s="208"/>
-      <c r="O293" s="208"/>
-      <c r="P293" s="208"/>
-      <c r="Q293" s="208"/>
-      <c r="R293" s="209"/>
-      <c r="S293" s="207"/>
-      <c r="T293" s="208"/>
-      <c r="U293" s="208"/>
-      <c r="V293" s="208"/>
-      <c r="W293" s="208"/>
-      <c r="X293" s="209"/>
-      <c r="Y293" s="207"/>
-      <c r="Z293" s="208"/>
-      <c r="AA293" s="208"/>
-      <c r="AB293" s="208"/>
-      <c r="AC293" s="208"/>
-      <c r="AD293" s="209"/>
+      <c r="A293" s="182"/>
+      <c r="B293" s="183"/>
+      <c r="C293" s="183"/>
+      <c r="D293" s="183"/>
+      <c r="E293" s="183"/>
+      <c r="F293" s="184"/>
+      <c r="G293" s="182"/>
+      <c r="H293" s="183"/>
+      <c r="I293" s="183"/>
+      <c r="J293" s="183"/>
+      <c r="K293" s="183"/>
+      <c r="L293" s="184"/>
+      <c r="M293" s="182"/>
+      <c r="N293" s="183"/>
+      <c r="O293" s="183"/>
+      <c r="P293" s="183"/>
+      <c r="Q293" s="183"/>
+      <c r="R293" s="184"/>
+      <c r="S293" s="182"/>
+      <c r="T293" s="183"/>
+      <c r="U293" s="183"/>
+      <c r="V293" s="183"/>
+      <c r="W293" s="183"/>
+      <c r="X293" s="184"/>
+      <c r="Y293" s="182"/>
+      <c r="Z293" s="183"/>
+      <c r="AA293" s="183"/>
+      <c r="AB293" s="183"/>
+      <c r="AC293" s="183"/>
+      <c r="AD293" s="184"/>
     </row>
     <row r="294" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="87" t="s">
@@ -15362,83 +15366,83 @@
       <c r="AD306" s="93"/>
     </row>
     <row r="307" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A307" s="178">
+      <c r="A307" s="181">
         <f t="shared" ref="A307" si="58">A292+7</f>
         <v>43976</v>
       </c>
-      <c r="B307" s="178"/>
-      <c r="C307" s="178"/>
-      <c r="D307" s="178"/>
-      <c r="E307" s="178"/>
-      <c r="F307" s="178"/>
-      <c r="G307" s="178">
+      <c r="B307" s="181"/>
+      <c r="C307" s="181"/>
+      <c r="D307" s="181"/>
+      <c r="E307" s="181"/>
+      <c r="F307" s="181"/>
+      <c r="G307" s="181">
         <f t="shared" ref="G307" si="59">A307+1</f>
         <v>43977</v>
       </c>
-      <c r="H307" s="178"/>
-      <c r="I307" s="178"/>
-      <c r="J307" s="178"/>
-      <c r="K307" s="178"/>
-      <c r="L307" s="178"/>
-      <c r="M307" s="178">
+      <c r="H307" s="181"/>
+      <c r="I307" s="181"/>
+      <c r="J307" s="181"/>
+      <c r="K307" s="181"/>
+      <c r="L307" s="181"/>
+      <c r="M307" s="181">
         <f t="shared" ref="M307" si="60">G307+1</f>
         <v>43978</v>
       </c>
-      <c r="N307" s="178"/>
-      <c r="O307" s="178"/>
-      <c r="P307" s="178"/>
-      <c r="Q307" s="178"/>
-      <c r="R307" s="178"/>
-      <c r="S307" s="178">
+      <c r="N307" s="181"/>
+      <c r="O307" s="181"/>
+      <c r="P307" s="181"/>
+      <c r="Q307" s="181"/>
+      <c r="R307" s="181"/>
+      <c r="S307" s="181">
         <f t="shared" ref="S307" si="61">M307+1</f>
         <v>43979</v>
       </c>
-      <c r="T307" s="178"/>
-      <c r="U307" s="178"/>
-      <c r="V307" s="178"/>
-      <c r="W307" s="178"/>
-      <c r="X307" s="178"/>
-      <c r="Y307" s="178">
+      <c r="T307" s="181"/>
+      <c r="U307" s="181"/>
+      <c r="V307" s="181"/>
+      <c r="W307" s="181"/>
+      <c r="X307" s="181"/>
+      <c r="Y307" s="181">
         <f t="shared" ref="Y307" si="62">S307+1</f>
         <v>43980</v>
       </c>
-      <c r="Z307" s="178"/>
-      <c r="AA307" s="178"/>
-      <c r="AB307" s="178"/>
-      <c r="AC307" s="178"/>
-      <c r="AD307" s="178"/>
+      <c r="Z307" s="181"/>
+      <c r="AA307" s="181"/>
+      <c r="AB307" s="181"/>
+      <c r="AC307" s="181"/>
+      <c r="AD307" s="181"/>
     </row>
     <row r="308" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A308" s="207"/>
-      <c r="B308" s="208"/>
-      <c r="C308" s="208"/>
-      <c r="D308" s="208"/>
-      <c r="E308" s="208"/>
-      <c r="F308" s="209"/>
-      <c r="G308" s="207"/>
-      <c r="H308" s="208"/>
-      <c r="I308" s="208"/>
-      <c r="J308" s="208"/>
-      <c r="K308" s="208"/>
-      <c r="L308" s="209"/>
-      <c r="M308" s="207"/>
-      <c r="N308" s="208"/>
-      <c r="O308" s="208"/>
-      <c r="P308" s="208"/>
-      <c r="Q308" s="208"/>
-      <c r="R308" s="209"/>
-      <c r="S308" s="207"/>
-      <c r="T308" s="208"/>
-      <c r="U308" s="208"/>
-      <c r="V308" s="208"/>
-      <c r="W308" s="208"/>
-      <c r="X308" s="209"/>
-      <c r="Y308" s="207"/>
-      <c r="Z308" s="208"/>
-      <c r="AA308" s="208"/>
-      <c r="AB308" s="208"/>
-      <c r="AC308" s="208"/>
-      <c r="AD308" s="209"/>
+      <c r="A308" s="182"/>
+      <c r="B308" s="183"/>
+      <c r="C308" s="183"/>
+      <c r="D308" s="183"/>
+      <c r="E308" s="183"/>
+      <c r="F308" s="184"/>
+      <c r="G308" s="182"/>
+      <c r="H308" s="183"/>
+      <c r="I308" s="183"/>
+      <c r="J308" s="183"/>
+      <c r="K308" s="183"/>
+      <c r="L308" s="184"/>
+      <c r="M308" s="182"/>
+      <c r="N308" s="183"/>
+      <c r="O308" s="183"/>
+      <c r="P308" s="183"/>
+      <c r="Q308" s="183"/>
+      <c r="R308" s="184"/>
+      <c r="S308" s="182"/>
+      <c r="T308" s="183"/>
+      <c r="U308" s="183"/>
+      <c r="V308" s="183"/>
+      <c r="W308" s="183"/>
+      <c r="X308" s="184"/>
+      <c r="Y308" s="182"/>
+      <c r="Z308" s="183"/>
+      <c r="AA308" s="183"/>
+      <c r="AB308" s="183"/>
+      <c r="AC308" s="183"/>
+      <c r="AD308" s="184"/>
     </row>
     <row r="309" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="87" t="s">
@@ -15917,83 +15921,83 @@
       <c r="AD321" s="93"/>
     </row>
     <row r="322" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A322" s="178">
+      <c r="A322" s="181">
         <f t="shared" ref="A322" si="63">A307+7</f>
         <v>43983</v>
       </c>
-      <c r="B322" s="178"/>
-      <c r="C322" s="178"/>
-      <c r="D322" s="178"/>
-      <c r="E322" s="178"/>
-      <c r="F322" s="178"/>
-      <c r="G322" s="178">
+      <c r="B322" s="181"/>
+      <c r="C322" s="181"/>
+      <c r="D322" s="181"/>
+      <c r="E322" s="181"/>
+      <c r="F322" s="181"/>
+      <c r="G322" s="181">
         <f t="shared" ref="G322" si="64">A322+1</f>
         <v>43984</v>
       </c>
-      <c r="H322" s="178"/>
-      <c r="I322" s="178"/>
-      <c r="J322" s="178"/>
-      <c r="K322" s="178"/>
-      <c r="L322" s="178"/>
-      <c r="M322" s="178">
+      <c r="H322" s="181"/>
+      <c r="I322" s="181"/>
+      <c r="J322" s="181"/>
+      <c r="K322" s="181"/>
+      <c r="L322" s="181"/>
+      <c r="M322" s="181">
         <f t="shared" ref="M322" si="65">G322+1</f>
         <v>43985</v>
       </c>
-      <c r="N322" s="178"/>
-      <c r="O322" s="178"/>
-      <c r="P322" s="178"/>
-      <c r="Q322" s="178"/>
-      <c r="R322" s="178"/>
-      <c r="S322" s="178">
+      <c r="N322" s="181"/>
+      <c r="O322" s="181"/>
+      <c r="P322" s="181"/>
+      <c r="Q322" s="181"/>
+      <c r="R322" s="181"/>
+      <c r="S322" s="181">
         <f t="shared" ref="S322" si="66">M322+1</f>
         <v>43986</v>
       </c>
-      <c r="T322" s="178"/>
-      <c r="U322" s="178"/>
-      <c r="V322" s="178"/>
-      <c r="W322" s="178"/>
-      <c r="X322" s="178"/>
-      <c r="Y322" s="178">
+      <c r="T322" s="181"/>
+      <c r="U322" s="181"/>
+      <c r="V322" s="181"/>
+      <c r="W322" s="181"/>
+      <c r="X322" s="181"/>
+      <c r="Y322" s="181">
         <f t="shared" ref="Y322" si="67">S322+1</f>
         <v>43987</v>
       </c>
-      <c r="Z322" s="178"/>
-      <c r="AA322" s="178"/>
-      <c r="AB322" s="178"/>
-      <c r="AC322" s="178"/>
-      <c r="AD322" s="178"/>
+      <c r="Z322" s="181"/>
+      <c r="AA322" s="181"/>
+      <c r="AB322" s="181"/>
+      <c r="AC322" s="181"/>
+      <c r="AD322" s="181"/>
     </row>
     <row r="323" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A323" s="207"/>
-      <c r="B323" s="208"/>
-      <c r="C323" s="208"/>
-      <c r="D323" s="208"/>
-      <c r="E323" s="208"/>
-      <c r="F323" s="209"/>
-      <c r="G323" s="207"/>
-      <c r="H323" s="208"/>
-      <c r="I323" s="208"/>
-      <c r="J323" s="208"/>
-      <c r="K323" s="208"/>
-      <c r="L323" s="209"/>
-      <c r="M323" s="207"/>
-      <c r="N323" s="208"/>
-      <c r="O323" s="208"/>
-      <c r="P323" s="208"/>
-      <c r="Q323" s="208"/>
-      <c r="R323" s="209"/>
-      <c r="S323" s="207"/>
-      <c r="T323" s="208"/>
-      <c r="U323" s="208"/>
-      <c r="V323" s="208"/>
-      <c r="W323" s="208"/>
-      <c r="X323" s="209"/>
-      <c r="Y323" s="207"/>
-      <c r="Z323" s="208"/>
-      <c r="AA323" s="208"/>
-      <c r="AB323" s="208"/>
-      <c r="AC323" s="208"/>
-      <c r="AD323" s="209"/>
+      <c r="A323" s="182"/>
+      <c r="B323" s="183"/>
+      <c r="C323" s="183"/>
+      <c r="D323" s="183"/>
+      <c r="E323" s="183"/>
+      <c r="F323" s="184"/>
+      <c r="G323" s="182"/>
+      <c r="H323" s="183"/>
+      <c r="I323" s="183"/>
+      <c r="J323" s="183"/>
+      <c r="K323" s="183"/>
+      <c r="L323" s="184"/>
+      <c r="M323" s="182"/>
+      <c r="N323" s="183"/>
+      <c r="O323" s="183"/>
+      <c r="P323" s="183"/>
+      <c r="Q323" s="183"/>
+      <c r="R323" s="184"/>
+      <c r="S323" s="182"/>
+      <c r="T323" s="183"/>
+      <c r="U323" s="183"/>
+      <c r="V323" s="183"/>
+      <c r="W323" s="183"/>
+      <c r="X323" s="184"/>
+      <c r="Y323" s="182"/>
+      <c r="Z323" s="183"/>
+      <c r="AA323" s="183"/>
+      <c r="AB323" s="183"/>
+      <c r="AC323" s="183"/>
+      <c r="AD323" s="184"/>
     </row>
     <row r="324" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="87" t="s">
@@ -16472,83 +16476,83 @@
       <c r="AD336" s="93"/>
     </row>
     <row r="337" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A337" s="178">
+      <c r="A337" s="181">
         <f t="shared" ref="A337" si="68">A322+7</f>
         <v>43990</v>
       </c>
-      <c r="B337" s="178"/>
-      <c r="C337" s="178"/>
-      <c r="D337" s="178"/>
-      <c r="E337" s="178"/>
-      <c r="F337" s="178"/>
-      <c r="G337" s="178">
+      <c r="B337" s="181"/>
+      <c r="C337" s="181"/>
+      <c r="D337" s="181"/>
+      <c r="E337" s="181"/>
+      <c r="F337" s="181"/>
+      <c r="G337" s="181">
         <f t="shared" ref="G337" si="69">A337+1</f>
         <v>43991</v>
       </c>
-      <c r="H337" s="178"/>
-      <c r="I337" s="178"/>
-      <c r="J337" s="178"/>
-      <c r="K337" s="178"/>
-      <c r="L337" s="178"/>
-      <c r="M337" s="178">
+      <c r="H337" s="181"/>
+      <c r="I337" s="181"/>
+      <c r="J337" s="181"/>
+      <c r="K337" s="181"/>
+      <c r="L337" s="181"/>
+      <c r="M337" s="181">
         <f t="shared" ref="M337" si="70">G337+1</f>
         <v>43992</v>
       </c>
-      <c r="N337" s="178"/>
-      <c r="O337" s="178"/>
-      <c r="P337" s="178"/>
-      <c r="Q337" s="178"/>
-      <c r="R337" s="178"/>
-      <c r="S337" s="178">
+      <c r="N337" s="181"/>
+      <c r="O337" s="181"/>
+      <c r="P337" s="181"/>
+      <c r="Q337" s="181"/>
+      <c r="R337" s="181"/>
+      <c r="S337" s="181">
         <f t="shared" ref="S337" si="71">M337+1</f>
         <v>43993</v>
       </c>
-      <c r="T337" s="178"/>
-      <c r="U337" s="178"/>
-      <c r="V337" s="178"/>
-      <c r="W337" s="178"/>
-      <c r="X337" s="178"/>
-      <c r="Y337" s="178">
+      <c r="T337" s="181"/>
+      <c r="U337" s="181"/>
+      <c r="V337" s="181"/>
+      <c r="W337" s="181"/>
+      <c r="X337" s="181"/>
+      <c r="Y337" s="181">
         <f t="shared" ref="Y337" si="72">S337+1</f>
         <v>43994</v>
       </c>
-      <c r="Z337" s="178"/>
-      <c r="AA337" s="178"/>
-      <c r="AB337" s="178"/>
-      <c r="AC337" s="178"/>
-      <c r="AD337" s="178"/>
+      <c r="Z337" s="181"/>
+      <c r="AA337" s="181"/>
+      <c r="AB337" s="181"/>
+      <c r="AC337" s="181"/>
+      <c r="AD337" s="181"/>
     </row>
     <row r="338" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A338" s="207"/>
-      <c r="B338" s="208"/>
-      <c r="C338" s="208"/>
-      <c r="D338" s="208"/>
-      <c r="E338" s="208"/>
-      <c r="F338" s="209"/>
-      <c r="G338" s="207"/>
-      <c r="H338" s="208"/>
-      <c r="I338" s="208"/>
-      <c r="J338" s="208"/>
-      <c r="K338" s="208"/>
-      <c r="L338" s="209"/>
-      <c r="M338" s="207"/>
-      <c r="N338" s="208"/>
-      <c r="O338" s="208"/>
-      <c r="P338" s="208"/>
-      <c r="Q338" s="208"/>
-      <c r="R338" s="209"/>
-      <c r="S338" s="207"/>
-      <c r="T338" s="208"/>
-      <c r="U338" s="208"/>
-      <c r="V338" s="208"/>
-      <c r="W338" s="208"/>
-      <c r="X338" s="209"/>
-      <c r="Y338" s="207"/>
-      <c r="Z338" s="208"/>
-      <c r="AA338" s="208"/>
-      <c r="AB338" s="208"/>
-      <c r="AC338" s="208"/>
-      <c r="AD338" s="209"/>
+      <c r="A338" s="182"/>
+      <c r="B338" s="183"/>
+      <c r="C338" s="183"/>
+      <c r="D338" s="183"/>
+      <c r="E338" s="183"/>
+      <c r="F338" s="184"/>
+      <c r="G338" s="182"/>
+      <c r="H338" s="183"/>
+      <c r="I338" s="183"/>
+      <c r="J338" s="183"/>
+      <c r="K338" s="183"/>
+      <c r="L338" s="184"/>
+      <c r="M338" s="182"/>
+      <c r="N338" s="183"/>
+      <c r="O338" s="183"/>
+      <c r="P338" s="183"/>
+      <c r="Q338" s="183"/>
+      <c r="R338" s="184"/>
+      <c r="S338" s="182"/>
+      <c r="T338" s="183"/>
+      <c r="U338" s="183"/>
+      <c r="V338" s="183"/>
+      <c r="W338" s="183"/>
+      <c r="X338" s="184"/>
+      <c r="Y338" s="182"/>
+      <c r="Z338" s="183"/>
+      <c r="AA338" s="183"/>
+      <c r="AB338" s="183"/>
+      <c r="AC338" s="183"/>
+      <c r="AD338" s="184"/>
     </row>
     <row r="339" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" s="87" t="s">
@@ -17027,83 +17031,83 @@
       <c r="AD351" s="93"/>
     </row>
     <row r="352" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A352" s="178">
+      <c r="A352" s="181">
         <f t="shared" ref="A352" si="73">A337+7</f>
         <v>43997</v>
       </c>
-      <c r="B352" s="178"/>
-      <c r="C352" s="178"/>
-      <c r="D352" s="178"/>
-      <c r="E352" s="178"/>
-      <c r="F352" s="178"/>
-      <c r="G352" s="178">
+      <c r="B352" s="181"/>
+      <c r="C352" s="181"/>
+      <c r="D352" s="181"/>
+      <c r="E352" s="181"/>
+      <c r="F352" s="181"/>
+      <c r="G352" s="181">
         <f t="shared" ref="G352" si="74">A352+1</f>
         <v>43998</v>
       </c>
-      <c r="H352" s="178"/>
-      <c r="I352" s="178"/>
-      <c r="J352" s="178"/>
-      <c r="K352" s="178"/>
-      <c r="L352" s="178"/>
-      <c r="M352" s="178">
+      <c r="H352" s="181"/>
+      <c r="I352" s="181"/>
+      <c r="J352" s="181"/>
+      <c r="K352" s="181"/>
+      <c r="L352" s="181"/>
+      <c r="M352" s="181">
         <f t="shared" ref="M352" si="75">G352+1</f>
         <v>43999</v>
       </c>
-      <c r="N352" s="178"/>
-      <c r="O352" s="178"/>
-      <c r="P352" s="178"/>
-      <c r="Q352" s="178"/>
-      <c r="R352" s="178"/>
-      <c r="S352" s="178">
+      <c r="N352" s="181"/>
+      <c r="O352" s="181"/>
+      <c r="P352" s="181"/>
+      <c r="Q352" s="181"/>
+      <c r="R352" s="181"/>
+      <c r="S352" s="181">
         <f t="shared" ref="S352" si="76">M352+1</f>
         <v>44000</v>
       </c>
-      <c r="T352" s="178"/>
-      <c r="U352" s="178"/>
-      <c r="V352" s="178"/>
-      <c r="W352" s="178"/>
-      <c r="X352" s="178"/>
-      <c r="Y352" s="178">
+      <c r="T352" s="181"/>
+      <c r="U352" s="181"/>
+      <c r="V352" s="181"/>
+      <c r="W352" s="181"/>
+      <c r="X352" s="181"/>
+      <c r="Y352" s="181">
         <f t="shared" ref="Y352" si="77">S352+1</f>
         <v>44001</v>
       </c>
-      <c r="Z352" s="178"/>
-      <c r="AA352" s="178"/>
-      <c r="AB352" s="178"/>
-      <c r="AC352" s="178"/>
-      <c r="AD352" s="178"/>
+      <c r="Z352" s="181"/>
+      <c r="AA352" s="181"/>
+      <c r="AB352" s="181"/>
+      <c r="AC352" s="181"/>
+      <c r="AD352" s="181"/>
     </row>
     <row r="353" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A353" s="207"/>
-      <c r="B353" s="208"/>
-      <c r="C353" s="208"/>
-      <c r="D353" s="208"/>
-      <c r="E353" s="208"/>
-      <c r="F353" s="209"/>
-      <c r="G353" s="207"/>
-      <c r="H353" s="208"/>
-      <c r="I353" s="208"/>
-      <c r="J353" s="208"/>
-      <c r="K353" s="208"/>
-      <c r="L353" s="209"/>
-      <c r="M353" s="207"/>
-      <c r="N353" s="208"/>
-      <c r="O353" s="208"/>
-      <c r="P353" s="208"/>
-      <c r="Q353" s="208"/>
-      <c r="R353" s="209"/>
-      <c r="S353" s="207"/>
-      <c r="T353" s="208"/>
-      <c r="U353" s="208"/>
-      <c r="V353" s="208"/>
-      <c r="W353" s="208"/>
-      <c r="X353" s="209"/>
-      <c r="Y353" s="207"/>
-      <c r="Z353" s="208"/>
-      <c r="AA353" s="208"/>
-      <c r="AB353" s="208"/>
-      <c r="AC353" s="208"/>
-      <c r="AD353" s="209"/>
+      <c r="A353" s="182"/>
+      <c r="B353" s="183"/>
+      <c r="C353" s="183"/>
+      <c r="D353" s="183"/>
+      <c r="E353" s="183"/>
+      <c r="F353" s="184"/>
+      <c r="G353" s="182"/>
+      <c r="H353" s="183"/>
+      <c r="I353" s="183"/>
+      <c r="J353" s="183"/>
+      <c r="K353" s="183"/>
+      <c r="L353" s="184"/>
+      <c r="M353" s="182"/>
+      <c r="N353" s="183"/>
+      <c r="O353" s="183"/>
+      <c r="P353" s="183"/>
+      <c r="Q353" s="183"/>
+      <c r="R353" s="184"/>
+      <c r="S353" s="182"/>
+      <c r="T353" s="183"/>
+      <c r="U353" s="183"/>
+      <c r="V353" s="183"/>
+      <c r="W353" s="183"/>
+      <c r="X353" s="184"/>
+      <c r="Y353" s="182"/>
+      <c r="Z353" s="183"/>
+      <c r="AA353" s="183"/>
+      <c r="AB353" s="183"/>
+      <c r="AC353" s="183"/>
+      <c r="AD353" s="184"/>
     </row>
     <row r="354" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A354" s="87" t="s">
@@ -17582,83 +17586,83 @@
       <c r="AD366" s="93"/>
     </row>
     <row r="367" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A367" s="178">
+      <c r="A367" s="181">
         <f t="shared" ref="A367" si="78">A352+7</f>
         <v>44004</v>
       </c>
-      <c r="B367" s="178"/>
-      <c r="C367" s="178"/>
-      <c r="D367" s="178"/>
-      <c r="E367" s="178"/>
-      <c r="F367" s="178"/>
-      <c r="G367" s="178">
+      <c r="B367" s="181"/>
+      <c r="C367" s="181"/>
+      <c r="D367" s="181"/>
+      <c r="E367" s="181"/>
+      <c r="F367" s="181"/>
+      <c r="G367" s="181">
         <f t="shared" ref="G367" si="79">A367+1</f>
         <v>44005</v>
       </c>
-      <c r="H367" s="178"/>
-      <c r="I367" s="178"/>
-      <c r="J367" s="178"/>
-      <c r="K367" s="178"/>
-      <c r="L367" s="178"/>
-      <c r="M367" s="178">
+      <c r="H367" s="181"/>
+      <c r="I367" s="181"/>
+      <c r="J367" s="181"/>
+      <c r="K367" s="181"/>
+      <c r="L367" s="181"/>
+      <c r="M367" s="181">
         <f t="shared" ref="M367" si="80">G367+1</f>
         <v>44006</v>
       </c>
-      <c r="N367" s="178"/>
-      <c r="O367" s="178"/>
-      <c r="P367" s="178"/>
-      <c r="Q367" s="178"/>
-      <c r="R367" s="178"/>
-      <c r="S367" s="178">
+      <c r="N367" s="181"/>
+      <c r="O367" s="181"/>
+      <c r="P367" s="181"/>
+      <c r="Q367" s="181"/>
+      <c r="R367" s="181"/>
+      <c r="S367" s="181">
         <f t="shared" ref="S367" si="81">M367+1</f>
         <v>44007</v>
       </c>
-      <c r="T367" s="178"/>
-      <c r="U367" s="178"/>
-      <c r="V367" s="178"/>
-      <c r="W367" s="178"/>
-      <c r="X367" s="178"/>
-      <c r="Y367" s="178">
+      <c r="T367" s="181"/>
+      <c r="U367" s="181"/>
+      <c r="V367" s="181"/>
+      <c r="W367" s="181"/>
+      <c r="X367" s="181"/>
+      <c r="Y367" s="181">
         <f t="shared" ref="Y367" si="82">S367+1</f>
         <v>44008</v>
       </c>
-      <c r="Z367" s="178"/>
-      <c r="AA367" s="178"/>
-      <c r="AB367" s="178"/>
-      <c r="AC367" s="178"/>
-      <c r="AD367" s="178"/>
+      <c r="Z367" s="181"/>
+      <c r="AA367" s="181"/>
+      <c r="AB367" s="181"/>
+      <c r="AC367" s="181"/>
+      <c r="AD367" s="181"/>
     </row>
     <row r="368" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A368" s="207"/>
-      <c r="B368" s="208"/>
-      <c r="C368" s="208"/>
-      <c r="D368" s="208"/>
-      <c r="E368" s="208"/>
-      <c r="F368" s="209"/>
-      <c r="G368" s="207"/>
-      <c r="H368" s="208"/>
-      <c r="I368" s="208"/>
-      <c r="J368" s="208"/>
-      <c r="K368" s="208"/>
-      <c r="L368" s="209"/>
-      <c r="M368" s="207"/>
-      <c r="N368" s="208"/>
-      <c r="O368" s="208"/>
-      <c r="P368" s="208"/>
-      <c r="Q368" s="208"/>
-      <c r="R368" s="209"/>
-      <c r="S368" s="207"/>
-      <c r="T368" s="208"/>
-      <c r="U368" s="208"/>
-      <c r="V368" s="208"/>
-      <c r="W368" s="208"/>
-      <c r="X368" s="209"/>
-      <c r="Y368" s="207"/>
-      <c r="Z368" s="208"/>
-      <c r="AA368" s="208"/>
-      <c r="AB368" s="208"/>
-      <c r="AC368" s="208"/>
-      <c r="AD368" s="209"/>
+      <c r="A368" s="182"/>
+      <c r="B368" s="183"/>
+      <c r="C368" s="183"/>
+      <c r="D368" s="183"/>
+      <c r="E368" s="183"/>
+      <c r="F368" s="184"/>
+      <c r="G368" s="182"/>
+      <c r="H368" s="183"/>
+      <c r="I368" s="183"/>
+      <c r="J368" s="183"/>
+      <c r="K368" s="183"/>
+      <c r="L368" s="184"/>
+      <c r="M368" s="182"/>
+      <c r="N368" s="183"/>
+      <c r="O368" s="183"/>
+      <c r="P368" s="183"/>
+      <c r="Q368" s="183"/>
+      <c r="R368" s="184"/>
+      <c r="S368" s="182"/>
+      <c r="T368" s="183"/>
+      <c r="U368" s="183"/>
+      <c r="V368" s="183"/>
+      <c r="W368" s="183"/>
+      <c r="X368" s="184"/>
+      <c r="Y368" s="182"/>
+      <c r="Z368" s="183"/>
+      <c r="AA368" s="183"/>
+      <c r="AB368" s="183"/>
+      <c r="AC368" s="183"/>
+      <c r="AD368" s="184"/>
     </row>
     <row r="369" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A369" s="87" t="s">
@@ -18137,83 +18141,83 @@
       <c r="AD381" s="93"/>
     </row>
     <row r="382" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A382" s="178">
+      <c r="A382" s="181">
         <f t="shared" ref="A382" si="83">A367+7</f>
         <v>44011</v>
       </c>
-      <c r="B382" s="178"/>
-      <c r="C382" s="178"/>
-      <c r="D382" s="178"/>
-      <c r="E382" s="178"/>
-      <c r="F382" s="178"/>
-      <c r="G382" s="178">
+      <c r="B382" s="181"/>
+      <c r="C382" s="181"/>
+      <c r="D382" s="181"/>
+      <c r="E382" s="181"/>
+      <c r="F382" s="181"/>
+      <c r="G382" s="181">
         <f t="shared" ref="G382" si="84">A382+1</f>
         <v>44012</v>
       </c>
-      <c r="H382" s="178"/>
-      <c r="I382" s="178"/>
-      <c r="J382" s="178"/>
-      <c r="K382" s="178"/>
-      <c r="L382" s="178"/>
-      <c r="M382" s="178">
+      <c r="H382" s="181"/>
+      <c r="I382" s="181"/>
+      <c r="J382" s="181"/>
+      <c r="K382" s="181"/>
+      <c r="L382" s="181"/>
+      <c r="M382" s="181">
         <f t="shared" ref="M382" si="85">G382+1</f>
         <v>44013</v>
       </c>
-      <c r="N382" s="178"/>
-      <c r="O382" s="178"/>
-      <c r="P382" s="178"/>
-      <c r="Q382" s="178"/>
-      <c r="R382" s="178"/>
-      <c r="S382" s="178">
+      <c r="N382" s="181"/>
+      <c r="O382" s="181"/>
+      <c r="P382" s="181"/>
+      <c r="Q382" s="181"/>
+      <c r="R382" s="181"/>
+      <c r="S382" s="181">
         <f t="shared" ref="S382" si="86">M382+1</f>
         <v>44014</v>
       </c>
-      <c r="T382" s="178"/>
-      <c r="U382" s="178"/>
-      <c r="V382" s="178"/>
-      <c r="W382" s="178"/>
-      <c r="X382" s="178"/>
-      <c r="Y382" s="178">
+      <c r="T382" s="181"/>
+      <c r="U382" s="181"/>
+      <c r="V382" s="181"/>
+      <c r="W382" s="181"/>
+      <c r="X382" s="181"/>
+      <c r="Y382" s="181">
         <f t="shared" ref="Y382" si="87">S382+1</f>
         <v>44015</v>
       </c>
-      <c r="Z382" s="178"/>
-      <c r="AA382" s="178"/>
-      <c r="AB382" s="178"/>
-      <c r="AC382" s="178"/>
-      <c r="AD382" s="178"/>
+      <c r="Z382" s="181"/>
+      <c r="AA382" s="181"/>
+      <c r="AB382" s="181"/>
+      <c r="AC382" s="181"/>
+      <c r="AD382" s="181"/>
     </row>
     <row r="383" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A383" s="207"/>
-      <c r="B383" s="208"/>
-      <c r="C383" s="208"/>
-      <c r="D383" s="208"/>
-      <c r="E383" s="208"/>
-      <c r="F383" s="209"/>
-      <c r="G383" s="207"/>
-      <c r="H383" s="208"/>
-      <c r="I383" s="208"/>
-      <c r="J383" s="208"/>
-      <c r="K383" s="208"/>
-      <c r="L383" s="209"/>
-      <c r="M383" s="207"/>
-      <c r="N383" s="208"/>
-      <c r="O383" s="208"/>
-      <c r="P383" s="208"/>
-      <c r="Q383" s="208"/>
-      <c r="R383" s="209"/>
-      <c r="S383" s="207"/>
-      <c r="T383" s="208"/>
-      <c r="U383" s="208"/>
-      <c r="V383" s="208"/>
-      <c r="W383" s="208"/>
-      <c r="X383" s="209"/>
-      <c r="Y383" s="207"/>
-      <c r="Z383" s="208"/>
-      <c r="AA383" s="208"/>
-      <c r="AB383" s="208"/>
-      <c r="AC383" s="208"/>
-      <c r="AD383" s="209"/>
+      <c r="A383" s="182"/>
+      <c r="B383" s="183"/>
+      <c r="C383" s="183"/>
+      <c r="D383" s="183"/>
+      <c r="E383" s="183"/>
+      <c r="F383" s="184"/>
+      <c r="G383" s="182"/>
+      <c r="H383" s="183"/>
+      <c r="I383" s="183"/>
+      <c r="J383" s="183"/>
+      <c r="K383" s="183"/>
+      <c r="L383" s="184"/>
+      <c r="M383" s="182"/>
+      <c r="N383" s="183"/>
+      <c r="O383" s="183"/>
+      <c r="P383" s="183"/>
+      <c r="Q383" s="183"/>
+      <c r="R383" s="184"/>
+      <c r="S383" s="182"/>
+      <c r="T383" s="183"/>
+      <c r="U383" s="183"/>
+      <c r="V383" s="183"/>
+      <c r="W383" s="183"/>
+      <c r="X383" s="184"/>
+      <c r="Y383" s="182"/>
+      <c r="Z383" s="183"/>
+      <c r="AA383" s="183"/>
+      <c r="AB383" s="183"/>
+      <c r="AC383" s="183"/>
+      <c r="AD383" s="184"/>
     </row>
     <row r="384" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A384" s="87" t="s">
@@ -18692,83 +18696,83 @@
       <c r="AD396" s="93"/>
     </row>
     <row r="397" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A397" s="178">
+      <c r="A397" s="181">
         <f t="shared" ref="A397" si="88">A382+7</f>
         <v>44018</v>
       </c>
-      <c r="B397" s="178"/>
-      <c r="C397" s="178"/>
-      <c r="D397" s="178"/>
-      <c r="E397" s="178"/>
-      <c r="F397" s="178"/>
-      <c r="G397" s="178">
+      <c r="B397" s="181"/>
+      <c r="C397" s="181"/>
+      <c r="D397" s="181"/>
+      <c r="E397" s="181"/>
+      <c r="F397" s="181"/>
+      <c r="G397" s="181">
         <f t="shared" ref="G397" si="89">A397+1</f>
         <v>44019</v>
       </c>
-      <c r="H397" s="178"/>
-      <c r="I397" s="178"/>
-      <c r="J397" s="178"/>
-      <c r="K397" s="178"/>
-      <c r="L397" s="178"/>
-      <c r="M397" s="178">
+      <c r="H397" s="181"/>
+      <c r="I397" s="181"/>
+      <c r="J397" s="181"/>
+      <c r="K397" s="181"/>
+      <c r="L397" s="181"/>
+      <c r="M397" s="181">
         <f t="shared" ref="M397" si="90">G397+1</f>
         <v>44020</v>
       </c>
-      <c r="N397" s="178"/>
-      <c r="O397" s="178"/>
-      <c r="P397" s="178"/>
-      <c r="Q397" s="178"/>
-      <c r="R397" s="178"/>
-      <c r="S397" s="178">
+      <c r="N397" s="181"/>
+      <c r="O397" s="181"/>
+      <c r="P397" s="181"/>
+      <c r="Q397" s="181"/>
+      <c r="R397" s="181"/>
+      <c r="S397" s="181">
         <f t="shared" ref="S397" si="91">M397+1</f>
         <v>44021</v>
       </c>
-      <c r="T397" s="178"/>
-      <c r="U397" s="178"/>
-      <c r="V397" s="178"/>
-      <c r="W397" s="178"/>
-      <c r="X397" s="178"/>
-      <c r="Y397" s="178">
+      <c r="T397" s="181"/>
+      <c r="U397" s="181"/>
+      <c r="V397" s="181"/>
+      <c r="W397" s="181"/>
+      <c r="X397" s="181"/>
+      <c r="Y397" s="181">
         <f t="shared" ref="Y397" si="92">S397+1</f>
         <v>44022</v>
       </c>
-      <c r="Z397" s="178"/>
-      <c r="AA397" s="178"/>
-      <c r="AB397" s="178"/>
-      <c r="AC397" s="178"/>
-      <c r="AD397" s="178"/>
+      <c r="Z397" s="181"/>
+      <c r="AA397" s="181"/>
+      <c r="AB397" s="181"/>
+      <c r="AC397" s="181"/>
+      <c r="AD397" s="181"/>
     </row>
     <row r="398" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A398" s="207"/>
-      <c r="B398" s="208"/>
-      <c r="C398" s="208"/>
-      <c r="D398" s="208"/>
-      <c r="E398" s="208"/>
-      <c r="F398" s="209"/>
-      <c r="G398" s="207"/>
-      <c r="H398" s="208"/>
-      <c r="I398" s="208"/>
-      <c r="J398" s="208"/>
-      <c r="K398" s="208"/>
-      <c r="L398" s="209"/>
-      <c r="M398" s="207"/>
-      <c r="N398" s="208"/>
-      <c r="O398" s="208"/>
-      <c r="P398" s="208"/>
-      <c r="Q398" s="208"/>
-      <c r="R398" s="209"/>
-      <c r="S398" s="207"/>
-      <c r="T398" s="208"/>
-      <c r="U398" s="208"/>
-      <c r="V398" s="208"/>
-      <c r="W398" s="208"/>
-      <c r="X398" s="209"/>
-      <c r="Y398" s="207"/>
-      <c r="Z398" s="208"/>
-      <c r="AA398" s="208"/>
-      <c r="AB398" s="208"/>
-      <c r="AC398" s="208"/>
-      <c r="AD398" s="209"/>
+      <c r="A398" s="182"/>
+      <c r="B398" s="183"/>
+      <c r="C398" s="183"/>
+      <c r="D398" s="183"/>
+      <c r="E398" s="183"/>
+      <c r="F398" s="184"/>
+      <c r="G398" s="182"/>
+      <c r="H398" s="183"/>
+      <c r="I398" s="183"/>
+      <c r="J398" s="183"/>
+      <c r="K398" s="183"/>
+      <c r="L398" s="184"/>
+      <c r="M398" s="182"/>
+      <c r="N398" s="183"/>
+      <c r="O398" s="183"/>
+      <c r="P398" s="183"/>
+      <c r="Q398" s="183"/>
+      <c r="R398" s="184"/>
+      <c r="S398" s="182"/>
+      <c r="T398" s="183"/>
+      <c r="U398" s="183"/>
+      <c r="V398" s="183"/>
+      <c r="W398" s="183"/>
+      <c r="X398" s="184"/>
+      <c r="Y398" s="182"/>
+      <c r="Z398" s="183"/>
+      <c r="AA398" s="183"/>
+      <c r="AB398" s="183"/>
+      <c r="AC398" s="183"/>
+      <c r="AD398" s="184"/>
     </row>
     <row r="399" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A399" s="87" t="s">
@@ -19247,83 +19251,83 @@
       <c r="AD411" s="93"/>
     </row>
     <row r="412" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A412" s="178">
+      <c r="A412" s="181">
         <f t="shared" ref="A412" si="93">A397+7</f>
         <v>44025</v>
       </c>
-      <c r="B412" s="178"/>
-      <c r="C412" s="178"/>
-      <c r="D412" s="178"/>
-      <c r="E412" s="178"/>
-      <c r="F412" s="178"/>
-      <c r="G412" s="178">
+      <c r="B412" s="181"/>
+      <c r="C412" s="181"/>
+      <c r="D412" s="181"/>
+      <c r="E412" s="181"/>
+      <c r="F412" s="181"/>
+      <c r="G412" s="181">
         <f t="shared" ref="G412" si="94">A412+1</f>
         <v>44026</v>
       </c>
-      <c r="H412" s="178"/>
-      <c r="I412" s="178"/>
-      <c r="J412" s="178"/>
-      <c r="K412" s="178"/>
-      <c r="L412" s="178"/>
-      <c r="M412" s="178">
+      <c r="H412" s="181"/>
+      <c r="I412" s="181"/>
+      <c r="J412" s="181"/>
+      <c r="K412" s="181"/>
+      <c r="L412" s="181"/>
+      <c r="M412" s="181">
         <f t="shared" ref="M412" si="95">G412+1</f>
         <v>44027</v>
       </c>
-      <c r="N412" s="178"/>
-      <c r="O412" s="178"/>
-      <c r="P412" s="178"/>
-      <c r="Q412" s="178"/>
-      <c r="R412" s="178"/>
-      <c r="S412" s="178">
+      <c r="N412" s="181"/>
+      <c r="O412" s="181"/>
+      <c r="P412" s="181"/>
+      <c r="Q412" s="181"/>
+      <c r="R412" s="181"/>
+      <c r="S412" s="181">
         <f t="shared" ref="S412" si="96">M412+1</f>
         <v>44028</v>
       </c>
-      <c r="T412" s="178"/>
-      <c r="U412" s="178"/>
-      <c r="V412" s="178"/>
-      <c r="W412" s="178"/>
-      <c r="X412" s="178"/>
-      <c r="Y412" s="178">
+      <c r="T412" s="181"/>
+      <c r="U412" s="181"/>
+      <c r="V412" s="181"/>
+      <c r="W412" s="181"/>
+      <c r="X412" s="181"/>
+      <c r="Y412" s="181">
         <f t="shared" ref="Y412" si="97">S412+1</f>
         <v>44029</v>
       </c>
-      <c r="Z412" s="178"/>
-      <c r="AA412" s="178"/>
-      <c r="AB412" s="178"/>
-      <c r="AC412" s="178"/>
-      <c r="AD412" s="178"/>
+      <c r="Z412" s="181"/>
+      <c r="AA412" s="181"/>
+      <c r="AB412" s="181"/>
+      <c r="AC412" s="181"/>
+      <c r="AD412" s="181"/>
     </row>
     <row r="413" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A413" s="207"/>
-      <c r="B413" s="208"/>
-      <c r="C413" s="208"/>
-      <c r="D413" s="208"/>
-      <c r="E413" s="208"/>
-      <c r="F413" s="209"/>
-      <c r="G413" s="207"/>
-      <c r="H413" s="208"/>
-      <c r="I413" s="208"/>
-      <c r="J413" s="208"/>
-      <c r="K413" s="208"/>
-      <c r="L413" s="209"/>
-      <c r="M413" s="207"/>
-      <c r="N413" s="208"/>
-      <c r="O413" s="208"/>
-      <c r="P413" s="208"/>
-      <c r="Q413" s="208"/>
-      <c r="R413" s="209"/>
-      <c r="S413" s="207"/>
-      <c r="T413" s="208"/>
-      <c r="U413" s="208"/>
-      <c r="V413" s="208"/>
-      <c r="W413" s="208"/>
-      <c r="X413" s="209"/>
-      <c r="Y413" s="207"/>
-      <c r="Z413" s="208"/>
-      <c r="AA413" s="208"/>
-      <c r="AB413" s="208"/>
-      <c r="AC413" s="208"/>
-      <c r="AD413" s="209"/>
+      <c r="A413" s="182"/>
+      <c r="B413" s="183"/>
+      <c r="C413" s="183"/>
+      <c r="D413" s="183"/>
+      <c r="E413" s="183"/>
+      <c r="F413" s="184"/>
+      <c r="G413" s="182"/>
+      <c r="H413" s="183"/>
+      <c r="I413" s="183"/>
+      <c r="J413" s="183"/>
+      <c r="K413" s="183"/>
+      <c r="L413" s="184"/>
+      <c r="M413" s="182"/>
+      <c r="N413" s="183"/>
+      <c r="O413" s="183"/>
+      <c r="P413" s="183"/>
+      <c r="Q413" s="183"/>
+      <c r="R413" s="184"/>
+      <c r="S413" s="182"/>
+      <c r="T413" s="183"/>
+      <c r="U413" s="183"/>
+      <c r="V413" s="183"/>
+      <c r="W413" s="183"/>
+      <c r="X413" s="184"/>
+      <c r="Y413" s="182"/>
+      <c r="Z413" s="183"/>
+      <c r="AA413" s="183"/>
+      <c r="AB413" s="183"/>
+      <c r="AC413" s="183"/>
+      <c r="AD413" s="184"/>
     </row>
     <row r="414" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A414" s="87" t="s">
@@ -19802,83 +19806,83 @@
       <c r="AD426" s="93"/>
     </row>
     <row r="427" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A427" s="178">
+      <c r="A427" s="181">
         <f t="shared" ref="A427" si="98">A412+7</f>
         <v>44032</v>
       </c>
-      <c r="B427" s="178"/>
-      <c r="C427" s="178"/>
-      <c r="D427" s="178"/>
-      <c r="E427" s="178"/>
-      <c r="F427" s="178"/>
-      <c r="G427" s="178">
+      <c r="B427" s="181"/>
+      <c r="C427" s="181"/>
+      <c r="D427" s="181"/>
+      <c r="E427" s="181"/>
+      <c r="F427" s="181"/>
+      <c r="G427" s="181">
         <f t="shared" ref="G427" si="99">A427+1</f>
         <v>44033</v>
       </c>
-      <c r="H427" s="178"/>
-      <c r="I427" s="178"/>
-      <c r="J427" s="178"/>
-      <c r="K427" s="178"/>
-      <c r="L427" s="178"/>
-      <c r="M427" s="178">
+      <c r="H427" s="181"/>
+      <c r="I427" s="181"/>
+      <c r="J427" s="181"/>
+      <c r="K427" s="181"/>
+      <c r="L427" s="181"/>
+      <c r="M427" s="181">
         <f t="shared" ref="M427" si="100">G427+1</f>
         <v>44034</v>
       </c>
-      <c r="N427" s="178"/>
-      <c r="O427" s="178"/>
-      <c r="P427" s="178"/>
-      <c r="Q427" s="178"/>
-      <c r="R427" s="178"/>
-      <c r="S427" s="178">
+      <c r="N427" s="181"/>
+      <c r="O427" s="181"/>
+      <c r="P427" s="181"/>
+      <c r="Q427" s="181"/>
+      <c r="R427" s="181"/>
+      <c r="S427" s="181">
         <f t="shared" ref="S427" si="101">M427+1</f>
         <v>44035</v>
       </c>
-      <c r="T427" s="178"/>
-      <c r="U427" s="178"/>
-      <c r="V427" s="178"/>
-      <c r="W427" s="178"/>
-      <c r="X427" s="178"/>
-      <c r="Y427" s="178">
+      <c r="T427" s="181"/>
+      <c r="U427" s="181"/>
+      <c r="V427" s="181"/>
+      <c r="W427" s="181"/>
+      <c r="X427" s="181"/>
+      <c r="Y427" s="181">
         <f t="shared" ref="Y427" si="102">S427+1</f>
         <v>44036</v>
       </c>
-      <c r="Z427" s="178"/>
-      <c r="AA427" s="178"/>
-      <c r="AB427" s="178"/>
-      <c r="AC427" s="178"/>
-      <c r="AD427" s="178"/>
+      <c r="Z427" s="181"/>
+      <c r="AA427" s="181"/>
+      <c r="AB427" s="181"/>
+      <c r="AC427" s="181"/>
+      <c r="AD427" s="181"/>
     </row>
     <row r="428" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A428" s="207"/>
-      <c r="B428" s="208"/>
-      <c r="C428" s="208"/>
-      <c r="D428" s="208"/>
-      <c r="E428" s="208"/>
-      <c r="F428" s="209"/>
-      <c r="G428" s="207"/>
-      <c r="H428" s="208"/>
-      <c r="I428" s="208"/>
-      <c r="J428" s="208"/>
-      <c r="K428" s="208"/>
-      <c r="L428" s="209"/>
-      <c r="M428" s="207"/>
-      <c r="N428" s="208"/>
-      <c r="O428" s="208"/>
-      <c r="P428" s="208"/>
-      <c r="Q428" s="208"/>
-      <c r="R428" s="209"/>
-      <c r="S428" s="207"/>
-      <c r="T428" s="208"/>
-      <c r="U428" s="208"/>
-      <c r="V428" s="208"/>
-      <c r="W428" s="208"/>
-      <c r="X428" s="209"/>
-      <c r="Y428" s="207"/>
-      <c r="Z428" s="208"/>
-      <c r="AA428" s="208"/>
-      <c r="AB428" s="208"/>
-      <c r="AC428" s="208"/>
-      <c r="AD428" s="209"/>
+      <c r="A428" s="182"/>
+      <c r="B428" s="183"/>
+      <c r="C428" s="183"/>
+      <c r="D428" s="183"/>
+      <c r="E428" s="183"/>
+      <c r="F428" s="184"/>
+      <c r="G428" s="182"/>
+      <c r="H428" s="183"/>
+      <c r="I428" s="183"/>
+      <c r="J428" s="183"/>
+      <c r="K428" s="183"/>
+      <c r="L428" s="184"/>
+      <c r="M428" s="182"/>
+      <c r="N428" s="183"/>
+      <c r="O428" s="183"/>
+      <c r="P428" s="183"/>
+      <c r="Q428" s="183"/>
+      <c r="R428" s="184"/>
+      <c r="S428" s="182"/>
+      <c r="T428" s="183"/>
+      <c r="U428" s="183"/>
+      <c r="V428" s="183"/>
+      <c r="W428" s="183"/>
+      <c r="X428" s="184"/>
+      <c r="Y428" s="182"/>
+      <c r="Z428" s="183"/>
+      <c r="AA428" s="183"/>
+      <c r="AB428" s="183"/>
+      <c r="AC428" s="183"/>
+      <c r="AD428" s="184"/>
     </row>
     <row r="429" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A429" s="87" t="s">
@@ -20357,83 +20361,83 @@
       <c r="AD441" s="93"/>
     </row>
     <row r="442" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A442" s="178">
+      <c r="A442" s="181">
         <f t="shared" ref="A442" si="103">A427+7</f>
         <v>44039</v>
       </c>
-      <c r="B442" s="178"/>
-      <c r="C442" s="178"/>
-      <c r="D442" s="178"/>
-      <c r="E442" s="178"/>
-      <c r="F442" s="178"/>
-      <c r="G442" s="178">
+      <c r="B442" s="181"/>
+      <c r="C442" s="181"/>
+      <c r="D442" s="181"/>
+      <c r="E442" s="181"/>
+      <c r="F442" s="181"/>
+      <c r="G442" s="181">
         <f t="shared" ref="G442" si="104">A442+1</f>
         <v>44040</v>
       </c>
-      <c r="H442" s="178"/>
-      <c r="I442" s="178"/>
-      <c r="J442" s="178"/>
-      <c r="K442" s="178"/>
-      <c r="L442" s="178"/>
-      <c r="M442" s="178">
+      <c r="H442" s="181"/>
+      <c r="I442" s="181"/>
+      <c r="J442" s="181"/>
+      <c r="K442" s="181"/>
+      <c r="L442" s="181"/>
+      <c r="M442" s="181">
         <f t="shared" ref="M442" si="105">G442+1</f>
         <v>44041</v>
       </c>
-      <c r="N442" s="178"/>
-      <c r="O442" s="178"/>
-      <c r="P442" s="178"/>
-      <c r="Q442" s="178"/>
-      <c r="R442" s="178"/>
-      <c r="S442" s="178">
+      <c r="N442" s="181"/>
+      <c r="O442" s="181"/>
+      <c r="P442" s="181"/>
+      <c r="Q442" s="181"/>
+      <c r="R442" s="181"/>
+      <c r="S442" s="181">
         <f t="shared" ref="S442" si="106">M442+1</f>
         <v>44042</v>
       </c>
-      <c r="T442" s="178"/>
-      <c r="U442" s="178"/>
-      <c r="V442" s="178"/>
-      <c r="W442" s="178"/>
-      <c r="X442" s="178"/>
-      <c r="Y442" s="178">
+      <c r="T442" s="181"/>
+      <c r="U442" s="181"/>
+      <c r="V442" s="181"/>
+      <c r="W442" s="181"/>
+      <c r="X442" s="181"/>
+      <c r="Y442" s="181">
         <f t="shared" ref="Y442" si="107">S442+1</f>
         <v>44043</v>
       </c>
-      <c r="Z442" s="178"/>
-      <c r="AA442" s="178"/>
-      <c r="AB442" s="178"/>
-      <c r="AC442" s="178"/>
-      <c r="AD442" s="178"/>
+      <c r="Z442" s="181"/>
+      <c r="AA442" s="181"/>
+      <c r="AB442" s="181"/>
+      <c r="AC442" s="181"/>
+      <c r="AD442" s="181"/>
     </row>
     <row r="443" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A443" s="207"/>
-      <c r="B443" s="208"/>
-      <c r="C443" s="208"/>
-      <c r="D443" s="208"/>
-      <c r="E443" s="208"/>
-      <c r="F443" s="209"/>
-      <c r="G443" s="207"/>
-      <c r="H443" s="208"/>
-      <c r="I443" s="208"/>
-      <c r="J443" s="208"/>
-      <c r="K443" s="208"/>
-      <c r="L443" s="209"/>
-      <c r="M443" s="207"/>
-      <c r="N443" s="208"/>
-      <c r="O443" s="208"/>
-      <c r="P443" s="208"/>
-      <c r="Q443" s="208"/>
-      <c r="R443" s="209"/>
-      <c r="S443" s="207"/>
-      <c r="T443" s="208"/>
-      <c r="U443" s="208"/>
-      <c r="V443" s="208"/>
-      <c r="W443" s="208"/>
-      <c r="X443" s="209"/>
-      <c r="Y443" s="207"/>
-      <c r="Z443" s="208"/>
-      <c r="AA443" s="208"/>
-      <c r="AB443" s="208"/>
-      <c r="AC443" s="208"/>
-      <c r="AD443" s="209"/>
+      <c r="A443" s="182"/>
+      <c r="B443" s="183"/>
+      <c r="C443" s="183"/>
+      <c r="D443" s="183"/>
+      <c r="E443" s="183"/>
+      <c r="F443" s="184"/>
+      <c r="G443" s="182"/>
+      <c r="H443" s="183"/>
+      <c r="I443" s="183"/>
+      <c r="J443" s="183"/>
+      <c r="K443" s="183"/>
+      <c r="L443" s="184"/>
+      <c r="M443" s="182"/>
+      <c r="N443" s="183"/>
+      <c r="O443" s="183"/>
+      <c r="P443" s="183"/>
+      <c r="Q443" s="183"/>
+      <c r="R443" s="184"/>
+      <c r="S443" s="182"/>
+      <c r="T443" s="183"/>
+      <c r="U443" s="183"/>
+      <c r="V443" s="183"/>
+      <c r="W443" s="183"/>
+      <c r="X443" s="184"/>
+      <c r="Y443" s="182"/>
+      <c r="Z443" s="183"/>
+      <c r="AA443" s="183"/>
+      <c r="AB443" s="183"/>
+      <c r="AC443" s="183"/>
+      <c r="AD443" s="184"/>
     </row>
     <row r="444" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A444" s="87" t="s">
@@ -20912,83 +20916,83 @@
       <c r="AD456" s="93"/>
     </row>
     <row r="457" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A457" s="178">
+      <c r="A457" s="181">
         <f t="shared" ref="A457" si="108">A442+7</f>
         <v>44046</v>
       </c>
-      <c r="B457" s="178"/>
-      <c r="C457" s="178"/>
-      <c r="D457" s="178"/>
-      <c r="E457" s="178"/>
-      <c r="F457" s="178"/>
-      <c r="G457" s="178">
+      <c r="B457" s="181"/>
+      <c r="C457" s="181"/>
+      <c r="D457" s="181"/>
+      <c r="E457" s="181"/>
+      <c r="F457" s="181"/>
+      <c r="G457" s="181">
         <f t="shared" ref="G457" si="109">A457+1</f>
         <v>44047</v>
       </c>
-      <c r="H457" s="178"/>
-      <c r="I457" s="178"/>
-      <c r="J457" s="178"/>
-      <c r="K457" s="178"/>
-      <c r="L457" s="178"/>
-      <c r="M457" s="178">
+      <c r="H457" s="181"/>
+      <c r="I457" s="181"/>
+      <c r="J457" s="181"/>
+      <c r="K457" s="181"/>
+      <c r="L457" s="181"/>
+      <c r="M457" s="181">
         <f t="shared" ref="M457" si="110">G457+1</f>
         <v>44048</v>
       </c>
-      <c r="N457" s="178"/>
-      <c r="O457" s="178"/>
-      <c r="P457" s="178"/>
-      <c r="Q457" s="178"/>
-      <c r="R457" s="178"/>
-      <c r="S457" s="178">
+      <c r="N457" s="181"/>
+      <c r="O457" s="181"/>
+      <c r="P457" s="181"/>
+      <c r="Q457" s="181"/>
+      <c r="R457" s="181"/>
+      <c r="S457" s="181">
         <f t="shared" ref="S457" si="111">M457+1</f>
         <v>44049</v>
       </c>
-      <c r="T457" s="178"/>
-      <c r="U457" s="178"/>
-      <c r="V457" s="178"/>
-      <c r="W457" s="178"/>
-      <c r="X457" s="178"/>
-      <c r="Y457" s="178">
+      <c r="T457" s="181"/>
+      <c r="U457" s="181"/>
+      <c r="V457" s="181"/>
+      <c r="W457" s="181"/>
+      <c r="X457" s="181"/>
+      <c r="Y457" s="181">
         <f t="shared" ref="Y457" si="112">S457+1</f>
         <v>44050</v>
       </c>
-      <c r="Z457" s="178"/>
-      <c r="AA457" s="178"/>
-      <c r="AB457" s="178"/>
-      <c r="AC457" s="178"/>
-      <c r="AD457" s="178"/>
+      <c r="Z457" s="181"/>
+      <c r="AA457" s="181"/>
+      <c r="AB457" s="181"/>
+      <c r="AC457" s="181"/>
+      <c r="AD457" s="181"/>
     </row>
     <row r="458" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A458" s="207"/>
-      <c r="B458" s="208"/>
-      <c r="C458" s="208"/>
-      <c r="D458" s="208"/>
-      <c r="E458" s="208"/>
-      <c r="F458" s="209"/>
-      <c r="G458" s="207"/>
-      <c r="H458" s="208"/>
-      <c r="I458" s="208"/>
-      <c r="J458" s="208"/>
-      <c r="K458" s="208"/>
-      <c r="L458" s="209"/>
-      <c r="M458" s="207"/>
-      <c r="N458" s="208"/>
-      <c r="O458" s="208"/>
-      <c r="P458" s="208"/>
-      <c r="Q458" s="208"/>
-      <c r="R458" s="209"/>
-      <c r="S458" s="207"/>
-      <c r="T458" s="208"/>
-      <c r="U458" s="208"/>
-      <c r="V458" s="208"/>
-      <c r="W458" s="208"/>
-      <c r="X458" s="209"/>
-      <c r="Y458" s="207"/>
-      <c r="Z458" s="208"/>
-      <c r="AA458" s="208"/>
-      <c r="AB458" s="208"/>
-      <c r="AC458" s="208"/>
-      <c r="AD458" s="209"/>
+      <c r="A458" s="182"/>
+      <c r="B458" s="183"/>
+      <c r="C458" s="183"/>
+      <c r="D458" s="183"/>
+      <c r="E458" s="183"/>
+      <c r="F458" s="184"/>
+      <c r="G458" s="182"/>
+      <c r="H458" s="183"/>
+      <c r="I458" s="183"/>
+      <c r="J458" s="183"/>
+      <c r="K458" s="183"/>
+      <c r="L458" s="184"/>
+      <c r="M458" s="182"/>
+      <c r="N458" s="183"/>
+      <c r="O458" s="183"/>
+      <c r="P458" s="183"/>
+      <c r="Q458" s="183"/>
+      <c r="R458" s="184"/>
+      <c r="S458" s="182"/>
+      <c r="T458" s="183"/>
+      <c r="U458" s="183"/>
+      <c r="V458" s="183"/>
+      <c r="W458" s="183"/>
+      <c r="X458" s="184"/>
+      <c r="Y458" s="182"/>
+      <c r="Z458" s="183"/>
+      <c r="AA458" s="183"/>
+      <c r="AB458" s="183"/>
+      <c r="AC458" s="183"/>
+      <c r="AD458" s="184"/>
     </row>
     <row r="459" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A459" s="87" t="s">
@@ -21467,83 +21471,83 @@
       <c r="AD471" s="93"/>
     </row>
     <row r="472" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A472" s="178">
+      <c r="A472" s="181">
         <f t="shared" ref="A472" si="113">A457+7</f>
         <v>44053</v>
       </c>
-      <c r="B472" s="178"/>
-      <c r="C472" s="178"/>
-      <c r="D472" s="178"/>
-      <c r="E472" s="178"/>
-      <c r="F472" s="178"/>
-      <c r="G472" s="178">
+      <c r="B472" s="181"/>
+      <c r="C472" s="181"/>
+      <c r="D472" s="181"/>
+      <c r="E472" s="181"/>
+      <c r="F472" s="181"/>
+      <c r="G472" s="181">
         <f t="shared" ref="G472" si="114">A472+1</f>
         <v>44054</v>
       </c>
-      <c r="H472" s="178"/>
-      <c r="I472" s="178"/>
-      <c r="J472" s="178"/>
-      <c r="K472" s="178"/>
-      <c r="L472" s="178"/>
-      <c r="M472" s="178">
+      <c r="H472" s="181"/>
+      <c r="I472" s="181"/>
+      <c r="J472" s="181"/>
+      <c r="K472" s="181"/>
+      <c r="L472" s="181"/>
+      <c r="M472" s="181">
         <f t="shared" ref="M472" si="115">G472+1</f>
         <v>44055</v>
       </c>
-      <c r="N472" s="178"/>
-      <c r="O472" s="178"/>
-      <c r="P472" s="178"/>
-      <c r="Q472" s="178"/>
-      <c r="R472" s="178"/>
-      <c r="S472" s="178">
+      <c r="N472" s="181"/>
+      <c r="O472" s="181"/>
+      <c r="P472" s="181"/>
+      <c r="Q472" s="181"/>
+      <c r="R472" s="181"/>
+      <c r="S472" s="181">
         <f t="shared" ref="S472" si="116">M472+1</f>
         <v>44056</v>
       </c>
-      <c r="T472" s="178"/>
-      <c r="U472" s="178"/>
-      <c r="V472" s="178"/>
-      <c r="W472" s="178"/>
-      <c r="X472" s="178"/>
-      <c r="Y472" s="178">
+      <c r="T472" s="181"/>
+      <c r="U472" s="181"/>
+      <c r="V472" s="181"/>
+      <c r="W472" s="181"/>
+      <c r="X472" s="181"/>
+      <c r="Y472" s="181">
         <f t="shared" ref="Y472" si="117">S472+1</f>
         <v>44057</v>
       </c>
-      <c r="Z472" s="178"/>
-      <c r="AA472" s="178"/>
-      <c r="AB472" s="178"/>
-      <c r="AC472" s="178"/>
-      <c r="AD472" s="178"/>
+      <c r="Z472" s="181"/>
+      <c r="AA472" s="181"/>
+      <c r="AB472" s="181"/>
+      <c r="AC472" s="181"/>
+      <c r="AD472" s="181"/>
     </row>
     <row r="473" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A473" s="207"/>
-      <c r="B473" s="208"/>
-      <c r="C473" s="208"/>
-      <c r="D473" s="208"/>
-      <c r="E473" s="208"/>
-      <c r="F473" s="209"/>
-      <c r="G473" s="207"/>
-      <c r="H473" s="208"/>
-      <c r="I473" s="208"/>
-      <c r="J473" s="208"/>
-      <c r="K473" s="208"/>
-      <c r="L473" s="209"/>
-      <c r="M473" s="207"/>
-      <c r="N473" s="208"/>
-      <c r="O473" s="208"/>
-      <c r="P473" s="208"/>
-      <c r="Q473" s="208"/>
-      <c r="R473" s="209"/>
-      <c r="S473" s="207"/>
-      <c r="T473" s="208"/>
-      <c r="U473" s="208"/>
-      <c r="V473" s="208"/>
-      <c r="W473" s="208"/>
-      <c r="X473" s="209"/>
-      <c r="Y473" s="207"/>
-      <c r="Z473" s="208"/>
-      <c r="AA473" s="208"/>
-      <c r="AB473" s="208"/>
-      <c r="AC473" s="208"/>
-      <c r="AD473" s="209"/>
+      <c r="A473" s="182"/>
+      <c r="B473" s="183"/>
+      <c r="C473" s="183"/>
+      <c r="D473" s="183"/>
+      <c r="E473" s="183"/>
+      <c r="F473" s="184"/>
+      <c r="G473" s="182"/>
+      <c r="H473" s="183"/>
+      <c r="I473" s="183"/>
+      <c r="J473" s="183"/>
+      <c r="K473" s="183"/>
+      <c r="L473" s="184"/>
+      <c r="M473" s="182"/>
+      <c r="N473" s="183"/>
+      <c r="O473" s="183"/>
+      <c r="P473" s="183"/>
+      <c r="Q473" s="183"/>
+      <c r="R473" s="184"/>
+      <c r="S473" s="182"/>
+      <c r="T473" s="183"/>
+      <c r="U473" s="183"/>
+      <c r="V473" s="183"/>
+      <c r="W473" s="183"/>
+      <c r="X473" s="184"/>
+      <c r="Y473" s="182"/>
+      <c r="Z473" s="183"/>
+      <c r="AA473" s="183"/>
+      <c r="AB473" s="183"/>
+      <c r="AC473" s="183"/>
+      <c r="AD473" s="184"/>
     </row>
     <row r="474" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A474" s="87" t="s">
@@ -22022,83 +22026,83 @@
       <c r="AD486" s="93"/>
     </row>
     <row r="487" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A487" s="178">
+      <c r="A487" s="181">
         <f t="shared" ref="A487" si="118">A472+7</f>
         <v>44060</v>
       </c>
-      <c r="B487" s="178"/>
-      <c r="C487" s="178"/>
-      <c r="D487" s="178"/>
-      <c r="E487" s="178"/>
-      <c r="F487" s="178"/>
-      <c r="G487" s="178">
+      <c r="B487" s="181"/>
+      <c r="C487" s="181"/>
+      <c r="D487" s="181"/>
+      <c r="E487" s="181"/>
+      <c r="F487" s="181"/>
+      <c r="G487" s="181">
         <f t="shared" ref="G487" si="119">A487+1</f>
         <v>44061</v>
       </c>
-      <c r="H487" s="178"/>
-      <c r="I487" s="178"/>
-      <c r="J487" s="178"/>
-      <c r="K487" s="178"/>
-      <c r="L487" s="178"/>
-      <c r="M487" s="178">
+      <c r="H487" s="181"/>
+      <c r="I487" s="181"/>
+      <c r="J487" s="181"/>
+      <c r="K487" s="181"/>
+      <c r="L487" s="181"/>
+      <c r="M487" s="181">
         <f t="shared" ref="M487" si="120">G487+1</f>
         <v>44062</v>
       </c>
-      <c r="N487" s="178"/>
-      <c r="O487" s="178"/>
-      <c r="P487" s="178"/>
-      <c r="Q487" s="178"/>
-      <c r="R487" s="178"/>
-      <c r="S487" s="178">
+      <c r="N487" s="181"/>
+      <c r="O487" s="181"/>
+      <c r="P487" s="181"/>
+      <c r="Q487" s="181"/>
+      <c r="R487" s="181"/>
+      <c r="S487" s="181">
         <f t="shared" ref="S487" si="121">M487+1</f>
         <v>44063</v>
       </c>
-      <c r="T487" s="178"/>
-      <c r="U487" s="178"/>
-      <c r="V487" s="178"/>
-      <c r="W487" s="178"/>
-      <c r="X487" s="178"/>
-      <c r="Y487" s="178">
+      <c r="T487" s="181"/>
+      <c r="U487" s="181"/>
+      <c r="V487" s="181"/>
+      <c r="W487" s="181"/>
+      <c r="X487" s="181"/>
+      <c r="Y487" s="181">
         <f t="shared" ref="Y487" si="122">S487+1</f>
         <v>44064</v>
       </c>
-      <c r="Z487" s="178"/>
-      <c r="AA487" s="178"/>
-      <c r="AB487" s="178"/>
-      <c r="AC487" s="178"/>
-      <c r="AD487" s="178"/>
+      <c r="Z487" s="181"/>
+      <c r="AA487" s="181"/>
+      <c r="AB487" s="181"/>
+      <c r="AC487" s="181"/>
+      <c r="AD487" s="181"/>
     </row>
     <row r="488" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A488" s="207"/>
-      <c r="B488" s="208"/>
-      <c r="C488" s="208"/>
-      <c r="D488" s="208"/>
-      <c r="E488" s="208"/>
-      <c r="F488" s="209"/>
-      <c r="G488" s="207"/>
-      <c r="H488" s="208"/>
-      <c r="I488" s="208"/>
-      <c r="J488" s="208"/>
-      <c r="K488" s="208"/>
-      <c r="L488" s="209"/>
-      <c r="M488" s="207"/>
-      <c r="N488" s="208"/>
-      <c r="O488" s="208"/>
-      <c r="P488" s="208"/>
-      <c r="Q488" s="208"/>
-      <c r="R488" s="209"/>
-      <c r="S488" s="207"/>
-      <c r="T488" s="208"/>
-      <c r="U488" s="208"/>
-      <c r="V488" s="208"/>
-      <c r="W488" s="208"/>
-      <c r="X488" s="209"/>
-      <c r="Y488" s="207"/>
-      <c r="Z488" s="208"/>
-      <c r="AA488" s="208"/>
-      <c r="AB488" s="208"/>
-      <c r="AC488" s="208"/>
-      <c r="AD488" s="209"/>
+      <c r="A488" s="182"/>
+      <c r="B488" s="183"/>
+      <c r="C488" s="183"/>
+      <c r="D488" s="183"/>
+      <c r="E488" s="183"/>
+      <c r="F488" s="184"/>
+      <c r="G488" s="182"/>
+      <c r="H488" s="183"/>
+      <c r="I488" s="183"/>
+      <c r="J488" s="183"/>
+      <c r="K488" s="183"/>
+      <c r="L488" s="184"/>
+      <c r="M488" s="182"/>
+      <c r="N488" s="183"/>
+      <c r="O488" s="183"/>
+      <c r="P488" s="183"/>
+      <c r="Q488" s="183"/>
+      <c r="R488" s="184"/>
+      <c r="S488" s="182"/>
+      <c r="T488" s="183"/>
+      <c r="U488" s="183"/>
+      <c r="V488" s="183"/>
+      <c r="W488" s="183"/>
+      <c r="X488" s="184"/>
+      <c r="Y488" s="182"/>
+      <c r="Z488" s="183"/>
+      <c r="AA488" s="183"/>
+      <c r="AB488" s="183"/>
+      <c r="AC488" s="183"/>
+      <c r="AD488" s="184"/>
     </row>
     <row r="489" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A489" s="87" t="s">
@@ -22577,83 +22581,83 @@
       <c r="AD501" s="93"/>
     </row>
     <row r="502" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A502" s="178">
+      <c r="A502" s="181">
         <f t="shared" ref="A502" si="123">A487+7</f>
         <v>44067</v>
       </c>
-      <c r="B502" s="178"/>
-      <c r="C502" s="178"/>
-      <c r="D502" s="178"/>
-      <c r="E502" s="178"/>
-      <c r="F502" s="178"/>
-      <c r="G502" s="178">
+      <c r="B502" s="181"/>
+      <c r="C502" s="181"/>
+      <c r="D502" s="181"/>
+      <c r="E502" s="181"/>
+      <c r="F502" s="181"/>
+      <c r="G502" s="181">
         <f t="shared" ref="G502" si="124">A502+1</f>
         <v>44068</v>
       </c>
-      <c r="H502" s="178"/>
-      <c r="I502" s="178"/>
-      <c r="J502" s="178"/>
-      <c r="K502" s="178"/>
-      <c r="L502" s="178"/>
-      <c r="M502" s="178">
+      <c r="H502" s="181"/>
+      <c r="I502" s="181"/>
+      <c r="J502" s="181"/>
+      <c r="K502" s="181"/>
+      <c r="L502" s="181"/>
+      <c r="M502" s="181">
         <f t="shared" ref="M502" si="125">G502+1</f>
         <v>44069</v>
       </c>
-      <c r="N502" s="178"/>
-      <c r="O502" s="178"/>
-      <c r="P502" s="178"/>
-      <c r="Q502" s="178"/>
-      <c r="R502" s="178"/>
-      <c r="S502" s="178">
+      <c r="N502" s="181"/>
+      <c r="O502" s="181"/>
+      <c r="P502" s="181"/>
+      <c r="Q502" s="181"/>
+      <c r="R502" s="181"/>
+      <c r="S502" s="181">
         <f t="shared" ref="S502" si="126">M502+1</f>
         <v>44070</v>
       </c>
-      <c r="T502" s="178"/>
-      <c r="U502" s="178"/>
-      <c r="V502" s="178"/>
-      <c r="W502" s="178"/>
-      <c r="X502" s="178"/>
-      <c r="Y502" s="178">
+      <c r="T502" s="181"/>
+      <c r="U502" s="181"/>
+      <c r="V502" s="181"/>
+      <c r="W502" s="181"/>
+      <c r="X502" s="181"/>
+      <c r="Y502" s="181">
         <f t="shared" ref="Y502" si="127">S502+1</f>
         <v>44071</v>
       </c>
-      <c r="Z502" s="178"/>
-      <c r="AA502" s="178"/>
-      <c r="AB502" s="178"/>
-      <c r="AC502" s="178"/>
-      <c r="AD502" s="178"/>
+      <c r="Z502" s="181"/>
+      <c r="AA502" s="181"/>
+      <c r="AB502" s="181"/>
+      <c r="AC502" s="181"/>
+      <c r="AD502" s="181"/>
     </row>
     <row r="503" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A503" s="207"/>
-      <c r="B503" s="208"/>
-      <c r="C503" s="208"/>
-      <c r="D503" s="208"/>
-      <c r="E503" s="208"/>
-      <c r="F503" s="209"/>
-      <c r="G503" s="207"/>
-      <c r="H503" s="208"/>
-      <c r="I503" s="208"/>
-      <c r="J503" s="208"/>
-      <c r="K503" s="208"/>
-      <c r="L503" s="209"/>
-      <c r="M503" s="207"/>
-      <c r="N503" s="208"/>
-      <c r="O503" s="208"/>
-      <c r="P503" s="208"/>
-      <c r="Q503" s="208"/>
-      <c r="R503" s="209"/>
-      <c r="S503" s="207"/>
-      <c r="T503" s="208"/>
-      <c r="U503" s="208"/>
-      <c r="V503" s="208"/>
-      <c r="W503" s="208"/>
-      <c r="X503" s="209"/>
-      <c r="Y503" s="207"/>
-      <c r="Z503" s="208"/>
-      <c r="AA503" s="208"/>
-      <c r="AB503" s="208"/>
-      <c r="AC503" s="208"/>
-      <c r="AD503" s="209"/>
+      <c r="A503" s="182"/>
+      <c r="B503" s="183"/>
+      <c r="C503" s="183"/>
+      <c r="D503" s="183"/>
+      <c r="E503" s="183"/>
+      <c r="F503" s="184"/>
+      <c r="G503" s="182"/>
+      <c r="H503" s="183"/>
+      <c r="I503" s="183"/>
+      <c r="J503" s="183"/>
+      <c r="K503" s="183"/>
+      <c r="L503" s="184"/>
+      <c r="M503" s="182"/>
+      <c r="N503" s="183"/>
+      <c r="O503" s="183"/>
+      <c r="P503" s="183"/>
+      <c r="Q503" s="183"/>
+      <c r="R503" s="184"/>
+      <c r="S503" s="182"/>
+      <c r="T503" s="183"/>
+      <c r="U503" s="183"/>
+      <c r="V503" s="183"/>
+      <c r="W503" s="183"/>
+      <c r="X503" s="184"/>
+      <c r="Y503" s="182"/>
+      <c r="Z503" s="183"/>
+      <c r="AA503" s="183"/>
+      <c r="AB503" s="183"/>
+      <c r="AC503" s="183"/>
+      <c r="AD503" s="184"/>
     </row>
     <row r="504" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A504" s="87" t="s">
@@ -23132,83 +23136,83 @@
       <c r="AD516" s="93"/>
     </row>
     <row r="517" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A517" s="178">
+      <c r="A517" s="181">
         <f t="shared" ref="A517" si="128">A502+7</f>
         <v>44074</v>
       </c>
-      <c r="B517" s="178"/>
-      <c r="C517" s="178"/>
-      <c r="D517" s="178"/>
-      <c r="E517" s="178"/>
-      <c r="F517" s="178"/>
-      <c r="G517" s="178">
+      <c r="B517" s="181"/>
+      <c r="C517" s="181"/>
+      <c r="D517" s="181"/>
+      <c r="E517" s="181"/>
+      <c r="F517" s="181"/>
+      <c r="G517" s="181">
         <f t="shared" ref="G517" si="129">A517+1</f>
         <v>44075</v>
       </c>
-      <c r="H517" s="178"/>
-      <c r="I517" s="178"/>
-      <c r="J517" s="178"/>
-      <c r="K517" s="178"/>
-      <c r="L517" s="178"/>
-      <c r="M517" s="178">
+      <c r="H517" s="181"/>
+      <c r="I517" s="181"/>
+      <c r="J517" s="181"/>
+      <c r="K517" s="181"/>
+      <c r="L517" s="181"/>
+      <c r="M517" s="181">
         <f t="shared" ref="M517" si="130">G517+1</f>
         <v>44076</v>
       </c>
-      <c r="N517" s="178"/>
-      <c r="O517" s="178"/>
-      <c r="P517" s="178"/>
-      <c r="Q517" s="178"/>
-      <c r="R517" s="178"/>
-      <c r="S517" s="178">
+      <c r="N517" s="181"/>
+      <c r="O517" s="181"/>
+      <c r="P517" s="181"/>
+      <c r="Q517" s="181"/>
+      <c r="R517" s="181"/>
+      <c r="S517" s="181">
         <f t="shared" ref="S517" si="131">M517+1</f>
         <v>44077</v>
       </c>
-      <c r="T517" s="178"/>
-      <c r="U517" s="178"/>
-      <c r="V517" s="178"/>
-      <c r="W517" s="178"/>
-      <c r="X517" s="178"/>
-      <c r="Y517" s="178">
+      <c r="T517" s="181"/>
+      <c r="U517" s="181"/>
+      <c r="V517" s="181"/>
+      <c r="W517" s="181"/>
+      <c r="X517" s="181"/>
+      <c r="Y517" s="181">
         <f t="shared" ref="Y517" si="132">S517+1</f>
         <v>44078</v>
       </c>
-      <c r="Z517" s="178"/>
-      <c r="AA517" s="178"/>
-      <c r="AB517" s="178"/>
-      <c r="AC517" s="178"/>
-      <c r="AD517" s="178"/>
+      <c r="Z517" s="181"/>
+      <c r="AA517" s="181"/>
+      <c r="AB517" s="181"/>
+      <c r="AC517" s="181"/>
+      <c r="AD517" s="181"/>
     </row>
     <row r="518" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A518" s="207"/>
-      <c r="B518" s="208"/>
-      <c r="C518" s="208"/>
-      <c r="D518" s="208"/>
-      <c r="E518" s="208"/>
-      <c r="F518" s="209"/>
-      <c r="G518" s="207"/>
-      <c r="H518" s="208"/>
-      <c r="I518" s="208"/>
-      <c r="J518" s="208"/>
-      <c r="K518" s="208"/>
-      <c r="L518" s="209"/>
-      <c r="M518" s="207"/>
-      <c r="N518" s="208"/>
-      <c r="O518" s="208"/>
-      <c r="P518" s="208"/>
-      <c r="Q518" s="208"/>
-      <c r="R518" s="209"/>
-      <c r="S518" s="207"/>
-      <c r="T518" s="208"/>
-      <c r="U518" s="208"/>
-      <c r="V518" s="208"/>
-      <c r="W518" s="208"/>
-      <c r="X518" s="209"/>
-      <c r="Y518" s="207"/>
-      <c r="Z518" s="208"/>
-      <c r="AA518" s="208"/>
-      <c r="AB518" s="208"/>
-      <c r="AC518" s="208"/>
-      <c r="AD518" s="209"/>
+      <c r="A518" s="182"/>
+      <c r="B518" s="183"/>
+      <c r="C518" s="183"/>
+      <c r="D518" s="183"/>
+      <c r="E518" s="183"/>
+      <c r="F518" s="184"/>
+      <c r="G518" s="182"/>
+      <c r="H518" s="183"/>
+      <c r="I518" s="183"/>
+      <c r="J518" s="183"/>
+      <c r="K518" s="183"/>
+      <c r="L518" s="184"/>
+      <c r="M518" s="182"/>
+      <c r="N518" s="183"/>
+      <c r="O518" s="183"/>
+      <c r="P518" s="183"/>
+      <c r="Q518" s="183"/>
+      <c r="R518" s="184"/>
+      <c r="S518" s="182"/>
+      <c r="T518" s="183"/>
+      <c r="U518" s="183"/>
+      <c r="V518" s="183"/>
+      <c r="W518" s="183"/>
+      <c r="X518" s="184"/>
+      <c r="Y518" s="182"/>
+      <c r="Z518" s="183"/>
+      <c r="AA518" s="183"/>
+      <c r="AB518" s="183"/>
+      <c r="AC518" s="183"/>
+      <c r="AD518" s="184"/>
     </row>
     <row r="519" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A519" s="87" t="s">
@@ -23687,83 +23691,83 @@
       <c r="AD531" s="93"/>
     </row>
     <row r="532" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A532" s="178">
+      <c r="A532" s="181">
         <f t="shared" ref="A532" si="133">A517+7</f>
         <v>44081</v>
       </c>
-      <c r="B532" s="178"/>
-      <c r="C532" s="178"/>
-      <c r="D532" s="178"/>
-      <c r="E532" s="178"/>
-      <c r="F532" s="178"/>
-      <c r="G532" s="178">
+      <c r="B532" s="181"/>
+      <c r="C532" s="181"/>
+      <c r="D532" s="181"/>
+      <c r="E532" s="181"/>
+      <c r="F532" s="181"/>
+      <c r="G532" s="181">
         <f t="shared" ref="G532" si="134">A532+1</f>
         <v>44082</v>
       </c>
-      <c r="H532" s="178"/>
-      <c r="I532" s="178"/>
-      <c r="J532" s="178"/>
-      <c r="K532" s="178"/>
-      <c r="L532" s="178"/>
-      <c r="M532" s="178">
+      <c r="H532" s="181"/>
+      <c r="I532" s="181"/>
+      <c r="J532" s="181"/>
+      <c r="K532" s="181"/>
+      <c r="L532" s="181"/>
+      <c r="M532" s="181">
         <f t="shared" ref="M532" si="135">G532+1</f>
         <v>44083</v>
       </c>
-      <c r="N532" s="178"/>
-      <c r="O532" s="178"/>
-      <c r="P532" s="178"/>
-      <c r="Q532" s="178"/>
-      <c r="R532" s="178"/>
-      <c r="S532" s="178">
+      <c r="N532" s="181"/>
+      <c r="O532" s="181"/>
+      <c r="P532" s="181"/>
+      <c r="Q532" s="181"/>
+      <c r="R532" s="181"/>
+      <c r="S532" s="181">
         <f t="shared" ref="S532" si="136">M532+1</f>
         <v>44084</v>
       </c>
-      <c r="T532" s="178"/>
-      <c r="U532" s="178"/>
-      <c r="V532" s="178"/>
-      <c r="W532" s="178"/>
-      <c r="X532" s="178"/>
-      <c r="Y532" s="178">
+      <c r="T532" s="181"/>
+      <c r="U532" s="181"/>
+      <c r="V532" s="181"/>
+      <c r="W532" s="181"/>
+      <c r="X532" s="181"/>
+      <c r="Y532" s="181">
         <f t="shared" ref="Y532" si="137">S532+1</f>
         <v>44085</v>
       </c>
-      <c r="Z532" s="178"/>
-      <c r="AA532" s="178"/>
-      <c r="AB532" s="178"/>
-      <c r="AC532" s="178"/>
-      <c r="AD532" s="178"/>
+      <c r="Z532" s="181"/>
+      <c r="AA532" s="181"/>
+      <c r="AB532" s="181"/>
+      <c r="AC532" s="181"/>
+      <c r="AD532" s="181"/>
     </row>
     <row r="533" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A533" s="207"/>
-      <c r="B533" s="208"/>
-      <c r="C533" s="208"/>
-      <c r="D533" s="208"/>
-      <c r="E533" s="208"/>
-      <c r="F533" s="209"/>
-      <c r="G533" s="207"/>
-      <c r="H533" s="208"/>
-      <c r="I533" s="208"/>
-      <c r="J533" s="208"/>
-      <c r="K533" s="208"/>
-      <c r="L533" s="209"/>
-      <c r="M533" s="207"/>
-      <c r="N533" s="208"/>
-      <c r="O533" s="208"/>
-      <c r="P533" s="208"/>
-      <c r="Q533" s="208"/>
-      <c r="R533" s="209"/>
-      <c r="S533" s="207"/>
-      <c r="T533" s="208"/>
-      <c r="U533" s="208"/>
-      <c r="V533" s="208"/>
-      <c r="W533" s="208"/>
-      <c r="X533" s="209"/>
-      <c r="Y533" s="207"/>
-      <c r="Z533" s="208"/>
-      <c r="AA533" s="208"/>
-      <c r="AB533" s="208"/>
-      <c r="AC533" s="208"/>
-      <c r="AD533" s="209"/>
+      <c r="A533" s="182"/>
+      <c r="B533" s="183"/>
+      <c r="C533" s="183"/>
+      <c r="D533" s="183"/>
+      <c r="E533" s="183"/>
+      <c r="F533" s="184"/>
+      <c r="G533" s="182"/>
+      <c r="H533" s="183"/>
+      <c r="I533" s="183"/>
+      <c r="J533" s="183"/>
+      <c r="K533" s="183"/>
+      <c r="L533" s="184"/>
+      <c r="M533" s="182"/>
+      <c r="N533" s="183"/>
+      <c r="O533" s="183"/>
+      <c r="P533" s="183"/>
+      <c r="Q533" s="183"/>
+      <c r="R533" s="184"/>
+      <c r="S533" s="182"/>
+      <c r="T533" s="183"/>
+      <c r="U533" s="183"/>
+      <c r="V533" s="183"/>
+      <c r="W533" s="183"/>
+      <c r="X533" s="184"/>
+      <c r="Y533" s="182"/>
+      <c r="Z533" s="183"/>
+      <c r="AA533" s="183"/>
+      <c r="AB533" s="183"/>
+      <c r="AC533" s="183"/>
+      <c r="AD533" s="184"/>
     </row>
     <row r="534" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A534" s="87" t="s">
@@ -24242,83 +24246,83 @@
       <c r="AD546" s="93"/>
     </row>
     <row r="547" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A547" s="178">
+      <c r="A547" s="181">
         <f t="shared" ref="A547" si="138">A532+7</f>
         <v>44088</v>
       </c>
-      <c r="B547" s="178"/>
-      <c r="C547" s="178"/>
-      <c r="D547" s="178"/>
-      <c r="E547" s="178"/>
-      <c r="F547" s="178"/>
-      <c r="G547" s="178">
+      <c r="B547" s="181"/>
+      <c r="C547" s="181"/>
+      <c r="D547" s="181"/>
+      <c r="E547" s="181"/>
+      <c r="F547" s="181"/>
+      <c r="G547" s="181">
         <f t="shared" ref="G547" si="139">A547+1</f>
         <v>44089</v>
       </c>
-      <c r="H547" s="178"/>
-      <c r="I547" s="178"/>
-      <c r="J547" s="178"/>
-      <c r="K547" s="178"/>
-      <c r="L547" s="178"/>
-      <c r="M547" s="178">
+      <c r="H547" s="181"/>
+      <c r="I547" s="181"/>
+      <c r="J547" s="181"/>
+      <c r="K547" s="181"/>
+      <c r="L547" s="181"/>
+      <c r="M547" s="181">
         <f t="shared" ref="M547" si="140">G547+1</f>
         <v>44090</v>
       </c>
-      <c r="N547" s="178"/>
-      <c r="O547" s="178"/>
-      <c r="P547" s="178"/>
-      <c r="Q547" s="178"/>
-      <c r="R547" s="178"/>
-      <c r="S547" s="178">
+      <c r="N547" s="181"/>
+      <c r="O547" s="181"/>
+      <c r="P547" s="181"/>
+      <c r="Q547" s="181"/>
+      <c r="R547" s="181"/>
+      <c r="S547" s="181">
         <f t="shared" ref="S547" si="141">M547+1</f>
         <v>44091</v>
       </c>
-      <c r="T547" s="178"/>
-      <c r="U547" s="178"/>
-      <c r="V547" s="178"/>
-      <c r="W547" s="178"/>
-      <c r="X547" s="178"/>
-      <c r="Y547" s="178">
+      <c r="T547" s="181"/>
+      <c r="U547" s="181"/>
+      <c r="V547" s="181"/>
+      <c r="W547" s="181"/>
+      <c r="X547" s="181"/>
+      <c r="Y547" s="181">
         <f t="shared" ref="Y547" si="142">S547+1</f>
         <v>44092</v>
       </c>
-      <c r="Z547" s="178"/>
-      <c r="AA547" s="178"/>
-      <c r="AB547" s="178"/>
-      <c r="AC547" s="178"/>
-      <c r="AD547" s="178"/>
+      <c r="Z547" s="181"/>
+      <c r="AA547" s="181"/>
+      <c r="AB547" s="181"/>
+      <c r="AC547" s="181"/>
+      <c r="AD547" s="181"/>
     </row>
     <row r="548" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A548" s="207"/>
-      <c r="B548" s="208"/>
-      <c r="C548" s="208"/>
-      <c r="D548" s="208"/>
-      <c r="E548" s="208"/>
-      <c r="F548" s="209"/>
-      <c r="G548" s="207"/>
-      <c r="H548" s="208"/>
-      <c r="I548" s="208"/>
-      <c r="J548" s="208"/>
-      <c r="K548" s="208"/>
-      <c r="L548" s="209"/>
-      <c r="M548" s="207"/>
-      <c r="N548" s="208"/>
-      <c r="O548" s="208"/>
-      <c r="P548" s="208"/>
-      <c r="Q548" s="208"/>
-      <c r="R548" s="209"/>
-      <c r="S548" s="207"/>
-      <c r="T548" s="208"/>
-      <c r="U548" s="208"/>
-      <c r="V548" s="208"/>
-      <c r="W548" s="208"/>
-      <c r="X548" s="209"/>
-      <c r="Y548" s="207"/>
-      <c r="Z548" s="208"/>
-      <c r="AA548" s="208"/>
-      <c r="AB548" s="208"/>
-      <c r="AC548" s="208"/>
-      <c r="AD548" s="209"/>
+      <c r="A548" s="182"/>
+      <c r="B548" s="183"/>
+      <c r="C548" s="183"/>
+      <c r="D548" s="183"/>
+      <c r="E548" s="183"/>
+      <c r="F548" s="184"/>
+      <c r="G548" s="182"/>
+      <c r="H548" s="183"/>
+      <c r="I548" s="183"/>
+      <c r="J548" s="183"/>
+      <c r="K548" s="183"/>
+      <c r="L548" s="184"/>
+      <c r="M548" s="182"/>
+      <c r="N548" s="183"/>
+      <c r="O548" s="183"/>
+      <c r="P548" s="183"/>
+      <c r="Q548" s="183"/>
+      <c r="R548" s="184"/>
+      <c r="S548" s="182"/>
+      <c r="T548" s="183"/>
+      <c r="U548" s="183"/>
+      <c r="V548" s="183"/>
+      <c r="W548" s="183"/>
+      <c r="X548" s="184"/>
+      <c r="Y548" s="182"/>
+      <c r="Z548" s="183"/>
+      <c r="AA548" s="183"/>
+      <c r="AB548" s="183"/>
+      <c r="AC548" s="183"/>
+      <c r="AD548" s="184"/>
     </row>
     <row r="549" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A549" s="87" t="s">
@@ -24797,83 +24801,83 @@
       <c r="AD561" s="93"/>
     </row>
     <row r="562" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A562" s="178">
+      <c r="A562" s="181">
         <f t="shared" ref="A562" si="143">A547+7</f>
         <v>44095</v>
       </c>
-      <c r="B562" s="178"/>
-      <c r="C562" s="178"/>
-      <c r="D562" s="178"/>
-      <c r="E562" s="178"/>
-      <c r="F562" s="178"/>
-      <c r="G562" s="178">
+      <c r="B562" s="181"/>
+      <c r="C562" s="181"/>
+      <c r="D562" s="181"/>
+      <c r="E562" s="181"/>
+      <c r="F562" s="181"/>
+      <c r="G562" s="181">
         <f t="shared" ref="G562" si="144">A562+1</f>
         <v>44096</v>
       </c>
-      <c r="H562" s="178"/>
-      <c r="I562" s="178"/>
-      <c r="J562" s="178"/>
-      <c r="K562" s="178"/>
-      <c r="L562" s="178"/>
-      <c r="M562" s="178">
+      <c r="H562" s="181"/>
+      <c r="I562" s="181"/>
+      <c r="J562" s="181"/>
+      <c r="K562" s="181"/>
+      <c r="L562" s="181"/>
+      <c r="M562" s="181">
         <f t="shared" ref="M562" si="145">G562+1</f>
         <v>44097</v>
       </c>
-      <c r="N562" s="178"/>
-      <c r="O562" s="178"/>
-      <c r="P562" s="178"/>
-      <c r="Q562" s="178"/>
-      <c r="R562" s="178"/>
-      <c r="S562" s="178">
+      <c r="N562" s="181"/>
+      <c r="O562" s="181"/>
+      <c r="P562" s="181"/>
+      <c r="Q562" s="181"/>
+      <c r="R562" s="181"/>
+      <c r="S562" s="181">
         <f t="shared" ref="S562" si="146">M562+1</f>
         <v>44098</v>
       </c>
-      <c r="T562" s="178"/>
-      <c r="U562" s="178"/>
-      <c r="V562" s="178"/>
-      <c r="W562" s="178"/>
-      <c r="X562" s="178"/>
-      <c r="Y562" s="178">
+      <c r="T562" s="181"/>
+      <c r="U562" s="181"/>
+      <c r="V562" s="181"/>
+      <c r="W562" s="181"/>
+      <c r="X562" s="181"/>
+      <c r="Y562" s="181">
         <f t="shared" ref="Y562" si="147">S562+1</f>
         <v>44099</v>
       </c>
-      <c r="Z562" s="178"/>
-      <c r="AA562" s="178"/>
-      <c r="AB562" s="178"/>
-      <c r="AC562" s="178"/>
-      <c r="AD562" s="178"/>
+      <c r="Z562" s="181"/>
+      <c r="AA562" s="181"/>
+      <c r="AB562" s="181"/>
+      <c r="AC562" s="181"/>
+      <c r="AD562" s="181"/>
     </row>
     <row r="563" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A563" s="207"/>
-      <c r="B563" s="208"/>
-      <c r="C563" s="208"/>
-      <c r="D563" s="208"/>
-      <c r="E563" s="208"/>
-      <c r="F563" s="209"/>
-      <c r="G563" s="207"/>
-      <c r="H563" s="208"/>
-      <c r="I563" s="208"/>
-      <c r="J563" s="208"/>
-      <c r="K563" s="208"/>
-      <c r="L563" s="209"/>
-      <c r="M563" s="207"/>
-      <c r="N563" s="208"/>
-      <c r="O563" s="208"/>
-      <c r="P563" s="208"/>
-      <c r="Q563" s="208"/>
-      <c r="R563" s="209"/>
-      <c r="S563" s="207"/>
-      <c r="T563" s="208"/>
-      <c r="U563" s="208"/>
-      <c r="V563" s="208"/>
-      <c r="W563" s="208"/>
-      <c r="X563" s="209"/>
-      <c r="Y563" s="207"/>
-      <c r="Z563" s="208"/>
-      <c r="AA563" s="208"/>
-      <c r="AB563" s="208"/>
-      <c r="AC563" s="208"/>
-      <c r="AD563" s="209"/>
+      <c r="A563" s="182"/>
+      <c r="B563" s="183"/>
+      <c r="C563" s="183"/>
+      <c r="D563" s="183"/>
+      <c r="E563" s="183"/>
+      <c r="F563" s="184"/>
+      <c r="G563" s="182"/>
+      <c r="H563" s="183"/>
+      <c r="I563" s="183"/>
+      <c r="J563" s="183"/>
+      <c r="K563" s="183"/>
+      <c r="L563" s="184"/>
+      <c r="M563" s="182"/>
+      <c r="N563" s="183"/>
+      <c r="O563" s="183"/>
+      <c r="P563" s="183"/>
+      <c r="Q563" s="183"/>
+      <c r="R563" s="184"/>
+      <c r="S563" s="182"/>
+      <c r="T563" s="183"/>
+      <c r="U563" s="183"/>
+      <c r="V563" s="183"/>
+      <c r="W563" s="183"/>
+      <c r="X563" s="184"/>
+      <c r="Y563" s="182"/>
+      <c r="Z563" s="183"/>
+      <c r="AA563" s="183"/>
+      <c r="AB563" s="183"/>
+      <c r="AC563" s="183"/>
+      <c r="AD563" s="184"/>
     </row>
     <row r="564" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A564" s="87" t="s">
@@ -25352,83 +25356,83 @@
       <c r="AD576" s="93"/>
     </row>
     <row r="577" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A577" s="178">
+      <c r="A577" s="181">
         <f t="shared" ref="A577" si="148">A562+7</f>
         <v>44102</v>
       </c>
-      <c r="B577" s="178"/>
-      <c r="C577" s="178"/>
-      <c r="D577" s="178"/>
-      <c r="E577" s="178"/>
-      <c r="F577" s="178"/>
-      <c r="G577" s="178">
+      <c r="B577" s="181"/>
+      <c r="C577" s="181"/>
+      <c r="D577" s="181"/>
+      <c r="E577" s="181"/>
+      <c r="F577" s="181"/>
+      <c r="G577" s="181">
         <f t="shared" ref="G577" si="149">A577+1</f>
         <v>44103</v>
       </c>
-      <c r="H577" s="178"/>
-      <c r="I577" s="178"/>
-      <c r="J577" s="178"/>
-      <c r="K577" s="178"/>
-      <c r="L577" s="178"/>
-      <c r="M577" s="178">
+      <c r="H577" s="181"/>
+      <c r="I577" s="181"/>
+      <c r="J577" s="181"/>
+      <c r="K577" s="181"/>
+      <c r="L577" s="181"/>
+      <c r="M577" s="181">
         <f t="shared" ref="M577" si="150">G577+1</f>
         <v>44104</v>
       </c>
-      <c r="N577" s="178"/>
-      <c r="O577" s="178"/>
-      <c r="P577" s="178"/>
-      <c r="Q577" s="178"/>
-      <c r="R577" s="178"/>
-      <c r="S577" s="178">
+      <c r="N577" s="181"/>
+      <c r="O577" s="181"/>
+      <c r="P577" s="181"/>
+      <c r="Q577" s="181"/>
+      <c r="R577" s="181"/>
+      <c r="S577" s="181">
         <f t="shared" ref="S577" si="151">M577+1</f>
         <v>44105</v>
       </c>
-      <c r="T577" s="178"/>
-      <c r="U577" s="178"/>
-      <c r="V577" s="178"/>
-      <c r="W577" s="178"/>
-      <c r="X577" s="178"/>
-      <c r="Y577" s="178">
+      <c r="T577" s="181"/>
+      <c r="U577" s="181"/>
+      <c r="V577" s="181"/>
+      <c r="W577" s="181"/>
+      <c r="X577" s="181"/>
+      <c r="Y577" s="181">
         <f t="shared" ref="Y577" si="152">S577+1</f>
         <v>44106</v>
       </c>
-      <c r="Z577" s="178"/>
-      <c r="AA577" s="178"/>
-      <c r="AB577" s="178"/>
-      <c r="AC577" s="178"/>
-      <c r="AD577" s="178"/>
+      <c r="Z577" s="181"/>
+      <c r="AA577" s="181"/>
+      <c r="AB577" s="181"/>
+      <c r="AC577" s="181"/>
+      <c r="AD577" s="181"/>
     </row>
     <row r="578" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A578" s="207"/>
-      <c r="B578" s="208"/>
-      <c r="C578" s="208"/>
-      <c r="D578" s="208"/>
-      <c r="E578" s="208"/>
-      <c r="F578" s="209"/>
-      <c r="G578" s="207"/>
-      <c r="H578" s="208"/>
-      <c r="I578" s="208"/>
-      <c r="J578" s="208"/>
-      <c r="K578" s="208"/>
-      <c r="L578" s="209"/>
-      <c r="M578" s="207"/>
-      <c r="N578" s="208"/>
-      <c r="O578" s="208"/>
-      <c r="P578" s="208"/>
-      <c r="Q578" s="208"/>
-      <c r="R578" s="209"/>
-      <c r="S578" s="207"/>
-      <c r="T578" s="208"/>
-      <c r="U578" s="208"/>
-      <c r="V578" s="208"/>
-      <c r="W578" s="208"/>
-      <c r="X578" s="209"/>
-      <c r="Y578" s="207"/>
-      <c r="Z578" s="208"/>
-      <c r="AA578" s="208"/>
-      <c r="AB578" s="208"/>
-      <c r="AC578" s="208"/>
-      <c r="AD578" s="209"/>
+      <c r="A578" s="182"/>
+      <c r="B578" s="183"/>
+      <c r="C578" s="183"/>
+      <c r="D578" s="183"/>
+      <c r="E578" s="183"/>
+      <c r="F578" s="184"/>
+      <c r="G578" s="182"/>
+      <c r="H578" s="183"/>
+      <c r="I578" s="183"/>
+      <c r="J578" s="183"/>
+      <c r="K578" s="183"/>
+      <c r="L578" s="184"/>
+      <c r="M578" s="182"/>
+      <c r="N578" s="183"/>
+      <c r="O578" s="183"/>
+      <c r="P578" s="183"/>
+      <c r="Q578" s="183"/>
+      <c r="R578" s="184"/>
+      <c r="S578" s="182"/>
+      <c r="T578" s="183"/>
+      <c r="U578" s="183"/>
+      <c r="V578" s="183"/>
+      <c r="W578" s="183"/>
+      <c r="X578" s="184"/>
+      <c r="Y578" s="182"/>
+      <c r="Z578" s="183"/>
+      <c r="AA578" s="183"/>
+      <c r="AB578" s="183"/>
+      <c r="AC578" s="183"/>
+      <c r="AD578" s="184"/>
     </row>
     <row r="579" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A579" s="87" t="s">
@@ -25907,83 +25911,83 @@
       <c r="AD591" s="93"/>
     </row>
     <row r="592" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A592" s="178">
+      <c r="A592" s="181">
         <f t="shared" ref="A592" si="153">A577+7</f>
         <v>44109</v>
       </c>
-      <c r="B592" s="178"/>
-      <c r="C592" s="178"/>
-      <c r="D592" s="178"/>
-      <c r="E592" s="178"/>
-      <c r="F592" s="178"/>
-      <c r="G592" s="178">
+      <c r="B592" s="181"/>
+      <c r="C592" s="181"/>
+      <c r="D592" s="181"/>
+      <c r="E592" s="181"/>
+      <c r="F592" s="181"/>
+      <c r="G592" s="181">
         <f t="shared" ref="G592" si="154">A592+1</f>
         <v>44110</v>
       </c>
-      <c r="H592" s="178"/>
-      <c r="I592" s="178"/>
-      <c r="J592" s="178"/>
-      <c r="K592" s="178"/>
-      <c r="L592" s="178"/>
-      <c r="M592" s="178">
+      <c r="H592" s="181"/>
+      <c r="I592" s="181"/>
+      <c r="J592" s="181"/>
+      <c r="K592" s="181"/>
+      <c r="L592" s="181"/>
+      <c r="M592" s="181">
         <f t="shared" ref="M592" si="155">G592+1</f>
         <v>44111</v>
       </c>
-      <c r="N592" s="178"/>
-      <c r="O592" s="178"/>
-      <c r="P592" s="178"/>
-      <c r="Q592" s="178"/>
-      <c r="R592" s="178"/>
-      <c r="S592" s="178">
+      <c r="N592" s="181"/>
+      <c r="O592" s="181"/>
+      <c r="P592" s="181"/>
+      <c r="Q592" s="181"/>
+      <c r="R592" s="181"/>
+      <c r="S592" s="181">
         <f t="shared" ref="S592" si="156">M592+1</f>
         <v>44112</v>
       </c>
-      <c r="T592" s="178"/>
-      <c r="U592" s="178"/>
-      <c r="V592" s="178"/>
-      <c r="W592" s="178"/>
-      <c r="X592" s="178"/>
-      <c r="Y592" s="178">
+      <c r="T592" s="181"/>
+      <c r="U592" s="181"/>
+      <c r="V592" s="181"/>
+      <c r="W592" s="181"/>
+      <c r="X592" s="181"/>
+      <c r="Y592" s="181">
         <f t="shared" ref="Y592" si="157">S592+1</f>
         <v>44113</v>
       </c>
-      <c r="Z592" s="178"/>
-      <c r="AA592" s="178"/>
-      <c r="AB592" s="178"/>
-      <c r="AC592" s="178"/>
-      <c r="AD592" s="178"/>
+      <c r="Z592" s="181"/>
+      <c r="AA592" s="181"/>
+      <c r="AB592" s="181"/>
+      <c r="AC592" s="181"/>
+      <c r="AD592" s="181"/>
     </row>
     <row r="593" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A593" s="207"/>
-      <c r="B593" s="208"/>
-      <c r="C593" s="208"/>
-      <c r="D593" s="208"/>
-      <c r="E593" s="208"/>
-      <c r="F593" s="209"/>
-      <c r="G593" s="207"/>
-      <c r="H593" s="208"/>
-      <c r="I593" s="208"/>
-      <c r="J593" s="208"/>
-      <c r="K593" s="208"/>
-      <c r="L593" s="209"/>
-      <c r="M593" s="207"/>
-      <c r="N593" s="208"/>
-      <c r="O593" s="208"/>
-      <c r="P593" s="208"/>
-      <c r="Q593" s="208"/>
-      <c r="R593" s="209"/>
-      <c r="S593" s="207"/>
-      <c r="T593" s="208"/>
-      <c r="U593" s="208"/>
-      <c r="V593" s="208"/>
-      <c r="W593" s="208"/>
-      <c r="X593" s="209"/>
-      <c r="Y593" s="207"/>
-      <c r="Z593" s="208"/>
-      <c r="AA593" s="208"/>
-      <c r="AB593" s="208"/>
-      <c r="AC593" s="208"/>
-      <c r="AD593" s="209"/>
+      <c r="A593" s="182"/>
+      <c r="B593" s="183"/>
+      <c r="C593" s="183"/>
+      <c r="D593" s="183"/>
+      <c r="E593" s="183"/>
+      <c r="F593" s="184"/>
+      <c r="G593" s="182"/>
+      <c r="H593" s="183"/>
+      <c r="I593" s="183"/>
+      <c r="J593" s="183"/>
+      <c r="K593" s="183"/>
+      <c r="L593" s="184"/>
+      <c r="M593" s="182"/>
+      <c r="N593" s="183"/>
+      <c r="O593" s="183"/>
+      <c r="P593" s="183"/>
+      <c r="Q593" s="183"/>
+      <c r="R593" s="184"/>
+      <c r="S593" s="182"/>
+      <c r="T593" s="183"/>
+      <c r="U593" s="183"/>
+      <c r="V593" s="183"/>
+      <c r="W593" s="183"/>
+      <c r="X593" s="184"/>
+      <c r="Y593" s="182"/>
+      <c r="Z593" s="183"/>
+      <c r="AA593" s="183"/>
+      <c r="AB593" s="183"/>
+      <c r="AC593" s="183"/>
+      <c r="AD593" s="184"/>
     </row>
     <row r="594" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A594" s="87" t="s">
@@ -26462,83 +26466,83 @@
       <c r="AD606" s="93"/>
     </row>
     <row r="607" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A607" s="178">
+      <c r="A607" s="181">
         <f t="shared" ref="A607" si="158">A592+7</f>
         <v>44116</v>
       </c>
-      <c r="B607" s="178"/>
-      <c r="C607" s="178"/>
-      <c r="D607" s="178"/>
-      <c r="E607" s="178"/>
-      <c r="F607" s="178"/>
-      <c r="G607" s="178">
+      <c r="B607" s="181"/>
+      <c r="C607" s="181"/>
+      <c r="D607" s="181"/>
+      <c r="E607" s="181"/>
+      <c r="F607" s="181"/>
+      <c r="G607" s="181">
         <f t="shared" ref="G607" si="159">A607+1</f>
         <v>44117</v>
       </c>
-      <c r="H607" s="178"/>
-      <c r="I607" s="178"/>
-      <c r="J607" s="178"/>
-      <c r="K607" s="178"/>
-      <c r="L607" s="178"/>
-      <c r="M607" s="178">
+      <c r="H607" s="181"/>
+      <c r="I607" s="181"/>
+      <c r="J607" s="181"/>
+      <c r="K607" s="181"/>
+      <c r="L607" s="181"/>
+      <c r="M607" s="181">
         <f t="shared" ref="M607" si="160">G607+1</f>
         <v>44118</v>
       </c>
-      <c r="N607" s="178"/>
-      <c r="O607" s="178"/>
-      <c r="P607" s="178"/>
-      <c r="Q607" s="178"/>
-      <c r="R607" s="178"/>
-      <c r="S607" s="178">
+      <c r="N607" s="181"/>
+      <c r="O607" s="181"/>
+      <c r="P607" s="181"/>
+      <c r="Q607" s="181"/>
+      <c r="R607" s="181"/>
+      <c r="S607" s="181">
         <f t="shared" ref="S607" si="161">M607+1</f>
         <v>44119</v>
       </c>
-      <c r="T607" s="178"/>
-      <c r="U607" s="178"/>
-      <c r="V607" s="178"/>
-      <c r="W607" s="178"/>
-      <c r="X607" s="178"/>
-      <c r="Y607" s="178">
+      <c r="T607" s="181"/>
+      <c r="U607" s="181"/>
+      <c r="V607" s="181"/>
+      <c r="W607" s="181"/>
+      <c r="X607" s="181"/>
+      <c r="Y607" s="181">
         <f t="shared" ref="Y607" si="162">S607+1</f>
         <v>44120</v>
       </c>
-      <c r="Z607" s="178"/>
-      <c r="AA607" s="178"/>
-      <c r="AB607" s="178"/>
-      <c r="AC607" s="178"/>
-      <c r="AD607" s="178"/>
+      <c r="Z607" s="181"/>
+      <c r="AA607" s="181"/>
+      <c r="AB607" s="181"/>
+      <c r="AC607" s="181"/>
+      <c r="AD607" s="181"/>
     </row>
     <row r="608" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A608" s="207"/>
-      <c r="B608" s="208"/>
-      <c r="C608" s="208"/>
-      <c r="D608" s="208"/>
-      <c r="E608" s="208"/>
-      <c r="F608" s="209"/>
-      <c r="G608" s="207"/>
-      <c r="H608" s="208"/>
-      <c r="I608" s="208"/>
-      <c r="J608" s="208"/>
-      <c r="K608" s="208"/>
-      <c r="L608" s="209"/>
-      <c r="M608" s="207"/>
-      <c r="N608" s="208"/>
-      <c r="O608" s="208"/>
-      <c r="P608" s="208"/>
-      <c r="Q608" s="208"/>
-      <c r="R608" s="209"/>
-      <c r="S608" s="207"/>
-      <c r="T608" s="208"/>
-      <c r="U608" s="208"/>
-      <c r="V608" s="208"/>
-      <c r="W608" s="208"/>
-      <c r="X608" s="209"/>
-      <c r="Y608" s="207"/>
-      <c r="Z608" s="208"/>
-      <c r="AA608" s="208"/>
-      <c r="AB608" s="208"/>
-      <c r="AC608" s="208"/>
-      <c r="AD608" s="209"/>
+      <c r="A608" s="182"/>
+      <c r="B608" s="183"/>
+      <c r="C608" s="183"/>
+      <c r="D608" s="183"/>
+      <c r="E608" s="183"/>
+      <c r="F608" s="184"/>
+      <c r="G608" s="182"/>
+      <c r="H608" s="183"/>
+      <c r="I608" s="183"/>
+      <c r="J608" s="183"/>
+      <c r="K608" s="183"/>
+      <c r="L608" s="184"/>
+      <c r="M608" s="182"/>
+      <c r="N608" s="183"/>
+      <c r="O608" s="183"/>
+      <c r="P608" s="183"/>
+      <c r="Q608" s="183"/>
+      <c r="R608" s="184"/>
+      <c r="S608" s="182"/>
+      <c r="T608" s="183"/>
+      <c r="U608" s="183"/>
+      <c r="V608" s="183"/>
+      <c r="W608" s="183"/>
+      <c r="X608" s="184"/>
+      <c r="Y608" s="182"/>
+      <c r="Z608" s="183"/>
+      <c r="AA608" s="183"/>
+      <c r="AB608" s="183"/>
+      <c r="AC608" s="183"/>
+      <c r="AD608" s="184"/>
     </row>
     <row r="609" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A609" s="87" t="s">
@@ -27017,83 +27021,83 @@
       <c r="AD621" s="93"/>
     </row>
     <row r="622" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A622" s="178">
+      <c r="A622" s="181">
         <f t="shared" ref="A622" si="163">A607+7</f>
         <v>44123</v>
       </c>
-      <c r="B622" s="178"/>
-      <c r="C622" s="178"/>
-      <c r="D622" s="178"/>
-      <c r="E622" s="178"/>
-      <c r="F622" s="178"/>
-      <c r="G622" s="178">
+      <c r="B622" s="181"/>
+      <c r="C622" s="181"/>
+      <c r="D622" s="181"/>
+      <c r="E622" s="181"/>
+      <c r="F622" s="181"/>
+      <c r="G622" s="181">
         <f t="shared" ref="G622" si="164">A622+1</f>
         <v>44124</v>
       </c>
-      <c r="H622" s="178"/>
-      <c r="I622" s="178"/>
-      <c r="J622" s="178"/>
-      <c r="K622" s="178"/>
-      <c r="L622" s="178"/>
-      <c r="M622" s="178">
+      <c r="H622" s="181"/>
+      <c r="I622" s="181"/>
+      <c r="J622" s="181"/>
+      <c r="K622" s="181"/>
+      <c r="L622" s="181"/>
+      <c r="M622" s="181">
         <f t="shared" ref="M622" si="165">G622+1</f>
         <v>44125</v>
       </c>
-      <c r="N622" s="178"/>
-      <c r="O622" s="178"/>
-      <c r="P622" s="178"/>
-      <c r="Q622" s="178"/>
-      <c r="R622" s="178"/>
-      <c r="S622" s="178">
+      <c r="N622" s="181"/>
+      <c r="O622" s="181"/>
+      <c r="P622" s="181"/>
+      <c r="Q622" s="181"/>
+      <c r="R622" s="181"/>
+      <c r="S622" s="181">
         <f t="shared" ref="S622" si="166">M622+1</f>
         <v>44126</v>
       </c>
-      <c r="T622" s="178"/>
-      <c r="U622" s="178"/>
-      <c r="V622" s="178"/>
-      <c r="W622" s="178"/>
-      <c r="X622" s="178"/>
-      <c r="Y622" s="178">
+      <c r="T622" s="181"/>
+      <c r="U622" s="181"/>
+      <c r="V622" s="181"/>
+      <c r="W622" s="181"/>
+      <c r="X622" s="181"/>
+      <c r="Y622" s="181">
         <f t="shared" ref="Y622" si="167">S622+1</f>
         <v>44127</v>
       </c>
-      <c r="Z622" s="178"/>
-      <c r="AA622" s="178"/>
-      <c r="AB622" s="178"/>
-      <c r="AC622" s="178"/>
-      <c r="AD622" s="178"/>
+      <c r="Z622" s="181"/>
+      <c r="AA622" s="181"/>
+      <c r="AB622" s="181"/>
+      <c r="AC622" s="181"/>
+      <c r="AD622" s="181"/>
     </row>
     <row r="623" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A623" s="207"/>
-      <c r="B623" s="208"/>
-      <c r="C623" s="208"/>
-      <c r="D623" s="208"/>
-      <c r="E623" s="208"/>
-      <c r="F623" s="209"/>
-      <c r="G623" s="207"/>
-      <c r="H623" s="208"/>
-      <c r="I623" s="208"/>
-      <c r="J623" s="208"/>
-      <c r="K623" s="208"/>
-      <c r="L623" s="209"/>
-      <c r="M623" s="207"/>
-      <c r="N623" s="208"/>
-      <c r="O623" s="208"/>
-      <c r="P623" s="208"/>
-      <c r="Q623" s="208"/>
-      <c r="R623" s="209"/>
-      <c r="S623" s="207"/>
-      <c r="T623" s="208"/>
-      <c r="U623" s="208"/>
-      <c r="V623" s="208"/>
-      <c r="W623" s="208"/>
-      <c r="X623" s="209"/>
-      <c r="Y623" s="207"/>
-      <c r="Z623" s="208"/>
-      <c r="AA623" s="208"/>
-      <c r="AB623" s="208"/>
-      <c r="AC623" s="208"/>
-      <c r="AD623" s="209"/>
+      <c r="A623" s="182"/>
+      <c r="B623" s="183"/>
+      <c r="C623" s="183"/>
+      <c r="D623" s="183"/>
+      <c r="E623" s="183"/>
+      <c r="F623" s="184"/>
+      <c r="G623" s="182"/>
+      <c r="H623" s="183"/>
+      <c r="I623" s="183"/>
+      <c r="J623" s="183"/>
+      <c r="K623" s="183"/>
+      <c r="L623" s="184"/>
+      <c r="M623" s="182"/>
+      <c r="N623" s="183"/>
+      <c r="O623" s="183"/>
+      <c r="P623" s="183"/>
+      <c r="Q623" s="183"/>
+      <c r="R623" s="184"/>
+      <c r="S623" s="182"/>
+      <c r="T623" s="183"/>
+      <c r="U623" s="183"/>
+      <c r="V623" s="183"/>
+      <c r="W623" s="183"/>
+      <c r="X623" s="184"/>
+      <c r="Y623" s="182"/>
+      <c r="Z623" s="183"/>
+      <c r="AA623" s="183"/>
+      <c r="AB623" s="183"/>
+      <c r="AC623" s="183"/>
+      <c r="AD623" s="184"/>
     </row>
     <row r="624" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A624" s="87" t="s">
@@ -27572,83 +27576,83 @@
       <c r="AD636" s="93"/>
     </row>
     <row r="637" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A637" s="178">
+      <c r="A637" s="181">
         <f t="shared" ref="A637" si="168">A622+7</f>
         <v>44130</v>
       </c>
-      <c r="B637" s="178"/>
-      <c r="C637" s="178"/>
-      <c r="D637" s="178"/>
-      <c r="E637" s="178"/>
-      <c r="F637" s="178"/>
-      <c r="G637" s="178">
+      <c r="B637" s="181"/>
+      <c r="C637" s="181"/>
+      <c r="D637" s="181"/>
+      <c r="E637" s="181"/>
+      <c r="F637" s="181"/>
+      <c r="G637" s="181">
         <f t="shared" ref="G637" si="169">A637+1</f>
         <v>44131</v>
       </c>
-      <c r="H637" s="178"/>
-      <c r="I637" s="178"/>
-      <c r="J637" s="178"/>
-      <c r="K637" s="178"/>
-      <c r="L637" s="178"/>
-      <c r="M637" s="178">
+      <c r="H637" s="181"/>
+      <c r="I637" s="181"/>
+      <c r="J637" s="181"/>
+      <c r="K637" s="181"/>
+      <c r="L637" s="181"/>
+      <c r="M637" s="181">
         <f t="shared" ref="M637" si="170">G637+1</f>
         <v>44132</v>
       </c>
-      <c r="N637" s="178"/>
-      <c r="O637" s="178"/>
-      <c r="P637" s="178"/>
-      <c r="Q637" s="178"/>
-      <c r="R637" s="178"/>
-      <c r="S637" s="178">
+      <c r="N637" s="181"/>
+      <c r="O637" s="181"/>
+      <c r="P637" s="181"/>
+      <c r="Q637" s="181"/>
+      <c r="R637" s="181"/>
+      <c r="S637" s="181">
         <f t="shared" ref="S637" si="171">M637+1</f>
         <v>44133</v>
       </c>
-      <c r="T637" s="178"/>
-      <c r="U637" s="178"/>
-      <c r="V637" s="178"/>
-      <c r="W637" s="178"/>
-      <c r="X637" s="178"/>
-      <c r="Y637" s="178">
+      <c r="T637" s="181"/>
+      <c r="U637" s="181"/>
+      <c r="V637" s="181"/>
+      <c r="W637" s="181"/>
+      <c r="X637" s="181"/>
+      <c r="Y637" s="181">
         <f t="shared" ref="Y637" si="172">S637+1</f>
         <v>44134</v>
       </c>
-      <c r="Z637" s="178"/>
-      <c r="AA637" s="178"/>
-      <c r="AB637" s="178"/>
-      <c r="AC637" s="178"/>
-      <c r="AD637" s="178"/>
+      <c r="Z637" s="181"/>
+      <c r="AA637" s="181"/>
+      <c r="AB637" s="181"/>
+      <c r="AC637" s="181"/>
+      <c r="AD637" s="181"/>
     </row>
     <row r="638" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A638" s="207"/>
-      <c r="B638" s="208"/>
-      <c r="C638" s="208"/>
-      <c r="D638" s="208"/>
-      <c r="E638" s="208"/>
-      <c r="F638" s="209"/>
-      <c r="G638" s="207"/>
-      <c r="H638" s="208"/>
-      <c r="I638" s="208"/>
-      <c r="J638" s="208"/>
-      <c r="K638" s="208"/>
-      <c r="L638" s="209"/>
-      <c r="M638" s="207"/>
-      <c r="N638" s="208"/>
-      <c r="O638" s="208"/>
-      <c r="P638" s="208"/>
-      <c r="Q638" s="208"/>
-      <c r="R638" s="209"/>
-      <c r="S638" s="207"/>
-      <c r="T638" s="208"/>
-      <c r="U638" s="208"/>
-      <c r="V638" s="208"/>
-      <c r="W638" s="208"/>
-      <c r="X638" s="209"/>
-      <c r="Y638" s="207"/>
-      <c r="Z638" s="208"/>
-      <c r="AA638" s="208"/>
-      <c r="AB638" s="208"/>
-      <c r="AC638" s="208"/>
-      <c r="AD638" s="209"/>
+      <c r="A638" s="182"/>
+      <c r="B638" s="183"/>
+      <c r="C638" s="183"/>
+      <c r="D638" s="183"/>
+      <c r="E638" s="183"/>
+      <c r="F638" s="184"/>
+      <c r="G638" s="182"/>
+      <c r="H638" s="183"/>
+      <c r="I638" s="183"/>
+      <c r="J638" s="183"/>
+      <c r="K638" s="183"/>
+      <c r="L638" s="184"/>
+      <c r="M638" s="182"/>
+      <c r="N638" s="183"/>
+      <c r="O638" s="183"/>
+      <c r="P638" s="183"/>
+      <c r="Q638" s="183"/>
+      <c r="R638" s="184"/>
+      <c r="S638" s="182"/>
+      <c r="T638" s="183"/>
+      <c r="U638" s="183"/>
+      <c r="V638" s="183"/>
+      <c r="W638" s="183"/>
+      <c r="X638" s="184"/>
+      <c r="Y638" s="182"/>
+      <c r="Z638" s="183"/>
+      <c r="AA638" s="183"/>
+      <c r="AB638" s="183"/>
+      <c r="AC638" s="183"/>
+      <c r="AD638" s="184"/>
     </row>
     <row r="639" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A639" s="87" t="s">
@@ -28127,83 +28131,83 @@
       <c r="AD651" s="93"/>
     </row>
     <row r="652" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A652" s="178">
+      <c r="A652" s="181">
         <f t="shared" ref="A652" si="173">A637+7</f>
         <v>44137</v>
       </c>
-      <c r="B652" s="178"/>
-      <c r="C652" s="178"/>
-      <c r="D652" s="178"/>
-      <c r="E652" s="178"/>
-      <c r="F652" s="178"/>
-      <c r="G652" s="178">
+      <c r="B652" s="181"/>
+      <c r="C652" s="181"/>
+      <c r="D652" s="181"/>
+      <c r="E652" s="181"/>
+      <c r="F652" s="181"/>
+      <c r="G652" s="181">
         <f t="shared" ref="G652" si="174">A652+1</f>
         <v>44138</v>
       </c>
-      <c r="H652" s="178"/>
-      <c r="I652" s="178"/>
-      <c r="J652" s="178"/>
-      <c r="K652" s="178"/>
-      <c r="L652" s="178"/>
-      <c r="M652" s="178">
+      <c r="H652" s="181"/>
+      <c r="I652" s="181"/>
+      <c r="J652" s="181"/>
+      <c r="K652" s="181"/>
+      <c r="L652" s="181"/>
+      <c r="M652" s="181">
         <f t="shared" ref="M652" si="175">G652+1</f>
         <v>44139</v>
       </c>
-      <c r="N652" s="178"/>
-      <c r="O652" s="178"/>
-      <c r="P652" s="178"/>
-      <c r="Q652" s="178"/>
-      <c r="R652" s="178"/>
-      <c r="S652" s="178">
+      <c r="N652" s="181"/>
+      <c r="O652" s="181"/>
+      <c r="P652" s="181"/>
+      <c r="Q652" s="181"/>
+      <c r="R652" s="181"/>
+      <c r="S652" s="181">
         <f t="shared" ref="S652" si="176">M652+1</f>
         <v>44140</v>
       </c>
-      <c r="T652" s="178"/>
-      <c r="U652" s="178"/>
-      <c r="V652" s="178"/>
-      <c r="W652" s="178"/>
-      <c r="X652" s="178"/>
-      <c r="Y652" s="178">
+      <c r="T652" s="181"/>
+      <c r="U652" s="181"/>
+      <c r="V652" s="181"/>
+      <c r="W652" s="181"/>
+      <c r="X652" s="181"/>
+      <c r="Y652" s="181">
         <f t="shared" ref="Y652" si="177">S652+1</f>
         <v>44141</v>
       </c>
-      <c r="Z652" s="178"/>
-      <c r="AA652" s="178"/>
-      <c r="AB652" s="178"/>
-      <c r="AC652" s="178"/>
-      <c r="AD652" s="178"/>
+      <c r="Z652" s="181"/>
+      <c r="AA652" s="181"/>
+      <c r="AB652" s="181"/>
+      <c r="AC652" s="181"/>
+      <c r="AD652" s="181"/>
     </row>
     <row r="653" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A653" s="207"/>
-      <c r="B653" s="208"/>
-      <c r="C653" s="208"/>
-      <c r="D653" s="208"/>
-      <c r="E653" s="208"/>
-      <c r="F653" s="209"/>
-      <c r="G653" s="207"/>
-      <c r="H653" s="208"/>
-      <c r="I653" s="208"/>
-      <c r="J653" s="208"/>
-      <c r="K653" s="208"/>
-      <c r="L653" s="209"/>
-      <c r="M653" s="207"/>
-      <c r="N653" s="208"/>
-      <c r="O653" s="208"/>
-      <c r="P653" s="208"/>
-      <c r="Q653" s="208"/>
-      <c r="R653" s="209"/>
-      <c r="S653" s="207"/>
-      <c r="T653" s="208"/>
-      <c r="U653" s="208"/>
-      <c r="V653" s="208"/>
-      <c r="W653" s="208"/>
-      <c r="X653" s="209"/>
-      <c r="Y653" s="207"/>
-      <c r="Z653" s="208"/>
-      <c r="AA653" s="208"/>
-      <c r="AB653" s="208"/>
-      <c r="AC653" s="208"/>
-      <c r="AD653" s="209"/>
+      <c r="A653" s="182"/>
+      <c r="B653" s="183"/>
+      <c r="C653" s="183"/>
+      <c r="D653" s="183"/>
+      <c r="E653" s="183"/>
+      <c r="F653" s="184"/>
+      <c r="G653" s="182"/>
+      <c r="H653" s="183"/>
+      <c r="I653" s="183"/>
+      <c r="J653" s="183"/>
+      <c r="K653" s="183"/>
+      <c r="L653" s="184"/>
+      <c r="M653" s="182"/>
+      <c r="N653" s="183"/>
+      <c r="O653" s="183"/>
+      <c r="P653" s="183"/>
+      <c r="Q653" s="183"/>
+      <c r="R653" s="184"/>
+      <c r="S653" s="182"/>
+      <c r="T653" s="183"/>
+      <c r="U653" s="183"/>
+      <c r="V653" s="183"/>
+      <c r="W653" s="183"/>
+      <c r="X653" s="184"/>
+      <c r="Y653" s="182"/>
+      <c r="Z653" s="183"/>
+      <c r="AA653" s="183"/>
+      <c r="AB653" s="183"/>
+      <c r="AC653" s="183"/>
+      <c r="AD653" s="184"/>
     </row>
     <row r="654" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A654" s="87" t="s">
@@ -28682,83 +28686,83 @@
       <c r="AD666" s="93"/>
     </row>
     <row r="667" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A667" s="178">
+      <c r="A667" s="181">
         <f t="shared" ref="A667" si="178">A652+7</f>
         <v>44144</v>
       </c>
-      <c r="B667" s="178"/>
-      <c r="C667" s="178"/>
-      <c r="D667" s="178"/>
-      <c r="E667" s="178"/>
-      <c r="F667" s="178"/>
-      <c r="G667" s="178">
+      <c r="B667" s="181"/>
+      <c r="C667" s="181"/>
+      <c r="D667" s="181"/>
+      <c r="E667" s="181"/>
+      <c r="F667" s="181"/>
+      <c r="G667" s="181">
         <f t="shared" ref="G667" si="179">A667+1</f>
         <v>44145</v>
       </c>
-      <c r="H667" s="178"/>
-      <c r="I667" s="178"/>
-      <c r="J667" s="178"/>
-      <c r="K667" s="178"/>
-      <c r="L667" s="178"/>
-      <c r="M667" s="178">
+      <c r="H667" s="181"/>
+      <c r="I667" s="181"/>
+      <c r="J667" s="181"/>
+      <c r="K667" s="181"/>
+      <c r="L667" s="181"/>
+      <c r="M667" s="181">
         <f t="shared" ref="M667" si="180">G667+1</f>
         <v>44146</v>
       </c>
-      <c r="N667" s="178"/>
-      <c r="O667" s="178"/>
-      <c r="P667" s="178"/>
-      <c r="Q667" s="178"/>
-      <c r="R667" s="178"/>
-      <c r="S667" s="178">
+      <c r="N667" s="181"/>
+      <c r="O667" s="181"/>
+      <c r="P667" s="181"/>
+      <c r="Q667" s="181"/>
+      <c r="R667" s="181"/>
+      <c r="S667" s="181">
         <f t="shared" ref="S667" si="181">M667+1</f>
         <v>44147</v>
       </c>
-      <c r="T667" s="178"/>
-      <c r="U667" s="178"/>
-      <c r="V667" s="178"/>
-      <c r="W667" s="178"/>
-      <c r="X667" s="178"/>
-      <c r="Y667" s="178">
+      <c r="T667" s="181"/>
+      <c r="U667" s="181"/>
+      <c r="V667" s="181"/>
+      <c r="W667" s="181"/>
+      <c r="X667" s="181"/>
+      <c r="Y667" s="181">
         <f t="shared" ref="Y667" si="182">S667+1</f>
         <v>44148</v>
       </c>
-      <c r="Z667" s="178"/>
-      <c r="AA667" s="178"/>
-      <c r="AB667" s="178"/>
-      <c r="AC667" s="178"/>
-      <c r="AD667" s="178"/>
+      <c r="Z667" s="181"/>
+      <c r="AA667" s="181"/>
+      <c r="AB667" s="181"/>
+      <c r="AC667" s="181"/>
+      <c r="AD667" s="181"/>
     </row>
     <row r="668" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A668" s="207"/>
-      <c r="B668" s="208"/>
-      <c r="C668" s="208"/>
-      <c r="D668" s="208"/>
-      <c r="E668" s="208"/>
-      <c r="F668" s="209"/>
-      <c r="G668" s="207"/>
-      <c r="H668" s="208"/>
-      <c r="I668" s="208"/>
-      <c r="J668" s="208"/>
-      <c r="K668" s="208"/>
-      <c r="L668" s="209"/>
-      <c r="M668" s="207"/>
-      <c r="N668" s="208"/>
-      <c r="O668" s="208"/>
-      <c r="P668" s="208"/>
-      <c r="Q668" s="208"/>
-      <c r="R668" s="209"/>
-      <c r="S668" s="207"/>
-      <c r="T668" s="208"/>
-      <c r="U668" s="208"/>
-      <c r="V668" s="208"/>
-      <c r="W668" s="208"/>
-      <c r="X668" s="209"/>
-      <c r="Y668" s="207"/>
-      <c r="Z668" s="208"/>
-      <c r="AA668" s="208"/>
-      <c r="AB668" s="208"/>
-      <c r="AC668" s="208"/>
-      <c r="AD668" s="209"/>
+      <c r="A668" s="182"/>
+      <c r="B668" s="183"/>
+      <c r="C668" s="183"/>
+      <c r="D668" s="183"/>
+      <c r="E668" s="183"/>
+      <c r="F668" s="184"/>
+      <c r="G668" s="182"/>
+      <c r="H668" s="183"/>
+      <c r="I668" s="183"/>
+      <c r="J668" s="183"/>
+      <c r="K668" s="183"/>
+      <c r="L668" s="184"/>
+      <c r="M668" s="182"/>
+      <c r="N668" s="183"/>
+      <c r="O668" s="183"/>
+      <c r="P668" s="183"/>
+      <c r="Q668" s="183"/>
+      <c r="R668" s="184"/>
+      <c r="S668" s="182"/>
+      <c r="T668" s="183"/>
+      <c r="U668" s="183"/>
+      <c r="V668" s="183"/>
+      <c r="W668" s="183"/>
+      <c r="X668" s="184"/>
+      <c r="Y668" s="182"/>
+      <c r="Z668" s="183"/>
+      <c r="AA668" s="183"/>
+      <c r="AB668" s="183"/>
+      <c r="AC668" s="183"/>
+      <c r="AD668" s="184"/>
     </row>
     <row r="669" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A669" s="87" t="s">
@@ -29237,83 +29241,83 @@
       <c r="AD681" s="93"/>
     </row>
     <row r="682" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A682" s="178">
+      <c r="A682" s="181">
         <f t="shared" ref="A682" si="183">A667+7</f>
         <v>44151</v>
       </c>
-      <c r="B682" s="178"/>
-      <c r="C682" s="178"/>
-      <c r="D682" s="178"/>
-      <c r="E682" s="178"/>
-      <c r="F682" s="178"/>
-      <c r="G682" s="178">
+      <c r="B682" s="181"/>
+      <c r="C682" s="181"/>
+      <c r="D682" s="181"/>
+      <c r="E682" s="181"/>
+      <c r="F682" s="181"/>
+      <c r="G682" s="181">
         <f t="shared" ref="G682" si="184">A682+1</f>
         <v>44152</v>
       </c>
-      <c r="H682" s="178"/>
-      <c r="I682" s="178"/>
-      <c r="J682" s="178"/>
-      <c r="K682" s="178"/>
-      <c r="L682" s="178"/>
-      <c r="M682" s="178">
+      <c r="H682" s="181"/>
+      <c r="I682" s="181"/>
+      <c r="J682" s="181"/>
+      <c r="K682" s="181"/>
+      <c r="L682" s="181"/>
+      <c r="M682" s="181">
         <f t="shared" ref="M682" si="185">G682+1</f>
         <v>44153</v>
       </c>
-      <c r="N682" s="178"/>
-      <c r="O682" s="178"/>
-      <c r="P682" s="178"/>
-      <c r="Q682" s="178"/>
-      <c r="R682" s="178"/>
-      <c r="S682" s="178">
+      <c r="N682" s="181"/>
+      <c r="O682" s="181"/>
+      <c r="P682" s="181"/>
+      <c r="Q682" s="181"/>
+      <c r="R682" s="181"/>
+      <c r="S682" s="181">
         <f t="shared" ref="S682" si="186">M682+1</f>
         <v>44154</v>
       </c>
-      <c r="T682" s="178"/>
-      <c r="U682" s="178"/>
-      <c r="V682" s="178"/>
-      <c r="W682" s="178"/>
-      <c r="X682" s="178"/>
-      <c r="Y682" s="178">
+      <c r="T682" s="181"/>
+      <c r="U682" s="181"/>
+      <c r="V682" s="181"/>
+      <c r="W682" s="181"/>
+      <c r="X682" s="181"/>
+      <c r="Y682" s="181">
         <f t="shared" ref="Y682" si="187">S682+1</f>
         <v>44155</v>
       </c>
-      <c r="Z682" s="178"/>
-      <c r="AA682" s="178"/>
-      <c r="AB682" s="178"/>
-      <c r="AC682" s="178"/>
-      <c r="AD682" s="178"/>
+      <c r="Z682" s="181"/>
+      <c r="AA682" s="181"/>
+      <c r="AB682" s="181"/>
+      <c r="AC682" s="181"/>
+      <c r="AD682" s="181"/>
     </row>
     <row r="683" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A683" s="207"/>
-      <c r="B683" s="208"/>
-      <c r="C683" s="208"/>
-      <c r="D683" s="208"/>
-      <c r="E683" s="208"/>
-      <c r="F683" s="209"/>
-      <c r="G683" s="207"/>
-      <c r="H683" s="208"/>
-      <c r="I683" s="208"/>
-      <c r="J683" s="208"/>
-      <c r="K683" s="208"/>
-      <c r="L683" s="209"/>
-      <c r="M683" s="207"/>
-      <c r="N683" s="208"/>
-      <c r="O683" s="208"/>
-      <c r="P683" s="208"/>
-      <c r="Q683" s="208"/>
-      <c r="R683" s="209"/>
-      <c r="S683" s="207"/>
-      <c r="T683" s="208"/>
-      <c r="U683" s="208"/>
-      <c r="V683" s="208"/>
-      <c r="W683" s="208"/>
-      <c r="X683" s="209"/>
-      <c r="Y683" s="207"/>
-      <c r="Z683" s="208"/>
-      <c r="AA683" s="208"/>
-      <c r="AB683" s="208"/>
-      <c r="AC683" s="208"/>
-      <c r="AD683" s="209"/>
+      <c r="A683" s="182"/>
+      <c r="B683" s="183"/>
+      <c r="C683" s="183"/>
+      <c r="D683" s="183"/>
+      <c r="E683" s="183"/>
+      <c r="F683" s="184"/>
+      <c r="G683" s="182"/>
+      <c r="H683" s="183"/>
+      <c r="I683" s="183"/>
+      <c r="J683" s="183"/>
+      <c r="K683" s="183"/>
+      <c r="L683" s="184"/>
+      <c r="M683" s="182"/>
+      <c r="N683" s="183"/>
+      <c r="O683" s="183"/>
+      <c r="P683" s="183"/>
+      <c r="Q683" s="183"/>
+      <c r="R683" s="184"/>
+      <c r="S683" s="182"/>
+      <c r="T683" s="183"/>
+      <c r="U683" s="183"/>
+      <c r="V683" s="183"/>
+      <c r="W683" s="183"/>
+      <c r="X683" s="184"/>
+      <c r="Y683" s="182"/>
+      <c r="Z683" s="183"/>
+      <c r="AA683" s="183"/>
+      <c r="AB683" s="183"/>
+      <c r="AC683" s="183"/>
+      <c r="AD683" s="184"/>
     </row>
     <row r="684" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A684" s="87" t="s">
@@ -29792,83 +29796,83 @@
       <c r="AD696" s="93"/>
     </row>
     <row r="697" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A697" s="178">
+      <c r="A697" s="181">
         <f t="shared" ref="A697" si="188">A682+7</f>
         <v>44158</v>
       </c>
-      <c r="B697" s="178"/>
-      <c r="C697" s="178"/>
-      <c r="D697" s="178"/>
-      <c r="E697" s="178"/>
-      <c r="F697" s="178"/>
-      <c r="G697" s="178">
+      <c r="B697" s="181"/>
+      <c r="C697" s="181"/>
+      <c r="D697" s="181"/>
+      <c r="E697" s="181"/>
+      <c r="F697" s="181"/>
+      <c r="G697" s="181">
         <f t="shared" ref="G697" si="189">A697+1</f>
         <v>44159</v>
       </c>
-      <c r="H697" s="178"/>
-      <c r="I697" s="178"/>
-      <c r="J697" s="178"/>
-      <c r="K697" s="178"/>
-      <c r="L697" s="178"/>
-      <c r="M697" s="178">
+      <c r="H697" s="181"/>
+      <c r="I697" s="181"/>
+      <c r="J697" s="181"/>
+      <c r="K697" s="181"/>
+      <c r="L697" s="181"/>
+      <c r="M697" s="181">
         <f t="shared" ref="M697" si="190">G697+1</f>
         <v>44160</v>
       </c>
-      <c r="N697" s="178"/>
-      <c r="O697" s="178"/>
-      <c r="P697" s="178"/>
-      <c r="Q697" s="178"/>
-      <c r="R697" s="178"/>
-      <c r="S697" s="178">
+      <c r="N697" s="181"/>
+      <c r="O697" s="181"/>
+      <c r="P697" s="181"/>
+      <c r="Q697" s="181"/>
+      <c r="R697" s="181"/>
+      <c r="S697" s="181">
         <f t="shared" ref="S697" si="191">M697+1</f>
         <v>44161</v>
       </c>
-      <c r="T697" s="178"/>
-      <c r="U697" s="178"/>
-      <c r="V697" s="178"/>
-      <c r="W697" s="178"/>
-      <c r="X697" s="178"/>
-      <c r="Y697" s="178">
+      <c r="T697" s="181"/>
+      <c r="U697" s="181"/>
+      <c r="V697" s="181"/>
+      <c r="W697" s="181"/>
+      <c r="X697" s="181"/>
+      <c r="Y697" s="181">
         <f t="shared" ref="Y697" si="192">S697+1</f>
         <v>44162</v>
       </c>
-      <c r="Z697" s="178"/>
-      <c r="AA697" s="178"/>
-      <c r="AB697" s="178"/>
-      <c r="AC697" s="178"/>
-      <c r="AD697" s="178"/>
+      <c r="Z697" s="181"/>
+      <c r="AA697" s="181"/>
+      <c r="AB697" s="181"/>
+      <c r="AC697" s="181"/>
+      <c r="AD697" s="181"/>
     </row>
     <row r="698" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A698" s="207"/>
-      <c r="B698" s="208"/>
-      <c r="C698" s="208"/>
-      <c r="D698" s="208"/>
-      <c r="E698" s="208"/>
-      <c r="F698" s="209"/>
-      <c r="G698" s="207"/>
-      <c r="H698" s="208"/>
-      <c r="I698" s="208"/>
-      <c r="J698" s="208"/>
-      <c r="K698" s="208"/>
-      <c r="L698" s="209"/>
-      <c r="M698" s="207"/>
-      <c r="N698" s="208"/>
-      <c r="O698" s="208"/>
-      <c r="P698" s="208"/>
-      <c r="Q698" s="208"/>
-      <c r="R698" s="209"/>
-      <c r="S698" s="207"/>
-      <c r="T698" s="208"/>
-      <c r="U698" s="208"/>
-      <c r="V698" s="208"/>
-      <c r="W698" s="208"/>
-      <c r="X698" s="209"/>
-      <c r="Y698" s="207"/>
-      <c r="Z698" s="208"/>
-      <c r="AA698" s="208"/>
-      <c r="AB698" s="208"/>
-      <c r="AC698" s="208"/>
-      <c r="AD698" s="209"/>
+      <c r="A698" s="182"/>
+      <c r="B698" s="183"/>
+      <c r="C698" s="183"/>
+      <c r="D698" s="183"/>
+      <c r="E698" s="183"/>
+      <c r="F698" s="184"/>
+      <c r="G698" s="182"/>
+      <c r="H698" s="183"/>
+      <c r="I698" s="183"/>
+      <c r="J698" s="183"/>
+      <c r="K698" s="183"/>
+      <c r="L698" s="184"/>
+      <c r="M698" s="182"/>
+      <c r="N698" s="183"/>
+      <c r="O698" s="183"/>
+      <c r="P698" s="183"/>
+      <c r="Q698" s="183"/>
+      <c r="R698" s="184"/>
+      <c r="S698" s="182"/>
+      <c r="T698" s="183"/>
+      <c r="U698" s="183"/>
+      <c r="V698" s="183"/>
+      <c r="W698" s="183"/>
+      <c r="X698" s="184"/>
+      <c r="Y698" s="182"/>
+      <c r="Z698" s="183"/>
+      <c r="AA698" s="183"/>
+      <c r="AB698" s="183"/>
+      <c r="AC698" s="183"/>
+      <c r="AD698" s="184"/>
     </row>
     <row r="699" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A699" s="87" t="s">
@@ -30347,83 +30351,83 @@
       <c r="AD711" s="93"/>
     </row>
     <row r="712" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A712" s="178">
+      <c r="A712" s="181">
         <f t="shared" ref="A712" si="193">A697+7</f>
         <v>44165</v>
       </c>
-      <c r="B712" s="178"/>
-      <c r="C712" s="178"/>
-      <c r="D712" s="178"/>
-      <c r="E712" s="178"/>
-      <c r="F712" s="178"/>
-      <c r="G712" s="178">
+      <c r="B712" s="181"/>
+      <c r="C712" s="181"/>
+      <c r="D712" s="181"/>
+      <c r="E712" s="181"/>
+      <c r="F712" s="181"/>
+      <c r="G712" s="181">
         <f t="shared" ref="G712" si="194">A712+1</f>
         <v>44166</v>
       </c>
-      <c r="H712" s="178"/>
-      <c r="I712" s="178"/>
-      <c r="J712" s="178"/>
-      <c r="K712" s="178"/>
-      <c r="L712" s="178"/>
-      <c r="M712" s="178">
+      <c r="H712" s="181"/>
+      <c r="I712" s="181"/>
+      <c r="J712" s="181"/>
+      <c r="K712" s="181"/>
+      <c r="L712" s="181"/>
+      <c r="M712" s="181">
         <f t="shared" ref="M712" si="195">G712+1</f>
         <v>44167</v>
       </c>
-      <c r="N712" s="178"/>
-      <c r="O712" s="178"/>
-      <c r="P712" s="178"/>
-      <c r="Q712" s="178"/>
-      <c r="R712" s="178"/>
-      <c r="S712" s="178">
+      <c r="N712" s="181"/>
+      <c r="O712" s="181"/>
+      <c r="P712" s="181"/>
+      <c r="Q712" s="181"/>
+      <c r="R712" s="181"/>
+      <c r="S712" s="181">
         <f t="shared" ref="S712" si="196">M712+1</f>
         <v>44168</v>
       </c>
-      <c r="T712" s="178"/>
-      <c r="U712" s="178"/>
-      <c r="V712" s="178"/>
-      <c r="W712" s="178"/>
-      <c r="X712" s="178"/>
-      <c r="Y712" s="178">
+      <c r="T712" s="181"/>
+      <c r="U712" s="181"/>
+      <c r="V712" s="181"/>
+      <c r="W712" s="181"/>
+      <c r="X712" s="181"/>
+      <c r="Y712" s="181">
         <f t="shared" ref="Y712" si="197">S712+1</f>
         <v>44169</v>
       </c>
-      <c r="Z712" s="178"/>
-      <c r="AA712" s="178"/>
-      <c r="AB712" s="178"/>
-      <c r="AC712" s="178"/>
-      <c r="AD712" s="178"/>
+      <c r="Z712" s="181"/>
+      <c r="AA712" s="181"/>
+      <c r="AB712" s="181"/>
+      <c r="AC712" s="181"/>
+      <c r="AD712" s="181"/>
     </row>
     <row r="713" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A713" s="207"/>
-      <c r="B713" s="208"/>
-      <c r="C713" s="208"/>
-      <c r="D713" s="208"/>
-      <c r="E713" s="208"/>
-      <c r="F713" s="209"/>
-      <c r="G713" s="207"/>
-      <c r="H713" s="208"/>
-      <c r="I713" s="208"/>
-      <c r="J713" s="208"/>
-      <c r="K713" s="208"/>
-      <c r="L713" s="209"/>
-      <c r="M713" s="207"/>
-      <c r="N713" s="208"/>
-      <c r="O713" s="208"/>
-      <c r="P713" s="208"/>
-      <c r="Q713" s="208"/>
-      <c r="R713" s="209"/>
-      <c r="S713" s="207"/>
-      <c r="T713" s="208"/>
-      <c r="U713" s="208"/>
-      <c r="V713" s="208"/>
-      <c r="W713" s="208"/>
-      <c r="X713" s="209"/>
-      <c r="Y713" s="207"/>
-      <c r="Z713" s="208"/>
-      <c r="AA713" s="208"/>
-      <c r="AB713" s="208"/>
-      <c r="AC713" s="208"/>
-      <c r="AD713" s="209"/>
+      <c r="A713" s="182"/>
+      <c r="B713" s="183"/>
+      <c r="C713" s="183"/>
+      <c r="D713" s="183"/>
+      <c r="E713" s="183"/>
+      <c r="F713" s="184"/>
+      <c r="G713" s="182"/>
+      <c r="H713" s="183"/>
+      <c r="I713" s="183"/>
+      <c r="J713" s="183"/>
+      <c r="K713" s="183"/>
+      <c r="L713" s="184"/>
+      <c r="M713" s="182"/>
+      <c r="N713" s="183"/>
+      <c r="O713" s="183"/>
+      <c r="P713" s="183"/>
+      <c r="Q713" s="183"/>
+      <c r="R713" s="184"/>
+      <c r="S713" s="182"/>
+      <c r="T713" s="183"/>
+      <c r="U713" s="183"/>
+      <c r="V713" s="183"/>
+      <c r="W713" s="183"/>
+      <c r="X713" s="184"/>
+      <c r="Y713" s="182"/>
+      <c r="Z713" s="183"/>
+      <c r="AA713" s="183"/>
+      <c r="AB713" s="183"/>
+      <c r="AC713" s="183"/>
+      <c r="AD713" s="184"/>
     </row>
     <row r="714" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A714" s="87" t="s">
@@ -30902,83 +30906,83 @@
       <c r="AD726" s="93"/>
     </row>
     <row r="727" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A727" s="178">
+      <c r="A727" s="181">
         <f t="shared" ref="A727" si="198">A712+7</f>
         <v>44172</v>
       </c>
-      <c r="B727" s="178"/>
-      <c r="C727" s="178"/>
-      <c r="D727" s="178"/>
-      <c r="E727" s="178"/>
-      <c r="F727" s="178"/>
-      <c r="G727" s="178">
+      <c r="B727" s="181"/>
+      <c r="C727" s="181"/>
+      <c r="D727" s="181"/>
+      <c r="E727" s="181"/>
+      <c r="F727" s="181"/>
+      <c r="G727" s="181">
         <f t="shared" ref="G727" si="199">A727+1</f>
         <v>44173</v>
       </c>
-      <c r="H727" s="178"/>
-      <c r="I727" s="178"/>
-      <c r="J727" s="178"/>
-      <c r="K727" s="178"/>
-      <c r="L727" s="178"/>
-      <c r="M727" s="178">
+      <c r="H727" s="181"/>
+      <c r="I727" s="181"/>
+      <c r="J727" s="181"/>
+      <c r="K727" s="181"/>
+      <c r="L727" s="181"/>
+      <c r="M727" s="181">
         <f t="shared" ref="M727" si="200">G727+1</f>
         <v>44174</v>
       </c>
-      <c r="N727" s="178"/>
-      <c r="O727" s="178"/>
-      <c r="P727" s="178"/>
-      <c r="Q727" s="178"/>
-      <c r="R727" s="178"/>
-      <c r="S727" s="178">
+      <c r="N727" s="181"/>
+      <c r="O727" s="181"/>
+      <c r="P727" s="181"/>
+      <c r="Q727" s="181"/>
+      <c r="R727" s="181"/>
+      <c r="S727" s="181">
         <f t="shared" ref="S727" si="201">M727+1</f>
         <v>44175</v>
       </c>
-      <c r="T727" s="178"/>
-      <c r="U727" s="178"/>
-      <c r="V727" s="178"/>
-      <c r="W727" s="178"/>
-      <c r="X727" s="178"/>
-      <c r="Y727" s="178">
+      <c r="T727" s="181"/>
+      <c r="U727" s="181"/>
+      <c r="V727" s="181"/>
+      <c r="W727" s="181"/>
+      <c r="X727" s="181"/>
+      <c r="Y727" s="181">
         <f t="shared" ref="Y727" si="202">S727+1</f>
         <v>44176</v>
       </c>
-      <c r="Z727" s="178"/>
-      <c r="AA727" s="178"/>
-      <c r="AB727" s="178"/>
-      <c r="AC727" s="178"/>
-      <c r="AD727" s="178"/>
+      <c r="Z727" s="181"/>
+      <c r="AA727" s="181"/>
+      <c r="AB727" s="181"/>
+      <c r="AC727" s="181"/>
+      <c r="AD727" s="181"/>
     </row>
     <row r="728" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A728" s="207"/>
-      <c r="B728" s="208"/>
-      <c r="C728" s="208"/>
-      <c r="D728" s="208"/>
-      <c r="E728" s="208"/>
-      <c r="F728" s="209"/>
-      <c r="G728" s="207"/>
-      <c r="H728" s="208"/>
-      <c r="I728" s="208"/>
-      <c r="J728" s="208"/>
-      <c r="K728" s="208"/>
-      <c r="L728" s="209"/>
-      <c r="M728" s="207"/>
-      <c r="N728" s="208"/>
-      <c r="O728" s="208"/>
-      <c r="P728" s="208"/>
-      <c r="Q728" s="208"/>
-      <c r="R728" s="209"/>
-      <c r="S728" s="207"/>
-      <c r="T728" s="208"/>
-      <c r="U728" s="208"/>
-      <c r="V728" s="208"/>
-      <c r="W728" s="208"/>
-      <c r="X728" s="209"/>
-      <c r="Y728" s="207"/>
-      <c r="Z728" s="208"/>
-      <c r="AA728" s="208"/>
-      <c r="AB728" s="208"/>
-      <c r="AC728" s="208"/>
-      <c r="AD728" s="209"/>
+      <c r="A728" s="182"/>
+      <c r="B728" s="183"/>
+      <c r="C728" s="183"/>
+      <c r="D728" s="183"/>
+      <c r="E728" s="183"/>
+      <c r="F728" s="184"/>
+      <c r="G728" s="182"/>
+      <c r="H728" s="183"/>
+      <c r="I728" s="183"/>
+      <c r="J728" s="183"/>
+      <c r="K728" s="183"/>
+      <c r="L728" s="184"/>
+      <c r="M728" s="182"/>
+      <c r="N728" s="183"/>
+      <c r="O728" s="183"/>
+      <c r="P728" s="183"/>
+      <c r="Q728" s="183"/>
+      <c r="R728" s="184"/>
+      <c r="S728" s="182"/>
+      <c r="T728" s="183"/>
+      <c r="U728" s="183"/>
+      <c r="V728" s="183"/>
+      <c r="W728" s="183"/>
+      <c r="X728" s="184"/>
+      <c r="Y728" s="182"/>
+      <c r="Z728" s="183"/>
+      <c r="AA728" s="183"/>
+      <c r="AB728" s="183"/>
+      <c r="AC728" s="183"/>
+      <c r="AD728" s="184"/>
     </row>
     <row r="729" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A729" s="87" t="s">
@@ -31457,83 +31461,83 @@
       <c r="AD741" s="93"/>
     </row>
     <row r="742" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A742" s="178">
+      <c r="A742" s="181">
         <f t="shared" ref="A742" si="203">A727+7</f>
         <v>44179</v>
       </c>
-      <c r="B742" s="178"/>
-      <c r="C742" s="178"/>
-      <c r="D742" s="178"/>
-      <c r="E742" s="178"/>
-      <c r="F742" s="178"/>
-      <c r="G742" s="178">
+      <c r="B742" s="181"/>
+      <c r="C742" s="181"/>
+      <c r="D742" s="181"/>
+      <c r="E742" s="181"/>
+      <c r="F742" s="181"/>
+      <c r="G742" s="181">
         <f t="shared" ref="G742" si="204">A742+1</f>
         <v>44180</v>
       </c>
-      <c r="H742" s="178"/>
-      <c r="I742" s="178"/>
-      <c r="J742" s="178"/>
-      <c r="K742" s="178"/>
-      <c r="L742" s="178"/>
-      <c r="M742" s="178">
+      <c r="H742" s="181"/>
+      <c r="I742" s="181"/>
+      <c r="J742" s="181"/>
+      <c r="K742" s="181"/>
+      <c r="L742" s="181"/>
+      <c r="M742" s="181">
         <f t="shared" ref="M742" si="205">G742+1</f>
         <v>44181</v>
       </c>
-      <c r="N742" s="178"/>
-      <c r="O742" s="178"/>
-      <c r="P742" s="178"/>
-      <c r="Q742" s="178"/>
-      <c r="R742" s="178"/>
-      <c r="S742" s="178">
+      <c r="N742" s="181"/>
+      <c r="O742" s="181"/>
+      <c r="P742" s="181"/>
+      <c r="Q742" s="181"/>
+      <c r="R742" s="181"/>
+      <c r="S742" s="181">
         <f t="shared" ref="S742" si="206">M742+1</f>
         <v>44182</v>
       </c>
-      <c r="T742" s="178"/>
-      <c r="U742" s="178"/>
-      <c r="V742" s="178"/>
-      <c r="W742" s="178"/>
-      <c r="X742" s="178"/>
-      <c r="Y742" s="178">
+      <c r="T742" s="181"/>
+      <c r="U742" s="181"/>
+      <c r="V742" s="181"/>
+      <c r="W742" s="181"/>
+      <c r="X742" s="181"/>
+      <c r="Y742" s="181">
         <f t="shared" ref="Y742" si="207">S742+1</f>
         <v>44183</v>
       </c>
-      <c r="Z742" s="178"/>
-      <c r="AA742" s="178"/>
-      <c r="AB742" s="178"/>
-      <c r="AC742" s="178"/>
-      <c r="AD742" s="178"/>
+      <c r="Z742" s="181"/>
+      <c r="AA742" s="181"/>
+      <c r="AB742" s="181"/>
+      <c r="AC742" s="181"/>
+      <c r="AD742" s="181"/>
     </row>
     <row r="743" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A743" s="207"/>
-      <c r="B743" s="208"/>
-      <c r="C743" s="208"/>
-      <c r="D743" s="208"/>
-      <c r="E743" s="208"/>
-      <c r="F743" s="209"/>
-      <c r="G743" s="207"/>
-      <c r="H743" s="208"/>
-      <c r="I743" s="208"/>
-      <c r="J743" s="208"/>
-      <c r="K743" s="208"/>
-      <c r="L743" s="209"/>
-      <c r="M743" s="207"/>
-      <c r="N743" s="208"/>
-      <c r="O743" s="208"/>
-      <c r="P743" s="208"/>
-      <c r="Q743" s="208"/>
-      <c r="R743" s="209"/>
-      <c r="S743" s="207"/>
-      <c r="T743" s="208"/>
-      <c r="U743" s="208"/>
-      <c r="V743" s="208"/>
-      <c r="W743" s="208"/>
-      <c r="X743" s="209"/>
-      <c r="Y743" s="207"/>
-      <c r="Z743" s="208"/>
-      <c r="AA743" s="208"/>
-      <c r="AB743" s="208"/>
-      <c r="AC743" s="208"/>
-      <c r="AD743" s="209"/>
+      <c r="A743" s="182"/>
+      <c r="B743" s="183"/>
+      <c r="C743" s="183"/>
+      <c r="D743" s="183"/>
+      <c r="E743" s="183"/>
+      <c r="F743" s="184"/>
+      <c r="G743" s="182"/>
+      <c r="H743" s="183"/>
+      <c r="I743" s="183"/>
+      <c r="J743" s="183"/>
+      <c r="K743" s="183"/>
+      <c r="L743" s="184"/>
+      <c r="M743" s="182"/>
+      <c r="N743" s="183"/>
+      <c r="O743" s="183"/>
+      <c r="P743" s="183"/>
+      <c r="Q743" s="183"/>
+      <c r="R743" s="184"/>
+      <c r="S743" s="182"/>
+      <c r="T743" s="183"/>
+      <c r="U743" s="183"/>
+      <c r="V743" s="183"/>
+      <c r="W743" s="183"/>
+      <c r="X743" s="184"/>
+      <c r="Y743" s="182"/>
+      <c r="Z743" s="183"/>
+      <c r="AA743" s="183"/>
+      <c r="AB743" s="183"/>
+      <c r="AC743" s="183"/>
+      <c r="AD743" s="184"/>
     </row>
     <row r="744" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A744" s="87" t="s">
@@ -32012,83 +32016,83 @@
       <c r="AD756" s="93"/>
     </row>
     <row r="757" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A757" s="178">
+      <c r="A757" s="181">
         <f t="shared" ref="A757" si="208">A742+7</f>
         <v>44186</v>
       </c>
-      <c r="B757" s="178"/>
-      <c r="C757" s="178"/>
-      <c r="D757" s="178"/>
-      <c r="E757" s="178"/>
-      <c r="F757" s="178"/>
-      <c r="G757" s="178">
+      <c r="B757" s="181"/>
+      <c r="C757" s="181"/>
+      <c r="D757" s="181"/>
+      <c r="E757" s="181"/>
+      <c r="F757" s="181"/>
+      <c r="G757" s="181">
         <f t="shared" ref="G757" si="209">A757+1</f>
         <v>44187</v>
       </c>
-      <c r="H757" s="178"/>
-      <c r="I757" s="178"/>
-      <c r="J757" s="178"/>
-      <c r="K757" s="178"/>
-      <c r="L757" s="178"/>
-      <c r="M757" s="178">
+      <c r="H757" s="181"/>
+      <c r="I757" s="181"/>
+      <c r="J757" s="181"/>
+      <c r="K757" s="181"/>
+      <c r="L757" s="181"/>
+      <c r="M757" s="181">
         <f t="shared" ref="M757" si="210">G757+1</f>
         <v>44188</v>
       </c>
-      <c r="N757" s="178"/>
-      <c r="O757" s="178"/>
-      <c r="P757" s="178"/>
-      <c r="Q757" s="178"/>
-      <c r="R757" s="178"/>
-      <c r="S757" s="178">
+      <c r="N757" s="181"/>
+      <c r="O757" s="181"/>
+      <c r="P757" s="181"/>
+      <c r="Q757" s="181"/>
+      <c r="R757" s="181"/>
+      <c r="S757" s="181">
         <f t="shared" ref="S757" si="211">M757+1</f>
         <v>44189</v>
       </c>
-      <c r="T757" s="178"/>
-      <c r="U757" s="178"/>
-      <c r="V757" s="178"/>
-      <c r="W757" s="178"/>
-      <c r="X757" s="178"/>
-      <c r="Y757" s="178">
+      <c r="T757" s="181"/>
+      <c r="U757" s="181"/>
+      <c r="V757" s="181"/>
+      <c r="W757" s="181"/>
+      <c r="X757" s="181"/>
+      <c r="Y757" s="181">
         <f t="shared" ref="Y757" si="212">S757+1</f>
         <v>44190</v>
       </c>
-      <c r="Z757" s="178"/>
-      <c r="AA757" s="178"/>
-      <c r="AB757" s="178"/>
-      <c r="AC757" s="178"/>
-      <c r="AD757" s="178"/>
+      <c r="Z757" s="181"/>
+      <c r="AA757" s="181"/>
+      <c r="AB757" s="181"/>
+      <c r="AC757" s="181"/>
+      <c r="AD757" s="181"/>
     </row>
     <row r="758" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A758" s="207"/>
-      <c r="B758" s="208"/>
-      <c r="C758" s="208"/>
-      <c r="D758" s="208"/>
-      <c r="E758" s="208"/>
-      <c r="F758" s="209"/>
-      <c r="G758" s="207"/>
-      <c r="H758" s="208"/>
-      <c r="I758" s="208"/>
-      <c r="J758" s="208"/>
-      <c r="K758" s="208"/>
-      <c r="L758" s="209"/>
-      <c r="M758" s="207"/>
-      <c r="N758" s="208"/>
-      <c r="O758" s="208"/>
-      <c r="P758" s="208"/>
-      <c r="Q758" s="208"/>
-      <c r="R758" s="209"/>
-      <c r="S758" s="207"/>
-      <c r="T758" s="208"/>
-      <c r="U758" s="208"/>
-      <c r="V758" s="208"/>
-      <c r="W758" s="208"/>
-      <c r="X758" s="209"/>
-      <c r="Y758" s="207"/>
-      <c r="Z758" s="208"/>
-      <c r="AA758" s="208"/>
-      <c r="AB758" s="208"/>
-      <c r="AC758" s="208"/>
-      <c r="AD758" s="209"/>
+      <c r="A758" s="182"/>
+      <c r="B758" s="183"/>
+      <c r="C758" s="183"/>
+      <c r="D758" s="183"/>
+      <c r="E758" s="183"/>
+      <c r="F758" s="184"/>
+      <c r="G758" s="182"/>
+      <c r="H758" s="183"/>
+      <c r="I758" s="183"/>
+      <c r="J758" s="183"/>
+      <c r="K758" s="183"/>
+      <c r="L758" s="184"/>
+      <c r="M758" s="182"/>
+      <c r="N758" s="183"/>
+      <c r="O758" s="183"/>
+      <c r="P758" s="183"/>
+      <c r="Q758" s="183"/>
+      <c r="R758" s="184"/>
+      <c r="S758" s="182"/>
+      <c r="T758" s="183"/>
+      <c r="U758" s="183"/>
+      <c r="V758" s="183"/>
+      <c r="W758" s="183"/>
+      <c r="X758" s="184"/>
+      <c r="Y758" s="182"/>
+      <c r="Z758" s="183"/>
+      <c r="AA758" s="183"/>
+      <c r="AB758" s="183"/>
+      <c r="AC758" s="183"/>
+      <c r="AD758" s="184"/>
     </row>
     <row r="759" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A759" s="87" t="s">
@@ -32567,83 +32571,83 @@
       <c r="AD771" s="93"/>
     </row>
     <row r="772" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A772" s="178">
+      <c r="A772" s="181">
         <f t="shared" ref="A772" si="213">A757+7</f>
         <v>44193</v>
       </c>
-      <c r="B772" s="178"/>
-      <c r="C772" s="178"/>
-      <c r="D772" s="178"/>
-      <c r="E772" s="178"/>
-      <c r="F772" s="178"/>
-      <c r="G772" s="178">
+      <c r="B772" s="181"/>
+      <c r="C772" s="181"/>
+      <c r="D772" s="181"/>
+      <c r="E772" s="181"/>
+      <c r="F772" s="181"/>
+      <c r="G772" s="181">
         <f t="shared" ref="G772" si="214">A772+1</f>
         <v>44194</v>
       </c>
-      <c r="H772" s="178"/>
-      <c r="I772" s="178"/>
-      <c r="J772" s="178"/>
-      <c r="K772" s="178"/>
-      <c r="L772" s="178"/>
-      <c r="M772" s="178">
+      <c r="H772" s="181"/>
+      <c r="I772" s="181"/>
+      <c r="J772" s="181"/>
+      <c r="K772" s="181"/>
+      <c r="L772" s="181"/>
+      <c r="M772" s="181">
         <f t="shared" ref="M772" si="215">G772+1</f>
         <v>44195</v>
       </c>
-      <c r="N772" s="178"/>
-      <c r="O772" s="178"/>
-      <c r="P772" s="178"/>
-      <c r="Q772" s="178"/>
-      <c r="R772" s="178"/>
-      <c r="S772" s="178">
+      <c r="N772" s="181"/>
+      <c r="O772" s="181"/>
+      <c r="P772" s="181"/>
+      <c r="Q772" s="181"/>
+      <c r="R772" s="181"/>
+      <c r="S772" s="181">
         <f t="shared" ref="S772" si="216">M772+1</f>
         <v>44196</v>
       </c>
-      <c r="T772" s="178"/>
-      <c r="U772" s="178"/>
-      <c r="V772" s="178"/>
-      <c r="W772" s="178"/>
-      <c r="X772" s="178"/>
-      <c r="Y772" s="178">
+      <c r="T772" s="181"/>
+      <c r="U772" s="181"/>
+      <c r="V772" s="181"/>
+      <c r="W772" s="181"/>
+      <c r="X772" s="181"/>
+      <c r="Y772" s="181">
         <f t="shared" ref="Y772" si="217">S772+1</f>
         <v>44197</v>
       </c>
-      <c r="Z772" s="178"/>
-      <c r="AA772" s="178"/>
-      <c r="AB772" s="178"/>
-      <c r="AC772" s="178"/>
-      <c r="AD772" s="178"/>
+      <c r="Z772" s="181"/>
+      <c r="AA772" s="181"/>
+      <c r="AB772" s="181"/>
+      <c r="AC772" s="181"/>
+      <c r="AD772" s="181"/>
     </row>
     <row r="773" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A773" s="207"/>
-      <c r="B773" s="208"/>
-      <c r="C773" s="208"/>
-      <c r="D773" s="208"/>
-      <c r="E773" s="208"/>
-      <c r="F773" s="209"/>
-      <c r="G773" s="207"/>
-      <c r="H773" s="208"/>
-      <c r="I773" s="208"/>
-      <c r="J773" s="208"/>
-      <c r="K773" s="208"/>
-      <c r="L773" s="209"/>
-      <c r="M773" s="207"/>
-      <c r="N773" s="208"/>
-      <c r="O773" s="208"/>
-      <c r="P773" s="208"/>
-      <c r="Q773" s="208"/>
-      <c r="R773" s="209"/>
-      <c r="S773" s="207"/>
-      <c r="T773" s="208"/>
-      <c r="U773" s="208"/>
-      <c r="V773" s="208"/>
-      <c r="W773" s="208"/>
-      <c r="X773" s="209"/>
-      <c r="Y773" s="207"/>
-      <c r="Z773" s="208"/>
-      <c r="AA773" s="208"/>
-      <c r="AB773" s="208"/>
-      <c r="AC773" s="208"/>
-      <c r="AD773" s="209"/>
+      <c r="A773" s="182"/>
+      <c r="B773" s="183"/>
+      <c r="C773" s="183"/>
+      <c r="D773" s="183"/>
+      <c r="E773" s="183"/>
+      <c r="F773" s="184"/>
+      <c r="G773" s="182"/>
+      <c r="H773" s="183"/>
+      <c r="I773" s="183"/>
+      <c r="J773" s="183"/>
+      <c r="K773" s="183"/>
+      <c r="L773" s="184"/>
+      <c r="M773" s="182"/>
+      <c r="N773" s="183"/>
+      <c r="O773" s="183"/>
+      <c r="P773" s="183"/>
+      <c r="Q773" s="183"/>
+      <c r="R773" s="184"/>
+      <c r="S773" s="182"/>
+      <c r="T773" s="183"/>
+      <c r="U773" s="183"/>
+      <c r="V773" s="183"/>
+      <c r="W773" s="183"/>
+      <c r="X773" s="184"/>
+      <c r="Y773" s="182"/>
+      <c r="Z773" s="183"/>
+      <c r="AA773" s="183"/>
+      <c r="AB773" s="183"/>
+      <c r="AC773" s="183"/>
+      <c r="AD773" s="184"/>
     </row>
     <row r="774" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A774" s="87" t="s">
@@ -33122,83 +33126,83 @@
       <c r="AD786" s="93"/>
     </row>
     <row r="787" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A787" s="178">
+      <c r="A787" s="181">
         <f t="shared" ref="A787" si="218">A772+7</f>
         <v>44200</v>
       </c>
-      <c r="B787" s="178"/>
-      <c r="C787" s="178"/>
-      <c r="D787" s="178"/>
-      <c r="E787" s="178"/>
-      <c r="F787" s="178"/>
-      <c r="G787" s="178">
+      <c r="B787" s="181"/>
+      <c r="C787" s="181"/>
+      <c r="D787" s="181"/>
+      <c r="E787" s="181"/>
+      <c r="F787" s="181"/>
+      <c r="G787" s="181">
         <f t="shared" ref="G787" si="219">A787+1</f>
         <v>44201</v>
       </c>
-      <c r="H787" s="178"/>
-      <c r="I787" s="178"/>
-      <c r="J787" s="178"/>
-      <c r="K787" s="178"/>
-      <c r="L787" s="178"/>
-      <c r="M787" s="178">
+      <c r="H787" s="181"/>
+      <c r="I787" s="181"/>
+      <c r="J787" s="181"/>
+      <c r="K787" s="181"/>
+      <c r="L787" s="181"/>
+      <c r="M787" s="181">
         <f t="shared" ref="M787" si="220">G787+1</f>
         <v>44202</v>
       </c>
-      <c r="N787" s="178"/>
-      <c r="O787" s="178"/>
-      <c r="P787" s="178"/>
-      <c r="Q787" s="178"/>
-      <c r="R787" s="178"/>
-      <c r="S787" s="178">
+      <c r="N787" s="181"/>
+      <c r="O787" s="181"/>
+      <c r="P787" s="181"/>
+      <c r="Q787" s="181"/>
+      <c r="R787" s="181"/>
+      <c r="S787" s="181">
         <f t="shared" ref="S787" si="221">M787+1</f>
         <v>44203</v>
       </c>
-      <c r="T787" s="178"/>
-      <c r="U787" s="178"/>
-      <c r="V787" s="178"/>
-      <c r="W787" s="178"/>
-      <c r="X787" s="178"/>
-      <c r="Y787" s="178">
+      <c r="T787" s="181"/>
+      <c r="U787" s="181"/>
+      <c r="V787" s="181"/>
+      <c r="W787" s="181"/>
+      <c r="X787" s="181"/>
+      <c r="Y787" s="181">
         <f t="shared" ref="Y787" si="222">S787+1</f>
         <v>44204</v>
       </c>
-      <c r="Z787" s="178"/>
-      <c r="AA787" s="178"/>
-      <c r="AB787" s="178"/>
-      <c r="AC787" s="178"/>
-      <c r="AD787" s="178"/>
+      <c r="Z787" s="181"/>
+      <c r="AA787" s="181"/>
+      <c r="AB787" s="181"/>
+      <c r="AC787" s="181"/>
+      <c r="AD787" s="181"/>
     </row>
     <row r="788" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A788" s="207"/>
-      <c r="B788" s="208"/>
-      <c r="C788" s="208"/>
-      <c r="D788" s="208"/>
-      <c r="E788" s="208"/>
-      <c r="F788" s="209"/>
-      <c r="G788" s="207"/>
-      <c r="H788" s="208"/>
-      <c r="I788" s="208"/>
-      <c r="J788" s="208"/>
-      <c r="K788" s="208"/>
-      <c r="L788" s="209"/>
-      <c r="M788" s="207"/>
-      <c r="N788" s="208"/>
-      <c r="O788" s="208"/>
-      <c r="P788" s="208"/>
-      <c r="Q788" s="208"/>
-      <c r="R788" s="209"/>
-      <c r="S788" s="207"/>
-      <c r="T788" s="208"/>
-      <c r="U788" s="208"/>
-      <c r="V788" s="208"/>
-      <c r="W788" s="208"/>
-      <c r="X788" s="209"/>
-      <c r="Y788" s="207"/>
-      <c r="Z788" s="208"/>
-      <c r="AA788" s="208"/>
-      <c r="AB788" s="208"/>
-      <c r="AC788" s="208"/>
-      <c r="AD788" s="209"/>
+      <c r="A788" s="182"/>
+      <c r="B788" s="183"/>
+      <c r="C788" s="183"/>
+      <c r="D788" s="183"/>
+      <c r="E788" s="183"/>
+      <c r="F788" s="184"/>
+      <c r="G788" s="182"/>
+      <c r="H788" s="183"/>
+      <c r="I788" s="183"/>
+      <c r="J788" s="183"/>
+      <c r="K788" s="183"/>
+      <c r="L788" s="184"/>
+      <c r="M788" s="182"/>
+      <c r="N788" s="183"/>
+      <c r="O788" s="183"/>
+      <c r="P788" s="183"/>
+      <c r="Q788" s="183"/>
+      <c r="R788" s="184"/>
+      <c r="S788" s="182"/>
+      <c r="T788" s="183"/>
+      <c r="U788" s="183"/>
+      <c r="V788" s="183"/>
+      <c r="W788" s="183"/>
+      <c r="X788" s="184"/>
+      <c r="Y788" s="182"/>
+      <c r="Z788" s="183"/>
+      <c r="AA788" s="183"/>
+      <c r="AB788" s="183"/>
+      <c r="AC788" s="183"/>
+      <c r="AD788" s="184"/>
     </row>
     <row r="789" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A789" s="87" t="s">
@@ -33738,6 +33742,16 @@
     <mergeCell ref="M698:R698"/>
     <mergeCell ref="S698:X698"/>
     <mergeCell ref="Y698:AD698"/>
+    <mergeCell ref="A697:F697"/>
+    <mergeCell ref="G697:L697"/>
+    <mergeCell ref="M697:R697"/>
+    <mergeCell ref="S697:X697"/>
+    <mergeCell ref="Y697:AD697"/>
+    <mergeCell ref="A683:F683"/>
+    <mergeCell ref="G683:L683"/>
+    <mergeCell ref="M683:R683"/>
+    <mergeCell ref="S683:X683"/>
+    <mergeCell ref="Y683:AD683"/>
     <mergeCell ref="A667:F667"/>
     <mergeCell ref="G667:L667"/>
     <mergeCell ref="M667:R667"/>
@@ -33818,7 +33832,6 @@
     <mergeCell ref="M548:R548"/>
     <mergeCell ref="S548:X548"/>
     <mergeCell ref="Y548:AD548"/>
-    <mergeCell ref="Y503:AD503"/>
     <mergeCell ref="A517:F517"/>
     <mergeCell ref="G517:L517"/>
     <mergeCell ref="M517:R517"/>
@@ -33829,16 +33842,6 @@
     <mergeCell ref="M518:R518"/>
     <mergeCell ref="S518:X518"/>
     <mergeCell ref="Y518:AD518"/>
-    <mergeCell ref="A443:F443"/>
-    <mergeCell ref="G443:L443"/>
-    <mergeCell ref="M443:R443"/>
-    <mergeCell ref="S443:X443"/>
-    <mergeCell ref="Y443:AD443"/>
-    <mergeCell ref="A457:F457"/>
-    <mergeCell ref="G457:L457"/>
-    <mergeCell ref="M457:R457"/>
-    <mergeCell ref="S457:X457"/>
-    <mergeCell ref="Y457:AD457"/>
     <mergeCell ref="A427:F427"/>
     <mergeCell ref="G427:L427"/>
     <mergeCell ref="M427:R427"/>
@@ -33849,46 +33852,36 @@
     <mergeCell ref="M428:R428"/>
     <mergeCell ref="S428:X428"/>
     <mergeCell ref="Y428:AD428"/>
+    <mergeCell ref="A382:F382"/>
+    <mergeCell ref="G382:L382"/>
+    <mergeCell ref="M382:R382"/>
+    <mergeCell ref="S382:X382"/>
+    <mergeCell ref="Y382:AD382"/>
     <mergeCell ref="A383:F383"/>
     <mergeCell ref="G383:L383"/>
     <mergeCell ref="M383:R383"/>
     <mergeCell ref="S383:X383"/>
     <mergeCell ref="Y383:AD383"/>
-    <mergeCell ref="A412:F412"/>
-    <mergeCell ref="G412:L412"/>
-    <mergeCell ref="M412:R412"/>
-    <mergeCell ref="S412:X412"/>
-    <mergeCell ref="Y412:AD412"/>
+    <mergeCell ref="A367:F367"/>
+    <mergeCell ref="G367:L367"/>
+    <mergeCell ref="M367:R367"/>
+    <mergeCell ref="S367:X367"/>
+    <mergeCell ref="Y367:AD367"/>
     <mergeCell ref="A368:F368"/>
     <mergeCell ref="G368:L368"/>
     <mergeCell ref="M368:R368"/>
     <mergeCell ref="S368:X368"/>
     <mergeCell ref="Y368:AD368"/>
-    <mergeCell ref="A382:F382"/>
-    <mergeCell ref="G382:L382"/>
-    <mergeCell ref="M382:R382"/>
-    <mergeCell ref="S382:X382"/>
-    <mergeCell ref="Y382:AD382"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="G352:L352"/>
+    <mergeCell ref="M352:R352"/>
+    <mergeCell ref="S352:X352"/>
+    <mergeCell ref="Y352:AD352"/>
     <mergeCell ref="A353:F353"/>
     <mergeCell ref="G353:L353"/>
     <mergeCell ref="M353:R353"/>
     <mergeCell ref="S353:X353"/>
     <mergeCell ref="Y353:AD353"/>
-    <mergeCell ref="A367:F367"/>
-    <mergeCell ref="G367:L367"/>
-    <mergeCell ref="M367:R367"/>
-    <mergeCell ref="S367:X367"/>
-    <mergeCell ref="Y367:AD367"/>
-    <mergeCell ref="A337:F337"/>
-    <mergeCell ref="G337:L337"/>
-    <mergeCell ref="M337:R337"/>
-    <mergeCell ref="S337:X337"/>
-    <mergeCell ref="Y337:AD337"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="G352:L352"/>
-    <mergeCell ref="M352:R352"/>
-    <mergeCell ref="S352:X352"/>
-    <mergeCell ref="Y352:AD352"/>
     <mergeCell ref="Y292:AD292"/>
     <mergeCell ref="A308:F308"/>
     <mergeCell ref="G308:L308"/>
@@ -33900,6 +33893,19 @@
     <mergeCell ref="M323:R323"/>
     <mergeCell ref="S323:X323"/>
     <mergeCell ref="Y323:AD323"/>
+    <mergeCell ref="A293:F293"/>
+    <mergeCell ref="G293:L293"/>
+    <mergeCell ref="M293:R293"/>
+    <mergeCell ref="S293:X293"/>
+    <mergeCell ref="Y293:AD293"/>
+    <mergeCell ref="A292:F292"/>
+    <mergeCell ref="G292:L292"/>
+    <mergeCell ref="M292:R292"/>
+    <mergeCell ref="S292:X292"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="G307:L307"/>
+    <mergeCell ref="M307:R307"/>
+    <mergeCell ref="S307:X307"/>
     <mergeCell ref="Y232:AD232"/>
     <mergeCell ref="A233:F233"/>
     <mergeCell ref="G233:L233"/>
@@ -33921,16 +33927,6 @@
     <mergeCell ref="M788:R788"/>
     <mergeCell ref="S788:X788"/>
     <mergeCell ref="Y788:AD788"/>
-    <mergeCell ref="A697:F697"/>
-    <mergeCell ref="G697:L697"/>
-    <mergeCell ref="M697:R697"/>
-    <mergeCell ref="S697:X697"/>
-    <mergeCell ref="Y697:AD697"/>
-    <mergeCell ref="A683:F683"/>
-    <mergeCell ref="G683:L683"/>
-    <mergeCell ref="M683:R683"/>
-    <mergeCell ref="S683:X683"/>
-    <mergeCell ref="Y683:AD683"/>
     <mergeCell ref="A592:F592"/>
     <mergeCell ref="G592:L592"/>
     <mergeCell ref="M592:R592"/>
@@ -33976,6 +33972,11 @@
     <mergeCell ref="M398:R398"/>
     <mergeCell ref="S398:X398"/>
     <mergeCell ref="Y398:AD398"/>
+    <mergeCell ref="A412:F412"/>
+    <mergeCell ref="G412:L412"/>
+    <mergeCell ref="M412:R412"/>
+    <mergeCell ref="S412:X412"/>
+    <mergeCell ref="Y412:AD412"/>
     <mergeCell ref="A277:F277"/>
     <mergeCell ref="G277:L277"/>
     <mergeCell ref="M277:R277"/>
@@ -34006,6 +34007,20 @@
     <mergeCell ref="M203:R203"/>
     <mergeCell ref="S203:X203"/>
     <mergeCell ref="Y203:AD203"/>
+    <mergeCell ref="A218:F218"/>
+    <mergeCell ref="G218:L218"/>
+    <mergeCell ref="M218:R218"/>
+    <mergeCell ref="S218:X218"/>
+    <mergeCell ref="Y218:AD218"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="G217:L217"/>
+    <mergeCell ref="M217:R217"/>
+    <mergeCell ref="S217:X217"/>
+    <mergeCell ref="Y217:AD217"/>
+    <mergeCell ref="A232:F232"/>
+    <mergeCell ref="G232:L232"/>
+    <mergeCell ref="M232:R232"/>
+    <mergeCell ref="S232:X232"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="M15:R15"/>
@@ -34061,33 +34076,6 @@
     <mergeCell ref="M188:R188"/>
     <mergeCell ref="S188:X188"/>
     <mergeCell ref="Y188:AD188"/>
-    <mergeCell ref="A218:F218"/>
-    <mergeCell ref="G218:L218"/>
-    <mergeCell ref="M218:R218"/>
-    <mergeCell ref="S218:X218"/>
-    <mergeCell ref="Y218:AD218"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="G217:L217"/>
-    <mergeCell ref="M217:R217"/>
-    <mergeCell ref="S217:X217"/>
-    <mergeCell ref="Y217:AD217"/>
-    <mergeCell ref="A232:F232"/>
-    <mergeCell ref="G232:L232"/>
-    <mergeCell ref="M232:R232"/>
-    <mergeCell ref="S232:X232"/>
-    <mergeCell ref="A293:F293"/>
-    <mergeCell ref="G293:L293"/>
-    <mergeCell ref="M293:R293"/>
-    <mergeCell ref="S293:X293"/>
-    <mergeCell ref="Y293:AD293"/>
-    <mergeCell ref="A292:F292"/>
-    <mergeCell ref="G292:L292"/>
-    <mergeCell ref="M292:R292"/>
-    <mergeCell ref="S292:X292"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="G307:L307"/>
-    <mergeCell ref="M307:R307"/>
-    <mergeCell ref="S307:X307"/>
     <mergeCell ref="Y307:AD307"/>
     <mergeCell ref="A322:F322"/>
     <mergeCell ref="G322:L322"/>
@@ -34099,6 +34087,11 @@
     <mergeCell ref="M338:R338"/>
     <mergeCell ref="S338:X338"/>
     <mergeCell ref="Y338:AD338"/>
+    <mergeCell ref="A337:F337"/>
+    <mergeCell ref="G337:L337"/>
+    <mergeCell ref="M337:R337"/>
+    <mergeCell ref="S337:X337"/>
+    <mergeCell ref="Y337:AD337"/>
     <mergeCell ref="A442:F442"/>
     <mergeCell ref="G442:L442"/>
     <mergeCell ref="M442:R442"/>
@@ -34109,6 +34102,16 @@
     <mergeCell ref="M458:R458"/>
     <mergeCell ref="S458:X458"/>
     <mergeCell ref="Y458:AD458"/>
+    <mergeCell ref="A443:F443"/>
+    <mergeCell ref="G443:L443"/>
+    <mergeCell ref="M443:R443"/>
+    <mergeCell ref="S443:X443"/>
+    <mergeCell ref="Y443:AD443"/>
+    <mergeCell ref="A457:F457"/>
+    <mergeCell ref="G457:L457"/>
+    <mergeCell ref="M457:R457"/>
+    <mergeCell ref="S457:X457"/>
+    <mergeCell ref="Y457:AD457"/>
     <mergeCell ref="A502:F502"/>
     <mergeCell ref="G502:L502"/>
     <mergeCell ref="M502:R502"/>
@@ -34118,6 +34121,7 @@
     <mergeCell ref="G503:L503"/>
     <mergeCell ref="M503:R503"/>
     <mergeCell ref="S503:X503"/>
+    <mergeCell ref="Y503:AD503"/>
     <mergeCell ref="A532:F532"/>
     <mergeCell ref="G532:L532"/>
     <mergeCell ref="M532:R532"/>
@@ -34298,13 +34302,13 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="188" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
       <c r="F2" s="95"/>
       <c r="G2" s="18" t="s">
         <v>72</v>
@@ -34401,14 +34405,14 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="190" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="187"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="193"/>
       <c r="G3" s="24" t="s">
         <v>104</v>
       </c>
@@ -34456,10 +34460,10 @@
         <f>IF(ISBLANK(F2),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F2), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E4" s="188" t="s">
+      <c r="E4" s="194" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="189"/>
+      <c r="F4" s="195"/>
       <c r="G4" s="13" t="s">
         <v>107</v>
       </c>
@@ -34536,8 +34540,8 @@
       <c r="AK5" s="9"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="190"/>
-      <c r="B6" s="191"/>
+      <c r="A6" s="196"/>
+      <c r="B6" s="197"/>
       <c r="C6" s="56"/>
       <c r="D6" s="58" t="s">
         <v>109</v>
@@ -35045,10 +35049,10 @@
       <c r="D11" s="30">
         <v>0</v>
       </c>
-      <c r="E11" s="192" t="s">
+      <c r="E11" s="198" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="193"/>
+      <c r="F11" s="199"/>
       <c r="G11" s="63" t="s">
         <v>120</v>
       </c>
@@ -35174,43 +35178,43 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="194"/>
-      <c r="B12" s="195"/>
-      <c r="C12" s="195"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="195"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="195"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
-      <c r="L12" s="195"/>
-      <c r="M12" s="195"/>
-      <c r="N12" s="195"/>
-      <c r="O12" s="195"/>
-      <c r="P12" s="195"/>
-      <c r="Q12" s="195"/>
-      <c r="R12" s="195"/>
-      <c r="S12" s="195"/>
-      <c r="T12" s="195"/>
-      <c r="U12" s="195"/>
-      <c r="V12" s="195"/>
-      <c r="W12" s="195"/>
-      <c r="X12" s="195"/>
-      <c r="Y12" s="195"/>
-      <c r="Z12" s="195"/>
-      <c r="AA12" s="195"/>
-      <c r="AB12" s="195"/>
-      <c r="AC12" s="195"/>
-      <c r="AD12" s="195"/>
-      <c r="AE12" s="195"/>
-      <c r="AF12" s="195"/>
-      <c r="AG12" s="195"/>
-      <c r="AH12" s="195"/>
-      <c r="AI12" s="195"/>
-      <c r="AJ12" s="195"/>
-      <c r="AK12" s="196"/>
+      <c r="A12" s="200"/>
+      <c r="B12" s="201"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="201"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="201"/>
+      <c r="L12" s="201"/>
+      <c r="M12" s="201"/>
+      <c r="N12" s="201"/>
+      <c r="O12" s="201"/>
+      <c r="P12" s="201"/>
+      <c r="Q12" s="201"/>
+      <c r="R12" s="201"/>
+      <c r="S12" s="201"/>
+      <c r="T12" s="201"/>
+      <c r="U12" s="201"/>
+      <c r="V12" s="201"/>
+      <c r="W12" s="201"/>
+      <c r="X12" s="201"/>
+      <c r="Y12" s="201"/>
+      <c r="Z12" s="201"/>
+      <c r="AA12" s="201"/>
+      <c r="AB12" s="201"/>
+      <c r="AC12" s="201"/>
+      <c r="AD12" s="201"/>
+      <c r="AE12" s="201"/>
+      <c r="AF12" s="201"/>
+      <c r="AG12" s="201"/>
+      <c r="AH12" s="201"/>
+      <c r="AI12" s="201"/>
+      <c r="AJ12" s="201"/>
+      <c r="AK12" s="202"/>
     </row>
     <row r="13" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
@@ -35355,13 +35359,13 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="182" t="s">
+      <c r="A14" s="188" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="183"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
       <c r="F14" s="95"/>
       <c r="G14" s="18" t="s">
         <v>72</v>
@@ -35458,14 +35462,14 @@
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="184" t="s">
+      <c r="A15" s="190" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="185"/>
-      <c r="C15" s="185"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="187"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="193"/>
       <c r="G15" s="24" t="s">
         <v>104</v>
       </c>
@@ -35513,10 +35517,10 @@
         <f>IF(ISBLANK(F14),"No Link",HYPERLINK(CONCATENATE("https://www.klsescreener.com/v2/charting/chart/",F14), "KLSE"))</f>
         <v>No Link</v>
       </c>
-      <c r="E16" s="188" t="s">
+      <c r="E16" s="194" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="189"/>
+      <c r="F16" s="195"/>
       <c r="G16" s="13" t="s">
         <v>107</v>
       </c>
@@ -35593,8 +35597,8 @@
       <c r="AK17" s="9"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="190"/>
-      <c r="B18" s="191"/>
+      <c r="A18" s="196"/>
+      <c r="B18" s="197"/>
       <c r="C18" s="56"/>
       <c r="D18" s="58" t="s">
         <v>109</v>
@@ -36102,10 +36106,10 @@
       <c r="D23" s="30">
         <v>0</v>
       </c>
-      <c r="E23" s="192" t="s">
+      <c r="E23" s="198" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="193"/>
+      <c r="F23" s="199"/>
       <c r="G23" s="63" t="s">
         <v>120</v>
       </c>
@@ -36231,43 +36235,43 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="179"/>
-      <c r="B24" s="180"/>
-      <c r="C24" s="180"/>
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="180"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="180"/>
-      <c r="M24" s="180"/>
-      <c r="N24" s="180"/>
-      <c r="O24" s="180"/>
-      <c r="P24" s="180"/>
-      <c r="Q24" s="180"/>
-      <c r="R24" s="180"/>
-      <c r="S24" s="180"/>
-      <c r="T24" s="180"/>
-      <c r="U24" s="180"/>
-      <c r="V24" s="180"/>
-      <c r="W24" s="180"/>
-      <c r="X24" s="180"/>
-      <c r="Y24" s="180"/>
-      <c r="Z24" s="180"/>
-      <c r="AA24" s="180"/>
-      <c r="AB24" s="180"/>
-      <c r="AC24" s="180"/>
-      <c r="AD24" s="180"/>
-      <c r="AE24" s="180"/>
-      <c r="AF24" s="180"/>
-      <c r="AG24" s="180"/>
-      <c r="AH24" s="180"/>
-      <c r="AI24" s="180"/>
-      <c r="AJ24" s="180"/>
-      <c r="AK24" s="181"/>
+      <c r="A24" s="185"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="186"/>
+      <c r="L24" s="186"/>
+      <c r="M24" s="186"/>
+      <c r="N24" s="186"/>
+      <c r="O24" s="186"/>
+      <c r="P24" s="186"/>
+      <c r="Q24" s="186"/>
+      <c r="R24" s="186"/>
+      <c r="S24" s="186"/>
+      <c r="T24" s="186"/>
+      <c r="U24" s="186"/>
+      <c r="V24" s="186"/>
+      <c r="W24" s="186"/>
+      <c r="X24" s="186"/>
+      <c r="Y24" s="186"/>
+      <c r="Z24" s="186"/>
+      <c r="AA24" s="186"/>
+      <c r="AB24" s="186"/>
+      <c r="AC24" s="186"/>
+      <c r="AD24" s="186"/>
+      <c r="AE24" s="186"/>
+      <c r="AF24" s="186"/>
+      <c r="AG24" s="186"/>
+      <c r="AH24" s="186"/>
+      <c r="AI24" s="186"/>
+      <c r="AJ24" s="186"/>
+      <c r="AK24" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -36344,8 +36348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1730B555-17C4-4D71-B0CF-5EA2C5243D66}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36368,24 +36372,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="197">
+      <c r="A1" s="203">
         <v>43831</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="199"/>
-      <c r="N1" s="200" t="s">
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="205"/>
+      <c r="N1" s="206" t="s">
         <v>191</v>
       </c>
-      <c r="O1" s="201"/>
+      <c r="O1" s="207"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="115" t="s">
@@ -36798,20 +36802,20 @@
     </row>
     <row r="16" spans="1:15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="197">
+      <c r="A17" s="203">
         <v>43862</v>
       </c>
-      <c r="B17" s="198"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="199"/>
+      <c r="B17" s="204"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="204"/>
+      <c r="K17" s="204"/>
+      <c r="L17" s="205"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="115" t="s">
@@ -37251,20 +37255,20 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="197">
+      <c r="A32" s="203">
         <v>43891</v>
       </c>
-      <c r="B32" s="198"/>
-      <c r="C32" s="198"/>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="198"/>
-      <c r="H32" s="198"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="198"/>
-      <c r="K32" s="198"/>
-      <c r="L32" s="199"/>
+      <c r="B32" s="204"/>
+      <c r="C32" s="204"/>
+      <c r="D32" s="204"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="204"/>
+      <c r="I32" s="204"/>
+      <c r="J32" s="204"/>
+      <c r="K32" s="204"/>
+      <c r="L32" s="205"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="115" t="s">
@@ -37508,6 +37512,7 @@
         <f>SUM(H38*I38)-F38-E38-J38</f>
         <v>610.15</v>
       </c>
+      <c r="N38" s="180"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="139">
@@ -37811,24 +37816,24 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="197">
+      <c r="A48" s="203">
         <v>43922</v>
       </c>
-      <c r="B48" s="198"/>
-      <c r="C48" s="198"/>
-      <c r="D48" s="198"/>
-      <c r="E48" s="198"/>
-      <c r="F48" s="198"/>
-      <c r="G48" s="198"/>
-      <c r="H48" s="198"/>
-      <c r="I48" s="198"/>
-      <c r="J48" s="198"/>
-      <c r="K48" s="198"/>
-      <c r="L48" s="199"/>
-      <c r="N48" s="200" t="s">
+      <c r="B48" s="204"/>
+      <c r="C48" s="204"/>
+      <c r="D48" s="204"/>
+      <c r="E48" s="204"/>
+      <c r="F48" s="204"/>
+      <c r="G48" s="204"/>
+      <c r="H48" s="204"/>
+      <c r="I48" s="204"/>
+      <c r="J48" s="204"/>
+      <c r="K48" s="204"/>
+      <c r="L48" s="205"/>
+      <c r="N48" s="206" t="s">
         <v>191</v>
       </c>
-      <c r="O48" s="201"/>
+      <c r="O48" s="207"/>
     </row>
     <row r="49" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="115" t="s">
@@ -37871,38 +37876,56 @@
         <v>167</v>
       </c>
       <c r="O49" s="150">
-        <f>H59</f>
-        <v>0</v>
+        <f>H50</f>
+        <v>1.92</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="131"/>
-      <c r="B50" s="132"/>
-      <c r="C50" s="133"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="135"/>
+      <c r="A50" s="131">
+        <v>43924</v>
+      </c>
+      <c r="B50" s="179" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="133">
+        <v>1.96</v>
+      </c>
+      <c r="D50" s="134">
+        <v>2500</v>
+      </c>
+      <c r="E50" s="135">
+        <v>9.9499999999999993</v>
+      </c>
       <c r="F50" s="136">
         <f>C50*D50</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="137"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="134"/>
-      <c r="J50" s="138"/>
-      <c r="K50" s="112" t="e">
+        <v>4900</v>
+      </c>
+      <c r="G50" s="137">
+        <v>43924</v>
+      </c>
+      <c r="H50" s="133">
+        <v>1.92</v>
+      </c>
+      <c r="I50" s="134">
+        <v>2500</v>
+      </c>
+      <c r="J50" s="138">
+        <v>9.92</v>
+      </c>
+      <c r="K50" s="112">
         <f>L50/F50</f>
-        <v>#DIV/0!</v>
+        <v>-2.4463265306122448E-2</v>
       </c>
       <c r="L50" s="80">
         <f>SUM(H50*I50)-F50-E50-J50</f>
-        <v>0</v>
+        <v>-119.87</v>
       </c>
       <c r="N50" s="151" t="s">
         <v>168</v>
       </c>
       <c r="O50" s="170">
-        <f>I59</f>
-        <v>0</v>
+        <f>I50</f>
+        <v>2500</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37986,7 +38009,7 @@
       </c>
       <c r="O53" s="156">
         <f>O49*O50</f>
-        <v>0</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -38106,7 +38129,7 @@
       </c>
       <c r="O57" s="159">
         <f>O53*0.03%</f>
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -38136,7 +38159,7 @@
       </c>
       <c r="O58" s="161">
         <f>ROUNDUP(SUM(O54:O57),2)</f>
-        <v>8.48</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -38219,7 +38242,7 @@
       </c>
       <c r="E62" s="125">
         <f>SUM(E50:E61)</f>
-        <v>0</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="F62" s="126"/>
       <c r="G62" s="123"/>
@@ -38229,14 +38252,14 @@
       </c>
       <c r="J62" s="125">
         <f>SUM(J50:J61)</f>
-        <v>0</v>
+        <v>9.92</v>
       </c>
       <c r="K62" s="79" t="s">
         <v>140</v>
       </c>
       <c r="L62" s="82">
         <f>SUM(L50:L61)</f>
-        <v>0</v>
+        <v>-119.87</v>
       </c>
     </row>
   </sheetData>
@@ -38454,10 +38477,10 @@
       <c r="A1" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="205">
+      <c r="B1" s="211">
         <v>0.51</v>
       </c>
-      <c r="C1" s="205"/>
+      <c r="C1" s="211"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -38466,10 +38489,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="205">
+      <c r="B2" s="211">
         <v>0.54</v>
       </c>
-      <c r="C2" s="205"/>
+      <c r="C2" s="211"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -38478,10 +38501,10 @@
       <c r="A3" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="205">
+      <c r="B3" s="211">
         <v>0.51</v>
       </c>
-      <c r="C3" s="205"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -38490,10 +38513,10 @@
       <c r="A4" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="205">
+      <c r="B4" s="211">
         <v>0.54</v>
       </c>
-      <c r="C4" s="205"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -38528,14 +38551,14 @@
       <c r="A8" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="203" t="s">
+      <c r="B8" s="209" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="204">
+      <c r="C8" s="210">
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="202">
+      <c r="E8" s="208">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -38545,10 +38568,10 @@
       <c r="A9" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="203"/>
-      <c r="C9" s="203"/>
+      <c r="B9" s="209"/>
+      <c r="C9" s="209"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="202"/>
+      <c r="E9" s="208"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38581,14 +38604,14 @@
       <c r="A13" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="203" t="s">
+      <c r="B13" s="209" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="204">
+      <c r="C13" s="210">
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="202">
+      <c r="E13" s="208">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -38598,10 +38621,10 @@
       <c r="A14" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="203"/>
-      <c r="C14" s="203"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="209"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="202"/>
+      <c r="E14" s="208"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38634,14 +38657,14 @@
       <c r="A18" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="B18" s="203" t="s">
+      <c r="B18" s="209" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="204">
+      <c r="C18" s="210">
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="202">
+      <c r="E18" s="208">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -38651,10 +38674,10 @@
       <c r="A19" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="203"/>
-      <c r="C19" s="203"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="209"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="202"/>
+      <c r="E19" s="208"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1638" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E0F271E9-6422-4DAB-9BC5-DDCCB3619D18}"/>
+  <xr:revisionPtr revIDLastSave="1647" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6F799D30-1DBF-4F34-AC96-1D66D3E32750}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="15" windowWidth="27840" windowHeight="16185" activeTab="2" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="930" yWindow="9090" windowWidth="27840" windowHeight="7110" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="252">
   <si>
     <t>Pillar</t>
   </si>
@@ -781,6 +781,18 @@
   </si>
   <si>
     <t>DELEUM</t>
+  </si>
+  <si>
+    <t>MFLOUR</t>
+  </si>
+  <si>
+    <t>SCOMNET</t>
+  </si>
+  <si>
+    <t>MSM</t>
+  </si>
+  <si>
+    <t>BAHVEST</t>
   </si>
 </sst>
 </file>
@@ -2511,8 +2523,8 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2520,8 +2532,8 @@
     <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2957,8 +2969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD801"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S190" sqref="S190:S200"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F215" sqref="F215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11652,7 +11664,9 @@
       </c>
     </row>
     <row r="205" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="90"/>
+      <c r="A205" s="90" t="s">
+        <v>8</v>
+      </c>
       <c r="B205" s="91"/>
       <c r="C205" s="92"/>
       <c r="D205" s="92"/>
@@ -11684,7 +11698,9 @@
       <c r="AD205" s="93"/>
     </row>
     <row r="206" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="90"/>
+      <c r="A206" s="90" t="s">
+        <v>248</v>
+      </c>
       <c r="B206" s="91"/>
       <c r="C206" s="92"/>
       <c r="D206" s="92"/>
@@ -11716,7 +11732,9 @@
       <c r="AD206" s="93"/>
     </row>
     <row r="207" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="90"/>
+      <c r="A207" s="90" t="s">
+        <v>210</v>
+      </c>
       <c r="B207" s="91"/>
       <c r="C207" s="92"/>
       <c r="D207" s="92"/>
@@ -11748,7 +11766,9 @@
       <c r="AD207" s="93"/>
     </row>
     <row r="208" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="90"/>
+      <c r="A208" s="90" t="s">
+        <v>9</v>
+      </c>
       <c r="B208" s="91"/>
       <c r="C208" s="92"/>
       <c r="D208" s="92"/>
@@ -11780,7 +11800,9 @@
       <c r="AD208" s="93"/>
     </row>
     <row r="209" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="90"/>
+      <c r="A209" s="90" t="s">
+        <v>245</v>
+      </c>
       <c r="B209" s="91"/>
       <c r="C209" s="92"/>
       <c r="D209" s="92"/>
@@ -11812,7 +11834,9 @@
       <c r="AD209" s="93"/>
     </row>
     <row r="210" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="90"/>
+      <c r="A210" s="90" t="s">
+        <v>249</v>
+      </c>
       <c r="B210" s="91"/>
       <c r="C210" s="92"/>
       <c r="D210" s="92"/>
@@ -11844,7 +11868,9 @@
       <c r="AD210" s="93"/>
     </row>
     <row r="211" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="90"/>
+      <c r="A211" s="90" t="s">
+        <v>156</v>
+      </c>
       <c r="B211" s="91"/>
       <c r="C211" s="92"/>
       <c r="D211" s="92"/>
@@ -11876,7 +11902,9 @@
       <c r="AD211" s="93"/>
     </row>
     <row r="212" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="90"/>
+      <c r="A212" s="90" t="s">
+        <v>250</v>
+      </c>
       <c r="B212" s="91"/>
       <c r="C212" s="92"/>
       <c r="D212" s="92"/>
@@ -11908,7 +11936,9 @@
       <c r="AD212" s="93"/>
     </row>
     <row r="213" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="90"/>
+      <c r="A213" s="90" t="s">
+        <v>251</v>
+      </c>
       <c r="B213" s="91"/>
       <c r="C213" s="92"/>
       <c r="D213" s="92"/>
@@ -33682,206 +33712,232 @@
     </row>
   </sheetData>
   <mergeCells count="450">
-    <mergeCell ref="A772:F772"/>
-    <mergeCell ref="G772:L772"/>
-    <mergeCell ref="M772:R772"/>
-    <mergeCell ref="S772:X772"/>
-    <mergeCell ref="Y772:AD772"/>
-    <mergeCell ref="A773:F773"/>
-    <mergeCell ref="G773:L773"/>
-    <mergeCell ref="M773:R773"/>
-    <mergeCell ref="S773:X773"/>
-    <mergeCell ref="Y773:AD773"/>
-    <mergeCell ref="A757:F757"/>
-    <mergeCell ref="G757:L757"/>
-    <mergeCell ref="M757:R757"/>
-    <mergeCell ref="S757:X757"/>
-    <mergeCell ref="Y757:AD757"/>
-    <mergeCell ref="A758:F758"/>
-    <mergeCell ref="G758:L758"/>
-    <mergeCell ref="M758:R758"/>
-    <mergeCell ref="S758:X758"/>
-    <mergeCell ref="Y758:AD758"/>
-    <mergeCell ref="A742:F742"/>
-    <mergeCell ref="G742:L742"/>
-    <mergeCell ref="M742:R742"/>
-    <mergeCell ref="S742:X742"/>
-    <mergeCell ref="Y742:AD742"/>
-    <mergeCell ref="A743:F743"/>
-    <mergeCell ref="G743:L743"/>
-    <mergeCell ref="M743:R743"/>
-    <mergeCell ref="S743:X743"/>
-    <mergeCell ref="Y743:AD743"/>
-    <mergeCell ref="A727:F727"/>
-    <mergeCell ref="G727:L727"/>
-    <mergeCell ref="M727:R727"/>
-    <mergeCell ref="S727:X727"/>
-    <mergeCell ref="Y727:AD727"/>
-    <mergeCell ref="A728:F728"/>
-    <mergeCell ref="G728:L728"/>
-    <mergeCell ref="M728:R728"/>
-    <mergeCell ref="S728:X728"/>
-    <mergeCell ref="Y728:AD728"/>
-    <mergeCell ref="A712:F712"/>
-    <mergeCell ref="G712:L712"/>
-    <mergeCell ref="M712:R712"/>
-    <mergeCell ref="S712:X712"/>
-    <mergeCell ref="Y712:AD712"/>
-    <mergeCell ref="A713:F713"/>
-    <mergeCell ref="G713:L713"/>
-    <mergeCell ref="M713:R713"/>
-    <mergeCell ref="S713:X713"/>
-    <mergeCell ref="Y713:AD713"/>
-    <mergeCell ref="A682:F682"/>
-    <mergeCell ref="G682:L682"/>
-    <mergeCell ref="M682:R682"/>
-    <mergeCell ref="S682:X682"/>
-    <mergeCell ref="Y682:AD682"/>
-    <mergeCell ref="A698:F698"/>
-    <mergeCell ref="G698:L698"/>
-    <mergeCell ref="M698:R698"/>
-    <mergeCell ref="S698:X698"/>
-    <mergeCell ref="Y698:AD698"/>
-    <mergeCell ref="A697:F697"/>
-    <mergeCell ref="G697:L697"/>
-    <mergeCell ref="M697:R697"/>
-    <mergeCell ref="S697:X697"/>
-    <mergeCell ref="Y697:AD697"/>
-    <mergeCell ref="A683:F683"/>
-    <mergeCell ref="G683:L683"/>
-    <mergeCell ref="M683:R683"/>
-    <mergeCell ref="S683:X683"/>
-    <mergeCell ref="Y683:AD683"/>
-    <mergeCell ref="A667:F667"/>
-    <mergeCell ref="G667:L667"/>
-    <mergeCell ref="M667:R667"/>
-    <mergeCell ref="S667:X667"/>
-    <mergeCell ref="Y667:AD667"/>
-    <mergeCell ref="A668:F668"/>
-    <mergeCell ref="G668:L668"/>
-    <mergeCell ref="M668:R668"/>
-    <mergeCell ref="S668:X668"/>
-    <mergeCell ref="Y668:AD668"/>
-    <mergeCell ref="A652:F652"/>
-    <mergeCell ref="G652:L652"/>
-    <mergeCell ref="M652:R652"/>
-    <mergeCell ref="S652:X652"/>
-    <mergeCell ref="Y652:AD652"/>
-    <mergeCell ref="A653:F653"/>
-    <mergeCell ref="G653:L653"/>
-    <mergeCell ref="M653:R653"/>
-    <mergeCell ref="S653:X653"/>
-    <mergeCell ref="Y653:AD653"/>
-    <mergeCell ref="A637:F637"/>
-    <mergeCell ref="G637:L637"/>
-    <mergeCell ref="M637:R637"/>
-    <mergeCell ref="S637:X637"/>
-    <mergeCell ref="Y637:AD637"/>
-    <mergeCell ref="A638:F638"/>
-    <mergeCell ref="G638:L638"/>
-    <mergeCell ref="M638:R638"/>
-    <mergeCell ref="S638:X638"/>
-    <mergeCell ref="Y638:AD638"/>
-    <mergeCell ref="A622:F622"/>
-    <mergeCell ref="G622:L622"/>
-    <mergeCell ref="M622:R622"/>
-    <mergeCell ref="S622:X622"/>
-    <mergeCell ref="Y622:AD622"/>
-    <mergeCell ref="A623:F623"/>
-    <mergeCell ref="G623:L623"/>
-    <mergeCell ref="M623:R623"/>
-    <mergeCell ref="S623:X623"/>
-    <mergeCell ref="Y623:AD623"/>
-    <mergeCell ref="A607:F607"/>
-    <mergeCell ref="G607:L607"/>
-    <mergeCell ref="M607:R607"/>
-    <mergeCell ref="S607:X607"/>
-    <mergeCell ref="Y607:AD607"/>
-    <mergeCell ref="A608:F608"/>
-    <mergeCell ref="G608:L608"/>
-    <mergeCell ref="M608:R608"/>
-    <mergeCell ref="S608:X608"/>
-    <mergeCell ref="Y608:AD608"/>
-    <mergeCell ref="A577:F577"/>
-    <mergeCell ref="G577:L577"/>
-    <mergeCell ref="M577:R577"/>
-    <mergeCell ref="S577:X577"/>
-    <mergeCell ref="Y577:AD577"/>
-    <mergeCell ref="A578:F578"/>
-    <mergeCell ref="G578:L578"/>
-    <mergeCell ref="M578:R578"/>
-    <mergeCell ref="S578:X578"/>
-    <mergeCell ref="Y578:AD578"/>
-    <mergeCell ref="A562:F562"/>
-    <mergeCell ref="G562:L562"/>
-    <mergeCell ref="M562:R562"/>
-    <mergeCell ref="S562:X562"/>
-    <mergeCell ref="Y562:AD562"/>
-    <mergeCell ref="A563:F563"/>
-    <mergeCell ref="G563:L563"/>
-    <mergeCell ref="M563:R563"/>
-    <mergeCell ref="S563:X563"/>
-    <mergeCell ref="Y563:AD563"/>
-    <mergeCell ref="A547:F547"/>
-    <mergeCell ref="G547:L547"/>
-    <mergeCell ref="M547:R547"/>
-    <mergeCell ref="S547:X547"/>
-    <mergeCell ref="Y547:AD547"/>
-    <mergeCell ref="A548:F548"/>
-    <mergeCell ref="G548:L548"/>
-    <mergeCell ref="M548:R548"/>
-    <mergeCell ref="S548:X548"/>
-    <mergeCell ref="Y548:AD548"/>
-    <mergeCell ref="A517:F517"/>
-    <mergeCell ref="G517:L517"/>
-    <mergeCell ref="M517:R517"/>
-    <mergeCell ref="S517:X517"/>
-    <mergeCell ref="Y517:AD517"/>
-    <mergeCell ref="A518:F518"/>
-    <mergeCell ref="G518:L518"/>
-    <mergeCell ref="M518:R518"/>
-    <mergeCell ref="S518:X518"/>
-    <mergeCell ref="Y518:AD518"/>
-    <mergeCell ref="A427:F427"/>
-    <mergeCell ref="G427:L427"/>
-    <mergeCell ref="M427:R427"/>
-    <mergeCell ref="S427:X427"/>
-    <mergeCell ref="Y427:AD427"/>
-    <mergeCell ref="A428:F428"/>
-    <mergeCell ref="G428:L428"/>
-    <mergeCell ref="M428:R428"/>
-    <mergeCell ref="S428:X428"/>
-    <mergeCell ref="Y428:AD428"/>
-    <mergeCell ref="A382:F382"/>
-    <mergeCell ref="G382:L382"/>
-    <mergeCell ref="M382:R382"/>
-    <mergeCell ref="S382:X382"/>
-    <mergeCell ref="Y382:AD382"/>
-    <mergeCell ref="A383:F383"/>
-    <mergeCell ref="G383:L383"/>
-    <mergeCell ref="M383:R383"/>
-    <mergeCell ref="S383:X383"/>
-    <mergeCell ref="Y383:AD383"/>
-    <mergeCell ref="A367:F367"/>
-    <mergeCell ref="G367:L367"/>
-    <mergeCell ref="M367:R367"/>
-    <mergeCell ref="S367:X367"/>
-    <mergeCell ref="Y367:AD367"/>
-    <mergeCell ref="A368:F368"/>
-    <mergeCell ref="G368:L368"/>
-    <mergeCell ref="M368:R368"/>
-    <mergeCell ref="S368:X368"/>
-    <mergeCell ref="Y368:AD368"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="G352:L352"/>
-    <mergeCell ref="M352:R352"/>
-    <mergeCell ref="S352:X352"/>
-    <mergeCell ref="Y352:AD352"/>
-    <mergeCell ref="A353:F353"/>
-    <mergeCell ref="G353:L353"/>
-    <mergeCell ref="M353:R353"/>
-    <mergeCell ref="S353:X353"/>
-    <mergeCell ref="Y353:AD353"/>
+    <mergeCell ref="A532:F532"/>
+    <mergeCell ref="G532:L532"/>
+    <mergeCell ref="M532:R532"/>
+    <mergeCell ref="S532:X532"/>
+    <mergeCell ref="Y532:AD532"/>
+    <mergeCell ref="A533:F533"/>
+    <mergeCell ref="G533:L533"/>
+    <mergeCell ref="M533:R533"/>
+    <mergeCell ref="S533:X533"/>
+    <mergeCell ref="Y533:AD533"/>
+    <mergeCell ref="A502:F502"/>
+    <mergeCell ref="G502:L502"/>
+    <mergeCell ref="M502:R502"/>
+    <mergeCell ref="S502:X502"/>
+    <mergeCell ref="Y502:AD502"/>
+    <mergeCell ref="A503:F503"/>
+    <mergeCell ref="G503:L503"/>
+    <mergeCell ref="M503:R503"/>
+    <mergeCell ref="S503:X503"/>
+    <mergeCell ref="Y503:AD503"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="G442:L442"/>
+    <mergeCell ref="M442:R442"/>
+    <mergeCell ref="S442:X442"/>
+    <mergeCell ref="Y442:AD442"/>
+    <mergeCell ref="A458:F458"/>
+    <mergeCell ref="G458:L458"/>
+    <mergeCell ref="M458:R458"/>
+    <mergeCell ref="S458:X458"/>
+    <mergeCell ref="Y458:AD458"/>
+    <mergeCell ref="A443:F443"/>
+    <mergeCell ref="G443:L443"/>
+    <mergeCell ref="M443:R443"/>
+    <mergeCell ref="S443:X443"/>
+    <mergeCell ref="Y443:AD443"/>
+    <mergeCell ref="A457:F457"/>
+    <mergeCell ref="G457:L457"/>
+    <mergeCell ref="M457:R457"/>
+    <mergeCell ref="S457:X457"/>
+    <mergeCell ref="Y457:AD457"/>
+    <mergeCell ref="Y307:AD307"/>
+    <mergeCell ref="A322:F322"/>
+    <mergeCell ref="G322:L322"/>
+    <mergeCell ref="M322:R322"/>
+    <mergeCell ref="S322:X322"/>
+    <mergeCell ref="Y322:AD322"/>
+    <mergeCell ref="A338:F338"/>
+    <mergeCell ref="G338:L338"/>
+    <mergeCell ref="M338:R338"/>
+    <mergeCell ref="S338:X338"/>
+    <mergeCell ref="Y338:AD338"/>
+    <mergeCell ref="A337:F337"/>
+    <mergeCell ref="G337:L337"/>
+    <mergeCell ref="M337:R337"/>
+    <mergeCell ref="S337:X337"/>
+    <mergeCell ref="Y337:AD337"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="G202:L202"/>
+    <mergeCell ref="M202:R202"/>
+    <mergeCell ref="S202:X202"/>
+    <mergeCell ref="Y202:AD202"/>
+    <mergeCell ref="A187:F187"/>
+    <mergeCell ref="G187:L187"/>
+    <mergeCell ref="M187:R187"/>
+    <mergeCell ref="S187:X187"/>
+    <mergeCell ref="Y187:AD187"/>
+    <mergeCell ref="A188:F188"/>
+    <mergeCell ref="G188:L188"/>
+    <mergeCell ref="M188:R188"/>
+    <mergeCell ref="S188:X188"/>
+    <mergeCell ref="Y188:AD188"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:L124"/>
+    <mergeCell ref="M124:R124"/>
+    <mergeCell ref="S124:X124"/>
+    <mergeCell ref="Y124:AD124"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="G179:L179"/>
+    <mergeCell ref="M179:R179"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="Y179:AD179"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A248:F248"/>
+    <mergeCell ref="G248:L248"/>
+    <mergeCell ref="M248:R248"/>
+    <mergeCell ref="S248:X248"/>
+    <mergeCell ref="Y248:AD248"/>
+    <mergeCell ref="A203:F203"/>
+    <mergeCell ref="G203:L203"/>
+    <mergeCell ref="M203:R203"/>
+    <mergeCell ref="S203:X203"/>
+    <mergeCell ref="Y203:AD203"/>
+    <mergeCell ref="A218:F218"/>
+    <mergeCell ref="G218:L218"/>
+    <mergeCell ref="M218:R218"/>
+    <mergeCell ref="S218:X218"/>
+    <mergeCell ref="Y218:AD218"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="G217:L217"/>
+    <mergeCell ref="M217:R217"/>
+    <mergeCell ref="S217:X217"/>
+    <mergeCell ref="Y217:AD217"/>
+    <mergeCell ref="A232:F232"/>
+    <mergeCell ref="G232:L232"/>
+    <mergeCell ref="M232:R232"/>
+    <mergeCell ref="S232:X232"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="G262:L262"/>
+    <mergeCell ref="M262:R262"/>
+    <mergeCell ref="S262:X262"/>
+    <mergeCell ref="Y262:AD262"/>
+    <mergeCell ref="A263:F263"/>
+    <mergeCell ref="G263:L263"/>
+    <mergeCell ref="M263:R263"/>
+    <mergeCell ref="S263:X263"/>
+    <mergeCell ref="Y263:AD263"/>
+    <mergeCell ref="A277:F277"/>
+    <mergeCell ref="G277:L277"/>
+    <mergeCell ref="M277:R277"/>
+    <mergeCell ref="S277:X277"/>
+    <mergeCell ref="Y277:AD277"/>
+    <mergeCell ref="A278:F278"/>
+    <mergeCell ref="G278:L278"/>
+    <mergeCell ref="M278:R278"/>
+    <mergeCell ref="S278:X278"/>
+    <mergeCell ref="Y278:AD278"/>
+    <mergeCell ref="A413:F413"/>
+    <mergeCell ref="G413:L413"/>
+    <mergeCell ref="M413:R413"/>
+    <mergeCell ref="S413:X413"/>
+    <mergeCell ref="Y413:AD413"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="G397:L397"/>
+    <mergeCell ref="M397:R397"/>
+    <mergeCell ref="S397:X397"/>
+    <mergeCell ref="Y397:AD397"/>
+    <mergeCell ref="A398:F398"/>
+    <mergeCell ref="G398:L398"/>
+    <mergeCell ref="M398:R398"/>
+    <mergeCell ref="S398:X398"/>
+    <mergeCell ref="Y398:AD398"/>
+    <mergeCell ref="A412:F412"/>
+    <mergeCell ref="G412:L412"/>
+    <mergeCell ref="M412:R412"/>
+    <mergeCell ref="S412:X412"/>
+    <mergeCell ref="Y412:AD412"/>
+    <mergeCell ref="A472:F472"/>
+    <mergeCell ref="G472:L472"/>
+    <mergeCell ref="M472:R472"/>
+    <mergeCell ref="S472:X472"/>
+    <mergeCell ref="Y472:AD472"/>
+    <mergeCell ref="A473:F473"/>
+    <mergeCell ref="G473:L473"/>
+    <mergeCell ref="M473:R473"/>
+    <mergeCell ref="S473:X473"/>
+    <mergeCell ref="Y473:AD473"/>
+    <mergeCell ref="A488:F488"/>
+    <mergeCell ref="G488:L488"/>
+    <mergeCell ref="M488:R488"/>
+    <mergeCell ref="S488:X488"/>
+    <mergeCell ref="Y488:AD488"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="G487:L487"/>
+    <mergeCell ref="M487:R487"/>
+    <mergeCell ref="S487:X487"/>
+    <mergeCell ref="Y487:AD487"/>
+    <mergeCell ref="A592:F592"/>
+    <mergeCell ref="G592:L592"/>
+    <mergeCell ref="M592:R592"/>
+    <mergeCell ref="S592:X592"/>
+    <mergeCell ref="Y592:AD592"/>
+    <mergeCell ref="A593:F593"/>
+    <mergeCell ref="G593:L593"/>
+    <mergeCell ref="M593:R593"/>
+    <mergeCell ref="S593:X593"/>
+    <mergeCell ref="Y593:AD593"/>
+    <mergeCell ref="A787:F787"/>
+    <mergeCell ref="G787:L787"/>
+    <mergeCell ref="M787:R787"/>
+    <mergeCell ref="S787:X787"/>
+    <mergeCell ref="Y787:AD787"/>
+    <mergeCell ref="A788:F788"/>
+    <mergeCell ref="G788:L788"/>
+    <mergeCell ref="M788:R788"/>
+    <mergeCell ref="S788:X788"/>
+    <mergeCell ref="Y788:AD788"/>
+    <mergeCell ref="Y232:AD232"/>
+    <mergeCell ref="A233:F233"/>
+    <mergeCell ref="G233:L233"/>
+    <mergeCell ref="M233:R233"/>
+    <mergeCell ref="S233:X233"/>
+    <mergeCell ref="Y233:AD233"/>
+    <mergeCell ref="A247:F247"/>
+    <mergeCell ref="G247:L247"/>
+    <mergeCell ref="M247:R247"/>
+    <mergeCell ref="S247:X247"/>
+    <mergeCell ref="Y247:AD247"/>
     <mergeCell ref="Y292:AD292"/>
     <mergeCell ref="A308:F308"/>
     <mergeCell ref="G308:L308"/>
@@ -33906,232 +33962,206 @@
     <mergeCell ref="G307:L307"/>
     <mergeCell ref="M307:R307"/>
     <mergeCell ref="S307:X307"/>
-    <mergeCell ref="Y232:AD232"/>
-    <mergeCell ref="A233:F233"/>
-    <mergeCell ref="G233:L233"/>
-    <mergeCell ref="M233:R233"/>
-    <mergeCell ref="S233:X233"/>
-    <mergeCell ref="Y233:AD233"/>
-    <mergeCell ref="A247:F247"/>
-    <mergeCell ref="G247:L247"/>
-    <mergeCell ref="M247:R247"/>
-    <mergeCell ref="S247:X247"/>
-    <mergeCell ref="Y247:AD247"/>
-    <mergeCell ref="A787:F787"/>
-    <mergeCell ref="G787:L787"/>
-    <mergeCell ref="M787:R787"/>
-    <mergeCell ref="S787:X787"/>
-    <mergeCell ref="Y787:AD787"/>
-    <mergeCell ref="A788:F788"/>
-    <mergeCell ref="G788:L788"/>
-    <mergeCell ref="M788:R788"/>
-    <mergeCell ref="S788:X788"/>
-    <mergeCell ref="Y788:AD788"/>
-    <mergeCell ref="A592:F592"/>
-    <mergeCell ref="G592:L592"/>
-    <mergeCell ref="M592:R592"/>
-    <mergeCell ref="S592:X592"/>
-    <mergeCell ref="Y592:AD592"/>
-    <mergeCell ref="A593:F593"/>
-    <mergeCell ref="G593:L593"/>
-    <mergeCell ref="M593:R593"/>
-    <mergeCell ref="S593:X593"/>
-    <mergeCell ref="Y593:AD593"/>
-    <mergeCell ref="A488:F488"/>
-    <mergeCell ref="G488:L488"/>
-    <mergeCell ref="M488:R488"/>
-    <mergeCell ref="S488:X488"/>
-    <mergeCell ref="Y488:AD488"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="G487:L487"/>
-    <mergeCell ref="M487:R487"/>
-    <mergeCell ref="S487:X487"/>
-    <mergeCell ref="Y487:AD487"/>
-    <mergeCell ref="A472:F472"/>
-    <mergeCell ref="G472:L472"/>
-    <mergeCell ref="M472:R472"/>
-    <mergeCell ref="S472:X472"/>
-    <mergeCell ref="Y472:AD472"/>
-    <mergeCell ref="A473:F473"/>
-    <mergeCell ref="G473:L473"/>
-    <mergeCell ref="M473:R473"/>
-    <mergeCell ref="S473:X473"/>
-    <mergeCell ref="Y473:AD473"/>
-    <mergeCell ref="A413:F413"/>
-    <mergeCell ref="G413:L413"/>
-    <mergeCell ref="M413:R413"/>
-    <mergeCell ref="S413:X413"/>
-    <mergeCell ref="Y413:AD413"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="G397:L397"/>
-    <mergeCell ref="M397:R397"/>
-    <mergeCell ref="S397:X397"/>
-    <mergeCell ref="Y397:AD397"/>
-    <mergeCell ref="A398:F398"/>
-    <mergeCell ref="G398:L398"/>
-    <mergeCell ref="M398:R398"/>
-    <mergeCell ref="S398:X398"/>
-    <mergeCell ref="Y398:AD398"/>
-    <mergeCell ref="A412:F412"/>
-    <mergeCell ref="G412:L412"/>
-    <mergeCell ref="M412:R412"/>
-    <mergeCell ref="S412:X412"/>
-    <mergeCell ref="Y412:AD412"/>
-    <mergeCell ref="A277:F277"/>
-    <mergeCell ref="G277:L277"/>
-    <mergeCell ref="M277:R277"/>
-    <mergeCell ref="S277:X277"/>
-    <mergeCell ref="Y277:AD277"/>
-    <mergeCell ref="A278:F278"/>
-    <mergeCell ref="G278:L278"/>
-    <mergeCell ref="M278:R278"/>
-    <mergeCell ref="S278:X278"/>
-    <mergeCell ref="Y278:AD278"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="G262:L262"/>
-    <mergeCell ref="M262:R262"/>
-    <mergeCell ref="S262:X262"/>
-    <mergeCell ref="Y262:AD262"/>
-    <mergeCell ref="A263:F263"/>
-    <mergeCell ref="G263:L263"/>
-    <mergeCell ref="M263:R263"/>
-    <mergeCell ref="S263:X263"/>
-    <mergeCell ref="Y263:AD263"/>
-    <mergeCell ref="A248:F248"/>
-    <mergeCell ref="G248:L248"/>
-    <mergeCell ref="M248:R248"/>
-    <mergeCell ref="S248:X248"/>
-    <mergeCell ref="Y248:AD248"/>
-    <mergeCell ref="A203:F203"/>
-    <mergeCell ref="G203:L203"/>
-    <mergeCell ref="M203:R203"/>
-    <mergeCell ref="S203:X203"/>
-    <mergeCell ref="Y203:AD203"/>
-    <mergeCell ref="A218:F218"/>
-    <mergeCell ref="G218:L218"/>
-    <mergeCell ref="M218:R218"/>
-    <mergeCell ref="S218:X218"/>
-    <mergeCell ref="Y218:AD218"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="G217:L217"/>
-    <mergeCell ref="M217:R217"/>
-    <mergeCell ref="S217:X217"/>
-    <mergeCell ref="Y217:AD217"/>
-    <mergeCell ref="A232:F232"/>
-    <mergeCell ref="G232:L232"/>
-    <mergeCell ref="M232:R232"/>
-    <mergeCell ref="S232:X232"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:L124"/>
-    <mergeCell ref="M124:R124"/>
-    <mergeCell ref="S124:X124"/>
-    <mergeCell ref="Y124:AD124"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="G179:L179"/>
-    <mergeCell ref="M179:R179"/>
-    <mergeCell ref="S179:X179"/>
-    <mergeCell ref="Y179:AD179"/>
-    <mergeCell ref="A202:F202"/>
-    <mergeCell ref="G202:L202"/>
-    <mergeCell ref="M202:R202"/>
-    <mergeCell ref="S202:X202"/>
-    <mergeCell ref="Y202:AD202"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="G187:L187"/>
-    <mergeCell ref="M187:R187"/>
-    <mergeCell ref="S187:X187"/>
-    <mergeCell ref="Y187:AD187"/>
-    <mergeCell ref="A188:F188"/>
-    <mergeCell ref="G188:L188"/>
-    <mergeCell ref="M188:R188"/>
-    <mergeCell ref="S188:X188"/>
-    <mergeCell ref="Y188:AD188"/>
-    <mergeCell ref="Y307:AD307"/>
-    <mergeCell ref="A322:F322"/>
-    <mergeCell ref="G322:L322"/>
-    <mergeCell ref="M322:R322"/>
-    <mergeCell ref="S322:X322"/>
-    <mergeCell ref="Y322:AD322"/>
-    <mergeCell ref="A338:F338"/>
-    <mergeCell ref="G338:L338"/>
-    <mergeCell ref="M338:R338"/>
-    <mergeCell ref="S338:X338"/>
-    <mergeCell ref="Y338:AD338"/>
-    <mergeCell ref="A337:F337"/>
-    <mergeCell ref="G337:L337"/>
-    <mergeCell ref="M337:R337"/>
-    <mergeCell ref="S337:X337"/>
-    <mergeCell ref="Y337:AD337"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="G442:L442"/>
-    <mergeCell ref="M442:R442"/>
-    <mergeCell ref="S442:X442"/>
-    <mergeCell ref="Y442:AD442"/>
-    <mergeCell ref="A458:F458"/>
-    <mergeCell ref="G458:L458"/>
-    <mergeCell ref="M458:R458"/>
-    <mergeCell ref="S458:X458"/>
-    <mergeCell ref="Y458:AD458"/>
-    <mergeCell ref="A443:F443"/>
-    <mergeCell ref="G443:L443"/>
-    <mergeCell ref="M443:R443"/>
-    <mergeCell ref="S443:X443"/>
-    <mergeCell ref="Y443:AD443"/>
-    <mergeCell ref="A457:F457"/>
-    <mergeCell ref="G457:L457"/>
-    <mergeCell ref="M457:R457"/>
-    <mergeCell ref="S457:X457"/>
-    <mergeCell ref="Y457:AD457"/>
-    <mergeCell ref="A502:F502"/>
-    <mergeCell ref="G502:L502"/>
-    <mergeCell ref="M502:R502"/>
-    <mergeCell ref="S502:X502"/>
-    <mergeCell ref="Y502:AD502"/>
-    <mergeCell ref="A503:F503"/>
-    <mergeCell ref="G503:L503"/>
-    <mergeCell ref="M503:R503"/>
-    <mergeCell ref="S503:X503"/>
-    <mergeCell ref="Y503:AD503"/>
-    <mergeCell ref="A532:F532"/>
-    <mergeCell ref="G532:L532"/>
-    <mergeCell ref="M532:R532"/>
-    <mergeCell ref="S532:X532"/>
-    <mergeCell ref="Y532:AD532"/>
-    <mergeCell ref="A533:F533"/>
-    <mergeCell ref="G533:L533"/>
-    <mergeCell ref="M533:R533"/>
-    <mergeCell ref="S533:X533"/>
-    <mergeCell ref="Y533:AD533"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="G352:L352"/>
+    <mergeCell ref="M352:R352"/>
+    <mergeCell ref="S352:X352"/>
+    <mergeCell ref="Y352:AD352"/>
+    <mergeCell ref="A353:F353"/>
+    <mergeCell ref="G353:L353"/>
+    <mergeCell ref="M353:R353"/>
+    <mergeCell ref="S353:X353"/>
+    <mergeCell ref="Y353:AD353"/>
+    <mergeCell ref="A367:F367"/>
+    <mergeCell ref="G367:L367"/>
+    <mergeCell ref="M367:R367"/>
+    <mergeCell ref="S367:X367"/>
+    <mergeCell ref="Y367:AD367"/>
+    <mergeCell ref="A368:F368"/>
+    <mergeCell ref="G368:L368"/>
+    <mergeCell ref="M368:R368"/>
+    <mergeCell ref="S368:X368"/>
+    <mergeCell ref="Y368:AD368"/>
+    <mergeCell ref="A382:F382"/>
+    <mergeCell ref="G382:L382"/>
+    <mergeCell ref="M382:R382"/>
+    <mergeCell ref="S382:X382"/>
+    <mergeCell ref="Y382:AD382"/>
+    <mergeCell ref="A383:F383"/>
+    <mergeCell ref="G383:L383"/>
+    <mergeCell ref="M383:R383"/>
+    <mergeCell ref="S383:X383"/>
+    <mergeCell ref="Y383:AD383"/>
+    <mergeCell ref="A427:F427"/>
+    <mergeCell ref="G427:L427"/>
+    <mergeCell ref="M427:R427"/>
+    <mergeCell ref="S427:X427"/>
+    <mergeCell ref="Y427:AD427"/>
+    <mergeCell ref="A428:F428"/>
+    <mergeCell ref="G428:L428"/>
+    <mergeCell ref="M428:R428"/>
+    <mergeCell ref="S428:X428"/>
+    <mergeCell ref="Y428:AD428"/>
+    <mergeCell ref="A517:F517"/>
+    <mergeCell ref="G517:L517"/>
+    <mergeCell ref="M517:R517"/>
+    <mergeCell ref="S517:X517"/>
+    <mergeCell ref="Y517:AD517"/>
+    <mergeCell ref="A518:F518"/>
+    <mergeCell ref="G518:L518"/>
+    <mergeCell ref="M518:R518"/>
+    <mergeCell ref="S518:X518"/>
+    <mergeCell ref="Y518:AD518"/>
+    <mergeCell ref="A547:F547"/>
+    <mergeCell ref="G547:L547"/>
+    <mergeCell ref="M547:R547"/>
+    <mergeCell ref="S547:X547"/>
+    <mergeCell ref="Y547:AD547"/>
+    <mergeCell ref="A548:F548"/>
+    <mergeCell ref="G548:L548"/>
+    <mergeCell ref="M548:R548"/>
+    <mergeCell ref="S548:X548"/>
+    <mergeCell ref="Y548:AD548"/>
+    <mergeCell ref="A562:F562"/>
+    <mergeCell ref="G562:L562"/>
+    <mergeCell ref="M562:R562"/>
+    <mergeCell ref="S562:X562"/>
+    <mergeCell ref="Y562:AD562"/>
+    <mergeCell ref="A563:F563"/>
+    <mergeCell ref="G563:L563"/>
+    <mergeCell ref="M563:R563"/>
+    <mergeCell ref="S563:X563"/>
+    <mergeCell ref="Y563:AD563"/>
+    <mergeCell ref="A577:F577"/>
+    <mergeCell ref="G577:L577"/>
+    <mergeCell ref="M577:R577"/>
+    <mergeCell ref="S577:X577"/>
+    <mergeCell ref="Y577:AD577"/>
+    <mergeCell ref="A578:F578"/>
+    <mergeCell ref="G578:L578"/>
+    <mergeCell ref="M578:R578"/>
+    <mergeCell ref="S578:X578"/>
+    <mergeCell ref="Y578:AD578"/>
+    <mergeCell ref="A607:F607"/>
+    <mergeCell ref="G607:L607"/>
+    <mergeCell ref="M607:R607"/>
+    <mergeCell ref="S607:X607"/>
+    <mergeCell ref="Y607:AD607"/>
+    <mergeCell ref="A608:F608"/>
+    <mergeCell ref="G608:L608"/>
+    <mergeCell ref="M608:R608"/>
+    <mergeCell ref="S608:X608"/>
+    <mergeCell ref="Y608:AD608"/>
+    <mergeCell ref="A622:F622"/>
+    <mergeCell ref="G622:L622"/>
+    <mergeCell ref="M622:R622"/>
+    <mergeCell ref="S622:X622"/>
+    <mergeCell ref="Y622:AD622"/>
+    <mergeCell ref="A623:F623"/>
+    <mergeCell ref="G623:L623"/>
+    <mergeCell ref="M623:R623"/>
+    <mergeCell ref="S623:X623"/>
+    <mergeCell ref="Y623:AD623"/>
+    <mergeCell ref="A637:F637"/>
+    <mergeCell ref="G637:L637"/>
+    <mergeCell ref="M637:R637"/>
+    <mergeCell ref="S637:X637"/>
+    <mergeCell ref="Y637:AD637"/>
+    <mergeCell ref="A638:F638"/>
+    <mergeCell ref="G638:L638"/>
+    <mergeCell ref="M638:R638"/>
+    <mergeCell ref="S638:X638"/>
+    <mergeCell ref="Y638:AD638"/>
+    <mergeCell ref="A652:F652"/>
+    <mergeCell ref="G652:L652"/>
+    <mergeCell ref="M652:R652"/>
+    <mergeCell ref="S652:X652"/>
+    <mergeCell ref="Y652:AD652"/>
+    <mergeCell ref="A653:F653"/>
+    <mergeCell ref="G653:L653"/>
+    <mergeCell ref="M653:R653"/>
+    <mergeCell ref="S653:X653"/>
+    <mergeCell ref="Y653:AD653"/>
+    <mergeCell ref="A667:F667"/>
+    <mergeCell ref="G667:L667"/>
+    <mergeCell ref="M667:R667"/>
+    <mergeCell ref="S667:X667"/>
+    <mergeCell ref="Y667:AD667"/>
+    <mergeCell ref="A668:F668"/>
+    <mergeCell ref="G668:L668"/>
+    <mergeCell ref="M668:R668"/>
+    <mergeCell ref="S668:X668"/>
+    <mergeCell ref="Y668:AD668"/>
+    <mergeCell ref="A682:F682"/>
+    <mergeCell ref="G682:L682"/>
+    <mergeCell ref="M682:R682"/>
+    <mergeCell ref="S682:X682"/>
+    <mergeCell ref="Y682:AD682"/>
+    <mergeCell ref="A698:F698"/>
+    <mergeCell ref="G698:L698"/>
+    <mergeCell ref="M698:R698"/>
+    <mergeCell ref="S698:X698"/>
+    <mergeCell ref="Y698:AD698"/>
+    <mergeCell ref="A697:F697"/>
+    <mergeCell ref="G697:L697"/>
+    <mergeCell ref="M697:R697"/>
+    <mergeCell ref="S697:X697"/>
+    <mergeCell ref="Y697:AD697"/>
+    <mergeCell ref="A683:F683"/>
+    <mergeCell ref="G683:L683"/>
+    <mergeCell ref="M683:R683"/>
+    <mergeCell ref="S683:X683"/>
+    <mergeCell ref="Y683:AD683"/>
+    <mergeCell ref="A712:F712"/>
+    <mergeCell ref="G712:L712"/>
+    <mergeCell ref="M712:R712"/>
+    <mergeCell ref="S712:X712"/>
+    <mergeCell ref="Y712:AD712"/>
+    <mergeCell ref="A713:F713"/>
+    <mergeCell ref="G713:L713"/>
+    <mergeCell ref="M713:R713"/>
+    <mergeCell ref="S713:X713"/>
+    <mergeCell ref="Y713:AD713"/>
+    <mergeCell ref="A727:F727"/>
+    <mergeCell ref="G727:L727"/>
+    <mergeCell ref="M727:R727"/>
+    <mergeCell ref="S727:X727"/>
+    <mergeCell ref="Y727:AD727"/>
+    <mergeCell ref="A728:F728"/>
+    <mergeCell ref="G728:L728"/>
+    <mergeCell ref="M728:R728"/>
+    <mergeCell ref="S728:X728"/>
+    <mergeCell ref="Y728:AD728"/>
+    <mergeCell ref="A742:F742"/>
+    <mergeCell ref="G742:L742"/>
+    <mergeCell ref="M742:R742"/>
+    <mergeCell ref="S742:X742"/>
+    <mergeCell ref="Y742:AD742"/>
+    <mergeCell ref="A743:F743"/>
+    <mergeCell ref="G743:L743"/>
+    <mergeCell ref="M743:R743"/>
+    <mergeCell ref="S743:X743"/>
+    <mergeCell ref="Y743:AD743"/>
+    <mergeCell ref="A757:F757"/>
+    <mergeCell ref="G757:L757"/>
+    <mergeCell ref="M757:R757"/>
+    <mergeCell ref="S757:X757"/>
+    <mergeCell ref="Y757:AD757"/>
+    <mergeCell ref="A758:F758"/>
+    <mergeCell ref="G758:L758"/>
+    <mergeCell ref="M758:R758"/>
+    <mergeCell ref="S758:X758"/>
+    <mergeCell ref="Y758:AD758"/>
+    <mergeCell ref="A772:F772"/>
+    <mergeCell ref="G772:L772"/>
+    <mergeCell ref="M772:R772"/>
+    <mergeCell ref="S772:X772"/>
+    <mergeCell ref="Y772:AD772"/>
+    <mergeCell ref="A773:F773"/>
+    <mergeCell ref="G773:L773"/>
+    <mergeCell ref="M773:R773"/>
+    <mergeCell ref="S773:X773"/>
+    <mergeCell ref="Y773:AD773"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36348,7 +36378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1730B555-17C4-4D71-B0CF-5EA2C5243D66}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
@@ -38477,10 +38507,10 @@
       <c r="A1" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="211">
+      <c r="B1" s="208">
         <v>0.51</v>
       </c>
-      <c r="C1" s="211"/>
+      <c r="C1" s="208"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -38489,10 +38519,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="211">
+      <c r="B2" s="208">
         <v>0.54</v>
       </c>
-      <c r="C2" s="211"/>
+      <c r="C2" s="208"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -38501,10 +38531,10 @@
       <c r="A3" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="211">
+      <c r="B3" s="208">
         <v>0.51</v>
       </c>
-      <c r="C3" s="211"/>
+      <c r="C3" s="208"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -38513,10 +38543,10 @@
       <c r="A4" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="211">
+      <c r="B4" s="208">
         <v>0.54</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="208"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -38558,7 +38588,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="208">
+      <c r="E8" s="211">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -38571,7 +38601,7 @@
       <c r="B9" s="209"/>
       <c r="C9" s="209"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="208"/>
+      <c r="E9" s="211"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38611,7 +38641,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="208">
+      <c r="E13" s="211">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -38624,7 +38654,7 @@
       <c r="B14" s="209"/>
       <c r="C14" s="209"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="208"/>
+      <c r="E14" s="211"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38664,7 +38694,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="208">
+      <c r="E18" s="211">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -38677,7 +38707,7 @@
       <c r="B19" s="209"/>
       <c r="C19" s="209"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="208"/>
+      <c r="E19" s="211"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -38722,12 +38752,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -38735,6 +38759,12 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1647" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6F799D30-1DBF-4F34-AC96-1D66D3E32750}"/>
+  <xr:revisionPtr revIDLastSave="1701" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{279CE95A-6FBC-4272-8427-FF675015CB74}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="9090" windowWidth="27840" windowHeight="7110" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="960" yWindow="9090" windowWidth="27840" windowHeight="7110" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="255">
   <si>
     <t>Pillar</t>
   </si>
@@ -793,6 +793,15 @@
   </si>
   <si>
     <t>BAHVEST</t>
+  </si>
+  <si>
+    <t>MTAG</t>
+  </si>
+  <si>
+    <t>EWEIN</t>
+  </si>
+  <si>
+    <t>SKPRES</t>
   </si>
 </sst>
 </file>
@@ -2969,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F215" sqref="F215"/>
+    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11672,7 +11681,9 @@
       <c r="D205" s="92"/>
       <c r="E205" s="92"/>
       <c r="F205" s="93"/>
-      <c r="G205" s="90"/>
+      <c r="G205" s="90" t="s">
+        <v>197</v>
+      </c>
       <c r="H205" s="91"/>
       <c r="I205" s="92"/>
       <c r="J205" s="92"/>
@@ -11706,7 +11717,9 @@
       <c r="D206" s="92"/>
       <c r="E206" s="92"/>
       <c r="F206" s="93"/>
-      <c r="G206" s="90"/>
+      <c r="G206" s="90" t="s">
+        <v>26</v>
+      </c>
       <c r="H206" s="91"/>
       <c r="I206" s="92"/>
       <c r="J206" s="92"/>
@@ -11740,7 +11753,9 @@
       <c r="D207" s="92"/>
       <c r="E207" s="92"/>
       <c r="F207" s="93"/>
-      <c r="G207" s="90"/>
+      <c r="G207" s="90" t="s">
+        <v>208</v>
+      </c>
       <c r="H207" s="91"/>
       <c r="I207" s="92"/>
       <c r="J207" s="92"/>
@@ -11774,7 +11789,9 @@
       <c r="D208" s="92"/>
       <c r="E208" s="92"/>
       <c r="F208" s="93"/>
-      <c r="G208" s="90"/>
+      <c r="G208" s="90" t="s">
+        <v>23</v>
+      </c>
       <c r="H208" s="91"/>
       <c r="I208" s="92"/>
       <c r="J208" s="92"/>
@@ -11808,7 +11825,9 @@
       <c r="D209" s="92"/>
       <c r="E209" s="92"/>
       <c r="F209" s="93"/>
-      <c r="G209" s="90"/>
+      <c r="G209" s="90" t="s">
+        <v>154</v>
+      </c>
       <c r="H209" s="91"/>
       <c r="I209" s="92"/>
       <c r="J209" s="92"/>
@@ -11842,7 +11861,9 @@
       <c r="D210" s="92"/>
       <c r="E210" s="92"/>
       <c r="F210" s="93"/>
-      <c r="G210" s="90"/>
+      <c r="G210" s="90" t="s">
+        <v>254</v>
+      </c>
       <c r="H210" s="91"/>
       <c r="I210" s="92"/>
       <c r="J210" s="92"/>
@@ -11876,7 +11897,9 @@
       <c r="D211" s="92"/>
       <c r="E211" s="92"/>
       <c r="F211" s="93"/>
-      <c r="G211" s="90"/>
+      <c r="G211" s="90" t="s">
+        <v>165</v>
+      </c>
       <c r="H211" s="91"/>
       <c r="I211" s="92"/>
       <c r="J211" s="92"/>
@@ -11910,7 +11933,9 @@
       <c r="D212" s="92"/>
       <c r="E212" s="92"/>
       <c r="F212" s="93"/>
-      <c r="G212" s="90"/>
+      <c r="G212" s="90" t="s">
+        <v>159</v>
+      </c>
       <c r="H212" s="91"/>
       <c r="I212" s="92"/>
       <c r="J212" s="92"/>
@@ -11970,7 +11995,9 @@
       <c r="AD213" s="93"/>
     </row>
     <row r="214" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="90"/>
+      <c r="A214" s="90" t="s">
+        <v>252</v>
+      </c>
       <c r="B214" s="91"/>
       <c r="C214" s="92"/>
       <c r="D214" s="92"/>
@@ -12002,7 +12029,9 @@
       <c r="AD214" s="93"/>
     </row>
     <row r="215" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="90"/>
+      <c r="A215" s="90" t="s">
+        <v>253</v>
+      </c>
       <c r="B215" s="91"/>
       <c r="C215" s="92"/>
       <c r="D215" s="92"/>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1701" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{279CE95A-6FBC-4272-8427-FF675015CB74}"/>
+  <xr:revisionPtr revIDLastSave="1703" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C3E1429-74AD-44A8-8806-7A3F9B605935}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="9090" windowWidth="27840" windowHeight="7110" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27840" windowHeight="7110" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="256">
   <si>
     <t>Pillar</t>
   </si>
@@ -802,6 +802,9 @@
   </si>
   <si>
     <t>SKPRES</t>
+  </si>
+  <si>
+    <t>GENP</t>
   </si>
 </sst>
 </file>
@@ -2532,8 +2535,8 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2541,8 +2544,8 @@
     <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2979,7 +2982,7 @@
   <dimension ref="A1:AD801"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A200" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E211" sqref="E211"/>
+      <selection activeCell="M207" sqref="M207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11689,7 +11692,9 @@
       <c r="J205" s="92"/>
       <c r="K205" s="92"/>
       <c r="L205" s="93"/>
-      <c r="M205" s="90"/>
+      <c r="M205" s="90" t="s">
+        <v>255</v>
+      </c>
       <c r="N205" s="91"/>
       <c r="O205" s="92"/>
       <c r="P205" s="92"/>
@@ -11725,7 +11730,9 @@
       <c r="J206" s="92"/>
       <c r="K206" s="92"/>
       <c r="L206" s="93"/>
-      <c r="M206" s="90"/>
+      <c r="M206" s="90" t="s">
+        <v>56</v>
+      </c>
       <c r="N206" s="91"/>
       <c r="O206" s="92"/>
       <c r="P206" s="92"/>
@@ -33741,117 +33748,321 @@
     </row>
   </sheetData>
   <mergeCells count="450">
-    <mergeCell ref="A532:F532"/>
-    <mergeCell ref="G532:L532"/>
-    <mergeCell ref="M532:R532"/>
-    <mergeCell ref="S532:X532"/>
-    <mergeCell ref="Y532:AD532"/>
-    <mergeCell ref="A533:F533"/>
-    <mergeCell ref="G533:L533"/>
-    <mergeCell ref="M533:R533"/>
-    <mergeCell ref="S533:X533"/>
-    <mergeCell ref="Y533:AD533"/>
-    <mergeCell ref="A502:F502"/>
-    <mergeCell ref="G502:L502"/>
-    <mergeCell ref="M502:R502"/>
-    <mergeCell ref="S502:X502"/>
-    <mergeCell ref="Y502:AD502"/>
-    <mergeCell ref="A503:F503"/>
-    <mergeCell ref="G503:L503"/>
-    <mergeCell ref="M503:R503"/>
-    <mergeCell ref="S503:X503"/>
-    <mergeCell ref="Y503:AD503"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="G442:L442"/>
-    <mergeCell ref="M442:R442"/>
-    <mergeCell ref="S442:X442"/>
-    <mergeCell ref="Y442:AD442"/>
-    <mergeCell ref="A458:F458"/>
-    <mergeCell ref="G458:L458"/>
-    <mergeCell ref="M458:R458"/>
-    <mergeCell ref="S458:X458"/>
-    <mergeCell ref="Y458:AD458"/>
-    <mergeCell ref="A443:F443"/>
-    <mergeCell ref="G443:L443"/>
-    <mergeCell ref="M443:R443"/>
-    <mergeCell ref="S443:X443"/>
-    <mergeCell ref="Y443:AD443"/>
-    <mergeCell ref="A457:F457"/>
-    <mergeCell ref="G457:L457"/>
-    <mergeCell ref="M457:R457"/>
-    <mergeCell ref="S457:X457"/>
-    <mergeCell ref="Y457:AD457"/>
-    <mergeCell ref="Y307:AD307"/>
-    <mergeCell ref="A322:F322"/>
-    <mergeCell ref="G322:L322"/>
-    <mergeCell ref="M322:R322"/>
-    <mergeCell ref="S322:X322"/>
-    <mergeCell ref="Y322:AD322"/>
-    <mergeCell ref="A338:F338"/>
-    <mergeCell ref="G338:L338"/>
-    <mergeCell ref="M338:R338"/>
-    <mergeCell ref="S338:X338"/>
-    <mergeCell ref="Y338:AD338"/>
-    <mergeCell ref="A337:F337"/>
-    <mergeCell ref="G337:L337"/>
-    <mergeCell ref="M337:R337"/>
-    <mergeCell ref="S337:X337"/>
-    <mergeCell ref="Y337:AD337"/>
-    <mergeCell ref="A202:F202"/>
-    <mergeCell ref="G202:L202"/>
-    <mergeCell ref="M202:R202"/>
-    <mergeCell ref="S202:X202"/>
-    <mergeCell ref="Y202:AD202"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="G187:L187"/>
-    <mergeCell ref="M187:R187"/>
-    <mergeCell ref="S187:X187"/>
-    <mergeCell ref="Y187:AD187"/>
-    <mergeCell ref="A188:F188"/>
-    <mergeCell ref="G188:L188"/>
-    <mergeCell ref="M188:R188"/>
-    <mergeCell ref="S188:X188"/>
-    <mergeCell ref="Y188:AD188"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:L124"/>
-    <mergeCell ref="M124:R124"/>
-    <mergeCell ref="S124:X124"/>
-    <mergeCell ref="Y124:AD124"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="G179:L179"/>
-    <mergeCell ref="M179:R179"/>
-    <mergeCell ref="S179:X179"/>
-    <mergeCell ref="Y179:AD179"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A772:F772"/>
+    <mergeCell ref="G772:L772"/>
+    <mergeCell ref="M772:R772"/>
+    <mergeCell ref="S772:X772"/>
+    <mergeCell ref="Y772:AD772"/>
+    <mergeCell ref="A773:F773"/>
+    <mergeCell ref="G773:L773"/>
+    <mergeCell ref="M773:R773"/>
+    <mergeCell ref="S773:X773"/>
+    <mergeCell ref="Y773:AD773"/>
+    <mergeCell ref="A757:F757"/>
+    <mergeCell ref="G757:L757"/>
+    <mergeCell ref="M757:R757"/>
+    <mergeCell ref="S757:X757"/>
+    <mergeCell ref="Y757:AD757"/>
+    <mergeCell ref="A758:F758"/>
+    <mergeCell ref="G758:L758"/>
+    <mergeCell ref="M758:R758"/>
+    <mergeCell ref="S758:X758"/>
+    <mergeCell ref="Y758:AD758"/>
+    <mergeCell ref="A742:F742"/>
+    <mergeCell ref="G742:L742"/>
+    <mergeCell ref="M742:R742"/>
+    <mergeCell ref="S742:X742"/>
+    <mergeCell ref="Y742:AD742"/>
+    <mergeCell ref="A743:F743"/>
+    <mergeCell ref="G743:L743"/>
+    <mergeCell ref="M743:R743"/>
+    <mergeCell ref="S743:X743"/>
+    <mergeCell ref="Y743:AD743"/>
+    <mergeCell ref="A727:F727"/>
+    <mergeCell ref="G727:L727"/>
+    <mergeCell ref="M727:R727"/>
+    <mergeCell ref="S727:X727"/>
+    <mergeCell ref="Y727:AD727"/>
+    <mergeCell ref="A728:F728"/>
+    <mergeCell ref="G728:L728"/>
+    <mergeCell ref="M728:R728"/>
+    <mergeCell ref="S728:X728"/>
+    <mergeCell ref="Y728:AD728"/>
+    <mergeCell ref="A712:F712"/>
+    <mergeCell ref="G712:L712"/>
+    <mergeCell ref="M712:R712"/>
+    <mergeCell ref="S712:X712"/>
+    <mergeCell ref="Y712:AD712"/>
+    <mergeCell ref="A713:F713"/>
+    <mergeCell ref="G713:L713"/>
+    <mergeCell ref="M713:R713"/>
+    <mergeCell ref="S713:X713"/>
+    <mergeCell ref="Y713:AD713"/>
+    <mergeCell ref="A682:F682"/>
+    <mergeCell ref="G682:L682"/>
+    <mergeCell ref="M682:R682"/>
+    <mergeCell ref="S682:X682"/>
+    <mergeCell ref="Y682:AD682"/>
+    <mergeCell ref="A698:F698"/>
+    <mergeCell ref="G698:L698"/>
+    <mergeCell ref="M698:R698"/>
+    <mergeCell ref="S698:X698"/>
+    <mergeCell ref="Y698:AD698"/>
+    <mergeCell ref="A697:F697"/>
+    <mergeCell ref="G697:L697"/>
+    <mergeCell ref="M697:R697"/>
+    <mergeCell ref="S697:X697"/>
+    <mergeCell ref="Y697:AD697"/>
+    <mergeCell ref="A683:F683"/>
+    <mergeCell ref="G683:L683"/>
+    <mergeCell ref="M683:R683"/>
+    <mergeCell ref="S683:X683"/>
+    <mergeCell ref="Y683:AD683"/>
+    <mergeCell ref="A667:F667"/>
+    <mergeCell ref="G667:L667"/>
+    <mergeCell ref="M667:R667"/>
+    <mergeCell ref="S667:X667"/>
+    <mergeCell ref="Y667:AD667"/>
+    <mergeCell ref="A668:F668"/>
+    <mergeCell ref="G668:L668"/>
+    <mergeCell ref="M668:R668"/>
+    <mergeCell ref="S668:X668"/>
+    <mergeCell ref="Y668:AD668"/>
+    <mergeCell ref="A652:F652"/>
+    <mergeCell ref="G652:L652"/>
+    <mergeCell ref="M652:R652"/>
+    <mergeCell ref="S652:X652"/>
+    <mergeCell ref="Y652:AD652"/>
+    <mergeCell ref="A653:F653"/>
+    <mergeCell ref="G653:L653"/>
+    <mergeCell ref="M653:R653"/>
+    <mergeCell ref="S653:X653"/>
+    <mergeCell ref="Y653:AD653"/>
+    <mergeCell ref="A637:F637"/>
+    <mergeCell ref="G637:L637"/>
+    <mergeCell ref="M637:R637"/>
+    <mergeCell ref="S637:X637"/>
+    <mergeCell ref="Y637:AD637"/>
+    <mergeCell ref="A638:F638"/>
+    <mergeCell ref="G638:L638"/>
+    <mergeCell ref="M638:R638"/>
+    <mergeCell ref="S638:X638"/>
+    <mergeCell ref="Y638:AD638"/>
+    <mergeCell ref="A622:F622"/>
+    <mergeCell ref="G622:L622"/>
+    <mergeCell ref="M622:R622"/>
+    <mergeCell ref="S622:X622"/>
+    <mergeCell ref="Y622:AD622"/>
+    <mergeCell ref="A623:F623"/>
+    <mergeCell ref="G623:L623"/>
+    <mergeCell ref="M623:R623"/>
+    <mergeCell ref="S623:X623"/>
+    <mergeCell ref="Y623:AD623"/>
+    <mergeCell ref="A607:F607"/>
+    <mergeCell ref="G607:L607"/>
+    <mergeCell ref="M607:R607"/>
+    <mergeCell ref="S607:X607"/>
+    <mergeCell ref="Y607:AD607"/>
+    <mergeCell ref="A608:F608"/>
+    <mergeCell ref="G608:L608"/>
+    <mergeCell ref="M608:R608"/>
+    <mergeCell ref="S608:X608"/>
+    <mergeCell ref="Y608:AD608"/>
+    <mergeCell ref="A577:F577"/>
+    <mergeCell ref="G577:L577"/>
+    <mergeCell ref="M577:R577"/>
+    <mergeCell ref="S577:X577"/>
+    <mergeCell ref="Y577:AD577"/>
+    <mergeCell ref="A578:F578"/>
+    <mergeCell ref="G578:L578"/>
+    <mergeCell ref="M578:R578"/>
+    <mergeCell ref="S578:X578"/>
+    <mergeCell ref="Y578:AD578"/>
+    <mergeCell ref="A562:F562"/>
+    <mergeCell ref="G562:L562"/>
+    <mergeCell ref="M562:R562"/>
+    <mergeCell ref="S562:X562"/>
+    <mergeCell ref="Y562:AD562"/>
+    <mergeCell ref="A563:F563"/>
+    <mergeCell ref="G563:L563"/>
+    <mergeCell ref="M563:R563"/>
+    <mergeCell ref="S563:X563"/>
+    <mergeCell ref="Y563:AD563"/>
+    <mergeCell ref="A547:F547"/>
+    <mergeCell ref="G547:L547"/>
+    <mergeCell ref="M547:R547"/>
+    <mergeCell ref="S547:X547"/>
+    <mergeCell ref="Y547:AD547"/>
+    <mergeCell ref="A548:F548"/>
+    <mergeCell ref="G548:L548"/>
+    <mergeCell ref="M548:R548"/>
+    <mergeCell ref="S548:X548"/>
+    <mergeCell ref="Y548:AD548"/>
+    <mergeCell ref="A517:F517"/>
+    <mergeCell ref="G517:L517"/>
+    <mergeCell ref="M517:R517"/>
+    <mergeCell ref="S517:X517"/>
+    <mergeCell ref="Y517:AD517"/>
+    <mergeCell ref="A518:F518"/>
+    <mergeCell ref="G518:L518"/>
+    <mergeCell ref="M518:R518"/>
+    <mergeCell ref="S518:X518"/>
+    <mergeCell ref="Y518:AD518"/>
+    <mergeCell ref="A427:F427"/>
+    <mergeCell ref="G427:L427"/>
+    <mergeCell ref="M427:R427"/>
+    <mergeCell ref="S427:X427"/>
+    <mergeCell ref="Y427:AD427"/>
+    <mergeCell ref="A428:F428"/>
+    <mergeCell ref="G428:L428"/>
+    <mergeCell ref="M428:R428"/>
+    <mergeCell ref="S428:X428"/>
+    <mergeCell ref="Y428:AD428"/>
+    <mergeCell ref="A382:F382"/>
+    <mergeCell ref="G382:L382"/>
+    <mergeCell ref="M382:R382"/>
+    <mergeCell ref="S382:X382"/>
+    <mergeCell ref="Y382:AD382"/>
+    <mergeCell ref="A383:F383"/>
+    <mergeCell ref="G383:L383"/>
+    <mergeCell ref="M383:R383"/>
+    <mergeCell ref="S383:X383"/>
+    <mergeCell ref="Y383:AD383"/>
+    <mergeCell ref="A367:F367"/>
+    <mergeCell ref="G367:L367"/>
+    <mergeCell ref="M367:R367"/>
+    <mergeCell ref="S367:X367"/>
+    <mergeCell ref="Y367:AD367"/>
+    <mergeCell ref="A368:F368"/>
+    <mergeCell ref="G368:L368"/>
+    <mergeCell ref="M368:R368"/>
+    <mergeCell ref="S368:X368"/>
+    <mergeCell ref="Y368:AD368"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="G352:L352"/>
+    <mergeCell ref="M352:R352"/>
+    <mergeCell ref="S352:X352"/>
+    <mergeCell ref="Y352:AD352"/>
+    <mergeCell ref="A353:F353"/>
+    <mergeCell ref="G353:L353"/>
+    <mergeCell ref="M353:R353"/>
+    <mergeCell ref="S353:X353"/>
+    <mergeCell ref="Y353:AD353"/>
+    <mergeCell ref="Y292:AD292"/>
+    <mergeCell ref="A308:F308"/>
+    <mergeCell ref="G308:L308"/>
+    <mergeCell ref="M308:R308"/>
+    <mergeCell ref="S308:X308"/>
+    <mergeCell ref="Y308:AD308"/>
+    <mergeCell ref="A323:F323"/>
+    <mergeCell ref="G323:L323"/>
+    <mergeCell ref="M323:R323"/>
+    <mergeCell ref="S323:X323"/>
+    <mergeCell ref="Y323:AD323"/>
+    <mergeCell ref="A293:F293"/>
+    <mergeCell ref="G293:L293"/>
+    <mergeCell ref="M293:R293"/>
+    <mergeCell ref="S293:X293"/>
+    <mergeCell ref="Y293:AD293"/>
+    <mergeCell ref="A292:F292"/>
+    <mergeCell ref="G292:L292"/>
+    <mergeCell ref="M292:R292"/>
+    <mergeCell ref="S292:X292"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="G307:L307"/>
+    <mergeCell ref="M307:R307"/>
+    <mergeCell ref="S307:X307"/>
+    <mergeCell ref="Y232:AD232"/>
+    <mergeCell ref="A233:F233"/>
+    <mergeCell ref="G233:L233"/>
+    <mergeCell ref="M233:R233"/>
+    <mergeCell ref="S233:X233"/>
+    <mergeCell ref="Y233:AD233"/>
+    <mergeCell ref="A247:F247"/>
+    <mergeCell ref="G247:L247"/>
+    <mergeCell ref="M247:R247"/>
+    <mergeCell ref="S247:X247"/>
+    <mergeCell ref="Y247:AD247"/>
+    <mergeCell ref="A787:F787"/>
+    <mergeCell ref="G787:L787"/>
+    <mergeCell ref="M787:R787"/>
+    <mergeCell ref="S787:X787"/>
+    <mergeCell ref="Y787:AD787"/>
+    <mergeCell ref="A788:F788"/>
+    <mergeCell ref="G788:L788"/>
+    <mergeCell ref="M788:R788"/>
+    <mergeCell ref="S788:X788"/>
+    <mergeCell ref="Y788:AD788"/>
+    <mergeCell ref="A592:F592"/>
+    <mergeCell ref="G592:L592"/>
+    <mergeCell ref="M592:R592"/>
+    <mergeCell ref="S592:X592"/>
+    <mergeCell ref="Y592:AD592"/>
+    <mergeCell ref="A593:F593"/>
+    <mergeCell ref="G593:L593"/>
+    <mergeCell ref="M593:R593"/>
+    <mergeCell ref="S593:X593"/>
+    <mergeCell ref="Y593:AD593"/>
+    <mergeCell ref="A488:F488"/>
+    <mergeCell ref="G488:L488"/>
+    <mergeCell ref="M488:R488"/>
+    <mergeCell ref="S488:X488"/>
+    <mergeCell ref="Y488:AD488"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="G487:L487"/>
+    <mergeCell ref="M487:R487"/>
+    <mergeCell ref="S487:X487"/>
+    <mergeCell ref="Y487:AD487"/>
+    <mergeCell ref="A472:F472"/>
+    <mergeCell ref="G472:L472"/>
+    <mergeCell ref="M472:R472"/>
+    <mergeCell ref="S472:X472"/>
+    <mergeCell ref="Y472:AD472"/>
+    <mergeCell ref="A473:F473"/>
+    <mergeCell ref="G473:L473"/>
+    <mergeCell ref="M473:R473"/>
+    <mergeCell ref="S473:X473"/>
+    <mergeCell ref="Y473:AD473"/>
+    <mergeCell ref="A413:F413"/>
+    <mergeCell ref="G413:L413"/>
+    <mergeCell ref="M413:R413"/>
+    <mergeCell ref="S413:X413"/>
+    <mergeCell ref="Y413:AD413"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="G397:L397"/>
+    <mergeCell ref="M397:R397"/>
+    <mergeCell ref="S397:X397"/>
+    <mergeCell ref="Y397:AD397"/>
+    <mergeCell ref="A398:F398"/>
+    <mergeCell ref="G398:L398"/>
+    <mergeCell ref="M398:R398"/>
+    <mergeCell ref="S398:X398"/>
+    <mergeCell ref="Y398:AD398"/>
+    <mergeCell ref="A412:F412"/>
+    <mergeCell ref="G412:L412"/>
+    <mergeCell ref="M412:R412"/>
+    <mergeCell ref="S412:X412"/>
+    <mergeCell ref="Y412:AD412"/>
+    <mergeCell ref="A277:F277"/>
+    <mergeCell ref="G277:L277"/>
+    <mergeCell ref="M277:R277"/>
+    <mergeCell ref="S277:X277"/>
+    <mergeCell ref="Y277:AD277"/>
+    <mergeCell ref="A278:F278"/>
+    <mergeCell ref="G278:L278"/>
+    <mergeCell ref="M278:R278"/>
+    <mergeCell ref="S278:X278"/>
+    <mergeCell ref="Y278:AD278"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="G262:L262"/>
+    <mergeCell ref="M262:R262"/>
+    <mergeCell ref="S262:X262"/>
+    <mergeCell ref="Y262:AD262"/>
+    <mergeCell ref="A263:F263"/>
+    <mergeCell ref="G263:L263"/>
+    <mergeCell ref="M263:R263"/>
+    <mergeCell ref="S263:X263"/>
+    <mergeCell ref="Y263:AD263"/>
     <mergeCell ref="A248:F248"/>
     <mergeCell ref="G248:L248"/>
     <mergeCell ref="M248:R248"/>
@@ -33876,321 +34087,117 @@
     <mergeCell ref="G232:L232"/>
     <mergeCell ref="M232:R232"/>
     <mergeCell ref="S232:X232"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="G262:L262"/>
-    <mergeCell ref="M262:R262"/>
-    <mergeCell ref="S262:X262"/>
-    <mergeCell ref="Y262:AD262"/>
-    <mergeCell ref="A263:F263"/>
-    <mergeCell ref="G263:L263"/>
-    <mergeCell ref="M263:R263"/>
-    <mergeCell ref="S263:X263"/>
-    <mergeCell ref="Y263:AD263"/>
-    <mergeCell ref="A277:F277"/>
-    <mergeCell ref="G277:L277"/>
-    <mergeCell ref="M277:R277"/>
-    <mergeCell ref="S277:X277"/>
-    <mergeCell ref="Y277:AD277"/>
-    <mergeCell ref="A278:F278"/>
-    <mergeCell ref="G278:L278"/>
-    <mergeCell ref="M278:R278"/>
-    <mergeCell ref="S278:X278"/>
-    <mergeCell ref="Y278:AD278"/>
-    <mergeCell ref="A413:F413"/>
-    <mergeCell ref="G413:L413"/>
-    <mergeCell ref="M413:R413"/>
-    <mergeCell ref="S413:X413"/>
-    <mergeCell ref="Y413:AD413"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="G397:L397"/>
-    <mergeCell ref="M397:R397"/>
-    <mergeCell ref="S397:X397"/>
-    <mergeCell ref="Y397:AD397"/>
-    <mergeCell ref="A398:F398"/>
-    <mergeCell ref="G398:L398"/>
-    <mergeCell ref="M398:R398"/>
-    <mergeCell ref="S398:X398"/>
-    <mergeCell ref="Y398:AD398"/>
-    <mergeCell ref="A412:F412"/>
-    <mergeCell ref="G412:L412"/>
-    <mergeCell ref="M412:R412"/>
-    <mergeCell ref="S412:X412"/>
-    <mergeCell ref="Y412:AD412"/>
-    <mergeCell ref="A472:F472"/>
-    <mergeCell ref="G472:L472"/>
-    <mergeCell ref="M472:R472"/>
-    <mergeCell ref="S472:X472"/>
-    <mergeCell ref="Y472:AD472"/>
-    <mergeCell ref="A473:F473"/>
-    <mergeCell ref="G473:L473"/>
-    <mergeCell ref="M473:R473"/>
-    <mergeCell ref="S473:X473"/>
-    <mergeCell ref="Y473:AD473"/>
-    <mergeCell ref="A488:F488"/>
-    <mergeCell ref="G488:L488"/>
-    <mergeCell ref="M488:R488"/>
-    <mergeCell ref="S488:X488"/>
-    <mergeCell ref="Y488:AD488"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="G487:L487"/>
-    <mergeCell ref="M487:R487"/>
-    <mergeCell ref="S487:X487"/>
-    <mergeCell ref="Y487:AD487"/>
-    <mergeCell ref="A592:F592"/>
-    <mergeCell ref="G592:L592"/>
-    <mergeCell ref="M592:R592"/>
-    <mergeCell ref="S592:X592"/>
-    <mergeCell ref="Y592:AD592"/>
-    <mergeCell ref="A593:F593"/>
-    <mergeCell ref="G593:L593"/>
-    <mergeCell ref="M593:R593"/>
-    <mergeCell ref="S593:X593"/>
-    <mergeCell ref="Y593:AD593"/>
-    <mergeCell ref="A787:F787"/>
-    <mergeCell ref="G787:L787"/>
-    <mergeCell ref="M787:R787"/>
-    <mergeCell ref="S787:X787"/>
-    <mergeCell ref="Y787:AD787"/>
-    <mergeCell ref="A788:F788"/>
-    <mergeCell ref="G788:L788"/>
-    <mergeCell ref="M788:R788"/>
-    <mergeCell ref="S788:X788"/>
-    <mergeCell ref="Y788:AD788"/>
-    <mergeCell ref="Y232:AD232"/>
-    <mergeCell ref="A233:F233"/>
-    <mergeCell ref="G233:L233"/>
-    <mergeCell ref="M233:R233"/>
-    <mergeCell ref="S233:X233"/>
-    <mergeCell ref="Y233:AD233"/>
-    <mergeCell ref="A247:F247"/>
-    <mergeCell ref="G247:L247"/>
-    <mergeCell ref="M247:R247"/>
-    <mergeCell ref="S247:X247"/>
-    <mergeCell ref="Y247:AD247"/>
-    <mergeCell ref="Y292:AD292"/>
-    <mergeCell ref="A308:F308"/>
-    <mergeCell ref="G308:L308"/>
-    <mergeCell ref="M308:R308"/>
-    <mergeCell ref="S308:X308"/>
-    <mergeCell ref="Y308:AD308"/>
-    <mergeCell ref="A323:F323"/>
-    <mergeCell ref="G323:L323"/>
-    <mergeCell ref="M323:R323"/>
-    <mergeCell ref="S323:X323"/>
-    <mergeCell ref="Y323:AD323"/>
-    <mergeCell ref="A293:F293"/>
-    <mergeCell ref="G293:L293"/>
-    <mergeCell ref="M293:R293"/>
-    <mergeCell ref="S293:X293"/>
-    <mergeCell ref="Y293:AD293"/>
-    <mergeCell ref="A292:F292"/>
-    <mergeCell ref="G292:L292"/>
-    <mergeCell ref="M292:R292"/>
-    <mergeCell ref="S292:X292"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="G307:L307"/>
-    <mergeCell ref="M307:R307"/>
-    <mergeCell ref="S307:X307"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="G352:L352"/>
-    <mergeCell ref="M352:R352"/>
-    <mergeCell ref="S352:X352"/>
-    <mergeCell ref="Y352:AD352"/>
-    <mergeCell ref="A353:F353"/>
-    <mergeCell ref="G353:L353"/>
-    <mergeCell ref="M353:R353"/>
-    <mergeCell ref="S353:X353"/>
-    <mergeCell ref="Y353:AD353"/>
-    <mergeCell ref="A367:F367"/>
-    <mergeCell ref="G367:L367"/>
-    <mergeCell ref="M367:R367"/>
-    <mergeCell ref="S367:X367"/>
-    <mergeCell ref="Y367:AD367"/>
-    <mergeCell ref="A368:F368"/>
-    <mergeCell ref="G368:L368"/>
-    <mergeCell ref="M368:R368"/>
-    <mergeCell ref="S368:X368"/>
-    <mergeCell ref="Y368:AD368"/>
-    <mergeCell ref="A382:F382"/>
-    <mergeCell ref="G382:L382"/>
-    <mergeCell ref="M382:R382"/>
-    <mergeCell ref="S382:X382"/>
-    <mergeCell ref="Y382:AD382"/>
-    <mergeCell ref="A383:F383"/>
-    <mergeCell ref="G383:L383"/>
-    <mergeCell ref="M383:R383"/>
-    <mergeCell ref="S383:X383"/>
-    <mergeCell ref="Y383:AD383"/>
-    <mergeCell ref="A427:F427"/>
-    <mergeCell ref="G427:L427"/>
-    <mergeCell ref="M427:R427"/>
-    <mergeCell ref="S427:X427"/>
-    <mergeCell ref="Y427:AD427"/>
-    <mergeCell ref="A428:F428"/>
-    <mergeCell ref="G428:L428"/>
-    <mergeCell ref="M428:R428"/>
-    <mergeCell ref="S428:X428"/>
-    <mergeCell ref="Y428:AD428"/>
-    <mergeCell ref="A517:F517"/>
-    <mergeCell ref="G517:L517"/>
-    <mergeCell ref="M517:R517"/>
-    <mergeCell ref="S517:X517"/>
-    <mergeCell ref="Y517:AD517"/>
-    <mergeCell ref="A518:F518"/>
-    <mergeCell ref="G518:L518"/>
-    <mergeCell ref="M518:R518"/>
-    <mergeCell ref="S518:X518"/>
-    <mergeCell ref="Y518:AD518"/>
-    <mergeCell ref="A547:F547"/>
-    <mergeCell ref="G547:L547"/>
-    <mergeCell ref="M547:R547"/>
-    <mergeCell ref="S547:X547"/>
-    <mergeCell ref="Y547:AD547"/>
-    <mergeCell ref="A548:F548"/>
-    <mergeCell ref="G548:L548"/>
-    <mergeCell ref="M548:R548"/>
-    <mergeCell ref="S548:X548"/>
-    <mergeCell ref="Y548:AD548"/>
-    <mergeCell ref="A562:F562"/>
-    <mergeCell ref="G562:L562"/>
-    <mergeCell ref="M562:R562"/>
-    <mergeCell ref="S562:X562"/>
-    <mergeCell ref="Y562:AD562"/>
-    <mergeCell ref="A563:F563"/>
-    <mergeCell ref="G563:L563"/>
-    <mergeCell ref="M563:R563"/>
-    <mergeCell ref="S563:X563"/>
-    <mergeCell ref="Y563:AD563"/>
-    <mergeCell ref="A577:F577"/>
-    <mergeCell ref="G577:L577"/>
-    <mergeCell ref="M577:R577"/>
-    <mergeCell ref="S577:X577"/>
-    <mergeCell ref="Y577:AD577"/>
-    <mergeCell ref="A578:F578"/>
-    <mergeCell ref="G578:L578"/>
-    <mergeCell ref="M578:R578"/>
-    <mergeCell ref="S578:X578"/>
-    <mergeCell ref="Y578:AD578"/>
-    <mergeCell ref="A607:F607"/>
-    <mergeCell ref="G607:L607"/>
-    <mergeCell ref="M607:R607"/>
-    <mergeCell ref="S607:X607"/>
-    <mergeCell ref="Y607:AD607"/>
-    <mergeCell ref="A608:F608"/>
-    <mergeCell ref="G608:L608"/>
-    <mergeCell ref="M608:R608"/>
-    <mergeCell ref="S608:X608"/>
-    <mergeCell ref="Y608:AD608"/>
-    <mergeCell ref="A622:F622"/>
-    <mergeCell ref="G622:L622"/>
-    <mergeCell ref="M622:R622"/>
-    <mergeCell ref="S622:X622"/>
-    <mergeCell ref="Y622:AD622"/>
-    <mergeCell ref="A623:F623"/>
-    <mergeCell ref="G623:L623"/>
-    <mergeCell ref="M623:R623"/>
-    <mergeCell ref="S623:X623"/>
-    <mergeCell ref="Y623:AD623"/>
-    <mergeCell ref="A637:F637"/>
-    <mergeCell ref="G637:L637"/>
-    <mergeCell ref="M637:R637"/>
-    <mergeCell ref="S637:X637"/>
-    <mergeCell ref="Y637:AD637"/>
-    <mergeCell ref="A638:F638"/>
-    <mergeCell ref="G638:L638"/>
-    <mergeCell ref="M638:R638"/>
-    <mergeCell ref="S638:X638"/>
-    <mergeCell ref="Y638:AD638"/>
-    <mergeCell ref="A652:F652"/>
-    <mergeCell ref="G652:L652"/>
-    <mergeCell ref="M652:R652"/>
-    <mergeCell ref="S652:X652"/>
-    <mergeCell ref="Y652:AD652"/>
-    <mergeCell ref="A653:F653"/>
-    <mergeCell ref="G653:L653"/>
-    <mergeCell ref="M653:R653"/>
-    <mergeCell ref="S653:X653"/>
-    <mergeCell ref="Y653:AD653"/>
-    <mergeCell ref="A667:F667"/>
-    <mergeCell ref="G667:L667"/>
-    <mergeCell ref="M667:R667"/>
-    <mergeCell ref="S667:X667"/>
-    <mergeCell ref="Y667:AD667"/>
-    <mergeCell ref="A668:F668"/>
-    <mergeCell ref="G668:L668"/>
-    <mergeCell ref="M668:R668"/>
-    <mergeCell ref="S668:X668"/>
-    <mergeCell ref="Y668:AD668"/>
-    <mergeCell ref="A682:F682"/>
-    <mergeCell ref="G682:L682"/>
-    <mergeCell ref="M682:R682"/>
-    <mergeCell ref="S682:X682"/>
-    <mergeCell ref="Y682:AD682"/>
-    <mergeCell ref="A698:F698"/>
-    <mergeCell ref="G698:L698"/>
-    <mergeCell ref="M698:R698"/>
-    <mergeCell ref="S698:X698"/>
-    <mergeCell ref="Y698:AD698"/>
-    <mergeCell ref="A697:F697"/>
-    <mergeCell ref="G697:L697"/>
-    <mergeCell ref="M697:R697"/>
-    <mergeCell ref="S697:X697"/>
-    <mergeCell ref="Y697:AD697"/>
-    <mergeCell ref="A683:F683"/>
-    <mergeCell ref="G683:L683"/>
-    <mergeCell ref="M683:R683"/>
-    <mergeCell ref="S683:X683"/>
-    <mergeCell ref="Y683:AD683"/>
-    <mergeCell ref="A712:F712"/>
-    <mergeCell ref="G712:L712"/>
-    <mergeCell ref="M712:R712"/>
-    <mergeCell ref="S712:X712"/>
-    <mergeCell ref="Y712:AD712"/>
-    <mergeCell ref="A713:F713"/>
-    <mergeCell ref="G713:L713"/>
-    <mergeCell ref="M713:R713"/>
-    <mergeCell ref="S713:X713"/>
-    <mergeCell ref="Y713:AD713"/>
-    <mergeCell ref="A727:F727"/>
-    <mergeCell ref="G727:L727"/>
-    <mergeCell ref="M727:R727"/>
-    <mergeCell ref="S727:X727"/>
-    <mergeCell ref="Y727:AD727"/>
-    <mergeCell ref="A728:F728"/>
-    <mergeCell ref="G728:L728"/>
-    <mergeCell ref="M728:R728"/>
-    <mergeCell ref="S728:X728"/>
-    <mergeCell ref="Y728:AD728"/>
-    <mergeCell ref="A742:F742"/>
-    <mergeCell ref="G742:L742"/>
-    <mergeCell ref="M742:R742"/>
-    <mergeCell ref="S742:X742"/>
-    <mergeCell ref="Y742:AD742"/>
-    <mergeCell ref="A743:F743"/>
-    <mergeCell ref="G743:L743"/>
-    <mergeCell ref="M743:R743"/>
-    <mergeCell ref="S743:X743"/>
-    <mergeCell ref="Y743:AD743"/>
-    <mergeCell ref="A757:F757"/>
-    <mergeCell ref="G757:L757"/>
-    <mergeCell ref="M757:R757"/>
-    <mergeCell ref="S757:X757"/>
-    <mergeCell ref="Y757:AD757"/>
-    <mergeCell ref="A758:F758"/>
-    <mergeCell ref="G758:L758"/>
-    <mergeCell ref="M758:R758"/>
-    <mergeCell ref="S758:X758"/>
-    <mergeCell ref="Y758:AD758"/>
-    <mergeCell ref="A772:F772"/>
-    <mergeCell ref="G772:L772"/>
-    <mergeCell ref="M772:R772"/>
-    <mergeCell ref="S772:X772"/>
-    <mergeCell ref="Y772:AD772"/>
-    <mergeCell ref="A773:F773"/>
-    <mergeCell ref="G773:L773"/>
-    <mergeCell ref="M773:R773"/>
-    <mergeCell ref="S773:X773"/>
-    <mergeCell ref="Y773:AD773"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:L124"/>
+    <mergeCell ref="M124:R124"/>
+    <mergeCell ref="S124:X124"/>
+    <mergeCell ref="Y124:AD124"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="G179:L179"/>
+    <mergeCell ref="M179:R179"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="Y179:AD179"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="G202:L202"/>
+    <mergeCell ref="M202:R202"/>
+    <mergeCell ref="S202:X202"/>
+    <mergeCell ref="Y202:AD202"/>
+    <mergeCell ref="A187:F187"/>
+    <mergeCell ref="G187:L187"/>
+    <mergeCell ref="M187:R187"/>
+    <mergeCell ref="S187:X187"/>
+    <mergeCell ref="Y187:AD187"/>
+    <mergeCell ref="A188:F188"/>
+    <mergeCell ref="G188:L188"/>
+    <mergeCell ref="M188:R188"/>
+    <mergeCell ref="S188:X188"/>
+    <mergeCell ref="Y188:AD188"/>
+    <mergeCell ref="Y307:AD307"/>
+    <mergeCell ref="A322:F322"/>
+    <mergeCell ref="G322:L322"/>
+    <mergeCell ref="M322:R322"/>
+    <mergeCell ref="S322:X322"/>
+    <mergeCell ref="Y322:AD322"/>
+    <mergeCell ref="A338:F338"/>
+    <mergeCell ref="G338:L338"/>
+    <mergeCell ref="M338:R338"/>
+    <mergeCell ref="S338:X338"/>
+    <mergeCell ref="Y338:AD338"/>
+    <mergeCell ref="A337:F337"/>
+    <mergeCell ref="G337:L337"/>
+    <mergeCell ref="M337:R337"/>
+    <mergeCell ref="S337:X337"/>
+    <mergeCell ref="Y337:AD337"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="G442:L442"/>
+    <mergeCell ref="M442:R442"/>
+    <mergeCell ref="S442:X442"/>
+    <mergeCell ref="Y442:AD442"/>
+    <mergeCell ref="A458:F458"/>
+    <mergeCell ref="G458:L458"/>
+    <mergeCell ref="M458:R458"/>
+    <mergeCell ref="S458:X458"/>
+    <mergeCell ref="Y458:AD458"/>
+    <mergeCell ref="A443:F443"/>
+    <mergeCell ref="G443:L443"/>
+    <mergeCell ref="M443:R443"/>
+    <mergeCell ref="S443:X443"/>
+    <mergeCell ref="Y443:AD443"/>
+    <mergeCell ref="A457:F457"/>
+    <mergeCell ref="G457:L457"/>
+    <mergeCell ref="M457:R457"/>
+    <mergeCell ref="S457:X457"/>
+    <mergeCell ref="Y457:AD457"/>
+    <mergeCell ref="A502:F502"/>
+    <mergeCell ref="G502:L502"/>
+    <mergeCell ref="M502:R502"/>
+    <mergeCell ref="S502:X502"/>
+    <mergeCell ref="Y502:AD502"/>
+    <mergeCell ref="A503:F503"/>
+    <mergeCell ref="G503:L503"/>
+    <mergeCell ref="M503:R503"/>
+    <mergeCell ref="S503:X503"/>
+    <mergeCell ref="Y503:AD503"/>
+    <mergeCell ref="A532:F532"/>
+    <mergeCell ref="G532:L532"/>
+    <mergeCell ref="M532:R532"/>
+    <mergeCell ref="S532:X532"/>
+    <mergeCell ref="Y532:AD532"/>
+    <mergeCell ref="A533:F533"/>
+    <mergeCell ref="G533:L533"/>
+    <mergeCell ref="M533:R533"/>
+    <mergeCell ref="S533:X533"/>
+    <mergeCell ref="Y533:AD533"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38536,10 +38543,10 @@
       <c r="A1" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="208">
+      <c r="B1" s="211">
         <v>0.51</v>
       </c>
-      <c r="C1" s="208"/>
+      <c r="C1" s="211"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -38548,10 +38555,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="208">
+      <c r="B2" s="211">
         <v>0.54</v>
       </c>
-      <c r="C2" s="208"/>
+      <c r="C2" s="211"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -38560,10 +38567,10 @@
       <c r="A3" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="208">
+      <c r="B3" s="211">
         <v>0.51</v>
       </c>
-      <c r="C3" s="208"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -38572,10 +38579,10 @@
       <c r="A4" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="208">
+      <c r="B4" s="211">
         <v>0.54</v>
       </c>
-      <c r="C4" s="208"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -38617,7 +38624,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="211">
+      <c r="E8" s="208">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -38630,7 +38637,7 @@
       <c r="B9" s="209"/>
       <c r="C9" s="209"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="211"/>
+      <c r="E9" s="208"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38670,7 +38677,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="211">
+      <c r="E13" s="208">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -38683,7 +38690,7 @@
       <c r="B14" s="209"/>
       <c r="C14" s="209"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="211"/>
+      <c r="E14" s="208"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38723,7 +38730,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="211">
+      <c r="E18" s="208">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -38736,7 +38743,7 @@
       <c r="B19" s="209"/>
       <c r="C19" s="209"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="211"/>
+      <c r="E19" s="208"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -38781,6 +38788,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -38788,12 +38801,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1703" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C3E1429-74AD-44A8-8806-7A3F9B605935}"/>
+  <xr:revisionPtr revIDLastSave="1705" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B029ACD3-E654-4737-BE75-513F0F563B68}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="0" windowWidth="27840" windowHeight="7110" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="256">
   <si>
     <t>Pillar</t>
   </si>
@@ -2535,8 +2535,8 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2544,8 +2544,8 @@
     <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2982,7 +2982,7 @@
   <dimension ref="A1:AD801"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A200" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M207" sqref="M207"/>
+      <selection activeCell="S207" sqref="S207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11700,7 +11700,9 @@
       <c r="P205" s="92"/>
       <c r="Q205" s="92"/>
       <c r="R205" s="93"/>
-      <c r="S205" s="90"/>
+      <c r="S205" s="90" t="s">
+        <v>39</v>
+      </c>
       <c r="T205" s="91"/>
       <c r="U205" s="92"/>
       <c r="V205" s="92"/>
@@ -11738,7 +11740,9 @@
       <c r="P206" s="92"/>
       <c r="Q206" s="92"/>
       <c r="R206" s="93"/>
-      <c r="S206" s="90"/>
+      <c r="S206" s="90" t="s">
+        <v>41</v>
+      </c>
       <c r="T206" s="91"/>
       <c r="U206" s="92"/>
       <c r="V206" s="92"/>
@@ -33748,206 +33752,232 @@
     </row>
   </sheetData>
   <mergeCells count="450">
-    <mergeCell ref="A772:F772"/>
-    <mergeCell ref="G772:L772"/>
-    <mergeCell ref="M772:R772"/>
-    <mergeCell ref="S772:X772"/>
-    <mergeCell ref="Y772:AD772"/>
-    <mergeCell ref="A773:F773"/>
-    <mergeCell ref="G773:L773"/>
-    <mergeCell ref="M773:R773"/>
-    <mergeCell ref="S773:X773"/>
-    <mergeCell ref="Y773:AD773"/>
-    <mergeCell ref="A757:F757"/>
-    <mergeCell ref="G757:L757"/>
-    <mergeCell ref="M757:R757"/>
-    <mergeCell ref="S757:X757"/>
-    <mergeCell ref="Y757:AD757"/>
-    <mergeCell ref="A758:F758"/>
-    <mergeCell ref="G758:L758"/>
-    <mergeCell ref="M758:R758"/>
-    <mergeCell ref="S758:X758"/>
-    <mergeCell ref="Y758:AD758"/>
-    <mergeCell ref="A742:F742"/>
-    <mergeCell ref="G742:L742"/>
-    <mergeCell ref="M742:R742"/>
-    <mergeCell ref="S742:X742"/>
-    <mergeCell ref="Y742:AD742"/>
-    <mergeCell ref="A743:F743"/>
-    <mergeCell ref="G743:L743"/>
-    <mergeCell ref="M743:R743"/>
-    <mergeCell ref="S743:X743"/>
-    <mergeCell ref="Y743:AD743"/>
-    <mergeCell ref="A727:F727"/>
-    <mergeCell ref="G727:L727"/>
-    <mergeCell ref="M727:R727"/>
-    <mergeCell ref="S727:X727"/>
-    <mergeCell ref="Y727:AD727"/>
-    <mergeCell ref="A728:F728"/>
-    <mergeCell ref="G728:L728"/>
-    <mergeCell ref="M728:R728"/>
-    <mergeCell ref="S728:X728"/>
-    <mergeCell ref="Y728:AD728"/>
-    <mergeCell ref="A712:F712"/>
-    <mergeCell ref="G712:L712"/>
-    <mergeCell ref="M712:R712"/>
-    <mergeCell ref="S712:X712"/>
-    <mergeCell ref="Y712:AD712"/>
-    <mergeCell ref="A713:F713"/>
-    <mergeCell ref="G713:L713"/>
-    <mergeCell ref="M713:R713"/>
-    <mergeCell ref="S713:X713"/>
-    <mergeCell ref="Y713:AD713"/>
-    <mergeCell ref="A682:F682"/>
-    <mergeCell ref="G682:L682"/>
-    <mergeCell ref="M682:R682"/>
-    <mergeCell ref="S682:X682"/>
-    <mergeCell ref="Y682:AD682"/>
-    <mergeCell ref="A698:F698"/>
-    <mergeCell ref="G698:L698"/>
-    <mergeCell ref="M698:R698"/>
-    <mergeCell ref="S698:X698"/>
-    <mergeCell ref="Y698:AD698"/>
-    <mergeCell ref="A697:F697"/>
-    <mergeCell ref="G697:L697"/>
-    <mergeCell ref="M697:R697"/>
-    <mergeCell ref="S697:X697"/>
-    <mergeCell ref="Y697:AD697"/>
-    <mergeCell ref="A683:F683"/>
-    <mergeCell ref="G683:L683"/>
-    <mergeCell ref="M683:R683"/>
-    <mergeCell ref="S683:X683"/>
-    <mergeCell ref="Y683:AD683"/>
-    <mergeCell ref="A667:F667"/>
-    <mergeCell ref="G667:L667"/>
-    <mergeCell ref="M667:R667"/>
-    <mergeCell ref="S667:X667"/>
-    <mergeCell ref="Y667:AD667"/>
-    <mergeCell ref="A668:F668"/>
-    <mergeCell ref="G668:L668"/>
-    <mergeCell ref="M668:R668"/>
-    <mergeCell ref="S668:X668"/>
-    <mergeCell ref="Y668:AD668"/>
-    <mergeCell ref="A652:F652"/>
-    <mergeCell ref="G652:L652"/>
-    <mergeCell ref="M652:R652"/>
-    <mergeCell ref="S652:X652"/>
-    <mergeCell ref="Y652:AD652"/>
-    <mergeCell ref="A653:F653"/>
-    <mergeCell ref="G653:L653"/>
-    <mergeCell ref="M653:R653"/>
-    <mergeCell ref="S653:X653"/>
-    <mergeCell ref="Y653:AD653"/>
-    <mergeCell ref="A637:F637"/>
-    <mergeCell ref="G637:L637"/>
-    <mergeCell ref="M637:R637"/>
-    <mergeCell ref="S637:X637"/>
-    <mergeCell ref="Y637:AD637"/>
-    <mergeCell ref="A638:F638"/>
-    <mergeCell ref="G638:L638"/>
-    <mergeCell ref="M638:R638"/>
-    <mergeCell ref="S638:X638"/>
-    <mergeCell ref="Y638:AD638"/>
-    <mergeCell ref="A622:F622"/>
-    <mergeCell ref="G622:L622"/>
-    <mergeCell ref="M622:R622"/>
-    <mergeCell ref="S622:X622"/>
-    <mergeCell ref="Y622:AD622"/>
-    <mergeCell ref="A623:F623"/>
-    <mergeCell ref="G623:L623"/>
-    <mergeCell ref="M623:R623"/>
-    <mergeCell ref="S623:X623"/>
-    <mergeCell ref="Y623:AD623"/>
-    <mergeCell ref="A607:F607"/>
-    <mergeCell ref="G607:L607"/>
-    <mergeCell ref="M607:R607"/>
-    <mergeCell ref="S607:X607"/>
-    <mergeCell ref="Y607:AD607"/>
-    <mergeCell ref="A608:F608"/>
-    <mergeCell ref="G608:L608"/>
-    <mergeCell ref="M608:R608"/>
-    <mergeCell ref="S608:X608"/>
-    <mergeCell ref="Y608:AD608"/>
-    <mergeCell ref="A577:F577"/>
-    <mergeCell ref="G577:L577"/>
-    <mergeCell ref="M577:R577"/>
-    <mergeCell ref="S577:X577"/>
-    <mergeCell ref="Y577:AD577"/>
-    <mergeCell ref="A578:F578"/>
-    <mergeCell ref="G578:L578"/>
-    <mergeCell ref="M578:R578"/>
-    <mergeCell ref="S578:X578"/>
-    <mergeCell ref="Y578:AD578"/>
-    <mergeCell ref="A562:F562"/>
-    <mergeCell ref="G562:L562"/>
-    <mergeCell ref="M562:R562"/>
-    <mergeCell ref="S562:X562"/>
-    <mergeCell ref="Y562:AD562"/>
-    <mergeCell ref="A563:F563"/>
-    <mergeCell ref="G563:L563"/>
-    <mergeCell ref="M563:R563"/>
-    <mergeCell ref="S563:X563"/>
-    <mergeCell ref="Y563:AD563"/>
-    <mergeCell ref="A547:F547"/>
-    <mergeCell ref="G547:L547"/>
-    <mergeCell ref="M547:R547"/>
-    <mergeCell ref="S547:X547"/>
-    <mergeCell ref="Y547:AD547"/>
-    <mergeCell ref="A548:F548"/>
-    <mergeCell ref="G548:L548"/>
-    <mergeCell ref="M548:R548"/>
-    <mergeCell ref="S548:X548"/>
-    <mergeCell ref="Y548:AD548"/>
-    <mergeCell ref="A517:F517"/>
-    <mergeCell ref="G517:L517"/>
-    <mergeCell ref="M517:R517"/>
-    <mergeCell ref="S517:X517"/>
-    <mergeCell ref="Y517:AD517"/>
-    <mergeCell ref="A518:F518"/>
-    <mergeCell ref="G518:L518"/>
-    <mergeCell ref="M518:R518"/>
-    <mergeCell ref="S518:X518"/>
-    <mergeCell ref="Y518:AD518"/>
-    <mergeCell ref="A427:F427"/>
-    <mergeCell ref="G427:L427"/>
-    <mergeCell ref="M427:R427"/>
-    <mergeCell ref="S427:X427"/>
-    <mergeCell ref="Y427:AD427"/>
-    <mergeCell ref="A428:F428"/>
-    <mergeCell ref="G428:L428"/>
-    <mergeCell ref="M428:R428"/>
-    <mergeCell ref="S428:X428"/>
-    <mergeCell ref="Y428:AD428"/>
-    <mergeCell ref="A382:F382"/>
-    <mergeCell ref="G382:L382"/>
-    <mergeCell ref="M382:R382"/>
-    <mergeCell ref="S382:X382"/>
-    <mergeCell ref="Y382:AD382"/>
-    <mergeCell ref="A383:F383"/>
-    <mergeCell ref="G383:L383"/>
-    <mergeCell ref="M383:R383"/>
-    <mergeCell ref="S383:X383"/>
-    <mergeCell ref="Y383:AD383"/>
-    <mergeCell ref="A367:F367"/>
-    <mergeCell ref="G367:L367"/>
-    <mergeCell ref="M367:R367"/>
-    <mergeCell ref="S367:X367"/>
-    <mergeCell ref="Y367:AD367"/>
-    <mergeCell ref="A368:F368"/>
-    <mergeCell ref="G368:L368"/>
-    <mergeCell ref="M368:R368"/>
-    <mergeCell ref="S368:X368"/>
-    <mergeCell ref="Y368:AD368"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="G352:L352"/>
-    <mergeCell ref="M352:R352"/>
-    <mergeCell ref="S352:X352"/>
-    <mergeCell ref="Y352:AD352"/>
-    <mergeCell ref="A353:F353"/>
-    <mergeCell ref="G353:L353"/>
-    <mergeCell ref="M353:R353"/>
-    <mergeCell ref="S353:X353"/>
-    <mergeCell ref="Y353:AD353"/>
+    <mergeCell ref="A532:F532"/>
+    <mergeCell ref="G532:L532"/>
+    <mergeCell ref="M532:R532"/>
+    <mergeCell ref="S532:X532"/>
+    <mergeCell ref="Y532:AD532"/>
+    <mergeCell ref="A533:F533"/>
+    <mergeCell ref="G533:L533"/>
+    <mergeCell ref="M533:R533"/>
+    <mergeCell ref="S533:X533"/>
+    <mergeCell ref="Y533:AD533"/>
+    <mergeCell ref="A502:F502"/>
+    <mergeCell ref="G502:L502"/>
+    <mergeCell ref="M502:R502"/>
+    <mergeCell ref="S502:X502"/>
+    <mergeCell ref="Y502:AD502"/>
+    <mergeCell ref="A503:F503"/>
+    <mergeCell ref="G503:L503"/>
+    <mergeCell ref="M503:R503"/>
+    <mergeCell ref="S503:X503"/>
+    <mergeCell ref="Y503:AD503"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="G442:L442"/>
+    <mergeCell ref="M442:R442"/>
+    <mergeCell ref="S442:X442"/>
+    <mergeCell ref="Y442:AD442"/>
+    <mergeCell ref="A458:F458"/>
+    <mergeCell ref="G458:L458"/>
+    <mergeCell ref="M458:R458"/>
+    <mergeCell ref="S458:X458"/>
+    <mergeCell ref="Y458:AD458"/>
+    <mergeCell ref="A443:F443"/>
+    <mergeCell ref="G443:L443"/>
+    <mergeCell ref="M443:R443"/>
+    <mergeCell ref="S443:X443"/>
+    <mergeCell ref="Y443:AD443"/>
+    <mergeCell ref="A457:F457"/>
+    <mergeCell ref="G457:L457"/>
+    <mergeCell ref="M457:R457"/>
+    <mergeCell ref="S457:X457"/>
+    <mergeCell ref="Y457:AD457"/>
+    <mergeCell ref="Y307:AD307"/>
+    <mergeCell ref="A322:F322"/>
+    <mergeCell ref="G322:L322"/>
+    <mergeCell ref="M322:R322"/>
+    <mergeCell ref="S322:X322"/>
+    <mergeCell ref="Y322:AD322"/>
+    <mergeCell ref="A338:F338"/>
+    <mergeCell ref="G338:L338"/>
+    <mergeCell ref="M338:R338"/>
+    <mergeCell ref="S338:X338"/>
+    <mergeCell ref="Y338:AD338"/>
+    <mergeCell ref="A337:F337"/>
+    <mergeCell ref="G337:L337"/>
+    <mergeCell ref="M337:R337"/>
+    <mergeCell ref="S337:X337"/>
+    <mergeCell ref="Y337:AD337"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="G202:L202"/>
+    <mergeCell ref="M202:R202"/>
+    <mergeCell ref="S202:X202"/>
+    <mergeCell ref="Y202:AD202"/>
+    <mergeCell ref="A187:F187"/>
+    <mergeCell ref="G187:L187"/>
+    <mergeCell ref="M187:R187"/>
+    <mergeCell ref="S187:X187"/>
+    <mergeCell ref="Y187:AD187"/>
+    <mergeCell ref="A188:F188"/>
+    <mergeCell ref="G188:L188"/>
+    <mergeCell ref="M188:R188"/>
+    <mergeCell ref="S188:X188"/>
+    <mergeCell ref="Y188:AD188"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:L124"/>
+    <mergeCell ref="M124:R124"/>
+    <mergeCell ref="S124:X124"/>
+    <mergeCell ref="Y124:AD124"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="G179:L179"/>
+    <mergeCell ref="M179:R179"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="Y179:AD179"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A248:F248"/>
+    <mergeCell ref="G248:L248"/>
+    <mergeCell ref="M248:R248"/>
+    <mergeCell ref="S248:X248"/>
+    <mergeCell ref="Y248:AD248"/>
+    <mergeCell ref="A203:F203"/>
+    <mergeCell ref="G203:L203"/>
+    <mergeCell ref="M203:R203"/>
+    <mergeCell ref="S203:X203"/>
+    <mergeCell ref="Y203:AD203"/>
+    <mergeCell ref="A218:F218"/>
+    <mergeCell ref="G218:L218"/>
+    <mergeCell ref="M218:R218"/>
+    <mergeCell ref="S218:X218"/>
+    <mergeCell ref="Y218:AD218"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="G217:L217"/>
+    <mergeCell ref="M217:R217"/>
+    <mergeCell ref="S217:X217"/>
+    <mergeCell ref="Y217:AD217"/>
+    <mergeCell ref="A232:F232"/>
+    <mergeCell ref="G232:L232"/>
+    <mergeCell ref="M232:R232"/>
+    <mergeCell ref="S232:X232"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="G262:L262"/>
+    <mergeCell ref="M262:R262"/>
+    <mergeCell ref="S262:X262"/>
+    <mergeCell ref="Y262:AD262"/>
+    <mergeCell ref="A263:F263"/>
+    <mergeCell ref="G263:L263"/>
+    <mergeCell ref="M263:R263"/>
+    <mergeCell ref="S263:X263"/>
+    <mergeCell ref="Y263:AD263"/>
+    <mergeCell ref="A277:F277"/>
+    <mergeCell ref="G277:L277"/>
+    <mergeCell ref="M277:R277"/>
+    <mergeCell ref="S277:X277"/>
+    <mergeCell ref="Y277:AD277"/>
+    <mergeCell ref="A278:F278"/>
+    <mergeCell ref="G278:L278"/>
+    <mergeCell ref="M278:R278"/>
+    <mergeCell ref="S278:X278"/>
+    <mergeCell ref="Y278:AD278"/>
+    <mergeCell ref="A413:F413"/>
+    <mergeCell ref="G413:L413"/>
+    <mergeCell ref="M413:R413"/>
+    <mergeCell ref="S413:X413"/>
+    <mergeCell ref="Y413:AD413"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="G397:L397"/>
+    <mergeCell ref="M397:R397"/>
+    <mergeCell ref="S397:X397"/>
+    <mergeCell ref="Y397:AD397"/>
+    <mergeCell ref="A398:F398"/>
+    <mergeCell ref="G398:L398"/>
+    <mergeCell ref="M398:R398"/>
+    <mergeCell ref="S398:X398"/>
+    <mergeCell ref="Y398:AD398"/>
+    <mergeCell ref="A412:F412"/>
+    <mergeCell ref="G412:L412"/>
+    <mergeCell ref="M412:R412"/>
+    <mergeCell ref="S412:X412"/>
+    <mergeCell ref="Y412:AD412"/>
+    <mergeCell ref="A472:F472"/>
+    <mergeCell ref="G472:L472"/>
+    <mergeCell ref="M472:R472"/>
+    <mergeCell ref="S472:X472"/>
+    <mergeCell ref="Y472:AD472"/>
+    <mergeCell ref="A473:F473"/>
+    <mergeCell ref="G473:L473"/>
+    <mergeCell ref="M473:R473"/>
+    <mergeCell ref="S473:X473"/>
+    <mergeCell ref="Y473:AD473"/>
+    <mergeCell ref="A488:F488"/>
+    <mergeCell ref="G488:L488"/>
+    <mergeCell ref="M488:R488"/>
+    <mergeCell ref="S488:X488"/>
+    <mergeCell ref="Y488:AD488"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="G487:L487"/>
+    <mergeCell ref="M487:R487"/>
+    <mergeCell ref="S487:X487"/>
+    <mergeCell ref="Y487:AD487"/>
+    <mergeCell ref="A592:F592"/>
+    <mergeCell ref="G592:L592"/>
+    <mergeCell ref="M592:R592"/>
+    <mergeCell ref="S592:X592"/>
+    <mergeCell ref="Y592:AD592"/>
+    <mergeCell ref="A593:F593"/>
+    <mergeCell ref="G593:L593"/>
+    <mergeCell ref="M593:R593"/>
+    <mergeCell ref="S593:X593"/>
+    <mergeCell ref="Y593:AD593"/>
+    <mergeCell ref="A787:F787"/>
+    <mergeCell ref="G787:L787"/>
+    <mergeCell ref="M787:R787"/>
+    <mergeCell ref="S787:X787"/>
+    <mergeCell ref="Y787:AD787"/>
+    <mergeCell ref="A788:F788"/>
+    <mergeCell ref="G788:L788"/>
+    <mergeCell ref="M788:R788"/>
+    <mergeCell ref="S788:X788"/>
+    <mergeCell ref="Y788:AD788"/>
+    <mergeCell ref="Y232:AD232"/>
+    <mergeCell ref="A233:F233"/>
+    <mergeCell ref="G233:L233"/>
+    <mergeCell ref="M233:R233"/>
+    <mergeCell ref="S233:X233"/>
+    <mergeCell ref="Y233:AD233"/>
+    <mergeCell ref="A247:F247"/>
+    <mergeCell ref="G247:L247"/>
+    <mergeCell ref="M247:R247"/>
+    <mergeCell ref="S247:X247"/>
+    <mergeCell ref="Y247:AD247"/>
     <mergeCell ref="Y292:AD292"/>
     <mergeCell ref="A308:F308"/>
     <mergeCell ref="G308:L308"/>
@@ -33972,232 +34002,206 @@
     <mergeCell ref="G307:L307"/>
     <mergeCell ref="M307:R307"/>
     <mergeCell ref="S307:X307"/>
-    <mergeCell ref="Y232:AD232"/>
-    <mergeCell ref="A233:F233"/>
-    <mergeCell ref="G233:L233"/>
-    <mergeCell ref="M233:R233"/>
-    <mergeCell ref="S233:X233"/>
-    <mergeCell ref="Y233:AD233"/>
-    <mergeCell ref="A247:F247"/>
-    <mergeCell ref="G247:L247"/>
-    <mergeCell ref="M247:R247"/>
-    <mergeCell ref="S247:X247"/>
-    <mergeCell ref="Y247:AD247"/>
-    <mergeCell ref="A787:F787"/>
-    <mergeCell ref="G787:L787"/>
-    <mergeCell ref="M787:R787"/>
-    <mergeCell ref="S787:X787"/>
-    <mergeCell ref="Y787:AD787"/>
-    <mergeCell ref="A788:F788"/>
-    <mergeCell ref="G788:L788"/>
-    <mergeCell ref="M788:R788"/>
-    <mergeCell ref="S788:X788"/>
-    <mergeCell ref="Y788:AD788"/>
-    <mergeCell ref="A592:F592"/>
-    <mergeCell ref="G592:L592"/>
-    <mergeCell ref="M592:R592"/>
-    <mergeCell ref="S592:X592"/>
-    <mergeCell ref="Y592:AD592"/>
-    <mergeCell ref="A593:F593"/>
-    <mergeCell ref="G593:L593"/>
-    <mergeCell ref="M593:R593"/>
-    <mergeCell ref="S593:X593"/>
-    <mergeCell ref="Y593:AD593"/>
-    <mergeCell ref="A488:F488"/>
-    <mergeCell ref="G488:L488"/>
-    <mergeCell ref="M488:R488"/>
-    <mergeCell ref="S488:X488"/>
-    <mergeCell ref="Y488:AD488"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="G487:L487"/>
-    <mergeCell ref="M487:R487"/>
-    <mergeCell ref="S487:X487"/>
-    <mergeCell ref="Y487:AD487"/>
-    <mergeCell ref="A472:F472"/>
-    <mergeCell ref="G472:L472"/>
-    <mergeCell ref="M472:R472"/>
-    <mergeCell ref="S472:X472"/>
-    <mergeCell ref="Y472:AD472"/>
-    <mergeCell ref="A473:F473"/>
-    <mergeCell ref="G473:L473"/>
-    <mergeCell ref="M473:R473"/>
-    <mergeCell ref="S473:X473"/>
-    <mergeCell ref="Y473:AD473"/>
-    <mergeCell ref="A413:F413"/>
-    <mergeCell ref="G413:L413"/>
-    <mergeCell ref="M413:R413"/>
-    <mergeCell ref="S413:X413"/>
-    <mergeCell ref="Y413:AD413"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="G397:L397"/>
-    <mergeCell ref="M397:R397"/>
-    <mergeCell ref="S397:X397"/>
-    <mergeCell ref="Y397:AD397"/>
-    <mergeCell ref="A398:F398"/>
-    <mergeCell ref="G398:L398"/>
-    <mergeCell ref="M398:R398"/>
-    <mergeCell ref="S398:X398"/>
-    <mergeCell ref="Y398:AD398"/>
-    <mergeCell ref="A412:F412"/>
-    <mergeCell ref="G412:L412"/>
-    <mergeCell ref="M412:R412"/>
-    <mergeCell ref="S412:X412"/>
-    <mergeCell ref="Y412:AD412"/>
-    <mergeCell ref="A277:F277"/>
-    <mergeCell ref="G277:L277"/>
-    <mergeCell ref="M277:R277"/>
-    <mergeCell ref="S277:X277"/>
-    <mergeCell ref="Y277:AD277"/>
-    <mergeCell ref="A278:F278"/>
-    <mergeCell ref="G278:L278"/>
-    <mergeCell ref="M278:R278"/>
-    <mergeCell ref="S278:X278"/>
-    <mergeCell ref="Y278:AD278"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="G262:L262"/>
-    <mergeCell ref="M262:R262"/>
-    <mergeCell ref="S262:X262"/>
-    <mergeCell ref="Y262:AD262"/>
-    <mergeCell ref="A263:F263"/>
-    <mergeCell ref="G263:L263"/>
-    <mergeCell ref="M263:R263"/>
-    <mergeCell ref="S263:X263"/>
-    <mergeCell ref="Y263:AD263"/>
-    <mergeCell ref="A248:F248"/>
-    <mergeCell ref="G248:L248"/>
-    <mergeCell ref="M248:R248"/>
-    <mergeCell ref="S248:X248"/>
-    <mergeCell ref="Y248:AD248"/>
-    <mergeCell ref="A203:F203"/>
-    <mergeCell ref="G203:L203"/>
-    <mergeCell ref="M203:R203"/>
-    <mergeCell ref="S203:X203"/>
-    <mergeCell ref="Y203:AD203"/>
-    <mergeCell ref="A218:F218"/>
-    <mergeCell ref="G218:L218"/>
-    <mergeCell ref="M218:R218"/>
-    <mergeCell ref="S218:X218"/>
-    <mergeCell ref="Y218:AD218"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="G217:L217"/>
-    <mergeCell ref="M217:R217"/>
-    <mergeCell ref="S217:X217"/>
-    <mergeCell ref="Y217:AD217"/>
-    <mergeCell ref="A232:F232"/>
-    <mergeCell ref="G232:L232"/>
-    <mergeCell ref="M232:R232"/>
-    <mergeCell ref="S232:X232"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:L124"/>
-    <mergeCell ref="M124:R124"/>
-    <mergeCell ref="S124:X124"/>
-    <mergeCell ref="Y124:AD124"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="G179:L179"/>
-    <mergeCell ref="M179:R179"/>
-    <mergeCell ref="S179:X179"/>
-    <mergeCell ref="Y179:AD179"/>
-    <mergeCell ref="A202:F202"/>
-    <mergeCell ref="G202:L202"/>
-    <mergeCell ref="M202:R202"/>
-    <mergeCell ref="S202:X202"/>
-    <mergeCell ref="Y202:AD202"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="G187:L187"/>
-    <mergeCell ref="M187:R187"/>
-    <mergeCell ref="S187:X187"/>
-    <mergeCell ref="Y187:AD187"/>
-    <mergeCell ref="A188:F188"/>
-    <mergeCell ref="G188:L188"/>
-    <mergeCell ref="M188:R188"/>
-    <mergeCell ref="S188:X188"/>
-    <mergeCell ref="Y188:AD188"/>
-    <mergeCell ref="Y307:AD307"/>
-    <mergeCell ref="A322:F322"/>
-    <mergeCell ref="G322:L322"/>
-    <mergeCell ref="M322:R322"/>
-    <mergeCell ref="S322:X322"/>
-    <mergeCell ref="Y322:AD322"/>
-    <mergeCell ref="A338:F338"/>
-    <mergeCell ref="G338:L338"/>
-    <mergeCell ref="M338:R338"/>
-    <mergeCell ref="S338:X338"/>
-    <mergeCell ref="Y338:AD338"/>
-    <mergeCell ref="A337:F337"/>
-    <mergeCell ref="G337:L337"/>
-    <mergeCell ref="M337:R337"/>
-    <mergeCell ref="S337:X337"/>
-    <mergeCell ref="Y337:AD337"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="G442:L442"/>
-    <mergeCell ref="M442:R442"/>
-    <mergeCell ref="S442:X442"/>
-    <mergeCell ref="Y442:AD442"/>
-    <mergeCell ref="A458:F458"/>
-    <mergeCell ref="G458:L458"/>
-    <mergeCell ref="M458:R458"/>
-    <mergeCell ref="S458:X458"/>
-    <mergeCell ref="Y458:AD458"/>
-    <mergeCell ref="A443:F443"/>
-    <mergeCell ref="G443:L443"/>
-    <mergeCell ref="M443:R443"/>
-    <mergeCell ref="S443:X443"/>
-    <mergeCell ref="Y443:AD443"/>
-    <mergeCell ref="A457:F457"/>
-    <mergeCell ref="G457:L457"/>
-    <mergeCell ref="M457:R457"/>
-    <mergeCell ref="S457:X457"/>
-    <mergeCell ref="Y457:AD457"/>
-    <mergeCell ref="A502:F502"/>
-    <mergeCell ref="G502:L502"/>
-    <mergeCell ref="M502:R502"/>
-    <mergeCell ref="S502:X502"/>
-    <mergeCell ref="Y502:AD502"/>
-    <mergeCell ref="A503:F503"/>
-    <mergeCell ref="G503:L503"/>
-    <mergeCell ref="M503:R503"/>
-    <mergeCell ref="S503:X503"/>
-    <mergeCell ref="Y503:AD503"/>
-    <mergeCell ref="A532:F532"/>
-    <mergeCell ref="G532:L532"/>
-    <mergeCell ref="M532:R532"/>
-    <mergeCell ref="S532:X532"/>
-    <mergeCell ref="Y532:AD532"/>
-    <mergeCell ref="A533:F533"/>
-    <mergeCell ref="G533:L533"/>
-    <mergeCell ref="M533:R533"/>
-    <mergeCell ref="S533:X533"/>
-    <mergeCell ref="Y533:AD533"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="G352:L352"/>
+    <mergeCell ref="M352:R352"/>
+    <mergeCell ref="S352:X352"/>
+    <mergeCell ref="Y352:AD352"/>
+    <mergeCell ref="A353:F353"/>
+    <mergeCell ref="G353:L353"/>
+    <mergeCell ref="M353:R353"/>
+    <mergeCell ref="S353:X353"/>
+    <mergeCell ref="Y353:AD353"/>
+    <mergeCell ref="A367:F367"/>
+    <mergeCell ref="G367:L367"/>
+    <mergeCell ref="M367:R367"/>
+    <mergeCell ref="S367:X367"/>
+    <mergeCell ref="Y367:AD367"/>
+    <mergeCell ref="A368:F368"/>
+    <mergeCell ref="G368:L368"/>
+    <mergeCell ref="M368:R368"/>
+    <mergeCell ref="S368:X368"/>
+    <mergeCell ref="Y368:AD368"/>
+    <mergeCell ref="A382:F382"/>
+    <mergeCell ref="G382:L382"/>
+    <mergeCell ref="M382:R382"/>
+    <mergeCell ref="S382:X382"/>
+    <mergeCell ref="Y382:AD382"/>
+    <mergeCell ref="A383:F383"/>
+    <mergeCell ref="G383:L383"/>
+    <mergeCell ref="M383:R383"/>
+    <mergeCell ref="S383:X383"/>
+    <mergeCell ref="Y383:AD383"/>
+    <mergeCell ref="A427:F427"/>
+    <mergeCell ref="G427:L427"/>
+    <mergeCell ref="M427:R427"/>
+    <mergeCell ref="S427:X427"/>
+    <mergeCell ref="Y427:AD427"/>
+    <mergeCell ref="A428:F428"/>
+    <mergeCell ref="G428:L428"/>
+    <mergeCell ref="M428:R428"/>
+    <mergeCell ref="S428:X428"/>
+    <mergeCell ref="Y428:AD428"/>
+    <mergeCell ref="A517:F517"/>
+    <mergeCell ref="G517:L517"/>
+    <mergeCell ref="M517:R517"/>
+    <mergeCell ref="S517:X517"/>
+    <mergeCell ref="Y517:AD517"/>
+    <mergeCell ref="A518:F518"/>
+    <mergeCell ref="G518:L518"/>
+    <mergeCell ref="M518:R518"/>
+    <mergeCell ref="S518:X518"/>
+    <mergeCell ref="Y518:AD518"/>
+    <mergeCell ref="A547:F547"/>
+    <mergeCell ref="G547:L547"/>
+    <mergeCell ref="M547:R547"/>
+    <mergeCell ref="S547:X547"/>
+    <mergeCell ref="Y547:AD547"/>
+    <mergeCell ref="A548:F548"/>
+    <mergeCell ref="G548:L548"/>
+    <mergeCell ref="M548:R548"/>
+    <mergeCell ref="S548:X548"/>
+    <mergeCell ref="Y548:AD548"/>
+    <mergeCell ref="A562:F562"/>
+    <mergeCell ref="G562:L562"/>
+    <mergeCell ref="M562:R562"/>
+    <mergeCell ref="S562:X562"/>
+    <mergeCell ref="Y562:AD562"/>
+    <mergeCell ref="A563:F563"/>
+    <mergeCell ref="G563:L563"/>
+    <mergeCell ref="M563:R563"/>
+    <mergeCell ref="S563:X563"/>
+    <mergeCell ref="Y563:AD563"/>
+    <mergeCell ref="A577:F577"/>
+    <mergeCell ref="G577:L577"/>
+    <mergeCell ref="M577:R577"/>
+    <mergeCell ref="S577:X577"/>
+    <mergeCell ref="Y577:AD577"/>
+    <mergeCell ref="A578:F578"/>
+    <mergeCell ref="G578:L578"/>
+    <mergeCell ref="M578:R578"/>
+    <mergeCell ref="S578:X578"/>
+    <mergeCell ref="Y578:AD578"/>
+    <mergeCell ref="A607:F607"/>
+    <mergeCell ref="G607:L607"/>
+    <mergeCell ref="M607:R607"/>
+    <mergeCell ref="S607:X607"/>
+    <mergeCell ref="Y607:AD607"/>
+    <mergeCell ref="A608:F608"/>
+    <mergeCell ref="G608:L608"/>
+    <mergeCell ref="M608:R608"/>
+    <mergeCell ref="S608:X608"/>
+    <mergeCell ref="Y608:AD608"/>
+    <mergeCell ref="A622:F622"/>
+    <mergeCell ref="G622:L622"/>
+    <mergeCell ref="M622:R622"/>
+    <mergeCell ref="S622:X622"/>
+    <mergeCell ref="Y622:AD622"/>
+    <mergeCell ref="A623:F623"/>
+    <mergeCell ref="G623:L623"/>
+    <mergeCell ref="M623:R623"/>
+    <mergeCell ref="S623:X623"/>
+    <mergeCell ref="Y623:AD623"/>
+    <mergeCell ref="A637:F637"/>
+    <mergeCell ref="G637:L637"/>
+    <mergeCell ref="M637:R637"/>
+    <mergeCell ref="S637:X637"/>
+    <mergeCell ref="Y637:AD637"/>
+    <mergeCell ref="A638:F638"/>
+    <mergeCell ref="G638:L638"/>
+    <mergeCell ref="M638:R638"/>
+    <mergeCell ref="S638:X638"/>
+    <mergeCell ref="Y638:AD638"/>
+    <mergeCell ref="A652:F652"/>
+    <mergeCell ref="G652:L652"/>
+    <mergeCell ref="M652:R652"/>
+    <mergeCell ref="S652:X652"/>
+    <mergeCell ref="Y652:AD652"/>
+    <mergeCell ref="A653:F653"/>
+    <mergeCell ref="G653:L653"/>
+    <mergeCell ref="M653:R653"/>
+    <mergeCell ref="S653:X653"/>
+    <mergeCell ref="Y653:AD653"/>
+    <mergeCell ref="A667:F667"/>
+    <mergeCell ref="G667:L667"/>
+    <mergeCell ref="M667:R667"/>
+    <mergeCell ref="S667:X667"/>
+    <mergeCell ref="Y667:AD667"/>
+    <mergeCell ref="A668:F668"/>
+    <mergeCell ref="G668:L668"/>
+    <mergeCell ref="M668:R668"/>
+    <mergeCell ref="S668:X668"/>
+    <mergeCell ref="Y668:AD668"/>
+    <mergeCell ref="A682:F682"/>
+    <mergeCell ref="G682:L682"/>
+    <mergeCell ref="M682:R682"/>
+    <mergeCell ref="S682:X682"/>
+    <mergeCell ref="Y682:AD682"/>
+    <mergeCell ref="A698:F698"/>
+    <mergeCell ref="G698:L698"/>
+    <mergeCell ref="M698:R698"/>
+    <mergeCell ref="S698:X698"/>
+    <mergeCell ref="Y698:AD698"/>
+    <mergeCell ref="A697:F697"/>
+    <mergeCell ref="G697:L697"/>
+    <mergeCell ref="M697:R697"/>
+    <mergeCell ref="S697:X697"/>
+    <mergeCell ref="Y697:AD697"/>
+    <mergeCell ref="A683:F683"/>
+    <mergeCell ref="G683:L683"/>
+    <mergeCell ref="M683:R683"/>
+    <mergeCell ref="S683:X683"/>
+    <mergeCell ref="Y683:AD683"/>
+    <mergeCell ref="A712:F712"/>
+    <mergeCell ref="G712:L712"/>
+    <mergeCell ref="M712:R712"/>
+    <mergeCell ref="S712:X712"/>
+    <mergeCell ref="Y712:AD712"/>
+    <mergeCell ref="A713:F713"/>
+    <mergeCell ref="G713:L713"/>
+    <mergeCell ref="M713:R713"/>
+    <mergeCell ref="S713:X713"/>
+    <mergeCell ref="Y713:AD713"/>
+    <mergeCell ref="A727:F727"/>
+    <mergeCell ref="G727:L727"/>
+    <mergeCell ref="M727:R727"/>
+    <mergeCell ref="S727:X727"/>
+    <mergeCell ref="Y727:AD727"/>
+    <mergeCell ref="A728:F728"/>
+    <mergeCell ref="G728:L728"/>
+    <mergeCell ref="M728:R728"/>
+    <mergeCell ref="S728:X728"/>
+    <mergeCell ref="Y728:AD728"/>
+    <mergeCell ref="A742:F742"/>
+    <mergeCell ref="G742:L742"/>
+    <mergeCell ref="M742:R742"/>
+    <mergeCell ref="S742:X742"/>
+    <mergeCell ref="Y742:AD742"/>
+    <mergeCell ref="A743:F743"/>
+    <mergeCell ref="G743:L743"/>
+    <mergeCell ref="M743:R743"/>
+    <mergeCell ref="S743:X743"/>
+    <mergeCell ref="Y743:AD743"/>
+    <mergeCell ref="A757:F757"/>
+    <mergeCell ref="G757:L757"/>
+    <mergeCell ref="M757:R757"/>
+    <mergeCell ref="S757:X757"/>
+    <mergeCell ref="Y757:AD757"/>
+    <mergeCell ref="A758:F758"/>
+    <mergeCell ref="G758:L758"/>
+    <mergeCell ref="M758:R758"/>
+    <mergeCell ref="S758:X758"/>
+    <mergeCell ref="Y758:AD758"/>
+    <mergeCell ref="A772:F772"/>
+    <mergeCell ref="G772:L772"/>
+    <mergeCell ref="M772:R772"/>
+    <mergeCell ref="S772:X772"/>
+    <mergeCell ref="Y772:AD772"/>
+    <mergeCell ref="A773:F773"/>
+    <mergeCell ref="G773:L773"/>
+    <mergeCell ref="M773:R773"/>
+    <mergeCell ref="S773:X773"/>
+    <mergeCell ref="Y773:AD773"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38543,10 +38547,10 @@
       <c r="A1" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="211">
+      <c r="B1" s="208">
         <v>0.51</v>
       </c>
-      <c r="C1" s="211"/>
+      <c r="C1" s="208"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -38555,10 +38559,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="211">
+      <c r="B2" s="208">
         <v>0.54</v>
       </c>
-      <c r="C2" s="211"/>
+      <c r="C2" s="208"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -38567,10 +38571,10 @@
       <c r="A3" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="211">
+      <c r="B3" s="208">
         <v>0.51</v>
       </c>
-      <c r="C3" s="211"/>
+      <c r="C3" s="208"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -38579,10 +38583,10 @@
       <c r="A4" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="211">
+      <c r="B4" s="208">
         <v>0.54</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="208"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -38624,7 +38628,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="208">
+      <c r="E8" s="211">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -38637,7 +38641,7 @@
       <c r="B9" s="209"/>
       <c r="C9" s="209"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="208"/>
+      <c r="E9" s="211"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38677,7 +38681,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="208">
+      <c r="E13" s="211">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -38690,7 +38694,7 @@
       <c r="B14" s="209"/>
       <c r="C14" s="209"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="208"/>
+      <c r="E14" s="211"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38730,7 +38734,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="208">
+      <c r="E18" s="211">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -38743,7 +38747,7 @@
       <c r="B19" s="209"/>
       <c r="C19" s="209"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="208"/>
+      <c r="E19" s="211"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -38788,12 +38792,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -38801,6 +38799,12 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1705" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B029ACD3-E654-4737-BE75-513F0F563B68}"/>
+  <xr:revisionPtr revIDLastSave="1716" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01568DF5-DA4C-4DE4-9EAB-4C74ACD7E67F}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27840" windowHeight="7110" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="930" yWindow="7185" windowWidth="27870" windowHeight="9015" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="256">
   <si>
     <t>Pillar</t>
   </si>
@@ -2535,8 +2535,8 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2544,8 +2544,8 @@
     <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2981,8 +2981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S207" sqref="S207"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I226" sqref="I226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12277,13 +12277,17 @@
       </c>
     </row>
     <row r="220" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="90"/>
+      <c r="A220" s="90" t="s">
+        <v>249</v>
+      </c>
       <c r="B220" s="91"/>
       <c r="C220" s="92"/>
       <c r="D220" s="92"/>
       <c r="E220" s="92"/>
       <c r="F220" s="93"/>
-      <c r="G220" s="90"/>
+      <c r="G220" s="90" t="s">
+        <v>44</v>
+      </c>
       <c r="H220" s="91"/>
       <c r="I220" s="92"/>
       <c r="J220" s="92"/>
@@ -12315,7 +12319,9 @@
       <c r="D221" s="92"/>
       <c r="E221" s="92"/>
       <c r="F221" s="93"/>
-      <c r="G221" s="90"/>
+      <c r="G221" s="90" t="s">
+        <v>56</v>
+      </c>
       <c r="H221" s="91"/>
       <c r="I221" s="92"/>
       <c r="J221" s="92"/>
@@ -12347,7 +12353,9 @@
       <c r="D222" s="92"/>
       <c r="E222" s="92"/>
       <c r="F222" s="93"/>
-      <c r="G222" s="90"/>
+      <c r="G222" s="90" t="s">
+        <v>23</v>
+      </c>
       <c r="H222" s="91"/>
       <c r="I222" s="92"/>
       <c r="J222" s="92"/>
@@ -12379,7 +12387,9 @@
       <c r="D223" s="92"/>
       <c r="E223" s="92"/>
       <c r="F223" s="93"/>
-      <c r="G223" s="90"/>
+      <c r="G223" s="90" t="s">
+        <v>214</v>
+      </c>
       <c r="H223" s="91"/>
       <c r="I223" s="92"/>
       <c r="J223" s="92"/>
@@ -33752,117 +33762,321 @@
     </row>
   </sheetData>
   <mergeCells count="450">
-    <mergeCell ref="A532:F532"/>
-    <mergeCell ref="G532:L532"/>
-    <mergeCell ref="M532:R532"/>
-    <mergeCell ref="S532:X532"/>
-    <mergeCell ref="Y532:AD532"/>
-    <mergeCell ref="A533:F533"/>
-    <mergeCell ref="G533:L533"/>
-    <mergeCell ref="M533:R533"/>
-    <mergeCell ref="S533:X533"/>
-    <mergeCell ref="Y533:AD533"/>
-    <mergeCell ref="A502:F502"/>
-    <mergeCell ref="G502:L502"/>
-    <mergeCell ref="M502:R502"/>
-    <mergeCell ref="S502:X502"/>
-    <mergeCell ref="Y502:AD502"/>
-    <mergeCell ref="A503:F503"/>
-    <mergeCell ref="G503:L503"/>
-    <mergeCell ref="M503:R503"/>
-    <mergeCell ref="S503:X503"/>
-    <mergeCell ref="Y503:AD503"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="G442:L442"/>
-    <mergeCell ref="M442:R442"/>
-    <mergeCell ref="S442:X442"/>
-    <mergeCell ref="Y442:AD442"/>
-    <mergeCell ref="A458:F458"/>
-    <mergeCell ref="G458:L458"/>
-    <mergeCell ref="M458:R458"/>
-    <mergeCell ref="S458:X458"/>
-    <mergeCell ref="Y458:AD458"/>
-    <mergeCell ref="A443:F443"/>
-    <mergeCell ref="G443:L443"/>
-    <mergeCell ref="M443:R443"/>
-    <mergeCell ref="S443:X443"/>
-    <mergeCell ref="Y443:AD443"/>
-    <mergeCell ref="A457:F457"/>
-    <mergeCell ref="G457:L457"/>
-    <mergeCell ref="M457:R457"/>
-    <mergeCell ref="S457:X457"/>
-    <mergeCell ref="Y457:AD457"/>
-    <mergeCell ref="Y307:AD307"/>
-    <mergeCell ref="A322:F322"/>
-    <mergeCell ref="G322:L322"/>
-    <mergeCell ref="M322:R322"/>
-    <mergeCell ref="S322:X322"/>
-    <mergeCell ref="Y322:AD322"/>
-    <mergeCell ref="A338:F338"/>
-    <mergeCell ref="G338:L338"/>
-    <mergeCell ref="M338:R338"/>
-    <mergeCell ref="S338:X338"/>
-    <mergeCell ref="Y338:AD338"/>
-    <mergeCell ref="A337:F337"/>
-    <mergeCell ref="G337:L337"/>
-    <mergeCell ref="M337:R337"/>
-    <mergeCell ref="S337:X337"/>
-    <mergeCell ref="Y337:AD337"/>
-    <mergeCell ref="A202:F202"/>
-    <mergeCell ref="G202:L202"/>
-    <mergeCell ref="M202:R202"/>
-    <mergeCell ref="S202:X202"/>
-    <mergeCell ref="Y202:AD202"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="G187:L187"/>
-    <mergeCell ref="M187:R187"/>
-    <mergeCell ref="S187:X187"/>
-    <mergeCell ref="Y187:AD187"/>
-    <mergeCell ref="A188:F188"/>
-    <mergeCell ref="G188:L188"/>
-    <mergeCell ref="M188:R188"/>
-    <mergeCell ref="S188:X188"/>
-    <mergeCell ref="Y188:AD188"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:L124"/>
-    <mergeCell ref="M124:R124"/>
-    <mergeCell ref="S124:X124"/>
-    <mergeCell ref="Y124:AD124"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="G179:L179"/>
-    <mergeCell ref="M179:R179"/>
-    <mergeCell ref="S179:X179"/>
-    <mergeCell ref="Y179:AD179"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A772:F772"/>
+    <mergeCell ref="G772:L772"/>
+    <mergeCell ref="M772:R772"/>
+    <mergeCell ref="S772:X772"/>
+    <mergeCell ref="Y772:AD772"/>
+    <mergeCell ref="A773:F773"/>
+    <mergeCell ref="G773:L773"/>
+    <mergeCell ref="M773:R773"/>
+    <mergeCell ref="S773:X773"/>
+    <mergeCell ref="Y773:AD773"/>
+    <mergeCell ref="A757:F757"/>
+    <mergeCell ref="G757:L757"/>
+    <mergeCell ref="M757:R757"/>
+    <mergeCell ref="S757:X757"/>
+    <mergeCell ref="Y757:AD757"/>
+    <mergeCell ref="A758:F758"/>
+    <mergeCell ref="G758:L758"/>
+    <mergeCell ref="M758:R758"/>
+    <mergeCell ref="S758:X758"/>
+    <mergeCell ref="Y758:AD758"/>
+    <mergeCell ref="A742:F742"/>
+    <mergeCell ref="G742:L742"/>
+    <mergeCell ref="M742:R742"/>
+    <mergeCell ref="S742:X742"/>
+    <mergeCell ref="Y742:AD742"/>
+    <mergeCell ref="A743:F743"/>
+    <mergeCell ref="G743:L743"/>
+    <mergeCell ref="M743:R743"/>
+    <mergeCell ref="S743:X743"/>
+    <mergeCell ref="Y743:AD743"/>
+    <mergeCell ref="A727:F727"/>
+    <mergeCell ref="G727:L727"/>
+    <mergeCell ref="M727:R727"/>
+    <mergeCell ref="S727:X727"/>
+    <mergeCell ref="Y727:AD727"/>
+    <mergeCell ref="A728:F728"/>
+    <mergeCell ref="G728:L728"/>
+    <mergeCell ref="M728:R728"/>
+    <mergeCell ref="S728:X728"/>
+    <mergeCell ref="Y728:AD728"/>
+    <mergeCell ref="A712:F712"/>
+    <mergeCell ref="G712:L712"/>
+    <mergeCell ref="M712:R712"/>
+    <mergeCell ref="S712:X712"/>
+    <mergeCell ref="Y712:AD712"/>
+    <mergeCell ref="A713:F713"/>
+    <mergeCell ref="G713:L713"/>
+    <mergeCell ref="M713:R713"/>
+    <mergeCell ref="S713:X713"/>
+    <mergeCell ref="Y713:AD713"/>
+    <mergeCell ref="A682:F682"/>
+    <mergeCell ref="G682:L682"/>
+    <mergeCell ref="M682:R682"/>
+    <mergeCell ref="S682:X682"/>
+    <mergeCell ref="Y682:AD682"/>
+    <mergeCell ref="A698:F698"/>
+    <mergeCell ref="G698:L698"/>
+    <mergeCell ref="M698:R698"/>
+    <mergeCell ref="S698:X698"/>
+    <mergeCell ref="Y698:AD698"/>
+    <mergeCell ref="A697:F697"/>
+    <mergeCell ref="G697:L697"/>
+    <mergeCell ref="M697:R697"/>
+    <mergeCell ref="S697:X697"/>
+    <mergeCell ref="Y697:AD697"/>
+    <mergeCell ref="A683:F683"/>
+    <mergeCell ref="G683:L683"/>
+    <mergeCell ref="M683:R683"/>
+    <mergeCell ref="S683:X683"/>
+    <mergeCell ref="Y683:AD683"/>
+    <mergeCell ref="A667:F667"/>
+    <mergeCell ref="G667:L667"/>
+    <mergeCell ref="M667:R667"/>
+    <mergeCell ref="S667:X667"/>
+    <mergeCell ref="Y667:AD667"/>
+    <mergeCell ref="A668:F668"/>
+    <mergeCell ref="G668:L668"/>
+    <mergeCell ref="M668:R668"/>
+    <mergeCell ref="S668:X668"/>
+    <mergeCell ref="Y668:AD668"/>
+    <mergeCell ref="A652:F652"/>
+    <mergeCell ref="G652:L652"/>
+    <mergeCell ref="M652:R652"/>
+    <mergeCell ref="S652:X652"/>
+    <mergeCell ref="Y652:AD652"/>
+    <mergeCell ref="A653:F653"/>
+    <mergeCell ref="G653:L653"/>
+    <mergeCell ref="M653:R653"/>
+    <mergeCell ref="S653:X653"/>
+    <mergeCell ref="Y653:AD653"/>
+    <mergeCell ref="A637:F637"/>
+    <mergeCell ref="G637:L637"/>
+    <mergeCell ref="M637:R637"/>
+    <mergeCell ref="S637:X637"/>
+    <mergeCell ref="Y637:AD637"/>
+    <mergeCell ref="A638:F638"/>
+    <mergeCell ref="G638:L638"/>
+    <mergeCell ref="M638:R638"/>
+    <mergeCell ref="S638:X638"/>
+    <mergeCell ref="Y638:AD638"/>
+    <mergeCell ref="A622:F622"/>
+    <mergeCell ref="G622:L622"/>
+    <mergeCell ref="M622:R622"/>
+    <mergeCell ref="S622:X622"/>
+    <mergeCell ref="Y622:AD622"/>
+    <mergeCell ref="A623:F623"/>
+    <mergeCell ref="G623:L623"/>
+    <mergeCell ref="M623:R623"/>
+    <mergeCell ref="S623:X623"/>
+    <mergeCell ref="Y623:AD623"/>
+    <mergeCell ref="A607:F607"/>
+    <mergeCell ref="G607:L607"/>
+    <mergeCell ref="M607:R607"/>
+    <mergeCell ref="S607:X607"/>
+    <mergeCell ref="Y607:AD607"/>
+    <mergeCell ref="A608:F608"/>
+    <mergeCell ref="G608:L608"/>
+    <mergeCell ref="M608:R608"/>
+    <mergeCell ref="S608:X608"/>
+    <mergeCell ref="Y608:AD608"/>
+    <mergeCell ref="A577:F577"/>
+    <mergeCell ref="G577:L577"/>
+    <mergeCell ref="M577:R577"/>
+    <mergeCell ref="S577:X577"/>
+    <mergeCell ref="Y577:AD577"/>
+    <mergeCell ref="A578:F578"/>
+    <mergeCell ref="G578:L578"/>
+    <mergeCell ref="M578:R578"/>
+    <mergeCell ref="S578:X578"/>
+    <mergeCell ref="Y578:AD578"/>
+    <mergeCell ref="A562:F562"/>
+    <mergeCell ref="G562:L562"/>
+    <mergeCell ref="M562:R562"/>
+    <mergeCell ref="S562:X562"/>
+    <mergeCell ref="Y562:AD562"/>
+    <mergeCell ref="A563:F563"/>
+    <mergeCell ref="G563:L563"/>
+    <mergeCell ref="M563:R563"/>
+    <mergeCell ref="S563:X563"/>
+    <mergeCell ref="Y563:AD563"/>
+    <mergeCell ref="A547:F547"/>
+    <mergeCell ref="G547:L547"/>
+    <mergeCell ref="M547:R547"/>
+    <mergeCell ref="S547:X547"/>
+    <mergeCell ref="Y547:AD547"/>
+    <mergeCell ref="A548:F548"/>
+    <mergeCell ref="G548:L548"/>
+    <mergeCell ref="M548:R548"/>
+    <mergeCell ref="S548:X548"/>
+    <mergeCell ref="Y548:AD548"/>
+    <mergeCell ref="A517:F517"/>
+    <mergeCell ref="G517:L517"/>
+    <mergeCell ref="M517:R517"/>
+    <mergeCell ref="S517:X517"/>
+    <mergeCell ref="Y517:AD517"/>
+    <mergeCell ref="A518:F518"/>
+    <mergeCell ref="G518:L518"/>
+    <mergeCell ref="M518:R518"/>
+    <mergeCell ref="S518:X518"/>
+    <mergeCell ref="Y518:AD518"/>
+    <mergeCell ref="A427:F427"/>
+    <mergeCell ref="G427:L427"/>
+    <mergeCell ref="M427:R427"/>
+    <mergeCell ref="S427:X427"/>
+    <mergeCell ref="Y427:AD427"/>
+    <mergeCell ref="A428:F428"/>
+    <mergeCell ref="G428:L428"/>
+    <mergeCell ref="M428:R428"/>
+    <mergeCell ref="S428:X428"/>
+    <mergeCell ref="Y428:AD428"/>
+    <mergeCell ref="A382:F382"/>
+    <mergeCell ref="G382:L382"/>
+    <mergeCell ref="M382:R382"/>
+    <mergeCell ref="S382:X382"/>
+    <mergeCell ref="Y382:AD382"/>
+    <mergeCell ref="A383:F383"/>
+    <mergeCell ref="G383:L383"/>
+    <mergeCell ref="M383:R383"/>
+    <mergeCell ref="S383:X383"/>
+    <mergeCell ref="Y383:AD383"/>
+    <mergeCell ref="A367:F367"/>
+    <mergeCell ref="G367:L367"/>
+    <mergeCell ref="M367:R367"/>
+    <mergeCell ref="S367:X367"/>
+    <mergeCell ref="Y367:AD367"/>
+    <mergeCell ref="A368:F368"/>
+    <mergeCell ref="G368:L368"/>
+    <mergeCell ref="M368:R368"/>
+    <mergeCell ref="S368:X368"/>
+    <mergeCell ref="Y368:AD368"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="G352:L352"/>
+    <mergeCell ref="M352:R352"/>
+    <mergeCell ref="S352:X352"/>
+    <mergeCell ref="Y352:AD352"/>
+    <mergeCell ref="A353:F353"/>
+    <mergeCell ref="G353:L353"/>
+    <mergeCell ref="M353:R353"/>
+    <mergeCell ref="S353:X353"/>
+    <mergeCell ref="Y353:AD353"/>
+    <mergeCell ref="Y292:AD292"/>
+    <mergeCell ref="A308:F308"/>
+    <mergeCell ref="G308:L308"/>
+    <mergeCell ref="M308:R308"/>
+    <mergeCell ref="S308:X308"/>
+    <mergeCell ref="Y308:AD308"/>
+    <mergeCell ref="A323:F323"/>
+    <mergeCell ref="G323:L323"/>
+    <mergeCell ref="M323:R323"/>
+    <mergeCell ref="S323:X323"/>
+    <mergeCell ref="Y323:AD323"/>
+    <mergeCell ref="A293:F293"/>
+    <mergeCell ref="G293:L293"/>
+    <mergeCell ref="M293:R293"/>
+    <mergeCell ref="S293:X293"/>
+    <mergeCell ref="Y293:AD293"/>
+    <mergeCell ref="A292:F292"/>
+    <mergeCell ref="G292:L292"/>
+    <mergeCell ref="M292:R292"/>
+    <mergeCell ref="S292:X292"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="G307:L307"/>
+    <mergeCell ref="M307:R307"/>
+    <mergeCell ref="S307:X307"/>
+    <mergeCell ref="Y232:AD232"/>
+    <mergeCell ref="A233:F233"/>
+    <mergeCell ref="G233:L233"/>
+    <mergeCell ref="M233:R233"/>
+    <mergeCell ref="S233:X233"/>
+    <mergeCell ref="Y233:AD233"/>
+    <mergeCell ref="A247:F247"/>
+    <mergeCell ref="G247:L247"/>
+    <mergeCell ref="M247:R247"/>
+    <mergeCell ref="S247:X247"/>
+    <mergeCell ref="Y247:AD247"/>
+    <mergeCell ref="A787:F787"/>
+    <mergeCell ref="G787:L787"/>
+    <mergeCell ref="M787:R787"/>
+    <mergeCell ref="S787:X787"/>
+    <mergeCell ref="Y787:AD787"/>
+    <mergeCell ref="A788:F788"/>
+    <mergeCell ref="G788:L788"/>
+    <mergeCell ref="M788:R788"/>
+    <mergeCell ref="S788:X788"/>
+    <mergeCell ref="Y788:AD788"/>
+    <mergeCell ref="A592:F592"/>
+    <mergeCell ref="G592:L592"/>
+    <mergeCell ref="M592:R592"/>
+    <mergeCell ref="S592:X592"/>
+    <mergeCell ref="Y592:AD592"/>
+    <mergeCell ref="A593:F593"/>
+    <mergeCell ref="G593:L593"/>
+    <mergeCell ref="M593:R593"/>
+    <mergeCell ref="S593:X593"/>
+    <mergeCell ref="Y593:AD593"/>
+    <mergeCell ref="A488:F488"/>
+    <mergeCell ref="G488:L488"/>
+    <mergeCell ref="M488:R488"/>
+    <mergeCell ref="S488:X488"/>
+    <mergeCell ref="Y488:AD488"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="G487:L487"/>
+    <mergeCell ref="M487:R487"/>
+    <mergeCell ref="S487:X487"/>
+    <mergeCell ref="Y487:AD487"/>
+    <mergeCell ref="A472:F472"/>
+    <mergeCell ref="G472:L472"/>
+    <mergeCell ref="M472:R472"/>
+    <mergeCell ref="S472:X472"/>
+    <mergeCell ref="Y472:AD472"/>
+    <mergeCell ref="A473:F473"/>
+    <mergeCell ref="G473:L473"/>
+    <mergeCell ref="M473:R473"/>
+    <mergeCell ref="S473:X473"/>
+    <mergeCell ref="Y473:AD473"/>
+    <mergeCell ref="A413:F413"/>
+    <mergeCell ref="G413:L413"/>
+    <mergeCell ref="M413:R413"/>
+    <mergeCell ref="S413:X413"/>
+    <mergeCell ref="Y413:AD413"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="G397:L397"/>
+    <mergeCell ref="M397:R397"/>
+    <mergeCell ref="S397:X397"/>
+    <mergeCell ref="Y397:AD397"/>
+    <mergeCell ref="A398:F398"/>
+    <mergeCell ref="G398:L398"/>
+    <mergeCell ref="M398:R398"/>
+    <mergeCell ref="S398:X398"/>
+    <mergeCell ref="Y398:AD398"/>
+    <mergeCell ref="A412:F412"/>
+    <mergeCell ref="G412:L412"/>
+    <mergeCell ref="M412:R412"/>
+    <mergeCell ref="S412:X412"/>
+    <mergeCell ref="Y412:AD412"/>
+    <mergeCell ref="A277:F277"/>
+    <mergeCell ref="G277:L277"/>
+    <mergeCell ref="M277:R277"/>
+    <mergeCell ref="S277:X277"/>
+    <mergeCell ref="Y277:AD277"/>
+    <mergeCell ref="A278:F278"/>
+    <mergeCell ref="G278:L278"/>
+    <mergeCell ref="M278:R278"/>
+    <mergeCell ref="S278:X278"/>
+    <mergeCell ref="Y278:AD278"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="G262:L262"/>
+    <mergeCell ref="M262:R262"/>
+    <mergeCell ref="S262:X262"/>
+    <mergeCell ref="Y262:AD262"/>
+    <mergeCell ref="A263:F263"/>
+    <mergeCell ref="G263:L263"/>
+    <mergeCell ref="M263:R263"/>
+    <mergeCell ref="S263:X263"/>
+    <mergeCell ref="Y263:AD263"/>
     <mergeCell ref="A248:F248"/>
     <mergeCell ref="G248:L248"/>
     <mergeCell ref="M248:R248"/>
@@ -33887,321 +34101,117 @@
     <mergeCell ref="G232:L232"/>
     <mergeCell ref="M232:R232"/>
     <mergeCell ref="S232:X232"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="G262:L262"/>
-    <mergeCell ref="M262:R262"/>
-    <mergeCell ref="S262:X262"/>
-    <mergeCell ref="Y262:AD262"/>
-    <mergeCell ref="A263:F263"/>
-    <mergeCell ref="G263:L263"/>
-    <mergeCell ref="M263:R263"/>
-    <mergeCell ref="S263:X263"/>
-    <mergeCell ref="Y263:AD263"/>
-    <mergeCell ref="A277:F277"/>
-    <mergeCell ref="G277:L277"/>
-    <mergeCell ref="M277:R277"/>
-    <mergeCell ref="S277:X277"/>
-    <mergeCell ref="Y277:AD277"/>
-    <mergeCell ref="A278:F278"/>
-    <mergeCell ref="G278:L278"/>
-    <mergeCell ref="M278:R278"/>
-    <mergeCell ref="S278:X278"/>
-    <mergeCell ref="Y278:AD278"/>
-    <mergeCell ref="A413:F413"/>
-    <mergeCell ref="G413:L413"/>
-    <mergeCell ref="M413:R413"/>
-    <mergeCell ref="S413:X413"/>
-    <mergeCell ref="Y413:AD413"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="G397:L397"/>
-    <mergeCell ref="M397:R397"/>
-    <mergeCell ref="S397:X397"/>
-    <mergeCell ref="Y397:AD397"/>
-    <mergeCell ref="A398:F398"/>
-    <mergeCell ref="G398:L398"/>
-    <mergeCell ref="M398:R398"/>
-    <mergeCell ref="S398:X398"/>
-    <mergeCell ref="Y398:AD398"/>
-    <mergeCell ref="A412:F412"/>
-    <mergeCell ref="G412:L412"/>
-    <mergeCell ref="M412:R412"/>
-    <mergeCell ref="S412:X412"/>
-    <mergeCell ref="Y412:AD412"/>
-    <mergeCell ref="A472:F472"/>
-    <mergeCell ref="G472:L472"/>
-    <mergeCell ref="M472:R472"/>
-    <mergeCell ref="S472:X472"/>
-    <mergeCell ref="Y472:AD472"/>
-    <mergeCell ref="A473:F473"/>
-    <mergeCell ref="G473:L473"/>
-    <mergeCell ref="M473:R473"/>
-    <mergeCell ref="S473:X473"/>
-    <mergeCell ref="Y473:AD473"/>
-    <mergeCell ref="A488:F488"/>
-    <mergeCell ref="G488:L488"/>
-    <mergeCell ref="M488:R488"/>
-    <mergeCell ref="S488:X488"/>
-    <mergeCell ref="Y488:AD488"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="G487:L487"/>
-    <mergeCell ref="M487:R487"/>
-    <mergeCell ref="S487:X487"/>
-    <mergeCell ref="Y487:AD487"/>
-    <mergeCell ref="A592:F592"/>
-    <mergeCell ref="G592:L592"/>
-    <mergeCell ref="M592:R592"/>
-    <mergeCell ref="S592:X592"/>
-    <mergeCell ref="Y592:AD592"/>
-    <mergeCell ref="A593:F593"/>
-    <mergeCell ref="G593:L593"/>
-    <mergeCell ref="M593:R593"/>
-    <mergeCell ref="S593:X593"/>
-    <mergeCell ref="Y593:AD593"/>
-    <mergeCell ref="A787:F787"/>
-    <mergeCell ref="G787:L787"/>
-    <mergeCell ref="M787:R787"/>
-    <mergeCell ref="S787:X787"/>
-    <mergeCell ref="Y787:AD787"/>
-    <mergeCell ref="A788:F788"/>
-    <mergeCell ref="G788:L788"/>
-    <mergeCell ref="M788:R788"/>
-    <mergeCell ref="S788:X788"/>
-    <mergeCell ref="Y788:AD788"/>
-    <mergeCell ref="Y232:AD232"/>
-    <mergeCell ref="A233:F233"/>
-    <mergeCell ref="G233:L233"/>
-    <mergeCell ref="M233:R233"/>
-    <mergeCell ref="S233:X233"/>
-    <mergeCell ref="Y233:AD233"/>
-    <mergeCell ref="A247:F247"/>
-    <mergeCell ref="G247:L247"/>
-    <mergeCell ref="M247:R247"/>
-    <mergeCell ref="S247:X247"/>
-    <mergeCell ref="Y247:AD247"/>
-    <mergeCell ref="Y292:AD292"/>
-    <mergeCell ref="A308:F308"/>
-    <mergeCell ref="G308:L308"/>
-    <mergeCell ref="M308:R308"/>
-    <mergeCell ref="S308:X308"/>
-    <mergeCell ref="Y308:AD308"/>
-    <mergeCell ref="A323:F323"/>
-    <mergeCell ref="G323:L323"/>
-    <mergeCell ref="M323:R323"/>
-    <mergeCell ref="S323:X323"/>
-    <mergeCell ref="Y323:AD323"/>
-    <mergeCell ref="A293:F293"/>
-    <mergeCell ref="G293:L293"/>
-    <mergeCell ref="M293:R293"/>
-    <mergeCell ref="S293:X293"/>
-    <mergeCell ref="Y293:AD293"/>
-    <mergeCell ref="A292:F292"/>
-    <mergeCell ref="G292:L292"/>
-    <mergeCell ref="M292:R292"/>
-    <mergeCell ref="S292:X292"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="G307:L307"/>
-    <mergeCell ref="M307:R307"/>
-    <mergeCell ref="S307:X307"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="G352:L352"/>
-    <mergeCell ref="M352:R352"/>
-    <mergeCell ref="S352:X352"/>
-    <mergeCell ref="Y352:AD352"/>
-    <mergeCell ref="A353:F353"/>
-    <mergeCell ref="G353:L353"/>
-    <mergeCell ref="M353:R353"/>
-    <mergeCell ref="S353:X353"/>
-    <mergeCell ref="Y353:AD353"/>
-    <mergeCell ref="A367:F367"/>
-    <mergeCell ref="G367:L367"/>
-    <mergeCell ref="M367:R367"/>
-    <mergeCell ref="S367:X367"/>
-    <mergeCell ref="Y367:AD367"/>
-    <mergeCell ref="A368:F368"/>
-    <mergeCell ref="G368:L368"/>
-    <mergeCell ref="M368:R368"/>
-    <mergeCell ref="S368:X368"/>
-    <mergeCell ref="Y368:AD368"/>
-    <mergeCell ref="A382:F382"/>
-    <mergeCell ref="G382:L382"/>
-    <mergeCell ref="M382:R382"/>
-    <mergeCell ref="S382:X382"/>
-    <mergeCell ref="Y382:AD382"/>
-    <mergeCell ref="A383:F383"/>
-    <mergeCell ref="G383:L383"/>
-    <mergeCell ref="M383:R383"/>
-    <mergeCell ref="S383:X383"/>
-    <mergeCell ref="Y383:AD383"/>
-    <mergeCell ref="A427:F427"/>
-    <mergeCell ref="G427:L427"/>
-    <mergeCell ref="M427:R427"/>
-    <mergeCell ref="S427:X427"/>
-    <mergeCell ref="Y427:AD427"/>
-    <mergeCell ref="A428:F428"/>
-    <mergeCell ref="G428:L428"/>
-    <mergeCell ref="M428:R428"/>
-    <mergeCell ref="S428:X428"/>
-    <mergeCell ref="Y428:AD428"/>
-    <mergeCell ref="A517:F517"/>
-    <mergeCell ref="G517:L517"/>
-    <mergeCell ref="M517:R517"/>
-    <mergeCell ref="S517:X517"/>
-    <mergeCell ref="Y517:AD517"/>
-    <mergeCell ref="A518:F518"/>
-    <mergeCell ref="G518:L518"/>
-    <mergeCell ref="M518:R518"/>
-    <mergeCell ref="S518:X518"/>
-    <mergeCell ref="Y518:AD518"/>
-    <mergeCell ref="A547:F547"/>
-    <mergeCell ref="G547:L547"/>
-    <mergeCell ref="M547:R547"/>
-    <mergeCell ref="S547:X547"/>
-    <mergeCell ref="Y547:AD547"/>
-    <mergeCell ref="A548:F548"/>
-    <mergeCell ref="G548:L548"/>
-    <mergeCell ref="M548:R548"/>
-    <mergeCell ref="S548:X548"/>
-    <mergeCell ref="Y548:AD548"/>
-    <mergeCell ref="A562:F562"/>
-    <mergeCell ref="G562:L562"/>
-    <mergeCell ref="M562:R562"/>
-    <mergeCell ref="S562:X562"/>
-    <mergeCell ref="Y562:AD562"/>
-    <mergeCell ref="A563:F563"/>
-    <mergeCell ref="G563:L563"/>
-    <mergeCell ref="M563:R563"/>
-    <mergeCell ref="S563:X563"/>
-    <mergeCell ref="Y563:AD563"/>
-    <mergeCell ref="A577:F577"/>
-    <mergeCell ref="G577:L577"/>
-    <mergeCell ref="M577:R577"/>
-    <mergeCell ref="S577:X577"/>
-    <mergeCell ref="Y577:AD577"/>
-    <mergeCell ref="A578:F578"/>
-    <mergeCell ref="G578:L578"/>
-    <mergeCell ref="M578:R578"/>
-    <mergeCell ref="S578:X578"/>
-    <mergeCell ref="Y578:AD578"/>
-    <mergeCell ref="A607:F607"/>
-    <mergeCell ref="G607:L607"/>
-    <mergeCell ref="M607:R607"/>
-    <mergeCell ref="S607:X607"/>
-    <mergeCell ref="Y607:AD607"/>
-    <mergeCell ref="A608:F608"/>
-    <mergeCell ref="G608:L608"/>
-    <mergeCell ref="M608:R608"/>
-    <mergeCell ref="S608:X608"/>
-    <mergeCell ref="Y608:AD608"/>
-    <mergeCell ref="A622:F622"/>
-    <mergeCell ref="G622:L622"/>
-    <mergeCell ref="M622:R622"/>
-    <mergeCell ref="S622:X622"/>
-    <mergeCell ref="Y622:AD622"/>
-    <mergeCell ref="A623:F623"/>
-    <mergeCell ref="G623:L623"/>
-    <mergeCell ref="M623:R623"/>
-    <mergeCell ref="S623:X623"/>
-    <mergeCell ref="Y623:AD623"/>
-    <mergeCell ref="A637:F637"/>
-    <mergeCell ref="G637:L637"/>
-    <mergeCell ref="M637:R637"/>
-    <mergeCell ref="S637:X637"/>
-    <mergeCell ref="Y637:AD637"/>
-    <mergeCell ref="A638:F638"/>
-    <mergeCell ref="G638:L638"/>
-    <mergeCell ref="M638:R638"/>
-    <mergeCell ref="S638:X638"/>
-    <mergeCell ref="Y638:AD638"/>
-    <mergeCell ref="A652:F652"/>
-    <mergeCell ref="G652:L652"/>
-    <mergeCell ref="M652:R652"/>
-    <mergeCell ref="S652:X652"/>
-    <mergeCell ref="Y652:AD652"/>
-    <mergeCell ref="A653:F653"/>
-    <mergeCell ref="G653:L653"/>
-    <mergeCell ref="M653:R653"/>
-    <mergeCell ref="S653:X653"/>
-    <mergeCell ref="Y653:AD653"/>
-    <mergeCell ref="A667:F667"/>
-    <mergeCell ref="G667:L667"/>
-    <mergeCell ref="M667:R667"/>
-    <mergeCell ref="S667:X667"/>
-    <mergeCell ref="Y667:AD667"/>
-    <mergeCell ref="A668:F668"/>
-    <mergeCell ref="G668:L668"/>
-    <mergeCell ref="M668:R668"/>
-    <mergeCell ref="S668:X668"/>
-    <mergeCell ref="Y668:AD668"/>
-    <mergeCell ref="A682:F682"/>
-    <mergeCell ref="G682:L682"/>
-    <mergeCell ref="M682:R682"/>
-    <mergeCell ref="S682:X682"/>
-    <mergeCell ref="Y682:AD682"/>
-    <mergeCell ref="A698:F698"/>
-    <mergeCell ref="G698:L698"/>
-    <mergeCell ref="M698:R698"/>
-    <mergeCell ref="S698:X698"/>
-    <mergeCell ref="Y698:AD698"/>
-    <mergeCell ref="A697:F697"/>
-    <mergeCell ref="G697:L697"/>
-    <mergeCell ref="M697:R697"/>
-    <mergeCell ref="S697:X697"/>
-    <mergeCell ref="Y697:AD697"/>
-    <mergeCell ref="A683:F683"/>
-    <mergeCell ref="G683:L683"/>
-    <mergeCell ref="M683:R683"/>
-    <mergeCell ref="S683:X683"/>
-    <mergeCell ref="Y683:AD683"/>
-    <mergeCell ref="A712:F712"/>
-    <mergeCell ref="G712:L712"/>
-    <mergeCell ref="M712:R712"/>
-    <mergeCell ref="S712:X712"/>
-    <mergeCell ref="Y712:AD712"/>
-    <mergeCell ref="A713:F713"/>
-    <mergeCell ref="G713:L713"/>
-    <mergeCell ref="M713:R713"/>
-    <mergeCell ref="S713:X713"/>
-    <mergeCell ref="Y713:AD713"/>
-    <mergeCell ref="A727:F727"/>
-    <mergeCell ref="G727:L727"/>
-    <mergeCell ref="M727:R727"/>
-    <mergeCell ref="S727:X727"/>
-    <mergeCell ref="Y727:AD727"/>
-    <mergeCell ref="A728:F728"/>
-    <mergeCell ref="G728:L728"/>
-    <mergeCell ref="M728:R728"/>
-    <mergeCell ref="S728:X728"/>
-    <mergeCell ref="Y728:AD728"/>
-    <mergeCell ref="A742:F742"/>
-    <mergeCell ref="G742:L742"/>
-    <mergeCell ref="M742:R742"/>
-    <mergeCell ref="S742:X742"/>
-    <mergeCell ref="Y742:AD742"/>
-    <mergeCell ref="A743:F743"/>
-    <mergeCell ref="G743:L743"/>
-    <mergeCell ref="M743:R743"/>
-    <mergeCell ref="S743:X743"/>
-    <mergeCell ref="Y743:AD743"/>
-    <mergeCell ref="A757:F757"/>
-    <mergeCell ref="G757:L757"/>
-    <mergeCell ref="M757:R757"/>
-    <mergeCell ref="S757:X757"/>
-    <mergeCell ref="Y757:AD757"/>
-    <mergeCell ref="A758:F758"/>
-    <mergeCell ref="G758:L758"/>
-    <mergeCell ref="M758:R758"/>
-    <mergeCell ref="S758:X758"/>
-    <mergeCell ref="Y758:AD758"/>
-    <mergeCell ref="A772:F772"/>
-    <mergeCell ref="G772:L772"/>
-    <mergeCell ref="M772:R772"/>
-    <mergeCell ref="S772:X772"/>
-    <mergeCell ref="Y772:AD772"/>
-    <mergeCell ref="A773:F773"/>
-    <mergeCell ref="G773:L773"/>
-    <mergeCell ref="M773:R773"/>
-    <mergeCell ref="S773:X773"/>
-    <mergeCell ref="Y773:AD773"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:L124"/>
+    <mergeCell ref="M124:R124"/>
+    <mergeCell ref="S124:X124"/>
+    <mergeCell ref="Y124:AD124"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="G179:L179"/>
+    <mergeCell ref="M179:R179"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="Y179:AD179"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="G202:L202"/>
+    <mergeCell ref="M202:R202"/>
+    <mergeCell ref="S202:X202"/>
+    <mergeCell ref="Y202:AD202"/>
+    <mergeCell ref="A187:F187"/>
+    <mergeCell ref="G187:L187"/>
+    <mergeCell ref="M187:R187"/>
+    <mergeCell ref="S187:X187"/>
+    <mergeCell ref="Y187:AD187"/>
+    <mergeCell ref="A188:F188"/>
+    <mergeCell ref="G188:L188"/>
+    <mergeCell ref="M188:R188"/>
+    <mergeCell ref="S188:X188"/>
+    <mergeCell ref="Y188:AD188"/>
+    <mergeCell ref="Y307:AD307"/>
+    <mergeCell ref="A322:F322"/>
+    <mergeCell ref="G322:L322"/>
+    <mergeCell ref="M322:R322"/>
+    <mergeCell ref="S322:X322"/>
+    <mergeCell ref="Y322:AD322"/>
+    <mergeCell ref="A338:F338"/>
+    <mergeCell ref="G338:L338"/>
+    <mergeCell ref="M338:R338"/>
+    <mergeCell ref="S338:X338"/>
+    <mergeCell ref="Y338:AD338"/>
+    <mergeCell ref="A337:F337"/>
+    <mergeCell ref="G337:L337"/>
+    <mergeCell ref="M337:R337"/>
+    <mergeCell ref="S337:X337"/>
+    <mergeCell ref="Y337:AD337"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="G442:L442"/>
+    <mergeCell ref="M442:R442"/>
+    <mergeCell ref="S442:X442"/>
+    <mergeCell ref="Y442:AD442"/>
+    <mergeCell ref="A458:F458"/>
+    <mergeCell ref="G458:L458"/>
+    <mergeCell ref="M458:R458"/>
+    <mergeCell ref="S458:X458"/>
+    <mergeCell ref="Y458:AD458"/>
+    <mergeCell ref="A443:F443"/>
+    <mergeCell ref="G443:L443"/>
+    <mergeCell ref="M443:R443"/>
+    <mergeCell ref="S443:X443"/>
+    <mergeCell ref="Y443:AD443"/>
+    <mergeCell ref="A457:F457"/>
+    <mergeCell ref="G457:L457"/>
+    <mergeCell ref="M457:R457"/>
+    <mergeCell ref="S457:X457"/>
+    <mergeCell ref="Y457:AD457"/>
+    <mergeCell ref="A502:F502"/>
+    <mergeCell ref="G502:L502"/>
+    <mergeCell ref="M502:R502"/>
+    <mergeCell ref="S502:X502"/>
+    <mergeCell ref="Y502:AD502"/>
+    <mergeCell ref="A503:F503"/>
+    <mergeCell ref="G503:L503"/>
+    <mergeCell ref="M503:R503"/>
+    <mergeCell ref="S503:X503"/>
+    <mergeCell ref="Y503:AD503"/>
+    <mergeCell ref="A532:F532"/>
+    <mergeCell ref="G532:L532"/>
+    <mergeCell ref="M532:R532"/>
+    <mergeCell ref="S532:X532"/>
+    <mergeCell ref="Y532:AD532"/>
+    <mergeCell ref="A533:F533"/>
+    <mergeCell ref="G533:L533"/>
+    <mergeCell ref="M533:R533"/>
+    <mergeCell ref="S533:X533"/>
+    <mergeCell ref="Y533:AD533"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38547,10 +38557,10 @@
       <c r="A1" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="208">
+      <c r="B1" s="211">
         <v>0.51</v>
       </c>
-      <c r="C1" s="208"/>
+      <c r="C1" s="211"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -38559,10 +38569,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="208">
+      <c r="B2" s="211">
         <v>0.54</v>
       </c>
-      <c r="C2" s="208"/>
+      <c r="C2" s="211"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -38571,10 +38581,10 @@
       <c r="A3" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="208">
+      <c r="B3" s="211">
         <v>0.51</v>
       </c>
-      <c r="C3" s="208"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -38583,10 +38593,10 @@
       <c r="A4" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="208">
+      <c r="B4" s="211">
         <v>0.54</v>
       </c>
-      <c r="C4" s="208"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -38628,7 +38638,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="211">
+      <c r="E8" s="208">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -38641,7 +38651,7 @@
       <c r="B9" s="209"/>
       <c r="C9" s="209"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="211"/>
+      <c r="E9" s="208"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38681,7 +38691,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="211">
+      <c r="E13" s="208">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -38694,7 +38704,7 @@
       <c r="B14" s="209"/>
       <c r="C14" s="209"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="211"/>
+      <c r="E14" s="208"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38734,7 +38744,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="211">
+      <c r="E18" s="208">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -38747,7 +38757,7 @@
       <c r="B19" s="209"/>
       <c r="C19" s="209"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="211"/>
+      <c r="E19" s="208"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -38792,6 +38802,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -38799,12 +38815,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimke\OneDrive\Documents\investment and trading\stocks and equity\sandbox\WealthAndFreedom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1716" documentId="13_ncr:1_{EBFAD385-6486-443D-BE50-FB30E4EF1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01568DF5-DA4C-4DE4-9EAB-4C74ACD7E67F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CFFBBF-52E6-4436-8473-94FF08640871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="7185" windowWidth="27870" windowHeight="9015" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="-11475" yWindow="16065" windowWidth="27870" windowHeight="10710" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="262">
   <si>
     <t>Pillar</t>
   </si>
@@ -805,6 +805,24 @@
   </si>
   <si>
     <t>GENP</t>
+  </si>
+  <si>
+    <t>LCTITAN</t>
+  </si>
+  <si>
+    <t>LUXCHEM</t>
+  </si>
+  <si>
+    <t>CAREPLS</t>
+  </si>
+  <si>
+    <t>PNEPCB</t>
+  </si>
+  <si>
+    <t>SERNKOU</t>
+  </si>
+  <si>
+    <t>AWC</t>
   </si>
 </sst>
 </file>
@@ -2535,8 +2553,8 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2544,8 +2562,8 @@
     <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2981,8 +2999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I226" sqref="I226"/>
+    <sheetView tabSelected="1" topLeftCell="I214" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S220" sqref="S220:S229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12293,13 +12311,17 @@
       <c r="J220" s="92"/>
       <c r="K220" s="92"/>
       <c r="L220" s="93"/>
-      <c r="M220" s="90"/>
+      <c r="M220" s="90" t="s">
+        <v>259</v>
+      </c>
       <c r="N220" s="91"/>
       <c r="O220" s="92"/>
       <c r="P220" s="92"/>
       <c r="Q220" s="92"/>
       <c r="R220" s="93"/>
-      <c r="S220" s="90"/>
+      <c r="S220" s="90" t="s">
+        <v>256</v>
+      </c>
       <c r="T220" s="91"/>
       <c r="U220" s="92"/>
       <c r="V220" s="92"/>
@@ -12327,13 +12349,17 @@
       <c r="J221" s="92"/>
       <c r="K221" s="92"/>
       <c r="L221" s="93"/>
-      <c r="M221" s="90"/>
+      <c r="M221" s="90" t="s">
+        <v>260</v>
+      </c>
       <c r="N221" s="91"/>
       <c r="O221" s="92"/>
       <c r="P221" s="92"/>
       <c r="Q221" s="92"/>
       <c r="R221" s="93"/>
-      <c r="S221" s="90"/>
+      <c r="S221" s="90" t="s">
+        <v>28</v>
+      </c>
       <c r="T221" s="91"/>
       <c r="U221" s="92"/>
       <c r="V221" s="92"/>
@@ -12361,13 +12387,17 @@
       <c r="J222" s="92"/>
       <c r="K222" s="92"/>
       <c r="L222" s="93"/>
-      <c r="M222" s="90"/>
+      <c r="M222" s="90" t="s">
+        <v>261</v>
+      </c>
       <c r="N222" s="91"/>
       <c r="O222" s="92"/>
       <c r="P222" s="92"/>
       <c r="Q222" s="92"/>
       <c r="R222" s="93"/>
-      <c r="S222" s="90"/>
+      <c r="S222" s="90" t="s">
+        <v>156</v>
+      </c>
       <c r="T222" s="91"/>
       <c r="U222" s="92"/>
       <c r="V222" s="92"/>
@@ -12401,7 +12431,9 @@
       <c r="P223" s="92"/>
       <c r="Q223" s="92"/>
       <c r="R223" s="93"/>
-      <c r="S223" s="90"/>
+      <c r="S223" s="90" t="s">
+        <v>257</v>
+      </c>
       <c r="T223" s="91"/>
       <c r="U223" s="92"/>
       <c r="V223" s="92"/>
@@ -12433,7 +12465,9 @@
       <c r="P224" s="92"/>
       <c r="Q224" s="92"/>
       <c r="R224" s="93"/>
-      <c r="S224" s="90"/>
+      <c r="S224" s="90" t="s">
+        <v>236</v>
+      </c>
       <c r="T224" s="91"/>
       <c r="U224" s="92"/>
       <c r="V224" s="92"/>
@@ -12465,7 +12499,9 @@
       <c r="P225" s="92"/>
       <c r="Q225" s="92"/>
       <c r="R225" s="93"/>
-      <c r="S225" s="90"/>
+      <c r="S225" s="90" t="s">
+        <v>252</v>
+      </c>
       <c r="T225" s="91"/>
       <c r="U225" s="92"/>
       <c r="V225" s="92"/>
@@ -12497,7 +12533,9 @@
       <c r="P226" s="92"/>
       <c r="Q226" s="92"/>
       <c r="R226" s="93"/>
-      <c r="S226" s="90"/>
+      <c r="S226" s="90" t="s">
+        <v>159</v>
+      </c>
       <c r="T226" s="91"/>
       <c r="U226" s="92"/>
       <c r="V226" s="92"/>
@@ -12529,7 +12567,9 @@
       <c r="P227" s="92"/>
       <c r="Q227" s="92"/>
       <c r="R227" s="93"/>
-      <c r="S227" s="90"/>
+      <c r="S227" s="90" t="s">
+        <v>258</v>
+      </c>
       <c r="T227" s="91"/>
       <c r="U227" s="92"/>
       <c r="V227" s="92"/>
@@ -12561,7 +12601,9 @@
       <c r="P228" s="92"/>
       <c r="Q228" s="92"/>
       <c r="R228" s="93"/>
-      <c r="S228" s="90"/>
+      <c r="S228" s="90" t="s">
+        <v>33</v>
+      </c>
       <c r="T228" s="91"/>
       <c r="U228" s="92"/>
       <c r="V228" s="92"/>
@@ -12593,7 +12635,9 @@
       <c r="P229" s="92"/>
       <c r="Q229" s="92"/>
       <c r="R229" s="93"/>
-      <c r="S229" s="90"/>
+      <c r="S229" s="90" t="s">
+        <v>249</v>
+      </c>
       <c r="T229" s="91"/>
       <c r="U229" s="92"/>
       <c r="V229" s="92"/>
@@ -33762,206 +33806,232 @@
     </row>
   </sheetData>
   <mergeCells count="450">
-    <mergeCell ref="A772:F772"/>
-    <mergeCell ref="G772:L772"/>
-    <mergeCell ref="M772:R772"/>
-    <mergeCell ref="S772:X772"/>
-    <mergeCell ref="Y772:AD772"/>
-    <mergeCell ref="A773:F773"/>
-    <mergeCell ref="G773:L773"/>
-    <mergeCell ref="M773:R773"/>
-    <mergeCell ref="S773:X773"/>
-    <mergeCell ref="Y773:AD773"/>
-    <mergeCell ref="A757:F757"/>
-    <mergeCell ref="G757:L757"/>
-    <mergeCell ref="M757:R757"/>
-    <mergeCell ref="S757:X757"/>
-    <mergeCell ref="Y757:AD757"/>
-    <mergeCell ref="A758:F758"/>
-    <mergeCell ref="G758:L758"/>
-    <mergeCell ref="M758:R758"/>
-    <mergeCell ref="S758:X758"/>
-    <mergeCell ref="Y758:AD758"/>
-    <mergeCell ref="A742:F742"/>
-    <mergeCell ref="G742:L742"/>
-    <mergeCell ref="M742:R742"/>
-    <mergeCell ref="S742:X742"/>
-    <mergeCell ref="Y742:AD742"/>
-    <mergeCell ref="A743:F743"/>
-    <mergeCell ref="G743:L743"/>
-    <mergeCell ref="M743:R743"/>
-    <mergeCell ref="S743:X743"/>
-    <mergeCell ref="Y743:AD743"/>
-    <mergeCell ref="A727:F727"/>
-    <mergeCell ref="G727:L727"/>
-    <mergeCell ref="M727:R727"/>
-    <mergeCell ref="S727:X727"/>
-    <mergeCell ref="Y727:AD727"/>
-    <mergeCell ref="A728:F728"/>
-    <mergeCell ref="G728:L728"/>
-    <mergeCell ref="M728:R728"/>
-    <mergeCell ref="S728:X728"/>
-    <mergeCell ref="Y728:AD728"/>
-    <mergeCell ref="A712:F712"/>
-    <mergeCell ref="G712:L712"/>
-    <mergeCell ref="M712:R712"/>
-    <mergeCell ref="S712:X712"/>
-    <mergeCell ref="Y712:AD712"/>
-    <mergeCell ref="A713:F713"/>
-    <mergeCell ref="G713:L713"/>
-    <mergeCell ref="M713:R713"/>
-    <mergeCell ref="S713:X713"/>
-    <mergeCell ref="Y713:AD713"/>
-    <mergeCell ref="A682:F682"/>
-    <mergeCell ref="G682:L682"/>
-    <mergeCell ref="M682:R682"/>
-    <mergeCell ref="S682:X682"/>
-    <mergeCell ref="Y682:AD682"/>
-    <mergeCell ref="A698:F698"/>
-    <mergeCell ref="G698:L698"/>
-    <mergeCell ref="M698:R698"/>
-    <mergeCell ref="S698:X698"/>
-    <mergeCell ref="Y698:AD698"/>
-    <mergeCell ref="A697:F697"/>
-    <mergeCell ref="G697:L697"/>
-    <mergeCell ref="M697:R697"/>
-    <mergeCell ref="S697:X697"/>
-    <mergeCell ref="Y697:AD697"/>
-    <mergeCell ref="A683:F683"/>
-    <mergeCell ref="G683:L683"/>
-    <mergeCell ref="M683:R683"/>
-    <mergeCell ref="S683:X683"/>
-    <mergeCell ref="Y683:AD683"/>
-    <mergeCell ref="A667:F667"/>
-    <mergeCell ref="G667:L667"/>
-    <mergeCell ref="M667:R667"/>
-    <mergeCell ref="S667:X667"/>
-    <mergeCell ref="Y667:AD667"/>
-    <mergeCell ref="A668:F668"/>
-    <mergeCell ref="G668:L668"/>
-    <mergeCell ref="M668:R668"/>
-    <mergeCell ref="S668:X668"/>
-    <mergeCell ref="Y668:AD668"/>
-    <mergeCell ref="A652:F652"/>
-    <mergeCell ref="G652:L652"/>
-    <mergeCell ref="M652:R652"/>
-    <mergeCell ref="S652:X652"/>
-    <mergeCell ref="Y652:AD652"/>
-    <mergeCell ref="A653:F653"/>
-    <mergeCell ref="G653:L653"/>
-    <mergeCell ref="M653:R653"/>
-    <mergeCell ref="S653:X653"/>
-    <mergeCell ref="Y653:AD653"/>
-    <mergeCell ref="A637:F637"/>
-    <mergeCell ref="G637:L637"/>
-    <mergeCell ref="M637:R637"/>
-    <mergeCell ref="S637:X637"/>
-    <mergeCell ref="Y637:AD637"/>
-    <mergeCell ref="A638:F638"/>
-    <mergeCell ref="G638:L638"/>
-    <mergeCell ref="M638:R638"/>
-    <mergeCell ref="S638:X638"/>
-    <mergeCell ref="Y638:AD638"/>
-    <mergeCell ref="A622:F622"/>
-    <mergeCell ref="G622:L622"/>
-    <mergeCell ref="M622:R622"/>
-    <mergeCell ref="S622:X622"/>
-    <mergeCell ref="Y622:AD622"/>
-    <mergeCell ref="A623:F623"/>
-    <mergeCell ref="G623:L623"/>
-    <mergeCell ref="M623:R623"/>
-    <mergeCell ref="S623:X623"/>
-    <mergeCell ref="Y623:AD623"/>
-    <mergeCell ref="A607:F607"/>
-    <mergeCell ref="G607:L607"/>
-    <mergeCell ref="M607:R607"/>
-    <mergeCell ref="S607:X607"/>
-    <mergeCell ref="Y607:AD607"/>
-    <mergeCell ref="A608:F608"/>
-    <mergeCell ref="G608:L608"/>
-    <mergeCell ref="M608:R608"/>
-    <mergeCell ref="S608:X608"/>
-    <mergeCell ref="Y608:AD608"/>
-    <mergeCell ref="A577:F577"/>
-    <mergeCell ref="G577:L577"/>
-    <mergeCell ref="M577:R577"/>
-    <mergeCell ref="S577:X577"/>
-    <mergeCell ref="Y577:AD577"/>
-    <mergeCell ref="A578:F578"/>
-    <mergeCell ref="G578:L578"/>
-    <mergeCell ref="M578:R578"/>
-    <mergeCell ref="S578:X578"/>
-    <mergeCell ref="Y578:AD578"/>
-    <mergeCell ref="A562:F562"/>
-    <mergeCell ref="G562:L562"/>
-    <mergeCell ref="M562:R562"/>
-    <mergeCell ref="S562:X562"/>
-    <mergeCell ref="Y562:AD562"/>
-    <mergeCell ref="A563:F563"/>
-    <mergeCell ref="G563:L563"/>
-    <mergeCell ref="M563:R563"/>
-    <mergeCell ref="S563:X563"/>
-    <mergeCell ref="Y563:AD563"/>
-    <mergeCell ref="A547:F547"/>
-    <mergeCell ref="G547:L547"/>
-    <mergeCell ref="M547:R547"/>
-    <mergeCell ref="S547:X547"/>
-    <mergeCell ref="Y547:AD547"/>
-    <mergeCell ref="A548:F548"/>
-    <mergeCell ref="G548:L548"/>
-    <mergeCell ref="M548:R548"/>
-    <mergeCell ref="S548:X548"/>
-    <mergeCell ref="Y548:AD548"/>
-    <mergeCell ref="A517:F517"/>
-    <mergeCell ref="G517:L517"/>
-    <mergeCell ref="M517:R517"/>
-    <mergeCell ref="S517:X517"/>
-    <mergeCell ref="Y517:AD517"/>
-    <mergeCell ref="A518:F518"/>
-    <mergeCell ref="G518:L518"/>
-    <mergeCell ref="M518:R518"/>
-    <mergeCell ref="S518:X518"/>
-    <mergeCell ref="Y518:AD518"/>
-    <mergeCell ref="A427:F427"/>
-    <mergeCell ref="G427:L427"/>
-    <mergeCell ref="M427:R427"/>
-    <mergeCell ref="S427:X427"/>
-    <mergeCell ref="Y427:AD427"/>
-    <mergeCell ref="A428:F428"/>
-    <mergeCell ref="G428:L428"/>
-    <mergeCell ref="M428:R428"/>
-    <mergeCell ref="S428:X428"/>
-    <mergeCell ref="Y428:AD428"/>
-    <mergeCell ref="A382:F382"/>
-    <mergeCell ref="G382:L382"/>
-    <mergeCell ref="M382:R382"/>
-    <mergeCell ref="S382:X382"/>
-    <mergeCell ref="Y382:AD382"/>
-    <mergeCell ref="A383:F383"/>
-    <mergeCell ref="G383:L383"/>
-    <mergeCell ref="M383:R383"/>
-    <mergeCell ref="S383:X383"/>
-    <mergeCell ref="Y383:AD383"/>
-    <mergeCell ref="A367:F367"/>
-    <mergeCell ref="G367:L367"/>
-    <mergeCell ref="M367:R367"/>
-    <mergeCell ref="S367:X367"/>
-    <mergeCell ref="Y367:AD367"/>
-    <mergeCell ref="A368:F368"/>
-    <mergeCell ref="G368:L368"/>
-    <mergeCell ref="M368:R368"/>
-    <mergeCell ref="S368:X368"/>
-    <mergeCell ref="Y368:AD368"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="G352:L352"/>
-    <mergeCell ref="M352:R352"/>
-    <mergeCell ref="S352:X352"/>
-    <mergeCell ref="Y352:AD352"/>
-    <mergeCell ref="A353:F353"/>
-    <mergeCell ref="G353:L353"/>
-    <mergeCell ref="M353:R353"/>
-    <mergeCell ref="S353:X353"/>
-    <mergeCell ref="Y353:AD353"/>
+    <mergeCell ref="A532:F532"/>
+    <mergeCell ref="G532:L532"/>
+    <mergeCell ref="M532:R532"/>
+    <mergeCell ref="S532:X532"/>
+    <mergeCell ref="Y532:AD532"/>
+    <mergeCell ref="A533:F533"/>
+    <mergeCell ref="G533:L533"/>
+    <mergeCell ref="M533:R533"/>
+    <mergeCell ref="S533:X533"/>
+    <mergeCell ref="Y533:AD533"/>
+    <mergeCell ref="A502:F502"/>
+    <mergeCell ref="G502:L502"/>
+    <mergeCell ref="M502:R502"/>
+    <mergeCell ref="S502:X502"/>
+    <mergeCell ref="Y502:AD502"/>
+    <mergeCell ref="A503:F503"/>
+    <mergeCell ref="G503:L503"/>
+    <mergeCell ref="M503:R503"/>
+    <mergeCell ref="S503:X503"/>
+    <mergeCell ref="Y503:AD503"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="G442:L442"/>
+    <mergeCell ref="M442:R442"/>
+    <mergeCell ref="S442:X442"/>
+    <mergeCell ref="Y442:AD442"/>
+    <mergeCell ref="A458:F458"/>
+    <mergeCell ref="G458:L458"/>
+    <mergeCell ref="M458:R458"/>
+    <mergeCell ref="S458:X458"/>
+    <mergeCell ref="Y458:AD458"/>
+    <mergeCell ref="A443:F443"/>
+    <mergeCell ref="G443:L443"/>
+    <mergeCell ref="M443:R443"/>
+    <mergeCell ref="S443:X443"/>
+    <mergeCell ref="Y443:AD443"/>
+    <mergeCell ref="A457:F457"/>
+    <mergeCell ref="G457:L457"/>
+    <mergeCell ref="M457:R457"/>
+    <mergeCell ref="S457:X457"/>
+    <mergeCell ref="Y457:AD457"/>
+    <mergeCell ref="Y307:AD307"/>
+    <mergeCell ref="A322:F322"/>
+    <mergeCell ref="G322:L322"/>
+    <mergeCell ref="M322:R322"/>
+    <mergeCell ref="S322:X322"/>
+    <mergeCell ref="Y322:AD322"/>
+    <mergeCell ref="A338:F338"/>
+    <mergeCell ref="G338:L338"/>
+    <mergeCell ref="M338:R338"/>
+    <mergeCell ref="S338:X338"/>
+    <mergeCell ref="Y338:AD338"/>
+    <mergeCell ref="A337:F337"/>
+    <mergeCell ref="G337:L337"/>
+    <mergeCell ref="M337:R337"/>
+    <mergeCell ref="S337:X337"/>
+    <mergeCell ref="Y337:AD337"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="G202:L202"/>
+    <mergeCell ref="M202:R202"/>
+    <mergeCell ref="S202:X202"/>
+    <mergeCell ref="Y202:AD202"/>
+    <mergeCell ref="A187:F187"/>
+    <mergeCell ref="G187:L187"/>
+    <mergeCell ref="M187:R187"/>
+    <mergeCell ref="S187:X187"/>
+    <mergeCell ref="Y187:AD187"/>
+    <mergeCell ref="A188:F188"/>
+    <mergeCell ref="G188:L188"/>
+    <mergeCell ref="M188:R188"/>
+    <mergeCell ref="S188:X188"/>
+    <mergeCell ref="Y188:AD188"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:L124"/>
+    <mergeCell ref="M124:R124"/>
+    <mergeCell ref="S124:X124"/>
+    <mergeCell ref="Y124:AD124"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="G179:L179"/>
+    <mergeCell ref="M179:R179"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="Y179:AD179"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A248:F248"/>
+    <mergeCell ref="G248:L248"/>
+    <mergeCell ref="M248:R248"/>
+    <mergeCell ref="S248:X248"/>
+    <mergeCell ref="Y248:AD248"/>
+    <mergeCell ref="A203:F203"/>
+    <mergeCell ref="G203:L203"/>
+    <mergeCell ref="M203:R203"/>
+    <mergeCell ref="S203:X203"/>
+    <mergeCell ref="Y203:AD203"/>
+    <mergeCell ref="A218:F218"/>
+    <mergeCell ref="G218:L218"/>
+    <mergeCell ref="M218:R218"/>
+    <mergeCell ref="S218:X218"/>
+    <mergeCell ref="Y218:AD218"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="G217:L217"/>
+    <mergeCell ref="M217:R217"/>
+    <mergeCell ref="S217:X217"/>
+    <mergeCell ref="Y217:AD217"/>
+    <mergeCell ref="A232:F232"/>
+    <mergeCell ref="G232:L232"/>
+    <mergeCell ref="M232:R232"/>
+    <mergeCell ref="S232:X232"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="G262:L262"/>
+    <mergeCell ref="M262:R262"/>
+    <mergeCell ref="S262:X262"/>
+    <mergeCell ref="Y262:AD262"/>
+    <mergeCell ref="A263:F263"/>
+    <mergeCell ref="G263:L263"/>
+    <mergeCell ref="M263:R263"/>
+    <mergeCell ref="S263:X263"/>
+    <mergeCell ref="Y263:AD263"/>
+    <mergeCell ref="A277:F277"/>
+    <mergeCell ref="G277:L277"/>
+    <mergeCell ref="M277:R277"/>
+    <mergeCell ref="S277:X277"/>
+    <mergeCell ref="Y277:AD277"/>
+    <mergeCell ref="A278:F278"/>
+    <mergeCell ref="G278:L278"/>
+    <mergeCell ref="M278:R278"/>
+    <mergeCell ref="S278:X278"/>
+    <mergeCell ref="Y278:AD278"/>
+    <mergeCell ref="A413:F413"/>
+    <mergeCell ref="G413:L413"/>
+    <mergeCell ref="M413:R413"/>
+    <mergeCell ref="S413:X413"/>
+    <mergeCell ref="Y413:AD413"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="G397:L397"/>
+    <mergeCell ref="M397:R397"/>
+    <mergeCell ref="S397:X397"/>
+    <mergeCell ref="Y397:AD397"/>
+    <mergeCell ref="A398:F398"/>
+    <mergeCell ref="G398:L398"/>
+    <mergeCell ref="M398:R398"/>
+    <mergeCell ref="S398:X398"/>
+    <mergeCell ref="Y398:AD398"/>
+    <mergeCell ref="A412:F412"/>
+    <mergeCell ref="G412:L412"/>
+    <mergeCell ref="M412:R412"/>
+    <mergeCell ref="S412:X412"/>
+    <mergeCell ref="Y412:AD412"/>
+    <mergeCell ref="A472:F472"/>
+    <mergeCell ref="G472:L472"/>
+    <mergeCell ref="M472:R472"/>
+    <mergeCell ref="S472:X472"/>
+    <mergeCell ref="Y472:AD472"/>
+    <mergeCell ref="A473:F473"/>
+    <mergeCell ref="G473:L473"/>
+    <mergeCell ref="M473:R473"/>
+    <mergeCell ref="S473:X473"/>
+    <mergeCell ref="Y473:AD473"/>
+    <mergeCell ref="A488:F488"/>
+    <mergeCell ref="G488:L488"/>
+    <mergeCell ref="M488:R488"/>
+    <mergeCell ref="S488:X488"/>
+    <mergeCell ref="Y488:AD488"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="G487:L487"/>
+    <mergeCell ref="M487:R487"/>
+    <mergeCell ref="S487:X487"/>
+    <mergeCell ref="Y487:AD487"/>
+    <mergeCell ref="A592:F592"/>
+    <mergeCell ref="G592:L592"/>
+    <mergeCell ref="M592:R592"/>
+    <mergeCell ref="S592:X592"/>
+    <mergeCell ref="Y592:AD592"/>
+    <mergeCell ref="A593:F593"/>
+    <mergeCell ref="G593:L593"/>
+    <mergeCell ref="M593:R593"/>
+    <mergeCell ref="S593:X593"/>
+    <mergeCell ref="Y593:AD593"/>
+    <mergeCell ref="A787:F787"/>
+    <mergeCell ref="G787:L787"/>
+    <mergeCell ref="M787:R787"/>
+    <mergeCell ref="S787:X787"/>
+    <mergeCell ref="Y787:AD787"/>
+    <mergeCell ref="A788:F788"/>
+    <mergeCell ref="G788:L788"/>
+    <mergeCell ref="M788:R788"/>
+    <mergeCell ref="S788:X788"/>
+    <mergeCell ref="Y788:AD788"/>
+    <mergeCell ref="Y232:AD232"/>
+    <mergeCell ref="A233:F233"/>
+    <mergeCell ref="G233:L233"/>
+    <mergeCell ref="M233:R233"/>
+    <mergeCell ref="S233:X233"/>
+    <mergeCell ref="Y233:AD233"/>
+    <mergeCell ref="A247:F247"/>
+    <mergeCell ref="G247:L247"/>
+    <mergeCell ref="M247:R247"/>
+    <mergeCell ref="S247:X247"/>
+    <mergeCell ref="Y247:AD247"/>
     <mergeCell ref="Y292:AD292"/>
     <mergeCell ref="A308:F308"/>
     <mergeCell ref="G308:L308"/>
@@ -33986,232 +34056,206 @@
     <mergeCell ref="G307:L307"/>
     <mergeCell ref="M307:R307"/>
     <mergeCell ref="S307:X307"/>
-    <mergeCell ref="Y232:AD232"/>
-    <mergeCell ref="A233:F233"/>
-    <mergeCell ref="G233:L233"/>
-    <mergeCell ref="M233:R233"/>
-    <mergeCell ref="S233:X233"/>
-    <mergeCell ref="Y233:AD233"/>
-    <mergeCell ref="A247:F247"/>
-    <mergeCell ref="G247:L247"/>
-    <mergeCell ref="M247:R247"/>
-    <mergeCell ref="S247:X247"/>
-    <mergeCell ref="Y247:AD247"/>
-    <mergeCell ref="A787:F787"/>
-    <mergeCell ref="G787:L787"/>
-    <mergeCell ref="M787:R787"/>
-    <mergeCell ref="S787:X787"/>
-    <mergeCell ref="Y787:AD787"/>
-    <mergeCell ref="A788:F788"/>
-    <mergeCell ref="G788:L788"/>
-    <mergeCell ref="M788:R788"/>
-    <mergeCell ref="S788:X788"/>
-    <mergeCell ref="Y788:AD788"/>
-    <mergeCell ref="A592:F592"/>
-    <mergeCell ref="G592:L592"/>
-    <mergeCell ref="M592:R592"/>
-    <mergeCell ref="S592:X592"/>
-    <mergeCell ref="Y592:AD592"/>
-    <mergeCell ref="A593:F593"/>
-    <mergeCell ref="G593:L593"/>
-    <mergeCell ref="M593:R593"/>
-    <mergeCell ref="S593:X593"/>
-    <mergeCell ref="Y593:AD593"/>
-    <mergeCell ref="A488:F488"/>
-    <mergeCell ref="G488:L488"/>
-    <mergeCell ref="M488:R488"/>
-    <mergeCell ref="S488:X488"/>
-    <mergeCell ref="Y488:AD488"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="G487:L487"/>
-    <mergeCell ref="M487:R487"/>
-    <mergeCell ref="S487:X487"/>
-    <mergeCell ref="Y487:AD487"/>
-    <mergeCell ref="A472:F472"/>
-    <mergeCell ref="G472:L472"/>
-    <mergeCell ref="M472:R472"/>
-    <mergeCell ref="S472:X472"/>
-    <mergeCell ref="Y472:AD472"/>
-    <mergeCell ref="A473:F473"/>
-    <mergeCell ref="G473:L473"/>
-    <mergeCell ref="M473:R473"/>
-    <mergeCell ref="S473:X473"/>
-    <mergeCell ref="Y473:AD473"/>
-    <mergeCell ref="A413:F413"/>
-    <mergeCell ref="G413:L413"/>
-    <mergeCell ref="M413:R413"/>
-    <mergeCell ref="S413:X413"/>
-    <mergeCell ref="Y413:AD413"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="G397:L397"/>
-    <mergeCell ref="M397:R397"/>
-    <mergeCell ref="S397:X397"/>
-    <mergeCell ref="Y397:AD397"/>
-    <mergeCell ref="A398:F398"/>
-    <mergeCell ref="G398:L398"/>
-    <mergeCell ref="M398:R398"/>
-    <mergeCell ref="S398:X398"/>
-    <mergeCell ref="Y398:AD398"/>
-    <mergeCell ref="A412:F412"/>
-    <mergeCell ref="G412:L412"/>
-    <mergeCell ref="M412:R412"/>
-    <mergeCell ref="S412:X412"/>
-    <mergeCell ref="Y412:AD412"/>
-    <mergeCell ref="A277:F277"/>
-    <mergeCell ref="G277:L277"/>
-    <mergeCell ref="M277:R277"/>
-    <mergeCell ref="S277:X277"/>
-    <mergeCell ref="Y277:AD277"/>
-    <mergeCell ref="A278:F278"/>
-    <mergeCell ref="G278:L278"/>
-    <mergeCell ref="M278:R278"/>
-    <mergeCell ref="S278:X278"/>
-    <mergeCell ref="Y278:AD278"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="G262:L262"/>
-    <mergeCell ref="M262:R262"/>
-    <mergeCell ref="S262:X262"/>
-    <mergeCell ref="Y262:AD262"/>
-    <mergeCell ref="A263:F263"/>
-    <mergeCell ref="G263:L263"/>
-    <mergeCell ref="M263:R263"/>
-    <mergeCell ref="S263:X263"/>
-    <mergeCell ref="Y263:AD263"/>
-    <mergeCell ref="A248:F248"/>
-    <mergeCell ref="G248:L248"/>
-    <mergeCell ref="M248:R248"/>
-    <mergeCell ref="S248:X248"/>
-    <mergeCell ref="Y248:AD248"/>
-    <mergeCell ref="A203:F203"/>
-    <mergeCell ref="G203:L203"/>
-    <mergeCell ref="M203:R203"/>
-    <mergeCell ref="S203:X203"/>
-    <mergeCell ref="Y203:AD203"/>
-    <mergeCell ref="A218:F218"/>
-    <mergeCell ref="G218:L218"/>
-    <mergeCell ref="M218:R218"/>
-    <mergeCell ref="S218:X218"/>
-    <mergeCell ref="Y218:AD218"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="G217:L217"/>
-    <mergeCell ref="M217:R217"/>
-    <mergeCell ref="S217:X217"/>
-    <mergeCell ref="Y217:AD217"/>
-    <mergeCell ref="A232:F232"/>
-    <mergeCell ref="G232:L232"/>
-    <mergeCell ref="M232:R232"/>
-    <mergeCell ref="S232:X232"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:L124"/>
-    <mergeCell ref="M124:R124"/>
-    <mergeCell ref="S124:X124"/>
-    <mergeCell ref="Y124:AD124"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="G179:L179"/>
-    <mergeCell ref="M179:R179"/>
-    <mergeCell ref="S179:X179"/>
-    <mergeCell ref="Y179:AD179"/>
-    <mergeCell ref="A202:F202"/>
-    <mergeCell ref="G202:L202"/>
-    <mergeCell ref="M202:R202"/>
-    <mergeCell ref="S202:X202"/>
-    <mergeCell ref="Y202:AD202"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="G187:L187"/>
-    <mergeCell ref="M187:R187"/>
-    <mergeCell ref="S187:X187"/>
-    <mergeCell ref="Y187:AD187"/>
-    <mergeCell ref="A188:F188"/>
-    <mergeCell ref="G188:L188"/>
-    <mergeCell ref="M188:R188"/>
-    <mergeCell ref="S188:X188"/>
-    <mergeCell ref="Y188:AD188"/>
-    <mergeCell ref="Y307:AD307"/>
-    <mergeCell ref="A322:F322"/>
-    <mergeCell ref="G322:L322"/>
-    <mergeCell ref="M322:R322"/>
-    <mergeCell ref="S322:X322"/>
-    <mergeCell ref="Y322:AD322"/>
-    <mergeCell ref="A338:F338"/>
-    <mergeCell ref="G338:L338"/>
-    <mergeCell ref="M338:R338"/>
-    <mergeCell ref="S338:X338"/>
-    <mergeCell ref="Y338:AD338"/>
-    <mergeCell ref="A337:F337"/>
-    <mergeCell ref="G337:L337"/>
-    <mergeCell ref="M337:R337"/>
-    <mergeCell ref="S337:X337"/>
-    <mergeCell ref="Y337:AD337"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="G442:L442"/>
-    <mergeCell ref="M442:R442"/>
-    <mergeCell ref="S442:X442"/>
-    <mergeCell ref="Y442:AD442"/>
-    <mergeCell ref="A458:F458"/>
-    <mergeCell ref="G458:L458"/>
-    <mergeCell ref="M458:R458"/>
-    <mergeCell ref="S458:X458"/>
-    <mergeCell ref="Y458:AD458"/>
-    <mergeCell ref="A443:F443"/>
-    <mergeCell ref="G443:L443"/>
-    <mergeCell ref="M443:R443"/>
-    <mergeCell ref="S443:X443"/>
-    <mergeCell ref="Y443:AD443"/>
-    <mergeCell ref="A457:F457"/>
-    <mergeCell ref="G457:L457"/>
-    <mergeCell ref="M457:R457"/>
-    <mergeCell ref="S457:X457"/>
-    <mergeCell ref="Y457:AD457"/>
-    <mergeCell ref="A502:F502"/>
-    <mergeCell ref="G502:L502"/>
-    <mergeCell ref="M502:R502"/>
-    <mergeCell ref="S502:X502"/>
-    <mergeCell ref="Y502:AD502"/>
-    <mergeCell ref="A503:F503"/>
-    <mergeCell ref="G503:L503"/>
-    <mergeCell ref="M503:R503"/>
-    <mergeCell ref="S503:X503"/>
-    <mergeCell ref="Y503:AD503"/>
-    <mergeCell ref="A532:F532"/>
-    <mergeCell ref="G532:L532"/>
-    <mergeCell ref="M532:R532"/>
-    <mergeCell ref="S532:X532"/>
-    <mergeCell ref="Y532:AD532"/>
-    <mergeCell ref="A533:F533"/>
-    <mergeCell ref="G533:L533"/>
-    <mergeCell ref="M533:R533"/>
-    <mergeCell ref="S533:X533"/>
-    <mergeCell ref="Y533:AD533"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="G352:L352"/>
+    <mergeCell ref="M352:R352"/>
+    <mergeCell ref="S352:X352"/>
+    <mergeCell ref="Y352:AD352"/>
+    <mergeCell ref="A353:F353"/>
+    <mergeCell ref="G353:L353"/>
+    <mergeCell ref="M353:R353"/>
+    <mergeCell ref="S353:X353"/>
+    <mergeCell ref="Y353:AD353"/>
+    <mergeCell ref="A367:F367"/>
+    <mergeCell ref="G367:L367"/>
+    <mergeCell ref="M367:R367"/>
+    <mergeCell ref="S367:X367"/>
+    <mergeCell ref="Y367:AD367"/>
+    <mergeCell ref="A368:F368"/>
+    <mergeCell ref="G368:L368"/>
+    <mergeCell ref="M368:R368"/>
+    <mergeCell ref="S368:X368"/>
+    <mergeCell ref="Y368:AD368"/>
+    <mergeCell ref="A382:F382"/>
+    <mergeCell ref="G382:L382"/>
+    <mergeCell ref="M382:R382"/>
+    <mergeCell ref="S382:X382"/>
+    <mergeCell ref="Y382:AD382"/>
+    <mergeCell ref="A383:F383"/>
+    <mergeCell ref="G383:L383"/>
+    <mergeCell ref="M383:R383"/>
+    <mergeCell ref="S383:X383"/>
+    <mergeCell ref="Y383:AD383"/>
+    <mergeCell ref="A427:F427"/>
+    <mergeCell ref="G427:L427"/>
+    <mergeCell ref="M427:R427"/>
+    <mergeCell ref="S427:X427"/>
+    <mergeCell ref="Y427:AD427"/>
+    <mergeCell ref="A428:F428"/>
+    <mergeCell ref="G428:L428"/>
+    <mergeCell ref="M428:R428"/>
+    <mergeCell ref="S428:X428"/>
+    <mergeCell ref="Y428:AD428"/>
+    <mergeCell ref="A517:F517"/>
+    <mergeCell ref="G517:L517"/>
+    <mergeCell ref="M517:R517"/>
+    <mergeCell ref="S517:X517"/>
+    <mergeCell ref="Y517:AD517"/>
+    <mergeCell ref="A518:F518"/>
+    <mergeCell ref="G518:L518"/>
+    <mergeCell ref="M518:R518"/>
+    <mergeCell ref="S518:X518"/>
+    <mergeCell ref="Y518:AD518"/>
+    <mergeCell ref="A547:F547"/>
+    <mergeCell ref="G547:L547"/>
+    <mergeCell ref="M547:R547"/>
+    <mergeCell ref="S547:X547"/>
+    <mergeCell ref="Y547:AD547"/>
+    <mergeCell ref="A548:F548"/>
+    <mergeCell ref="G548:L548"/>
+    <mergeCell ref="M548:R548"/>
+    <mergeCell ref="S548:X548"/>
+    <mergeCell ref="Y548:AD548"/>
+    <mergeCell ref="A562:F562"/>
+    <mergeCell ref="G562:L562"/>
+    <mergeCell ref="M562:R562"/>
+    <mergeCell ref="S562:X562"/>
+    <mergeCell ref="Y562:AD562"/>
+    <mergeCell ref="A563:F563"/>
+    <mergeCell ref="G563:L563"/>
+    <mergeCell ref="M563:R563"/>
+    <mergeCell ref="S563:X563"/>
+    <mergeCell ref="Y563:AD563"/>
+    <mergeCell ref="A577:F577"/>
+    <mergeCell ref="G577:L577"/>
+    <mergeCell ref="M577:R577"/>
+    <mergeCell ref="S577:X577"/>
+    <mergeCell ref="Y577:AD577"/>
+    <mergeCell ref="A578:F578"/>
+    <mergeCell ref="G578:L578"/>
+    <mergeCell ref="M578:R578"/>
+    <mergeCell ref="S578:X578"/>
+    <mergeCell ref="Y578:AD578"/>
+    <mergeCell ref="A607:F607"/>
+    <mergeCell ref="G607:L607"/>
+    <mergeCell ref="M607:R607"/>
+    <mergeCell ref="S607:X607"/>
+    <mergeCell ref="Y607:AD607"/>
+    <mergeCell ref="A608:F608"/>
+    <mergeCell ref="G608:L608"/>
+    <mergeCell ref="M608:R608"/>
+    <mergeCell ref="S608:X608"/>
+    <mergeCell ref="Y608:AD608"/>
+    <mergeCell ref="A622:F622"/>
+    <mergeCell ref="G622:L622"/>
+    <mergeCell ref="M622:R622"/>
+    <mergeCell ref="S622:X622"/>
+    <mergeCell ref="Y622:AD622"/>
+    <mergeCell ref="A623:F623"/>
+    <mergeCell ref="G623:L623"/>
+    <mergeCell ref="M623:R623"/>
+    <mergeCell ref="S623:X623"/>
+    <mergeCell ref="Y623:AD623"/>
+    <mergeCell ref="A637:F637"/>
+    <mergeCell ref="G637:L637"/>
+    <mergeCell ref="M637:R637"/>
+    <mergeCell ref="S637:X637"/>
+    <mergeCell ref="Y637:AD637"/>
+    <mergeCell ref="A638:F638"/>
+    <mergeCell ref="G638:L638"/>
+    <mergeCell ref="M638:R638"/>
+    <mergeCell ref="S638:X638"/>
+    <mergeCell ref="Y638:AD638"/>
+    <mergeCell ref="A652:F652"/>
+    <mergeCell ref="G652:L652"/>
+    <mergeCell ref="M652:R652"/>
+    <mergeCell ref="S652:X652"/>
+    <mergeCell ref="Y652:AD652"/>
+    <mergeCell ref="A653:F653"/>
+    <mergeCell ref="G653:L653"/>
+    <mergeCell ref="M653:R653"/>
+    <mergeCell ref="S653:X653"/>
+    <mergeCell ref="Y653:AD653"/>
+    <mergeCell ref="A667:F667"/>
+    <mergeCell ref="G667:L667"/>
+    <mergeCell ref="M667:R667"/>
+    <mergeCell ref="S667:X667"/>
+    <mergeCell ref="Y667:AD667"/>
+    <mergeCell ref="A668:F668"/>
+    <mergeCell ref="G668:L668"/>
+    <mergeCell ref="M668:R668"/>
+    <mergeCell ref="S668:X668"/>
+    <mergeCell ref="Y668:AD668"/>
+    <mergeCell ref="A682:F682"/>
+    <mergeCell ref="G682:L682"/>
+    <mergeCell ref="M682:R682"/>
+    <mergeCell ref="S682:X682"/>
+    <mergeCell ref="Y682:AD682"/>
+    <mergeCell ref="A698:F698"/>
+    <mergeCell ref="G698:L698"/>
+    <mergeCell ref="M698:R698"/>
+    <mergeCell ref="S698:X698"/>
+    <mergeCell ref="Y698:AD698"/>
+    <mergeCell ref="A697:F697"/>
+    <mergeCell ref="G697:L697"/>
+    <mergeCell ref="M697:R697"/>
+    <mergeCell ref="S697:X697"/>
+    <mergeCell ref="Y697:AD697"/>
+    <mergeCell ref="A683:F683"/>
+    <mergeCell ref="G683:L683"/>
+    <mergeCell ref="M683:R683"/>
+    <mergeCell ref="S683:X683"/>
+    <mergeCell ref="Y683:AD683"/>
+    <mergeCell ref="A712:F712"/>
+    <mergeCell ref="G712:L712"/>
+    <mergeCell ref="M712:R712"/>
+    <mergeCell ref="S712:X712"/>
+    <mergeCell ref="Y712:AD712"/>
+    <mergeCell ref="A713:F713"/>
+    <mergeCell ref="G713:L713"/>
+    <mergeCell ref="M713:R713"/>
+    <mergeCell ref="S713:X713"/>
+    <mergeCell ref="Y713:AD713"/>
+    <mergeCell ref="A727:F727"/>
+    <mergeCell ref="G727:L727"/>
+    <mergeCell ref="M727:R727"/>
+    <mergeCell ref="S727:X727"/>
+    <mergeCell ref="Y727:AD727"/>
+    <mergeCell ref="A728:F728"/>
+    <mergeCell ref="G728:L728"/>
+    <mergeCell ref="M728:R728"/>
+    <mergeCell ref="S728:X728"/>
+    <mergeCell ref="Y728:AD728"/>
+    <mergeCell ref="A742:F742"/>
+    <mergeCell ref="G742:L742"/>
+    <mergeCell ref="M742:R742"/>
+    <mergeCell ref="S742:X742"/>
+    <mergeCell ref="Y742:AD742"/>
+    <mergeCell ref="A743:F743"/>
+    <mergeCell ref="G743:L743"/>
+    <mergeCell ref="M743:R743"/>
+    <mergeCell ref="S743:X743"/>
+    <mergeCell ref="Y743:AD743"/>
+    <mergeCell ref="A757:F757"/>
+    <mergeCell ref="G757:L757"/>
+    <mergeCell ref="M757:R757"/>
+    <mergeCell ref="S757:X757"/>
+    <mergeCell ref="Y757:AD757"/>
+    <mergeCell ref="A758:F758"/>
+    <mergeCell ref="G758:L758"/>
+    <mergeCell ref="M758:R758"/>
+    <mergeCell ref="S758:X758"/>
+    <mergeCell ref="Y758:AD758"/>
+    <mergeCell ref="A772:F772"/>
+    <mergeCell ref="G772:L772"/>
+    <mergeCell ref="M772:R772"/>
+    <mergeCell ref="S772:X772"/>
+    <mergeCell ref="Y772:AD772"/>
+    <mergeCell ref="A773:F773"/>
+    <mergeCell ref="G773:L773"/>
+    <mergeCell ref="M773:R773"/>
+    <mergeCell ref="S773:X773"/>
+    <mergeCell ref="Y773:AD773"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38557,10 +38601,10 @@
       <c r="A1" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="211">
+      <c r="B1" s="208">
         <v>0.51</v>
       </c>
-      <c r="C1" s="211"/>
+      <c r="C1" s="208"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -38569,10 +38613,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="211">
+      <c r="B2" s="208">
         <v>0.54</v>
       </c>
-      <c r="C2" s="211"/>
+      <c r="C2" s="208"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -38581,10 +38625,10 @@
       <c r="A3" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="211">
+      <c r="B3" s="208">
         <v>0.51</v>
       </c>
-      <c r="C3" s="211"/>
+      <c r="C3" s="208"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -38593,10 +38637,10 @@
       <c r="A4" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="211">
+      <c r="B4" s="208">
         <v>0.54</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="208"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -38638,7 +38682,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="208">
+      <c r="E8" s="211">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -38651,7 +38695,7 @@
       <c r="B9" s="209"/>
       <c r="C9" s="209"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="208"/>
+      <c r="E9" s="211"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38691,7 +38735,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="208">
+      <c r="E13" s="211">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -38704,7 +38748,7 @@
       <c r="B14" s="209"/>
       <c r="C14" s="209"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="208"/>
+      <c r="E14" s="211"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38744,7 +38788,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="208">
+      <c r="E18" s="211">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -38757,7 +38801,7 @@
       <c r="B19" s="209"/>
       <c r="C19" s="209"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="208"/>
+      <c r="E19" s="211"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -38802,12 +38846,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -38815,6 +38853,12 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="114_{C59B5EEC-97BB-4403-A512-1BBDF44431D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C45285E-2843-45E2-B415-D0A64E80DC5F}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="114_{C59B5EEC-97BB-4403-A512-1BBDF44431D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DDDDF89A-71F9-40B0-BAE1-23AE09CA1AD1}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="3405" windowWidth="27870" windowHeight="10710" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="930" yWindow="6315" windowWidth="27870" windowHeight="9885" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="266">
   <si>
     <t>Pillar</t>
   </si>
@@ -826,6 +826,15 @@
   </si>
   <si>
     <t>SUPERLN</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>LHI</t>
+  </si>
+  <si>
+    <t>LAYHONG</t>
   </si>
 </sst>
 </file>
@@ -2556,8 +2565,8 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2565,8 +2574,8 @@
     <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3002,8 +3011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I196" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S233" sqref="S233"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K240" sqref="K240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12500,7 +12509,9 @@
       <c r="D225" s="92"/>
       <c r="E225" s="92"/>
       <c r="F225" s="93"/>
-      <c r="G225" s="90"/>
+      <c r="G225" s="90" t="s">
+        <v>263</v>
+      </c>
       <c r="H225" s="91"/>
       <c r="I225" s="92"/>
       <c r="J225" s="92"/>
@@ -12969,13 +12980,17 @@
       </c>
     </row>
     <row r="237" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="90"/>
+      <c r="A237" s="90" t="s">
+        <v>250</v>
+      </c>
       <c r="B237" s="91"/>
       <c r="C237" s="92"/>
       <c r="D237" s="92"/>
       <c r="E237" s="92"/>
       <c r="F237" s="93"/>
-      <c r="G237" s="90"/>
+      <c r="G237" s="90" t="s">
+        <v>265</v>
+      </c>
       <c r="H237" s="91"/>
       <c r="I237" s="92"/>
       <c r="J237" s="92"/>
@@ -13001,7 +13016,9 @@
       <c r="AD237" s="93"/>
     </row>
     <row r="238" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="90"/>
+      <c r="A238" s="90" t="s">
+        <v>261</v>
+      </c>
       <c r="B238" s="91"/>
       <c r="C238" s="92"/>
       <c r="D238" s="92"/>
@@ -13033,7 +13050,9 @@
       <c r="AD238" s="93"/>
     </row>
     <row r="239" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="90"/>
+      <c r="A239" s="90" t="s">
+        <v>264</v>
+      </c>
       <c r="B239" s="91"/>
       <c r="C239" s="92"/>
       <c r="D239" s="92"/>
@@ -33889,117 +33908,321 @@
     </row>
   </sheetData>
   <mergeCells count="450">
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="G534:L534"/>
-    <mergeCell ref="M534:R534"/>
-    <mergeCell ref="S534:X534"/>
-    <mergeCell ref="Y534:AD534"/>
-    <mergeCell ref="A535:F535"/>
-    <mergeCell ref="G535:L535"/>
-    <mergeCell ref="M535:R535"/>
-    <mergeCell ref="S535:X535"/>
-    <mergeCell ref="Y535:AD535"/>
-    <mergeCell ref="A504:F504"/>
-    <mergeCell ref="G504:L504"/>
-    <mergeCell ref="M504:R504"/>
-    <mergeCell ref="S504:X504"/>
-    <mergeCell ref="Y504:AD504"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="G505:L505"/>
-    <mergeCell ref="M505:R505"/>
-    <mergeCell ref="S505:X505"/>
-    <mergeCell ref="Y505:AD505"/>
-    <mergeCell ref="A444:F444"/>
-    <mergeCell ref="G444:L444"/>
-    <mergeCell ref="M444:R444"/>
-    <mergeCell ref="S444:X444"/>
-    <mergeCell ref="Y444:AD444"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="G460:L460"/>
-    <mergeCell ref="M460:R460"/>
-    <mergeCell ref="S460:X460"/>
-    <mergeCell ref="Y460:AD460"/>
-    <mergeCell ref="A445:F445"/>
-    <mergeCell ref="G445:L445"/>
-    <mergeCell ref="M445:R445"/>
-    <mergeCell ref="S445:X445"/>
-    <mergeCell ref="Y445:AD445"/>
-    <mergeCell ref="A459:F459"/>
-    <mergeCell ref="G459:L459"/>
-    <mergeCell ref="M459:R459"/>
-    <mergeCell ref="S459:X459"/>
-    <mergeCell ref="Y459:AD459"/>
-    <mergeCell ref="Y309:AD309"/>
-    <mergeCell ref="A324:F324"/>
-    <mergeCell ref="G324:L324"/>
-    <mergeCell ref="M324:R324"/>
-    <mergeCell ref="S324:X324"/>
-    <mergeCell ref="Y324:AD324"/>
-    <mergeCell ref="A340:F340"/>
-    <mergeCell ref="G340:L340"/>
-    <mergeCell ref="M340:R340"/>
-    <mergeCell ref="S340:X340"/>
-    <mergeCell ref="Y340:AD340"/>
-    <mergeCell ref="A339:F339"/>
-    <mergeCell ref="G339:L339"/>
-    <mergeCell ref="M339:R339"/>
-    <mergeCell ref="S339:X339"/>
-    <mergeCell ref="Y339:AD339"/>
-    <mergeCell ref="A202:F202"/>
-    <mergeCell ref="G202:L202"/>
-    <mergeCell ref="M202:R202"/>
-    <mergeCell ref="S202:X202"/>
-    <mergeCell ref="Y202:AD202"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="G187:L187"/>
-    <mergeCell ref="M187:R187"/>
-    <mergeCell ref="S187:X187"/>
-    <mergeCell ref="Y187:AD187"/>
-    <mergeCell ref="A188:F188"/>
-    <mergeCell ref="G188:L188"/>
-    <mergeCell ref="M188:R188"/>
-    <mergeCell ref="S188:X188"/>
-    <mergeCell ref="Y188:AD188"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:L124"/>
-    <mergeCell ref="M124:R124"/>
-    <mergeCell ref="S124:X124"/>
-    <mergeCell ref="Y124:AD124"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="G179:L179"/>
-    <mergeCell ref="M179:R179"/>
-    <mergeCell ref="S179:X179"/>
-    <mergeCell ref="Y179:AD179"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A774:F774"/>
+    <mergeCell ref="G774:L774"/>
+    <mergeCell ref="M774:R774"/>
+    <mergeCell ref="S774:X774"/>
+    <mergeCell ref="Y774:AD774"/>
+    <mergeCell ref="A775:F775"/>
+    <mergeCell ref="G775:L775"/>
+    <mergeCell ref="M775:R775"/>
+    <mergeCell ref="S775:X775"/>
+    <mergeCell ref="Y775:AD775"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="G759:L759"/>
+    <mergeCell ref="M759:R759"/>
+    <mergeCell ref="S759:X759"/>
+    <mergeCell ref="Y759:AD759"/>
+    <mergeCell ref="A760:F760"/>
+    <mergeCell ref="G760:L760"/>
+    <mergeCell ref="M760:R760"/>
+    <mergeCell ref="S760:X760"/>
+    <mergeCell ref="Y760:AD760"/>
+    <mergeCell ref="A744:F744"/>
+    <mergeCell ref="G744:L744"/>
+    <mergeCell ref="M744:R744"/>
+    <mergeCell ref="S744:X744"/>
+    <mergeCell ref="Y744:AD744"/>
+    <mergeCell ref="A745:F745"/>
+    <mergeCell ref="G745:L745"/>
+    <mergeCell ref="M745:R745"/>
+    <mergeCell ref="S745:X745"/>
+    <mergeCell ref="Y745:AD745"/>
+    <mergeCell ref="A729:F729"/>
+    <mergeCell ref="G729:L729"/>
+    <mergeCell ref="M729:R729"/>
+    <mergeCell ref="S729:X729"/>
+    <mergeCell ref="Y729:AD729"/>
+    <mergeCell ref="A730:F730"/>
+    <mergeCell ref="G730:L730"/>
+    <mergeCell ref="M730:R730"/>
+    <mergeCell ref="S730:X730"/>
+    <mergeCell ref="Y730:AD730"/>
+    <mergeCell ref="A714:F714"/>
+    <mergeCell ref="G714:L714"/>
+    <mergeCell ref="M714:R714"/>
+    <mergeCell ref="S714:X714"/>
+    <mergeCell ref="Y714:AD714"/>
+    <mergeCell ref="A715:F715"/>
+    <mergeCell ref="G715:L715"/>
+    <mergeCell ref="M715:R715"/>
+    <mergeCell ref="S715:X715"/>
+    <mergeCell ref="Y715:AD715"/>
+    <mergeCell ref="A684:F684"/>
+    <mergeCell ref="G684:L684"/>
+    <mergeCell ref="M684:R684"/>
+    <mergeCell ref="S684:X684"/>
+    <mergeCell ref="Y684:AD684"/>
+    <mergeCell ref="A700:F700"/>
+    <mergeCell ref="G700:L700"/>
+    <mergeCell ref="M700:R700"/>
+    <mergeCell ref="S700:X700"/>
+    <mergeCell ref="Y700:AD700"/>
+    <mergeCell ref="A699:F699"/>
+    <mergeCell ref="G699:L699"/>
+    <mergeCell ref="M699:R699"/>
+    <mergeCell ref="S699:X699"/>
+    <mergeCell ref="Y699:AD699"/>
+    <mergeCell ref="A685:F685"/>
+    <mergeCell ref="G685:L685"/>
+    <mergeCell ref="M685:R685"/>
+    <mergeCell ref="S685:X685"/>
+    <mergeCell ref="Y685:AD685"/>
+    <mergeCell ref="A669:F669"/>
+    <mergeCell ref="G669:L669"/>
+    <mergeCell ref="M669:R669"/>
+    <mergeCell ref="S669:X669"/>
+    <mergeCell ref="Y669:AD669"/>
+    <mergeCell ref="A670:F670"/>
+    <mergeCell ref="G670:L670"/>
+    <mergeCell ref="M670:R670"/>
+    <mergeCell ref="S670:X670"/>
+    <mergeCell ref="Y670:AD670"/>
+    <mergeCell ref="A654:F654"/>
+    <mergeCell ref="G654:L654"/>
+    <mergeCell ref="M654:R654"/>
+    <mergeCell ref="S654:X654"/>
+    <mergeCell ref="Y654:AD654"/>
+    <mergeCell ref="A655:F655"/>
+    <mergeCell ref="G655:L655"/>
+    <mergeCell ref="M655:R655"/>
+    <mergeCell ref="S655:X655"/>
+    <mergeCell ref="Y655:AD655"/>
+    <mergeCell ref="A639:F639"/>
+    <mergeCell ref="G639:L639"/>
+    <mergeCell ref="M639:R639"/>
+    <mergeCell ref="S639:X639"/>
+    <mergeCell ref="Y639:AD639"/>
+    <mergeCell ref="A640:F640"/>
+    <mergeCell ref="G640:L640"/>
+    <mergeCell ref="M640:R640"/>
+    <mergeCell ref="S640:X640"/>
+    <mergeCell ref="Y640:AD640"/>
+    <mergeCell ref="A624:F624"/>
+    <mergeCell ref="G624:L624"/>
+    <mergeCell ref="M624:R624"/>
+    <mergeCell ref="S624:X624"/>
+    <mergeCell ref="Y624:AD624"/>
+    <mergeCell ref="A625:F625"/>
+    <mergeCell ref="G625:L625"/>
+    <mergeCell ref="M625:R625"/>
+    <mergeCell ref="S625:X625"/>
+    <mergeCell ref="Y625:AD625"/>
+    <mergeCell ref="A609:F609"/>
+    <mergeCell ref="G609:L609"/>
+    <mergeCell ref="M609:R609"/>
+    <mergeCell ref="S609:X609"/>
+    <mergeCell ref="Y609:AD609"/>
+    <mergeCell ref="A610:F610"/>
+    <mergeCell ref="G610:L610"/>
+    <mergeCell ref="M610:R610"/>
+    <mergeCell ref="S610:X610"/>
+    <mergeCell ref="Y610:AD610"/>
+    <mergeCell ref="A579:F579"/>
+    <mergeCell ref="G579:L579"/>
+    <mergeCell ref="M579:R579"/>
+    <mergeCell ref="S579:X579"/>
+    <mergeCell ref="Y579:AD579"/>
+    <mergeCell ref="A580:F580"/>
+    <mergeCell ref="G580:L580"/>
+    <mergeCell ref="M580:R580"/>
+    <mergeCell ref="S580:X580"/>
+    <mergeCell ref="Y580:AD580"/>
+    <mergeCell ref="A564:F564"/>
+    <mergeCell ref="G564:L564"/>
+    <mergeCell ref="M564:R564"/>
+    <mergeCell ref="S564:X564"/>
+    <mergeCell ref="Y564:AD564"/>
+    <mergeCell ref="A565:F565"/>
+    <mergeCell ref="G565:L565"/>
+    <mergeCell ref="M565:R565"/>
+    <mergeCell ref="S565:X565"/>
+    <mergeCell ref="Y565:AD565"/>
+    <mergeCell ref="A549:F549"/>
+    <mergeCell ref="G549:L549"/>
+    <mergeCell ref="M549:R549"/>
+    <mergeCell ref="S549:X549"/>
+    <mergeCell ref="Y549:AD549"/>
+    <mergeCell ref="A550:F550"/>
+    <mergeCell ref="G550:L550"/>
+    <mergeCell ref="M550:R550"/>
+    <mergeCell ref="S550:X550"/>
+    <mergeCell ref="Y550:AD550"/>
+    <mergeCell ref="A519:F519"/>
+    <mergeCell ref="G519:L519"/>
+    <mergeCell ref="M519:R519"/>
+    <mergeCell ref="S519:X519"/>
+    <mergeCell ref="Y519:AD519"/>
+    <mergeCell ref="A520:F520"/>
+    <mergeCell ref="G520:L520"/>
+    <mergeCell ref="M520:R520"/>
+    <mergeCell ref="S520:X520"/>
+    <mergeCell ref="Y520:AD520"/>
+    <mergeCell ref="A429:F429"/>
+    <mergeCell ref="G429:L429"/>
+    <mergeCell ref="M429:R429"/>
+    <mergeCell ref="S429:X429"/>
+    <mergeCell ref="Y429:AD429"/>
+    <mergeCell ref="A430:F430"/>
+    <mergeCell ref="G430:L430"/>
+    <mergeCell ref="M430:R430"/>
+    <mergeCell ref="S430:X430"/>
+    <mergeCell ref="Y430:AD430"/>
+    <mergeCell ref="A384:F384"/>
+    <mergeCell ref="G384:L384"/>
+    <mergeCell ref="M384:R384"/>
+    <mergeCell ref="S384:X384"/>
+    <mergeCell ref="Y384:AD384"/>
+    <mergeCell ref="A385:F385"/>
+    <mergeCell ref="G385:L385"/>
+    <mergeCell ref="M385:R385"/>
+    <mergeCell ref="S385:X385"/>
+    <mergeCell ref="Y385:AD385"/>
+    <mergeCell ref="A369:F369"/>
+    <mergeCell ref="G369:L369"/>
+    <mergeCell ref="M369:R369"/>
+    <mergeCell ref="S369:X369"/>
+    <mergeCell ref="Y369:AD369"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="G370:L370"/>
+    <mergeCell ref="M370:R370"/>
+    <mergeCell ref="S370:X370"/>
+    <mergeCell ref="Y370:AD370"/>
+    <mergeCell ref="A354:F354"/>
+    <mergeCell ref="G354:L354"/>
+    <mergeCell ref="M354:R354"/>
+    <mergeCell ref="S354:X354"/>
+    <mergeCell ref="Y354:AD354"/>
+    <mergeCell ref="A355:F355"/>
+    <mergeCell ref="G355:L355"/>
+    <mergeCell ref="M355:R355"/>
+    <mergeCell ref="S355:X355"/>
+    <mergeCell ref="Y355:AD355"/>
+    <mergeCell ref="Y294:AD294"/>
+    <mergeCell ref="A310:F310"/>
+    <mergeCell ref="G310:L310"/>
+    <mergeCell ref="M310:R310"/>
+    <mergeCell ref="S310:X310"/>
+    <mergeCell ref="Y310:AD310"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="G325:L325"/>
+    <mergeCell ref="M325:R325"/>
+    <mergeCell ref="S325:X325"/>
+    <mergeCell ref="Y325:AD325"/>
+    <mergeCell ref="A295:F295"/>
+    <mergeCell ref="G295:L295"/>
+    <mergeCell ref="M295:R295"/>
+    <mergeCell ref="S295:X295"/>
+    <mergeCell ref="Y295:AD295"/>
+    <mergeCell ref="A294:F294"/>
+    <mergeCell ref="G294:L294"/>
+    <mergeCell ref="M294:R294"/>
+    <mergeCell ref="S294:X294"/>
+    <mergeCell ref="A309:F309"/>
+    <mergeCell ref="G309:L309"/>
+    <mergeCell ref="M309:R309"/>
+    <mergeCell ref="S309:X309"/>
+    <mergeCell ref="Y234:AD234"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="G235:L235"/>
+    <mergeCell ref="M235:R235"/>
+    <mergeCell ref="S235:X235"/>
+    <mergeCell ref="Y235:AD235"/>
+    <mergeCell ref="A249:F249"/>
+    <mergeCell ref="G249:L249"/>
+    <mergeCell ref="M249:R249"/>
+    <mergeCell ref="S249:X249"/>
+    <mergeCell ref="Y249:AD249"/>
+    <mergeCell ref="A789:F789"/>
+    <mergeCell ref="G789:L789"/>
+    <mergeCell ref="M789:R789"/>
+    <mergeCell ref="S789:X789"/>
+    <mergeCell ref="Y789:AD789"/>
+    <mergeCell ref="A790:F790"/>
+    <mergeCell ref="G790:L790"/>
+    <mergeCell ref="M790:R790"/>
+    <mergeCell ref="S790:X790"/>
+    <mergeCell ref="Y790:AD790"/>
+    <mergeCell ref="A594:F594"/>
+    <mergeCell ref="G594:L594"/>
+    <mergeCell ref="M594:R594"/>
+    <mergeCell ref="S594:X594"/>
+    <mergeCell ref="Y594:AD594"/>
+    <mergeCell ref="A595:F595"/>
+    <mergeCell ref="G595:L595"/>
+    <mergeCell ref="M595:R595"/>
+    <mergeCell ref="S595:X595"/>
+    <mergeCell ref="Y595:AD595"/>
+    <mergeCell ref="A490:F490"/>
+    <mergeCell ref="G490:L490"/>
+    <mergeCell ref="M490:R490"/>
+    <mergeCell ref="S490:X490"/>
+    <mergeCell ref="Y490:AD490"/>
+    <mergeCell ref="A489:F489"/>
+    <mergeCell ref="G489:L489"/>
+    <mergeCell ref="M489:R489"/>
+    <mergeCell ref="S489:X489"/>
+    <mergeCell ref="Y489:AD489"/>
+    <mergeCell ref="A474:F474"/>
+    <mergeCell ref="G474:L474"/>
+    <mergeCell ref="M474:R474"/>
+    <mergeCell ref="S474:X474"/>
+    <mergeCell ref="Y474:AD474"/>
+    <mergeCell ref="A475:F475"/>
+    <mergeCell ref="G475:L475"/>
+    <mergeCell ref="M475:R475"/>
+    <mergeCell ref="S475:X475"/>
+    <mergeCell ref="Y475:AD475"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="G415:L415"/>
+    <mergeCell ref="M415:R415"/>
+    <mergeCell ref="S415:X415"/>
+    <mergeCell ref="Y415:AD415"/>
+    <mergeCell ref="A399:F399"/>
+    <mergeCell ref="G399:L399"/>
+    <mergeCell ref="M399:R399"/>
+    <mergeCell ref="S399:X399"/>
+    <mergeCell ref="Y399:AD399"/>
+    <mergeCell ref="A400:F400"/>
+    <mergeCell ref="G400:L400"/>
+    <mergeCell ref="M400:R400"/>
+    <mergeCell ref="S400:X400"/>
+    <mergeCell ref="Y400:AD400"/>
+    <mergeCell ref="A414:F414"/>
+    <mergeCell ref="G414:L414"/>
+    <mergeCell ref="M414:R414"/>
+    <mergeCell ref="S414:X414"/>
+    <mergeCell ref="Y414:AD414"/>
+    <mergeCell ref="A279:F279"/>
+    <mergeCell ref="G279:L279"/>
+    <mergeCell ref="M279:R279"/>
+    <mergeCell ref="S279:X279"/>
+    <mergeCell ref="Y279:AD279"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="G280:L280"/>
+    <mergeCell ref="M280:R280"/>
+    <mergeCell ref="S280:X280"/>
+    <mergeCell ref="Y280:AD280"/>
+    <mergeCell ref="A264:F264"/>
+    <mergeCell ref="G264:L264"/>
+    <mergeCell ref="M264:R264"/>
+    <mergeCell ref="S264:X264"/>
+    <mergeCell ref="Y264:AD264"/>
+    <mergeCell ref="A265:F265"/>
+    <mergeCell ref="G265:L265"/>
+    <mergeCell ref="M265:R265"/>
+    <mergeCell ref="S265:X265"/>
+    <mergeCell ref="Y265:AD265"/>
     <mergeCell ref="A250:F250"/>
     <mergeCell ref="G250:L250"/>
     <mergeCell ref="M250:R250"/>
@@ -34024,321 +34247,117 @@
     <mergeCell ref="G234:L234"/>
     <mergeCell ref="M234:R234"/>
     <mergeCell ref="S234:X234"/>
-    <mergeCell ref="A264:F264"/>
-    <mergeCell ref="G264:L264"/>
-    <mergeCell ref="M264:R264"/>
-    <mergeCell ref="S264:X264"/>
-    <mergeCell ref="Y264:AD264"/>
-    <mergeCell ref="A265:F265"/>
-    <mergeCell ref="G265:L265"/>
-    <mergeCell ref="M265:R265"/>
-    <mergeCell ref="S265:X265"/>
-    <mergeCell ref="Y265:AD265"/>
-    <mergeCell ref="A279:F279"/>
-    <mergeCell ref="G279:L279"/>
-    <mergeCell ref="M279:R279"/>
-    <mergeCell ref="S279:X279"/>
-    <mergeCell ref="Y279:AD279"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="G280:L280"/>
-    <mergeCell ref="M280:R280"/>
-    <mergeCell ref="S280:X280"/>
-    <mergeCell ref="Y280:AD280"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="G415:L415"/>
-    <mergeCell ref="M415:R415"/>
-    <mergeCell ref="S415:X415"/>
-    <mergeCell ref="Y415:AD415"/>
-    <mergeCell ref="A399:F399"/>
-    <mergeCell ref="G399:L399"/>
-    <mergeCell ref="M399:R399"/>
-    <mergeCell ref="S399:X399"/>
-    <mergeCell ref="Y399:AD399"/>
-    <mergeCell ref="A400:F400"/>
-    <mergeCell ref="G400:L400"/>
-    <mergeCell ref="M400:R400"/>
-    <mergeCell ref="S400:X400"/>
-    <mergeCell ref="Y400:AD400"/>
-    <mergeCell ref="A414:F414"/>
-    <mergeCell ref="G414:L414"/>
-    <mergeCell ref="M414:R414"/>
-    <mergeCell ref="S414:X414"/>
-    <mergeCell ref="Y414:AD414"/>
-    <mergeCell ref="A474:F474"/>
-    <mergeCell ref="G474:L474"/>
-    <mergeCell ref="M474:R474"/>
-    <mergeCell ref="S474:X474"/>
-    <mergeCell ref="Y474:AD474"/>
-    <mergeCell ref="A475:F475"/>
-    <mergeCell ref="G475:L475"/>
-    <mergeCell ref="M475:R475"/>
-    <mergeCell ref="S475:X475"/>
-    <mergeCell ref="Y475:AD475"/>
-    <mergeCell ref="A490:F490"/>
-    <mergeCell ref="G490:L490"/>
-    <mergeCell ref="M490:R490"/>
-    <mergeCell ref="S490:X490"/>
-    <mergeCell ref="Y490:AD490"/>
-    <mergeCell ref="A489:F489"/>
-    <mergeCell ref="G489:L489"/>
-    <mergeCell ref="M489:R489"/>
-    <mergeCell ref="S489:X489"/>
-    <mergeCell ref="Y489:AD489"/>
-    <mergeCell ref="A594:F594"/>
-    <mergeCell ref="G594:L594"/>
-    <mergeCell ref="M594:R594"/>
-    <mergeCell ref="S594:X594"/>
-    <mergeCell ref="Y594:AD594"/>
-    <mergeCell ref="A595:F595"/>
-    <mergeCell ref="G595:L595"/>
-    <mergeCell ref="M595:R595"/>
-    <mergeCell ref="S595:X595"/>
-    <mergeCell ref="Y595:AD595"/>
-    <mergeCell ref="A789:F789"/>
-    <mergeCell ref="G789:L789"/>
-    <mergeCell ref="M789:R789"/>
-    <mergeCell ref="S789:X789"/>
-    <mergeCell ref="Y789:AD789"/>
-    <mergeCell ref="A790:F790"/>
-    <mergeCell ref="G790:L790"/>
-    <mergeCell ref="M790:R790"/>
-    <mergeCell ref="S790:X790"/>
-    <mergeCell ref="Y790:AD790"/>
-    <mergeCell ref="Y234:AD234"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="G235:L235"/>
-    <mergeCell ref="M235:R235"/>
-    <mergeCell ref="S235:X235"/>
-    <mergeCell ref="Y235:AD235"/>
-    <mergeCell ref="A249:F249"/>
-    <mergeCell ref="G249:L249"/>
-    <mergeCell ref="M249:R249"/>
-    <mergeCell ref="S249:X249"/>
-    <mergeCell ref="Y249:AD249"/>
-    <mergeCell ref="Y294:AD294"/>
-    <mergeCell ref="A310:F310"/>
-    <mergeCell ref="G310:L310"/>
-    <mergeCell ref="M310:R310"/>
-    <mergeCell ref="S310:X310"/>
-    <mergeCell ref="Y310:AD310"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="G325:L325"/>
-    <mergeCell ref="M325:R325"/>
-    <mergeCell ref="S325:X325"/>
-    <mergeCell ref="Y325:AD325"/>
-    <mergeCell ref="A295:F295"/>
-    <mergeCell ref="G295:L295"/>
-    <mergeCell ref="M295:R295"/>
-    <mergeCell ref="S295:X295"/>
-    <mergeCell ref="Y295:AD295"/>
-    <mergeCell ref="A294:F294"/>
-    <mergeCell ref="G294:L294"/>
-    <mergeCell ref="M294:R294"/>
-    <mergeCell ref="S294:X294"/>
-    <mergeCell ref="A309:F309"/>
-    <mergeCell ref="G309:L309"/>
-    <mergeCell ref="M309:R309"/>
-    <mergeCell ref="S309:X309"/>
-    <mergeCell ref="A354:F354"/>
-    <mergeCell ref="G354:L354"/>
-    <mergeCell ref="M354:R354"/>
-    <mergeCell ref="S354:X354"/>
-    <mergeCell ref="Y354:AD354"/>
-    <mergeCell ref="A355:F355"/>
-    <mergeCell ref="G355:L355"/>
-    <mergeCell ref="M355:R355"/>
-    <mergeCell ref="S355:X355"/>
-    <mergeCell ref="Y355:AD355"/>
-    <mergeCell ref="A369:F369"/>
-    <mergeCell ref="G369:L369"/>
-    <mergeCell ref="M369:R369"/>
-    <mergeCell ref="S369:X369"/>
-    <mergeCell ref="Y369:AD369"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="G370:L370"/>
-    <mergeCell ref="M370:R370"/>
-    <mergeCell ref="S370:X370"/>
-    <mergeCell ref="Y370:AD370"/>
-    <mergeCell ref="A384:F384"/>
-    <mergeCell ref="G384:L384"/>
-    <mergeCell ref="M384:R384"/>
-    <mergeCell ref="S384:X384"/>
-    <mergeCell ref="Y384:AD384"/>
-    <mergeCell ref="A385:F385"/>
-    <mergeCell ref="G385:L385"/>
-    <mergeCell ref="M385:R385"/>
-    <mergeCell ref="S385:X385"/>
-    <mergeCell ref="Y385:AD385"/>
-    <mergeCell ref="A429:F429"/>
-    <mergeCell ref="G429:L429"/>
-    <mergeCell ref="M429:R429"/>
-    <mergeCell ref="S429:X429"/>
-    <mergeCell ref="Y429:AD429"/>
-    <mergeCell ref="A430:F430"/>
-    <mergeCell ref="G430:L430"/>
-    <mergeCell ref="M430:R430"/>
-    <mergeCell ref="S430:X430"/>
-    <mergeCell ref="Y430:AD430"/>
-    <mergeCell ref="A519:F519"/>
-    <mergeCell ref="G519:L519"/>
-    <mergeCell ref="M519:R519"/>
-    <mergeCell ref="S519:X519"/>
-    <mergeCell ref="Y519:AD519"/>
-    <mergeCell ref="A520:F520"/>
-    <mergeCell ref="G520:L520"/>
-    <mergeCell ref="M520:R520"/>
-    <mergeCell ref="S520:X520"/>
-    <mergeCell ref="Y520:AD520"/>
-    <mergeCell ref="A549:F549"/>
-    <mergeCell ref="G549:L549"/>
-    <mergeCell ref="M549:R549"/>
-    <mergeCell ref="S549:X549"/>
-    <mergeCell ref="Y549:AD549"/>
-    <mergeCell ref="A550:F550"/>
-    <mergeCell ref="G550:L550"/>
-    <mergeCell ref="M550:R550"/>
-    <mergeCell ref="S550:X550"/>
-    <mergeCell ref="Y550:AD550"/>
-    <mergeCell ref="A564:F564"/>
-    <mergeCell ref="G564:L564"/>
-    <mergeCell ref="M564:R564"/>
-    <mergeCell ref="S564:X564"/>
-    <mergeCell ref="Y564:AD564"/>
-    <mergeCell ref="A565:F565"/>
-    <mergeCell ref="G565:L565"/>
-    <mergeCell ref="M565:R565"/>
-    <mergeCell ref="S565:X565"/>
-    <mergeCell ref="Y565:AD565"/>
-    <mergeCell ref="A579:F579"/>
-    <mergeCell ref="G579:L579"/>
-    <mergeCell ref="M579:R579"/>
-    <mergeCell ref="S579:X579"/>
-    <mergeCell ref="Y579:AD579"/>
-    <mergeCell ref="A580:F580"/>
-    <mergeCell ref="G580:L580"/>
-    <mergeCell ref="M580:R580"/>
-    <mergeCell ref="S580:X580"/>
-    <mergeCell ref="Y580:AD580"/>
-    <mergeCell ref="A609:F609"/>
-    <mergeCell ref="G609:L609"/>
-    <mergeCell ref="M609:R609"/>
-    <mergeCell ref="S609:X609"/>
-    <mergeCell ref="Y609:AD609"/>
-    <mergeCell ref="A610:F610"/>
-    <mergeCell ref="G610:L610"/>
-    <mergeCell ref="M610:R610"/>
-    <mergeCell ref="S610:X610"/>
-    <mergeCell ref="Y610:AD610"/>
-    <mergeCell ref="A624:F624"/>
-    <mergeCell ref="G624:L624"/>
-    <mergeCell ref="M624:R624"/>
-    <mergeCell ref="S624:X624"/>
-    <mergeCell ref="Y624:AD624"/>
-    <mergeCell ref="A625:F625"/>
-    <mergeCell ref="G625:L625"/>
-    <mergeCell ref="M625:R625"/>
-    <mergeCell ref="S625:X625"/>
-    <mergeCell ref="Y625:AD625"/>
-    <mergeCell ref="A639:F639"/>
-    <mergeCell ref="G639:L639"/>
-    <mergeCell ref="M639:R639"/>
-    <mergeCell ref="S639:X639"/>
-    <mergeCell ref="Y639:AD639"/>
-    <mergeCell ref="A640:F640"/>
-    <mergeCell ref="G640:L640"/>
-    <mergeCell ref="M640:R640"/>
-    <mergeCell ref="S640:X640"/>
-    <mergeCell ref="Y640:AD640"/>
-    <mergeCell ref="A654:F654"/>
-    <mergeCell ref="G654:L654"/>
-    <mergeCell ref="M654:R654"/>
-    <mergeCell ref="S654:X654"/>
-    <mergeCell ref="Y654:AD654"/>
-    <mergeCell ref="A655:F655"/>
-    <mergeCell ref="G655:L655"/>
-    <mergeCell ref="M655:R655"/>
-    <mergeCell ref="S655:X655"/>
-    <mergeCell ref="Y655:AD655"/>
-    <mergeCell ref="A669:F669"/>
-    <mergeCell ref="G669:L669"/>
-    <mergeCell ref="M669:R669"/>
-    <mergeCell ref="S669:X669"/>
-    <mergeCell ref="Y669:AD669"/>
-    <mergeCell ref="A670:F670"/>
-    <mergeCell ref="G670:L670"/>
-    <mergeCell ref="M670:R670"/>
-    <mergeCell ref="S670:X670"/>
-    <mergeCell ref="Y670:AD670"/>
-    <mergeCell ref="A684:F684"/>
-    <mergeCell ref="G684:L684"/>
-    <mergeCell ref="M684:R684"/>
-    <mergeCell ref="S684:X684"/>
-    <mergeCell ref="Y684:AD684"/>
-    <mergeCell ref="A700:F700"/>
-    <mergeCell ref="G700:L700"/>
-    <mergeCell ref="M700:R700"/>
-    <mergeCell ref="S700:X700"/>
-    <mergeCell ref="Y700:AD700"/>
-    <mergeCell ref="A699:F699"/>
-    <mergeCell ref="G699:L699"/>
-    <mergeCell ref="M699:R699"/>
-    <mergeCell ref="S699:X699"/>
-    <mergeCell ref="Y699:AD699"/>
-    <mergeCell ref="A685:F685"/>
-    <mergeCell ref="G685:L685"/>
-    <mergeCell ref="M685:R685"/>
-    <mergeCell ref="S685:X685"/>
-    <mergeCell ref="Y685:AD685"/>
-    <mergeCell ref="A714:F714"/>
-    <mergeCell ref="G714:L714"/>
-    <mergeCell ref="M714:R714"/>
-    <mergeCell ref="S714:X714"/>
-    <mergeCell ref="Y714:AD714"/>
-    <mergeCell ref="A715:F715"/>
-    <mergeCell ref="G715:L715"/>
-    <mergeCell ref="M715:R715"/>
-    <mergeCell ref="S715:X715"/>
-    <mergeCell ref="Y715:AD715"/>
-    <mergeCell ref="A729:F729"/>
-    <mergeCell ref="G729:L729"/>
-    <mergeCell ref="M729:R729"/>
-    <mergeCell ref="S729:X729"/>
-    <mergeCell ref="Y729:AD729"/>
-    <mergeCell ref="A730:F730"/>
-    <mergeCell ref="G730:L730"/>
-    <mergeCell ref="M730:R730"/>
-    <mergeCell ref="S730:X730"/>
-    <mergeCell ref="Y730:AD730"/>
-    <mergeCell ref="A744:F744"/>
-    <mergeCell ref="G744:L744"/>
-    <mergeCell ref="M744:R744"/>
-    <mergeCell ref="S744:X744"/>
-    <mergeCell ref="Y744:AD744"/>
-    <mergeCell ref="A745:F745"/>
-    <mergeCell ref="G745:L745"/>
-    <mergeCell ref="M745:R745"/>
-    <mergeCell ref="S745:X745"/>
-    <mergeCell ref="Y745:AD745"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="G759:L759"/>
-    <mergeCell ref="M759:R759"/>
-    <mergeCell ref="S759:X759"/>
-    <mergeCell ref="Y759:AD759"/>
-    <mergeCell ref="A760:F760"/>
-    <mergeCell ref="G760:L760"/>
-    <mergeCell ref="M760:R760"/>
-    <mergeCell ref="S760:X760"/>
-    <mergeCell ref="Y760:AD760"/>
-    <mergeCell ref="A774:F774"/>
-    <mergeCell ref="G774:L774"/>
-    <mergeCell ref="M774:R774"/>
-    <mergeCell ref="S774:X774"/>
-    <mergeCell ref="Y774:AD774"/>
-    <mergeCell ref="A775:F775"/>
-    <mergeCell ref="G775:L775"/>
-    <mergeCell ref="M775:R775"/>
-    <mergeCell ref="S775:X775"/>
-    <mergeCell ref="Y775:AD775"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:L124"/>
+    <mergeCell ref="M124:R124"/>
+    <mergeCell ref="S124:X124"/>
+    <mergeCell ref="Y124:AD124"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="G179:L179"/>
+    <mergeCell ref="M179:R179"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="Y179:AD179"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="G202:L202"/>
+    <mergeCell ref="M202:R202"/>
+    <mergeCell ref="S202:X202"/>
+    <mergeCell ref="Y202:AD202"/>
+    <mergeCell ref="A187:F187"/>
+    <mergeCell ref="G187:L187"/>
+    <mergeCell ref="M187:R187"/>
+    <mergeCell ref="S187:X187"/>
+    <mergeCell ref="Y187:AD187"/>
+    <mergeCell ref="A188:F188"/>
+    <mergeCell ref="G188:L188"/>
+    <mergeCell ref="M188:R188"/>
+    <mergeCell ref="S188:X188"/>
+    <mergeCell ref="Y188:AD188"/>
+    <mergeCell ref="Y309:AD309"/>
+    <mergeCell ref="A324:F324"/>
+    <mergeCell ref="G324:L324"/>
+    <mergeCell ref="M324:R324"/>
+    <mergeCell ref="S324:X324"/>
+    <mergeCell ref="Y324:AD324"/>
+    <mergeCell ref="A340:F340"/>
+    <mergeCell ref="G340:L340"/>
+    <mergeCell ref="M340:R340"/>
+    <mergeCell ref="S340:X340"/>
+    <mergeCell ref="Y340:AD340"/>
+    <mergeCell ref="A339:F339"/>
+    <mergeCell ref="G339:L339"/>
+    <mergeCell ref="M339:R339"/>
+    <mergeCell ref="S339:X339"/>
+    <mergeCell ref="Y339:AD339"/>
+    <mergeCell ref="A444:F444"/>
+    <mergeCell ref="G444:L444"/>
+    <mergeCell ref="M444:R444"/>
+    <mergeCell ref="S444:X444"/>
+    <mergeCell ref="Y444:AD444"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="G460:L460"/>
+    <mergeCell ref="M460:R460"/>
+    <mergeCell ref="S460:X460"/>
+    <mergeCell ref="Y460:AD460"/>
+    <mergeCell ref="A445:F445"/>
+    <mergeCell ref="G445:L445"/>
+    <mergeCell ref="M445:R445"/>
+    <mergeCell ref="S445:X445"/>
+    <mergeCell ref="Y445:AD445"/>
+    <mergeCell ref="A459:F459"/>
+    <mergeCell ref="G459:L459"/>
+    <mergeCell ref="M459:R459"/>
+    <mergeCell ref="S459:X459"/>
+    <mergeCell ref="Y459:AD459"/>
+    <mergeCell ref="A504:F504"/>
+    <mergeCell ref="G504:L504"/>
+    <mergeCell ref="M504:R504"/>
+    <mergeCell ref="S504:X504"/>
+    <mergeCell ref="Y504:AD504"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="G505:L505"/>
+    <mergeCell ref="M505:R505"/>
+    <mergeCell ref="S505:X505"/>
+    <mergeCell ref="Y505:AD505"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="G534:L534"/>
+    <mergeCell ref="M534:R534"/>
+    <mergeCell ref="S534:X534"/>
+    <mergeCell ref="Y534:AD534"/>
+    <mergeCell ref="A535:F535"/>
+    <mergeCell ref="G535:L535"/>
+    <mergeCell ref="M535:R535"/>
+    <mergeCell ref="S535:X535"/>
+    <mergeCell ref="Y535:AD535"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38684,10 +38703,10 @@
       <c r="A1" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="208">
+      <c r="B1" s="211">
         <v>0.51</v>
       </c>
-      <c r="C1" s="208"/>
+      <c r="C1" s="211"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -38696,10 +38715,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="208">
+      <c r="B2" s="211">
         <v>0.54</v>
       </c>
-      <c r="C2" s="208"/>
+      <c r="C2" s="211"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -38708,10 +38727,10 @@
       <c r="A3" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="208">
+      <c r="B3" s="211">
         <v>0.51</v>
       </c>
-      <c r="C3" s="208"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -38720,10 +38739,10 @@
       <c r="A4" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="208">
+      <c r="B4" s="211">
         <v>0.54</v>
       </c>
-      <c r="C4" s="208"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -38765,7 +38784,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="211">
+      <c r="E8" s="208">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -38778,7 +38797,7 @@
       <c r="B9" s="209"/>
       <c r="C9" s="209"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="211"/>
+      <c r="E9" s="208"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38818,7 +38837,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="211">
+      <c r="E13" s="208">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -38831,7 +38850,7 @@
       <c r="B14" s="209"/>
       <c r="C14" s="209"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="211"/>
+      <c r="E14" s="208"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38871,7 +38890,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="211">
+      <c r="E18" s="208">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -38884,7 +38903,7 @@
       <c r="B19" s="209"/>
       <c r="C19" s="209"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="211"/>
+      <c r="E19" s="208"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -38929,6 +38948,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -38936,12 +38961,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="114_{C59B5EEC-97BB-4403-A512-1BBDF44431D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DDDDF89A-71F9-40B0-BAE1-23AE09CA1AD1}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="114_{C59B5EEC-97BB-4403-A512-1BBDF44431D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8DF4DC30-EA8B-487D-859D-8F189E75FF82}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="6315" windowWidth="27870" windowHeight="9885" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="-1725" yWindow="5250" windowWidth="27870" windowHeight="9885" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="269">
   <si>
     <t>Pillar</t>
   </si>
@@ -835,6 +835,15 @@
   </si>
   <si>
     <t>LAYHONG</t>
+  </si>
+  <si>
+    <t>REDTONE</t>
+  </si>
+  <si>
+    <t>SSTEEL</t>
+  </si>
+  <si>
+    <t>TNLOGIS</t>
   </si>
 </sst>
 </file>
@@ -2565,8 +2574,8 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2574,8 +2583,8 @@
     <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3011,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K240" sqref="K240"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S241" sqref="S241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12996,13 +13005,17 @@
       <c r="J237" s="92"/>
       <c r="K237" s="92"/>
       <c r="L237" s="93"/>
-      <c r="M237" s="90"/>
+      <c r="M237" s="90" t="s">
+        <v>257</v>
+      </c>
       <c r="N237" s="91"/>
       <c r="O237" s="92"/>
       <c r="P237" s="92"/>
       <c r="Q237" s="92"/>
       <c r="R237" s="93"/>
-      <c r="S237" s="90"/>
+      <c r="S237" s="90" t="s">
+        <v>18</v>
+      </c>
       <c r="T237" s="91"/>
       <c r="U237" s="92"/>
       <c r="V237" s="92"/>
@@ -13030,13 +13043,17 @@
       <c r="J238" s="92"/>
       <c r="K238" s="92"/>
       <c r="L238" s="93"/>
-      <c r="M238" s="90"/>
+      <c r="M238" s="90" t="s">
+        <v>266</v>
+      </c>
       <c r="N238" s="91"/>
       <c r="O238" s="92"/>
       <c r="P238" s="92"/>
       <c r="Q238" s="92"/>
       <c r="R238" s="93"/>
-      <c r="S238" s="90"/>
+      <c r="S238" s="90" t="s">
+        <v>267</v>
+      </c>
       <c r="T238" s="91"/>
       <c r="U238" s="92"/>
       <c r="V238" s="92"/>
@@ -13064,13 +13081,17 @@
       <c r="J239" s="92"/>
       <c r="K239" s="92"/>
       <c r="L239" s="93"/>
-      <c r="M239" s="90"/>
+      <c r="M239" s="90" t="s">
+        <v>236</v>
+      </c>
       <c r="N239" s="91"/>
       <c r="O239" s="92"/>
       <c r="P239" s="92"/>
       <c r="Q239" s="92"/>
       <c r="R239" s="93"/>
-      <c r="S239" s="90"/>
+      <c r="S239" s="90" t="s">
+        <v>268</v>
+      </c>
       <c r="T239" s="91"/>
       <c r="U239" s="92"/>
       <c r="V239" s="92"/>
@@ -13096,13 +13117,17 @@
       <c r="J240" s="92"/>
       <c r="K240" s="92"/>
       <c r="L240" s="93"/>
-      <c r="M240" s="90"/>
+      <c r="M240" s="90" t="s">
+        <v>56</v>
+      </c>
       <c r="N240" s="91"/>
       <c r="O240" s="92"/>
       <c r="P240" s="92"/>
       <c r="Q240" s="92"/>
       <c r="R240" s="93"/>
-      <c r="S240" s="90"/>
+      <c r="S240" s="90" t="s">
+        <v>189</v>
+      </c>
       <c r="T240" s="91"/>
       <c r="U240" s="92"/>
       <c r="V240" s="92"/>
@@ -13128,7 +13153,9 @@
       <c r="J241" s="92"/>
       <c r="K241" s="92"/>
       <c r="L241" s="93"/>
-      <c r="M241" s="90"/>
+      <c r="M241" s="90" t="s">
+        <v>57</v>
+      </c>
       <c r="N241" s="91"/>
       <c r="O241" s="92"/>
       <c r="P241" s="92"/>
@@ -13160,7 +13187,9 @@
       <c r="J242" s="92"/>
       <c r="K242" s="92"/>
       <c r="L242" s="93"/>
-      <c r="M242" s="90"/>
+      <c r="M242" s="90" t="s">
+        <v>7</v>
+      </c>
       <c r="N242" s="91"/>
       <c r="O242" s="92"/>
       <c r="P242" s="92"/>
@@ -13192,7 +13221,9 @@
       <c r="J243" s="92"/>
       <c r="K243" s="92"/>
       <c r="L243" s="93"/>
-      <c r="M243" s="90"/>
+      <c r="M243" s="90" t="s">
+        <v>208</v>
+      </c>
       <c r="N243" s="91"/>
       <c r="O243" s="92"/>
       <c r="P243" s="92"/>
@@ -13224,7 +13255,9 @@
       <c r="J244" s="92"/>
       <c r="K244" s="92"/>
       <c r="L244" s="93"/>
-      <c r="M244" s="90"/>
+      <c r="M244" s="90" t="s">
+        <v>188</v>
+      </c>
       <c r="N244" s="91"/>
       <c r="O244" s="92"/>
       <c r="P244" s="92"/>
@@ -33908,206 +33941,232 @@
     </row>
   </sheetData>
   <mergeCells count="450">
-    <mergeCell ref="A774:F774"/>
-    <mergeCell ref="G774:L774"/>
-    <mergeCell ref="M774:R774"/>
-    <mergeCell ref="S774:X774"/>
-    <mergeCell ref="Y774:AD774"/>
-    <mergeCell ref="A775:F775"/>
-    <mergeCell ref="G775:L775"/>
-    <mergeCell ref="M775:R775"/>
-    <mergeCell ref="S775:X775"/>
-    <mergeCell ref="Y775:AD775"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="G759:L759"/>
-    <mergeCell ref="M759:R759"/>
-    <mergeCell ref="S759:X759"/>
-    <mergeCell ref="Y759:AD759"/>
-    <mergeCell ref="A760:F760"/>
-    <mergeCell ref="G760:L760"/>
-    <mergeCell ref="M760:R760"/>
-    <mergeCell ref="S760:X760"/>
-    <mergeCell ref="Y760:AD760"/>
-    <mergeCell ref="A744:F744"/>
-    <mergeCell ref="G744:L744"/>
-    <mergeCell ref="M744:R744"/>
-    <mergeCell ref="S744:X744"/>
-    <mergeCell ref="Y744:AD744"/>
-    <mergeCell ref="A745:F745"/>
-    <mergeCell ref="G745:L745"/>
-    <mergeCell ref="M745:R745"/>
-    <mergeCell ref="S745:X745"/>
-    <mergeCell ref="Y745:AD745"/>
-    <mergeCell ref="A729:F729"/>
-    <mergeCell ref="G729:L729"/>
-    <mergeCell ref="M729:R729"/>
-    <mergeCell ref="S729:X729"/>
-    <mergeCell ref="Y729:AD729"/>
-    <mergeCell ref="A730:F730"/>
-    <mergeCell ref="G730:L730"/>
-    <mergeCell ref="M730:R730"/>
-    <mergeCell ref="S730:X730"/>
-    <mergeCell ref="Y730:AD730"/>
-    <mergeCell ref="A714:F714"/>
-    <mergeCell ref="G714:L714"/>
-    <mergeCell ref="M714:R714"/>
-    <mergeCell ref="S714:X714"/>
-    <mergeCell ref="Y714:AD714"/>
-    <mergeCell ref="A715:F715"/>
-    <mergeCell ref="G715:L715"/>
-    <mergeCell ref="M715:R715"/>
-    <mergeCell ref="S715:X715"/>
-    <mergeCell ref="Y715:AD715"/>
-    <mergeCell ref="A684:F684"/>
-    <mergeCell ref="G684:L684"/>
-    <mergeCell ref="M684:R684"/>
-    <mergeCell ref="S684:X684"/>
-    <mergeCell ref="Y684:AD684"/>
-    <mergeCell ref="A700:F700"/>
-    <mergeCell ref="G700:L700"/>
-    <mergeCell ref="M700:R700"/>
-    <mergeCell ref="S700:X700"/>
-    <mergeCell ref="Y700:AD700"/>
-    <mergeCell ref="A699:F699"/>
-    <mergeCell ref="G699:L699"/>
-    <mergeCell ref="M699:R699"/>
-    <mergeCell ref="S699:X699"/>
-    <mergeCell ref="Y699:AD699"/>
-    <mergeCell ref="A685:F685"/>
-    <mergeCell ref="G685:L685"/>
-    <mergeCell ref="M685:R685"/>
-    <mergeCell ref="S685:X685"/>
-    <mergeCell ref="Y685:AD685"/>
-    <mergeCell ref="A669:F669"/>
-    <mergeCell ref="G669:L669"/>
-    <mergeCell ref="M669:R669"/>
-    <mergeCell ref="S669:X669"/>
-    <mergeCell ref="Y669:AD669"/>
-    <mergeCell ref="A670:F670"/>
-    <mergeCell ref="G670:L670"/>
-    <mergeCell ref="M670:R670"/>
-    <mergeCell ref="S670:X670"/>
-    <mergeCell ref="Y670:AD670"/>
-    <mergeCell ref="A654:F654"/>
-    <mergeCell ref="G654:L654"/>
-    <mergeCell ref="M654:R654"/>
-    <mergeCell ref="S654:X654"/>
-    <mergeCell ref="Y654:AD654"/>
-    <mergeCell ref="A655:F655"/>
-    <mergeCell ref="G655:L655"/>
-    <mergeCell ref="M655:R655"/>
-    <mergeCell ref="S655:X655"/>
-    <mergeCell ref="Y655:AD655"/>
-    <mergeCell ref="A639:F639"/>
-    <mergeCell ref="G639:L639"/>
-    <mergeCell ref="M639:R639"/>
-    <mergeCell ref="S639:X639"/>
-    <mergeCell ref="Y639:AD639"/>
-    <mergeCell ref="A640:F640"/>
-    <mergeCell ref="G640:L640"/>
-    <mergeCell ref="M640:R640"/>
-    <mergeCell ref="S640:X640"/>
-    <mergeCell ref="Y640:AD640"/>
-    <mergeCell ref="A624:F624"/>
-    <mergeCell ref="G624:L624"/>
-    <mergeCell ref="M624:R624"/>
-    <mergeCell ref="S624:X624"/>
-    <mergeCell ref="Y624:AD624"/>
-    <mergeCell ref="A625:F625"/>
-    <mergeCell ref="G625:L625"/>
-    <mergeCell ref="M625:R625"/>
-    <mergeCell ref="S625:X625"/>
-    <mergeCell ref="Y625:AD625"/>
-    <mergeCell ref="A609:F609"/>
-    <mergeCell ref="G609:L609"/>
-    <mergeCell ref="M609:R609"/>
-    <mergeCell ref="S609:X609"/>
-    <mergeCell ref="Y609:AD609"/>
-    <mergeCell ref="A610:F610"/>
-    <mergeCell ref="G610:L610"/>
-    <mergeCell ref="M610:R610"/>
-    <mergeCell ref="S610:X610"/>
-    <mergeCell ref="Y610:AD610"/>
-    <mergeCell ref="A579:F579"/>
-    <mergeCell ref="G579:L579"/>
-    <mergeCell ref="M579:R579"/>
-    <mergeCell ref="S579:X579"/>
-    <mergeCell ref="Y579:AD579"/>
-    <mergeCell ref="A580:F580"/>
-    <mergeCell ref="G580:L580"/>
-    <mergeCell ref="M580:R580"/>
-    <mergeCell ref="S580:X580"/>
-    <mergeCell ref="Y580:AD580"/>
-    <mergeCell ref="A564:F564"/>
-    <mergeCell ref="G564:L564"/>
-    <mergeCell ref="M564:R564"/>
-    <mergeCell ref="S564:X564"/>
-    <mergeCell ref="Y564:AD564"/>
-    <mergeCell ref="A565:F565"/>
-    <mergeCell ref="G565:L565"/>
-    <mergeCell ref="M565:R565"/>
-    <mergeCell ref="S565:X565"/>
-    <mergeCell ref="Y565:AD565"/>
-    <mergeCell ref="A549:F549"/>
-    <mergeCell ref="G549:L549"/>
-    <mergeCell ref="M549:R549"/>
-    <mergeCell ref="S549:X549"/>
-    <mergeCell ref="Y549:AD549"/>
-    <mergeCell ref="A550:F550"/>
-    <mergeCell ref="G550:L550"/>
-    <mergeCell ref="M550:R550"/>
-    <mergeCell ref="S550:X550"/>
-    <mergeCell ref="Y550:AD550"/>
-    <mergeCell ref="A519:F519"/>
-    <mergeCell ref="G519:L519"/>
-    <mergeCell ref="M519:R519"/>
-    <mergeCell ref="S519:X519"/>
-    <mergeCell ref="Y519:AD519"/>
-    <mergeCell ref="A520:F520"/>
-    <mergeCell ref="G520:L520"/>
-    <mergeCell ref="M520:R520"/>
-    <mergeCell ref="S520:X520"/>
-    <mergeCell ref="Y520:AD520"/>
-    <mergeCell ref="A429:F429"/>
-    <mergeCell ref="G429:L429"/>
-    <mergeCell ref="M429:R429"/>
-    <mergeCell ref="S429:X429"/>
-    <mergeCell ref="Y429:AD429"/>
-    <mergeCell ref="A430:F430"/>
-    <mergeCell ref="G430:L430"/>
-    <mergeCell ref="M430:R430"/>
-    <mergeCell ref="S430:X430"/>
-    <mergeCell ref="Y430:AD430"/>
-    <mergeCell ref="A384:F384"/>
-    <mergeCell ref="G384:L384"/>
-    <mergeCell ref="M384:R384"/>
-    <mergeCell ref="S384:X384"/>
-    <mergeCell ref="Y384:AD384"/>
-    <mergeCell ref="A385:F385"/>
-    <mergeCell ref="G385:L385"/>
-    <mergeCell ref="M385:R385"/>
-    <mergeCell ref="S385:X385"/>
-    <mergeCell ref="Y385:AD385"/>
-    <mergeCell ref="A369:F369"/>
-    <mergeCell ref="G369:L369"/>
-    <mergeCell ref="M369:R369"/>
-    <mergeCell ref="S369:X369"/>
-    <mergeCell ref="Y369:AD369"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="G370:L370"/>
-    <mergeCell ref="M370:R370"/>
-    <mergeCell ref="S370:X370"/>
-    <mergeCell ref="Y370:AD370"/>
-    <mergeCell ref="A354:F354"/>
-    <mergeCell ref="G354:L354"/>
-    <mergeCell ref="M354:R354"/>
-    <mergeCell ref="S354:X354"/>
-    <mergeCell ref="Y354:AD354"/>
-    <mergeCell ref="A355:F355"/>
-    <mergeCell ref="G355:L355"/>
-    <mergeCell ref="M355:R355"/>
-    <mergeCell ref="S355:X355"/>
-    <mergeCell ref="Y355:AD355"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="G534:L534"/>
+    <mergeCell ref="M534:R534"/>
+    <mergeCell ref="S534:X534"/>
+    <mergeCell ref="Y534:AD534"/>
+    <mergeCell ref="A535:F535"/>
+    <mergeCell ref="G535:L535"/>
+    <mergeCell ref="M535:R535"/>
+    <mergeCell ref="S535:X535"/>
+    <mergeCell ref="Y535:AD535"/>
+    <mergeCell ref="A504:F504"/>
+    <mergeCell ref="G504:L504"/>
+    <mergeCell ref="M504:R504"/>
+    <mergeCell ref="S504:X504"/>
+    <mergeCell ref="Y504:AD504"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="G505:L505"/>
+    <mergeCell ref="M505:R505"/>
+    <mergeCell ref="S505:X505"/>
+    <mergeCell ref="Y505:AD505"/>
+    <mergeCell ref="A444:F444"/>
+    <mergeCell ref="G444:L444"/>
+    <mergeCell ref="M444:R444"/>
+    <mergeCell ref="S444:X444"/>
+    <mergeCell ref="Y444:AD444"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="G460:L460"/>
+    <mergeCell ref="M460:R460"/>
+    <mergeCell ref="S460:X460"/>
+    <mergeCell ref="Y460:AD460"/>
+    <mergeCell ref="A445:F445"/>
+    <mergeCell ref="G445:L445"/>
+    <mergeCell ref="M445:R445"/>
+    <mergeCell ref="S445:X445"/>
+    <mergeCell ref="Y445:AD445"/>
+    <mergeCell ref="A459:F459"/>
+    <mergeCell ref="G459:L459"/>
+    <mergeCell ref="M459:R459"/>
+    <mergeCell ref="S459:X459"/>
+    <mergeCell ref="Y459:AD459"/>
+    <mergeCell ref="Y309:AD309"/>
+    <mergeCell ref="A324:F324"/>
+    <mergeCell ref="G324:L324"/>
+    <mergeCell ref="M324:R324"/>
+    <mergeCell ref="S324:X324"/>
+    <mergeCell ref="Y324:AD324"/>
+    <mergeCell ref="A340:F340"/>
+    <mergeCell ref="G340:L340"/>
+    <mergeCell ref="M340:R340"/>
+    <mergeCell ref="S340:X340"/>
+    <mergeCell ref="Y340:AD340"/>
+    <mergeCell ref="A339:F339"/>
+    <mergeCell ref="G339:L339"/>
+    <mergeCell ref="M339:R339"/>
+    <mergeCell ref="S339:X339"/>
+    <mergeCell ref="Y339:AD339"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="G202:L202"/>
+    <mergeCell ref="M202:R202"/>
+    <mergeCell ref="S202:X202"/>
+    <mergeCell ref="Y202:AD202"/>
+    <mergeCell ref="A187:F187"/>
+    <mergeCell ref="G187:L187"/>
+    <mergeCell ref="M187:R187"/>
+    <mergeCell ref="S187:X187"/>
+    <mergeCell ref="Y187:AD187"/>
+    <mergeCell ref="A188:F188"/>
+    <mergeCell ref="G188:L188"/>
+    <mergeCell ref="M188:R188"/>
+    <mergeCell ref="S188:X188"/>
+    <mergeCell ref="Y188:AD188"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:L124"/>
+    <mergeCell ref="M124:R124"/>
+    <mergeCell ref="S124:X124"/>
+    <mergeCell ref="Y124:AD124"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="G179:L179"/>
+    <mergeCell ref="M179:R179"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="Y179:AD179"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A250:F250"/>
+    <mergeCell ref="G250:L250"/>
+    <mergeCell ref="M250:R250"/>
+    <mergeCell ref="S250:X250"/>
+    <mergeCell ref="Y250:AD250"/>
+    <mergeCell ref="A203:F203"/>
+    <mergeCell ref="G203:L203"/>
+    <mergeCell ref="M203:R203"/>
+    <mergeCell ref="S203:X203"/>
+    <mergeCell ref="Y203:AD203"/>
+    <mergeCell ref="A219:F219"/>
+    <mergeCell ref="G219:L219"/>
+    <mergeCell ref="M219:R219"/>
+    <mergeCell ref="S219:X219"/>
+    <mergeCell ref="Y219:AD219"/>
+    <mergeCell ref="A218:F218"/>
+    <mergeCell ref="G218:L218"/>
+    <mergeCell ref="M218:R218"/>
+    <mergeCell ref="S218:X218"/>
+    <mergeCell ref="Y218:AD218"/>
+    <mergeCell ref="A234:F234"/>
+    <mergeCell ref="G234:L234"/>
+    <mergeCell ref="M234:R234"/>
+    <mergeCell ref="S234:X234"/>
+    <mergeCell ref="A264:F264"/>
+    <mergeCell ref="G264:L264"/>
+    <mergeCell ref="M264:R264"/>
+    <mergeCell ref="S264:X264"/>
+    <mergeCell ref="Y264:AD264"/>
+    <mergeCell ref="A265:F265"/>
+    <mergeCell ref="G265:L265"/>
+    <mergeCell ref="M265:R265"/>
+    <mergeCell ref="S265:X265"/>
+    <mergeCell ref="Y265:AD265"/>
+    <mergeCell ref="A279:F279"/>
+    <mergeCell ref="G279:L279"/>
+    <mergeCell ref="M279:R279"/>
+    <mergeCell ref="S279:X279"/>
+    <mergeCell ref="Y279:AD279"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="G280:L280"/>
+    <mergeCell ref="M280:R280"/>
+    <mergeCell ref="S280:X280"/>
+    <mergeCell ref="Y280:AD280"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="G415:L415"/>
+    <mergeCell ref="M415:R415"/>
+    <mergeCell ref="S415:X415"/>
+    <mergeCell ref="Y415:AD415"/>
+    <mergeCell ref="A399:F399"/>
+    <mergeCell ref="G399:L399"/>
+    <mergeCell ref="M399:R399"/>
+    <mergeCell ref="S399:X399"/>
+    <mergeCell ref="Y399:AD399"/>
+    <mergeCell ref="A400:F400"/>
+    <mergeCell ref="G400:L400"/>
+    <mergeCell ref="M400:R400"/>
+    <mergeCell ref="S400:X400"/>
+    <mergeCell ref="Y400:AD400"/>
+    <mergeCell ref="A414:F414"/>
+    <mergeCell ref="G414:L414"/>
+    <mergeCell ref="M414:R414"/>
+    <mergeCell ref="S414:X414"/>
+    <mergeCell ref="Y414:AD414"/>
+    <mergeCell ref="A474:F474"/>
+    <mergeCell ref="G474:L474"/>
+    <mergeCell ref="M474:R474"/>
+    <mergeCell ref="S474:X474"/>
+    <mergeCell ref="Y474:AD474"/>
+    <mergeCell ref="A475:F475"/>
+    <mergeCell ref="G475:L475"/>
+    <mergeCell ref="M475:R475"/>
+    <mergeCell ref="S475:X475"/>
+    <mergeCell ref="Y475:AD475"/>
+    <mergeCell ref="A490:F490"/>
+    <mergeCell ref="G490:L490"/>
+    <mergeCell ref="M490:R490"/>
+    <mergeCell ref="S490:X490"/>
+    <mergeCell ref="Y490:AD490"/>
+    <mergeCell ref="A489:F489"/>
+    <mergeCell ref="G489:L489"/>
+    <mergeCell ref="M489:R489"/>
+    <mergeCell ref="S489:X489"/>
+    <mergeCell ref="Y489:AD489"/>
+    <mergeCell ref="A594:F594"/>
+    <mergeCell ref="G594:L594"/>
+    <mergeCell ref="M594:R594"/>
+    <mergeCell ref="S594:X594"/>
+    <mergeCell ref="Y594:AD594"/>
+    <mergeCell ref="A595:F595"/>
+    <mergeCell ref="G595:L595"/>
+    <mergeCell ref="M595:R595"/>
+    <mergeCell ref="S595:X595"/>
+    <mergeCell ref="Y595:AD595"/>
+    <mergeCell ref="A789:F789"/>
+    <mergeCell ref="G789:L789"/>
+    <mergeCell ref="M789:R789"/>
+    <mergeCell ref="S789:X789"/>
+    <mergeCell ref="Y789:AD789"/>
+    <mergeCell ref="A790:F790"/>
+    <mergeCell ref="G790:L790"/>
+    <mergeCell ref="M790:R790"/>
+    <mergeCell ref="S790:X790"/>
+    <mergeCell ref="Y790:AD790"/>
+    <mergeCell ref="Y234:AD234"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="G235:L235"/>
+    <mergeCell ref="M235:R235"/>
+    <mergeCell ref="S235:X235"/>
+    <mergeCell ref="Y235:AD235"/>
+    <mergeCell ref="A249:F249"/>
+    <mergeCell ref="G249:L249"/>
+    <mergeCell ref="M249:R249"/>
+    <mergeCell ref="S249:X249"/>
+    <mergeCell ref="Y249:AD249"/>
     <mergeCell ref="Y294:AD294"/>
     <mergeCell ref="A310:F310"/>
     <mergeCell ref="G310:L310"/>
@@ -34132,232 +34191,206 @@
     <mergeCell ref="G309:L309"/>
     <mergeCell ref="M309:R309"/>
     <mergeCell ref="S309:X309"/>
-    <mergeCell ref="Y234:AD234"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="G235:L235"/>
-    <mergeCell ref="M235:R235"/>
-    <mergeCell ref="S235:X235"/>
-    <mergeCell ref="Y235:AD235"/>
-    <mergeCell ref="A249:F249"/>
-    <mergeCell ref="G249:L249"/>
-    <mergeCell ref="M249:R249"/>
-    <mergeCell ref="S249:X249"/>
-    <mergeCell ref="Y249:AD249"/>
-    <mergeCell ref="A789:F789"/>
-    <mergeCell ref="G789:L789"/>
-    <mergeCell ref="M789:R789"/>
-    <mergeCell ref="S789:X789"/>
-    <mergeCell ref="Y789:AD789"/>
-    <mergeCell ref="A790:F790"/>
-    <mergeCell ref="G790:L790"/>
-    <mergeCell ref="M790:R790"/>
-    <mergeCell ref="S790:X790"/>
-    <mergeCell ref="Y790:AD790"/>
-    <mergeCell ref="A594:F594"/>
-    <mergeCell ref="G594:L594"/>
-    <mergeCell ref="M594:R594"/>
-    <mergeCell ref="S594:X594"/>
-    <mergeCell ref="Y594:AD594"/>
-    <mergeCell ref="A595:F595"/>
-    <mergeCell ref="G595:L595"/>
-    <mergeCell ref="M595:R595"/>
-    <mergeCell ref="S595:X595"/>
-    <mergeCell ref="Y595:AD595"/>
-    <mergeCell ref="A490:F490"/>
-    <mergeCell ref="G490:L490"/>
-    <mergeCell ref="M490:R490"/>
-    <mergeCell ref="S490:X490"/>
-    <mergeCell ref="Y490:AD490"/>
-    <mergeCell ref="A489:F489"/>
-    <mergeCell ref="G489:L489"/>
-    <mergeCell ref="M489:R489"/>
-    <mergeCell ref="S489:X489"/>
-    <mergeCell ref="Y489:AD489"/>
-    <mergeCell ref="A474:F474"/>
-    <mergeCell ref="G474:L474"/>
-    <mergeCell ref="M474:R474"/>
-    <mergeCell ref="S474:X474"/>
-    <mergeCell ref="Y474:AD474"/>
-    <mergeCell ref="A475:F475"/>
-    <mergeCell ref="G475:L475"/>
-    <mergeCell ref="M475:R475"/>
-    <mergeCell ref="S475:X475"/>
-    <mergeCell ref="Y475:AD475"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="G415:L415"/>
-    <mergeCell ref="M415:R415"/>
-    <mergeCell ref="S415:X415"/>
-    <mergeCell ref="Y415:AD415"/>
-    <mergeCell ref="A399:F399"/>
-    <mergeCell ref="G399:L399"/>
-    <mergeCell ref="M399:R399"/>
-    <mergeCell ref="S399:X399"/>
-    <mergeCell ref="Y399:AD399"/>
-    <mergeCell ref="A400:F400"/>
-    <mergeCell ref="G400:L400"/>
-    <mergeCell ref="M400:R400"/>
-    <mergeCell ref="S400:X400"/>
-    <mergeCell ref="Y400:AD400"/>
-    <mergeCell ref="A414:F414"/>
-    <mergeCell ref="G414:L414"/>
-    <mergeCell ref="M414:R414"/>
-    <mergeCell ref="S414:X414"/>
-    <mergeCell ref="Y414:AD414"/>
-    <mergeCell ref="A279:F279"/>
-    <mergeCell ref="G279:L279"/>
-    <mergeCell ref="M279:R279"/>
-    <mergeCell ref="S279:X279"/>
-    <mergeCell ref="Y279:AD279"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="G280:L280"/>
-    <mergeCell ref="M280:R280"/>
-    <mergeCell ref="S280:X280"/>
-    <mergeCell ref="Y280:AD280"/>
-    <mergeCell ref="A264:F264"/>
-    <mergeCell ref="G264:L264"/>
-    <mergeCell ref="M264:R264"/>
-    <mergeCell ref="S264:X264"/>
-    <mergeCell ref="Y264:AD264"/>
-    <mergeCell ref="A265:F265"/>
-    <mergeCell ref="G265:L265"/>
-    <mergeCell ref="M265:R265"/>
-    <mergeCell ref="S265:X265"/>
-    <mergeCell ref="Y265:AD265"/>
-    <mergeCell ref="A250:F250"/>
-    <mergeCell ref="G250:L250"/>
-    <mergeCell ref="M250:R250"/>
-    <mergeCell ref="S250:X250"/>
-    <mergeCell ref="Y250:AD250"/>
-    <mergeCell ref="A203:F203"/>
-    <mergeCell ref="G203:L203"/>
-    <mergeCell ref="M203:R203"/>
-    <mergeCell ref="S203:X203"/>
-    <mergeCell ref="Y203:AD203"/>
-    <mergeCell ref="A219:F219"/>
-    <mergeCell ref="G219:L219"/>
-    <mergeCell ref="M219:R219"/>
-    <mergeCell ref="S219:X219"/>
-    <mergeCell ref="Y219:AD219"/>
-    <mergeCell ref="A218:F218"/>
-    <mergeCell ref="G218:L218"/>
-    <mergeCell ref="M218:R218"/>
-    <mergeCell ref="S218:X218"/>
-    <mergeCell ref="Y218:AD218"/>
-    <mergeCell ref="A234:F234"/>
-    <mergeCell ref="G234:L234"/>
-    <mergeCell ref="M234:R234"/>
-    <mergeCell ref="S234:X234"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:L124"/>
-    <mergeCell ref="M124:R124"/>
-    <mergeCell ref="S124:X124"/>
-    <mergeCell ref="Y124:AD124"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="G179:L179"/>
-    <mergeCell ref="M179:R179"/>
-    <mergeCell ref="S179:X179"/>
-    <mergeCell ref="Y179:AD179"/>
-    <mergeCell ref="A202:F202"/>
-    <mergeCell ref="G202:L202"/>
-    <mergeCell ref="M202:R202"/>
-    <mergeCell ref="S202:X202"/>
-    <mergeCell ref="Y202:AD202"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="G187:L187"/>
-    <mergeCell ref="M187:R187"/>
-    <mergeCell ref="S187:X187"/>
-    <mergeCell ref="Y187:AD187"/>
-    <mergeCell ref="A188:F188"/>
-    <mergeCell ref="G188:L188"/>
-    <mergeCell ref="M188:R188"/>
-    <mergeCell ref="S188:X188"/>
-    <mergeCell ref="Y188:AD188"/>
-    <mergeCell ref="Y309:AD309"/>
-    <mergeCell ref="A324:F324"/>
-    <mergeCell ref="G324:L324"/>
-    <mergeCell ref="M324:R324"/>
-    <mergeCell ref="S324:X324"/>
-    <mergeCell ref="Y324:AD324"/>
-    <mergeCell ref="A340:F340"/>
-    <mergeCell ref="G340:L340"/>
-    <mergeCell ref="M340:R340"/>
-    <mergeCell ref="S340:X340"/>
-    <mergeCell ref="Y340:AD340"/>
-    <mergeCell ref="A339:F339"/>
-    <mergeCell ref="G339:L339"/>
-    <mergeCell ref="M339:R339"/>
-    <mergeCell ref="S339:X339"/>
-    <mergeCell ref="Y339:AD339"/>
-    <mergeCell ref="A444:F444"/>
-    <mergeCell ref="G444:L444"/>
-    <mergeCell ref="M444:R444"/>
-    <mergeCell ref="S444:X444"/>
-    <mergeCell ref="Y444:AD444"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="G460:L460"/>
-    <mergeCell ref="M460:R460"/>
-    <mergeCell ref="S460:X460"/>
-    <mergeCell ref="Y460:AD460"/>
-    <mergeCell ref="A445:F445"/>
-    <mergeCell ref="G445:L445"/>
-    <mergeCell ref="M445:R445"/>
-    <mergeCell ref="S445:X445"/>
-    <mergeCell ref="Y445:AD445"/>
-    <mergeCell ref="A459:F459"/>
-    <mergeCell ref="G459:L459"/>
-    <mergeCell ref="M459:R459"/>
-    <mergeCell ref="S459:X459"/>
-    <mergeCell ref="Y459:AD459"/>
-    <mergeCell ref="A504:F504"/>
-    <mergeCell ref="G504:L504"/>
-    <mergeCell ref="M504:R504"/>
-    <mergeCell ref="S504:X504"/>
-    <mergeCell ref="Y504:AD504"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="G505:L505"/>
-    <mergeCell ref="M505:R505"/>
-    <mergeCell ref="S505:X505"/>
-    <mergeCell ref="Y505:AD505"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="G534:L534"/>
-    <mergeCell ref="M534:R534"/>
-    <mergeCell ref="S534:X534"/>
-    <mergeCell ref="Y534:AD534"/>
-    <mergeCell ref="A535:F535"/>
-    <mergeCell ref="G535:L535"/>
-    <mergeCell ref="M535:R535"/>
-    <mergeCell ref="S535:X535"/>
-    <mergeCell ref="Y535:AD535"/>
+    <mergeCell ref="A354:F354"/>
+    <mergeCell ref="G354:L354"/>
+    <mergeCell ref="M354:R354"/>
+    <mergeCell ref="S354:X354"/>
+    <mergeCell ref="Y354:AD354"/>
+    <mergeCell ref="A355:F355"/>
+    <mergeCell ref="G355:L355"/>
+    <mergeCell ref="M355:R355"/>
+    <mergeCell ref="S355:X355"/>
+    <mergeCell ref="Y355:AD355"/>
+    <mergeCell ref="A369:F369"/>
+    <mergeCell ref="G369:L369"/>
+    <mergeCell ref="M369:R369"/>
+    <mergeCell ref="S369:X369"/>
+    <mergeCell ref="Y369:AD369"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="G370:L370"/>
+    <mergeCell ref="M370:R370"/>
+    <mergeCell ref="S370:X370"/>
+    <mergeCell ref="Y370:AD370"/>
+    <mergeCell ref="A384:F384"/>
+    <mergeCell ref="G384:L384"/>
+    <mergeCell ref="M384:R384"/>
+    <mergeCell ref="S384:X384"/>
+    <mergeCell ref="Y384:AD384"/>
+    <mergeCell ref="A385:F385"/>
+    <mergeCell ref="G385:L385"/>
+    <mergeCell ref="M385:R385"/>
+    <mergeCell ref="S385:X385"/>
+    <mergeCell ref="Y385:AD385"/>
+    <mergeCell ref="A429:F429"/>
+    <mergeCell ref="G429:L429"/>
+    <mergeCell ref="M429:R429"/>
+    <mergeCell ref="S429:X429"/>
+    <mergeCell ref="Y429:AD429"/>
+    <mergeCell ref="A430:F430"/>
+    <mergeCell ref="G430:L430"/>
+    <mergeCell ref="M430:R430"/>
+    <mergeCell ref="S430:X430"/>
+    <mergeCell ref="Y430:AD430"/>
+    <mergeCell ref="A519:F519"/>
+    <mergeCell ref="G519:L519"/>
+    <mergeCell ref="M519:R519"/>
+    <mergeCell ref="S519:X519"/>
+    <mergeCell ref="Y519:AD519"/>
+    <mergeCell ref="A520:F520"/>
+    <mergeCell ref="G520:L520"/>
+    <mergeCell ref="M520:R520"/>
+    <mergeCell ref="S520:X520"/>
+    <mergeCell ref="Y520:AD520"/>
+    <mergeCell ref="A549:F549"/>
+    <mergeCell ref="G549:L549"/>
+    <mergeCell ref="M549:R549"/>
+    <mergeCell ref="S549:X549"/>
+    <mergeCell ref="Y549:AD549"/>
+    <mergeCell ref="A550:F550"/>
+    <mergeCell ref="G550:L550"/>
+    <mergeCell ref="M550:R550"/>
+    <mergeCell ref="S550:X550"/>
+    <mergeCell ref="Y550:AD550"/>
+    <mergeCell ref="A564:F564"/>
+    <mergeCell ref="G564:L564"/>
+    <mergeCell ref="M564:R564"/>
+    <mergeCell ref="S564:X564"/>
+    <mergeCell ref="Y564:AD564"/>
+    <mergeCell ref="A565:F565"/>
+    <mergeCell ref="G565:L565"/>
+    <mergeCell ref="M565:R565"/>
+    <mergeCell ref="S565:X565"/>
+    <mergeCell ref="Y565:AD565"/>
+    <mergeCell ref="A579:F579"/>
+    <mergeCell ref="G579:L579"/>
+    <mergeCell ref="M579:R579"/>
+    <mergeCell ref="S579:X579"/>
+    <mergeCell ref="Y579:AD579"/>
+    <mergeCell ref="A580:F580"/>
+    <mergeCell ref="G580:L580"/>
+    <mergeCell ref="M580:R580"/>
+    <mergeCell ref="S580:X580"/>
+    <mergeCell ref="Y580:AD580"/>
+    <mergeCell ref="A609:F609"/>
+    <mergeCell ref="G609:L609"/>
+    <mergeCell ref="M609:R609"/>
+    <mergeCell ref="S609:X609"/>
+    <mergeCell ref="Y609:AD609"/>
+    <mergeCell ref="A610:F610"/>
+    <mergeCell ref="G610:L610"/>
+    <mergeCell ref="M610:R610"/>
+    <mergeCell ref="S610:X610"/>
+    <mergeCell ref="Y610:AD610"/>
+    <mergeCell ref="A624:F624"/>
+    <mergeCell ref="G624:L624"/>
+    <mergeCell ref="M624:R624"/>
+    <mergeCell ref="S624:X624"/>
+    <mergeCell ref="Y624:AD624"/>
+    <mergeCell ref="A625:F625"/>
+    <mergeCell ref="G625:L625"/>
+    <mergeCell ref="M625:R625"/>
+    <mergeCell ref="S625:X625"/>
+    <mergeCell ref="Y625:AD625"/>
+    <mergeCell ref="A639:F639"/>
+    <mergeCell ref="G639:L639"/>
+    <mergeCell ref="M639:R639"/>
+    <mergeCell ref="S639:X639"/>
+    <mergeCell ref="Y639:AD639"/>
+    <mergeCell ref="A640:F640"/>
+    <mergeCell ref="G640:L640"/>
+    <mergeCell ref="M640:R640"/>
+    <mergeCell ref="S640:X640"/>
+    <mergeCell ref="Y640:AD640"/>
+    <mergeCell ref="A654:F654"/>
+    <mergeCell ref="G654:L654"/>
+    <mergeCell ref="M654:R654"/>
+    <mergeCell ref="S654:X654"/>
+    <mergeCell ref="Y654:AD654"/>
+    <mergeCell ref="A655:F655"/>
+    <mergeCell ref="G655:L655"/>
+    <mergeCell ref="M655:R655"/>
+    <mergeCell ref="S655:X655"/>
+    <mergeCell ref="Y655:AD655"/>
+    <mergeCell ref="A669:F669"/>
+    <mergeCell ref="G669:L669"/>
+    <mergeCell ref="M669:R669"/>
+    <mergeCell ref="S669:X669"/>
+    <mergeCell ref="Y669:AD669"/>
+    <mergeCell ref="A670:F670"/>
+    <mergeCell ref="G670:L670"/>
+    <mergeCell ref="M670:R670"/>
+    <mergeCell ref="S670:X670"/>
+    <mergeCell ref="Y670:AD670"/>
+    <mergeCell ref="A684:F684"/>
+    <mergeCell ref="G684:L684"/>
+    <mergeCell ref="M684:R684"/>
+    <mergeCell ref="S684:X684"/>
+    <mergeCell ref="Y684:AD684"/>
+    <mergeCell ref="A700:F700"/>
+    <mergeCell ref="G700:L700"/>
+    <mergeCell ref="M700:R700"/>
+    <mergeCell ref="S700:X700"/>
+    <mergeCell ref="Y700:AD700"/>
+    <mergeCell ref="A699:F699"/>
+    <mergeCell ref="G699:L699"/>
+    <mergeCell ref="M699:R699"/>
+    <mergeCell ref="S699:X699"/>
+    <mergeCell ref="Y699:AD699"/>
+    <mergeCell ref="A685:F685"/>
+    <mergeCell ref="G685:L685"/>
+    <mergeCell ref="M685:R685"/>
+    <mergeCell ref="S685:X685"/>
+    <mergeCell ref="Y685:AD685"/>
+    <mergeCell ref="A714:F714"/>
+    <mergeCell ref="G714:L714"/>
+    <mergeCell ref="M714:R714"/>
+    <mergeCell ref="S714:X714"/>
+    <mergeCell ref="Y714:AD714"/>
+    <mergeCell ref="A715:F715"/>
+    <mergeCell ref="G715:L715"/>
+    <mergeCell ref="M715:R715"/>
+    <mergeCell ref="S715:X715"/>
+    <mergeCell ref="Y715:AD715"/>
+    <mergeCell ref="A729:F729"/>
+    <mergeCell ref="G729:L729"/>
+    <mergeCell ref="M729:R729"/>
+    <mergeCell ref="S729:X729"/>
+    <mergeCell ref="Y729:AD729"/>
+    <mergeCell ref="A730:F730"/>
+    <mergeCell ref="G730:L730"/>
+    <mergeCell ref="M730:R730"/>
+    <mergeCell ref="S730:X730"/>
+    <mergeCell ref="Y730:AD730"/>
+    <mergeCell ref="A744:F744"/>
+    <mergeCell ref="G744:L744"/>
+    <mergeCell ref="M744:R744"/>
+    <mergeCell ref="S744:X744"/>
+    <mergeCell ref="Y744:AD744"/>
+    <mergeCell ref="A745:F745"/>
+    <mergeCell ref="G745:L745"/>
+    <mergeCell ref="M745:R745"/>
+    <mergeCell ref="S745:X745"/>
+    <mergeCell ref="Y745:AD745"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="G759:L759"/>
+    <mergeCell ref="M759:R759"/>
+    <mergeCell ref="S759:X759"/>
+    <mergeCell ref="Y759:AD759"/>
+    <mergeCell ref="A760:F760"/>
+    <mergeCell ref="G760:L760"/>
+    <mergeCell ref="M760:R760"/>
+    <mergeCell ref="S760:X760"/>
+    <mergeCell ref="Y760:AD760"/>
+    <mergeCell ref="A774:F774"/>
+    <mergeCell ref="G774:L774"/>
+    <mergeCell ref="M774:R774"/>
+    <mergeCell ref="S774:X774"/>
+    <mergeCell ref="Y774:AD774"/>
+    <mergeCell ref="A775:F775"/>
+    <mergeCell ref="G775:L775"/>
+    <mergeCell ref="M775:R775"/>
+    <mergeCell ref="S775:X775"/>
+    <mergeCell ref="Y775:AD775"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34371,7 +34404,7 @@
       <pane xSplit="7" ySplit="12" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36572,10 +36605,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1730B555-17C4-4D71-B0CF-5EA2C5243D66}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38488,8 +38521,440 @@
         <v>-119.87</v>
       </c>
     </row>
+    <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="203">
+        <v>43952</v>
+      </c>
+      <c r="B64" s="204"/>
+      <c r="C64" s="204"/>
+      <c r="D64" s="204"/>
+      <c r="E64" s="204"/>
+      <c r="F64" s="204"/>
+      <c r="G64" s="204"/>
+      <c r="H64" s="204"/>
+      <c r="I64" s="204"/>
+      <c r="J64" s="204"/>
+      <c r="K64" s="204"/>
+      <c r="L64" s="205"/>
+      <c r="N64" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="O64" s="207"/>
+    </row>
+    <row r="65" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="116" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="117" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" s="119" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="G65" s="115" t="s">
+        <v>126</v>
+      </c>
+      <c r="H65" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="I65" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="J65" s="120" t="s">
+        <v>128</v>
+      </c>
+      <c r="K65" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="L65" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="N65" s="149" t="s">
+        <v>167</v>
+      </c>
+      <c r="O65" s="150">
+        <f>H66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="131"/>
+      <c r="B66" s="179"/>
+      <c r="C66" s="133"/>
+      <c r="D66" s="134"/>
+      <c r="E66" s="135"/>
+      <c r="F66" s="136">
+        <f>C66*D66</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="137"/>
+      <c r="H66" s="133"/>
+      <c r="I66" s="134"/>
+      <c r="J66" s="138"/>
+      <c r="K66" s="112" t="e">
+        <f>L66/F66</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L66" s="80">
+        <f>SUM(H66*I66)-F66-E66-J66</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="O66" s="170">
+        <f>I66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="139"/>
+      <c r="B67" s="129"/>
+      <c r="C67" s="128"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="76">
+        <f t="shared" ref="F67:F77" si="26">C67*D67</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="127"/>
+      <c r="H67" s="128"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="140"/>
+      <c r="K67" s="113" t="e">
+        <f t="shared" ref="K67:K69" si="27">L67/F67</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L67" s="77">
+        <f t="shared" ref="L67:L69" si="28">SUM(H67*I67)-F67-E67-J67</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="153" t="s">
+        <v>169</v>
+      </c>
+      <c r="O67" s="154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="139"/>
+      <c r="B68" s="129"/>
+      <c r="C68" s="128"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="76">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="127"/>
+      <c r="H68" s="128"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="140"/>
+      <c r="K68" s="113" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L68" s="77">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="72"/>
+      <c r="O68" s="72"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="139"/>
+      <c r="B69" s="129"/>
+      <c r="C69" s="171"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="76">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="127"/>
+      <c r="H69" s="128"/>
+      <c r="I69" s="74"/>
+      <c r="J69" s="140"/>
+      <c r="K69" s="113" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L69" s="77">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="155" t="s">
+        <v>170</v>
+      </c>
+      <c r="O69" s="156">
+        <f>O65*O66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="139"/>
+      <c r="B70" s="129"/>
+      <c r="C70" s="128"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="76">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="127"/>
+      <c r="H70" s="128"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="140"/>
+      <c r="K70" s="113" t="e">
+        <f>L70/F70</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L70" s="77">
+        <f>SUM(H70*I70)-F70-E70-J70</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="157" t="s">
+        <v>171</v>
+      </c>
+      <c r="O70" s="159">
+        <f>IF(O69&gt;10000, O69*8%/100, 8)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="139"/>
+      <c r="B71" s="129"/>
+      <c r="C71" s="128"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="76">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="127"/>
+      <c r="H71" s="128"/>
+      <c r="I71" s="74"/>
+      <c r="J71" s="140"/>
+      <c r="K71" s="113" t="e">
+        <f t="shared" ref="K71:K77" si="29">L71/F71</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L71" s="77">
+        <f>SUM(H71*I71)-F71-E71-J71</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="O71" s="159">
+        <f>O70*6%</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="139"/>
+      <c r="B72" s="129"/>
+      <c r="C72" s="128"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="76">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="127"/>
+      <c r="H72" s="128"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="140"/>
+      <c r="K72" s="113" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L72" s="77">
+        <f t="shared" ref="L72:L75" si="30">SUM(H72*I72)-F72-E72-J72</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="157" t="s">
+        <v>169</v>
+      </c>
+      <c r="O72" s="159">
+        <f>IF(O67=TRUE,CEILING(O69,1000)/1000,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="139"/>
+      <c r="B73" s="129"/>
+      <c r="C73" s="128"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="76">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="127"/>
+      <c r="H73" s="128"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="140"/>
+      <c r="K73" s="113" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L73" s="77">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="157" t="s">
+        <v>173</v>
+      </c>
+      <c r="O73" s="159">
+        <f>O69*0.03%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="139"/>
+      <c r="B74" s="130"/>
+      <c r="C74" s="128"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="76">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="127"/>
+      <c r="H74" s="128"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="140"/>
+      <c r="K74" s="113" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L74" s="77">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="160" t="s">
+        <v>174</v>
+      </c>
+      <c r="O74" s="161">
+        <f>ROUNDUP(SUM(O70:O73),2)</f>
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="139"/>
+      <c r="B75" s="130"/>
+      <c r="C75" s="128"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="76">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="127"/>
+      <c r="H75" s="128"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="140"/>
+      <c r="K75" s="113" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L75" s="77">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="139"/>
+      <c r="B76" s="129"/>
+      <c r="C76" s="175"/>
+      <c r="D76" s="176"/>
+      <c r="E76" s="177"/>
+      <c r="F76" s="76">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="127"/>
+      <c r="H76" s="128"/>
+      <c r="I76" s="74"/>
+      <c r="J76" s="140"/>
+      <c r="K76" s="113" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L76" s="77">
+        <f t="shared" ref="L76:L77" si="31">SUM(H76*I76)-F76-E76-J76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="173"/>
+      <c r="B77" s="174"/>
+      <c r="C77" s="175"/>
+      <c r="D77" s="176"/>
+      <c r="E77" s="177"/>
+      <c r="F77" s="76">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="73"/>
+      <c r="H77" s="128"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="140"/>
+      <c r="K77" s="113" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L77" s="77">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="121" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" s="122"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="124" t="s">
+        <v>139</v>
+      </c>
+      <c r="E78" s="125">
+        <f>SUM(E66:E77)</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="126"/>
+      <c r="G78" s="123"/>
+      <c r="H78" s="123"/>
+      <c r="I78" s="124" t="s">
+        <v>139</v>
+      </c>
+      <c r="J78" s="125">
+        <f>SUM(J66:J77)</f>
+        <v>0</v>
+      </c>
+      <c r="K78" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="L78" s="82">
+        <f>SUM(L66:L77)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A64:L64"/>
+    <mergeCell ref="N64:O64"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="A17:L17"/>
@@ -38498,7 +38963,7 @@
     <mergeCell ref="N48:O48"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O51 O4" xr:uid="{2F3E514A-4D83-47A4-A1CF-9046BABFBA52}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O51 O4 O67" xr:uid="{2F3E514A-4D83-47A4-A1CF-9046BABFBA52}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -38703,10 +39168,10 @@
       <c r="A1" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="211">
+      <c r="B1" s="208">
         <v>0.51</v>
       </c>
-      <c r="C1" s="211"/>
+      <c r="C1" s="208"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -38715,10 +39180,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="211">
+      <c r="B2" s="208">
         <v>0.54</v>
       </c>
-      <c r="C2" s="211"/>
+      <c r="C2" s="208"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -38727,10 +39192,10 @@
       <c r="A3" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="211">
+      <c r="B3" s="208">
         <v>0.51</v>
       </c>
-      <c r="C3" s="211"/>
+      <c r="C3" s="208"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -38739,10 +39204,10 @@
       <c r="A4" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="211">
+      <c r="B4" s="208">
         <v>0.54</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="208"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -38784,7 +39249,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="208">
+      <c r="E8" s="211">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -38797,7 +39262,7 @@
       <c r="B9" s="209"/>
       <c r="C9" s="209"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="208"/>
+      <c r="E9" s="211"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38837,7 +39302,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="208">
+      <c r="E13" s="211">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -38850,7 +39315,7 @@
       <c r="B14" s="209"/>
       <c r="C14" s="209"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="208"/>
+      <c r="E14" s="211"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -38890,7 +39355,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="208">
+      <c r="E18" s="211">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -38903,7 +39368,7 @@
       <c r="B19" s="209"/>
       <c r="C19" s="209"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="208"/>
+      <c r="E19" s="211"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -38948,12 +39413,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -38961,6 +39420,12 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="114_{C59B5EEC-97BB-4403-A512-1BBDF44431D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8DF4DC30-EA8B-487D-859D-8F189E75FF82}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="114_{C59B5EEC-97BB-4403-A512-1BBDF44431D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3D2D79A4-DEC7-4F85-8F49-F8F404FB2958}"/>
   <bookViews>
-    <workbookView xWindow="-1725" yWindow="5250" windowWidth="27870" windowHeight="9885" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="930" yWindow="3510" windowWidth="27870" windowHeight="9885" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="282">
   <si>
     <t>Pillar</t>
   </si>
@@ -844,6 +844,45 @@
   </si>
   <si>
     <t>TNLOGIS</t>
+  </si>
+  <si>
+    <t>SIMEPROP</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>ASTRO</t>
+  </si>
+  <si>
+    <t>TOPGLOV</t>
+  </si>
+  <si>
+    <t>CCM</t>
+  </si>
+  <si>
+    <t>NOVA</t>
+  </si>
+  <si>
+    <t>LKL</t>
+  </si>
+  <si>
+    <t>IFCAMSC</t>
+  </si>
+  <si>
+    <t>MGRC</t>
+  </si>
+  <si>
+    <t>MJPERAK</t>
+  </si>
+  <si>
+    <t>KMLOONG</t>
+  </si>
+  <si>
+    <t>HPMT</t>
+  </si>
+  <si>
+    <t>CHGP</t>
   </si>
 </sst>
 </file>
@@ -2574,8 +2613,8 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2583,8 +2622,8 @@
     <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3020,8 +3059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S241" sqref="S241"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13021,7 +13060,9 @@
       <c r="V237" s="92"/>
       <c r="W237" s="92"/>
       <c r="X237" s="93"/>
-      <c r="Y237" s="90"/>
+      <c r="Y237" s="90" t="s">
+        <v>269</v>
+      </c>
       <c r="Z237" s="91"/>
       <c r="AA237" s="92"/>
       <c r="AB237" s="92"/>
@@ -13059,7 +13100,9 @@
       <c r="V238" s="92"/>
       <c r="W238" s="92"/>
       <c r="X238" s="93"/>
-      <c r="Y238" s="90"/>
+      <c r="Y238" s="90" t="s">
+        <v>270</v>
+      </c>
       <c r="Z238" s="91"/>
       <c r="AA238" s="92"/>
       <c r="AB238" s="92"/>
@@ -13097,7 +13140,9 @@
       <c r="V239" s="92"/>
       <c r="W239" s="92"/>
       <c r="X239" s="93"/>
-      <c r="Y239" s="90"/>
+      <c r="Y239" s="90" t="s">
+        <v>258</v>
+      </c>
       <c r="Z239" s="91"/>
       <c r="AA239" s="92"/>
       <c r="AB239" s="92"/>
@@ -13133,7 +13178,9 @@
       <c r="V240" s="92"/>
       <c r="W240" s="92"/>
       <c r="X240" s="93"/>
-      <c r="Y240" s="90"/>
+      <c r="Y240" s="90" t="s">
+        <v>271</v>
+      </c>
       <c r="Z240" s="91"/>
       <c r="AA240" s="92"/>
       <c r="AB240" s="92"/>
@@ -13161,13 +13208,17 @@
       <c r="P241" s="92"/>
       <c r="Q241" s="92"/>
       <c r="R241" s="93"/>
-      <c r="S241" s="90"/>
+      <c r="S241" s="90" t="s">
+        <v>156</v>
+      </c>
       <c r="T241" s="91"/>
       <c r="U241" s="92"/>
       <c r="V241" s="92"/>
       <c r="W241" s="92"/>
       <c r="X241" s="93"/>
-      <c r="Y241" s="90"/>
+      <c r="Y241" s="90" t="s">
+        <v>272</v>
+      </c>
       <c r="Z241" s="91"/>
       <c r="AA241" s="92"/>
       <c r="AB241" s="92"/>
@@ -13201,7 +13252,9 @@
       <c r="V242" s="92"/>
       <c r="W242" s="92"/>
       <c r="X242" s="93"/>
-      <c r="Y242" s="90"/>
+      <c r="Y242" s="90" t="s">
+        <v>235</v>
+      </c>
       <c r="Z242" s="91"/>
       <c r="AA242" s="92"/>
       <c r="AB242" s="92"/>
@@ -13235,7 +13288,9 @@
       <c r="V243" s="92"/>
       <c r="W243" s="92"/>
       <c r="X243" s="93"/>
-      <c r="Y243" s="90"/>
+      <c r="Y243" s="90" t="s">
+        <v>262</v>
+      </c>
       <c r="Z243" s="91"/>
       <c r="AA243" s="92"/>
       <c r="AB243" s="92"/>
@@ -13269,7 +13324,9 @@
       <c r="V244" s="92"/>
       <c r="W244" s="92"/>
       <c r="X244" s="93"/>
-      <c r="Y244" s="90"/>
+      <c r="Y244" s="90" t="s">
+        <v>163</v>
+      </c>
       <c r="Z244" s="91"/>
       <c r="AA244" s="92"/>
       <c r="AB244" s="92"/>
@@ -13301,7 +13358,9 @@
       <c r="V245" s="92"/>
       <c r="W245" s="92"/>
       <c r="X245" s="93"/>
-      <c r="Y245" s="90"/>
+      <c r="Y245" s="90" t="s">
+        <v>273</v>
+      </c>
       <c r="Z245" s="91"/>
       <c r="AA245" s="92"/>
       <c r="AB245" s="92"/>
@@ -13333,7 +13392,9 @@
       <c r="V246" s="92"/>
       <c r="W246" s="92"/>
       <c r="X246" s="93"/>
-      <c r="Y246" s="90"/>
+      <c r="Y246" s="90" t="s">
+        <v>257</v>
+      </c>
       <c r="Z246" s="91"/>
       <c r="AA246" s="92"/>
       <c r="AB246" s="92"/>
@@ -13576,7 +13637,9 @@
       </c>
     </row>
     <row r="252" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A252" s="90"/>
+      <c r="A252" s="90" t="s">
+        <v>252</v>
+      </c>
       <c r="B252" s="91"/>
       <c r="C252" s="92"/>
       <c r="D252" s="92"/>
@@ -13608,7 +13671,9 @@
       <c r="AD252" s="93"/>
     </row>
     <row r="253" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A253" s="90"/>
+      <c r="A253" s="90" t="s">
+        <v>212</v>
+      </c>
       <c r="B253" s="91"/>
       <c r="C253" s="92"/>
       <c r="D253" s="92"/>
@@ -13640,7 +13705,9 @@
       <c r="AD253" s="93"/>
     </row>
     <row r="254" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="90"/>
+      <c r="A254" s="90" t="s">
+        <v>274</v>
+      </c>
       <c r="B254" s="91"/>
       <c r="C254" s="92"/>
       <c r="D254" s="92"/>
@@ -13672,7 +13739,9 @@
       <c r="AD254" s="93"/>
     </row>
     <row r="255" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A255" s="90"/>
+      <c r="A255" s="90" t="s">
+        <v>153</v>
+      </c>
       <c r="B255" s="91"/>
       <c r="C255" s="92"/>
       <c r="D255" s="92"/>
@@ -13704,7 +13773,9 @@
       <c r="AD255" s="93"/>
     </row>
     <row r="256" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A256" s="90"/>
+      <c r="A256" s="90" t="s">
+        <v>275</v>
+      </c>
       <c r="B256" s="91"/>
       <c r="C256" s="92"/>
       <c r="D256" s="92"/>
@@ -13736,7 +13807,9 @@
       <c r="AD256" s="93"/>
     </row>
     <row r="257" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A257" s="90"/>
+      <c r="A257" s="90" t="s">
+        <v>276</v>
+      </c>
       <c r="B257" s="91"/>
       <c r="C257" s="92"/>
       <c r="D257" s="92"/>
@@ -13768,7 +13841,9 @@
       <c r="AD257" s="93"/>
     </row>
     <row r="258" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A258" s="90"/>
+      <c r="A258" s="90" t="s">
+        <v>277</v>
+      </c>
       <c r="B258" s="91"/>
       <c r="C258" s="92"/>
       <c r="D258" s="92"/>
@@ -13800,7 +13875,9 @@
       <c r="AD258" s="93"/>
     </row>
     <row r="259" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="90"/>
+      <c r="A259" s="90" t="s">
+        <v>281</v>
+      </c>
       <c r="B259" s="91"/>
       <c r="C259" s="92"/>
       <c r="D259" s="92"/>
@@ -13832,7 +13909,9 @@
       <c r="AD259" s="93"/>
     </row>
     <row r="260" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A260" s="90"/>
+      <c r="A260" s="90" t="s">
+        <v>278</v>
+      </c>
       <c r="B260" s="91"/>
       <c r="C260" s="92"/>
       <c r="D260" s="92"/>
@@ -13864,7 +13943,9 @@
       <c r="AD260" s="93"/>
     </row>
     <row r="261" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A261" s="90"/>
+      <c r="A261" s="90" t="s">
+        <v>279</v>
+      </c>
       <c r="B261" s="91"/>
       <c r="C261" s="92"/>
       <c r="D261" s="92"/>
@@ -13896,7 +13977,9 @@
       <c r="AD261" s="93"/>
     </row>
     <row r="262" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A262" s="90"/>
+      <c r="A262" s="90" t="s">
+        <v>280</v>
+      </c>
       <c r="B262" s="91"/>
       <c r="C262" s="92"/>
       <c r="D262" s="92"/>
@@ -33941,117 +34024,321 @@
     </row>
   </sheetData>
   <mergeCells count="450">
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="G534:L534"/>
-    <mergeCell ref="M534:R534"/>
-    <mergeCell ref="S534:X534"/>
-    <mergeCell ref="Y534:AD534"/>
-    <mergeCell ref="A535:F535"/>
-    <mergeCell ref="G535:L535"/>
-    <mergeCell ref="M535:R535"/>
-    <mergeCell ref="S535:X535"/>
-    <mergeCell ref="Y535:AD535"/>
-    <mergeCell ref="A504:F504"/>
-    <mergeCell ref="G504:L504"/>
-    <mergeCell ref="M504:R504"/>
-    <mergeCell ref="S504:X504"/>
-    <mergeCell ref="Y504:AD504"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="G505:L505"/>
-    <mergeCell ref="M505:R505"/>
-    <mergeCell ref="S505:X505"/>
-    <mergeCell ref="Y505:AD505"/>
-    <mergeCell ref="A444:F444"/>
-    <mergeCell ref="G444:L444"/>
-    <mergeCell ref="M444:R444"/>
-    <mergeCell ref="S444:X444"/>
-    <mergeCell ref="Y444:AD444"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="G460:L460"/>
-    <mergeCell ref="M460:R460"/>
-    <mergeCell ref="S460:X460"/>
-    <mergeCell ref="Y460:AD460"/>
-    <mergeCell ref="A445:F445"/>
-    <mergeCell ref="G445:L445"/>
-    <mergeCell ref="M445:R445"/>
-    <mergeCell ref="S445:X445"/>
-    <mergeCell ref="Y445:AD445"/>
-    <mergeCell ref="A459:F459"/>
-    <mergeCell ref="G459:L459"/>
-    <mergeCell ref="M459:R459"/>
-    <mergeCell ref="S459:X459"/>
-    <mergeCell ref="Y459:AD459"/>
-    <mergeCell ref="Y309:AD309"/>
-    <mergeCell ref="A324:F324"/>
-    <mergeCell ref="G324:L324"/>
-    <mergeCell ref="M324:R324"/>
-    <mergeCell ref="S324:X324"/>
-    <mergeCell ref="Y324:AD324"/>
-    <mergeCell ref="A340:F340"/>
-    <mergeCell ref="G340:L340"/>
-    <mergeCell ref="M340:R340"/>
-    <mergeCell ref="S340:X340"/>
-    <mergeCell ref="Y340:AD340"/>
-    <mergeCell ref="A339:F339"/>
-    <mergeCell ref="G339:L339"/>
-    <mergeCell ref="M339:R339"/>
-    <mergeCell ref="S339:X339"/>
-    <mergeCell ref="Y339:AD339"/>
-    <mergeCell ref="A202:F202"/>
-    <mergeCell ref="G202:L202"/>
-    <mergeCell ref="M202:R202"/>
-    <mergeCell ref="S202:X202"/>
-    <mergeCell ref="Y202:AD202"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="G187:L187"/>
-    <mergeCell ref="M187:R187"/>
-    <mergeCell ref="S187:X187"/>
-    <mergeCell ref="Y187:AD187"/>
-    <mergeCell ref="A188:F188"/>
-    <mergeCell ref="G188:L188"/>
-    <mergeCell ref="M188:R188"/>
-    <mergeCell ref="S188:X188"/>
-    <mergeCell ref="Y188:AD188"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:L124"/>
-    <mergeCell ref="M124:R124"/>
-    <mergeCell ref="S124:X124"/>
-    <mergeCell ref="Y124:AD124"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="G179:L179"/>
-    <mergeCell ref="M179:R179"/>
-    <mergeCell ref="S179:X179"/>
-    <mergeCell ref="Y179:AD179"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A774:F774"/>
+    <mergeCell ref="G774:L774"/>
+    <mergeCell ref="M774:R774"/>
+    <mergeCell ref="S774:X774"/>
+    <mergeCell ref="Y774:AD774"/>
+    <mergeCell ref="A775:F775"/>
+    <mergeCell ref="G775:L775"/>
+    <mergeCell ref="M775:R775"/>
+    <mergeCell ref="S775:X775"/>
+    <mergeCell ref="Y775:AD775"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="G759:L759"/>
+    <mergeCell ref="M759:R759"/>
+    <mergeCell ref="S759:X759"/>
+    <mergeCell ref="Y759:AD759"/>
+    <mergeCell ref="A760:F760"/>
+    <mergeCell ref="G760:L760"/>
+    <mergeCell ref="M760:R760"/>
+    <mergeCell ref="S760:X760"/>
+    <mergeCell ref="Y760:AD760"/>
+    <mergeCell ref="A744:F744"/>
+    <mergeCell ref="G744:L744"/>
+    <mergeCell ref="M744:R744"/>
+    <mergeCell ref="S744:X744"/>
+    <mergeCell ref="Y744:AD744"/>
+    <mergeCell ref="A745:F745"/>
+    <mergeCell ref="G745:L745"/>
+    <mergeCell ref="M745:R745"/>
+    <mergeCell ref="S745:X745"/>
+    <mergeCell ref="Y745:AD745"/>
+    <mergeCell ref="A729:F729"/>
+    <mergeCell ref="G729:L729"/>
+    <mergeCell ref="M729:R729"/>
+    <mergeCell ref="S729:X729"/>
+    <mergeCell ref="Y729:AD729"/>
+    <mergeCell ref="A730:F730"/>
+    <mergeCell ref="G730:L730"/>
+    <mergeCell ref="M730:R730"/>
+    <mergeCell ref="S730:X730"/>
+    <mergeCell ref="Y730:AD730"/>
+    <mergeCell ref="A714:F714"/>
+    <mergeCell ref="G714:L714"/>
+    <mergeCell ref="M714:R714"/>
+    <mergeCell ref="S714:X714"/>
+    <mergeCell ref="Y714:AD714"/>
+    <mergeCell ref="A715:F715"/>
+    <mergeCell ref="G715:L715"/>
+    <mergeCell ref="M715:R715"/>
+    <mergeCell ref="S715:X715"/>
+    <mergeCell ref="Y715:AD715"/>
+    <mergeCell ref="A684:F684"/>
+    <mergeCell ref="G684:L684"/>
+    <mergeCell ref="M684:R684"/>
+    <mergeCell ref="S684:X684"/>
+    <mergeCell ref="Y684:AD684"/>
+    <mergeCell ref="A700:F700"/>
+    <mergeCell ref="G700:L700"/>
+    <mergeCell ref="M700:R700"/>
+    <mergeCell ref="S700:X700"/>
+    <mergeCell ref="Y700:AD700"/>
+    <mergeCell ref="A699:F699"/>
+    <mergeCell ref="G699:L699"/>
+    <mergeCell ref="M699:R699"/>
+    <mergeCell ref="S699:X699"/>
+    <mergeCell ref="Y699:AD699"/>
+    <mergeCell ref="A685:F685"/>
+    <mergeCell ref="G685:L685"/>
+    <mergeCell ref="M685:R685"/>
+    <mergeCell ref="S685:X685"/>
+    <mergeCell ref="Y685:AD685"/>
+    <mergeCell ref="A669:F669"/>
+    <mergeCell ref="G669:L669"/>
+    <mergeCell ref="M669:R669"/>
+    <mergeCell ref="S669:X669"/>
+    <mergeCell ref="Y669:AD669"/>
+    <mergeCell ref="A670:F670"/>
+    <mergeCell ref="G670:L670"/>
+    <mergeCell ref="M670:R670"/>
+    <mergeCell ref="S670:X670"/>
+    <mergeCell ref="Y670:AD670"/>
+    <mergeCell ref="A654:F654"/>
+    <mergeCell ref="G654:L654"/>
+    <mergeCell ref="M654:R654"/>
+    <mergeCell ref="S654:X654"/>
+    <mergeCell ref="Y654:AD654"/>
+    <mergeCell ref="A655:F655"/>
+    <mergeCell ref="G655:L655"/>
+    <mergeCell ref="M655:R655"/>
+    <mergeCell ref="S655:X655"/>
+    <mergeCell ref="Y655:AD655"/>
+    <mergeCell ref="A639:F639"/>
+    <mergeCell ref="G639:L639"/>
+    <mergeCell ref="M639:R639"/>
+    <mergeCell ref="S639:X639"/>
+    <mergeCell ref="Y639:AD639"/>
+    <mergeCell ref="A640:F640"/>
+    <mergeCell ref="G640:L640"/>
+    <mergeCell ref="M640:R640"/>
+    <mergeCell ref="S640:X640"/>
+    <mergeCell ref="Y640:AD640"/>
+    <mergeCell ref="A624:F624"/>
+    <mergeCell ref="G624:L624"/>
+    <mergeCell ref="M624:R624"/>
+    <mergeCell ref="S624:X624"/>
+    <mergeCell ref="Y624:AD624"/>
+    <mergeCell ref="A625:F625"/>
+    <mergeCell ref="G625:L625"/>
+    <mergeCell ref="M625:R625"/>
+    <mergeCell ref="S625:X625"/>
+    <mergeCell ref="Y625:AD625"/>
+    <mergeCell ref="A609:F609"/>
+    <mergeCell ref="G609:L609"/>
+    <mergeCell ref="M609:R609"/>
+    <mergeCell ref="S609:X609"/>
+    <mergeCell ref="Y609:AD609"/>
+    <mergeCell ref="A610:F610"/>
+    <mergeCell ref="G610:L610"/>
+    <mergeCell ref="M610:R610"/>
+    <mergeCell ref="S610:X610"/>
+    <mergeCell ref="Y610:AD610"/>
+    <mergeCell ref="A579:F579"/>
+    <mergeCell ref="G579:L579"/>
+    <mergeCell ref="M579:R579"/>
+    <mergeCell ref="S579:X579"/>
+    <mergeCell ref="Y579:AD579"/>
+    <mergeCell ref="A580:F580"/>
+    <mergeCell ref="G580:L580"/>
+    <mergeCell ref="M580:R580"/>
+    <mergeCell ref="S580:X580"/>
+    <mergeCell ref="Y580:AD580"/>
+    <mergeCell ref="A564:F564"/>
+    <mergeCell ref="G564:L564"/>
+    <mergeCell ref="M564:R564"/>
+    <mergeCell ref="S564:X564"/>
+    <mergeCell ref="Y564:AD564"/>
+    <mergeCell ref="A565:F565"/>
+    <mergeCell ref="G565:L565"/>
+    <mergeCell ref="M565:R565"/>
+    <mergeCell ref="S565:X565"/>
+    <mergeCell ref="Y565:AD565"/>
+    <mergeCell ref="A549:F549"/>
+    <mergeCell ref="G549:L549"/>
+    <mergeCell ref="M549:R549"/>
+    <mergeCell ref="S549:X549"/>
+    <mergeCell ref="Y549:AD549"/>
+    <mergeCell ref="A550:F550"/>
+    <mergeCell ref="G550:L550"/>
+    <mergeCell ref="M550:R550"/>
+    <mergeCell ref="S550:X550"/>
+    <mergeCell ref="Y550:AD550"/>
+    <mergeCell ref="A519:F519"/>
+    <mergeCell ref="G519:L519"/>
+    <mergeCell ref="M519:R519"/>
+    <mergeCell ref="S519:X519"/>
+    <mergeCell ref="Y519:AD519"/>
+    <mergeCell ref="A520:F520"/>
+    <mergeCell ref="G520:L520"/>
+    <mergeCell ref="M520:R520"/>
+    <mergeCell ref="S520:X520"/>
+    <mergeCell ref="Y520:AD520"/>
+    <mergeCell ref="A429:F429"/>
+    <mergeCell ref="G429:L429"/>
+    <mergeCell ref="M429:R429"/>
+    <mergeCell ref="S429:X429"/>
+    <mergeCell ref="Y429:AD429"/>
+    <mergeCell ref="A430:F430"/>
+    <mergeCell ref="G430:L430"/>
+    <mergeCell ref="M430:R430"/>
+    <mergeCell ref="S430:X430"/>
+    <mergeCell ref="Y430:AD430"/>
+    <mergeCell ref="A384:F384"/>
+    <mergeCell ref="G384:L384"/>
+    <mergeCell ref="M384:R384"/>
+    <mergeCell ref="S384:X384"/>
+    <mergeCell ref="Y384:AD384"/>
+    <mergeCell ref="A385:F385"/>
+    <mergeCell ref="G385:L385"/>
+    <mergeCell ref="M385:R385"/>
+    <mergeCell ref="S385:X385"/>
+    <mergeCell ref="Y385:AD385"/>
+    <mergeCell ref="A369:F369"/>
+    <mergeCell ref="G369:L369"/>
+    <mergeCell ref="M369:R369"/>
+    <mergeCell ref="S369:X369"/>
+    <mergeCell ref="Y369:AD369"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="G370:L370"/>
+    <mergeCell ref="M370:R370"/>
+    <mergeCell ref="S370:X370"/>
+    <mergeCell ref="Y370:AD370"/>
+    <mergeCell ref="A354:F354"/>
+    <mergeCell ref="G354:L354"/>
+    <mergeCell ref="M354:R354"/>
+    <mergeCell ref="S354:X354"/>
+    <mergeCell ref="Y354:AD354"/>
+    <mergeCell ref="A355:F355"/>
+    <mergeCell ref="G355:L355"/>
+    <mergeCell ref="M355:R355"/>
+    <mergeCell ref="S355:X355"/>
+    <mergeCell ref="Y355:AD355"/>
+    <mergeCell ref="Y294:AD294"/>
+    <mergeCell ref="A310:F310"/>
+    <mergeCell ref="G310:L310"/>
+    <mergeCell ref="M310:R310"/>
+    <mergeCell ref="S310:X310"/>
+    <mergeCell ref="Y310:AD310"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="G325:L325"/>
+    <mergeCell ref="M325:R325"/>
+    <mergeCell ref="S325:X325"/>
+    <mergeCell ref="Y325:AD325"/>
+    <mergeCell ref="A295:F295"/>
+    <mergeCell ref="G295:L295"/>
+    <mergeCell ref="M295:R295"/>
+    <mergeCell ref="S295:X295"/>
+    <mergeCell ref="Y295:AD295"/>
+    <mergeCell ref="A294:F294"/>
+    <mergeCell ref="G294:L294"/>
+    <mergeCell ref="M294:R294"/>
+    <mergeCell ref="S294:X294"/>
+    <mergeCell ref="A309:F309"/>
+    <mergeCell ref="G309:L309"/>
+    <mergeCell ref="M309:R309"/>
+    <mergeCell ref="S309:X309"/>
+    <mergeCell ref="Y234:AD234"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="G235:L235"/>
+    <mergeCell ref="M235:R235"/>
+    <mergeCell ref="S235:X235"/>
+    <mergeCell ref="Y235:AD235"/>
+    <mergeCell ref="A249:F249"/>
+    <mergeCell ref="G249:L249"/>
+    <mergeCell ref="M249:R249"/>
+    <mergeCell ref="S249:X249"/>
+    <mergeCell ref="Y249:AD249"/>
+    <mergeCell ref="A789:F789"/>
+    <mergeCell ref="G789:L789"/>
+    <mergeCell ref="M789:R789"/>
+    <mergeCell ref="S789:X789"/>
+    <mergeCell ref="Y789:AD789"/>
+    <mergeCell ref="A790:F790"/>
+    <mergeCell ref="G790:L790"/>
+    <mergeCell ref="M790:R790"/>
+    <mergeCell ref="S790:X790"/>
+    <mergeCell ref="Y790:AD790"/>
+    <mergeCell ref="A594:F594"/>
+    <mergeCell ref="G594:L594"/>
+    <mergeCell ref="M594:R594"/>
+    <mergeCell ref="S594:X594"/>
+    <mergeCell ref="Y594:AD594"/>
+    <mergeCell ref="A595:F595"/>
+    <mergeCell ref="G595:L595"/>
+    <mergeCell ref="M595:R595"/>
+    <mergeCell ref="S595:X595"/>
+    <mergeCell ref="Y595:AD595"/>
+    <mergeCell ref="A490:F490"/>
+    <mergeCell ref="G490:L490"/>
+    <mergeCell ref="M490:R490"/>
+    <mergeCell ref="S490:X490"/>
+    <mergeCell ref="Y490:AD490"/>
+    <mergeCell ref="A489:F489"/>
+    <mergeCell ref="G489:L489"/>
+    <mergeCell ref="M489:R489"/>
+    <mergeCell ref="S489:X489"/>
+    <mergeCell ref="Y489:AD489"/>
+    <mergeCell ref="A474:F474"/>
+    <mergeCell ref="G474:L474"/>
+    <mergeCell ref="M474:R474"/>
+    <mergeCell ref="S474:X474"/>
+    <mergeCell ref="Y474:AD474"/>
+    <mergeCell ref="A475:F475"/>
+    <mergeCell ref="G475:L475"/>
+    <mergeCell ref="M475:R475"/>
+    <mergeCell ref="S475:X475"/>
+    <mergeCell ref="Y475:AD475"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="G415:L415"/>
+    <mergeCell ref="M415:R415"/>
+    <mergeCell ref="S415:X415"/>
+    <mergeCell ref="Y415:AD415"/>
+    <mergeCell ref="A399:F399"/>
+    <mergeCell ref="G399:L399"/>
+    <mergeCell ref="M399:R399"/>
+    <mergeCell ref="S399:X399"/>
+    <mergeCell ref="Y399:AD399"/>
+    <mergeCell ref="A400:F400"/>
+    <mergeCell ref="G400:L400"/>
+    <mergeCell ref="M400:R400"/>
+    <mergeCell ref="S400:X400"/>
+    <mergeCell ref="Y400:AD400"/>
+    <mergeCell ref="A414:F414"/>
+    <mergeCell ref="G414:L414"/>
+    <mergeCell ref="M414:R414"/>
+    <mergeCell ref="S414:X414"/>
+    <mergeCell ref="Y414:AD414"/>
+    <mergeCell ref="A279:F279"/>
+    <mergeCell ref="G279:L279"/>
+    <mergeCell ref="M279:R279"/>
+    <mergeCell ref="S279:X279"/>
+    <mergeCell ref="Y279:AD279"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="G280:L280"/>
+    <mergeCell ref="M280:R280"/>
+    <mergeCell ref="S280:X280"/>
+    <mergeCell ref="Y280:AD280"/>
+    <mergeCell ref="A264:F264"/>
+    <mergeCell ref="G264:L264"/>
+    <mergeCell ref="M264:R264"/>
+    <mergeCell ref="S264:X264"/>
+    <mergeCell ref="Y264:AD264"/>
+    <mergeCell ref="A265:F265"/>
+    <mergeCell ref="G265:L265"/>
+    <mergeCell ref="M265:R265"/>
+    <mergeCell ref="S265:X265"/>
+    <mergeCell ref="Y265:AD265"/>
     <mergeCell ref="A250:F250"/>
     <mergeCell ref="G250:L250"/>
     <mergeCell ref="M250:R250"/>
@@ -34076,321 +34363,117 @@
     <mergeCell ref="G234:L234"/>
     <mergeCell ref="M234:R234"/>
     <mergeCell ref="S234:X234"/>
-    <mergeCell ref="A264:F264"/>
-    <mergeCell ref="G264:L264"/>
-    <mergeCell ref="M264:R264"/>
-    <mergeCell ref="S264:X264"/>
-    <mergeCell ref="Y264:AD264"/>
-    <mergeCell ref="A265:F265"/>
-    <mergeCell ref="G265:L265"/>
-    <mergeCell ref="M265:R265"/>
-    <mergeCell ref="S265:X265"/>
-    <mergeCell ref="Y265:AD265"/>
-    <mergeCell ref="A279:F279"/>
-    <mergeCell ref="G279:L279"/>
-    <mergeCell ref="M279:R279"/>
-    <mergeCell ref="S279:X279"/>
-    <mergeCell ref="Y279:AD279"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="G280:L280"/>
-    <mergeCell ref="M280:R280"/>
-    <mergeCell ref="S280:X280"/>
-    <mergeCell ref="Y280:AD280"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="G415:L415"/>
-    <mergeCell ref="M415:R415"/>
-    <mergeCell ref="S415:X415"/>
-    <mergeCell ref="Y415:AD415"/>
-    <mergeCell ref="A399:F399"/>
-    <mergeCell ref="G399:L399"/>
-    <mergeCell ref="M399:R399"/>
-    <mergeCell ref="S399:X399"/>
-    <mergeCell ref="Y399:AD399"/>
-    <mergeCell ref="A400:F400"/>
-    <mergeCell ref="G400:L400"/>
-    <mergeCell ref="M400:R400"/>
-    <mergeCell ref="S400:X400"/>
-    <mergeCell ref="Y400:AD400"/>
-    <mergeCell ref="A414:F414"/>
-    <mergeCell ref="G414:L414"/>
-    <mergeCell ref="M414:R414"/>
-    <mergeCell ref="S414:X414"/>
-    <mergeCell ref="Y414:AD414"/>
-    <mergeCell ref="A474:F474"/>
-    <mergeCell ref="G474:L474"/>
-    <mergeCell ref="M474:R474"/>
-    <mergeCell ref="S474:X474"/>
-    <mergeCell ref="Y474:AD474"/>
-    <mergeCell ref="A475:F475"/>
-    <mergeCell ref="G475:L475"/>
-    <mergeCell ref="M475:R475"/>
-    <mergeCell ref="S475:X475"/>
-    <mergeCell ref="Y475:AD475"/>
-    <mergeCell ref="A490:F490"/>
-    <mergeCell ref="G490:L490"/>
-    <mergeCell ref="M490:R490"/>
-    <mergeCell ref="S490:X490"/>
-    <mergeCell ref="Y490:AD490"/>
-    <mergeCell ref="A489:F489"/>
-    <mergeCell ref="G489:L489"/>
-    <mergeCell ref="M489:R489"/>
-    <mergeCell ref="S489:X489"/>
-    <mergeCell ref="Y489:AD489"/>
-    <mergeCell ref="A594:F594"/>
-    <mergeCell ref="G594:L594"/>
-    <mergeCell ref="M594:R594"/>
-    <mergeCell ref="S594:X594"/>
-    <mergeCell ref="Y594:AD594"/>
-    <mergeCell ref="A595:F595"/>
-    <mergeCell ref="G595:L595"/>
-    <mergeCell ref="M595:R595"/>
-    <mergeCell ref="S595:X595"/>
-    <mergeCell ref="Y595:AD595"/>
-    <mergeCell ref="A789:F789"/>
-    <mergeCell ref="G789:L789"/>
-    <mergeCell ref="M789:R789"/>
-    <mergeCell ref="S789:X789"/>
-    <mergeCell ref="Y789:AD789"/>
-    <mergeCell ref="A790:F790"/>
-    <mergeCell ref="G790:L790"/>
-    <mergeCell ref="M790:R790"/>
-    <mergeCell ref="S790:X790"/>
-    <mergeCell ref="Y790:AD790"/>
-    <mergeCell ref="Y234:AD234"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="G235:L235"/>
-    <mergeCell ref="M235:R235"/>
-    <mergeCell ref="S235:X235"/>
-    <mergeCell ref="Y235:AD235"/>
-    <mergeCell ref="A249:F249"/>
-    <mergeCell ref="G249:L249"/>
-    <mergeCell ref="M249:R249"/>
-    <mergeCell ref="S249:X249"/>
-    <mergeCell ref="Y249:AD249"/>
-    <mergeCell ref="Y294:AD294"/>
-    <mergeCell ref="A310:F310"/>
-    <mergeCell ref="G310:L310"/>
-    <mergeCell ref="M310:R310"/>
-    <mergeCell ref="S310:X310"/>
-    <mergeCell ref="Y310:AD310"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="G325:L325"/>
-    <mergeCell ref="M325:R325"/>
-    <mergeCell ref="S325:X325"/>
-    <mergeCell ref="Y325:AD325"/>
-    <mergeCell ref="A295:F295"/>
-    <mergeCell ref="G295:L295"/>
-    <mergeCell ref="M295:R295"/>
-    <mergeCell ref="S295:X295"/>
-    <mergeCell ref="Y295:AD295"/>
-    <mergeCell ref="A294:F294"/>
-    <mergeCell ref="G294:L294"/>
-    <mergeCell ref="M294:R294"/>
-    <mergeCell ref="S294:X294"/>
-    <mergeCell ref="A309:F309"/>
-    <mergeCell ref="G309:L309"/>
-    <mergeCell ref="M309:R309"/>
-    <mergeCell ref="S309:X309"/>
-    <mergeCell ref="A354:F354"/>
-    <mergeCell ref="G354:L354"/>
-    <mergeCell ref="M354:R354"/>
-    <mergeCell ref="S354:X354"/>
-    <mergeCell ref="Y354:AD354"/>
-    <mergeCell ref="A355:F355"/>
-    <mergeCell ref="G355:L355"/>
-    <mergeCell ref="M355:R355"/>
-    <mergeCell ref="S355:X355"/>
-    <mergeCell ref="Y355:AD355"/>
-    <mergeCell ref="A369:F369"/>
-    <mergeCell ref="G369:L369"/>
-    <mergeCell ref="M369:R369"/>
-    <mergeCell ref="S369:X369"/>
-    <mergeCell ref="Y369:AD369"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="G370:L370"/>
-    <mergeCell ref="M370:R370"/>
-    <mergeCell ref="S370:X370"/>
-    <mergeCell ref="Y370:AD370"/>
-    <mergeCell ref="A384:F384"/>
-    <mergeCell ref="G384:L384"/>
-    <mergeCell ref="M384:R384"/>
-    <mergeCell ref="S384:X384"/>
-    <mergeCell ref="Y384:AD384"/>
-    <mergeCell ref="A385:F385"/>
-    <mergeCell ref="G385:L385"/>
-    <mergeCell ref="M385:R385"/>
-    <mergeCell ref="S385:X385"/>
-    <mergeCell ref="Y385:AD385"/>
-    <mergeCell ref="A429:F429"/>
-    <mergeCell ref="G429:L429"/>
-    <mergeCell ref="M429:R429"/>
-    <mergeCell ref="S429:X429"/>
-    <mergeCell ref="Y429:AD429"/>
-    <mergeCell ref="A430:F430"/>
-    <mergeCell ref="G430:L430"/>
-    <mergeCell ref="M430:R430"/>
-    <mergeCell ref="S430:X430"/>
-    <mergeCell ref="Y430:AD430"/>
-    <mergeCell ref="A519:F519"/>
-    <mergeCell ref="G519:L519"/>
-    <mergeCell ref="M519:R519"/>
-    <mergeCell ref="S519:X519"/>
-    <mergeCell ref="Y519:AD519"/>
-    <mergeCell ref="A520:F520"/>
-    <mergeCell ref="G520:L520"/>
-    <mergeCell ref="M520:R520"/>
-    <mergeCell ref="S520:X520"/>
-    <mergeCell ref="Y520:AD520"/>
-    <mergeCell ref="A549:F549"/>
-    <mergeCell ref="G549:L549"/>
-    <mergeCell ref="M549:R549"/>
-    <mergeCell ref="S549:X549"/>
-    <mergeCell ref="Y549:AD549"/>
-    <mergeCell ref="A550:F550"/>
-    <mergeCell ref="G550:L550"/>
-    <mergeCell ref="M550:R550"/>
-    <mergeCell ref="S550:X550"/>
-    <mergeCell ref="Y550:AD550"/>
-    <mergeCell ref="A564:F564"/>
-    <mergeCell ref="G564:L564"/>
-    <mergeCell ref="M564:R564"/>
-    <mergeCell ref="S564:X564"/>
-    <mergeCell ref="Y564:AD564"/>
-    <mergeCell ref="A565:F565"/>
-    <mergeCell ref="G565:L565"/>
-    <mergeCell ref="M565:R565"/>
-    <mergeCell ref="S565:X565"/>
-    <mergeCell ref="Y565:AD565"/>
-    <mergeCell ref="A579:F579"/>
-    <mergeCell ref="G579:L579"/>
-    <mergeCell ref="M579:R579"/>
-    <mergeCell ref="S579:X579"/>
-    <mergeCell ref="Y579:AD579"/>
-    <mergeCell ref="A580:F580"/>
-    <mergeCell ref="G580:L580"/>
-    <mergeCell ref="M580:R580"/>
-    <mergeCell ref="S580:X580"/>
-    <mergeCell ref="Y580:AD580"/>
-    <mergeCell ref="A609:F609"/>
-    <mergeCell ref="G609:L609"/>
-    <mergeCell ref="M609:R609"/>
-    <mergeCell ref="S609:X609"/>
-    <mergeCell ref="Y609:AD609"/>
-    <mergeCell ref="A610:F610"/>
-    <mergeCell ref="G610:L610"/>
-    <mergeCell ref="M610:R610"/>
-    <mergeCell ref="S610:X610"/>
-    <mergeCell ref="Y610:AD610"/>
-    <mergeCell ref="A624:F624"/>
-    <mergeCell ref="G624:L624"/>
-    <mergeCell ref="M624:R624"/>
-    <mergeCell ref="S624:X624"/>
-    <mergeCell ref="Y624:AD624"/>
-    <mergeCell ref="A625:F625"/>
-    <mergeCell ref="G625:L625"/>
-    <mergeCell ref="M625:R625"/>
-    <mergeCell ref="S625:X625"/>
-    <mergeCell ref="Y625:AD625"/>
-    <mergeCell ref="A639:F639"/>
-    <mergeCell ref="G639:L639"/>
-    <mergeCell ref="M639:R639"/>
-    <mergeCell ref="S639:X639"/>
-    <mergeCell ref="Y639:AD639"/>
-    <mergeCell ref="A640:F640"/>
-    <mergeCell ref="G640:L640"/>
-    <mergeCell ref="M640:R640"/>
-    <mergeCell ref="S640:X640"/>
-    <mergeCell ref="Y640:AD640"/>
-    <mergeCell ref="A654:F654"/>
-    <mergeCell ref="G654:L654"/>
-    <mergeCell ref="M654:R654"/>
-    <mergeCell ref="S654:X654"/>
-    <mergeCell ref="Y654:AD654"/>
-    <mergeCell ref="A655:F655"/>
-    <mergeCell ref="G655:L655"/>
-    <mergeCell ref="M655:R655"/>
-    <mergeCell ref="S655:X655"/>
-    <mergeCell ref="Y655:AD655"/>
-    <mergeCell ref="A669:F669"/>
-    <mergeCell ref="G669:L669"/>
-    <mergeCell ref="M669:R669"/>
-    <mergeCell ref="S669:X669"/>
-    <mergeCell ref="Y669:AD669"/>
-    <mergeCell ref="A670:F670"/>
-    <mergeCell ref="G670:L670"/>
-    <mergeCell ref="M670:R670"/>
-    <mergeCell ref="S670:X670"/>
-    <mergeCell ref="Y670:AD670"/>
-    <mergeCell ref="A684:F684"/>
-    <mergeCell ref="G684:L684"/>
-    <mergeCell ref="M684:R684"/>
-    <mergeCell ref="S684:X684"/>
-    <mergeCell ref="Y684:AD684"/>
-    <mergeCell ref="A700:F700"/>
-    <mergeCell ref="G700:L700"/>
-    <mergeCell ref="M700:R700"/>
-    <mergeCell ref="S700:X700"/>
-    <mergeCell ref="Y700:AD700"/>
-    <mergeCell ref="A699:F699"/>
-    <mergeCell ref="G699:L699"/>
-    <mergeCell ref="M699:R699"/>
-    <mergeCell ref="S699:X699"/>
-    <mergeCell ref="Y699:AD699"/>
-    <mergeCell ref="A685:F685"/>
-    <mergeCell ref="G685:L685"/>
-    <mergeCell ref="M685:R685"/>
-    <mergeCell ref="S685:X685"/>
-    <mergeCell ref="Y685:AD685"/>
-    <mergeCell ref="A714:F714"/>
-    <mergeCell ref="G714:L714"/>
-    <mergeCell ref="M714:R714"/>
-    <mergeCell ref="S714:X714"/>
-    <mergeCell ref="Y714:AD714"/>
-    <mergeCell ref="A715:F715"/>
-    <mergeCell ref="G715:L715"/>
-    <mergeCell ref="M715:R715"/>
-    <mergeCell ref="S715:X715"/>
-    <mergeCell ref="Y715:AD715"/>
-    <mergeCell ref="A729:F729"/>
-    <mergeCell ref="G729:L729"/>
-    <mergeCell ref="M729:R729"/>
-    <mergeCell ref="S729:X729"/>
-    <mergeCell ref="Y729:AD729"/>
-    <mergeCell ref="A730:F730"/>
-    <mergeCell ref="G730:L730"/>
-    <mergeCell ref="M730:R730"/>
-    <mergeCell ref="S730:X730"/>
-    <mergeCell ref="Y730:AD730"/>
-    <mergeCell ref="A744:F744"/>
-    <mergeCell ref="G744:L744"/>
-    <mergeCell ref="M744:R744"/>
-    <mergeCell ref="S744:X744"/>
-    <mergeCell ref="Y744:AD744"/>
-    <mergeCell ref="A745:F745"/>
-    <mergeCell ref="G745:L745"/>
-    <mergeCell ref="M745:R745"/>
-    <mergeCell ref="S745:X745"/>
-    <mergeCell ref="Y745:AD745"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="G759:L759"/>
-    <mergeCell ref="M759:R759"/>
-    <mergeCell ref="S759:X759"/>
-    <mergeCell ref="Y759:AD759"/>
-    <mergeCell ref="A760:F760"/>
-    <mergeCell ref="G760:L760"/>
-    <mergeCell ref="M760:R760"/>
-    <mergeCell ref="S760:X760"/>
-    <mergeCell ref="Y760:AD760"/>
-    <mergeCell ref="A774:F774"/>
-    <mergeCell ref="G774:L774"/>
-    <mergeCell ref="M774:R774"/>
-    <mergeCell ref="S774:X774"/>
-    <mergeCell ref="Y774:AD774"/>
-    <mergeCell ref="A775:F775"/>
-    <mergeCell ref="G775:L775"/>
-    <mergeCell ref="M775:R775"/>
-    <mergeCell ref="S775:X775"/>
-    <mergeCell ref="Y775:AD775"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:L124"/>
+    <mergeCell ref="M124:R124"/>
+    <mergeCell ref="S124:X124"/>
+    <mergeCell ref="Y124:AD124"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="G179:L179"/>
+    <mergeCell ref="M179:R179"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="Y179:AD179"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="G202:L202"/>
+    <mergeCell ref="M202:R202"/>
+    <mergeCell ref="S202:X202"/>
+    <mergeCell ref="Y202:AD202"/>
+    <mergeCell ref="A187:F187"/>
+    <mergeCell ref="G187:L187"/>
+    <mergeCell ref="M187:R187"/>
+    <mergeCell ref="S187:X187"/>
+    <mergeCell ref="Y187:AD187"/>
+    <mergeCell ref="A188:F188"/>
+    <mergeCell ref="G188:L188"/>
+    <mergeCell ref="M188:R188"/>
+    <mergeCell ref="S188:X188"/>
+    <mergeCell ref="Y188:AD188"/>
+    <mergeCell ref="Y309:AD309"/>
+    <mergeCell ref="A324:F324"/>
+    <mergeCell ref="G324:L324"/>
+    <mergeCell ref="M324:R324"/>
+    <mergeCell ref="S324:X324"/>
+    <mergeCell ref="Y324:AD324"/>
+    <mergeCell ref="A340:F340"/>
+    <mergeCell ref="G340:L340"/>
+    <mergeCell ref="M340:R340"/>
+    <mergeCell ref="S340:X340"/>
+    <mergeCell ref="Y340:AD340"/>
+    <mergeCell ref="A339:F339"/>
+    <mergeCell ref="G339:L339"/>
+    <mergeCell ref="M339:R339"/>
+    <mergeCell ref="S339:X339"/>
+    <mergeCell ref="Y339:AD339"/>
+    <mergeCell ref="A444:F444"/>
+    <mergeCell ref="G444:L444"/>
+    <mergeCell ref="M444:R444"/>
+    <mergeCell ref="S444:X444"/>
+    <mergeCell ref="Y444:AD444"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="G460:L460"/>
+    <mergeCell ref="M460:R460"/>
+    <mergeCell ref="S460:X460"/>
+    <mergeCell ref="Y460:AD460"/>
+    <mergeCell ref="A445:F445"/>
+    <mergeCell ref="G445:L445"/>
+    <mergeCell ref="M445:R445"/>
+    <mergeCell ref="S445:X445"/>
+    <mergeCell ref="Y445:AD445"/>
+    <mergeCell ref="A459:F459"/>
+    <mergeCell ref="G459:L459"/>
+    <mergeCell ref="M459:R459"/>
+    <mergeCell ref="S459:X459"/>
+    <mergeCell ref="Y459:AD459"/>
+    <mergeCell ref="A504:F504"/>
+    <mergeCell ref="G504:L504"/>
+    <mergeCell ref="M504:R504"/>
+    <mergeCell ref="S504:X504"/>
+    <mergeCell ref="Y504:AD504"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="G505:L505"/>
+    <mergeCell ref="M505:R505"/>
+    <mergeCell ref="S505:X505"/>
+    <mergeCell ref="Y505:AD505"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="G534:L534"/>
+    <mergeCell ref="M534:R534"/>
+    <mergeCell ref="S534:X534"/>
+    <mergeCell ref="Y534:AD534"/>
+    <mergeCell ref="A535:F535"/>
+    <mergeCell ref="G535:L535"/>
+    <mergeCell ref="M535:R535"/>
+    <mergeCell ref="S535:X535"/>
+    <mergeCell ref="Y535:AD535"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39168,10 +39251,10 @@
       <c r="A1" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="208">
+      <c r="B1" s="211">
         <v>0.51</v>
       </c>
-      <c r="C1" s="208"/>
+      <c r="C1" s="211"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -39180,10 +39263,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="208">
+      <c r="B2" s="211">
         <v>0.54</v>
       </c>
-      <c r="C2" s="208"/>
+      <c r="C2" s="211"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -39192,10 +39275,10 @@
       <c r="A3" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="208">
+      <c r="B3" s="211">
         <v>0.51</v>
       </c>
-      <c r="C3" s="208"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -39204,10 +39287,10 @@
       <c r="A4" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="208">
+      <c r="B4" s="211">
         <v>0.54</v>
       </c>
-      <c r="C4" s="208"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -39249,7 +39332,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="211">
+      <c r="E8" s="208">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -39262,7 +39345,7 @@
       <c r="B9" s="209"/>
       <c r="C9" s="209"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="211"/>
+      <c r="E9" s="208"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -39302,7 +39385,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="211">
+      <c r="E13" s="208">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -39315,7 +39398,7 @@
       <c r="B14" s="209"/>
       <c r="C14" s="209"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="211"/>
+      <c r="E14" s="208"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -39355,7 +39438,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="211">
+      <c r="E18" s="208">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -39368,7 +39451,7 @@
       <c r="B19" s="209"/>
       <c r="C19" s="209"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="211"/>
+      <c r="E19" s="208"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -39413,6 +39496,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -39420,12 +39509,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="114_{C59B5EEC-97BB-4403-A512-1BBDF44431D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3D2D79A4-DEC7-4F85-8F49-F8F404FB2958}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="114_{C59B5EEC-97BB-4403-A512-1BBDF44431D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5E6C24B7-AEAF-4459-89B9-8BFCC4F9E7DA}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="3510" windowWidth="27870" windowHeight="9885" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="930" yWindow="6315" windowWidth="27870" windowHeight="9885" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="284">
   <si>
     <t>Pillar</t>
   </si>
@@ -883,6 +883,12 @@
   </si>
   <si>
     <t>CHGP</t>
+  </si>
+  <si>
+    <t>EFORCE</t>
+  </si>
+  <si>
+    <t>ELSOFT</t>
   </si>
 </sst>
 </file>
@@ -2613,8 +2619,8 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2622,8 +2628,8 @@
     <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3059,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A260" sqref="A260"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G258" sqref="G258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13645,7 +13651,9 @@
       <c r="D252" s="92"/>
       <c r="E252" s="92"/>
       <c r="F252" s="93"/>
-      <c r="G252" s="90"/>
+      <c r="G252" s="90" t="s">
+        <v>9</v>
+      </c>
       <c r="H252" s="91"/>
       <c r="I252" s="92"/>
       <c r="J252" s="92"/>
@@ -13679,7 +13687,9 @@
       <c r="D253" s="92"/>
       <c r="E253" s="92"/>
       <c r="F253" s="93"/>
-      <c r="G253" s="90"/>
+      <c r="G253" s="90" t="s">
+        <v>14</v>
+      </c>
       <c r="H253" s="91"/>
       <c r="I253" s="92"/>
       <c r="J253" s="92"/>
@@ -13713,7 +13723,9 @@
       <c r="D254" s="92"/>
       <c r="E254" s="92"/>
       <c r="F254" s="93"/>
-      <c r="G254" s="90"/>
+      <c r="G254" s="90" t="s">
+        <v>34</v>
+      </c>
       <c r="H254" s="91"/>
       <c r="I254" s="92"/>
       <c r="J254" s="92"/>
@@ -13747,7 +13759,9 @@
       <c r="D255" s="92"/>
       <c r="E255" s="92"/>
       <c r="F255" s="93"/>
-      <c r="G255" s="90"/>
+      <c r="G255" s="90" t="s">
+        <v>282</v>
+      </c>
       <c r="H255" s="91"/>
       <c r="I255" s="92"/>
       <c r="J255" s="92"/>
@@ -13781,7 +13795,9 @@
       <c r="D256" s="92"/>
       <c r="E256" s="92"/>
       <c r="F256" s="93"/>
-      <c r="G256" s="90"/>
+      <c r="G256" s="90" t="s">
+        <v>283</v>
+      </c>
       <c r="H256" s="91"/>
       <c r="I256" s="92"/>
       <c r="J256" s="92"/>
@@ -13815,7 +13831,9 @@
       <c r="D257" s="92"/>
       <c r="E257" s="92"/>
       <c r="F257" s="93"/>
-      <c r="G257" s="90"/>
+      <c r="G257" s="90" t="s">
+        <v>212</v>
+      </c>
       <c r="H257" s="91"/>
       <c r="I257" s="92"/>
       <c r="J257" s="92"/>
@@ -34024,206 +34042,232 @@
     </row>
   </sheetData>
   <mergeCells count="450">
-    <mergeCell ref="A774:F774"/>
-    <mergeCell ref="G774:L774"/>
-    <mergeCell ref="M774:R774"/>
-    <mergeCell ref="S774:X774"/>
-    <mergeCell ref="Y774:AD774"/>
-    <mergeCell ref="A775:F775"/>
-    <mergeCell ref="G775:L775"/>
-    <mergeCell ref="M775:R775"/>
-    <mergeCell ref="S775:X775"/>
-    <mergeCell ref="Y775:AD775"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="G759:L759"/>
-    <mergeCell ref="M759:R759"/>
-    <mergeCell ref="S759:X759"/>
-    <mergeCell ref="Y759:AD759"/>
-    <mergeCell ref="A760:F760"/>
-    <mergeCell ref="G760:L760"/>
-    <mergeCell ref="M760:R760"/>
-    <mergeCell ref="S760:X760"/>
-    <mergeCell ref="Y760:AD760"/>
-    <mergeCell ref="A744:F744"/>
-    <mergeCell ref="G744:L744"/>
-    <mergeCell ref="M744:R744"/>
-    <mergeCell ref="S744:X744"/>
-    <mergeCell ref="Y744:AD744"/>
-    <mergeCell ref="A745:F745"/>
-    <mergeCell ref="G745:L745"/>
-    <mergeCell ref="M745:R745"/>
-    <mergeCell ref="S745:X745"/>
-    <mergeCell ref="Y745:AD745"/>
-    <mergeCell ref="A729:F729"/>
-    <mergeCell ref="G729:L729"/>
-    <mergeCell ref="M729:R729"/>
-    <mergeCell ref="S729:X729"/>
-    <mergeCell ref="Y729:AD729"/>
-    <mergeCell ref="A730:F730"/>
-    <mergeCell ref="G730:L730"/>
-    <mergeCell ref="M730:R730"/>
-    <mergeCell ref="S730:X730"/>
-    <mergeCell ref="Y730:AD730"/>
-    <mergeCell ref="A714:F714"/>
-    <mergeCell ref="G714:L714"/>
-    <mergeCell ref="M714:R714"/>
-    <mergeCell ref="S714:X714"/>
-    <mergeCell ref="Y714:AD714"/>
-    <mergeCell ref="A715:F715"/>
-    <mergeCell ref="G715:L715"/>
-    <mergeCell ref="M715:R715"/>
-    <mergeCell ref="S715:X715"/>
-    <mergeCell ref="Y715:AD715"/>
-    <mergeCell ref="A684:F684"/>
-    <mergeCell ref="G684:L684"/>
-    <mergeCell ref="M684:R684"/>
-    <mergeCell ref="S684:X684"/>
-    <mergeCell ref="Y684:AD684"/>
-    <mergeCell ref="A700:F700"/>
-    <mergeCell ref="G700:L700"/>
-    <mergeCell ref="M700:R700"/>
-    <mergeCell ref="S700:X700"/>
-    <mergeCell ref="Y700:AD700"/>
-    <mergeCell ref="A699:F699"/>
-    <mergeCell ref="G699:L699"/>
-    <mergeCell ref="M699:R699"/>
-    <mergeCell ref="S699:X699"/>
-    <mergeCell ref="Y699:AD699"/>
-    <mergeCell ref="A685:F685"/>
-    <mergeCell ref="G685:L685"/>
-    <mergeCell ref="M685:R685"/>
-    <mergeCell ref="S685:X685"/>
-    <mergeCell ref="Y685:AD685"/>
-    <mergeCell ref="A669:F669"/>
-    <mergeCell ref="G669:L669"/>
-    <mergeCell ref="M669:R669"/>
-    <mergeCell ref="S669:X669"/>
-    <mergeCell ref="Y669:AD669"/>
-    <mergeCell ref="A670:F670"/>
-    <mergeCell ref="G670:L670"/>
-    <mergeCell ref="M670:R670"/>
-    <mergeCell ref="S670:X670"/>
-    <mergeCell ref="Y670:AD670"/>
-    <mergeCell ref="A654:F654"/>
-    <mergeCell ref="G654:L654"/>
-    <mergeCell ref="M654:R654"/>
-    <mergeCell ref="S654:X654"/>
-    <mergeCell ref="Y654:AD654"/>
-    <mergeCell ref="A655:F655"/>
-    <mergeCell ref="G655:L655"/>
-    <mergeCell ref="M655:R655"/>
-    <mergeCell ref="S655:X655"/>
-    <mergeCell ref="Y655:AD655"/>
-    <mergeCell ref="A639:F639"/>
-    <mergeCell ref="G639:L639"/>
-    <mergeCell ref="M639:R639"/>
-    <mergeCell ref="S639:X639"/>
-    <mergeCell ref="Y639:AD639"/>
-    <mergeCell ref="A640:F640"/>
-    <mergeCell ref="G640:L640"/>
-    <mergeCell ref="M640:R640"/>
-    <mergeCell ref="S640:X640"/>
-    <mergeCell ref="Y640:AD640"/>
-    <mergeCell ref="A624:F624"/>
-    <mergeCell ref="G624:L624"/>
-    <mergeCell ref="M624:R624"/>
-    <mergeCell ref="S624:X624"/>
-    <mergeCell ref="Y624:AD624"/>
-    <mergeCell ref="A625:F625"/>
-    <mergeCell ref="G625:L625"/>
-    <mergeCell ref="M625:R625"/>
-    <mergeCell ref="S625:X625"/>
-    <mergeCell ref="Y625:AD625"/>
-    <mergeCell ref="A609:F609"/>
-    <mergeCell ref="G609:L609"/>
-    <mergeCell ref="M609:R609"/>
-    <mergeCell ref="S609:X609"/>
-    <mergeCell ref="Y609:AD609"/>
-    <mergeCell ref="A610:F610"/>
-    <mergeCell ref="G610:L610"/>
-    <mergeCell ref="M610:R610"/>
-    <mergeCell ref="S610:X610"/>
-    <mergeCell ref="Y610:AD610"/>
-    <mergeCell ref="A579:F579"/>
-    <mergeCell ref="G579:L579"/>
-    <mergeCell ref="M579:R579"/>
-    <mergeCell ref="S579:X579"/>
-    <mergeCell ref="Y579:AD579"/>
-    <mergeCell ref="A580:F580"/>
-    <mergeCell ref="G580:L580"/>
-    <mergeCell ref="M580:R580"/>
-    <mergeCell ref="S580:X580"/>
-    <mergeCell ref="Y580:AD580"/>
-    <mergeCell ref="A564:F564"/>
-    <mergeCell ref="G564:L564"/>
-    <mergeCell ref="M564:R564"/>
-    <mergeCell ref="S564:X564"/>
-    <mergeCell ref="Y564:AD564"/>
-    <mergeCell ref="A565:F565"/>
-    <mergeCell ref="G565:L565"/>
-    <mergeCell ref="M565:R565"/>
-    <mergeCell ref="S565:X565"/>
-    <mergeCell ref="Y565:AD565"/>
-    <mergeCell ref="A549:F549"/>
-    <mergeCell ref="G549:L549"/>
-    <mergeCell ref="M549:R549"/>
-    <mergeCell ref="S549:X549"/>
-    <mergeCell ref="Y549:AD549"/>
-    <mergeCell ref="A550:F550"/>
-    <mergeCell ref="G550:L550"/>
-    <mergeCell ref="M550:R550"/>
-    <mergeCell ref="S550:X550"/>
-    <mergeCell ref="Y550:AD550"/>
-    <mergeCell ref="A519:F519"/>
-    <mergeCell ref="G519:L519"/>
-    <mergeCell ref="M519:R519"/>
-    <mergeCell ref="S519:X519"/>
-    <mergeCell ref="Y519:AD519"/>
-    <mergeCell ref="A520:F520"/>
-    <mergeCell ref="G520:L520"/>
-    <mergeCell ref="M520:R520"/>
-    <mergeCell ref="S520:X520"/>
-    <mergeCell ref="Y520:AD520"/>
-    <mergeCell ref="A429:F429"/>
-    <mergeCell ref="G429:L429"/>
-    <mergeCell ref="M429:R429"/>
-    <mergeCell ref="S429:X429"/>
-    <mergeCell ref="Y429:AD429"/>
-    <mergeCell ref="A430:F430"/>
-    <mergeCell ref="G430:L430"/>
-    <mergeCell ref="M430:R430"/>
-    <mergeCell ref="S430:X430"/>
-    <mergeCell ref="Y430:AD430"/>
-    <mergeCell ref="A384:F384"/>
-    <mergeCell ref="G384:L384"/>
-    <mergeCell ref="M384:R384"/>
-    <mergeCell ref="S384:X384"/>
-    <mergeCell ref="Y384:AD384"/>
-    <mergeCell ref="A385:F385"/>
-    <mergeCell ref="G385:L385"/>
-    <mergeCell ref="M385:R385"/>
-    <mergeCell ref="S385:X385"/>
-    <mergeCell ref="Y385:AD385"/>
-    <mergeCell ref="A369:F369"/>
-    <mergeCell ref="G369:L369"/>
-    <mergeCell ref="M369:R369"/>
-    <mergeCell ref="S369:X369"/>
-    <mergeCell ref="Y369:AD369"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="G370:L370"/>
-    <mergeCell ref="M370:R370"/>
-    <mergeCell ref="S370:X370"/>
-    <mergeCell ref="Y370:AD370"/>
-    <mergeCell ref="A354:F354"/>
-    <mergeCell ref="G354:L354"/>
-    <mergeCell ref="M354:R354"/>
-    <mergeCell ref="S354:X354"/>
-    <mergeCell ref="Y354:AD354"/>
-    <mergeCell ref="A355:F355"/>
-    <mergeCell ref="G355:L355"/>
-    <mergeCell ref="M355:R355"/>
-    <mergeCell ref="S355:X355"/>
-    <mergeCell ref="Y355:AD355"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="G534:L534"/>
+    <mergeCell ref="M534:R534"/>
+    <mergeCell ref="S534:X534"/>
+    <mergeCell ref="Y534:AD534"/>
+    <mergeCell ref="A535:F535"/>
+    <mergeCell ref="G535:L535"/>
+    <mergeCell ref="M535:R535"/>
+    <mergeCell ref="S535:X535"/>
+    <mergeCell ref="Y535:AD535"/>
+    <mergeCell ref="A504:F504"/>
+    <mergeCell ref="G504:L504"/>
+    <mergeCell ref="M504:R504"/>
+    <mergeCell ref="S504:X504"/>
+    <mergeCell ref="Y504:AD504"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="G505:L505"/>
+    <mergeCell ref="M505:R505"/>
+    <mergeCell ref="S505:X505"/>
+    <mergeCell ref="Y505:AD505"/>
+    <mergeCell ref="A444:F444"/>
+    <mergeCell ref="G444:L444"/>
+    <mergeCell ref="M444:R444"/>
+    <mergeCell ref="S444:X444"/>
+    <mergeCell ref="Y444:AD444"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="G460:L460"/>
+    <mergeCell ref="M460:R460"/>
+    <mergeCell ref="S460:X460"/>
+    <mergeCell ref="Y460:AD460"/>
+    <mergeCell ref="A445:F445"/>
+    <mergeCell ref="G445:L445"/>
+    <mergeCell ref="M445:R445"/>
+    <mergeCell ref="S445:X445"/>
+    <mergeCell ref="Y445:AD445"/>
+    <mergeCell ref="A459:F459"/>
+    <mergeCell ref="G459:L459"/>
+    <mergeCell ref="M459:R459"/>
+    <mergeCell ref="S459:X459"/>
+    <mergeCell ref="Y459:AD459"/>
+    <mergeCell ref="Y309:AD309"/>
+    <mergeCell ref="A324:F324"/>
+    <mergeCell ref="G324:L324"/>
+    <mergeCell ref="M324:R324"/>
+    <mergeCell ref="S324:X324"/>
+    <mergeCell ref="Y324:AD324"/>
+    <mergeCell ref="A340:F340"/>
+    <mergeCell ref="G340:L340"/>
+    <mergeCell ref="M340:R340"/>
+    <mergeCell ref="S340:X340"/>
+    <mergeCell ref="Y340:AD340"/>
+    <mergeCell ref="A339:F339"/>
+    <mergeCell ref="G339:L339"/>
+    <mergeCell ref="M339:R339"/>
+    <mergeCell ref="S339:X339"/>
+    <mergeCell ref="Y339:AD339"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="G202:L202"/>
+    <mergeCell ref="M202:R202"/>
+    <mergeCell ref="S202:X202"/>
+    <mergeCell ref="Y202:AD202"/>
+    <mergeCell ref="A187:F187"/>
+    <mergeCell ref="G187:L187"/>
+    <mergeCell ref="M187:R187"/>
+    <mergeCell ref="S187:X187"/>
+    <mergeCell ref="Y187:AD187"/>
+    <mergeCell ref="A188:F188"/>
+    <mergeCell ref="G188:L188"/>
+    <mergeCell ref="M188:R188"/>
+    <mergeCell ref="S188:X188"/>
+    <mergeCell ref="Y188:AD188"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:L124"/>
+    <mergeCell ref="M124:R124"/>
+    <mergeCell ref="S124:X124"/>
+    <mergeCell ref="Y124:AD124"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="G179:L179"/>
+    <mergeCell ref="M179:R179"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="Y179:AD179"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A250:F250"/>
+    <mergeCell ref="G250:L250"/>
+    <mergeCell ref="M250:R250"/>
+    <mergeCell ref="S250:X250"/>
+    <mergeCell ref="Y250:AD250"/>
+    <mergeCell ref="A203:F203"/>
+    <mergeCell ref="G203:L203"/>
+    <mergeCell ref="M203:R203"/>
+    <mergeCell ref="S203:X203"/>
+    <mergeCell ref="Y203:AD203"/>
+    <mergeCell ref="A219:F219"/>
+    <mergeCell ref="G219:L219"/>
+    <mergeCell ref="M219:R219"/>
+    <mergeCell ref="S219:X219"/>
+    <mergeCell ref="Y219:AD219"/>
+    <mergeCell ref="A218:F218"/>
+    <mergeCell ref="G218:L218"/>
+    <mergeCell ref="M218:R218"/>
+    <mergeCell ref="S218:X218"/>
+    <mergeCell ref="Y218:AD218"/>
+    <mergeCell ref="A234:F234"/>
+    <mergeCell ref="G234:L234"/>
+    <mergeCell ref="M234:R234"/>
+    <mergeCell ref="S234:X234"/>
+    <mergeCell ref="A264:F264"/>
+    <mergeCell ref="G264:L264"/>
+    <mergeCell ref="M264:R264"/>
+    <mergeCell ref="S264:X264"/>
+    <mergeCell ref="Y264:AD264"/>
+    <mergeCell ref="A265:F265"/>
+    <mergeCell ref="G265:L265"/>
+    <mergeCell ref="M265:R265"/>
+    <mergeCell ref="S265:X265"/>
+    <mergeCell ref="Y265:AD265"/>
+    <mergeCell ref="A279:F279"/>
+    <mergeCell ref="G279:L279"/>
+    <mergeCell ref="M279:R279"/>
+    <mergeCell ref="S279:X279"/>
+    <mergeCell ref="Y279:AD279"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="G280:L280"/>
+    <mergeCell ref="M280:R280"/>
+    <mergeCell ref="S280:X280"/>
+    <mergeCell ref="Y280:AD280"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="G415:L415"/>
+    <mergeCell ref="M415:R415"/>
+    <mergeCell ref="S415:X415"/>
+    <mergeCell ref="Y415:AD415"/>
+    <mergeCell ref="A399:F399"/>
+    <mergeCell ref="G399:L399"/>
+    <mergeCell ref="M399:R399"/>
+    <mergeCell ref="S399:X399"/>
+    <mergeCell ref="Y399:AD399"/>
+    <mergeCell ref="A400:F400"/>
+    <mergeCell ref="G400:L400"/>
+    <mergeCell ref="M400:R400"/>
+    <mergeCell ref="S400:X400"/>
+    <mergeCell ref="Y400:AD400"/>
+    <mergeCell ref="A414:F414"/>
+    <mergeCell ref="G414:L414"/>
+    <mergeCell ref="M414:R414"/>
+    <mergeCell ref="S414:X414"/>
+    <mergeCell ref="Y414:AD414"/>
+    <mergeCell ref="A474:F474"/>
+    <mergeCell ref="G474:L474"/>
+    <mergeCell ref="M474:R474"/>
+    <mergeCell ref="S474:X474"/>
+    <mergeCell ref="Y474:AD474"/>
+    <mergeCell ref="A475:F475"/>
+    <mergeCell ref="G475:L475"/>
+    <mergeCell ref="M475:R475"/>
+    <mergeCell ref="S475:X475"/>
+    <mergeCell ref="Y475:AD475"/>
+    <mergeCell ref="A490:F490"/>
+    <mergeCell ref="G490:L490"/>
+    <mergeCell ref="M490:R490"/>
+    <mergeCell ref="S490:X490"/>
+    <mergeCell ref="Y490:AD490"/>
+    <mergeCell ref="A489:F489"/>
+    <mergeCell ref="G489:L489"/>
+    <mergeCell ref="M489:R489"/>
+    <mergeCell ref="S489:X489"/>
+    <mergeCell ref="Y489:AD489"/>
+    <mergeCell ref="A594:F594"/>
+    <mergeCell ref="G594:L594"/>
+    <mergeCell ref="M594:R594"/>
+    <mergeCell ref="S594:X594"/>
+    <mergeCell ref="Y594:AD594"/>
+    <mergeCell ref="A595:F595"/>
+    <mergeCell ref="G595:L595"/>
+    <mergeCell ref="M595:R595"/>
+    <mergeCell ref="S595:X595"/>
+    <mergeCell ref="Y595:AD595"/>
+    <mergeCell ref="A789:F789"/>
+    <mergeCell ref="G789:L789"/>
+    <mergeCell ref="M789:R789"/>
+    <mergeCell ref="S789:X789"/>
+    <mergeCell ref="Y789:AD789"/>
+    <mergeCell ref="A790:F790"/>
+    <mergeCell ref="G790:L790"/>
+    <mergeCell ref="M790:R790"/>
+    <mergeCell ref="S790:X790"/>
+    <mergeCell ref="Y790:AD790"/>
+    <mergeCell ref="Y234:AD234"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="G235:L235"/>
+    <mergeCell ref="M235:R235"/>
+    <mergeCell ref="S235:X235"/>
+    <mergeCell ref="Y235:AD235"/>
+    <mergeCell ref="A249:F249"/>
+    <mergeCell ref="G249:L249"/>
+    <mergeCell ref="M249:R249"/>
+    <mergeCell ref="S249:X249"/>
+    <mergeCell ref="Y249:AD249"/>
     <mergeCell ref="Y294:AD294"/>
     <mergeCell ref="A310:F310"/>
     <mergeCell ref="G310:L310"/>
@@ -34248,232 +34292,206 @@
     <mergeCell ref="G309:L309"/>
     <mergeCell ref="M309:R309"/>
     <mergeCell ref="S309:X309"/>
-    <mergeCell ref="Y234:AD234"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="G235:L235"/>
-    <mergeCell ref="M235:R235"/>
-    <mergeCell ref="S235:X235"/>
-    <mergeCell ref="Y235:AD235"/>
-    <mergeCell ref="A249:F249"/>
-    <mergeCell ref="G249:L249"/>
-    <mergeCell ref="M249:R249"/>
-    <mergeCell ref="S249:X249"/>
-    <mergeCell ref="Y249:AD249"/>
-    <mergeCell ref="A789:F789"/>
-    <mergeCell ref="G789:L789"/>
-    <mergeCell ref="M789:R789"/>
-    <mergeCell ref="S789:X789"/>
-    <mergeCell ref="Y789:AD789"/>
-    <mergeCell ref="A790:F790"/>
-    <mergeCell ref="G790:L790"/>
-    <mergeCell ref="M790:R790"/>
-    <mergeCell ref="S790:X790"/>
-    <mergeCell ref="Y790:AD790"/>
-    <mergeCell ref="A594:F594"/>
-    <mergeCell ref="G594:L594"/>
-    <mergeCell ref="M594:R594"/>
-    <mergeCell ref="S594:X594"/>
-    <mergeCell ref="Y594:AD594"/>
-    <mergeCell ref="A595:F595"/>
-    <mergeCell ref="G595:L595"/>
-    <mergeCell ref="M595:R595"/>
-    <mergeCell ref="S595:X595"/>
-    <mergeCell ref="Y595:AD595"/>
-    <mergeCell ref="A490:F490"/>
-    <mergeCell ref="G490:L490"/>
-    <mergeCell ref="M490:R490"/>
-    <mergeCell ref="S490:X490"/>
-    <mergeCell ref="Y490:AD490"/>
-    <mergeCell ref="A489:F489"/>
-    <mergeCell ref="G489:L489"/>
-    <mergeCell ref="M489:R489"/>
-    <mergeCell ref="S489:X489"/>
-    <mergeCell ref="Y489:AD489"/>
-    <mergeCell ref="A474:F474"/>
-    <mergeCell ref="G474:L474"/>
-    <mergeCell ref="M474:R474"/>
-    <mergeCell ref="S474:X474"/>
-    <mergeCell ref="Y474:AD474"/>
-    <mergeCell ref="A475:F475"/>
-    <mergeCell ref="G475:L475"/>
-    <mergeCell ref="M475:R475"/>
-    <mergeCell ref="S475:X475"/>
-    <mergeCell ref="Y475:AD475"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="G415:L415"/>
-    <mergeCell ref="M415:R415"/>
-    <mergeCell ref="S415:X415"/>
-    <mergeCell ref="Y415:AD415"/>
-    <mergeCell ref="A399:F399"/>
-    <mergeCell ref="G399:L399"/>
-    <mergeCell ref="M399:R399"/>
-    <mergeCell ref="S399:X399"/>
-    <mergeCell ref="Y399:AD399"/>
-    <mergeCell ref="A400:F400"/>
-    <mergeCell ref="G400:L400"/>
-    <mergeCell ref="M400:R400"/>
-    <mergeCell ref="S400:X400"/>
-    <mergeCell ref="Y400:AD400"/>
-    <mergeCell ref="A414:F414"/>
-    <mergeCell ref="G414:L414"/>
-    <mergeCell ref="M414:R414"/>
-    <mergeCell ref="S414:X414"/>
-    <mergeCell ref="Y414:AD414"/>
-    <mergeCell ref="A279:F279"/>
-    <mergeCell ref="G279:L279"/>
-    <mergeCell ref="M279:R279"/>
-    <mergeCell ref="S279:X279"/>
-    <mergeCell ref="Y279:AD279"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="G280:L280"/>
-    <mergeCell ref="M280:R280"/>
-    <mergeCell ref="S280:X280"/>
-    <mergeCell ref="Y280:AD280"/>
-    <mergeCell ref="A264:F264"/>
-    <mergeCell ref="G264:L264"/>
-    <mergeCell ref="M264:R264"/>
-    <mergeCell ref="S264:X264"/>
-    <mergeCell ref="Y264:AD264"/>
-    <mergeCell ref="A265:F265"/>
-    <mergeCell ref="G265:L265"/>
-    <mergeCell ref="M265:R265"/>
-    <mergeCell ref="S265:X265"/>
-    <mergeCell ref="Y265:AD265"/>
-    <mergeCell ref="A250:F250"/>
-    <mergeCell ref="G250:L250"/>
-    <mergeCell ref="M250:R250"/>
-    <mergeCell ref="S250:X250"/>
-    <mergeCell ref="Y250:AD250"/>
-    <mergeCell ref="A203:F203"/>
-    <mergeCell ref="G203:L203"/>
-    <mergeCell ref="M203:R203"/>
-    <mergeCell ref="S203:X203"/>
-    <mergeCell ref="Y203:AD203"/>
-    <mergeCell ref="A219:F219"/>
-    <mergeCell ref="G219:L219"/>
-    <mergeCell ref="M219:R219"/>
-    <mergeCell ref="S219:X219"/>
-    <mergeCell ref="Y219:AD219"/>
-    <mergeCell ref="A218:F218"/>
-    <mergeCell ref="G218:L218"/>
-    <mergeCell ref="M218:R218"/>
-    <mergeCell ref="S218:X218"/>
-    <mergeCell ref="Y218:AD218"/>
-    <mergeCell ref="A234:F234"/>
-    <mergeCell ref="G234:L234"/>
-    <mergeCell ref="M234:R234"/>
-    <mergeCell ref="S234:X234"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:L124"/>
-    <mergeCell ref="M124:R124"/>
-    <mergeCell ref="S124:X124"/>
-    <mergeCell ref="Y124:AD124"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="G179:L179"/>
-    <mergeCell ref="M179:R179"/>
-    <mergeCell ref="S179:X179"/>
-    <mergeCell ref="Y179:AD179"/>
-    <mergeCell ref="A202:F202"/>
-    <mergeCell ref="G202:L202"/>
-    <mergeCell ref="M202:R202"/>
-    <mergeCell ref="S202:X202"/>
-    <mergeCell ref="Y202:AD202"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="G187:L187"/>
-    <mergeCell ref="M187:R187"/>
-    <mergeCell ref="S187:X187"/>
-    <mergeCell ref="Y187:AD187"/>
-    <mergeCell ref="A188:F188"/>
-    <mergeCell ref="G188:L188"/>
-    <mergeCell ref="M188:R188"/>
-    <mergeCell ref="S188:X188"/>
-    <mergeCell ref="Y188:AD188"/>
-    <mergeCell ref="Y309:AD309"/>
-    <mergeCell ref="A324:F324"/>
-    <mergeCell ref="G324:L324"/>
-    <mergeCell ref="M324:R324"/>
-    <mergeCell ref="S324:X324"/>
-    <mergeCell ref="Y324:AD324"/>
-    <mergeCell ref="A340:F340"/>
-    <mergeCell ref="G340:L340"/>
-    <mergeCell ref="M340:R340"/>
-    <mergeCell ref="S340:X340"/>
-    <mergeCell ref="Y340:AD340"/>
-    <mergeCell ref="A339:F339"/>
-    <mergeCell ref="G339:L339"/>
-    <mergeCell ref="M339:R339"/>
-    <mergeCell ref="S339:X339"/>
-    <mergeCell ref="Y339:AD339"/>
-    <mergeCell ref="A444:F444"/>
-    <mergeCell ref="G444:L444"/>
-    <mergeCell ref="M444:R444"/>
-    <mergeCell ref="S444:X444"/>
-    <mergeCell ref="Y444:AD444"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="G460:L460"/>
-    <mergeCell ref="M460:R460"/>
-    <mergeCell ref="S460:X460"/>
-    <mergeCell ref="Y460:AD460"/>
-    <mergeCell ref="A445:F445"/>
-    <mergeCell ref="G445:L445"/>
-    <mergeCell ref="M445:R445"/>
-    <mergeCell ref="S445:X445"/>
-    <mergeCell ref="Y445:AD445"/>
-    <mergeCell ref="A459:F459"/>
-    <mergeCell ref="G459:L459"/>
-    <mergeCell ref="M459:R459"/>
-    <mergeCell ref="S459:X459"/>
-    <mergeCell ref="Y459:AD459"/>
-    <mergeCell ref="A504:F504"/>
-    <mergeCell ref="G504:L504"/>
-    <mergeCell ref="M504:R504"/>
-    <mergeCell ref="S504:X504"/>
-    <mergeCell ref="Y504:AD504"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="G505:L505"/>
-    <mergeCell ref="M505:R505"/>
-    <mergeCell ref="S505:X505"/>
-    <mergeCell ref="Y505:AD505"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="G534:L534"/>
-    <mergeCell ref="M534:R534"/>
-    <mergeCell ref="S534:X534"/>
-    <mergeCell ref="Y534:AD534"/>
-    <mergeCell ref="A535:F535"/>
-    <mergeCell ref="G535:L535"/>
-    <mergeCell ref="M535:R535"/>
-    <mergeCell ref="S535:X535"/>
-    <mergeCell ref="Y535:AD535"/>
+    <mergeCell ref="A354:F354"/>
+    <mergeCell ref="G354:L354"/>
+    <mergeCell ref="M354:R354"/>
+    <mergeCell ref="S354:X354"/>
+    <mergeCell ref="Y354:AD354"/>
+    <mergeCell ref="A355:F355"/>
+    <mergeCell ref="G355:L355"/>
+    <mergeCell ref="M355:R355"/>
+    <mergeCell ref="S355:X355"/>
+    <mergeCell ref="Y355:AD355"/>
+    <mergeCell ref="A369:F369"/>
+    <mergeCell ref="G369:L369"/>
+    <mergeCell ref="M369:R369"/>
+    <mergeCell ref="S369:X369"/>
+    <mergeCell ref="Y369:AD369"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="G370:L370"/>
+    <mergeCell ref="M370:R370"/>
+    <mergeCell ref="S370:X370"/>
+    <mergeCell ref="Y370:AD370"/>
+    <mergeCell ref="A384:F384"/>
+    <mergeCell ref="G384:L384"/>
+    <mergeCell ref="M384:R384"/>
+    <mergeCell ref="S384:X384"/>
+    <mergeCell ref="Y384:AD384"/>
+    <mergeCell ref="A385:F385"/>
+    <mergeCell ref="G385:L385"/>
+    <mergeCell ref="M385:R385"/>
+    <mergeCell ref="S385:X385"/>
+    <mergeCell ref="Y385:AD385"/>
+    <mergeCell ref="A429:F429"/>
+    <mergeCell ref="G429:L429"/>
+    <mergeCell ref="M429:R429"/>
+    <mergeCell ref="S429:X429"/>
+    <mergeCell ref="Y429:AD429"/>
+    <mergeCell ref="A430:F430"/>
+    <mergeCell ref="G430:L430"/>
+    <mergeCell ref="M430:R430"/>
+    <mergeCell ref="S430:X430"/>
+    <mergeCell ref="Y430:AD430"/>
+    <mergeCell ref="A519:F519"/>
+    <mergeCell ref="G519:L519"/>
+    <mergeCell ref="M519:R519"/>
+    <mergeCell ref="S519:X519"/>
+    <mergeCell ref="Y519:AD519"/>
+    <mergeCell ref="A520:F520"/>
+    <mergeCell ref="G520:L520"/>
+    <mergeCell ref="M520:R520"/>
+    <mergeCell ref="S520:X520"/>
+    <mergeCell ref="Y520:AD520"/>
+    <mergeCell ref="A549:F549"/>
+    <mergeCell ref="G549:L549"/>
+    <mergeCell ref="M549:R549"/>
+    <mergeCell ref="S549:X549"/>
+    <mergeCell ref="Y549:AD549"/>
+    <mergeCell ref="A550:F550"/>
+    <mergeCell ref="G550:L550"/>
+    <mergeCell ref="M550:R550"/>
+    <mergeCell ref="S550:X550"/>
+    <mergeCell ref="Y550:AD550"/>
+    <mergeCell ref="A564:F564"/>
+    <mergeCell ref="G564:L564"/>
+    <mergeCell ref="M564:R564"/>
+    <mergeCell ref="S564:X564"/>
+    <mergeCell ref="Y564:AD564"/>
+    <mergeCell ref="A565:F565"/>
+    <mergeCell ref="G565:L565"/>
+    <mergeCell ref="M565:R565"/>
+    <mergeCell ref="S565:X565"/>
+    <mergeCell ref="Y565:AD565"/>
+    <mergeCell ref="A579:F579"/>
+    <mergeCell ref="G579:L579"/>
+    <mergeCell ref="M579:R579"/>
+    <mergeCell ref="S579:X579"/>
+    <mergeCell ref="Y579:AD579"/>
+    <mergeCell ref="A580:F580"/>
+    <mergeCell ref="G580:L580"/>
+    <mergeCell ref="M580:R580"/>
+    <mergeCell ref="S580:X580"/>
+    <mergeCell ref="Y580:AD580"/>
+    <mergeCell ref="A609:F609"/>
+    <mergeCell ref="G609:L609"/>
+    <mergeCell ref="M609:R609"/>
+    <mergeCell ref="S609:X609"/>
+    <mergeCell ref="Y609:AD609"/>
+    <mergeCell ref="A610:F610"/>
+    <mergeCell ref="G610:L610"/>
+    <mergeCell ref="M610:R610"/>
+    <mergeCell ref="S610:X610"/>
+    <mergeCell ref="Y610:AD610"/>
+    <mergeCell ref="A624:F624"/>
+    <mergeCell ref="G624:L624"/>
+    <mergeCell ref="M624:R624"/>
+    <mergeCell ref="S624:X624"/>
+    <mergeCell ref="Y624:AD624"/>
+    <mergeCell ref="A625:F625"/>
+    <mergeCell ref="G625:L625"/>
+    <mergeCell ref="M625:R625"/>
+    <mergeCell ref="S625:X625"/>
+    <mergeCell ref="Y625:AD625"/>
+    <mergeCell ref="A639:F639"/>
+    <mergeCell ref="G639:L639"/>
+    <mergeCell ref="M639:R639"/>
+    <mergeCell ref="S639:X639"/>
+    <mergeCell ref="Y639:AD639"/>
+    <mergeCell ref="A640:F640"/>
+    <mergeCell ref="G640:L640"/>
+    <mergeCell ref="M640:R640"/>
+    <mergeCell ref="S640:X640"/>
+    <mergeCell ref="Y640:AD640"/>
+    <mergeCell ref="A654:F654"/>
+    <mergeCell ref="G654:L654"/>
+    <mergeCell ref="M654:R654"/>
+    <mergeCell ref="S654:X654"/>
+    <mergeCell ref="Y654:AD654"/>
+    <mergeCell ref="A655:F655"/>
+    <mergeCell ref="G655:L655"/>
+    <mergeCell ref="M655:R655"/>
+    <mergeCell ref="S655:X655"/>
+    <mergeCell ref="Y655:AD655"/>
+    <mergeCell ref="A669:F669"/>
+    <mergeCell ref="G669:L669"/>
+    <mergeCell ref="M669:R669"/>
+    <mergeCell ref="S669:X669"/>
+    <mergeCell ref="Y669:AD669"/>
+    <mergeCell ref="A670:F670"/>
+    <mergeCell ref="G670:L670"/>
+    <mergeCell ref="M670:R670"/>
+    <mergeCell ref="S670:X670"/>
+    <mergeCell ref="Y670:AD670"/>
+    <mergeCell ref="A684:F684"/>
+    <mergeCell ref="G684:L684"/>
+    <mergeCell ref="M684:R684"/>
+    <mergeCell ref="S684:X684"/>
+    <mergeCell ref="Y684:AD684"/>
+    <mergeCell ref="A700:F700"/>
+    <mergeCell ref="G700:L700"/>
+    <mergeCell ref="M700:R700"/>
+    <mergeCell ref="S700:X700"/>
+    <mergeCell ref="Y700:AD700"/>
+    <mergeCell ref="A699:F699"/>
+    <mergeCell ref="G699:L699"/>
+    <mergeCell ref="M699:R699"/>
+    <mergeCell ref="S699:X699"/>
+    <mergeCell ref="Y699:AD699"/>
+    <mergeCell ref="A685:F685"/>
+    <mergeCell ref="G685:L685"/>
+    <mergeCell ref="M685:R685"/>
+    <mergeCell ref="S685:X685"/>
+    <mergeCell ref="Y685:AD685"/>
+    <mergeCell ref="A714:F714"/>
+    <mergeCell ref="G714:L714"/>
+    <mergeCell ref="M714:R714"/>
+    <mergeCell ref="S714:X714"/>
+    <mergeCell ref="Y714:AD714"/>
+    <mergeCell ref="A715:F715"/>
+    <mergeCell ref="G715:L715"/>
+    <mergeCell ref="M715:R715"/>
+    <mergeCell ref="S715:X715"/>
+    <mergeCell ref="Y715:AD715"/>
+    <mergeCell ref="A729:F729"/>
+    <mergeCell ref="G729:L729"/>
+    <mergeCell ref="M729:R729"/>
+    <mergeCell ref="S729:X729"/>
+    <mergeCell ref="Y729:AD729"/>
+    <mergeCell ref="A730:F730"/>
+    <mergeCell ref="G730:L730"/>
+    <mergeCell ref="M730:R730"/>
+    <mergeCell ref="S730:X730"/>
+    <mergeCell ref="Y730:AD730"/>
+    <mergeCell ref="A744:F744"/>
+    <mergeCell ref="G744:L744"/>
+    <mergeCell ref="M744:R744"/>
+    <mergeCell ref="S744:X744"/>
+    <mergeCell ref="Y744:AD744"/>
+    <mergeCell ref="A745:F745"/>
+    <mergeCell ref="G745:L745"/>
+    <mergeCell ref="M745:R745"/>
+    <mergeCell ref="S745:X745"/>
+    <mergeCell ref="Y745:AD745"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="G759:L759"/>
+    <mergeCell ref="M759:R759"/>
+    <mergeCell ref="S759:X759"/>
+    <mergeCell ref="Y759:AD759"/>
+    <mergeCell ref="A760:F760"/>
+    <mergeCell ref="G760:L760"/>
+    <mergeCell ref="M760:R760"/>
+    <mergeCell ref="S760:X760"/>
+    <mergeCell ref="Y760:AD760"/>
+    <mergeCell ref="A774:F774"/>
+    <mergeCell ref="G774:L774"/>
+    <mergeCell ref="M774:R774"/>
+    <mergeCell ref="S774:X774"/>
+    <mergeCell ref="Y774:AD774"/>
+    <mergeCell ref="A775:F775"/>
+    <mergeCell ref="G775:L775"/>
+    <mergeCell ref="M775:R775"/>
+    <mergeCell ref="S775:X775"/>
+    <mergeCell ref="Y775:AD775"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39251,10 +39269,10 @@
       <c r="A1" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="211">
+      <c r="B1" s="208">
         <v>0.51</v>
       </c>
-      <c r="C1" s="211"/>
+      <c r="C1" s="208"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -39263,10 +39281,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="211">
+      <c r="B2" s="208">
         <v>0.54</v>
       </c>
-      <c r="C2" s="211"/>
+      <c r="C2" s="208"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -39275,10 +39293,10 @@
       <c r="A3" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="211">
+      <c r="B3" s="208">
         <v>0.51</v>
       </c>
-      <c r="C3" s="211"/>
+      <c r="C3" s="208"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -39287,10 +39305,10 @@
       <c r="A4" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="211">
+      <c r="B4" s="208">
         <v>0.54</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="208"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -39332,7 +39350,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="208">
+      <c r="E8" s="211">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -39345,7 +39363,7 @@
       <c r="B9" s="209"/>
       <c r="C9" s="209"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="208"/>
+      <c r="E9" s="211"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -39385,7 +39403,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="208">
+      <c r="E13" s="211">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -39398,7 +39416,7 @@
       <c r="B14" s="209"/>
       <c r="C14" s="209"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="208"/>
+      <c r="E14" s="211"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -39438,7 +39456,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="208">
+      <c r="E18" s="211">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -39451,7 +39469,7 @@
       <c r="B19" s="209"/>
       <c r="C19" s="209"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="208"/>
+      <c r="E19" s="211"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -39496,12 +39514,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -39509,6 +39521,12 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="114_{C59B5EEC-97BB-4403-A512-1BBDF44431D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5E6C24B7-AEAF-4459-89B9-8BFCC4F9E7DA}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="114_{C59B5EEC-97BB-4403-A512-1BBDF44431D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0211F151-0D10-441B-95BA-AA253B455FDB}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="6315" windowWidth="27870" windowHeight="9885" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="287">
   <si>
     <t>Pillar</t>
   </si>
@@ -889,6 +889,15 @@
   </si>
   <si>
     <t>ELSOFT</t>
+  </si>
+  <si>
+    <t>TMCLIFE</t>
+  </si>
+  <si>
+    <t>MMSV</t>
+  </si>
+  <si>
+    <t>ADVCON</t>
   </si>
 </sst>
 </file>
@@ -2619,8 +2628,8 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2628,8 +2637,8 @@
     <xf numFmtId="9" fontId="18" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3066,7 +3075,7 @@
   <dimension ref="A1:AD803"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A238" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G258" sqref="G258"/>
+      <selection activeCell="R255" sqref="R255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13659,7 +13668,9 @@
       <c r="J252" s="92"/>
       <c r="K252" s="92"/>
       <c r="L252" s="93"/>
-      <c r="M252" s="90"/>
+      <c r="M252" s="90" t="s">
+        <v>25</v>
+      </c>
       <c r="N252" s="91"/>
       <c r="O252" s="92"/>
       <c r="P252" s="92"/>
@@ -13695,7 +13706,9 @@
       <c r="J253" s="92"/>
       <c r="K253" s="92"/>
       <c r="L253" s="93"/>
-      <c r="M253" s="90"/>
+      <c r="M253" s="90" t="s">
+        <v>261</v>
+      </c>
       <c r="N253" s="91"/>
       <c r="O253" s="92"/>
       <c r="P253" s="92"/>
@@ -13731,7 +13744,9 @@
       <c r="J254" s="92"/>
       <c r="K254" s="92"/>
       <c r="L254" s="93"/>
-      <c r="M254" s="90"/>
+      <c r="M254" s="90" t="s">
+        <v>198</v>
+      </c>
       <c r="N254" s="91"/>
       <c r="O254" s="92"/>
       <c r="P254" s="92"/>
@@ -13767,7 +13782,9 @@
       <c r="J255" s="92"/>
       <c r="K255" s="92"/>
       <c r="L255" s="93"/>
-      <c r="M255" s="90"/>
+      <c r="M255" s="90" t="s">
+        <v>284</v>
+      </c>
       <c r="N255" s="91"/>
       <c r="O255" s="92"/>
       <c r="P255" s="92"/>
@@ -13803,7 +13820,9 @@
       <c r="J256" s="92"/>
       <c r="K256" s="92"/>
       <c r="L256" s="93"/>
-      <c r="M256" s="90"/>
+      <c r="M256" s="90" t="s">
+        <v>286</v>
+      </c>
       <c r="N256" s="91"/>
       <c r="O256" s="92"/>
       <c r="P256" s="92"/>
@@ -13839,7 +13858,9 @@
       <c r="J257" s="92"/>
       <c r="K257" s="92"/>
       <c r="L257" s="93"/>
-      <c r="M257" s="90"/>
+      <c r="M257" s="90" t="s">
+        <v>154</v>
+      </c>
       <c r="N257" s="91"/>
       <c r="O257" s="92"/>
       <c r="P257" s="92"/>
@@ -13867,13 +13888,17 @@
       <c r="D258" s="92"/>
       <c r="E258" s="92"/>
       <c r="F258" s="93"/>
-      <c r="G258" s="90"/>
+      <c r="G258" s="90" t="s">
+        <v>160</v>
+      </c>
       <c r="H258" s="91"/>
       <c r="I258" s="92"/>
       <c r="J258" s="92"/>
       <c r="K258" s="92"/>
       <c r="L258" s="93"/>
-      <c r="M258" s="90"/>
+      <c r="M258" s="90" t="s">
+        <v>285</v>
+      </c>
       <c r="N258" s="91"/>
       <c r="O258" s="92"/>
       <c r="P258" s="92"/>
@@ -13901,13 +13926,17 @@
       <c r="D259" s="92"/>
       <c r="E259" s="92"/>
       <c r="F259" s="93"/>
-      <c r="G259" s="90"/>
+      <c r="G259" s="90" t="s">
+        <v>39</v>
+      </c>
       <c r="H259" s="91"/>
       <c r="I259" s="92"/>
       <c r="J259" s="92"/>
       <c r="K259" s="92"/>
       <c r="L259" s="93"/>
-      <c r="M259" s="90"/>
+      <c r="M259" s="90" t="s">
+        <v>21</v>
+      </c>
       <c r="N259" s="91"/>
       <c r="O259" s="92"/>
       <c r="P259" s="92"/>
@@ -34042,117 +34071,321 @@
     </row>
   </sheetData>
   <mergeCells count="450">
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="G534:L534"/>
-    <mergeCell ref="M534:R534"/>
-    <mergeCell ref="S534:X534"/>
-    <mergeCell ref="Y534:AD534"/>
-    <mergeCell ref="A535:F535"/>
-    <mergeCell ref="G535:L535"/>
-    <mergeCell ref="M535:R535"/>
-    <mergeCell ref="S535:X535"/>
-    <mergeCell ref="Y535:AD535"/>
-    <mergeCell ref="A504:F504"/>
-    <mergeCell ref="G504:L504"/>
-    <mergeCell ref="M504:R504"/>
-    <mergeCell ref="S504:X504"/>
-    <mergeCell ref="Y504:AD504"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="G505:L505"/>
-    <mergeCell ref="M505:R505"/>
-    <mergeCell ref="S505:X505"/>
-    <mergeCell ref="Y505:AD505"/>
-    <mergeCell ref="A444:F444"/>
-    <mergeCell ref="G444:L444"/>
-    <mergeCell ref="M444:R444"/>
-    <mergeCell ref="S444:X444"/>
-    <mergeCell ref="Y444:AD444"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="G460:L460"/>
-    <mergeCell ref="M460:R460"/>
-    <mergeCell ref="S460:X460"/>
-    <mergeCell ref="Y460:AD460"/>
-    <mergeCell ref="A445:F445"/>
-    <mergeCell ref="G445:L445"/>
-    <mergeCell ref="M445:R445"/>
-    <mergeCell ref="S445:X445"/>
-    <mergeCell ref="Y445:AD445"/>
-    <mergeCell ref="A459:F459"/>
-    <mergeCell ref="G459:L459"/>
-    <mergeCell ref="M459:R459"/>
-    <mergeCell ref="S459:X459"/>
-    <mergeCell ref="Y459:AD459"/>
-    <mergeCell ref="Y309:AD309"/>
-    <mergeCell ref="A324:F324"/>
-    <mergeCell ref="G324:L324"/>
-    <mergeCell ref="M324:R324"/>
-    <mergeCell ref="S324:X324"/>
-    <mergeCell ref="Y324:AD324"/>
-    <mergeCell ref="A340:F340"/>
-    <mergeCell ref="G340:L340"/>
-    <mergeCell ref="M340:R340"/>
-    <mergeCell ref="S340:X340"/>
-    <mergeCell ref="Y340:AD340"/>
-    <mergeCell ref="A339:F339"/>
-    <mergeCell ref="G339:L339"/>
-    <mergeCell ref="M339:R339"/>
-    <mergeCell ref="S339:X339"/>
-    <mergeCell ref="Y339:AD339"/>
-    <mergeCell ref="A202:F202"/>
-    <mergeCell ref="G202:L202"/>
-    <mergeCell ref="M202:R202"/>
-    <mergeCell ref="S202:X202"/>
-    <mergeCell ref="Y202:AD202"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="G187:L187"/>
-    <mergeCell ref="M187:R187"/>
-    <mergeCell ref="S187:X187"/>
-    <mergeCell ref="Y187:AD187"/>
-    <mergeCell ref="A188:F188"/>
-    <mergeCell ref="G188:L188"/>
-    <mergeCell ref="M188:R188"/>
-    <mergeCell ref="S188:X188"/>
-    <mergeCell ref="Y188:AD188"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:L124"/>
-    <mergeCell ref="M124:R124"/>
-    <mergeCell ref="S124:X124"/>
-    <mergeCell ref="Y124:AD124"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="G179:L179"/>
-    <mergeCell ref="M179:R179"/>
-    <mergeCell ref="S179:X179"/>
-    <mergeCell ref="Y179:AD179"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:R80"/>
-    <mergeCell ref="S80:X80"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="M102:R102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:R53"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AD53"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A774:F774"/>
+    <mergeCell ref="G774:L774"/>
+    <mergeCell ref="M774:R774"/>
+    <mergeCell ref="S774:X774"/>
+    <mergeCell ref="Y774:AD774"/>
+    <mergeCell ref="A775:F775"/>
+    <mergeCell ref="G775:L775"/>
+    <mergeCell ref="M775:R775"/>
+    <mergeCell ref="S775:X775"/>
+    <mergeCell ref="Y775:AD775"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="G759:L759"/>
+    <mergeCell ref="M759:R759"/>
+    <mergeCell ref="S759:X759"/>
+    <mergeCell ref="Y759:AD759"/>
+    <mergeCell ref="A760:F760"/>
+    <mergeCell ref="G760:L760"/>
+    <mergeCell ref="M760:R760"/>
+    <mergeCell ref="S760:X760"/>
+    <mergeCell ref="Y760:AD760"/>
+    <mergeCell ref="A744:F744"/>
+    <mergeCell ref="G744:L744"/>
+    <mergeCell ref="M744:R744"/>
+    <mergeCell ref="S744:X744"/>
+    <mergeCell ref="Y744:AD744"/>
+    <mergeCell ref="A745:F745"/>
+    <mergeCell ref="G745:L745"/>
+    <mergeCell ref="M745:R745"/>
+    <mergeCell ref="S745:X745"/>
+    <mergeCell ref="Y745:AD745"/>
+    <mergeCell ref="A729:F729"/>
+    <mergeCell ref="G729:L729"/>
+    <mergeCell ref="M729:R729"/>
+    <mergeCell ref="S729:X729"/>
+    <mergeCell ref="Y729:AD729"/>
+    <mergeCell ref="A730:F730"/>
+    <mergeCell ref="G730:L730"/>
+    <mergeCell ref="M730:R730"/>
+    <mergeCell ref="S730:X730"/>
+    <mergeCell ref="Y730:AD730"/>
+    <mergeCell ref="A714:F714"/>
+    <mergeCell ref="G714:L714"/>
+    <mergeCell ref="M714:R714"/>
+    <mergeCell ref="S714:X714"/>
+    <mergeCell ref="Y714:AD714"/>
+    <mergeCell ref="A715:F715"/>
+    <mergeCell ref="G715:L715"/>
+    <mergeCell ref="M715:R715"/>
+    <mergeCell ref="S715:X715"/>
+    <mergeCell ref="Y715:AD715"/>
+    <mergeCell ref="A684:F684"/>
+    <mergeCell ref="G684:L684"/>
+    <mergeCell ref="M684:R684"/>
+    <mergeCell ref="S684:X684"/>
+    <mergeCell ref="Y684:AD684"/>
+    <mergeCell ref="A700:F700"/>
+    <mergeCell ref="G700:L700"/>
+    <mergeCell ref="M700:R700"/>
+    <mergeCell ref="S700:X700"/>
+    <mergeCell ref="Y700:AD700"/>
+    <mergeCell ref="A699:F699"/>
+    <mergeCell ref="G699:L699"/>
+    <mergeCell ref="M699:R699"/>
+    <mergeCell ref="S699:X699"/>
+    <mergeCell ref="Y699:AD699"/>
+    <mergeCell ref="A685:F685"/>
+    <mergeCell ref="G685:L685"/>
+    <mergeCell ref="M685:R685"/>
+    <mergeCell ref="S685:X685"/>
+    <mergeCell ref="Y685:AD685"/>
+    <mergeCell ref="A669:F669"/>
+    <mergeCell ref="G669:L669"/>
+    <mergeCell ref="M669:R669"/>
+    <mergeCell ref="S669:X669"/>
+    <mergeCell ref="Y669:AD669"/>
+    <mergeCell ref="A670:F670"/>
+    <mergeCell ref="G670:L670"/>
+    <mergeCell ref="M670:R670"/>
+    <mergeCell ref="S670:X670"/>
+    <mergeCell ref="Y670:AD670"/>
+    <mergeCell ref="A654:F654"/>
+    <mergeCell ref="G654:L654"/>
+    <mergeCell ref="M654:R654"/>
+    <mergeCell ref="S654:X654"/>
+    <mergeCell ref="Y654:AD654"/>
+    <mergeCell ref="A655:F655"/>
+    <mergeCell ref="G655:L655"/>
+    <mergeCell ref="M655:R655"/>
+    <mergeCell ref="S655:X655"/>
+    <mergeCell ref="Y655:AD655"/>
+    <mergeCell ref="A639:F639"/>
+    <mergeCell ref="G639:L639"/>
+    <mergeCell ref="M639:R639"/>
+    <mergeCell ref="S639:X639"/>
+    <mergeCell ref="Y639:AD639"/>
+    <mergeCell ref="A640:F640"/>
+    <mergeCell ref="G640:L640"/>
+    <mergeCell ref="M640:R640"/>
+    <mergeCell ref="S640:X640"/>
+    <mergeCell ref="Y640:AD640"/>
+    <mergeCell ref="A624:F624"/>
+    <mergeCell ref="G624:L624"/>
+    <mergeCell ref="M624:R624"/>
+    <mergeCell ref="S624:X624"/>
+    <mergeCell ref="Y624:AD624"/>
+    <mergeCell ref="A625:F625"/>
+    <mergeCell ref="G625:L625"/>
+    <mergeCell ref="M625:R625"/>
+    <mergeCell ref="S625:X625"/>
+    <mergeCell ref="Y625:AD625"/>
+    <mergeCell ref="A609:F609"/>
+    <mergeCell ref="G609:L609"/>
+    <mergeCell ref="M609:R609"/>
+    <mergeCell ref="S609:X609"/>
+    <mergeCell ref="Y609:AD609"/>
+    <mergeCell ref="A610:F610"/>
+    <mergeCell ref="G610:L610"/>
+    <mergeCell ref="M610:R610"/>
+    <mergeCell ref="S610:X610"/>
+    <mergeCell ref="Y610:AD610"/>
+    <mergeCell ref="A579:F579"/>
+    <mergeCell ref="G579:L579"/>
+    <mergeCell ref="M579:R579"/>
+    <mergeCell ref="S579:X579"/>
+    <mergeCell ref="Y579:AD579"/>
+    <mergeCell ref="A580:F580"/>
+    <mergeCell ref="G580:L580"/>
+    <mergeCell ref="M580:R580"/>
+    <mergeCell ref="S580:X580"/>
+    <mergeCell ref="Y580:AD580"/>
+    <mergeCell ref="A564:F564"/>
+    <mergeCell ref="G564:L564"/>
+    <mergeCell ref="M564:R564"/>
+    <mergeCell ref="S564:X564"/>
+    <mergeCell ref="Y564:AD564"/>
+    <mergeCell ref="A565:F565"/>
+    <mergeCell ref="G565:L565"/>
+    <mergeCell ref="M565:R565"/>
+    <mergeCell ref="S565:X565"/>
+    <mergeCell ref="Y565:AD565"/>
+    <mergeCell ref="A549:F549"/>
+    <mergeCell ref="G549:L549"/>
+    <mergeCell ref="M549:R549"/>
+    <mergeCell ref="S549:X549"/>
+    <mergeCell ref="Y549:AD549"/>
+    <mergeCell ref="A550:F550"/>
+    <mergeCell ref="G550:L550"/>
+    <mergeCell ref="M550:R550"/>
+    <mergeCell ref="S550:X550"/>
+    <mergeCell ref="Y550:AD550"/>
+    <mergeCell ref="A519:F519"/>
+    <mergeCell ref="G519:L519"/>
+    <mergeCell ref="M519:R519"/>
+    <mergeCell ref="S519:X519"/>
+    <mergeCell ref="Y519:AD519"/>
+    <mergeCell ref="A520:F520"/>
+    <mergeCell ref="G520:L520"/>
+    <mergeCell ref="M520:R520"/>
+    <mergeCell ref="S520:X520"/>
+    <mergeCell ref="Y520:AD520"/>
+    <mergeCell ref="A429:F429"/>
+    <mergeCell ref="G429:L429"/>
+    <mergeCell ref="M429:R429"/>
+    <mergeCell ref="S429:X429"/>
+    <mergeCell ref="Y429:AD429"/>
+    <mergeCell ref="A430:F430"/>
+    <mergeCell ref="G430:L430"/>
+    <mergeCell ref="M430:R430"/>
+    <mergeCell ref="S430:X430"/>
+    <mergeCell ref="Y430:AD430"/>
+    <mergeCell ref="A384:F384"/>
+    <mergeCell ref="G384:L384"/>
+    <mergeCell ref="M384:R384"/>
+    <mergeCell ref="S384:X384"/>
+    <mergeCell ref="Y384:AD384"/>
+    <mergeCell ref="A385:F385"/>
+    <mergeCell ref="G385:L385"/>
+    <mergeCell ref="M385:R385"/>
+    <mergeCell ref="S385:X385"/>
+    <mergeCell ref="Y385:AD385"/>
+    <mergeCell ref="A369:F369"/>
+    <mergeCell ref="G369:L369"/>
+    <mergeCell ref="M369:R369"/>
+    <mergeCell ref="S369:X369"/>
+    <mergeCell ref="Y369:AD369"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="G370:L370"/>
+    <mergeCell ref="M370:R370"/>
+    <mergeCell ref="S370:X370"/>
+    <mergeCell ref="Y370:AD370"/>
+    <mergeCell ref="A354:F354"/>
+    <mergeCell ref="G354:L354"/>
+    <mergeCell ref="M354:R354"/>
+    <mergeCell ref="S354:X354"/>
+    <mergeCell ref="Y354:AD354"/>
+    <mergeCell ref="A355:F355"/>
+    <mergeCell ref="G355:L355"/>
+    <mergeCell ref="M355:R355"/>
+    <mergeCell ref="S355:X355"/>
+    <mergeCell ref="Y355:AD355"/>
+    <mergeCell ref="Y294:AD294"/>
+    <mergeCell ref="A310:F310"/>
+    <mergeCell ref="G310:L310"/>
+    <mergeCell ref="M310:R310"/>
+    <mergeCell ref="S310:X310"/>
+    <mergeCell ref="Y310:AD310"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="G325:L325"/>
+    <mergeCell ref="M325:R325"/>
+    <mergeCell ref="S325:X325"/>
+    <mergeCell ref="Y325:AD325"/>
+    <mergeCell ref="A295:F295"/>
+    <mergeCell ref="G295:L295"/>
+    <mergeCell ref="M295:R295"/>
+    <mergeCell ref="S295:X295"/>
+    <mergeCell ref="Y295:AD295"/>
+    <mergeCell ref="A294:F294"/>
+    <mergeCell ref="G294:L294"/>
+    <mergeCell ref="M294:R294"/>
+    <mergeCell ref="S294:X294"/>
+    <mergeCell ref="A309:F309"/>
+    <mergeCell ref="G309:L309"/>
+    <mergeCell ref="M309:R309"/>
+    <mergeCell ref="S309:X309"/>
+    <mergeCell ref="Y234:AD234"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="G235:L235"/>
+    <mergeCell ref="M235:R235"/>
+    <mergeCell ref="S235:X235"/>
+    <mergeCell ref="Y235:AD235"/>
+    <mergeCell ref="A249:F249"/>
+    <mergeCell ref="G249:L249"/>
+    <mergeCell ref="M249:R249"/>
+    <mergeCell ref="S249:X249"/>
+    <mergeCell ref="Y249:AD249"/>
+    <mergeCell ref="A789:F789"/>
+    <mergeCell ref="G789:L789"/>
+    <mergeCell ref="M789:R789"/>
+    <mergeCell ref="S789:X789"/>
+    <mergeCell ref="Y789:AD789"/>
+    <mergeCell ref="A790:F790"/>
+    <mergeCell ref="G790:L790"/>
+    <mergeCell ref="M790:R790"/>
+    <mergeCell ref="S790:X790"/>
+    <mergeCell ref="Y790:AD790"/>
+    <mergeCell ref="A594:F594"/>
+    <mergeCell ref="G594:L594"/>
+    <mergeCell ref="M594:R594"/>
+    <mergeCell ref="S594:X594"/>
+    <mergeCell ref="Y594:AD594"/>
+    <mergeCell ref="A595:F595"/>
+    <mergeCell ref="G595:L595"/>
+    <mergeCell ref="M595:R595"/>
+    <mergeCell ref="S595:X595"/>
+    <mergeCell ref="Y595:AD595"/>
+    <mergeCell ref="A490:F490"/>
+    <mergeCell ref="G490:L490"/>
+    <mergeCell ref="M490:R490"/>
+    <mergeCell ref="S490:X490"/>
+    <mergeCell ref="Y490:AD490"/>
+    <mergeCell ref="A489:F489"/>
+    <mergeCell ref="G489:L489"/>
+    <mergeCell ref="M489:R489"/>
+    <mergeCell ref="S489:X489"/>
+    <mergeCell ref="Y489:AD489"/>
+    <mergeCell ref="A474:F474"/>
+    <mergeCell ref="G474:L474"/>
+    <mergeCell ref="M474:R474"/>
+    <mergeCell ref="S474:X474"/>
+    <mergeCell ref="Y474:AD474"/>
+    <mergeCell ref="A475:F475"/>
+    <mergeCell ref="G475:L475"/>
+    <mergeCell ref="M475:R475"/>
+    <mergeCell ref="S475:X475"/>
+    <mergeCell ref="Y475:AD475"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="G415:L415"/>
+    <mergeCell ref="M415:R415"/>
+    <mergeCell ref="S415:X415"/>
+    <mergeCell ref="Y415:AD415"/>
+    <mergeCell ref="A399:F399"/>
+    <mergeCell ref="G399:L399"/>
+    <mergeCell ref="M399:R399"/>
+    <mergeCell ref="S399:X399"/>
+    <mergeCell ref="Y399:AD399"/>
+    <mergeCell ref="A400:F400"/>
+    <mergeCell ref="G400:L400"/>
+    <mergeCell ref="M400:R400"/>
+    <mergeCell ref="S400:X400"/>
+    <mergeCell ref="Y400:AD400"/>
+    <mergeCell ref="A414:F414"/>
+    <mergeCell ref="G414:L414"/>
+    <mergeCell ref="M414:R414"/>
+    <mergeCell ref="S414:X414"/>
+    <mergeCell ref="Y414:AD414"/>
+    <mergeCell ref="A279:F279"/>
+    <mergeCell ref="G279:L279"/>
+    <mergeCell ref="M279:R279"/>
+    <mergeCell ref="S279:X279"/>
+    <mergeCell ref="Y279:AD279"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="G280:L280"/>
+    <mergeCell ref="M280:R280"/>
+    <mergeCell ref="S280:X280"/>
+    <mergeCell ref="Y280:AD280"/>
+    <mergeCell ref="A264:F264"/>
+    <mergeCell ref="G264:L264"/>
+    <mergeCell ref="M264:R264"/>
+    <mergeCell ref="S264:X264"/>
+    <mergeCell ref="Y264:AD264"/>
+    <mergeCell ref="A265:F265"/>
+    <mergeCell ref="G265:L265"/>
+    <mergeCell ref="M265:R265"/>
+    <mergeCell ref="S265:X265"/>
+    <mergeCell ref="Y265:AD265"/>
     <mergeCell ref="A250:F250"/>
     <mergeCell ref="G250:L250"/>
     <mergeCell ref="M250:R250"/>
@@ -34177,321 +34410,117 @@
     <mergeCell ref="G234:L234"/>
     <mergeCell ref="M234:R234"/>
     <mergeCell ref="S234:X234"/>
-    <mergeCell ref="A264:F264"/>
-    <mergeCell ref="G264:L264"/>
-    <mergeCell ref="M264:R264"/>
-    <mergeCell ref="S264:X264"/>
-    <mergeCell ref="Y264:AD264"/>
-    <mergeCell ref="A265:F265"/>
-    <mergeCell ref="G265:L265"/>
-    <mergeCell ref="M265:R265"/>
-    <mergeCell ref="S265:X265"/>
-    <mergeCell ref="Y265:AD265"/>
-    <mergeCell ref="A279:F279"/>
-    <mergeCell ref="G279:L279"/>
-    <mergeCell ref="M279:R279"/>
-    <mergeCell ref="S279:X279"/>
-    <mergeCell ref="Y279:AD279"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="G280:L280"/>
-    <mergeCell ref="M280:R280"/>
-    <mergeCell ref="S280:X280"/>
-    <mergeCell ref="Y280:AD280"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="G415:L415"/>
-    <mergeCell ref="M415:R415"/>
-    <mergeCell ref="S415:X415"/>
-    <mergeCell ref="Y415:AD415"/>
-    <mergeCell ref="A399:F399"/>
-    <mergeCell ref="G399:L399"/>
-    <mergeCell ref="M399:R399"/>
-    <mergeCell ref="S399:X399"/>
-    <mergeCell ref="Y399:AD399"/>
-    <mergeCell ref="A400:F400"/>
-    <mergeCell ref="G400:L400"/>
-    <mergeCell ref="M400:R400"/>
-    <mergeCell ref="S400:X400"/>
-    <mergeCell ref="Y400:AD400"/>
-    <mergeCell ref="A414:F414"/>
-    <mergeCell ref="G414:L414"/>
-    <mergeCell ref="M414:R414"/>
-    <mergeCell ref="S414:X414"/>
-    <mergeCell ref="Y414:AD414"/>
-    <mergeCell ref="A474:F474"/>
-    <mergeCell ref="G474:L474"/>
-    <mergeCell ref="M474:R474"/>
-    <mergeCell ref="S474:X474"/>
-    <mergeCell ref="Y474:AD474"/>
-    <mergeCell ref="A475:F475"/>
-    <mergeCell ref="G475:L475"/>
-    <mergeCell ref="M475:R475"/>
-    <mergeCell ref="S475:X475"/>
-    <mergeCell ref="Y475:AD475"/>
-    <mergeCell ref="A490:F490"/>
-    <mergeCell ref="G490:L490"/>
-    <mergeCell ref="M490:R490"/>
-    <mergeCell ref="S490:X490"/>
-    <mergeCell ref="Y490:AD490"/>
-    <mergeCell ref="A489:F489"/>
-    <mergeCell ref="G489:L489"/>
-    <mergeCell ref="M489:R489"/>
-    <mergeCell ref="S489:X489"/>
-    <mergeCell ref="Y489:AD489"/>
-    <mergeCell ref="A594:F594"/>
-    <mergeCell ref="G594:L594"/>
-    <mergeCell ref="M594:R594"/>
-    <mergeCell ref="S594:X594"/>
-    <mergeCell ref="Y594:AD594"/>
-    <mergeCell ref="A595:F595"/>
-    <mergeCell ref="G595:L595"/>
-    <mergeCell ref="M595:R595"/>
-    <mergeCell ref="S595:X595"/>
-    <mergeCell ref="Y595:AD595"/>
-    <mergeCell ref="A789:F789"/>
-    <mergeCell ref="G789:L789"/>
-    <mergeCell ref="M789:R789"/>
-    <mergeCell ref="S789:X789"/>
-    <mergeCell ref="Y789:AD789"/>
-    <mergeCell ref="A790:F790"/>
-    <mergeCell ref="G790:L790"/>
-    <mergeCell ref="M790:R790"/>
-    <mergeCell ref="S790:X790"/>
-    <mergeCell ref="Y790:AD790"/>
-    <mergeCell ref="Y234:AD234"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="G235:L235"/>
-    <mergeCell ref="M235:R235"/>
-    <mergeCell ref="S235:X235"/>
-    <mergeCell ref="Y235:AD235"/>
-    <mergeCell ref="A249:F249"/>
-    <mergeCell ref="G249:L249"/>
-    <mergeCell ref="M249:R249"/>
-    <mergeCell ref="S249:X249"/>
-    <mergeCell ref="Y249:AD249"/>
-    <mergeCell ref="Y294:AD294"/>
-    <mergeCell ref="A310:F310"/>
-    <mergeCell ref="G310:L310"/>
-    <mergeCell ref="M310:R310"/>
-    <mergeCell ref="S310:X310"/>
-    <mergeCell ref="Y310:AD310"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="G325:L325"/>
-    <mergeCell ref="M325:R325"/>
-    <mergeCell ref="S325:X325"/>
-    <mergeCell ref="Y325:AD325"/>
-    <mergeCell ref="A295:F295"/>
-    <mergeCell ref="G295:L295"/>
-    <mergeCell ref="M295:R295"/>
-    <mergeCell ref="S295:X295"/>
-    <mergeCell ref="Y295:AD295"/>
-    <mergeCell ref="A294:F294"/>
-    <mergeCell ref="G294:L294"/>
-    <mergeCell ref="M294:R294"/>
-    <mergeCell ref="S294:X294"/>
-    <mergeCell ref="A309:F309"/>
-    <mergeCell ref="G309:L309"/>
-    <mergeCell ref="M309:R309"/>
-    <mergeCell ref="S309:X309"/>
-    <mergeCell ref="A354:F354"/>
-    <mergeCell ref="G354:L354"/>
-    <mergeCell ref="M354:R354"/>
-    <mergeCell ref="S354:X354"/>
-    <mergeCell ref="Y354:AD354"/>
-    <mergeCell ref="A355:F355"/>
-    <mergeCell ref="G355:L355"/>
-    <mergeCell ref="M355:R355"/>
-    <mergeCell ref="S355:X355"/>
-    <mergeCell ref="Y355:AD355"/>
-    <mergeCell ref="A369:F369"/>
-    <mergeCell ref="G369:L369"/>
-    <mergeCell ref="M369:R369"/>
-    <mergeCell ref="S369:X369"/>
-    <mergeCell ref="Y369:AD369"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="G370:L370"/>
-    <mergeCell ref="M370:R370"/>
-    <mergeCell ref="S370:X370"/>
-    <mergeCell ref="Y370:AD370"/>
-    <mergeCell ref="A384:F384"/>
-    <mergeCell ref="G384:L384"/>
-    <mergeCell ref="M384:R384"/>
-    <mergeCell ref="S384:X384"/>
-    <mergeCell ref="Y384:AD384"/>
-    <mergeCell ref="A385:F385"/>
-    <mergeCell ref="G385:L385"/>
-    <mergeCell ref="M385:R385"/>
-    <mergeCell ref="S385:X385"/>
-    <mergeCell ref="Y385:AD385"/>
-    <mergeCell ref="A429:F429"/>
-    <mergeCell ref="G429:L429"/>
-    <mergeCell ref="M429:R429"/>
-    <mergeCell ref="S429:X429"/>
-    <mergeCell ref="Y429:AD429"/>
-    <mergeCell ref="A430:F430"/>
-    <mergeCell ref="G430:L430"/>
-    <mergeCell ref="M430:R430"/>
-    <mergeCell ref="S430:X430"/>
-    <mergeCell ref="Y430:AD430"/>
-    <mergeCell ref="A519:F519"/>
-    <mergeCell ref="G519:L519"/>
-    <mergeCell ref="M519:R519"/>
-    <mergeCell ref="S519:X519"/>
-    <mergeCell ref="Y519:AD519"/>
-    <mergeCell ref="A520:F520"/>
-    <mergeCell ref="G520:L520"/>
-    <mergeCell ref="M520:R520"/>
-    <mergeCell ref="S520:X520"/>
-    <mergeCell ref="Y520:AD520"/>
-    <mergeCell ref="A549:F549"/>
-    <mergeCell ref="G549:L549"/>
-    <mergeCell ref="M549:R549"/>
-    <mergeCell ref="S549:X549"/>
-    <mergeCell ref="Y549:AD549"/>
-    <mergeCell ref="A550:F550"/>
-    <mergeCell ref="G550:L550"/>
-    <mergeCell ref="M550:R550"/>
-    <mergeCell ref="S550:X550"/>
-    <mergeCell ref="Y550:AD550"/>
-    <mergeCell ref="A564:F564"/>
-    <mergeCell ref="G564:L564"/>
-    <mergeCell ref="M564:R564"/>
-    <mergeCell ref="S564:X564"/>
-    <mergeCell ref="Y564:AD564"/>
-    <mergeCell ref="A565:F565"/>
-    <mergeCell ref="G565:L565"/>
-    <mergeCell ref="M565:R565"/>
-    <mergeCell ref="S565:X565"/>
-    <mergeCell ref="Y565:AD565"/>
-    <mergeCell ref="A579:F579"/>
-    <mergeCell ref="G579:L579"/>
-    <mergeCell ref="M579:R579"/>
-    <mergeCell ref="S579:X579"/>
-    <mergeCell ref="Y579:AD579"/>
-    <mergeCell ref="A580:F580"/>
-    <mergeCell ref="G580:L580"/>
-    <mergeCell ref="M580:R580"/>
-    <mergeCell ref="S580:X580"/>
-    <mergeCell ref="Y580:AD580"/>
-    <mergeCell ref="A609:F609"/>
-    <mergeCell ref="G609:L609"/>
-    <mergeCell ref="M609:R609"/>
-    <mergeCell ref="S609:X609"/>
-    <mergeCell ref="Y609:AD609"/>
-    <mergeCell ref="A610:F610"/>
-    <mergeCell ref="G610:L610"/>
-    <mergeCell ref="M610:R610"/>
-    <mergeCell ref="S610:X610"/>
-    <mergeCell ref="Y610:AD610"/>
-    <mergeCell ref="A624:F624"/>
-    <mergeCell ref="G624:L624"/>
-    <mergeCell ref="M624:R624"/>
-    <mergeCell ref="S624:X624"/>
-    <mergeCell ref="Y624:AD624"/>
-    <mergeCell ref="A625:F625"/>
-    <mergeCell ref="G625:L625"/>
-    <mergeCell ref="M625:R625"/>
-    <mergeCell ref="S625:X625"/>
-    <mergeCell ref="Y625:AD625"/>
-    <mergeCell ref="A639:F639"/>
-    <mergeCell ref="G639:L639"/>
-    <mergeCell ref="M639:R639"/>
-    <mergeCell ref="S639:X639"/>
-    <mergeCell ref="Y639:AD639"/>
-    <mergeCell ref="A640:F640"/>
-    <mergeCell ref="G640:L640"/>
-    <mergeCell ref="M640:R640"/>
-    <mergeCell ref="S640:X640"/>
-    <mergeCell ref="Y640:AD640"/>
-    <mergeCell ref="A654:F654"/>
-    <mergeCell ref="G654:L654"/>
-    <mergeCell ref="M654:R654"/>
-    <mergeCell ref="S654:X654"/>
-    <mergeCell ref="Y654:AD654"/>
-    <mergeCell ref="A655:F655"/>
-    <mergeCell ref="G655:L655"/>
-    <mergeCell ref="M655:R655"/>
-    <mergeCell ref="S655:X655"/>
-    <mergeCell ref="Y655:AD655"/>
-    <mergeCell ref="A669:F669"/>
-    <mergeCell ref="G669:L669"/>
-    <mergeCell ref="M669:R669"/>
-    <mergeCell ref="S669:X669"/>
-    <mergeCell ref="Y669:AD669"/>
-    <mergeCell ref="A670:F670"/>
-    <mergeCell ref="G670:L670"/>
-    <mergeCell ref="M670:R670"/>
-    <mergeCell ref="S670:X670"/>
-    <mergeCell ref="Y670:AD670"/>
-    <mergeCell ref="A684:F684"/>
-    <mergeCell ref="G684:L684"/>
-    <mergeCell ref="M684:R684"/>
-    <mergeCell ref="S684:X684"/>
-    <mergeCell ref="Y684:AD684"/>
-    <mergeCell ref="A700:F700"/>
-    <mergeCell ref="G700:L700"/>
-    <mergeCell ref="M700:R700"/>
-    <mergeCell ref="S700:X700"/>
-    <mergeCell ref="Y700:AD700"/>
-    <mergeCell ref="A699:F699"/>
-    <mergeCell ref="G699:L699"/>
-    <mergeCell ref="M699:R699"/>
-    <mergeCell ref="S699:X699"/>
-    <mergeCell ref="Y699:AD699"/>
-    <mergeCell ref="A685:F685"/>
-    <mergeCell ref="G685:L685"/>
-    <mergeCell ref="M685:R685"/>
-    <mergeCell ref="S685:X685"/>
-    <mergeCell ref="Y685:AD685"/>
-    <mergeCell ref="A714:F714"/>
-    <mergeCell ref="G714:L714"/>
-    <mergeCell ref="M714:R714"/>
-    <mergeCell ref="S714:X714"/>
-    <mergeCell ref="Y714:AD714"/>
-    <mergeCell ref="A715:F715"/>
-    <mergeCell ref="G715:L715"/>
-    <mergeCell ref="M715:R715"/>
-    <mergeCell ref="S715:X715"/>
-    <mergeCell ref="Y715:AD715"/>
-    <mergeCell ref="A729:F729"/>
-    <mergeCell ref="G729:L729"/>
-    <mergeCell ref="M729:R729"/>
-    <mergeCell ref="S729:X729"/>
-    <mergeCell ref="Y729:AD729"/>
-    <mergeCell ref="A730:F730"/>
-    <mergeCell ref="G730:L730"/>
-    <mergeCell ref="M730:R730"/>
-    <mergeCell ref="S730:X730"/>
-    <mergeCell ref="Y730:AD730"/>
-    <mergeCell ref="A744:F744"/>
-    <mergeCell ref="G744:L744"/>
-    <mergeCell ref="M744:R744"/>
-    <mergeCell ref="S744:X744"/>
-    <mergeCell ref="Y744:AD744"/>
-    <mergeCell ref="A745:F745"/>
-    <mergeCell ref="G745:L745"/>
-    <mergeCell ref="M745:R745"/>
-    <mergeCell ref="S745:X745"/>
-    <mergeCell ref="Y745:AD745"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="G759:L759"/>
-    <mergeCell ref="M759:R759"/>
-    <mergeCell ref="S759:X759"/>
-    <mergeCell ref="Y759:AD759"/>
-    <mergeCell ref="A760:F760"/>
-    <mergeCell ref="G760:L760"/>
-    <mergeCell ref="M760:R760"/>
-    <mergeCell ref="S760:X760"/>
-    <mergeCell ref="Y760:AD760"/>
-    <mergeCell ref="A774:F774"/>
-    <mergeCell ref="G774:L774"/>
-    <mergeCell ref="M774:R774"/>
-    <mergeCell ref="S774:X774"/>
-    <mergeCell ref="Y774:AD774"/>
-    <mergeCell ref="A775:F775"/>
-    <mergeCell ref="G775:L775"/>
-    <mergeCell ref="M775:R775"/>
-    <mergeCell ref="S775:X775"/>
-    <mergeCell ref="Y775:AD775"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:R53"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AD53"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:R80"/>
+    <mergeCell ref="S80:X80"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="M102:R102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:L124"/>
+    <mergeCell ref="M124:R124"/>
+    <mergeCell ref="S124:X124"/>
+    <mergeCell ref="Y124:AD124"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="G179:L179"/>
+    <mergeCell ref="M179:R179"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="Y179:AD179"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="G202:L202"/>
+    <mergeCell ref="M202:R202"/>
+    <mergeCell ref="S202:X202"/>
+    <mergeCell ref="Y202:AD202"/>
+    <mergeCell ref="A187:F187"/>
+    <mergeCell ref="G187:L187"/>
+    <mergeCell ref="M187:R187"/>
+    <mergeCell ref="S187:X187"/>
+    <mergeCell ref="Y187:AD187"/>
+    <mergeCell ref="A188:F188"/>
+    <mergeCell ref="G188:L188"/>
+    <mergeCell ref="M188:R188"/>
+    <mergeCell ref="S188:X188"/>
+    <mergeCell ref="Y188:AD188"/>
+    <mergeCell ref="Y309:AD309"/>
+    <mergeCell ref="A324:F324"/>
+    <mergeCell ref="G324:L324"/>
+    <mergeCell ref="M324:R324"/>
+    <mergeCell ref="S324:X324"/>
+    <mergeCell ref="Y324:AD324"/>
+    <mergeCell ref="A340:F340"/>
+    <mergeCell ref="G340:L340"/>
+    <mergeCell ref="M340:R340"/>
+    <mergeCell ref="S340:X340"/>
+    <mergeCell ref="Y340:AD340"/>
+    <mergeCell ref="A339:F339"/>
+    <mergeCell ref="G339:L339"/>
+    <mergeCell ref="M339:R339"/>
+    <mergeCell ref="S339:X339"/>
+    <mergeCell ref="Y339:AD339"/>
+    <mergeCell ref="A444:F444"/>
+    <mergeCell ref="G444:L444"/>
+    <mergeCell ref="M444:R444"/>
+    <mergeCell ref="S444:X444"/>
+    <mergeCell ref="Y444:AD444"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="G460:L460"/>
+    <mergeCell ref="M460:R460"/>
+    <mergeCell ref="S460:X460"/>
+    <mergeCell ref="Y460:AD460"/>
+    <mergeCell ref="A445:F445"/>
+    <mergeCell ref="G445:L445"/>
+    <mergeCell ref="M445:R445"/>
+    <mergeCell ref="S445:X445"/>
+    <mergeCell ref="Y445:AD445"/>
+    <mergeCell ref="A459:F459"/>
+    <mergeCell ref="G459:L459"/>
+    <mergeCell ref="M459:R459"/>
+    <mergeCell ref="S459:X459"/>
+    <mergeCell ref="Y459:AD459"/>
+    <mergeCell ref="A504:F504"/>
+    <mergeCell ref="G504:L504"/>
+    <mergeCell ref="M504:R504"/>
+    <mergeCell ref="S504:X504"/>
+    <mergeCell ref="Y504:AD504"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="G505:L505"/>
+    <mergeCell ref="M505:R505"/>
+    <mergeCell ref="S505:X505"/>
+    <mergeCell ref="Y505:AD505"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="G534:L534"/>
+    <mergeCell ref="M534:R534"/>
+    <mergeCell ref="S534:X534"/>
+    <mergeCell ref="Y534:AD534"/>
+    <mergeCell ref="A535:F535"/>
+    <mergeCell ref="G535:L535"/>
+    <mergeCell ref="M535:R535"/>
+    <mergeCell ref="S535:X535"/>
+    <mergeCell ref="Y535:AD535"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39269,10 +39298,10 @@
       <c r="A1" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="208">
+      <c r="B1" s="211">
         <v>0.51</v>
       </c>
-      <c r="C1" s="208"/>
+      <c r="C1" s="211"/>
       <c r="D1" s="98"/>
       <c r="E1" s="107"/>
       <c r="F1" s="98"/>
@@ -39281,10 +39310,10 @@
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="208">
+      <c r="B2" s="211">
         <v>0.54</v>
       </c>
-      <c r="C2" s="208"/>
+      <c r="C2" s="211"/>
       <c r="D2" s="102"/>
       <c r="E2" s="107"/>
       <c r="F2" s="98"/>
@@ -39293,10 +39322,10 @@
       <c r="A3" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="208">
+      <c r="B3" s="211">
         <v>0.51</v>
       </c>
-      <c r="C3" s="208"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="102"/>
       <c r="E3" s="107"/>
       <c r="F3" s="98"/>
@@ -39305,10 +39334,10 @@
       <c r="A4" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="208">
+      <c r="B4" s="211">
         <v>0.54</v>
       </c>
-      <c r="C4" s="208"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="98"/>
       <c r="E4" s="107"/>
       <c r="F4" s="98"/>
@@ -39350,7 +39379,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="98"/>
-      <c r="E8" s="211">
+      <c r="E8" s="208">
         <f>((B4-B1)/B1)*100</f>
         <v>5.8823529411764754</v>
       </c>
@@ -39363,7 +39392,7 @@
       <c r="B9" s="209"/>
       <c r="C9" s="209"/>
       <c r="D9" s="98"/>
-      <c r="E9" s="211"/>
+      <c r="E9" s="208"/>
       <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -39403,7 +39432,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="98"/>
-      <c r="E13" s="211">
+      <c r="E13" s="208">
         <f>((B4-B1)/(B2-B3))*100</f>
         <v>100</v>
       </c>
@@ -39416,7 +39445,7 @@
       <c r="B14" s="209"/>
       <c r="C14" s="209"/>
       <c r="D14" s="98"/>
-      <c r="E14" s="211"/>
+      <c r="E14" s="208"/>
       <c r="F14" s="97"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -39456,7 +39485,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="98"/>
-      <c r="E18" s="211">
+      <c r="E18" s="208">
         <f>((B2-B4)/(B4-B1))*100</f>
         <v>0</v>
       </c>
@@ -39469,7 +39498,7 @@
       <c r="B19" s="209"/>
       <c r="C19" s="209"/>
       <c r="D19" s="98"/>
-      <c r="E19" s="211"/>
+      <c r="E19" s="208"/>
       <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -39514,6 +39543,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -39521,12 +39556,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="114_{C59B5EEC-97BB-4403-A512-1BBDF44431D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0211F151-0D10-441B-95BA-AA253B455FDB}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="114_{C59B5EEC-97BB-4403-A512-1BBDF44431D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AB37D2D9-4328-4909-B0C8-C30489AA51FA}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="6315" windowWidth="27870" windowHeight="9885" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{B6C51BFD-1DEA-4255-AF06-56BC33E33424}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTION" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="287">
   <si>
     <t>Pillar</t>
   </si>
@@ -3074,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273FF4-5FCD-4372-8768-52A2FA893172}">
   <dimension ref="A1:AD803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R255" sqref="R255"/>
+    <sheetView topLeftCell="F238" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H291" sqref="H291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13676,7 +13676,9 @@
       <c r="P252" s="92"/>
       <c r="Q252" s="92"/>
       <c r="R252" s="93"/>
-      <c r="S252" s="90"/>
+      <c r="S252" s="90" t="s">
+        <v>239</v>
+      </c>
       <c r="T252" s="91"/>
       <c r="U252" s="92"/>
       <c r="V252" s="92"/>
@@ -13714,7 +13716,9 @@
       <c r="P253" s="92"/>
       <c r="Q253" s="92"/>
       <c r="R253" s="93"/>
-      <c r="S253" s="90"/>
+      <c r="S253" s="90" t="s">
+        <v>259</v>
+      </c>
       <c r="T253" s="91"/>
       <c r="U253" s="92"/>
       <c r="V253" s="92"/>
@@ -13752,7 +13756,9 @@
       <c r="P254" s="92"/>
       <c r="Q254" s="92"/>
       <c r="R254" s="93"/>
-      <c r="S254" s="90"/>
+      <c r="S254" s="90" t="s">
+        <v>10</v>
+      </c>
       <c r="T254" s="91"/>
       <c r="U254" s="92"/>
       <c r="V254" s="92"/>
@@ -13790,7 +13796,9 @@
       <c r="P255" s="92"/>
       <c r="Q255" s="92"/>
       <c r="R255" s="93"/>
-      <c r="S255" s="90"/>
+      <c r="S255" s="90" t="s">
+        <v>28</v>
+      </c>
       <c r="T255" s="91"/>
       <c r="U255" s="92"/>
       <c r="V255" s="92"/>
@@ -36735,10 +36743,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1730B555-17C4-4D71-B0CF-5EA2C5243D66}">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37659,7 +37667,7 @@
       <c r="K32" s="204"/>
       <c r="L32" s="205"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="115" t="s">
         <v>121</v>
       </c>
@@ -37697,7 +37705,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="131">
         <v>43906</v>
       </c>
@@ -37738,7 +37746,7 @@
         <v>-3.9199999999999982</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="139">
         <v>43906</v>
       </c>
@@ -37779,7 +37787,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="139">
         <v>43907</v>
       </c>
@@ -37820,7 +37828,7 @@
         <v>-2755.78</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="139">
         <v>43908</v>
       </c>
@@ -37861,7 +37869,7 @@
         <v>-1916.46</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="139">
         <v>43913</v>
       </c>
@@ -37903,7 +37911,7 @@
       </c>
       <c r="N38" s="180"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="139">
         <v>43913</v>
       </c>
@@ -37944,7 +37952,7 @@
         <v>529.99</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="139">
         <v>43915</v>
       </c>
@@ -37985,7 +37993,7 @@
         <v>30.06</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="139">
         <v>43915</v>
       </c>
@@ -38026,7 +38034,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="139">
         <v>43916</v>
       </c>
@@ -38067,7 +38075,7 @@
         <v>40.32</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="139">
         <v>43920</v>
       </c>
@@ -38108,7 +38116,7 @@
         <v>71.330000000000013</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="139">
         <v>43920</v>
       </c>
@@ -38149,7 +38157,7 @@
         <v>115.3</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="173"/>
       <c r="B45" s="174"/>
       <c r="C45" s="175"/>
@@ -38172,7 +38180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="121" t="s">
         <v>138</v>
       </c>
@@ -38203,8 +38211,8 @@
         <v>-3212.3499999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="203">
         <v>43922</v>
       </c>
@@ -38219,10 +38227,6 @@
       <c r="J48" s="204"/>
       <c r="K48" s="204"/>
       <c r="L48" s="205"/>
-      <c r="N48" s="206" t="s">
-        <v>191</v>
-      </c>
-      <c r="O48" s="207"/>
     </row>
     <row r="49" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="115" t="s">
@@ -38261,13 +38265,6 @@
       <c r="L49" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="N49" s="149" t="s">
-        <v>167</v>
-      </c>
-      <c r="O49" s="150">
-        <f>H50</f>
-        <v>1.92</v>
-      </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="131">
@@ -38309,196 +38306,165 @@
         <f>SUM(H50*I50)-F50-E50-J50</f>
         <v>-119.87</v>
       </c>
-      <c r="N50" s="151" t="s">
-        <v>168</v>
-      </c>
-      <c r="O50" s="170">
-        <f>I50</f>
-        <v>2500</v>
-      </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="139"/>
-      <c r="B51" s="129"/>
-      <c r="C51" s="128"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="75"/>
+      <c r="A51" s="173"/>
+      <c r="B51" s="174"/>
+      <c r="C51" s="175"/>
+      <c r="D51" s="176"/>
+      <c r="E51" s="177"/>
       <c r="F51" s="76">
-        <f t="shared" ref="F51:F61" si="20">C51*D51</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="127"/>
+        <f t="shared" ref="F51" si="20">C51*D51</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="73"/>
       <c r="H51" s="128"/>
       <c r="I51" s="74"/>
       <c r="J51" s="140"/>
       <c r="K51" s="113" t="e">
-        <f t="shared" ref="K51:K53" si="21">L51/F51</f>
+        <f t="shared" ref="K51" si="21">L51/F51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L51" s="77">
-        <f t="shared" ref="L51:L53" si="22">SUM(H51*I51)-F51-E51-J51</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="153" t="s">
-        <v>169</v>
-      </c>
-      <c r="O51" s="154" t="b">
+        <f t="shared" ref="L51" si="22">SUM(H51*I51)-F51-E51-J51</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="139"/>
-      <c r="B52" s="129"/>
-      <c r="C52" s="128"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="76">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="127"/>
-      <c r="H52" s="128"/>
-      <c r="I52" s="74"/>
-      <c r="J52" s="140"/>
-      <c r="K52" s="113" t="e">
-        <f t="shared" si="21"/>
+      <c r="A52" s="121" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="122"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="124" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="125">
+        <f>SUM(E50:E51)</f>
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="F52" s="126"/>
+      <c r="G52" s="123"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="124" t="s">
+        <v>139</v>
+      </c>
+      <c r="J52" s="125">
+        <f>SUM(J50:J51)</f>
+        <v>9.92</v>
+      </c>
+      <c r="K52" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="L52" s="82">
+        <f>SUM(L50:L51)</f>
+        <v>-119.87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="203">
+        <v>43952</v>
+      </c>
+      <c r="B54" s="204"/>
+      <c r="C54" s="204"/>
+      <c r="D54" s="204"/>
+      <c r="E54" s="204"/>
+      <c r="F54" s="204"/>
+      <c r="G54" s="204"/>
+      <c r="H54" s="204"/>
+      <c r="I54" s="204"/>
+      <c r="J54" s="204"/>
+      <c r="K54" s="204"/>
+      <c r="L54" s="205"/>
+      <c r="N54" s="206" t="s">
+        <v>191</v>
+      </c>
+      <c r="O54" s="207"/>
+    </row>
+    <row r="55" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="116" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="117" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="119" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="G55" s="115" t="s">
+        <v>126</v>
+      </c>
+      <c r="H55" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="I55" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="J55" s="120" t="s">
+        <v>128</v>
+      </c>
+      <c r="K55" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="L55" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="N55" s="149" t="s">
+        <v>167</v>
+      </c>
+      <c r="O55" s="150">
+        <f>H56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="131"/>
+      <c r="B56" s="179"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="135"/>
+      <c r="F56" s="136">
+        <f>C56*D56</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="137"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="138"/>
+      <c r="K56" s="112" t="e">
+        <f>L56/F56</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L52" s="77">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="139"/>
-      <c r="B53" s="129"/>
-      <c r="C53" s="171"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="76">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="127"/>
-      <c r="H53" s="128"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="140"/>
-      <c r="K53" s="113" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L53" s="77">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="155" t="s">
-        <v>170</v>
-      </c>
-      <c r="O53" s="156">
-        <f>O49*O50</f>
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="139"/>
-      <c r="B54" s="129"/>
-      <c r="C54" s="128"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="76">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="127"/>
-      <c r="H54" s="128"/>
-      <c r="I54" s="74"/>
-      <c r="J54" s="140"/>
-      <c r="K54" s="113" t="e">
-        <f>L54/F54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L54" s="77">
-        <f>SUM(H54*I54)-F54-E54-J54</f>
-        <v>0</v>
-      </c>
-      <c r="N54" s="157" t="s">
-        <v>171</v>
-      </c>
-      <c r="O54" s="159">
-        <f>IF(O53&gt;10000, O53*8%/100, 8)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="139"/>
-      <c r="B55" s="129"/>
-      <c r="C55" s="128"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="76">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="127"/>
-      <c r="H55" s="128"/>
-      <c r="I55" s="74"/>
-      <c r="J55" s="140"/>
-      <c r="K55" s="113" t="e">
-        <f t="shared" ref="K55:K61" si="23">L55/F55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L55" s="77">
-        <f>SUM(H55*I55)-F55-E55-J55</f>
-        <v>0</v>
-      </c>
-      <c r="N55" s="157" t="s">
-        <v>172</v>
-      </c>
-      <c r="O55" s="159">
-        <f>O54*6%</f>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="139"/>
-      <c r="B56" s="129"/>
-      <c r="C56" s="128"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="76">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="127"/>
-      <c r="H56" s="128"/>
-      <c r="I56" s="74"/>
-      <c r="J56" s="140"/>
-      <c r="K56" s="113" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L56" s="77">
-        <f t="shared" ref="L56:L59" si="24">SUM(H56*I56)-F56-E56-J56</f>
-        <v>0</v>
-      </c>
-      <c r="N56" s="157" t="s">
-        <v>169</v>
-      </c>
-      <c r="O56" s="159">
-        <f>IF(O51=TRUE,CEILING(O53,1000)/1000,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L56" s="80">
+        <f>SUM(H56*I56)-F56-E56-J56</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="O56" s="170">
+        <f>I56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="139"/>
       <c r="B57" s="129"/>
       <c r="C57" s="128"/>
       <c r="D57" s="74"/>
       <c r="E57" s="75"/>
       <c r="F57" s="76">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="F57:F67" si="23">C57*D57</f>
         <v>0</v>
       </c>
       <c r="G57" s="127"/>
@@ -38506,29 +38472,28 @@
       <c r="I57" s="74"/>
       <c r="J57" s="140"/>
       <c r="K57" s="113" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="K57:K59" si="24">L57/F57</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L57" s="77">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="157" t="s">
-        <v>173</v>
-      </c>
-      <c r="O57" s="159">
-        <f>O53*0.03%</f>
-        <v>1.44</v>
+        <f t="shared" ref="L57:L59" si="25">SUM(H57*I57)-F57-E57-J57</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="153" t="s">
+        <v>169</v>
+      </c>
+      <c r="O57" s="154" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="139"/>
-      <c r="B58" s="130"/>
+      <c r="B58" s="129"/>
       <c r="C58" s="128"/>
       <c r="D58" s="74"/>
       <c r="E58" s="75"/>
       <c r="F58" s="76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G58" s="127"/>
@@ -38536,29 +38501,24 @@
       <c r="I58" s="74"/>
       <c r="J58" s="140"/>
       <c r="K58" s="113" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L58" s="77">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="160" t="s">
-        <v>174</v>
-      </c>
-      <c r="O58" s="161">
-        <f>ROUNDUP(SUM(O54:O57),2)</f>
-        <v>9.92</v>
-      </c>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="72"/>
+      <c r="O58" s="72"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="139"/>
-      <c r="B59" s="130"/>
-      <c r="C59" s="128"/>
+      <c r="B59" s="129"/>
+      <c r="C59" s="171"/>
       <c r="D59" s="74"/>
       <c r="E59" s="75"/>
       <c r="F59" s="76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G59" s="127"/>
@@ -38566,22 +38526,29 @@
       <c r="I59" s="74"/>
       <c r="J59" s="140"/>
       <c r="K59" s="113" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L59" s="77">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="155" t="s">
+        <v>170</v>
+      </c>
+      <c r="O59" s="156">
+        <f>O55*O56</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="139"/>
       <c r="B60" s="129"/>
-      <c r="C60" s="175"/>
-      <c r="D60" s="176"/>
-      <c r="E60" s="177"/>
+      <c r="C60" s="128"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="75"/>
       <c r="F60" s="76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G60" s="127"/>
@@ -38589,511 +38556,253 @@
       <c r="I60" s="74"/>
       <c r="J60" s="140"/>
       <c r="K60" s="113" t="e">
+        <f>L60/F60</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L60" s="77">
+        <f>SUM(H60*I60)-F60-E60-J60</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="157" t="s">
+        <v>171</v>
+      </c>
+      <c r="O60" s="159">
+        <f>IF(O59&gt;10000, O59*8%/100, 8)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="139"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="128"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="76">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L60" s="77">
-        <f t="shared" ref="L60:L61" si="25">SUM(H60*I60)-F60-E60-J60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="173"/>
-      <c r="B61" s="174"/>
-      <c r="C61" s="175"/>
-      <c r="D61" s="176"/>
-      <c r="E61" s="177"/>
-      <c r="F61" s="76">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="73"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="127"/>
       <c r="H61" s="128"/>
       <c r="I61" s="74"/>
       <c r="J61" s="140"/>
       <c r="K61" s="113" t="e">
+        <f t="shared" ref="K61:K67" si="26">L61/F61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L61" s="77">
+        <f>SUM(H61*I61)-F61-E61-J61</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="O61" s="159">
+        <f>O60*6%</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="139"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="128"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="76">
         <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="127"/>
+      <c r="H62" s="128"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="140"/>
+      <c r="K62" s="113" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L61" s="77">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="121" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" s="122"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="124" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" s="125">
-        <f>SUM(E50:E61)</f>
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="F62" s="126"/>
-      <c r="G62" s="123"/>
-      <c r="H62" s="123"/>
-      <c r="I62" s="124" t="s">
-        <v>139</v>
-      </c>
-      <c r="J62" s="125">
-        <f>SUM(J50:J61)</f>
-        <v>9.92</v>
-      </c>
-      <c r="K62" s="79" t="s">
-        <v>140</v>
-      </c>
-      <c r="L62" s="82">
-        <f>SUM(L50:L61)</f>
-        <v>-119.87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="L62" s="77">
+        <f t="shared" ref="L62:L65" si="27">SUM(H62*I62)-F62-E62-J62</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="157" t="s">
+        <v>169</v>
+      </c>
+      <c r="O62" s="159">
+        <f>IF(O57=TRUE,CEILING(O59,1000)/1000,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="139"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="128"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="76">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="127"/>
+      <c r="H63" s="128"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="140"/>
+      <c r="K63" s="113" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L63" s="77">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="157" t="s">
+        <v>173</v>
+      </c>
+      <c r="O63" s="159">
+        <f>O59*0.03%</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="64" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="203">
-        <v>43952</v>
-      </c>
-      <c r="B64" s="204"/>
-      <c r="C64" s="204"/>
-      <c r="D64" s="204"/>
-      <c r="E64" s="204"/>
-      <c r="F64" s="204"/>
-      <c r="G64" s="204"/>
-      <c r="H64" s="204"/>
-      <c r="I64" s="204"/>
-      <c r="J64" s="204"/>
-      <c r="K64" s="204"/>
-      <c r="L64" s="205"/>
-      <c r="N64" s="206" t="s">
-        <v>191</v>
-      </c>
-      <c r="O64" s="207"/>
-    </row>
-    <row r="65" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="115" t="s">
-        <v>121</v>
-      </c>
-      <c r="B65" s="116" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" s="117" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="F65" s="118" t="s">
-        <v>232</v>
-      </c>
-      <c r="G65" s="115" t="s">
-        <v>126</v>
-      </c>
-      <c r="H65" s="118" t="s">
-        <v>127</v>
-      </c>
-      <c r="I65" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="J65" s="120" t="s">
-        <v>128</v>
-      </c>
-      <c r="K65" s="83" t="s">
-        <v>129</v>
-      </c>
-      <c r="L65" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="N65" s="149" t="s">
-        <v>167</v>
-      </c>
-      <c r="O65" s="150">
-        <f>H66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="131"/>
-      <c r="B66" s="179"/>
-      <c r="C66" s="133"/>
-      <c r="D66" s="134"/>
-      <c r="E66" s="135"/>
-      <c r="F66" s="136">
-        <f>C66*D66</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="137"/>
-      <c r="H66" s="133"/>
-      <c r="I66" s="134"/>
-      <c r="J66" s="138"/>
-      <c r="K66" s="112" t="e">
-        <f>L66/F66</f>
+      <c r="A64" s="139"/>
+      <c r="B64" s="130"/>
+      <c r="C64" s="128"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="76">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="127"/>
+      <c r="H64" s="128"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="140"/>
+      <c r="K64" s="113" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L66" s="80">
-        <f>SUM(H66*I66)-F66-E66-J66</f>
-        <v>0</v>
-      </c>
-      <c r="N66" s="151" t="s">
-        <v>168</v>
-      </c>
-      <c r="O66" s="170">
-        <f>I66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="139"/>
-      <c r="B67" s="129"/>
-      <c r="C67" s="128"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="75"/>
+      <c r="L64" s="77">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="160" t="s">
+        <v>174</v>
+      </c>
+      <c r="O64" s="161">
+        <f>ROUNDUP(SUM(O60:O63),2)</f>
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="139"/>
+      <c r="B65" s="130"/>
+      <c r="C65" s="128"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="76">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="127"/>
+      <c r="H65" s="128"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="140"/>
+      <c r="K65" s="113" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L65" s="77">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="139"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="175"/>
+      <c r="D66" s="176"/>
+      <c r="E66" s="177"/>
+      <c r="F66" s="76">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="127"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="140"/>
+      <c r="K66" s="113" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L66" s="77">
+        <f t="shared" ref="L66:L67" si="28">SUM(H66*I66)-F66-E66-J66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="173"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="175"/>
+      <c r="D67" s="176"/>
+      <c r="E67" s="177"/>
       <c r="F67" s="76">
-        <f t="shared" ref="F67:F77" si="26">C67*D67</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="127"/>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="73"/>
       <c r="H67" s="128"/>
       <c r="I67" s="74"/>
       <c r="J67" s="140"/>
       <c r="K67" s="113" t="e">
-        <f t="shared" ref="K67:K69" si="27">L67/F67</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L67" s="77">
-        <f t="shared" ref="L67:L69" si="28">SUM(H67*I67)-F67-E67-J67</f>
-        <v>0</v>
-      </c>
-      <c r="N67" s="153" t="s">
-        <v>169</v>
-      </c>
-      <c r="O67" s="154" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="139"/>
-      <c r="B68" s="129"/>
-      <c r="C68" s="128"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="76">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="127"/>
-      <c r="H68" s="128"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="140"/>
-      <c r="K68" s="113" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L68" s="77">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N68" s="72"/>
-      <c r="O68" s="72"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="139"/>
-      <c r="B69" s="129"/>
-      <c r="C69" s="171"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="76">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="127"/>
-      <c r="H69" s="128"/>
-      <c r="I69" s="74"/>
-      <c r="J69" s="140"/>
-      <c r="K69" s="113" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L69" s="77">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N69" s="155" t="s">
-        <v>170</v>
-      </c>
-      <c r="O69" s="156">
-        <f>O65*O66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="139"/>
-      <c r="B70" s="129"/>
-      <c r="C70" s="128"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="76">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="127"/>
-      <c r="H70" s="128"/>
-      <c r="I70" s="74"/>
-      <c r="J70" s="140"/>
-      <c r="K70" s="113" t="e">
-        <f>L70/F70</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L70" s="77">
-        <f>SUM(H70*I70)-F70-E70-J70</f>
-        <v>0</v>
-      </c>
-      <c r="N70" s="157" t="s">
-        <v>171</v>
-      </c>
-      <c r="O70" s="159">
-        <f>IF(O69&gt;10000, O69*8%/100, 8)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="139"/>
-      <c r="B71" s="129"/>
-      <c r="C71" s="128"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="76">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="127"/>
-      <c r="H71" s="128"/>
-      <c r="I71" s="74"/>
-      <c r="J71" s="140"/>
-      <c r="K71" s="113" t="e">
-        <f t="shared" ref="K71:K77" si="29">L71/F71</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L71" s="77">
-        <f>SUM(H71*I71)-F71-E71-J71</f>
-        <v>0</v>
-      </c>
-      <c r="N71" s="157" t="s">
-        <v>172</v>
-      </c>
-      <c r="O71" s="159">
-        <f>O70*6%</f>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="139"/>
-      <c r="B72" s="129"/>
-      <c r="C72" s="128"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="76">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="127"/>
-      <c r="H72" s="128"/>
-      <c r="I72" s="74"/>
-      <c r="J72" s="140"/>
-      <c r="K72" s="113" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L72" s="77">
-        <f t="shared" ref="L72:L75" si="30">SUM(H72*I72)-F72-E72-J72</f>
-        <v>0</v>
-      </c>
-      <c r="N72" s="157" t="s">
-        <v>169</v>
-      </c>
-      <c r="O72" s="159">
-        <f>IF(O67=TRUE,CEILING(O69,1000)/1000,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="139"/>
-      <c r="B73" s="129"/>
-      <c r="C73" s="128"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="76">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="127"/>
-      <c r="H73" s="128"/>
-      <c r="I73" s="74"/>
-      <c r="J73" s="140"/>
-      <c r="K73" s="113" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L73" s="77">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N73" s="157" t="s">
-        <v>173</v>
-      </c>
-      <c r="O73" s="159">
-        <f>O69*0.03%</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="139"/>
-      <c r="B74" s="130"/>
-      <c r="C74" s="128"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="76">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="127"/>
-      <c r="H74" s="128"/>
-      <c r="I74" s="74"/>
-      <c r="J74" s="140"/>
-      <c r="K74" s="113" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L74" s="77">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N74" s="160" t="s">
-        <v>174</v>
-      </c>
-      <c r="O74" s="161">
-        <f>ROUNDUP(SUM(O70:O73),2)</f>
-        <v>8.48</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="139"/>
-      <c r="B75" s="130"/>
-      <c r="C75" s="128"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="76">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="127"/>
-      <c r="H75" s="128"/>
-      <c r="I75" s="74"/>
-      <c r="J75" s="140"/>
-      <c r="K75" s="113" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L75" s="77">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="139"/>
-      <c r="B76" s="129"/>
-      <c r="C76" s="175"/>
-      <c r="D76" s="176"/>
-      <c r="E76" s="177"/>
-      <c r="F76" s="76">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="127"/>
-      <c r="H76" s="128"/>
-      <c r="I76" s="74"/>
-      <c r="J76" s="140"/>
-      <c r="K76" s="113" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L76" s="77">
-        <f t="shared" ref="L76:L77" si="31">SUM(H76*I76)-F76-E76-J76</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="173"/>
-      <c r="B77" s="174"/>
-      <c r="C77" s="175"/>
-      <c r="D77" s="176"/>
-      <c r="E77" s="177"/>
-      <c r="F77" s="76">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="73"/>
-      <c r="H77" s="128"/>
-      <c r="I77" s="74"/>
-      <c r="J77" s="140"/>
-      <c r="K77" s="113" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L77" s="77">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="121" t="s">
+    </row>
+    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="B78" s="122"/>
-      <c r="C78" s="123"/>
-      <c r="D78" s="124" t="s">
+      <c r="B68" s="122"/>
+      <c r="C68" s="123"/>
+      <c r="D68" s="124" t="s">
         <v>139</v>
       </c>
-      <c r="E78" s="125">
-        <f>SUM(E66:E77)</f>
-        <v>0</v>
-      </c>
-      <c r="F78" s="126"/>
-      <c r="G78" s="123"/>
-      <c r="H78" s="123"/>
-      <c r="I78" s="124" t="s">
+      <c r="E68" s="125">
+        <f>SUM(E56:E67)</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="126"/>
+      <c r="G68" s="123"/>
+      <c r="H68" s="123"/>
+      <c r="I68" s="124" t="s">
         <v>139</v>
       </c>
-      <c r="J78" s="125">
-        <f>SUM(J66:J77)</f>
-        <v>0</v>
-      </c>
-      <c r="K78" s="79" t="s">
+      <c r="J68" s="125">
+        <f>SUM(J56:J67)</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="L78" s="82">
-        <f>SUM(L66:L77)</f>
+      <c r="L68" s="82">
+        <f>SUM(L56:L67)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A64:L64"/>
-    <mergeCell ref="N64:O64"/>
+  <mergeCells count="7">
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="N54:O54"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A32:L32"/>
     <mergeCell ref="A48:L48"/>
-    <mergeCell ref="N48:O48"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O51 O4 O67" xr:uid="{2F3E514A-4D83-47A4-A1CF-9046BABFBA52}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4 O57" xr:uid="{2F3E514A-4D83-47A4-A1CF-9046BABFBA52}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
   </dataValidations>
